--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{746C7D4F-4F99-8443-8E94-EC2F3A548D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E65F04-9223-48E5-A38F-6AE22B4E241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
 </workbook>
 </file>
 
@@ -139,13 +126,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -153,14 +140,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,7 +166,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -273,7 +260,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -281,7 +268,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -300,8 +287,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -332,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -372,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -478,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -620,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -637,21 +624,21 @@
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="6" max="10" width="13.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -669,7 +656,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
@@ -698,7 +685,7 @@
       <c r="U3" s="16"/>
       <c r="V3" s="14"/>
     </row>
-    <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="26" customHeight="1">
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
@@ -763,7 +750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
@@ -771,16 +758,16 @@
         <v>17</v>
       </c>
       <c r="D5" s="6">
-        <v>4.25</v>
+        <v>4.2399997711181641</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>6.4061323414891791E-2</v>
+        <v>6.4212414908100354E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>3.7223529411764711E-2</v>
+        <v>3.7311322768840582E-2</v>
       </c>
       <c r="H5" s="6">
         <v>4.8322246005583764</v>
@@ -829,7 +816,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -837,25 +824,25 @@
         <v>21</v>
       </c>
       <c r="D6" s="6">
-        <v>19.040000915527344</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="5">
-        <v>9.5697240539076661E-2</v>
+        <v>9.5906860304068017E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>4.1868881262945225E-2</v>
+        <v>4.1960592842102053E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>20.062970031656963</v>
+        <v>20.06467452390746</v>
       </c>
       <c r="I6" s="6">
-        <v>15.047227523742723</v>
+        <v>15.048505892930596</v>
       </c>
       <c r="J6" s="6">
-        <v>25.078712539571203</v>
+        <v>25.080843154884324</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>18</v>
@@ -895,7 +882,7 @@
         <v>Y</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
@@ -910,7 +897,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="6"/>
@@ -925,7 +912,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
@@ -940,7 +927,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="6"/>
@@ -955,7 +942,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="6"/>
@@ -970,7 +957,7 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="6"/>
@@ -985,7 +972,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
@@ -1000,7 +987,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
@@ -1015,7 +1002,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
@@ -1030,7 +1017,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
@@ -1045,7 +1032,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
@@ -1060,7 +1047,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -1075,7 +1062,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
@@ -1090,7 +1077,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -1105,7 +1092,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
@@ -1120,7 +1107,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
@@ -1135,7 +1122,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="6"/>
@@ -1150,7 +1137,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
@@ -1165,7 +1152,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
@@ -1180,7 +1167,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
@@ -1195,7 +1182,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
@@ -1210,7 +1197,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
@@ -1225,7 +1212,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:14">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
@@ -1240,7 +1227,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
@@ -1255,7 +1242,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:14">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
@@ -1270,7 +1257,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:14">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
@@ -1285,7 +1272,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
@@ -1300,7 +1287,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -1315,7 +1302,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
@@ -1330,7 +1317,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:14">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
@@ -1345,7 +1332,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
@@ -1360,7 +1347,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
@@ -1375,7 +1362,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
@@ -1390,7 +1377,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:14">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
@@ -1405,7 +1392,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:14">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
@@ -1420,7 +1407,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
@@ -1435,7 +1422,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
@@ -1450,7 +1437,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -1465,7 +1452,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
@@ -1480,7 +1467,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -1495,7 +1482,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
@@ -1510,7 +1497,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
@@ -1525,7 +1512,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="6"/>
@@ -1540,7 +1527,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
@@ -1555,7 +1542,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="6"/>
@@ -1570,7 +1557,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
@@ -1585,7 +1572,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
@@ -1600,7 +1587,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
@@ -1615,7 +1602,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
@@ -1630,7 +1617,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="6"/>
@@ -1645,7 +1632,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="6"/>
@@ -1660,7 +1647,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="6"/>
@@ -1675,7 +1662,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
@@ -1690,7 +1677,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6"/>
@@ -1705,7 +1692,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
@@ -1720,7 +1707,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6"/>
@@ -1735,7 +1722,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>
@@ -1750,7 +1737,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6"/>
@@ -1765,7 +1752,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="6"/>
@@ -1780,7 +1767,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="6"/>
@@ -1795,7 +1782,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="6"/>
@@ -1810,7 +1797,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
@@ -1825,7 +1812,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="6"/>
@@ -1840,7 +1827,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="6"/>
@@ -1855,7 +1842,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="6"/>
@@ -1870,7 +1857,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="6"/>
@@ -1885,7 +1872,7 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="6"/>
@@ -1900,7 +1887,7 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="6"/>
@@ -1915,7 +1902,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="6"/>
@@ -1930,7 +1917,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="6"/>
@@ -1945,7 +1932,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="6"/>
@@ -1960,7 +1947,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="6"/>
@@ -1975,7 +1962,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="6"/>
@@ -1990,7 +1977,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="6"/>
@@ -2005,7 +1992,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="6"/>
@@ -2020,7 +2007,7 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="6"/>
@@ -2035,7 +2022,7 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="6"/>
@@ -2050,7 +2037,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="6"/>
@@ -2065,7 +2052,7 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="6"/>
@@ -2080,7 +2067,7 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
@@ -2095,7 +2082,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="6"/>
@@ -2110,7 +2097,7 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="6"/>
@@ -2125,7 +2112,7 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="6"/>
@@ -2140,7 +2127,7 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="6"/>
@@ -2155,7 +2142,7 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="6"/>
@@ -2170,7 +2157,7 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>
@@ -2185,7 +2172,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="6"/>
@@ -2200,7 +2187,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="6"/>
@@ -2215,7 +2202,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="6"/>
@@ -2230,7 +2217,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="6"/>
@@ -2245,7 +2232,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="6"/>
@@ -2260,7 +2247,7 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="6"/>
@@ -2275,7 +2262,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="6"/>
@@ -2290,7 +2277,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="6"/>
@@ -2305,7 +2292,7 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="6"/>
@@ -2320,7 +2307,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="6"/>
@@ -2335,7 +2322,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="6"/>
@@ -2350,7 +2337,7 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="6"/>
@@ -2365,7 +2352,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="6"/>
@@ -2380,7 +2367,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="6"/>
@@ -2395,7 +2382,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="6"/>
@@ -2410,7 +2397,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="6"/>
@@ -2425,7 +2412,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="6"/>
@@ -2440,7 +2427,7 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="6"/>
@@ -2455,7 +2442,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="6"/>
@@ -2470,7 +2457,7 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="6"/>
@@ -2485,7 +2472,7 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="6"/>
@@ -2500,7 +2487,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="6"/>
@@ -2515,7 +2502,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="6"/>
@@ -2530,7 +2517,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="6"/>
@@ -2545,7 +2532,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="6"/>
@@ -2560,7 +2547,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="6"/>
@@ -2575,7 +2562,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="6"/>
@@ -2590,7 +2577,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="6"/>
@@ -2605,7 +2592,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="6"/>
@@ -2620,7 +2607,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="6"/>
@@ -2635,7 +2622,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="6"/>
@@ -2650,7 +2637,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="6"/>
@@ -2665,7 +2652,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="6"/>
@@ -2680,7 +2667,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="6"/>
@@ -2695,7 +2682,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="6"/>
@@ -2710,7 +2697,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="6"/>
@@ -2725,7 +2712,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="6"/>
@@ -2740,7 +2727,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="6"/>
@@ -2755,7 +2742,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="6"/>
@@ -2770,7 +2757,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="6"/>
@@ -2785,7 +2772,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="6"/>
@@ -2800,7 +2787,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="6"/>
@@ -2815,7 +2802,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="6"/>
@@ -2830,7 +2817,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="6"/>
@@ -2845,7 +2832,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="6"/>
@@ -2860,7 +2847,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="6"/>
@@ -2875,7 +2862,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="6"/>
@@ -2890,7 +2877,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="6"/>
@@ -2905,7 +2892,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="6"/>
@@ -2920,7 +2907,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="6"/>
@@ -2935,7 +2922,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="6"/>
@@ -2950,7 +2937,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="6"/>
@@ -2965,7 +2952,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="6"/>
@@ -2980,7 +2967,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="6"/>
@@ -2995,7 +2982,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="6"/>
@@ -3010,7 +2997,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="6"/>
@@ -3025,7 +3012,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="6"/>
@@ -3040,7 +3027,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="6"/>
@@ -3055,7 +3042,7 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="6"/>
@@ -3070,7 +3057,7 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="6"/>
@@ -3085,7 +3072,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="6"/>
@@ -3100,7 +3087,7 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="6"/>
@@ -3115,7 +3102,7 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="6"/>
@@ -3130,7 +3117,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="6"/>
@@ -3145,7 +3132,7 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="6"/>
@@ -3160,7 +3147,7 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="6"/>
@@ -3175,7 +3162,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="6"/>
@@ -3190,7 +3177,7 @@
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="6"/>
@@ -3205,7 +3192,7 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="6"/>
@@ -3220,7 +3207,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="6"/>
@@ -3235,7 +3222,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="6"/>
@@ -3250,7 +3237,7 @@
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="6"/>
@@ -3265,7 +3252,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="6"/>
@@ -3280,7 +3267,7 @@
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="6"/>
@@ -3295,7 +3282,7 @@
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="6"/>
@@ -3310,7 +3297,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="6"/>
@@ -3325,7 +3312,7 @@
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="6"/>
@@ -3340,7 +3327,7 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="6"/>
@@ -3355,7 +3342,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="6"/>
@@ -3370,7 +3357,7 @@
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="6"/>
@@ -3385,7 +3372,7 @@
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="6"/>
@@ -3400,7 +3387,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="6"/>
@@ -3415,7 +3402,7 @@
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="6"/>
@@ -3430,7 +3417,7 @@
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="6"/>
@@ -3445,7 +3432,7 @@
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="6"/>
@@ -3460,7 +3447,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="6"/>
@@ -3475,7 +3462,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="6"/>
@@ -3490,7 +3477,7 @@
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:14">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="6"/>
@@ -3505,7 +3492,7 @@
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:14">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="6"/>
@@ -3520,7 +3507,7 @@
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:14">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="6"/>
@@ -3535,7 +3522,7 @@
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:14">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="6"/>
@@ -3550,7 +3537,7 @@
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:14">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="6"/>
@@ -3565,7 +3552,7 @@
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:14">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="6"/>
@@ -3580,7 +3567,7 @@
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:14">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="6"/>
@@ -3595,7 +3582,7 @@
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:14">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="6"/>
@@ -3610,7 +3597,7 @@
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:14">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="6"/>
@@ -3625,7 +3612,7 @@
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:14">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="6"/>
@@ -3640,7 +3627,7 @@
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:14">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="6"/>
@@ -3655,7 +3642,7 @@
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:14">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="6"/>
@@ -3670,7 +3657,7 @@
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:14">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="6"/>
@@ -3685,7 +3672,7 @@
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:14">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="6"/>
@@ -3700,7 +3687,7 @@
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:14">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="6"/>
@@ -3715,7 +3702,7 @@
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:14">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="6"/>
@@ -3730,7 +3717,7 @@
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:14">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="6"/>
@@ -3745,7 +3732,7 @@
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:14">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="6"/>
@@ -3760,7 +3747,7 @@
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:14">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="6"/>
@@ -3775,7 +3762,7 @@
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:14">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="6"/>
@@ -3790,7 +3777,7 @@
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:14">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="6"/>
@@ -3805,604 +3792,604 @@
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:14">
       <c r="L201" s="11"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:14">
       <c r="L202" s="11"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:14">
       <c r="L203" s="11"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:14">
       <c r="L204" s="11"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:14">
       <c r="L205" s="11"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:14">
       <c r="L206" s="11"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:14">
       <c r="L207" s="11"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:14">
       <c r="L208" s="11"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="12:12">
       <c r="L209" s="11"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="12:12">
       <c r="L210" s="11"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="12:12">
       <c r="L211" s="11"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="12:12">
       <c r="L212" s="11"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="12:12">
       <c r="L213" s="11"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="12:12">
       <c r="L214" s="11"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="12:12">
       <c r="L215" s="11"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="12:12">
       <c r="L216" s="11"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="12:12">
       <c r="L217" s="11"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="12:12">
       <c r="L218" s="11"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="12:12">
       <c r="L219" s="11"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="12:12">
       <c r="L220" s="11"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="12:12">
       <c r="L221" s="11"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="12:12">
       <c r="L222" s="11"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="12:12">
       <c r="L223" s="11"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="12:12">
       <c r="L224" s="11"/>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="12:12">
       <c r="L225" s="11"/>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="12:12">
       <c r="L226" s="11"/>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="12:12">
       <c r="L227" s="11"/>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="12:12">
       <c r="L228" s="11"/>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="12:12">
       <c r="L229" s="11"/>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="12:12">
       <c r="L230" s="11"/>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="12:12">
       <c r="L231" s="11"/>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="12:12">
       <c r="L232" s="11"/>
     </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="12:12">
       <c r="L233" s="11"/>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="12:12">
       <c r="L234" s="11"/>
     </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="12:12">
       <c r="L235" s="11"/>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="12:12">
       <c r="L236" s="11"/>
     </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="12:12">
       <c r="L237" s="11"/>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="12:12">
       <c r="L238" s="11"/>
     </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="12:12">
       <c r="L239" s="11"/>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="12:12">
       <c r="L240" s="11"/>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="12:12">
       <c r="L241" s="11"/>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="12:12">
       <c r="L242" s="11"/>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="12:12">
       <c r="L243" s="11"/>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="12:12">
       <c r="L244" s="11"/>
     </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="12:12">
       <c r="L245" s="11"/>
     </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="12:12">
       <c r="L246" s="11"/>
     </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="12:12">
       <c r="L247" s="11"/>
     </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="12:12">
       <c r="L248" s="11"/>
     </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="12:12">
       <c r="L249" s="11"/>
     </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="12:12">
       <c r="L250" s="11"/>
     </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="12:12">
       <c r="L251" s="11"/>
     </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="12:12">
       <c r="L252" s="11"/>
     </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="12:12">
       <c r="L253" s="11"/>
     </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="12:12">
       <c r="L254" s="11"/>
     </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="12:12">
       <c r="L255" s="11"/>
     </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="12:12">
       <c r="L256" s="11"/>
     </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="12:12">
       <c r="L257" s="11"/>
     </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="12:12">
       <c r="L258" s="11"/>
     </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="12:12">
       <c r="L259" s="11"/>
     </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="12:12">
       <c r="L260" s="11"/>
     </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="12:12">
       <c r="L261" s="11"/>
     </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="12:12">
       <c r="L262" s="11"/>
     </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="12:12">
       <c r="L263" s="11"/>
     </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="12:12">
       <c r="L264" s="11"/>
     </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="12:12">
       <c r="L265" s="11"/>
     </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="12:12">
       <c r="L266" s="11"/>
     </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="12:12">
       <c r="L267" s="11"/>
     </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="12:12">
       <c r="L268" s="11"/>
     </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="12:12">
       <c r="L269" s="11"/>
     </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="12:12">
       <c r="L270" s="11"/>
     </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="12:12">
       <c r="L271" s="11"/>
     </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="12:12">
       <c r="L272" s="11"/>
     </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="12:12">
       <c r="L273" s="11"/>
     </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="12:12">
       <c r="L274" s="11"/>
     </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="12:12">
       <c r="L275" s="11"/>
     </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="12:12">
       <c r="L276" s="11"/>
     </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="12:12">
       <c r="L277" s="11"/>
     </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="12:12">
       <c r="L278" s="11"/>
     </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="12:12">
       <c r="L279" s="11"/>
     </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="12:12">
       <c r="L280" s="11"/>
     </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="12:12">
       <c r="L281" s="11"/>
     </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="12:12">
       <c r="L282" s="11"/>
     </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="12:12">
       <c r="L283" s="11"/>
     </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="12:12">
       <c r="L284" s="11"/>
     </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="12:12">
       <c r="L285" s="11"/>
     </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="12:12">
       <c r="L286" s="11"/>
     </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="12:12">
       <c r="L287" s="11"/>
     </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="12:12">
       <c r="L288" s="11"/>
     </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="12:12">
       <c r="L289" s="11"/>
     </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="12:12">
       <c r="L290" s="11"/>
     </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="12:12">
       <c r="L291" s="11"/>
     </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="12:12">
       <c r="L292" s="11"/>
     </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="12:12">
       <c r="L293" s="11"/>
     </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="12:12">
       <c r="L294" s="11"/>
     </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="12:12">
       <c r="L295" s="11"/>
     </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="12:12">
       <c r="L296" s="11"/>
     </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="12:12">
       <c r="L297" s="11"/>
     </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="12:12">
       <c r="L298" s="11"/>
     </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="12:12">
       <c r="L299" s="11"/>
     </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="12:12">
       <c r="L300" s="11"/>
     </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="12:12">
       <c r="L301" s="11"/>
     </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="12:12">
       <c r="L302" s="11"/>
     </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="12:12">
       <c r="L303" s="11"/>
     </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="12:12">
       <c r="L304" s="11"/>
     </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="12:12">
       <c r="L305" s="11"/>
     </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="12:12">
       <c r="L306" s="11"/>
     </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="12:12">
       <c r="L307" s="11"/>
     </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="12:12">
       <c r="L308" s="11"/>
     </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="12:12">
       <c r="L309" s="11"/>
     </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="12:12">
       <c r="L310" s="11"/>
     </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="12:12">
       <c r="L311" s="11"/>
     </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="12:12">
       <c r="L312" s="11"/>
     </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="12:12">
       <c r="L313" s="11"/>
     </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="12:12">
       <c r="L314" s="11"/>
     </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="12:12">
       <c r="L315" s="11"/>
     </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="12:12">
       <c r="L316" s="11"/>
     </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="12:12">
       <c r="L317" s="11"/>
     </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="12:12">
       <c r="L318" s="11"/>
     </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="12:12">
       <c r="L319" s="11"/>
     </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="12:12">
       <c r="L320" s="11"/>
     </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="12:12">
       <c r="L321" s="11"/>
     </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="12:12">
       <c r="L322" s="11"/>
     </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="12:12">
       <c r="L323" s="11"/>
     </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="12:12">
       <c r="L324" s="11"/>
     </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="12:12">
       <c r="L325" s="11"/>
     </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="12:12">
       <c r="L326" s="11"/>
     </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="12:12">
       <c r="L327" s="11"/>
     </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="12:12">
       <c r="L328" s="11"/>
     </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="12:12">
       <c r="L329" s="11"/>
     </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="12:12">
       <c r="L330" s="11"/>
     </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="12:12">
       <c r="L331" s="11"/>
     </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="12:12">
       <c r="L332" s="11"/>
     </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="12:12">
       <c r="L333" s="11"/>
     </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="12:12">
       <c r="L334" s="11"/>
     </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="12:12">
       <c r="L335" s="11"/>
     </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="12:12">
       <c r="L336" s="11"/>
     </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="12:12">
       <c r="L337" s="11"/>
     </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="12:12">
       <c r="L338" s="11"/>
     </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="12:12">
       <c r="L339" s="11"/>
     </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="12:12">
       <c r="L340" s="11"/>
     </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="12:12">
       <c r="L341" s="11"/>
     </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="12:12">
       <c r="L342" s="11"/>
     </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="12:12">
       <c r="L343" s="11"/>
     </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="12:12">
       <c r="L344" s="11"/>
     </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="12:12">
       <c r="L345" s="11"/>
     </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="12:12">
       <c r="L346" s="11"/>
     </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="12:12">
       <c r="L347" s="11"/>
     </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="12:12">
       <c r="L348" s="11"/>
     </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="12:12">
       <c r="L349" s="11"/>
     </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="12:12">
       <c r="L350" s="11"/>
     </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="12:12">
       <c r="L351" s="11"/>
     </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="12:12">
       <c r="L352" s="11"/>
     </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="12:12">
       <c r="L353" s="11"/>
     </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="12:12">
       <c r="L354" s="11"/>
     </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="12:12">
       <c r="L355" s="11"/>
     </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="12:12">
       <c r="L356" s="11"/>
     </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="12:12">
       <c r="L357" s="11"/>
     </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="12:12">
       <c r="L358" s="11"/>
     </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="12:12">
       <c r="L359" s="11"/>
     </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="12:12">
       <c r="L360" s="11"/>
     </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="12:12">
       <c r="L361" s="11"/>
     </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="12:12">
       <c r="L362" s="11"/>
     </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="12:12">
       <c r="L363" s="11"/>
     </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="12:12">
       <c r="L364" s="11"/>
     </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="12:12">
       <c r="L365" s="11"/>
     </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="12:12">
       <c r="L366" s="11"/>
     </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="12:12">
       <c r="L367" s="11"/>
     </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="12:12">
       <c r="L368" s="11"/>
     </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="12:12">
       <c r="L369" s="11"/>
     </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="12:12">
       <c r="L370" s="11"/>
     </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="12:12">
       <c r="L371" s="11"/>
     </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="12:12">
       <c r="L372" s="11"/>
     </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="12:12">
       <c r="L373" s="11"/>
     </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="12:12">
       <c r="L374" s="11"/>
     </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="12:12">
       <c r="L375" s="11"/>
     </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="12:12">
       <c r="L376" s="11"/>
     </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="12:12">
       <c r="L377" s="11"/>
     </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="12:12">
       <c r="L378" s="11"/>
     </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="12:12">
       <c r="L379" s="11"/>
     </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="12:12">
       <c r="L380" s="11"/>
     </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="12:12">
       <c r="L381" s="11"/>
     </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="12:12">
       <c r="L382" s="11"/>
     </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="12:12">
       <c r="L383" s="11"/>
     </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="12:12">
       <c r="L384" s="11"/>
     </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="12:12">
       <c r="L385" s="11"/>
     </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="12:12">
       <c r="L386" s="11"/>
     </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="12:12">
       <c r="L387" s="11"/>
     </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="12:12">
       <c r="L388" s="11"/>
     </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="12:12">
       <c r="L389" s="11"/>
     </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="12:12">
       <c r="L390" s="11"/>
     </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="12:12">
       <c r="L391" s="11"/>
     </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="12:12">
       <c r="L392" s="11"/>
     </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="12:12">
       <c r="L393" s="11"/>
     </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="12:12">
       <c r="L394" s="11"/>
     </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="12:12">
       <c r="L395" s="11"/>
     </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="12:12">
       <c r="L396" s="11"/>
     </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="12:12">
       <c r="L397" s="11"/>
     </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="12:12">
       <c r="L398" s="11"/>
     </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="12:12">
       <c r="L399" s="11"/>
     </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="12:12">
       <c r="L400" s="11"/>
     </row>
   </sheetData>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14E65F04-9223-48E5-A38F-6AE22B4E241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E5019E-40AF-46EA-A129-E8101F41FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Price Alert</t>
+  </si>
+  <si>
+    <t>0590.HK</t>
+  </si>
+  <si>
+    <t>六福珠宝</t>
+  </si>
+  <si>
+    <t>C0003</t>
   </si>
 </sst>
 </file>
@@ -752,64 +761,64 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6">
-        <v>4.2399997711181641</v>
+        <v>15.319999694824219</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>6.4212414908100354E-2</v>
+        <v>9.9008020330583923E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>3.7311322768840582E-2</v>
+        <v>8.8772847721365733E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>4.8322246005583764</v>
+        <v>21.960680514340723</v>
       </c>
       <c r="I5" s="6">
-        <v>3.6241684504187823</v>
+        <v>16.470510385755542</v>
       </c>
       <c r="J5" s="6">
-        <v>6.0402807506979705</v>
+        <v>27.450850642925904</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M5" s="7">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N5" s="7">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O5" s="5">
-        <v>0.66005868735054896</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P5" s="5">
-        <v>0.20403193785652382</v>
+        <v>0.12012374818624762</v>
       </c>
       <c r="Q5" s="5">
-        <v>7.0437342852983705E-5</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R5" s="5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="5">
+        <v>4.0883763120383568E-2</v>
+      </c>
+      <c r="T5" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="5">
-        <v>8.0000000000000004E-4</v>
-      </c>
       <c r="U5" s="5">
-        <v>9.5038937450074273E-2</v>
+        <v>7.7474362783882672E-2</v>
       </c>
       <c r="V5" s="4" t="str">
         <f>IF(D5&lt;=H5,"Y","")</f>
@@ -818,37 +827,37 @@
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="6">
-        <v>19</v>
+        <v>4.2399997711181641</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="5">
-        <v>9.5906860304068017E-2</v>
+        <v>6.4212414908100354E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>4.1960592842102053E-2</v>
+        <v>3.7311322768840582E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>20.06467452390746</v>
+        <v>4.8322246005583764</v>
       </c>
       <c r="I6" s="6">
-        <v>15.048505892930596</v>
+        <v>3.6241684504187823</v>
       </c>
       <c r="J6" s="6">
-        <v>25.080843154884324</v>
+        <v>6.0402807506979705</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>45591</v>
@@ -857,25 +866,25 @@
         <v>45716</v>
       </c>
       <c r="O6" s="5">
-        <v>0.40723441233977836</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P6" s="5">
-        <v>0.41258418422767756</v>
+        <v>0.20403193785652382</v>
       </c>
       <c r="Q6" s="5">
-        <v>4.6980230284597004E-2</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="R6" s="5">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S6" s="5">
         <v>0</v>
       </c>
       <c r="T6" s="5">
-        <v>9.0430154247230065E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="U6" s="5">
-        <v>0.12415815772322404</v>
+        <v>9.5038937450074273E-2</v>
       </c>
       <c r="V6" s="4" t="str">
         <f>IF(D6&lt;=H6,"Y","")</f>
@@ -883,19 +892,70 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
+        <v>19.059999465942383</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.560298331939425E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4.182764241094878E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>20.064261226605208</v>
+      </c>
+      <c r="I7" s="6">
+        <v>15.048195919953905</v>
+      </c>
+      <c r="J7" s="6">
+        <v>25.08032653325651</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="7">
+        <v>45591</v>
+      </c>
+      <c r="N7" s="7">
+        <v>45716</v>
+      </c>
+      <c r="O7">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P7">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q7">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>9.0430154247230065E-3</v>
+      </c>
+      <c r="U7">
+        <v>0.12415815772322404</v>
+      </c>
+      <c r="V7" t="str">
+        <f>IF(D7&lt;=H7,"Y","")</f>
+        <v>Y</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4"/>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E5019E-40AF-46EA-A129-E8101F41FFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E181225C-C5F4-43A7-A326-CE8FD9D89F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -88,16 +88,10 @@
     <t>1910.HK</t>
   </si>
   <si>
-    <t>SAMSONITE INTERNATIONAL</t>
-  </si>
-  <si>
     <t>C0001</t>
   </si>
   <si>
     <t>COGS</t>
-  </si>
-  <si>
-    <t>Noncontrolling interests</t>
   </si>
   <si>
     <t>Cost Structure</t>
@@ -110,9 +104,6 @@
   </si>
   <si>
     <t>Interest</t>
-  </si>
-  <si>
-    <t>Operating Expenses - D&amp;A</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-tax Profit </t>
@@ -128,6 +119,17 @@
   </si>
   <si>
     <t>C0003</t>
+  </si>
+  <si>
+    <t>OPEX - D&amp;A</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority Interests</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMSONITE INTERNATIONAL</t>
   </si>
 </sst>
 </file>
@@ -253,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -284,7 +286,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,6 +302,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -629,22 +642,24 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11.1328125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.796875" customWidth="1"/>
+    <col min="15" max="20" width="12.796875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="8.796875" style="5"/>
+    <col min="22" max="22" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15" customHeight="1">
@@ -666,33 +681,33 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="14"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:22" ht="26" customHeight="1">
       <c r="B4" s="12" t="s">
@@ -734,49 +749,49 @@
       <c r="N4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="12" t="s">
+      <c r="O4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
-        <v>15.319999694824219</v>
+        <v>15.279999732971191</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>9.9008020330583923E-2</v>
+        <v>9.9267203387231592E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>8.8772847721365733E-2</v>
+        <v>8.9005237157523717E-2</v>
       </c>
       <c r="H5" s="6">
         <v>21.960680514340723</v>
@@ -791,7 +806,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7">
         <v>45593</v>
@@ -896,34 +911,34 @@
         <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6">
-        <v>19.059999465942383</v>
+        <v>19.040000915527344</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5">
-        <v>9.560298331939425E-2</v>
+        <v>9.5702167969560534E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>4.182764241094878E-2</v>
+        <v>4.1871037082702393E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>20.064261226605208</v>
+        <v>20.064003069700426</v>
       </c>
       <c r="I7" s="6">
-        <v>15.048195919953905</v>
+        <v>15.04800230227532</v>
       </c>
       <c r="J7" s="6">
-        <v>25.08032653325651</v>
+        <v>25.080003837125531</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>45591</v>
@@ -931,28 +946,28 @@
       <c r="N7" s="7">
         <v>45716</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <v>0.40723441233977836</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="5">
         <v>0.41258418422767756</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="5">
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="5">
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="5">
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="5">
         <v>9.0430154247230065E-3</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="5">
         <v>0.12415815772322404</v>
       </c>
-      <c r="V7" t="str">
+      <c r="V7" s="4" t="str">
         <f>IF(D7&lt;=H7,"Y","")</f>
         <v>Y</v>
       </c>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E181225C-C5F4-43A7-A326-CE8FD9D89F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3255D92-8EF9-43D8-B3CC-3A06806677E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SAMSONITE INTERNATIONAL</t>
+    <t>SAMSONITE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -642,15 +643,15 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="2.46484375" customWidth="1"/>
     <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="10" width="13.1328125" customWidth="1"/>
     <col min="11" max="11" width="11.1328125" customWidth="1"/>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3255D92-8EF9-43D8-B3CC-3A06806677E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055DCCE6-4BB5-4A18-AA9E-0C950E16E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$4</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -129,8 +129,34 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>0083.HK</t>
+  </si>
+  <si>
+    <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>C0005</t>
+  </si>
+  <si>
+    <t>0710.HK</t>
+  </si>
+  <si>
+    <t>京东方精电</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1766.HK</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>C0004</t>
+  </si>
+  <si>
     <t>SAMSONITE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -644,7 +670,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -777,246 +803,399 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6">
-        <v>15.279999732971191</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>9.9267203387231592E-2</v>
+        <v>2.1898034594622019E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>8.9005237157523717E-2</v>
+        <v>7.3047858415638281E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>21.960680514340723</v>
+        <v>9.5702119321181698</v>
       </c>
       <c r="I5" s="6">
-        <v>16.470510385755542</v>
+        <v>7.1776589490886273</v>
       </c>
       <c r="J5" s="6">
-        <v>27.450850642925904</v>
+        <v>11.962764915147712</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M5" s="7">
         <v>45593</v>
       </c>
       <c r="N5" s="7">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O5" s="5">
-        <v>0.72762956087193742</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P5" s="5">
-        <v>0.12012374818624762</v>
+        <v>0.10541928123217342</v>
       </c>
       <c r="Q5" s="5">
-        <v>3.8885650375487034E-3</v>
+        <v>0</v>
       </c>
       <c r="R5" s="5">
-        <v>0.03</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S5" s="5">
-        <v>4.0883763120383568E-2</v>
+        <v>0</v>
       </c>
       <c r="T5" s="5">
-        <v>0</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U5" s="5">
-        <v>7.7474362783882672E-2</v>
+        <v>0.25978322875071308</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f>IF(D5&lt;=H5,"Y","")</f>
-        <v>Y</v>
+        <f t="shared" ref="V5:V10" si="0">IF(D5&lt;=I5,"Y","")</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6">
-        <v>4.2399997711181641</v>
+        <v>15.039999961853027</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="5">
-        <v>6.4212414908100354E-2</v>
+        <v>0.10085125299846182</v>
       </c>
       <c r="G6" s="5">
-        <v>3.7311322768840582E-2</v>
+        <v>9.0425532144246021E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>4.8322246005583764</v>
+        <v>21.960680514340723</v>
       </c>
       <c r="I6" s="6">
-        <v>3.6241684504187823</v>
+        <v>16.470510385755542</v>
       </c>
       <c r="J6" s="6">
-        <v>6.0402807506979705</v>
+        <v>27.450850642925904</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N6" s="7">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O6" s="5">
-        <v>0.66005868735054896</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P6" s="5">
-        <v>0.20403193785652382</v>
+        <v>0.12012374818624762</v>
       </c>
       <c r="Q6" s="5">
-        <v>7.0437342852983705E-5</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R6" s="5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="5">
+        <v>4.0883763120383568E-2</v>
+      </c>
+      <c r="T6" s="5">
         <v>0</v>
       </c>
-      <c r="T6" s="5">
-        <v>8.0000000000000004E-4</v>
-      </c>
       <c r="U6" s="5">
-        <v>9.5038937450074273E-2</v>
+        <v>7.7474362783882672E-2</v>
       </c>
       <c r="V6" s="4" t="str">
-        <f>IF(D6&lt;=H6,"Y","")</f>
+        <f t="shared" si="0"/>
         <v>Y</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6">
-        <v>19.040000915527344</v>
+        <v>5.8299999237060547</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5">
-        <v>9.5702167969560534E-2</v>
+        <v>-8.7145753739257883E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>4.1871037082702393E-2</v>
+        <v>2.9588808998443482E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>20.064003069700426</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>15.04800230227532</v>
+        <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>25.080003837125531</v>
+        <v>0</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N7" s="7">
         <v>45716</v>
       </c>
       <c r="O7" s="5">
-        <v>0.40723441233977836</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P7" s="5">
-        <v>0.41258418422767756</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q7" s="5">
-        <v>4.6980230284597004E-2</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R7" s="5">
-        <v>0</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S7" s="5">
         <v>0</v>
       </c>
       <c r="T7" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="U7" s="5">
+        <v>-4.5701145085840549E-2</v>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4.3499999046325684</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6.2588650685565281E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.6367816889265589E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.8322246005583764</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.6241684504187823</v>
+      </c>
+      <c r="J8" s="6">
+        <v>6.0402807506979705</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>45591</v>
+      </c>
+      <c r="N8" s="7">
+        <v>45716</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.20403193785652382</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>7.0437342852983705E-5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="5">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="U8" s="5">
+        <v>9.5038937450074273E-2</v>
+      </c>
+      <c r="V8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.2300000190734863</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7.0494389531563742E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4.1698252949499179E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.4401302923869772</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.080097719290233</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.8001628654837214</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="7">
+        <v>45593</v>
+      </c>
+      <c r="N9" s="7">
+        <v>45716</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.78463553343209413</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.15995376005296372</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1.7206411836009534E-4</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>9.386945223960261E-6</v>
+      </c>
+      <c r="U9" s="5">
+        <v>5.5229255451358046E-2</v>
+      </c>
+      <c r="V9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6">
+        <v>19.079999923706055</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>9.5501949714525386E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4.1783438795651287E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>20.064089258810132</v>
+      </c>
+      <c r="I10" s="6">
+        <v>15.0480669441076</v>
+      </c>
+      <c r="J10" s="6">
+        <v>25.080111573512664</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="7">
+        <v>45591</v>
+      </c>
+      <c r="N10" s="7">
+        <v>45716</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
         <v>9.0430154247230065E-3</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U10" s="5">
         <v>0.12415815772322404</v>
       </c>
-      <c r="V7" s="4" t="str">
-        <f>IF(D7&lt;=H7,"Y","")</f>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="V10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4"/>
@@ -4469,6 +4648,7 @@
       <c r="L400" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="B4:V4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055DCCE6-4BB5-4A18-AA9E-0C950E16E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95BB161-2568-7C47-A5DA-F80B6F7DAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$4</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +170,27 @@
   </si>
   <si>
     <t>SAMSONITE</t>
+  </si>
+  <si>
+    <t>6601.HK</t>
+  </si>
+  <si>
+    <t>朝云集团</t>
+  </si>
+  <si>
+    <t>C0007</t>
+  </si>
+  <si>
+    <t>C0006</t>
+  </si>
+  <si>
+    <t>9959.HK</t>
+  </si>
+  <si>
+    <t>C0008</t>
+  </si>
+  <si>
+    <t>聯易融科技－Ｗ</t>
   </si>
 </sst>
 </file>
@@ -164,13 +198,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -178,14 +212,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +238,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -298,7 +332,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -306,7 +340,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -336,8 +370,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -368,9 +402,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -408,7 +442,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -514,7 +548,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,7 +690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,26 +704,26 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="10" width="13.1328125" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" customWidth="1"/>
+    <col min="6" max="10" width="13.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.796875" style="5" customWidth="1"/>
-    <col min="21" max="21" width="8.796875" style="5"/>
-    <col min="22" max="22" width="8.796875" style="4"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.83203125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" style="5"/>
+    <col min="22" max="22" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -707,7 +741,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
@@ -736,7 +770,7 @@
       <c r="U3" s="20"/>
       <c r="V3" s="16"/>
     </row>
-    <row r="4" spans="1:22" ht="26" customHeight="1">
+    <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
@@ -801,139 +835,139 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
-        <v>7.940000057220459</v>
+        <v>15.039999961853027</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>2.1898034594622019E-2</v>
+        <v>0.10085125299846182</v>
       </c>
       <c r="G5" s="5">
-        <v>7.3047858415638281E-2</v>
+        <v>9.0425532144246021E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>9.5702119321181698</v>
+        <v>21.960680514340723</v>
       </c>
       <c r="I5" s="6">
-        <v>7.1776589490886273</v>
+        <v>16.470510385755542</v>
       </c>
       <c r="J5" s="6">
-        <v>11.962764915147712</v>
+        <v>27.450850642925904</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7">
         <v>45593</v>
       </c>
       <c r="N5" s="7">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O5" s="5">
-        <v>0.60969766115231028</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P5" s="5">
-        <v>0.10541928123217342</v>
+        <v>0.12012374818624762</v>
       </c>
       <c r="Q5" s="5">
+        <v>3.8885650375487034E-3</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="S5" s="5">
+        <v>4.0883763120383568E-2</v>
+      </c>
+      <c r="T5" s="5">
         <v>0</v>
       </c>
-      <c r="R5" s="5">
-        <v>7.8722190530519116E-3</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>1.7227609811751282E-2</v>
-      </c>
       <c r="U5" s="5">
-        <v>0.25978322875071308</v>
+        <v>7.7474362783882672E-2</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f t="shared" ref="V5:V10" si="0">IF(D5&lt;=I5,"Y","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <f t="shared" ref="V5:V12" si="0">IF(D5&lt;=I5,"Y","")</f>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D6" s="6">
-        <v>15.039999961853027</v>
+        <v>2.0899999141693115</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="5">
-        <v>0.10085125299846182</v>
+        <v>2.8651591774052427E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>9.0425532144246021E-2</v>
+        <v>6.1466951004599722E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>21.960680514340723</v>
+        <v>1.8923394703503247</v>
       </c>
       <c r="I6" s="6">
-        <v>16.470510385755542</v>
+        <v>1.4192546027627435</v>
       </c>
       <c r="J6" s="6">
-        <v>27.450850642925904</v>
+        <v>2.3654243379379061</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M6" s="7">
         <v>45593</v>
       </c>
       <c r="N6" s="7">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O6" s="5">
-        <v>0.72762956087193742</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P6" s="5">
-        <v>0.12012374818624762</v>
+        <v>0.35722663926689097</v>
       </c>
       <c r="Q6" s="5">
-        <v>3.8885650375487034E-3</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="R6" s="5">
-        <v>0.03</v>
+        <v>2.4949477045225803E-2</v>
       </c>
       <c r="S6" s="5">
-        <v>4.0883763120383568E-2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="5">
-        <v>0</v>
+        <v>1.3611168709786237E-3</v>
       </c>
       <c r="U6" s="5">
-        <v>7.7474362783882672E-2</v>
+        <v>6.0422694644905017E-2</v>
       </c>
       <c r="V6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
@@ -947,10 +981,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5">
-        <v>-8.7145753739257883E-2</v>
+        <v>-8.7156408361236615E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>2.9588808998443482E-2</v>
+        <v>2.9592426588069504E-2</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -965,7 +999,7 @@
         <v>39</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M7" s="7">
         <v>45593</v>
@@ -999,73 +1033,73 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6">
-        <v>4.3499999046325684</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="5">
-        <v>6.2588650685565281E-2</v>
+        <v>2.1898034594622019E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>3.6367816889265589E-2</v>
+        <v>7.3047858415638281E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>4.8322246005583764</v>
+        <v>9.5702119321181698</v>
       </c>
       <c r="I8" s="6">
-        <v>3.6241684504187823</v>
+        <v>7.1776589490886273</v>
       </c>
       <c r="J8" s="6">
-        <v>6.0402807506979705</v>
+        <v>11.962764915147712</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N8" s="7">
         <v>45716</v>
       </c>
       <c r="O8" s="5">
-        <v>0.66005868735054896</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P8" s="5">
-        <v>0.20403193785652382</v>
+        <v>0.10541928123217342</v>
       </c>
       <c r="Q8" s="5">
-        <v>7.0437342852983705E-5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="5">
-        <v>0.04</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S8" s="5">
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <v>8.0000000000000004E-4</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U8" s="5">
-        <v>9.5038937450074273E-2</v>
+        <v>0.25978322875071308</v>
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
@@ -1079,19 +1113,19 @@
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>7.0494389531563742E-2</v>
+        <v>7.0503008322954627E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1698252949499179E-2</v>
+        <v>4.1703351065050284E-2</v>
       </c>
       <c r="H9" s="6">
-        <v>1.4401302923869772</v>
+        <v>1.4403063657262638</v>
       </c>
       <c r="I9" s="6">
-        <v>1.080097719290233</v>
+        <v>1.0802297742946978</v>
       </c>
       <c r="J9" s="6">
-        <v>1.8001628654837214</v>
+        <v>1.8003829571578298</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>39</v>
@@ -1131,103 +1165,205 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6">
-        <v>19.079999923706055</v>
+        <v>1.6000000238418579</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="5">
-        <v>9.5501949714525386E-2</v>
+        <v>-4.3643786376072059E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>4.1783438795651287E-2</v>
+        <v>6.8158913629865939E-2</v>
       </c>
       <c r="H10" s="6">
-        <v>20.064089258810132</v>
+        <v>1.3834541367975688</v>
       </c>
       <c r="I10" s="6">
-        <v>15.0480669441076</v>
+        <v>1.0375906025981765</v>
       </c>
       <c r="J10" s="6">
-        <v>25.080111573512664</v>
+        <v>1.7293176709969611</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N10" s="7">
         <v>45716</v>
       </c>
       <c r="O10" s="5">
-        <v>0.40723441233977836</v>
+        <v>0.39325092997635303</v>
       </c>
       <c r="P10" s="5">
-        <v>0.41258418422767756</v>
+        <v>0.24326660244029483</v>
       </c>
       <c r="Q10" s="5">
-        <v>4.6980230284597004E-2</v>
+        <v>9.5705744879944314E-3</v>
       </c>
       <c r="R10" s="5">
-        <v>0</v>
+        <v>0.57635255668591923</v>
       </c>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="5">
-        <v>9.0430154247230065E-3</v>
+        <v>2.3716125582531654E-3</v>
       </c>
       <c r="U10" s="5">
-        <v>0.12415815772322404</v>
+        <v>-0.22481227614881466</v>
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.3499999046325684</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6.2588650685565281E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3.6367816889265589E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4.8322246005583764</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3.6241684504187823</v>
+      </c>
+      <c r="J11" s="6">
+        <v>6.0402807506979705</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10">
+        <v>45591</v>
+      </c>
+      <c r="N11" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.20403193785652382</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>7.0437342852983705E-5</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="U11" s="5">
+        <v>9.5038937450074273E-2</v>
+      </c>
+      <c r="V11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6">
+        <v>19.079999923706055</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>9.550280927920822E-2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.1783814867222845E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>20.064269845516176</v>
+      </c>
+      <c r="I12" s="6">
+        <v>15.048202384137131</v>
+      </c>
+      <c r="J12" s="6">
+        <v>25.08033730689522</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="10">
+        <v>45591</v>
+      </c>
+      <c r="N12" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>9.0430154247230065E-3</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0.12415815772322404</v>
+      </c>
+      <c r="V12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="6"/>
@@ -1242,7 +1378,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
@@ -1257,7 +1393,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="6"/>
@@ -1272,7 +1408,7 @@
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
@@ -1287,7 +1423,7 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6"/>
@@ -1302,7 +1438,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -1317,7 +1453,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="6"/>
@@ -1332,7 +1468,7 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -1347,7 +1483,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
@@ -1362,7 +1498,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
@@ -1377,7 +1513,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="6"/>
@@ -1392,7 +1528,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
@@ -1407,7 +1543,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
@@ -1422,7 +1558,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
@@ -1437,7 +1573,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
@@ -1452,7 +1588,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
@@ -1467,7 +1603,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
@@ -1482,7 +1618,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
@@ -1497,7 +1633,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
@@ -1512,7 +1648,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
@@ -1527,7 +1663,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
@@ -1542,7 +1678,7 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -1557,7 +1693,7 @@
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
@@ -1572,7 +1708,7 @@
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
@@ -1587,7 +1723,7 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
@@ -1602,7 +1738,7 @@
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
@@ -1617,7 +1753,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
@@ -1632,7 +1768,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
@@ -1647,7 +1783,7 @@
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
@@ -1662,7 +1798,7 @@
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
@@ -1677,7 +1813,7 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
@@ -1692,7 +1828,7 @@
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -1707,7 +1843,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
@@ -1722,7 +1858,7 @@
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -1737,7 +1873,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
@@ -1752,7 +1888,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
@@ -1767,7 +1903,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="6"/>
@@ -1782,7 +1918,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
@@ -1797,7 +1933,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="6"/>
@@ -1812,7 +1948,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
@@ -1827,7 +1963,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
@@ -1842,7 +1978,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
@@ -1857,7 +1993,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
@@ -1872,7 +2008,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="6"/>
@@ -1887,7 +2023,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="6"/>
@@ -1902,7 +2038,7 @@
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="6"/>
@@ -1917,7 +2053,7 @@
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
@@ -1932,7 +2068,7 @@
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6"/>
@@ -1947,7 +2083,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
@@ -1962,7 +2098,7 @@
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6"/>
@@ -1977,7 +2113,7 @@
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>
@@ -1992,7 +2128,7 @@
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6"/>
@@ -2007,7 +2143,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="6"/>
@@ -2022,7 +2158,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="6"/>
@@ -2037,7 +2173,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="6"/>
@@ -2052,7 +2188,7 @@
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
@@ -2067,7 +2203,7 @@
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="6"/>
@@ -2082,7 +2218,7 @@
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="6"/>
@@ -2097,7 +2233,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="6"/>
@@ -2112,7 +2248,7 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="6"/>
@@ -2127,7 +2263,7 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="6"/>
@@ -2142,7 +2278,7 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="6"/>
@@ -2157,7 +2293,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="6"/>
@@ -2172,7 +2308,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="6"/>
@@ -2187,7 +2323,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="6"/>
@@ -2202,7 +2338,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="6"/>
@@ -2217,7 +2353,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="6"/>
@@ -2232,7 +2368,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="6"/>
@@ -2247,7 +2383,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="6"/>
@@ -2262,7 +2398,7 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="6"/>
@@ -2277,7 +2413,7 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="6"/>
@@ -2292,7 +2428,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="6"/>
@@ -2307,7 +2443,7 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="6"/>
@@ -2322,7 +2458,7 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
@@ -2337,7 +2473,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="6"/>
@@ -2352,7 +2488,7 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="6"/>
@@ -2367,7 +2503,7 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="6"/>
@@ -2382,7 +2518,7 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="6"/>
@@ -2397,7 +2533,7 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="6"/>
@@ -2412,7 +2548,7 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>
@@ -2427,7 +2563,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="6"/>
@@ -2442,7 +2578,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="6"/>
@@ -2457,7 +2593,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="6"/>
@@ -2472,7 +2608,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="6"/>
@@ -2487,7 +2623,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="6"/>
@@ -2502,7 +2638,7 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="6"/>
@@ -2517,7 +2653,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="6"/>
@@ -2532,7 +2668,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="6"/>
@@ -2547,7 +2683,7 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="6"/>
@@ -2562,7 +2698,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="6"/>
@@ -2577,7 +2713,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="6"/>
@@ -2592,7 +2728,7 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="6"/>
@@ -2607,7 +2743,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="6"/>
@@ -2622,7 +2758,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="6"/>
@@ -2637,7 +2773,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="6"/>
@@ -2652,7 +2788,7 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="6"/>
@@ -2667,7 +2803,7 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="6"/>
@@ -2682,7 +2818,7 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="6"/>
@@ -2697,7 +2833,7 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="6"/>
@@ -2712,7 +2848,7 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="6"/>
@@ -2727,7 +2863,7 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="6"/>
@@ -2742,7 +2878,7 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="6"/>
@@ -2757,7 +2893,7 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="6"/>
@@ -2772,7 +2908,7 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="6"/>
@@ -2787,7 +2923,7 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="6"/>
@@ -2802,7 +2938,7 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="6"/>
@@ -2817,7 +2953,7 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="6"/>
@@ -2832,7 +2968,7 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="6"/>
@@ -2847,7 +2983,7 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="6"/>
@@ -2862,7 +2998,7 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="6"/>
@@ -2877,7 +3013,7 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="6"/>
@@ -2892,7 +3028,7 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="6"/>
@@ -2907,7 +3043,7 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="6"/>
@@ -2922,7 +3058,7 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="6"/>
@@ -2937,7 +3073,7 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="6"/>
@@ -2952,7 +3088,7 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="6"/>
@@ -2967,7 +3103,7 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="6"/>
@@ -2982,7 +3118,7 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="6"/>
@@ -2997,7 +3133,7 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="6"/>
@@ -3012,7 +3148,7 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="6"/>
@@ -3027,7 +3163,7 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="6"/>
@@ -3042,7 +3178,7 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="6"/>
@@ -3057,7 +3193,7 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="6"/>
@@ -3072,7 +3208,7 @@
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="6"/>
@@ -3087,7 +3223,7 @@
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="6"/>
@@ -3102,7 +3238,7 @@
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="6"/>
@@ -3117,7 +3253,7 @@
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="6"/>
@@ -3132,7 +3268,7 @@
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="6"/>
@@ -3147,7 +3283,7 @@
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="6"/>
@@ -3162,7 +3298,7 @@
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="6"/>
@@ -3177,7 +3313,7 @@
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="6"/>
@@ -3192,7 +3328,7 @@
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="6"/>
@@ -3207,7 +3343,7 @@
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="6"/>
@@ -3222,7 +3358,7 @@
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="6"/>
@@ -3237,7 +3373,7 @@
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="6"/>
@@ -3252,7 +3388,7 @@
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="6"/>
@@ -3267,7 +3403,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="6"/>
@@ -3282,7 +3418,7 @@
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="6"/>
@@ -3297,7 +3433,7 @@
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="6"/>
@@ -3312,7 +3448,7 @@
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="6"/>
@@ -3327,7 +3463,7 @@
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="6"/>
@@ -3342,7 +3478,7 @@
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="6"/>
@@ -3357,7 +3493,7 @@
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="6"/>
@@ -3372,7 +3508,7 @@
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="6"/>
@@ -3387,7 +3523,7 @@
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="6"/>
@@ -3402,7 +3538,7 @@
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="6"/>
@@ -3417,7 +3553,7 @@
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="6"/>
@@ -3432,7 +3568,7 @@
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="6"/>
@@ -3447,7 +3583,7 @@
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="6"/>
@@ -3462,7 +3598,7 @@
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="6"/>
@@ -3477,7 +3613,7 @@
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="6"/>
@@ -3492,7 +3628,7 @@
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="6"/>
@@ -3507,7 +3643,7 @@
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="6"/>
@@ -3522,7 +3658,7 @@
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="6"/>
@@ -3537,7 +3673,7 @@
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="6"/>
@@ -3552,7 +3688,7 @@
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="6"/>
@@ -3567,7 +3703,7 @@
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
     </row>
-    <row r="169" spans="2:14">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="6"/>
@@ -3582,7 +3718,7 @@
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
     </row>
-    <row r="170" spans="2:14">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="6"/>
@@ -3597,7 +3733,7 @@
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
     </row>
-    <row r="171" spans="2:14">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="6"/>
@@ -3612,7 +3748,7 @@
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
     </row>
-    <row r="172" spans="2:14">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="6"/>
@@ -3627,7 +3763,7 @@
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
     </row>
-    <row r="173" spans="2:14">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="6"/>
@@ -3642,7 +3778,7 @@
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
     </row>
-    <row r="174" spans="2:14">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="6"/>
@@ -3657,7 +3793,7 @@
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
     </row>
-    <row r="175" spans="2:14">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="6"/>
@@ -3672,7 +3808,7 @@
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
     </row>
-    <row r="176" spans="2:14">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="6"/>
@@ -3687,7 +3823,7 @@
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
     </row>
-    <row r="177" spans="2:14">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="6"/>
@@ -3702,7 +3838,7 @@
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
     </row>
-    <row r="178" spans="2:14">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="6"/>
@@ -3717,7 +3853,7 @@
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
     </row>
-    <row r="179" spans="2:14">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="6"/>
@@ -3732,7 +3868,7 @@
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="6"/>
@@ -3747,7 +3883,7 @@
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
     </row>
-    <row r="181" spans="2:14">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="6"/>
@@ -3762,7 +3898,7 @@
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="6"/>
@@ -3777,7 +3913,7 @@
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="6"/>
@@ -3792,7 +3928,7 @@
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
     </row>
-    <row r="184" spans="2:14">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="6"/>
@@ -3807,7 +3943,7 @@
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
     </row>
-    <row r="185" spans="2:14">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="6"/>
@@ -3822,7 +3958,7 @@
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" spans="2:14">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="6"/>
@@ -3837,7 +3973,7 @@
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
     </row>
-    <row r="187" spans="2:14">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="6"/>
@@ -3852,7 +3988,7 @@
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
     </row>
-    <row r="188" spans="2:14">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="6"/>
@@ -3867,7 +4003,7 @@
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
     </row>
-    <row r="189" spans="2:14">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="6"/>
@@ -3882,7 +4018,7 @@
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
     </row>
-    <row r="190" spans="2:14">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="6"/>
@@ -3897,7 +4033,7 @@
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
     </row>
-    <row r="191" spans="2:14">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="6"/>
@@ -3912,7 +4048,7 @@
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
     </row>
-    <row r="192" spans="2:14">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="6"/>
@@ -3927,7 +4063,7 @@
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
     </row>
-    <row r="193" spans="2:14">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="6"/>
@@ -3942,7 +4078,7 @@
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
     </row>
-    <row r="194" spans="2:14">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="6"/>
@@ -3957,7 +4093,7 @@
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
     </row>
-    <row r="195" spans="2:14">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="6"/>
@@ -3972,7 +4108,7 @@
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
     </row>
-    <row r="196" spans="2:14">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="6"/>
@@ -3987,7 +4123,7 @@
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
     </row>
-    <row r="197" spans="2:14">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="6"/>
@@ -4002,7 +4138,7 @@
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
     </row>
-    <row r="198" spans="2:14">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="6"/>
@@ -4017,7 +4153,7 @@
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
     </row>
-    <row r="199" spans="2:14">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="6"/>
@@ -4032,7 +4168,7 @@
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
     </row>
-    <row r="200" spans="2:14">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="6"/>
@@ -4047,604 +4183,604 @@
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
     </row>
-    <row r="201" spans="2:14">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L201" s="11"/>
     </row>
-    <row r="202" spans="2:14">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L202" s="11"/>
     </row>
-    <row r="203" spans="2:14">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L203" s="11"/>
     </row>
-    <row r="204" spans="2:14">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L204" s="11"/>
     </row>
-    <row r="205" spans="2:14">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L205" s="11"/>
     </row>
-    <row r="206" spans="2:14">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L206" s="11"/>
     </row>
-    <row r="207" spans="2:14">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L207" s="11"/>
     </row>
-    <row r="208" spans="2:14">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L208" s="11"/>
     </row>
-    <row r="209" spans="12:12">
+    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L209" s="11"/>
     </row>
-    <row r="210" spans="12:12">
+    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L210" s="11"/>
     </row>
-    <row r="211" spans="12:12">
+    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L211" s="11"/>
     </row>
-    <row r="212" spans="12:12">
+    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L212" s="11"/>
     </row>
-    <row r="213" spans="12:12">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L213" s="11"/>
     </row>
-    <row r="214" spans="12:12">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L214" s="11"/>
     </row>
-    <row r="215" spans="12:12">
+    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L215" s="11"/>
     </row>
-    <row r="216" spans="12:12">
+    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L216" s="11"/>
     </row>
-    <row r="217" spans="12:12">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L217" s="11"/>
     </row>
-    <row r="218" spans="12:12">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L218" s="11"/>
     </row>
-    <row r="219" spans="12:12">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L219" s="11"/>
     </row>
-    <row r="220" spans="12:12">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L220" s="11"/>
     </row>
-    <row r="221" spans="12:12">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L221" s="11"/>
     </row>
-    <row r="222" spans="12:12">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L222" s="11"/>
     </row>
-    <row r="223" spans="12:12">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L223" s="11"/>
     </row>
-    <row r="224" spans="12:12">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L224" s="11"/>
     </row>
-    <row r="225" spans="12:12">
+    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L225" s="11"/>
     </row>
-    <row r="226" spans="12:12">
+    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L226" s="11"/>
     </row>
-    <row r="227" spans="12:12">
+    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L227" s="11"/>
     </row>
-    <row r="228" spans="12:12">
+    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L228" s="11"/>
     </row>
-    <row r="229" spans="12:12">
+    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L229" s="11"/>
     </row>
-    <row r="230" spans="12:12">
+    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L230" s="11"/>
     </row>
-    <row r="231" spans="12:12">
+    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L231" s="11"/>
     </row>
-    <row r="232" spans="12:12">
+    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L232" s="11"/>
     </row>
-    <row r="233" spans="12:12">
+    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L233" s="11"/>
     </row>
-    <row r="234" spans="12:12">
+    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L234" s="11"/>
     </row>
-    <row r="235" spans="12:12">
+    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L235" s="11"/>
     </row>
-    <row r="236" spans="12:12">
+    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L236" s="11"/>
     </row>
-    <row r="237" spans="12:12">
+    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L237" s="11"/>
     </row>
-    <row r="238" spans="12:12">
+    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L238" s="11"/>
     </row>
-    <row r="239" spans="12:12">
+    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L239" s="11"/>
     </row>
-    <row r="240" spans="12:12">
+    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L240" s="11"/>
     </row>
-    <row r="241" spans="12:12">
+    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L241" s="11"/>
     </row>
-    <row r="242" spans="12:12">
+    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L242" s="11"/>
     </row>
-    <row r="243" spans="12:12">
+    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L243" s="11"/>
     </row>
-    <row r="244" spans="12:12">
+    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L244" s="11"/>
     </row>
-    <row r="245" spans="12:12">
+    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L245" s="11"/>
     </row>
-    <row r="246" spans="12:12">
+    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L246" s="11"/>
     </row>
-    <row r="247" spans="12:12">
+    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L247" s="11"/>
     </row>
-    <row r="248" spans="12:12">
+    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L248" s="11"/>
     </row>
-    <row r="249" spans="12:12">
+    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L249" s="11"/>
     </row>
-    <row r="250" spans="12:12">
+    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L250" s="11"/>
     </row>
-    <row r="251" spans="12:12">
+    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L251" s="11"/>
     </row>
-    <row r="252" spans="12:12">
+    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L252" s="11"/>
     </row>
-    <row r="253" spans="12:12">
+    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L253" s="11"/>
     </row>
-    <row r="254" spans="12:12">
+    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L254" s="11"/>
     </row>
-    <row r="255" spans="12:12">
+    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L255" s="11"/>
     </row>
-    <row r="256" spans="12:12">
+    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L256" s="11"/>
     </row>
-    <row r="257" spans="12:12">
+    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L257" s="11"/>
     </row>
-    <row r="258" spans="12:12">
+    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L258" s="11"/>
     </row>
-    <row r="259" spans="12:12">
+    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L259" s="11"/>
     </row>
-    <row r="260" spans="12:12">
+    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L260" s="11"/>
     </row>
-    <row r="261" spans="12:12">
+    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L261" s="11"/>
     </row>
-    <row r="262" spans="12:12">
+    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L262" s="11"/>
     </row>
-    <row r="263" spans="12:12">
+    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L263" s="11"/>
     </row>
-    <row r="264" spans="12:12">
+    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L264" s="11"/>
     </row>
-    <row r="265" spans="12:12">
+    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L265" s="11"/>
     </row>
-    <row r="266" spans="12:12">
+    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L266" s="11"/>
     </row>
-    <row r="267" spans="12:12">
+    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L267" s="11"/>
     </row>
-    <row r="268" spans="12:12">
+    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L268" s="11"/>
     </row>
-    <row r="269" spans="12:12">
+    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L269" s="11"/>
     </row>
-    <row r="270" spans="12:12">
+    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L270" s="11"/>
     </row>
-    <row r="271" spans="12:12">
+    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L271" s="11"/>
     </row>
-    <row r="272" spans="12:12">
+    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L272" s="11"/>
     </row>
-    <row r="273" spans="12:12">
+    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L273" s="11"/>
     </row>
-    <row r="274" spans="12:12">
+    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L274" s="11"/>
     </row>
-    <row r="275" spans="12:12">
+    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L275" s="11"/>
     </row>
-    <row r="276" spans="12:12">
+    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L276" s="11"/>
     </row>
-    <row r="277" spans="12:12">
+    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L277" s="11"/>
     </row>
-    <row r="278" spans="12:12">
+    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L278" s="11"/>
     </row>
-    <row r="279" spans="12:12">
+    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L279" s="11"/>
     </row>
-    <row r="280" spans="12:12">
+    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L280" s="11"/>
     </row>
-    <row r="281" spans="12:12">
+    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L281" s="11"/>
     </row>
-    <row r="282" spans="12:12">
+    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L282" s="11"/>
     </row>
-    <row r="283" spans="12:12">
+    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L283" s="11"/>
     </row>
-    <row r="284" spans="12:12">
+    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L284" s="11"/>
     </row>
-    <row r="285" spans="12:12">
+    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L285" s="11"/>
     </row>
-    <row r="286" spans="12:12">
+    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L286" s="11"/>
     </row>
-    <row r="287" spans="12:12">
+    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L287" s="11"/>
     </row>
-    <row r="288" spans="12:12">
+    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L288" s="11"/>
     </row>
-    <row r="289" spans="12:12">
+    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L289" s="11"/>
     </row>
-    <row r="290" spans="12:12">
+    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L290" s="11"/>
     </row>
-    <row r="291" spans="12:12">
+    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L291" s="11"/>
     </row>
-    <row r="292" spans="12:12">
+    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L292" s="11"/>
     </row>
-    <row r="293" spans="12:12">
+    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L293" s="11"/>
     </row>
-    <row r="294" spans="12:12">
+    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L294" s="11"/>
     </row>
-    <row r="295" spans="12:12">
+    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L295" s="11"/>
     </row>
-    <row r="296" spans="12:12">
+    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L296" s="11"/>
     </row>
-    <row r="297" spans="12:12">
+    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L297" s="11"/>
     </row>
-    <row r="298" spans="12:12">
+    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L298" s="11"/>
     </row>
-    <row r="299" spans="12:12">
+    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L299" s="11"/>
     </row>
-    <row r="300" spans="12:12">
+    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L300" s="11"/>
     </row>
-    <row r="301" spans="12:12">
+    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L301" s="11"/>
     </row>
-    <row r="302" spans="12:12">
+    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L302" s="11"/>
     </row>
-    <row r="303" spans="12:12">
+    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L303" s="11"/>
     </row>
-    <row r="304" spans="12:12">
+    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L304" s="11"/>
     </row>
-    <row r="305" spans="12:12">
+    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L305" s="11"/>
     </row>
-    <row r="306" spans="12:12">
+    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L306" s="11"/>
     </row>
-    <row r="307" spans="12:12">
+    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L307" s="11"/>
     </row>
-    <row r="308" spans="12:12">
+    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L308" s="11"/>
     </row>
-    <row r="309" spans="12:12">
+    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L309" s="11"/>
     </row>
-    <row r="310" spans="12:12">
+    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L310" s="11"/>
     </row>
-    <row r="311" spans="12:12">
+    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L311" s="11"/>
     </row>
-    <row r="312" spans="12:12">
+    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L312" s="11"/>
     </row>
-    <row r="313" spans="12:12">
+    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L313" s="11"/>
     </row>
-    <row r="314" spans="12:12">
+    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L314" s="11"/>
     </row>
-    <row r="315" spans="12:12">
+    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L315" s="11"/>
     </row>
-    <row r="316" spans="12:12">
+    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L316" s="11"/>
     </row>
-    <row r="317" spans="12:12">
+    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L317" s="11"/>
     </row>
-    <row r="318" spans="12:12">
+    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L318" s="11"/>
     </row>
-    <row r="319" spans="12:12">
+    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L319" s="11"/>
     </row>
-    <row r="320" spans="12:12">
+    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L320" s="11"/>
     </row>
-    <row r="321" spans="12:12">
+    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L321" s="11"/>
     </row>
-    <row r="322" spans="12:12">
+    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L322" s="11"/>
     </row>
-    <row r="323" spans="12:12">
+    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L323" s="11"/>
     </row>
-    <row r="324" spans="12:12">
+    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L324" s="11"/>
     </row>
-    <row r="325" spans="12:12">
+    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L325" s="11"/>
     </row>
-    <row r="326" spans="12:12">
+    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L326" s="11"/>
     </row>
-    <row r="327" spans="12:12">
+    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L327" s="11"/>
     </row>
-    <row r="328" spans="12:12">
+    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L328" s="11"/>
     </row>
-    <row r="329" spans="12:12">
+    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L329" s="11"/>
     </row>
-    <row r="330" spans="12:12">
+    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L330" s="11"/>
     </row>
-    <row r="331" spans="12:12">
+    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L331" s="11"/>
     </row>
-    <row r="332" spans="12:12">
+    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L332" s="11"/>
     </row>
-    <row r="333" spans="12:12">
+    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L333" s="11"/>
     </row>
-    <row r="334" spans="12:12">
+    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L334" s="11"/>
     </row>
-    <row r="335" spans="12:12">
+    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L335" s="11"/>
     </row>
-    <row r="336" spans="12:12">
+    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L336" s="11"/>
     </row>
-    <row r="337" spans="12:12">
+    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L337" s="11"/>
     </row>
-    <row r="338" spans="12:12">
+    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L338" s="11"/>
     </row>
-    <row r="339" spans="12:12">
+    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L339" s="11"/>
     </row>
-    <row r="340" spans="12:12">
+    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L340" s="11"/>
     </row>
-    <row r="341" spans="12:12">
+    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L341" s="11"/>
     </row>
-    <row r="342" spans="12:12">
+    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L342" s="11"/>
     </row>
-    <row r="343" spans="12:12">
+    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L343" s="11"/>
     </row>
-    <row r="344" spans="12:12">
+    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L344" s="11"/>
     </row>
-    <row r="345" spans="12:12">
+    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L345" s="11"/>
     </row>
-    <row r="346" spans="12:12">
+    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L346" s="11"/>
     </row>
-    <row r="347" spans="12:12">
+    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L347" s="11"/>
     </row>
-    <row r="348" spans="12:12">
+    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L348" s="11"/>
     </row>
-    <row r="349" spans="12:12">
+    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L349" s="11"/>
     </row>
-    <row r="350" spans="12:12">
+    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L350" s="11"/>
     </row>
-    <row r="351" spans="12:12">
+    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L351" s="11"/>
     </row>
-    <row r="352" spans="12:12">
+    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L352" s="11"/>
     </row>
-    <row r="353" spans="12:12">
+    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L353" s="11"/>
     </row>
-    <row r="354" spans="12:12">
+    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L354" s="11"/>
     </row>
-    <row r="355" spans="12:12">
+    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L355" s="11"/>
     </row>
-    <row r="356" spans="12:12">
+    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L356" s="11"/>
     </row>
-    <row r="357" spans="12:12">
+    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L357" s="11"/>
     </row>
-    <row r="358" spans="12:12">
+    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L358" s="11"/>
     </row>
-    <row r="359" spans="12:12">
+    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L359" s="11"/>
     </row>
-    <row r="360" spans="12:12">
+    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L360" s="11"/>
     </row>
-    <row r="361" spans="12:12">
+    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L361" s="11"/>
     </row>
-    <row r="362" spans="12:12">
+    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L362" s="11"/>
     </row>
-    <row r="363" spans="12:12">
+    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L363" s="11"/>
     </row>
-    <row r="364" spans="12:12">
+    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L364" s="11"/>
     </row>
-    <row r="365" spans="12:12">
+    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L365" s="11"/>
     </row>
-    <row r="366" spans="12:12">
+    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L366" s="11"/>
     </row>
-    <row r="367" spans="12:12">
+    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L367" s="11"/>
     </row>
-    <row r="368" spans="12:12">
+    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L368" s="11"/>
     </row>
-    <row r="369" spans="12:12">
+    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L369" s="11"/>
     </row>
-    <row r="370" spans="12:12">
+    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L370" s="11"/>
     </row>
-    <row r="371" spans="12:12">
+    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L371" s="11"/>
     </row>
-    <row r="372" spans="12:12">
+    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L372" s="11"/>
     </row>
-    <row r="373" spans="12:12">
+    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L373" s="11"/>
     </row>
-    <row r="374" spans="12:12">
+    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L374" s="11"/>
     </row>
-    <row r="375" spans="12:12">
+    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L375" s="11"/>
     </row>
-    <row r="376" spans="12:12">
+    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L376" s="11"/>
     </row>
-    <row r="377" spans="12:12">
+    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L377" s="11"/>
     </row>
-    <row r="378" spans="12:12">
+    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L378" s="11"/>
     </row>
-    <row r="379" spans="12:12">
+    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L379" s="11"/>
     </row>
-    <row r="380" spans="12:12">
+    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L380" s="11"/>
     </row>
-    <row r="381" spans="12:12">
+    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L381" s="11"/>
     </row>
-    <row r="382" spans="12:12">
+    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L382" s="11"/>
     </row>
-    <row r="383" spans="12:12">
+    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L383" s="11"/>
     </row>
-    <row r="384" spans="12:12">
+    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L384" s="11"/>
     </row>
-    <row r="385" spans="12:12">
+    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L385" s="11"/>
     </row>
-    <row r="386" spans="12:12">
+    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L386" s="11"/>
     </row>
-    <row r="387" spans="12:12">
+    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L387" s="11"/>
     </row>
-    <row r="388" spans="12:12">
+    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L388" s="11"/>
     </row>
-    <row r="389" spans="12:12">
+    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L389" s="11"/>
     </row>
-    <row r="390" spans="12:12">
+    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L390" s="11"/>
     </row>
-    <row r="391" spans="12:12">
+    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L391" s="11"/>
     </row>
-    <row r="392" spans="12:12">
+    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L392" s="11"/>
     </row>
-    <row r="393" spans="12:12">
+    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L393" s="11"/>
     </row>
-    <row r="394" spans="12:12">
+    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L394" s="11"/>
     </row>
-    <row r="395" spans="12:12">
+    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L395" s="11"/>
     </row>
-    <row r="396" spans="12:12">
+    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L396" s="11"/>
     </row>
-    <row r="397" spans="12:12">
+    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L397" s="11"/>
     </row>
-    <row r="398" spans="12:12">
+    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L398" s="11"/>
     </row>
-    <row r="399" spans="12:12">
+    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L399" s="11"/>
     </row>
-    <row r="400" spans="12:12">
+    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L400" s="11"/>
     </row>
   </sheetData>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95BB161-2568-7C47-A5DA-F80B6F7DAEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07563925-373A-4740-9588-1A6075FA2B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$19</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -191,6 +191,57 @@
   </si>
   <si>
     <t>聯易融科技－Ｗ</t>
+  </si>
+  <si>
+    <t>0069.HK</t>
+  </si>
+  <si>
+    <t>SHANGRI-LA ASIA</t>
+  </si>
+  <si>
+    <t>C0011</t>
+  </si>
+  <si>
+    <t>0696.HK</t>
+  </si>
+  <si>
+    <t>中國民航信息網絡</t>
+  </si>
+  <si>
+    <t>C0009</t>
+  </si>
+  <si>
+    <t>0941.HK</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+  </si>
+  <si>
+    <t>C0010</t>
+  </si>
+  <si>
+    <t>1405.HK</t>
+  </si>
+  <si>
+    <t>達勢股份</t>
+  </si>
+  <si>
+    <t>0788.HK</t>
+  </si>
+  <si>
+    <t>中国铁塔</t>
+  </si>
+  <si>
+    <t>0027.HK</t>
+  </si>
+  <si>
+    <t>銀河娛樂</t>
+  </si>
+  <si>
+    <t>0268.HK</t>
+  </si>
+  <si>
+    <t>金蝶国际</t>
   </si>
 </sst>
 </file>
@@ -316,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -344,17 +395,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +411,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,7 +752,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -719,8 +767,7 @@
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="12.83203125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="5"/>
-    <col min="22" max="22" width="8.83203125" style="4"/>
+    <col min="21" max="22" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -742,33 +789,33 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="16"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
@@ -810,28 +857,28 @@
       <c r="N4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="V4" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -843,25 +890,25 @@
         <v>30</v>
       </c>
       <c r="D5" s="6">
-        <v>15.039999961853027</v>
+        <v>15.220000267028809</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <v>0.10085125299846182</v>
+        <v>9.9658529214060279E-2</v>
       </c>
       <c r="G5" s="5">
-        <v>9.0425532144246021E-2</v>
+        <v>8.9356108813360355E-2</v>
       </c>
       <c r="H5" s="6">
-        <v>21.960680514340723</v>
+        <v>21.249999999999996</v>
       </c>
       <c r="I5" s="6">
-        <v>16.470510385755542</v>
+        <v>15.937499999999996</v>
       </c>
       <c r="J5" s="6">
-        <v>27.450850642925904</v>
+        <v>26.562499999999996</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>18</v>
@@ -896,176 +943,176 @@
       <c r="U5" s="5">
         <v>7.7474362783882672E-2</v>
       </c>
-      <c r="V5" s="4" t="str">
-        <f t="shared" ref="V5:V12" si="0">IF(D5&lt;=I5,"Y","")</f>
-        <v>Y</v>
+      <c r="V5" s="5">
+        <f>IF(D5&lt;=H5,D5/I5-1,"")</f>
+        <v>-4.5019591088388267E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6">
-        <v>2.0899999141693115</v>
+        <v>5.4600000381469727</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="5">
-        <v>2.8651591774052427E-2</v>
+        <v>-3.4827755607560087E-2</v>
       </c>
       <c r="G6" s="5">
-        <v>6.1466951004599722E-2</v>
+        <v>3.6496962964132379E-2</v>
       </c>
       <c r="H6" s="6">
-        <v>1.8923394703503247</v>
+        <v>1.3650687977805334</v>
       </c>
       <c r="I6" s="6">
-        <v>1.4192546027627435</v>
+        <v>-4.69445783460535</v>
       </c>
       <c r="J6" s="6">
-        <v>2.3654243379379061</v>
+        <v>1.7063359972256666</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M6" s="7">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N6" s="7">
         <v>45716</v>
       </c>
       <c r="O6" s="5">
-        <v>0.55541924442229906</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P6" s="5">
-        <v>0.35722663926689097</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q6" s="5">
-        <v>6.208277497005729E-4</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R6" s="5">
-        <v>2.4949477045225803E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="5">
         <v>0</v>
       </c>
       <c r="T6" s="5">
-        <v>1.3611168709786237E-3</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
-        <v>6.0422694644905017E-2</v>
-      </c>
-      <c r="V6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>-5.4615858697631421E-2</v>
+      </c>
+      <c r="V6" s="5" t="str">
+        <f>IF(D6&lt;=H6,D6/I6-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
-        <v>5.8299999237060547</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="5">
-        <v>-8.7156408361236615E-2</v>
+        <v>2.1898034594622019E-2</v>
       </c>
       <c r="G7" s="5">
-        <v>2.9592426588069504E-2</v>
+        <v>7.3047858415638281E-2</v>
       </c>
       <c r="H7" s="6">
+        <v>10.491619631157537</v>
+      </c>
+      <c r="I7" s="6">
+        <v>7.8687147233681527</v>
+      </c>
+      <c r="J7" s="6">
+        <v>13.11452453894692</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="10">
+        <v>45593</v>
+      </c>
+      <c r="N7" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.60969766115231028</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.10541928123217342</v>
+      </c>
+      <c r="Q7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="7">
-        <v>45593</v>
-      </c>
-      <c r="N7" s="7">
-        <v>45716</v>
-      </c>
-      <c r="O7" s="5">
-        <v>0.8649634921177769</v>
-      </c>
-      <c r="P7" s="5">
-        <v>0.13052664506651043</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>2.3437755566327548E-3</v>
-      </c>
       <c r="R7" s="5">
-        <v>4.7067232344920495E-2</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S7" s="5">
         <v>0</v>
       </c>
       <c r="T7" s="5">
-        <v>8.0000000000000004E-4</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U7" s="5">
-        <v>-4.5701145085840549E-2</v>
-      </c>
-      <c r="V7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.25978322875071308</v>
+      </c>
+      <c r="V7" s="5">
+        <f>IF(D7&lt;=H7,D7/I7-1,"")</f>
+        <v>9.0593364174973434E-3</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6">
-        <v>7.940000057220459</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="5">
-        <v>2.1898034594622019E-2</v>
+        <v>-8.3961696362792604E-2</v>
       </c>
       <c r="G8" s="5">
-        <v>7.3047858415638281E-2</v>
+        <v>2.8507718279620824E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>9.5702119321181698</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6">
-        <v>7.1776589490886273</v>
+        <v>0</v>
       </c>
       <c r="J8" s="6">
-        <v>11.962764915147712</v>
+        <v>0</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>45593</v>
@@ -1074,277 +1121,277 @@
         <v>45716</v>
       </c>
       <c r="O8" s="5">
-        <v>0.60969766115231028</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P8" s="5">
-        <v>0.10541928123217342</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q8" s="5">
-        <v>0</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R8" s="5">
-        <v>7.8722190530519116E-3</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S8" s="5">
         <v>0</v>
       </c>
       <c r="T8" s="5">
-        <v>1.7227609811751282E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="U8" s="5">
-        <v>0.25978322875071308</v>
-      </c>
-      <c r="V8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>-4.5701145085840549E-2</v>
+      </c>
+      <c r="V8" s="5" t="str">
+        <f>IF(D8&lt;=H8,D8/I8-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D9" s="6">
-        <v>5.2300000190734863</v>
+        <v>11.460000038146973</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>7.0503008322954627E-2</v>
+        <v>3.7027442694347205E-2</v>
       </c>
       <c r="G9" s="5">
-        <v>4.1703351065050284E-2</v>
+        <v>1.5246282507901584E-2</v>
       </c>
       <c r="H9" s="6">
-        <v>1.4403063657262638</v>
+        <v>3.7938862837874514</v>
       </c>
       <c r="I9" s="6">
-        <v>1.0802297742946978</v>
+        <v>3.1403566955973634</v>
       </c>
       <c r="J9" s="6">
-        <v>1.8003829571578298</v>
+        <v>4.7423578547343146</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N9" s="7">
         <v>45716</v>
       </c>
       <c r="O9" s="5">
-        <v>0.78463553343209413</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P9" s="5">
-        <v>0.15995376005296372</v>
+        <v>0.17055682117844595</v>
       </c>
       <c r="Q9" s="5">
-        <v>0</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="R9" s="5">
-        <v>1.7206411836009534E-4</v>
+        <v>0.12357639997060962</v>
       </c>
       <c r="S9" s="5">
         <v>0</v>
       </c>
       <c r="T9" s="5">
-        <v>9.386945223960261E-6</v>
+        <v>0</v>
       </c>
       <c r="U9" s="5">
-        <v>5.5229255451358046E-2</v>
-      </c>
-      <c r="V9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>0.21708469029242794</v>
+      </c>
+      <c r="V9" s="5" t="str">
+        <f>IF(D9&lt;=H9,D9/I9-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D10" s="6">
-        <v>1.6000000238418579</v>
+        <v>71.449996948242188</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="5">
-        <v>-4.3643786376072059E-2</v>
+        <v>8.3410944993110026E-2</v>
       </c>
       <c r="G10" s="5">
-        <v>6.8158913629865939E-2</v>
+        <v>6.9509928323997605E-2</v>
       </c>
       <c r="H10" s="6">
-        <v>1.3834541367975688</v>
+        <v>62.682682604054058</v>
       </c>
       <c r="I10" s="6">
-        <v>1.0375906025981765</v>
+        <v>51.25923956169455</v>
       </c>
       <c r="J10" s="6">
-        <v>1.7293176709969611</v>
+        <v>78.353353255067574</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N10" s="7">
         <v>45716</v>
       </c>
       <c r="O10" s="5">
-        <v>0.39325092997635303</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>0.24326660244029483</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q10" s="5">
-        <v>9.5705744879944314E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R10" s="5">
-        <v>0.57635255668591923</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S10" s="5">
         <v>0</v>
       </c>
       <c r="T10" s="5">
-        <v>2.3716125582531654E-3</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U10" s="5">
-        <v>-0.22481227614881466</v>
-      </c>
-      <c r="V10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>0.15487427537057533</v>
+      </c>
+      <c r="V10" s="5" t="str">
+        <f>IF(D10&lt;=H10,D10/I10-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6">
-        <v>4.3499999046325684</v>
+        <v>71.650001525878906</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="5">
-        <v>6.2588650685565281E-2</v>
+        <v>-1.9516091381621328E-2</v>
       </c>
       <c r="G11" s="5">
-        <v>3.6367816889265589E-2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>4.8322246005583764</v>
+        <v>0.71721620741587877</v>
       </c>
       <c r="I11" s="6">
-        <v>3.6241684504187823</v>
+        <v>2.3445654606914053</v>
       </c>
       <c r="J11" s="6">
-        <v>6.0402807506979705</v>
+        <v>0.89652025926984846</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="10">
-        <v>45591</v>
+        <v>45603</v>
       </c>
       <c r="N11" s="10">
         <v>45716</v>
       </c>
       <c r="O11" s="5">
-        <v>0.66005868735054896</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P11" s="5">
-        <v>0.20403193785652382</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q11" s="5">
-        <v>7.0437342852983705E-5</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="R11" s="5">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="S11" s="5">
         <v>0</v>
       </c>
       <c r="T11" s="5">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="U11" s="5">
-        <v>9.5038937450074273E-2</v>
-      </c>
-      <c r="V11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <v>-7.3026634739724955E-2</v>
+      </c>
+      <c r="V11" s="5" t="str">
+        <f>IF(D11&lt;=H11,D11/I11-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D12" s="6">
-        <v>19.079999923706055</v>
+        <v>1.0399999618530273</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="5">
-        <v>9.550280927920822E-2</v>
+        <v>5.2235601396818376E-2</v>
       </c>
       <c r="G12" s="5">
-        <v>4.1783814867222845E-2</v>
+        <v>5.0703649791979784E-2</v>
       </c>
       <c r="H12" s="6">
-        <v>20.064269845516176</v>
+        <v>0.77546755660982691</v>
       </c>
       <c r="I12" s="6">
-        <v>15.048202384137131</v>
+        <v>0.58160066745737016</v>
       </c>
       <c r="J12" s="6">
-        <v>25.08033730689522</v>
+        <v>0.96933444576228367</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M12" s="10">
-        <v>45591</v>
+        <v>45603</v>
       </c>
       <c r="N12" s="10">
         <v>45716</v>
       </c>
       <c r="O12" s="5">
-        <v>0.40723441233977836</v>
+        <v>0.84573817400461659</v>
       </c>
       <c r="P12" s="5">
-        <v>0.41258418422767756</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <v>4.6980230284597004E-2</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R12" s="5">
         <v>0</v>
@@ -1353,122 +1400,479 @@
         <v>0</v>
       </c>
       <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0.12419023710495804</v>
+      </c>
+      <c r="V12" s="5" t="str">
+        <f>IF(D12&lt;=H12,D12/I12-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6">
+        <v>18.120000839233398</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.10058175009081401</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4.4005922511965403E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>20.068099514957382</v>
+      </c>
+      <c r="I13" s="6">
+        <v>15.051074636218036</v>
+      </c>
+      <c r="J13" s="6">
+        <v>25.085124393696727</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="10">
+        <v>45591</v>
+      </c>
+      <c r="N13" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
         <v>9.0430154247230065E-3</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U13" s="5">
         <v>0.12415815772322404</v>
       </c>
-      <c r="V12" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="V13" s="5">
+        <f>IF(D13&lt;=H13,D13/I13-1,"")</f>
+        <v>0.20390080291213719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5.3000001907348633</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.9663637111349527E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.12068532113542E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.8803346672266468</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2.1602510004199851</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3.6004183340333085</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="10">
+        <v>45593</v>
+      </c>
+      <c r="N14" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.78463553343209413</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.15995376005296372</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1.7206411836009534E-4</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>9.386945223960261E-6</v>
+      </c>
+      <c r="U14" s="5">
+        <v>5.5229255451358046E-2</v>
+      </c>
+      <c r="V14" s="5" t="str">
+        <f>IF(D14&lt;=H14,D14/I14-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-    </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="6">
+        <v>36.349998474121094</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.4602289751263124E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.3755158761725079E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8.3097639301095612</v>
+      </c>
+      <c r="I15" s="6">
+        <v>6.2546978483516424</v>
+      </c>
+      <c r="J15" s="6">
+        <v>10.387204912636951</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10">
+        <v>45603</v>
+      </c>
+      <c r="N15" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.47272944175123971</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.35112695227219692</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0.1461436059765634</v>
+      </c>
+      <c r="V15" s="5" t="str">
+        <f>IF(D15&lt;=H15,D15/I15-1,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.8500000238418579</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-3.7795784824797167E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5.9026034341940571E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.4617710015889351</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1.0963282511917014</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1.8272137519861689</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="10">
+        <v>45593</v>
+      </c>
+      <c r="N16" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.39325092997635303</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.24326660244029483</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>9.5705744879944314E-3</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.57635255668591923</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>2.3716125582531654E-3</v>
+      </c>
+      <c r="U16" s="5">
+        <v>-0.22481227614881466</v>
+      </c>
+      <c r="V16" s="5" t="str">
+        <f>IF(D16&lt;=H16,D16/I16-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="6">
+        <v>8.8900003433227539</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.6495074972595017E-2</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.16705230436777455</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.5559613075818799</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.3515749826693892</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1.9449516344773499</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="10">
+        <v>45603</v>
+      </c>
+      <c r="N17" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.35834792051449244</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.49473021389230248</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>3.8655956702792868E-3</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0.11305626992292581</v>
+      </c>
+      <c r="V17" s="5" t="str">
+        <f>IF(D17&lt;=H17,D17/I17-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4.619999885559082</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>7.1332289111726149E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3.4242425090635187E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3.7164006199323003</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2.787300464949225</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4.6455007749153756</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10">
+        <v>45591</v>
+      </c>
+      <c r="N18" s="10">
+        <v>45716</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.20403193785652382</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>7.0437342852983705E-5</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0.11503893745007428</v>
+      </c>
+      <c r="V18" s="5" t="str">
+        <f>IF(D18&lt;=H18,D18/I18-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.0499999523162842</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2.925008432738372E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6.2750911516893076E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>2.0786921315159166</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1.5590190986369374</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2.5983651643948957</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="7">
+        <v>45593</v>
+      </c>
+      <c r="N19" s="7">
+        <v>45716</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.55541924442229906</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.35722663926689097</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>6.208277497005729E-4</v>
+      </c>
+      <c r="R19" s="5">
+        <v>2.4949477045225803E-2</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1.3611168709786237E-3</v>
+      </c>
+      <c r="U19" s="5">
+        <v>6.0422694644905017E-2</v>
+      </c>
+      <c r="V19" s="5">
+        <f>IF(D19&lt;=H19,D19/I19-1,"")</f>
+        <v>0.31492933865185813</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -1483,7 +1887,7 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="6"/>
@@ -1498,7 +1902,7 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
@@ -1513,7 +1917,7 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="6"/>
@@ -1528,7 +1932,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
@@ -1543,7 +1947,7 @@
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
@@ -1558,7 +1962,7 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
@@ -1573,7 +1977,7 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
@@ -1588,7 +1992,7 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
@@ -1603,7 +2007,7 @@
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
@@ -1618,7 +2022,7 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
@@ -1633,7 +2037,7 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
@@ -1648,7 +2052,7 @@
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
@@ -4784,7 +5188,11 @@
       <c r="L400" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:V4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B4:V19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V19">
+      <sortCondition ref="V4:V19"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:J3"/>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2C40B0-C0CE-414A-9161-01800B859B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228432B-FBB3-CB40-8E0E-908FBE00044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$19</definedName>
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -229,6 +242,21 @@
   </si>
   <si>
     <t>金蝶国际</t>
+  </si>
+  <si>
+    <t>0468.HK</t>
+  </si>
+  <si>
+    <t>紛美包裝</t>
+  </si>
+  <si>
+    <t>0811.HK</t>
+  </si>
+  <si>
+    <t>新华文轩</t>
+  </si>
+  <si>
+    <t>C0012</t>
   </si>
 </sst>
 </file>
@@ -236,14 +264,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -251,14 +279,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -277,7 +305,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -368,14 +396,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,21 +416,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,10 +436,17 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -445,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -485,7 +517,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -591,7 +623,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -733,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -746,27 +778,28 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.265625" customWidth="1"/>
-    <col min="6" max="10" width="13.1328125" customWidth="1"/>
-    <col min="11" max="11" width="9.265625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="10" width="13.1640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.1328125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.796875" style="19" customWidth="1"/>
-    <col min="21" max="22" width="8.796875" style="19"/>
+    <col min="13" max="13" width="13.1640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.83203125" style="19" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -776,44 +809,44 @@
       <c r="E2" s="2"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="26" customHeight="1">
+    <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -832,13 +865,13 @@
       <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -878,57 +911,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D5" s="20">
-        <v>36.25</v>
+        <v>2.4200000762939453</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>2.4670157101194471E-2</v>
+        <v>3.3061954331849455E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>1.3793103448275862E-2</v>
+        <v>2.6941486762449191E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>8.3124244342939608</v>
+        <v>1.6393844740347783</v>
       </c>
       <c r="I5" s="20">
-        <v>6.2566776476023858</v>
+        <v>1.5156381859451658</v>
       </c>
       <c r="J5" s="20">
-        <v>10.390530542867451</v>
+        <v>2.0492305925434726</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M5" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N5" s="16">
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P5" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q5" s="19">
-        <v>0</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="R5" s="19">
-        <v>2.9999999999999995E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="19">
         <v>0</v>
@@ -937,278 +970,278 @@
         <v>0</v>
       </c>
       <c r="U5" s="19">
-        <v>0.1461436059765634</v>
+        <v>3.6194720593479307E-2</v>
       </c>
       <c r="V5" s="19" t="str">
-        <f>IF(D5&lt;=H5,D5/I5-1,"")</f>
+        <f t="shared" ref="V5:V21" si="0">IF(D5&lt;=H5,D5/I5-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D6" s="20">
-        <v>5.4099998474121094</v>
+        <v>15.260000228881836</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>-3.5157117761565583E-2</v>
+        <v>9.9397301343345928E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>3.6842110623716728E-2</v>
+        <v>8.9121885950302682E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>1.3675196900017779</v>
+        <v>21.249999999999996</v>
       </c>
       <c r="I6" s="20">
-        <v>-4.6845182230473581</v>
+        <v>15.937499999999996</v>
       </c>
       <c r="J6" s="20">
-        <v>1.7093996125022224</v>
+        <v>26.562499999999996</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="M6" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N6" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O6" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P6" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.12012374818624762</v>
       </c>
       <c r="Q6" s="19">
-        <v>0.12063647696552883</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R6" s="19">
         <v>0.03</v>
       </c>
       <c r="S6" s="19">
-        <v>0</v>
+        <v>4.0883763120383568E-2</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>-5.4615858697631421E-2</v>
-      </c>
-      <c r="V6" s="19" t="str">
-        <f>IF(D6&lt;=H6,D6/I6-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>7.7474362783882672E-2</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" si="0"/>
+        <v>-4.2509789560355227E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D7" s="20">
-        <v>7.929999828338623</v>
+        <v>5.4099998474121094</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>2.1925649394464258E-2</v>
+        <v>-3.516120315036534E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>7.3139976362586262E-2</v>
+        <v>3.6846391814999893E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>10.491619631157537</v>
+        <v>1.3677053840470881</v>
       </c>
       <c r="I7" s="20">
-        <v>7.8687147233681527</v>
+        <v>-4.6857579957106044</v>
       </c>
       <c r="J7" s="20">
-        <v>13.11452453894692</v>
+        <v>1.7096317300588602</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M7" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N7" s="16">
         <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.60969766115231028</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P7" s="19">
-        <v>0.10541928123217342</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q7" s="19">
-        <v>0</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R7" s="19">
-        <v>7.8722190530519116E-3</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="19">
         <v>0</v>
       </c>
       <c r="T7" s="19">
-        <v>1.7227609811751282E-2</v>
+        <v>0</v>
       </c>
       <c r="U7" s="19">
-        <v>0.25978322875071308</v>
-      </c>
-      <c r="V7" s="19">
-        <f>IF(D7&lt;=H7,D7/I7-1,"")</f>
-        <v>7.7884517516524365E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>-5.4615858697631421E-2</v>
+      </c>
+      <c r="V7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D8" s="20">
-        <v>8.6099996566772461</v>
+        <v>2.0199999809265137</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="19">
-        <v>1.6963785462400429E-2</v>
+        <v>2.9538381594428561E-2</v>
       </c>
       <c r="G8" s="19">
-        <v>0</v>
+        <v>6.3369402598573682E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>1.5525013495486384</v>
+        <v>2.0688205675274123</v>
       </c>
       <c r="I8" s="20">
-        <v>1.3445608278523782</v>
+        <v>1.5516154256455592</v>
       </c>
       <c r="J8" s="20">
-        <v>1.940626686935798</v>
+        <v>2.5860257094092653</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M8" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P8" s="19">
-        <v>0.49473021389230248</v>
+        <v>0.35722663926689097</v>
       </c>
       <c r="Q8" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="R8" s="19">
-        <v>0.03</v>
+        <v>2.4949477045225803E-2</v>
       </c>
       <c r="S8" s="19">
         <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>0</v>
+        <v>1.3611168709786237E-3</v>
       </c>
       <c r="U8" s="19">
-        <v>0.11305626992292581</v>
-      </c>
-      <c r="V8" s="19" t="str">
-        <f>IF(D8&lt;=H8,D8/I8-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>6.0422694644905017E-2</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="0"/>
+        <v>0.30186897316136196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D9" s="20">
-        <v>15.319999694824219</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>9.9008020330583923E-2</v>
+        <v>-8.2594367265491769E-2</v>
       </c>
       <c r="G9" s="19">
-        <v>8.8772847721365733E-2</v>
+        <v>2.8043465716964713E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>21.249999999999996</v>
+        <v>0</v>
       </c>
       <c r="I9" s="20">
-        <v>15.937499999999996</v>
+        <v>0</v>
       </c>
       <c r="J9" s="20">
-        <v>26.562499999999996</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M9" s="16">
         <v>45593</v>
       </c>
       <c r="N9" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.72762956087193742</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P9" s="19">
-        <v>0.12012374818624762</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q9" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R9" s="19">
-        <v>0.03</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S9" s="19">
-        <v>4.0883763120383568E-2</v>
+        <v>0</v>
       </c>
       <c r="T9" s="19">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="U9" s="19">
-        <v>7.7474362783882672E-2</v>
-      </c>
-      <c r="V9" s="19">
-        <f>IF(D9&lt;=H9,D9/I9-1,"")</f>
-        <v>-3.8745117187499734E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>-4.5701145085840549E-2</v>
+      </c>
+      <c r="V9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>54</v>
       </c>
@@ -1216,25 +1249,25 @@
         <v>55</v>
       </c>
       <c r="D10" s="20">
-        <v>11.619999885559082</v>
+        <v>11.539999961853027</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="19">
-        <v>3.6371297033202431E-2</v>
+        <v>3.6589764876344778E-2</v>
       </c>
       <c r="G10" s="19">
-        <v>1.497611040342421E-2</v>
+        <v>1.5066065912448566E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>3.7667490269147921</v>
+        <v>3.7672534857272657</v>
       </c>
       <c r="I10" s="20">
-        <v>3.1054047809015159</v>
+        <v>3.1029654215052282</v>
       </c>
       <c r="J10" s="20">
-        <v>4.7084362836434899</v>
+        <v>4.7090668571590824</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>18</v>
@@ -1270,109 +1303,109 @@
         <v>0.21708469029242794</v>
       </c>
       <c r="V10" s="19" t="str">
-        <f>IF(D10&lt;=H10,D10/I10-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D11" s="20">
-        <v>6.1500000953674316</v>
+        <v>70.800003051757812</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>-8.2401530255642605E-2</v>
+        <v>8.3762391473042375E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>2.7977991299595748E-2</v>
+        <v>6.9802803792940404E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>0</v>
+        <v>62.482173138613931</v>
       </c>
       <c r="I11" s="20">
-        <v>0</v>
+        <v>50.827256635718243</v>
       </c>
       <c r="J11" s="20">
-        <v>0</v>
+        <v>78.10271642326741</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M11" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.8649634921177769</v>
+        <v>0</v>
       </c>
       <c r="P11" s="19">
-        <v>0.13052664506651043</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q11" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R11" s="19">
-        <v>4.7067232344920495E-2</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U11" s="19">
-        <v>-4.5701145085840549E-2</v>
+        <v>0.15487427537057533</v>
       </c>
       <c r="V11" s="19" t="str">
-        <f>IF(D11&lt;=H11,D11/I11-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="20">
-        <v>1.0399999618530273</v>
+        <v>73.400001525878906</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="19">
-        <v>5.2027916327864764E-2</v>
+        <v>-1.8957598695893682E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>5.0502055654616441E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="20">
-        <v>0.77238435226912583</v>
+        <v>0.68691016980775599</v>
       </c>
       <c r="I12" s="20">
-        <v>0.57928826420184443</v>
+        <v>2.3490774434310842</v>
       </c>
       <c r="J12" s="20">
-        <v>0.96548044033640723</v>
+        <v>0.85863771225969499</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M12" s="16">
         <v>45603</v>
@@ -1381,16 +1414,16 @@
         <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.84573817400461659</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P12" s="19">
-        <v>0</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q12" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="R12" s="19">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S12" s="19">
         <v>0</v>
@@ -1399,40 +1432,40 @@
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>0.12419023710495804</v>
+        <v>-7.3026634739724955E-2</v>
       </c>
       <c r="V12" s="19" t="str">
-        <f>IF(D12&lt;=H12,D12/I12-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D13" s="20">
-        <v>70.699996948242188</v>
+        <v>1.0399999618530273</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="19">
-        <v>8.3958067933530514E-2</v>
+        <v>5.198008038964997E-2</v>
       </c>
       <c r="G13" s="19">
-        <v>6.9965869404346057E-2</v>
+        <v>5.045562263587338E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>62.599928849930194</v>
+        <v>0.77167420024380962</v>
       </c>
       <c r="I13" s="20">
-        <v>50.973936663946681</v>
+        <v>0.57875565018285724</v>
       </c>
       <c r="J13" s="20">
-        <v>78.249911062412735</v>
+        <v>0.96459275030476199</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>18</v>
@@ -1447,3740 +1480,3305 @@
         <v>45716</v>
       </c>
       <c r="O13" s="19">
+        <v>0.84573817400461659</v>
+      </c>
+      <c r="P13" s="19">
         <v>0</v>
       </c>
-      <c r="P13" s="19">
-        <v>0.66167150000644004</v>
-      </c>
       <c r="Q13" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R13" s="19">
-        <v>0.17959118565275847</v>
+        <v>0</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <v>1.6744128904032363E-4</v>
+        <v>0</v>
       </c>
       <c r="U13" s="19">
-        <v>0.15487427537057533</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V13" s="19" t="str">
-        <f>IF(D13&lt;=H13,D13/I13-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D14" s="20">
-        <v>73.150001525878906</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>-1.9039894665116953E-2</v>
+        <v>2.1925649394464258E-2</v>
       </c>
       <c r="G14" s="19">
-        <v>0</v>
+        <v>7.3139976362586262E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>0.69149851851143995</v>
+        <v>10.491619631157537</v>
       </c>
       <c r="I14" s="20">
-        <v>2.3473500452370413</v>
+        <v>7.8687147233681527</v>
       </c>
       <c r="J14" s="20">
-        <v>0.8643731481393</v>
+        <v>13.11452453894692</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M14" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P14" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.10541928123217342</v>
       </c>
       <c r="Q14" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>0</v>
       </c>
       <c r="R14" s="19">
-        <v>0.03</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
       </c>
       <c r="T14" s="19">
-        <v>0</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U14" s="19">
-        <v>-7.3026634739724955E-2</v>
-      </c>
-      <c r="V14" s="19" t="str">
-        <f>IF(D14&lt;=H14,D14/I14-1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>0.25978322875071308</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="0"/>
+        <v>7.7884517516524365E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D15" s="20">
-        <v>4.5399999618530273</v>
+        <v>5.1700000762939453</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>7.2589244559890326E-2</v>
+        <v>7.1065992943816061E-2</v>
       </c>
       <c r="G15" s="19">
-        <v>3.4845815270762637E-2</v>
+        <v>4.2036363029312296E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>3.7272768449383289</v>
+        <v>2.8662449277487609</v>
       </c>
       <c r="I15" s="20">
-        <v>2.7954576337037467</v>
+        <v>2.1496836958115706</v>
       </c>
       <c r="J15" s="20">
-        <v>4.6590960561729116</v>
+        <v>3.5828061596859513</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M15" s="16">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N15" s="16">
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P15" s="19">
-        <v>0.20403193785652382</v>
+        <v>0.15995376005296372</v>
       </c>
       <c r="Q15" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="19">
-        <v>0.02</v>
+        <v>1.7206411836009534E-4</v>
       </c>
       <c r="S15" s="19">
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>9.386945223960261E-6</v>
       </c>
       <c r="U15" s="19">
-        <v>0.11503893745007428</v>
+        <v>5.5229255451358046E-2</v>
       </c>
       <c r="V15" s="19" t="str">
-        <f>IF(D15&lt;=H15,D15/I15-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D16" s="20">
-        <v>5.1700000762939453</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="19">
-        <v>7.1131393159093712E-2</v>
+        <v>2.4636176686341896E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>4.2075048018823107E-2</v>
+        <v>1.3774104972694438E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>2.8688826596307524</v>
+        <v>8.3110922618167073</v>
       </c>
       <c r="I16" s="20">
-        <v>2.1516619947230642</v>
+        <v>6.2556863189332583</v>
       </c>
       <c r="J16" s="20">
-        <v>3.5861033245384406</v>
+        <v>10.388865327270885</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M16" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.78463553343209413</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P16" s="19">
-        <v>0.15995376005296372</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q16" s="19">
         <v>0</v>
       </c>
       <c r="R16" s="19">
-        <v>1.7206411836009534E-4</v>
+        <v>2.9999999999999995E-2</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
       </c>
       <c r="T16" s="19">
-        <v>9.386945223960261E-6</v>
+        <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>5.5229255451358046E-2</v>
+        <v>0.1461436059765634</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f>IF(D16&lt;=H16,D16/I16-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:22">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D17" s="20">
-        <v>17.979999542236328</v>
+        <v>1.7999999523162842</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>0.10138462632469142</v>
+        <v>-3.8655647819801492E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>4.435719209419884E-2</v>
+        <v>6.0368890507191832E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>20.071998956535015</v>
+        <v>1.4546204531394571</v>
       </c>
       <c r="I17" s="20">
-        <v>15.053999217401262</v>
+        <v>1.0909653398545929</v>
       </c>
       <c r="J17" s="20">
-        <v>25.089998695668768</v>
+        <v>1.8182755664243213</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="M17" s="16">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.39325092997635303</v>
       </c>
       <c r="P17" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.24326660244029483</v>
       </c>
       <c r="Q17" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>9.5705744879944314E-3</v>
       </c>
       <c r="R17" s="19">
-        <v>0</v>
+        <v>0.57635255668591923</v>
       </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>9.0430154247230065E-3</v>
+        <v>2.3716125582531654E-3</v>
       </c>
       <c r="U17" s="19">
-        <v>0.12415815772322404</v>
-      </c>
-      <c r="V17" s="19">
-        <f>IF(D17&lt;=H17,D17/I17-1,"")</f>
-        <v>0.19436697734465369</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22">
+        <v>-0.22481227614881466</v>
+      </c>
+      <c r="V17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D18" s="20">
-        <v>2.0099999904632568</v>
+        <v>9.4300003051757812</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>2.9712657235011673E-2</v>
+        <v>9.968143385434218E-2</v>
       </c>
       <c r="G18" s="19">
-        <v>6.3743280334424945E-2</v>
+        <v>6.7987017969731611E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>2.0709424239700436</v>
+        <v>9.4282000029788318</v>
       </c>
       <c r="I18" s="20">
-        <v>1.5532068179775327</v>
+        <v>7.0711500022341234</v>
       </c>
       <c r="J18" s="20">
-        <v>2.5886780299625545</v>
+        <v>11.78525000372354</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="M18" s="16">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P18" s="19">
-        <v>0.35722663926689097</v>
+        <v>0.25451341065151861</v>
       </c>
       <c r="Q18" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="R18" s="19">
-        <v>2.4949477045225803E-2</v>
+        <v>1.6834397167810114E-3</v>
       </c>
       <c r="S18" s="19">
         <v>0</v>
       </c>
       <c r="T18" s="19">
-        <v>1.3611168709786237E-3</v>
+        <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>6.0422694644905017E-2</v>
-      </c>
-      <c r="V18" s="19">
-        <f>IF(D18&lt;=H18,D18/I18-1,"")</f>
-        <v>0.29409681131874343</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22">
+        <v>0.11990650536310468</v>
+      </c>
+      <c r="V18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D19" s="20">
-        <v>1.7999999523162842</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>-3.8691221623591315E-2</v>
+        <v>1.6967894244784901E-2</v>
       </c>
       <c r="G19" s="19">
-        <v>6.0424446452753099E-2</v>
+        <v>0</v>
       </c>
       <c r="H19" s="20">
-        <v>1.4559591031300065</v>
+        <v>1.5510978364343182</v>
       </c>
       <c r="I19" s="20">
-        <v>1.0919693273475048</v>
+        <v>1.3424475080391116</v>
       </c>
       <c r="J19" s="20">
-        <v>1.8199488789125082</v>
+        <v>1.9388722955428976</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="M19" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.39325092997635303</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P19" s="19">
-        <v>0.24326660244029483</v>
+        <v>0.49473021389230248</v>
       </c>
       <c r="Q19" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="R19" s="19">
-        <v>0.57635255668591923</v>
+        <v>0.03</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>2.3716125582531654E-3</v>
+        <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>-0.22481227614881466</v>
+        <v>0.11305626992292581</v>
       </c>
       <c r="V19" s="19" t="str">
-        <f>IF(D19&lt;=H19,D19/I19-1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:22">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="2:22">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="20">
+        <v>4.559999942779541</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="19">
+        <v>7.2270870979871615E-2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3.4692982891479915E-2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>3.7245171861459214</v>
+      </c>
+      <c r="I20" s="20">
+        <v>2.7933878896094413</v>
+      </c>
+      <c r="J20" s="20">
+        <v>4.6556464826824016</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N20" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0.20403193785652382</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>7.0437342852983705E-5</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="S20" s="19">
+        <v>0</v>
+      </c>
+      <c r="T20" s="19">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="U20" s="19">
+        <v>0.11503893745007428</v>
+      </c>
+      <c r="V20" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="20">
+        <v>18.020000457763672</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.10117171812671041</v>
+      </c>
+      <c r="G21" s="19">
+        <v>4.4264041779613385E-2</v>
+      </c>
+      <c r="H21" s="20">
+        <v>20.07440896821209</v>
+      </c>
+      <c r="I21" s="20">
+        <v>15.055806726159068</v>
+      </c>
+      <c r="J21" s="20">
+        <v>25.093011210265111</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N21" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <v>9.0430154247230065E-3</v>
+      </c>
+      <c r="U21" s="19">
+        <v>0.12415815772322404</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" si="0"/>
+        <v>0.19688043195017868</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="20"/>
       <c r="E22" s="5"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="20"/>
       <c r="E23" s="5"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="20"/>
       <c r="E24" s="5"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="20"/>
       <c r="E25" s="5"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="20"/>
       <c r="E26" s="5"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="20"/>
       <c r="E27" s="5"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="20"/>
       <c r="E28" s="5"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="20"/>
       <c r="E29" s="5"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="20"/>
       <c r="E30" s="5"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="20"/>
       <c r="E31" s="5"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="20"/>
       <c r="E32" s="5"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="20"/>
       <c r="E33" s="5"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="20"/>
       <c r="E34" s="5"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="20"/>
       <c r="E35" s="5"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="20"/>
       <c r="E36" s="5"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="20"/>
       <c r="E37" s="5"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="20"/>
       <c r="E38" s="5"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="20"/>
       <c r="E39" s="5"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="20"/>
       <c r="E40" s="5"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="20"/>
       <c r="E41" s="5"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="20"/>
       <c r="E42" s="5"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="20"/>
       <c r="E43" s="5"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="20"/>
       <c r="E44" s="5"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="20"/>
       <c r="E45" s="5"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="20"/>
       <c r="E46" s="5"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="20"/>
       <c r="E47" s="5"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="20"/>
       <c r="E48" s="5"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="20"/>
       <c r="E49" s="5"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="20"/>
       <c r="E50" s="5"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="20"/>
       <c r="E51" s="5"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="20"/>
       <c r="E52" s="5"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="20"/>
       <c r="E53" s="5"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="20"/>
       <c r="E54" s="5"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="20"/>
       <c r="E55" s="5"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="20"/>
       <c r="E56" s="5"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="20"/>
       <c r="E57" s="5"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="20"/>
       <c r="E58" s="5"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="20"/>
       <c r="E59" s="5"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="20"/>
       <c r="E60" s="5"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="20"/>
       <c r="E61" s="5"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="20"/>
       <c r="E62" s="5"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="20"/>
       <c r="E63" s="5"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="20"/>
       <c r="E64" s="5"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="20"/>
       <c r="E65" s="5"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="20"/>
       <c r="E66" s="5"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="20"/>
       <c r="E67" s="5"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="20"/>
       <c r="E68" s="5"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="20"/>
       <c r="E69" s="5"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="20"/>
       <c r="E70" s="5"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="20"/>
       <c r="E71" s="5"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="20"/>
       <c r="E72" s="5"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="20"/>
       <c r="E73" s="5"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="20"/>
       <c r="E74" s="5"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="20"/>
       <c r="E75" s="5"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="20"/>
       <c r="E76" s="5"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="20"/>
       <c r="E77" s="5"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="20"/>
       <c r="E78" s="5"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="20"/>
       <c r="E79" s="5"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="20"/>
       <c r="E80" s="5"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="20"/>
       <c r="E81" s="5"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="20"/>
       <c r="E82" s="5"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="20"/>
       <c r="E83" s="5"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="20"/>
       <c r="E84" s="5"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="20"/>
       <c r="E85" s="5"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="20"/>
       <c r="E86" s="5"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="20"/>
       <c r="E87" s="5"/>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="20"/>
       <c r="E88" s="5"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="20"/>
       <c r="E89" s="5"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="20"/>
       <c r="E90" s="5"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="20"/>
       <c r="E91" s="5"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="20"/>
       <c r="E92" s="5"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="20"/>
       <c r="E93" s="5"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="20"/>
       <c r="E94" s="5"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="20"/>
       <c r="E95" s="5"/>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="20"/>
       <c r="E96" s="5"/>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="20"/>
       <c r="E97" s="5"/>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="20"/>
       <c r="E98" s="5"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="20"/>
       <c r="E99" s="5"/>
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="20"/>
       <c r="E100" s="5"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="16"/>
       <c r="N100" s="16"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="20"/>
       <c r="E101" s="5"/>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="20"/>
       <c r="E102" s="5"/>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="20"/>
       <c r="E103" s="5"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="20"/>
       <c r="E104" s="5"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="20"/>
       <c r="E105" s="5"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="20"/>
       <c r="E106" s="5"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="16"/>
       <c r="N106" s="16"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="20"/>
       <c r="E107" s="5"/>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="20"/>
       <c r="E108" s="5"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="16"/>
       <c r="N108" s="16"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="20"/>
       <c r="E109" s="5"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="20"/>
       <c r="E110" s="5"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="20"/>
       <c r="E111" s="5"/>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="20"/>
       <c r="E112" s="5"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="20"/>
       <c r="E113" s="5"/>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="20"/>
       <c r="E114" s="5"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="20"/>
       <c r="E115" s="5"/>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="20"/>
       <c r="E116" s="5"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="20"/>
       <c r="E117" s="5"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="16"/>
       <c r="N117" s="16"/>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="20"/>
       <c r="E118" s="5"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="20"/>
       <c r="E119" s="5"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="20"/>
       <c r="E120" s="5"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="20"/>
       <c r="E121" s="5"/>
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="16"/>
       <c r="N121" s="16"/>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="20"/>
       <c r="E122" s="5"/>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="20"/>
       <c r="E123" s="5"/>
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="20"/>
       <c r="E124" s="5"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="16"/>
       <c r="N124" s="16"/>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="20"/>
       <c r="E125" s="5"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="20"/>
       <c r="E126" s="5"/>
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="20"/>
       <c r="E127" s="5"/>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="20"/>
       <c r="E128" s="5"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="20"/>
       <c r="E129" s="5"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="20"/>
       <c r="E130" s="5"/>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="20"/>
       <c r="E131" s="5"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20"/>
       <c r="E132" s="5"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="20"/>
       <c r="E133" s="5"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="20"/>
       <c r="E134" s="5"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="16"/>
       <c r="N134" s="16"/>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="20"/>
       <c r="E135" s="5"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="20"/>
       <c r="E136" s="5"/>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="20"/>
       <c r="E137" s="5"/>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="20"/>
       <c r="E138" s="5"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="16"/>
       <c r="N138" s="16"/>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="20"/>
       <c r="E139" s="5"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="16"/>
       <c r="N139" s="16"/>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="20"/>
       <c r="E140" s="5"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="20"/>
       <c r="E141" s="5"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="16"/>
       <c r="N141" s="16"/>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="20"/>
       <c r="E142" s="5"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="16"/>
       <c r="N142" s="16"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="20"/>
       <c r="E143" s="5"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="20"/>
       <c r="E144" s="5"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="20"/>
       <c r="E145" s="5"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="16"/>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="20"/>
       <c r="E146" s="5"/>
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="20"/>
       <c r="E147" s="5"/>
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="16"/>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="20"/>
       <c r="E148" s="5"/>
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="20"/>
       <c r="E149" s="5"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="16"/>
       <c r="N149" s="16"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="20"/>
       <c r="E150" s="5"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="20"/>
       <c r="E151" s="5"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="20"/>
       <c r="E152" s="5"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="20"/>
       <c r="E153" s="5"/>
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="16"/>
       <c r="N153" s="16"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="20"/>
       <c r="E154" s="5"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="20"/>
       <c r="E155" s="5"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="16"/>
       <c r="N155" s="16"/>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="20"/>
       <c r="E156" s="5"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="16"/>
       <c r="N156" s="16"/>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="20"/>
       <c r="E157" s="5"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="16"/>
       <c r="N157" s="16"/>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="20"/>
       <c r="E158" s="5"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="16"/>
       <c r="N158" s="16"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="20"/>
       <c r="E159" s="5"/>
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="16"/>
       <c r="N159" s="16"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="20"/>
       <c r="E160" s="5"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="16"/>
       <c r="N160" s="16"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="20"/>
       <c r="E161" s="5"/>
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="16"/>
       <c r="N161" s="16"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="20"/>
       <c r="E162" s="5"/>
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="16"/>
       <c r="N162" s="16"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="20"/>
       <c r="E163" s="5"/>
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="16"/>
       <c r="N163" s="16"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="20"/>
       <c r="E164" s="5"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="16"/>
       <c r="N164" s="16"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="20"/>
       <c r="E165" s="5"/>
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="16"/>
       <c r="N165" s="16"/>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="20"/>
       <c r="E166" s="5"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="20"/>
       <c r="E167" s="5"/>
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="16"/>
       <c r="N167" s="16"/>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="20"/>
       <c r="E168" s="5"/>
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="16"/>
       <c r="N168" s="16"/>
     </row>
-    <row r="169" spans="2:14">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="20"/>
       <c r="E169" s="5"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
     </row>
-    <row r="170" spans="2:14">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="20"/>
       <c r="E170" s="5"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="16"/>
       <c r="N170" s="16"/>
     </row>
-    <row r="171" spans="2:14">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="20"/>
       <c r="E171" s="5"/>
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19"/>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="16"/>
       <c r="N171" s="16"/>
     </row>
-    <row r="172" spans="2:14">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="20"/>
       <c r="E172" s="5"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="19"/>
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
       <c r="M172" s="16"/>
       <c r="N172" s="16"/>
     </row>
-    <row r="173" spans="2:14">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="20"/>
       <c r="E173" s="5"/>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="16"/>
       <c r="N173" s="16"/>
     </row>
-    <row r="174" spans="2:14">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="20"/>
       <c r="E174" s="5"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="16"/>
       <c r="N174" s="16"/>
     </row>
-    <row r="175" spans="2:14">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="20"/>
       <c r="E175" s="5"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="16"/>
       <c r="N175" s="16"/>
     </row>
-    <row r="176" spans="2:14">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="20"/>
       <c r="E176" s="5"/>
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="16"/>
       <c r="N176" s="16"/>
     </row>
-    <row r="177" spans="2:14">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="20"/>
       <c r="E177" s="5"/>
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="16"/>
       <c r="N177" s="16"/>
     </row>
-    <row r="178" spans="2:14">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="20"/>
       <c r="E178" s="5"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="16"/>
       <c r="N178" s="16"/>
     </row>
-    <row r="179" spans="2:14">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="20"/>
       <c r="E179" s="5"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="16"/>
       <c r="N179" s="16"/>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="20"/>
       <c r="E180" s="5"/>
       <c r="F180" s="19"/>
       <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="16"/>
       <c r="N180" s="16"/>
     </row>
-    <row r="181" spans="2:14">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="20"/>
       <c r="E181" s="5"/>
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="16"/>
       <c r="N181" s="16"/>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="20"/>
       <c r="E182" s="5"/>
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="16"/>
       <c r="N182" s="16"/>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="20"/>
       <c r="E183" s="5"/>
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="16"/>
       <c r="N183" s="16"/>
     </row>
-    <row r="184" spans="2:14">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="20"/>
       <c r="E184" s="5"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="16"/>
       <c r="N184" s="16"/>
     </row>
-    <row r="185" spans="2:14">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="20"/>
       <c r="E185" s="5"/>
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="16"/>
       <c r="N185" s="16"/>
     </row>
-    <row r="186" spans="2:14">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="20"/>
       <c r="E186" s="5"/>
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="16"/>
       <c r="N186" s="16"/>
     </row>
-    <row r="187" spans="2:14">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="20"/>
       <c r="E187" s="5"/>
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="16"/>
       <c r="N187" s="16"/>
     </row>
-    <row r="188" spans="2:14">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="20"/>
       <c r="E188" s="5"/>
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="16"/>
       <c r="N188" s="16"/>
     </row>
-    <row r="189" spans="2:14">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="20"/>
       <c r="E189" s="5"/>
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="16"/>
       <c r="N189" s="16"/>
     </row>
-    <row r="190" spans="2:14">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="20"/>
       <c r="E190" s="5"/>
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
       <c r="M190" s="16"/>
       <c r="N190" s="16"/>
     </row>
-    <row r="191" spans="2:14">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="20"/>
       <c r="E191" s="5"/>
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="16"/>
       <c r="N191" s="16"/>
     </row>
-    <row r="192" spans="2:14">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="20"/>
       <c r="E192" s="5"/>
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="16"/>
       <c r="N192" s="16"/>
     </row>
-    <row r="193" spans="2:14">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="20"/>
       <c r="E193" s="5"/>
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="16"/>
       <c r="N193" s="16"/>
     </row>
-    <row r="194" spans="2:14">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="20"/>
       <c r="E194" s="5"/>
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
       <c r="M194" s="16"/>
       <c r="N194" s="16"/>
     </row>
-    <row r="195" spans="2:14">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="20"/>
       <c r="E195" s="5"/>
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
       <c r="M195" s="16"/>
       <c r="N195" s="16"/>
     </row>
-    <row r="196" spans="2:14">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="20"/>
       <c r="E196" s="5"/>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
       <c r="M196" s="16"/>
       <c r="N196" s="16"/>
     </row>
-    <row r="197" spans="2:14">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="20"/>
       <c r="E197" s="5"/>
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
       <c r="M197" s="16"/>
       <c r="N197" s="16"/>
     </row>
-    <row r="198" spans="2:14">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="20"/>
       <c r="E198" s="5"/>
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
       <c r="M198" s="16"/>
       <c r="N198" s="16"/>
     </row>
-    <row r="199" spans="2:14">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="20"/>
       <c r="E199" s="5"/>
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="19"/>
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
     </row>
-    <row r="200" spans="2:14">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="20"/>
       <c r="E200" s="5"/>
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="19"/>
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
       <c r="M200" s="16"/>
       <c r="N200" s="16"/>
     </row>
-    <row r="201" spans="2:14">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="2:14">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="2:14">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="2:14">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="2:14">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="2:14">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="2:14">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="2:14">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="12:12">
+    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="12:12">
+    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="12:12">
+    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="12:12">
+    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="12:12">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="12:12">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="12:12">
+    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="12:12">
+    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="12:12">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="12:12">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="12:12">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="12:12">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="12:12">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="12:12">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="12:12">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="12:12">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="12:12">
+    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="12:12">
+    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="12:12">
+    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="12:12">
+    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="12:12">
+    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="12:12">
+    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="12:12">
+    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="12:12">
+    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="12:12">
+    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="12:12">
+    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="12:12">
+    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="12:12">
+    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="12:12">
+    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="12:12">
+    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="12:12">
+    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="12:12">
+    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="12:12">
+    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="12:12">
+    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="12:12">
+    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="12:12">
+    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="12:12">
+    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="12:12">
+    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="12:12">
+    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="12:12">
+    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="12:12">
+    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="12:12">
+    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="12:12">
+    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="12:12">
+    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="12:12">
+    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="12:12">
+    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="12:12">
+    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="12:12">
+    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="12:12">
+    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="12:12">
+    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="12:12">
+    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="12:12">
+    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="12:12">
+    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="12:12">
+    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="12:12">
+    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="12:12">
+    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="12:12">
+    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="12:12">
+    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="12:12">
+    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="12:12">
+    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="12:12">
+    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="12:12">
+    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="12:12">
+    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="12:12">
+    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="12:12">
+    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="12:12">
+    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="12:12">
+    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="12:12">
+    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="12:12">
+    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="12:12">
+    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="12:12">
+    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="12:12">
+    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="12:12">
+    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="12:12">
+    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="12:12">
+    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="12:12">
+    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="12:12">
+    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="12:12">
+    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="12:12">
+    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="12:12">
+    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="12:12">
+    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="12:12">
+    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="12:12">
+    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="12:12">
+    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="12:12">
+    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="12:12">
+    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="12:12">
+    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="12:12">
+    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="12:12">
+    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="12:12">
+    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="12:12">
+    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="12:12">
+    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="12:12">
+    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="12:12">
+    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="12:12">
+    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="12:12">
+    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="12:12">
+    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="12:12">
+    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="12:12">
+    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="12:12">
+    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="12:12">
+    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="12:12">
+    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="12:12">
+    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="12:12">
+    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="12:12">
+    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="12:12">
+    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="12:12">
+    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="12:12">
+    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="12:12">
+    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="12:12">
+    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="12:12">
+    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="12:12">
+    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="12:12">
+    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="12:12">
+    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="12:12">
+    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="12:12">
+    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="12:12">
+    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="12:12">
+    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="12:12">
+    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="12:12">
+    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="12:12">
+    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="12:12">
+    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="12:12">
+    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="12:12">
+    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="12:12">
+    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="12:12">
+    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="12:12">
+    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="12:12">
+    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="12:12">
+    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="12:12">
+    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="12:12">
+    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="12:12">
+    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="12:12">
+    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="12:12">
+    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="12:12">
+    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="12:12">
+    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="12:12">
+    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="12:12">
+    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="12:12">
+    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="12:12">
+    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="12:12">
+    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="12:12">
+    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="12:12">
+    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="12:12">
+    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="12:12">
+    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="12:12">
+    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="12:12">
+    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="12:12">
+    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="12:12">
+    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="12:12">
+    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="12:12">
+    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="12:12">
+    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="12:12">
+    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="12:12">
+    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="12:12">
+    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="12:12">
+    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="12:12">
+    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="12:12">
+    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="12:12">
+    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="12:12">
+    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="12:12">
+    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="12:12">
+    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="12:12">
+    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="12:12">
+    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="12:12">
+    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="12:12">
+    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="12:12">
+    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="12:12">
+    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="12:12">
+    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="12:12">
+    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="12:12">
+    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="12:12">
+    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="12:12">
+    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="12:12">
+    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="12:12">
+    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="12:12">
+    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="12:12">
+    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="12:12">
+    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="12:12">
+    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="12:12">
+    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="12:12">
+    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="12:12">
+    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="12:12">
+    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="12:12">
+    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="12:12">
+    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="12:12">
+    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="12:12">
+    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="12:12">
+    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="12:12">
+    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="12:12">
+    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="12:12">
+    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="12:12">
+    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L400" s="9"/>
     </row>
   </sheetData>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228432B-FBB3-CB40-8E0E-908FBE00044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D80C2-0499-6040-A36A-4A9A5D800442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,13 +442,6 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -779,7 +779,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -809,41 +809,41 @@
       <c r="E2" s="2"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="25" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="22" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
       <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -865,13 +865,13 @@
       <c r="G4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -1270,7 +1270,7 @@
         <v>4.7090668571590824</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>56</v>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -1,42 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104D80C2-0499-6040-A36A-4A9A5D800442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E13514-A7FF-49CD-8670-049CF39B7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$36</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -257,6 +244,102 @@
   </si>
   <si>
     <t>C0012</t>
+  </si>
+  <si>
+    <t>0005.HK</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>C0014</t>
+  </si>
+  <si>
+    <t>0011.HK</t>
+  </si>
+  <si>
+    <t>恒生銀行</t>
+  </si>
+  <si>
+    <t>0857.HK</t>
+  </si>
+  <si>
+    <t>中國石油股份</t>
+  </si>
+  <si>
+    <t>C0013</t>
+  </si>
+  <si>
+    <t>0939.HK</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>1288.HK</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>1398.HK</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>1658.HK</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>2388.HK</t>
+  </si>
+  <si>
+    <t>中银香港</t>
+  </si>
+  <si>
+    <t>2888.HK</t>
+  </si>
+  <si>
+    <t>3328.HK</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>3968.HK</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>3988.HK</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>6186.HK</t>
+  </si>
+  <si>
+    <t>中国飞鹤</t>
+  </si>
+  <si>
+    <t>6818.HK</t>
+  </si>
+  <si>
+    <t>中国光大银行</t>
+  </si>
+  <si>
+    <t>0998.HK</t>
+  </si>
+  <si>
+    <t>Standard Chartered</t>
   </si>
 </sst>
 </file>
@@ -264,14 +347,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -279,14 +362,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -305,7 +388,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -396,14 +479,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -416,14 +499,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -445,8 +528,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -477,9 +560,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,7 +600,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -623,7 +706,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -765,7 +848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,28 +861,28 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="77" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="10" width="13.1640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="10" width="13.1328125" style="20" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.83203125" style="19" customWidth="1"/>
-    <col min="21" max="22" width="8.83203125" style="19"/>
+    <col min="13" max="13" width="13.1328125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.796875" style="19" customWidth="1"/>
+    <col min="21" max="22" width="8.796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -817,7 +900,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
@@ -846,7 +929,7 @@
       <c r="U3" s="26"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="26" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -911,57 +994,57 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D5" s="20">
-        <v>2.4200000762939453</v>
+        <v>71.400001525878906</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>3.3061954331849455E-2</v>
+        <v>6.5898725159799956E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>2.6941486762449191E-2</v>
+        <v>4.3550941861557266E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>1.6393844740347783</v>
+        <v>48.586520552635193</v>
       </c>
       <c r="I5" s="20">
-        <v>1.5156381859451658</v>
+        <v>36.439890414476395</v>
       </c>
       <c r="J5" s="20">
-        <v>2.0492305925434726</v>
+        <v>60.733150690793991</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M5" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N5" s="16">
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.82154354610382485</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P5" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q5" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="R5" s="19">
-        <v>0.03</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="S5" s="19">
         <v>0</v>
@@ -970,106 +1053,106 @@
         <v>0</v>
       </c>
       <c r="U5" s="19">
-        <v>3.6194720593479307E-2</v>
+        <v>0.12367501116033103</v>
       </c>
       <c r="V5" s="19" t="str">
-        <f t="shared" ref="V5:V21" si="0">IF(D5&lt;=H5,D5/I5-1,"")</f>
+        <f t="shared" ref="V5:V36" si="0">IF(D5&lt;=H5,D5/I5-1,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D6" s="20">
-        <v>15.260000228881836</v>
+        <v>95.650001525878906</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>9.9397301343345928E-2</v>
+        <v>0.10525954318424148</v>
       </c>
       <c r="G6" s="19">
-        <v>8.9121885950302682E-2</v>
+        <v>7.1092523695989729E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>21.249999999999996</v>
+        <v>106.25</v>
       </c>
       <c r="I6" s="20">
-        <v>15.937499999999996</v>
+        <v>79.6875</v>
       </c>
       <c r="J6" s="20">
-        <v>26.562499999999996</v>
+        <v>132.8125</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M6" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N6" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>0.72762956087193742</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P6" s="19">
-        <v>0.12012374818624762</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q6" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="R6" s="19">
-        <v>0.03</v>
+        <v>2.9999999999999995E-2</v>
       </c>
       <c r="S6" s="19">
-        <v>4.0883763120383568E-2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>7.7474362783882672E-2</v>
+        <v>0.32546835552606146</v>
       </c>
       <c r="V6" s="19">
         <f t="shared" si="0"/>
-        <v>-4.2509789560355227E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.2003137446384804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D7" s="20">
-        <v>5.4099998474121094</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>-3.516120315036534E-2</v>
+        <v>2.4636176686341896E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>3.6846391814999893E-2</v>
+        <v>1.3774104972694438E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>1.3677053840470881</v>
+        <v>8.3110922618167073</v>
       </c>
       <c r="I7" s="20">
-        <v>-4.6857579957106044</v>
+        <v>6.2556863189332583</v>
       </c>
       <c r="J7" s="20">
-        <v>1.7096317300588602</v>
+        <v>10.388865327270885</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>39</v>
@@ -1084,16 +1167,16 @@
         <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P7" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q7" s="19">
-        <v>0.12063647696552883</v>
+        <v>0</v>
       </c>
       <c r="R7" s="19">
-        <v>0.03</v>
+        <v>2.9999999999999995E-2</v>
       </c>
       <c r="S7" s="19">
         <v>0</v>
@@ -1102,112 +1185,112 @@
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <v>-5.4615858697631421E-2</v>
+        <v>0.1461436059765634</v>
       </c>
       <c r="V7" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D8" s="20">
-        <v>2.0199999809265137</v>
+        <v>5.4099998474121094</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="19">
-        <v>2.9538381594428561E-2</v>
+        <v>-3.5159499407367727E-2</v>
       </c>
       <c r="G8" s="19">
-        <v>6.3369402598573682E-2</v>
+        <v>3.684460641585488E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>2.0688205675274123</v>
+        <v>1.3676279427531277</v>
       </c>
       <c r="I8" s="20">
-        <v>1.5516154256455592</v>
+        <v>-4.6852409536925563</v>
       </c>
       <c r="J8" s="20">
-        <v>2.5860257094092653</v>
+        <v>1.7095349284414096</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="M8" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P8" s="19">
-        <v>0.35722663926689097</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q8" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R8" s="19">
-        <v>2.4949477045225803E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="19">
         <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>1.3611168709786237E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>6.0422694644905017E-2</v>
-      </c>
-      <c r="V8" s="19">
+        <v>-5.4615858697631421E-2</v>
+      </c>
+      <c r="V8" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>0.30186897316136196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="20">
-        <v>6.130000114440918</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>-8.2594367265491769E-2</v>
+        <v>2.1925649394464258E-2</v>
       </c>
       <c r="G9" s="19">
-        <v>2.8043465716964713E-2</v>
+        <v>7.3139976362586262E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>0</v>
+        <v>10.491619631157537</v>
       </c>
       <c r="I9" s="20">
-        <v>0</v>
+        <v>7.8687147233681527</v>
       </c>
       <c r="J9" s="20">
-        <v>0</v>
+        <v>13.11452453894692</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M9" s="16">
         <v>45593</v>
@@ -1216,58 +1299,58 @@
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P9" s="19">
-        <v>0.13052664506651043</v>
+        <v>0.10541928123217342</v>
       </c>
       <c r="Q9" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>0</v>
       </c>
       <c r="R9" s="19">
-        <v>4.7067232344920495E-2</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S9" s="19">
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U9" s="19">
-        <v>-4.5701145085840549E-2</v>
-      </c>
-      <c r="V9" s="19" t="str">
+        <v>0.25978322875071308</v>
+      </c>
+      <c r="V9" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>7.7884517516524365E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D10" s="20">
-        <v>11.539999961853027</v>
+        <v>8.6000003814697266</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="19">
-        <v>3.6589764876344778E-2</v>
+        <v>1.693547267608897E-2</v>
       </c>
       <c r="G10" s="19">
-        <v>1.5066065912448566E-2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="20">
-        <v>3.7672534857272657</v>
+        <v>1.5479458376353117</v>
       </c>
       <c r="I10" s="20">
-        <v>3.1029654215052282</v>
+        <v>1.3378692256136688</v>
       </c>
       <c r="J10" s="20">
-        <v>4.7090668571590824</v>
+        <v>1.9349322970441396</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>39</v>
@@ -1282,16 +1365,16 @@
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P10" s="19">
-        <v>0.17055682117844595</v>
+        <v>0.49473021389230248</v>
       </c>
       <c r="Q10" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="R10" s="19">
-        <v>0.12357639997060962</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
@@ -1300,178 +1383,178 @@
         <v>0</v>
       </c>
       <c r="U10" s="19">
-        <v>0.21708469029242794</v>
+        <v>0.11305626992292581</v>
       </c>
       <c r="V10" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D11" s="20">
-        <v>70.800003051757812</v>
+        <v>2.4200000762939453</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>8.3762391473042375E-2</v>
+        <v>3.2998780881559872E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>6.9802803792940404E-2</v>
+        <v>2.6890008055000993E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>62.482173138613931</v>
+        <v>1.636037891209106</v>
       </c>
       <c r="I11" s="20">
-        <v>50.827256635718243</v>
+        <v>1.5114639373845602</v>
       </c>
       <c r="J11" s="20">
-        <v>78.10271642326741</v>
+        <v>2.0450473640113827</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="M11" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P11" s="19">
-        <v>0.66167150000644004</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q11" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="R11" s="19">
-        <v>0.17959118565275847</v>
+        <v>0.03</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>1.6744128904032363E-4</v>
+        <v>0</v>
       </c>
       <c r="U11" s="19">
-        <v>0.15487427537057533</v>
+        <v>3.6194720593479307E-2</v>
       </c>
       <c r="V11" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="D12" s="20">
-        <v>73.400001525878906</v>
+        <v>15.260000228881836</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="19">
-        <v>-1.8957598695893682E-2</v>
+        <v>9.9397301343345928E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>0</v>
+        <v>8.9121885950302682E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>0.68691016980775599</v>
+        <v>21.249999999999996</v>
       </c>
       <c r="I12" s="20">
-        <v>2.3490774434310842</v>
+        <v>15.937499999999996</v>
       </c>
       <c r="J12" s="20">
-        <v>0.85863771225969499</v>
+        <v>26.562499999999996</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M12" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N12" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O12" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P12" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.12012374818624762</v>
       </c>
       <c r="Q12" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R12" s="19">
         <v>0.03</v>
       </c>
       <c r="S12" s="19">
-        <v>0</v>
+        <v>4.0883763120383568E-2</v>
       </c>
       <c r="T12" s="19">
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>-7.3026634739724955E-2</v>
-      </c>
-      <c r="V12" s="19" t="str">
+        <v>7.7474362783882672E-2</v>
+      </c>
+      <c r="V12" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>-4.2509789560355227E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D13" s="20">
-        <v>1.0399999618530273</v>
+        <v>11.539999961853027</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="19">
-        <v>5.198008038964997E-2</v>
+        <v>3.6519850627800297E-2</v>
       </c>
       <c r="G13" s="19">
-        <v>5.045562263587338E-2</v>
+        <v>1.5037278280706459E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>0.77167420024380962</v>
+        <v>3.758787481394378</v>
       </c>
       <c r="I13" s="20">
-        <v>0.57875565018285724</v>
+        <v>3.0900774356604273</v>
       </c>
       <c r="J13" s="20">
-        <v>0.96459275030476199</v>
+        <v>4.6984843517429722</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M13" s="16">
         <v>45603</v>
@@ -1480,16 +1563,16 @@
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.84573817400461659</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P13" s="19">
-        <v>0</v>
+        <v>0.17055682117844595</v>
       </c>
       <c r="Q13" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="R13" s="19">
-        <v>0</v>
+        <v>0.12357639997060962</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
@@ -1498,46 +1581,46 @@
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <v>0.12419023710495804</v>
+        <v>0.21708469029242794</v>
       </c>
       <c r="V13" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14" s="20">
-        <v>7.929999828338623</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>2.1925649394464258E-2</v>
+        <v>-8.2436549276201893E-2</v>
       </c>
       <c r="G14" s="19">
-        <v>7.3139976362586262E-2</v>
+        <v>2.7989881392528348E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>10.491619631157537</v>
+        <v>0</v>
       </c>
       <c r="I14" s="20">
-        <v>7.8687147233681527</v>
+        <v>0</v>
       </c>
       <c r="J14" s="20">
-        <v>13.11452453894692</v>
+        <v>0</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M14" s="16">
         <v>45593</v>
@@ -1546,148 +1629,148 @@
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.60969766115231028</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P14" s="19">
-        <v>0.10541928123217342</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q14" s="19">
-        <v>0</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R14" s="19">
-        <v>7.8722190530519116E-3</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
       </c>
       <c r="T14" s="19">
-        <v>1.7227609811751282E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="U14" s="19">
-        <v>0.25978322875071308</v>
-      </c>
-      <c r="V14" s="19">
+        <v>-4.5701145085840549E-2</v>
+      </c>
+      <c r="V14" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>7.7884517516524365E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D15" s="20">
-        <v>5.1700000762939453</v>
+        <v>1.0399999618530273</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>7.1065992943816061E-2</v>
+        <v>5.18807589462899E-2</v>
       </c>
       <c r="G15" s="19">
-        <v>4.2036363029312296E-2</v>
+        <v>5.0359214064969675E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>2.8662449277487609</v>
+        <v>0.77019971627230721</v>
       </c>
       <c r="I15" s="20">
-        <v>2.1496836958115706</v>
+        <v>0.57764978720423044</v>
       </c>
       <c r="J15" s="20">
-        <v>3.5828061596859513</v>
+        <v>0.96274964534038399</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M15" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N15" s="16">
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.78463553343209413</v>
+        <v>0.84573817400461659</v>
       </c>
       <c r="P15" s="19">
-        <v>0.15995376005296372</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="19">
-        <v>0</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R15" s="19">
-        <v>1.7206411836009534E-4</v>
+        <v>0</v>
       </c>
       <c r="S15" s="19">
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <v>9.386945223960261E-6</v>
+        <v>0</v>
       </c>
       <c r="U15" s="19">
-        <v>5.5229255451358046E-2</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V15" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D16" s="20">
-        <v>36.299999237060547</v>
+        <v>9.4300003051757813</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="19">
-        <v>2.4636176686341896E-2</v>
+        <v>9.9490966586642735E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>1.3774104972694438E-2</v>
+        <v>6.7857111114954127E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>8.3110922618167073</v>
+        <v>9.4101849782700633</v>
       </c>
       <c r="I16" s="20">
-        <v>6.2556863189332583</v>
+        <v>7.0576387337025475</v>
       </c>
       <c r="J16" s="20">
-        <v>10.388865327270885</v>
+        <v>11.76273122283758</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M16" s="16">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P16" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.25451341065151861</v>
       </c>
       <c r="Q16" s="19">
-        <v>0</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="R16" s="19">
-        <v>2.9999999999999995E-2</v>
+        <v>1.6834397167810114E-3</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
@@ -1696,130 +1779,130 @@
         <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>0.1461436059765634</v>
+        <v>0.11990650536310468</v>
       </c>
       <c r="V16" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D17" s="20">
-        <v>1.7999999523162842</v>
+        <v>5.7199997901916504</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>-3.8655647819801492E-2</v>
+        <v>0.16102644892278417</v>
       </c>
       <c r="G17" s="19">
-        <v>6.0368890507191832E-2</v>
+        <v>8.5324069840307049E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>1.4546204531394571</v>
+        <v>7.1772597291890303</v>
       </c>
       <c r="I17" s="20">
-        <v>1.0909653398545929</v>
+        <v>5.3829447968917723</v>
       </c>
       <c r="J17" s="20">
-        <v>1.8182755664243213</v>
+        <v>8.9715746614862883</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M17" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.39325092997635303</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P17" s="19">
-        <v>0.24326660244029483</v>
+        <v>-4.0574066127933066E-2</v>
       </c>
       <c r="Q17" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="R17" s="19">
-        <v>0.57635255668591923</v>
+        <v>0.10112081917973094</v>
       </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>2.3716125582531654E-3</v>
+        <v>0</v>
       </c>
       <c r="U17" s="19">
-        <v>-0.22481227614881466</v>
-      </c>
-      <c r="V17" s="19" t="str">
+        <v>6.8828021940795986E-2</v>
+      </c>
+      <c r="V17" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+        <v>6.2615353866251944E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D18" s="20">
-        <v>9.4300003051757812</v>
+        <v>6.1999998092651367</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>9.968143385434218E-2</v>
+        <v>0.24730490990678156</v>
       </c>
       <c r="G18" s="19">
-        <v>6.7987017969731611E-2</v>
+        <v>6.9971853275868814E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>9.4282000029788318</v>
+        <v>6.379786425945805</v>
       </c>
       <c r="I18" s="20">
-        <v>7.0711500022341234</v>
+        <v>4.7848398194593535</v>
       </c>
       <c r="J18" s="20">
-        <v>11.78525000372354</v>
+        <v>7.9747330324322565</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M18" s="16">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.6223905170283478</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P18" s="19">
-        <v>0.25451341065151861</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q18" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="19">
-        <v>1.6834397167810114E-3</v>
+        <v>0.03</v>
       </c>
       <c r="S18" s="19">
         <v>0</v>
@@ -1828,46 +1911,46 @@
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>0.11990650536310468</v>
-      </c>
-      <c r="V18" s="19" t="str">
+        <v>0.33602055622301685</v>
+      </c>
+      <c r="V18" s="19">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0.29575911487162054</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D19" s="20">
-        <v>8.6000003814697266</v>
+        <v>70.800003051757813</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>1.6967894244784901E-2</v>
+        <v>8.3602341670155761E-2</v>
       </c>
       <c r="G19" s="19">
-        <v>0</v>
+        <v>6.9669427407768922E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>1.5510978364343182</v>
+        <v>62.313669908729814</v>
       </c>
       <c r="I19" s="20">
-        <v>1.3424475080391116</v>
+        <v>50.585876110673894</v>
       </c>
       <c r="J19" s="20">
-        <v>1.9388722955428976</v>
+        <v>77.892087385912262</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M19" s="16">
         <v>45603</v>
@@ -1876,344 +1959,1154 @@
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.35834792051449244</v>
+        <v>0</v>
       </c>
       <c r="P19" s="19">
-        <v>0.49473021389230248</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q19" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R19" s="19">
-        <v>0.03</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>0</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U19" s="19">
-        <v>0.11305626992292581</v>
+        <v>0.15487427537057533</v>
       </c>
       <c r="V19" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D20" s="20">
-        <v>4.559999942779541</v>
+        <v>5.059999942779541</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="19">
-        <v>7.2270870979871615E-2</v>
+        <v>0.102610230765671</v>
       </c>
       <c r="G20" s="19">
-        <v>3.4692982891479915E-2</v>
+        <v>6.9896486975230571E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>3.7245171861459214</v>
+        <v>5.2011208837523171</v>
       </c>
       <c r="I20" s="20">
-        <v>2.7933878896094413</v>
+        <v>3.9008406628142378</v>
       </c>
       <c r="J20" s="20">
-        <v>4.6556464826824016</v>
+        <v>6.5014011046903963</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M20" s="16">
-        <v>45591</v>
+        <v>45606</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P20" s="19">
-        <v>0.20403193785652382</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q20" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="R20" s="19">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S20" s="19">
         <v>0</v>
       </c>
       <c r="T20" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>0.11503893745007428</v>
-      </c>
-      <c r="V20" s="19" t="str">
+        <v>9.6256375267486358E-2</v>
+      </c>
+      <c r="V20" s="19">
+        <f t="shared" si="0"/>
+        <v>0.29715627480386098</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="20">
+        <v>4.0199999809265137</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.12966758688549365</v>
+      </c>
+      <c r="G21" s="19">
+        <v>6.229496461836638E-2</v>
+      </c>
+      <c r="H21" s="20">
+        <v>3.6827317143772156</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2.7620487857829117</v>
+      </c>
+      <c r="J21" s="20">
+        <v>4.6034146429715195</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N21" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0.11401933240696355</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.19137095648691452</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0.49449639261897682</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <v>0</v>
+      </c>
+      <c r="U21" s="19">
+        <v>0.17011331848714512</v>
+      </c>
+      <c r="V21" s="19" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="2:22">
+      <c r="B22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="20">
+        <v>4.869999885559082</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.22934639031382992</v>
+      </c>
+      <c r="G22" s="19">
+        <v>6.8236205988435147E-2</v>
+      </c>
+      <c r="H22" s="20">
+        <v>4.8869164022744869</v>
+      </c>
+      <c r="I22" s="20">
+        <v>3.6651873017058652</v>
+      </c>
+      <c r="J22" s="20">
+        <v>6.1086455028431086</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N22" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O22" s="19">
+        <v>1.2012210534502537E-2</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0.15470436118294414</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>0.48610500800425166</v>
+      </c>
+      <c r="R22" s="19">
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="S22" s="19">
+        <v>0</v>
+      </c>
+      <c r="T22" s="19">
+        <v>0</v>
+      </c>
+      <c r="U22" s="19">
+        <v>0.31717842027830168</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" si="0"/>
+        <v>0.328717875698322</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="20">
+        <v>73.400001525878906</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="19">
+        <v>-1.8921375280096655E-2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0.68386079194718763</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2.3579660679208017</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.85482598993398451</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N23" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O23" s="19">
+        <v>0.8448760372568398</v>
+      </c>
+      <c r="P23" s="19">
+        <v>0.18023840312844694</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>1.7912194354438221E-2</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S23" s="19">
+        <v>0</v>
+      </c>
+      <c r="T23" s="19">
+        <v>0</v>
+      </c>
+      <c r="U23" s="19">
+        <v>-7.3026634739724955E-2</v>
+      </c>
+      <c r="V23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="20">
+        <v>4.559999942779541</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19">
+        <v>7.2270870979871615E-2</v>
+      </c>
+      <c r="G24" s="19">
+        <v>3.4692982891479915E-2</v>
+      </c>
+      <c r="H24" s="20">
+        <v>3.7245171861459214</v>
+      </c>
+      <c r="I24" s="20">
+        <v>2.7933878896094413</v>
+      </c>
+      <c r="J24" s="20">
+        <v>4.6556464826824016</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N24" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O24" s="19">
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0.20403193785652382</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>7.0437342852983705E-5</v>
+      </c>
+      <c r="R24" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="S24" s="19">
+        <v>0</v>
+      </c>
+      <c r="T24" s="19">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="U24" s="19">
+        <v>0.11503893745007428</v>
+      </c>
+      <c r="V24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="20">
+        <v>4.5799999237060547</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19">
+        <v>7.5695605013020278E-2</v>
+      </c>
+      <c r="G25" s="19">
+        <v>6.1805923239002865E-2</v>
+      </c>
+      <c r="H25" s="20">
+        <v>4.1628106429296379</v>
+      </c>
+      <c r="I25" s="20">
+        <v>3.1221079821972282</v>
+      </c>
+      <c r="J25" s="20">
+        <v>5.2035133036620476</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N25" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O25" s="19">
+        <v>8.9217754367700408E-2</v>
+      </c>
+      <c r="P25" s="19">
+        <v>0.40977301972404179</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>0.39408770164042439</v>
+      </c>
+      <c r="R25" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S25" s="19">
+        <v>0</v>
+      </c>
+      <c r="T25" s="19">
+        <v>0</v>
+      </c>
+      <c r="U25" s="19">
+        <v>7.6921524267833455E-2</v>
+      </c>
+      <c r="V25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="20">
+        <v>5.1700000762939453</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="19">
+        <v>7.0930202907708267E-2</v>
+      </c>
+      <c r="G26" s="19">
+        <v>4.1956041640457534E-2</v>
+      </c>
+      <c r="H26" s="20">
+        <v>2.86076822242023</v>
+      </c>
+      <c r="I26" s="20">
+        <v>2.1455761668151725</v>
+      </c>
+      <c r="J26" s="20">
+        <v>3.5759602780252875</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N26" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O26" s="19">
+        <v>0.78463553343209413</v>
+      </c>
+      <c r="P26" s="19">
+        <v>0.15995376005296372</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>0</v>
+      </c>
+      <c r="R26" s="19">
+        <v>1.7206411836009534E-4</v>
+      </c>
+      <c r="S26" s="19">
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <v>9.386945223960261E-6</v>
+      </c>
+      <c r="U26" s="19">
+        <v>5.5229255451358046E-2</v>
+      </c>
+      <c r="V26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D27" s="20">
         <v>18.020000457763672</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="19">
-        <v>0.10117171812671041</v>
-      </c>
-      <c r="G21" s="19">
-        <v>4.4264041779613385E-2</v>
-      </c>
-      <c r="H21" s="20">
-        <v>20.07440896821209</v>
-      </c>
-      <c r="I21" s="20">
-        <v>15.055806726159068</v>
-      </c>
-      <c r="J21" s="20">
-        <v>25.093011210265111</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="F27" s="19">
+        <v>0.10116642490916275</v>
+      </c>
+      <c r="G27" s="19">
+        <v>4.4261725922899509E-2</v>
+      </c>
+      <c r="H27" s="20">
+        <v>20.073358692346687</v>
+      </c>
+      <c r="I27" s="20">
+        <v>15.055019019260016</v>
+      </c>
+      <c r="J27" s="20">
+        <v>25.091698365433359</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M27" s="16">
         <v>45591</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N27" s="16">
         <v>45716</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O27" s="19">
         <v>0.40723441233977836</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P27" s="19">
         <v>0.41258418422767756</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q27" s="19">
         <v>4.6980230284597004E-2</v>
       </c>
-      <c r="R21" s="19">
-        <v>0</v>
-      </c>
-      <c r="S21" s="19">
-        <v>0</v>
-      </c>
-      <c r="T21" s="19">
+      <c r="R27" s="19">
+        <v>0</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
         <v>9.0430154247230065E-3</v>
       </c>
-      <c r="U21" s="19">
+      <c r="U27" s="19">
         <v>0.12415815772322404</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V27" s="19">
         <f t="shared" si="0"/>
-        <v>0.19688043195017868</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+        <v>0.19694305498455567</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="20">
+        <v>26.049999237060547</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0.10946556904224235</v>
+      </c>
+      <c r="G28" s="19">
+        <v>5.6813821241670087E-2</v>
+      </c>
+      <c r="H28" s="20">
+        <v>23.125</v>
+      </c>
+      <c r="I28" s="20">
+        <v>17.34375</v>
+      </c>
+      <c r="J28" s="20">
+        <v>28.90625</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N28" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O28" s="19">
+        <v>2.8609905101246377E-2</v>
+      </c>
+      <c r="P28" s="19">
+        <v>0.11648068007266453</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>0.54295694135635775</v>
+      </c>
+      <c r="R28" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S28" s="19">
+        <v>0</v>
+      </c>
+      <c r="T28" s="19">
+        <v>0</v>
+      </c>
+      <c r="U28" s="19">
+        <v>0.28195247346973129</v>
+      </c>
+      <c r="V28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="20">
+        <v>94</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0.12400392623831165</v>
+      </c>
+      <c r="G29" s="19">
+        <v>2.4810138154537118E-2</v>
+      </c>
+      <c r="H29" s="20">
+        <v>36.439890414476395</v>
+      </c>
+      <c r="I29" s="20">
+        <v>27.329917810857296</v>
+      </c>
+      <c r="J29" s="20">
+        <v>45.549863018095493</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N29" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O29" s="19">
+        <v>3.4550297712315887E-2</v>
+      </c>
+      <c r="P29" s="19">
+        <v>0.30165569831818656</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>0.50814791601378884</v>
+      </c>
+      <c r="R29" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S29" s="19">
+        <v>0</v>
+      </c>
+      <c r="T29" s="19">
+        <v>0</v>
+      </c>
+      <c r="U29" s="19">
+        <v>0.12564608795570875</v>
+      </c>
+      <c r="V29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="20">
+        <v>6.0500001907348633</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.16578556824832844</v>
+      </c>
+      <c r="G30" s="19">
+        <v>6.7225020137502492E-2</v>
+      </c>
+      <c r="H30" s="20">
+        <v>6.3548653852194548</v>
+      </c>
+      <c r="I30" s="20">
+        <v>4.7661490389145911</v>
+      </c>
+      <c r="J30" s="20">
+        <v>7.9435817315243185</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N30" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O30" s="19">
+        <v>8.1734249293405042E-3</v>
+      </c>
+      <c r="P30" s="19">
+        <v>0.19791759120646774</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>0.583299310268654</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0</v>
+      </c>
+      <c r="T30" s="19">
+        <v>0</v>
+      </c>
+      <c r="U30" s="19">
+        <v>0.18060967359553776</v>
+      </c>
+      <c r="V30" s="19">
+        <f t="shared" si="0"/>
+        <v>0.2693686540932525</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="20">
+        <v>39.049999237060547</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="19">
+        <v>0.13523473125317167</v>
+      </c>
+      <c r="G31" s="19">
+        <v>5.4769773193856404E-2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>31.452347079912816</v>
+      </c>
+      <c r="I31" s="20">
+        <v>23.589260309934613</v>
+      </c>
+      <c r="J31" s="20">
+        <v>39.315433849891022</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N31" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O31" s="19">
+        <v>1.8627626781429586E-2</v>
+      </c>
+      <c r="P31" s="19">
+        <v>0.25828274030620524</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>0.34356507928375646</v>
+      </c>
+      <c r="R31" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S31" s="19">
+        <v>0</v>
+      </c>
+      <c r="T31" s="19">
+        <v>0</v>
+      </c>
+      <c r="U31" s="19">
+        <v>0.34952455362860874</v>
+      </c>
+      <c r="V31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="20">
+        <v>3.7699999809265137</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0.21125647730859817</v>
+      </c>
+      <c r="G32" s="19">
+        <v>6.8008185194446472E-2</v>
+      </c>
+      <c r="H32" s="20">
+        <v>3.7704537777339704</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2.827840333300478</v>
+      </c>
+      <c r="J32" s="20">
+        <v>4.7130672221674628</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N32" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O32" s="19">
+        <v>1.1832950701880444E-2</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0.19534620844359546</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>0.51024868123587042</v>
+      </c>
+      <c r="R32" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S32" s="19">
+        <v>0</v>
+      </c>
+      <c r="T32" s="19">
+        <v>0</v>
+      </c>
+      <c r="U32" s="19">
+        <v>0.25257215961865376</v>
+      </c>
+      <c r="V32" s="19">
+        <f t="shared" si="0"/>
+        <v>0.33317285864099899</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="20">
+        <v>5.9499998092651367</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="19">
+        <v>6.0885818728234072E-2</v>
+      </c>
+      <c r="G33" s="19">
+        <v>5.679832897287776E-2</v>
+      </c>
+      <c r="H33" s="20">
+        <v>4.9205056559528906</v>
+      </c>
+      <c r="I33" s="20">
+        <v>4.2748644335135424</v>
+      </c>
+      <c r="J33" s="20">
+        <v>6.1506320699411132</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N33" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O33" s="19">
+        <v>0.35166796085418528</v>
+      </c>
+      <c r="P33" s="19">
+        <v>0.40660753935436778</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>2.7202256703967287E-3</v>
+      </c>
+      <c r="R33" s="19">
+        <v>3.2256320498000146E-2</v>
+      </c>
+      <c r="S33" s="19">
+        <v>0</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="20">
+        <v>2.0199999809265137</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19">
+        <v>2.9481940844962858E-2</v>
+      </c>
+      <c r="G34" s="19">
+        <v>6.3248318897206265E-2</v>
+      </c>
+      <c r="H34" s="20">
+        <v>2.0647971869529709</v>
+      </c>
+      <c r="I34" s="20">
+        <v>1.5485978902147282</v>
+      </c>
+      <c r="J34" s="20">
+        <v>2.5809964836912136</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M34" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N34" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O34" s="19">
+        <v>0.55541924442229906</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0.35722663926689097</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>6.208277497005729E-4</v>
+      </c>
+      <c r="R34" s="19">
+        <v>2.4949477045225803E-2</v>
+      </c>
+      <c r="S34" s="19">
+        <v>0</v>
+      </c>
+      <c r="T34" s="19">
+        <v>1.3611168709786237E-3</v>
+      </c>
+      <c r="U34" s="19">
+        <v>6.0422694644905017E-2</v>
+      </c>
+      <c r="V34" s="19">
+        <f t="shared" si="0"/>
+        <v>0.30440574256911912</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="20">
+        <v>2.7699999809265137</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.13353366528790928</v>
+      </c>
+      <c r="G35" s="19">
+        <v>6.7736288837196124E-2</v>
+      </c>
+      <c r="H35" s="20">
+        <v>2.7592576292215605</v>
+      </c>
+      <c r="I35" s="20">
+        <v>2.0694432219161705</v>
+      </c>
+      <c r="J35" s="20">
+        <v>3.4490720365269505</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N35" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O35" s="19">
+        <v>0.19853855217217412</v>
+      </c>
+      <c r="P35" s="19">
+        <v>0.15821181625248168</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>0.51643948647548221</v>
+      </c>
+      <c r="R35" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S35" s="19">
+        <v>0</v>
+      </c>
+      <c r="T35" s="19">
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
+        <v>9.6810145099862008E-2</v>
+      </c>
+      <c r="V35" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="19">
+        <v>-3.8581786165361925E-2</v>
+      </c>
+      <c r="G36" s="19">
+        <v>6.0253540063439651E-2</v>
+      </c>
+      <c r="H36" s="20">
+        <v>1.451841022983446</v>
+      </c>
+      <c r="I36" s="20">
+        <v>1.0888807672375844</v>
+      </c>
+      <c r="J36" s="20">
+        <v>1.8148012787293075</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M36" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N36" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O36" s="19">
+        <v>0.39325092997635303</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0.24326660244029483</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>9.5705744879944314E-3</v>
+      </c>
+      <c r="R36" s="19">
+        <v>0.57635255668591923</v>
+      </c>
+      <c r="S36" s="19">
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <v>2.3716125582531654E-3</v>
+      </c>
+      <c r="U36" s="19">
+        <v>-0.22481227614881466</v>
+      </c>
+      <c r="V36" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="20"/>
@@ -2225,7 +3118,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="20"/>
@@ -2237,7 +3130,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="20"/>
@@ -2249,7 +3142,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:22">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="20"/>
@@ -2261,7 +3154,7 @@
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:22">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="20"/>
@@ -2273,7 +3166,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="20"/>
@@ -2285,7 +3178,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="20"/>
@@ -2297,7 +3190,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="20"/>
@@ -2309,7 +3202,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="20"/>
@@ -2321,7 +3214,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="20"/>
@@ -2333,7 +3226,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="20"/>
@@ -2345,7 +3238,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="20"/>
@@ -2357,7 +3250,7 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="20"/>
@@ -2369,7 +3262,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="20"/>
@@ -2381,7 +3274,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="20"/>
@@ -2393,7 +3286,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="20"/>
@@ -2405,7 +3298,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="20"/>
@@ -2417,7 +3310,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="20"/>
@@ -2429,7 +3322,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="20"/>
@@ -2441,7 +3334,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="20"/>
@@ -2453,7 +3346,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="20"/>
@@ -2465,7 +3358,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="20"/>
@@ -2477,7 +3370,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="20"/>
@@ -2489,7 +3382,7 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="20"/>
@@ -2501,7 +3394,7 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="20"/>
@@ -2513,7 +3406,7 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="20"/>
@@ -2525,7 +3418,7 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="20"/>
@@ -2537,7 +3430,7 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="20"/>
@@ -2549,7 +3442,7 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="20"/>
@@ -2561,7 +3454,7 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="20"/>
@@ -2573,7 +3466,7 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="20"/>
@@ -2585,7 +3478,7 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="20"/>
@@ -2597,7 +3490,7 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="20"/>
@@ -2609,7 +3502,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="20"/>
@@ -2621,7 +3514,7 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="20"/>
@@ -2633,7 +3526,7 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="20"/>
@@ -2645,7 +3538,7 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="20"/>
@@ -2657,7 +3550,7 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="20"/>
@@ -2669,7 +3562,7 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="20"/>
@@ -2681,7 +3574,7 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="20"/>
@@ -2693,7 +3586,7 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="20"/>
@@ -2705,7 +3598,7 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="20"/>
@@ -2717,7 +3610,7 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="20"/>
@@ -2729,7 +3622,7 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="20"/>
@@ -2741,7 +3634,7 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="20"/>
@@ -2753,7 +3646,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="20"/>
@@ -2765,7 +3658,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="20"/>
@@ -2777,7 +3670,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="20"/>
@@ -2789,7 +3682,7 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="20"/>
@@ -2801,7 +3694,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="20"/>
@@ -2813,7 +3706,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="20"/>
@@ -2825,7 +3718,7 @@
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="20"/>
@@ -2837,7 +3730,7 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="20"/>
@@ -2849,7 +3742,7 @@
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="20"/>
@@ -2861,7 +3754,7 @@
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="20"/>
@@ -2873,7 +3766,7 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="20"/>
@@ -2885,7 +3778,7 @@
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="20"/>
@@ -2897,7 +3790,7 @@
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="20"/>
@@ -2909,7 +3802,7 @@
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="20"/>
@@ -2921,7 +3814,7 @@
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="20"/>
@@ -2933,7 +3826,7 @@
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="20"/>
@@ -2945,7 +3838,7 @@
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="20"/>
@@ -2957,7 +3850,7 @@
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="20"/>
@@ -2969,7 +3862,7 @@
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="20"/>
@@ -2981,7 +3874,7 @@
       <c r="M100" s="16"/>
       <c r="N100" s="16"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="20"/>
@@ -2993,7 +3886,7 @@
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="20"/>
@@ -3005,7 +3898,7 @@
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="20"/>
@@ -3017,7 +3910,7 @@
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="20"/>
@@ -3029,7 +3922,7 @@
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="20"/>
@@ -3041,7 +3934,7 @@
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="20"/>
@@ -3053,7 +3946,7 @@
       <c r="M106" s="16"/>
       <c r="N106" s="16"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="20"/>
@@ -3065,7 +3958,7 @@
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="20"/>
@@ -3077,7 +3970,7 @@
       <c r="M108" s="16"/>
       <c r="N108" s="16"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="20"/>
@@ -3089,7 +3982,7 @@
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="20"/>
@@ -3101,7 +3994,7 @@
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="20"/>
@@ -3113,7 +4006,7 @@
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="20"/>
@@ -3125,7 +4018,7 @@
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="20"/>
@@ -3137,7 +4030,7 @@
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="20"/>
@@ -3149,7 +4042,7 @@
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="20"/>
@@ -3161,7 +4054,7 @@
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="20"/>
@@ -3173,7 +4066,7 @@
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="20"/>
@@ -3185,7 +4078,7 @@
       <c r="M117" s="16"/>
       <c r="N117" s="16"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="20"/>
@@ -3197,7 +4090,7 @@
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="20"/>
@@ -3209,7 +4102,7 @@
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="20"/>
@@ -3221,7 +4114,7 @@
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="20"/>
@@ -3233,7 +4126,7 @@
       <c r="M121" s="16"/>
       <c r="N121" s="16"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="20"/>
@@ -3245,7 +4138,7 @@
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="20"/>
@@ -3257,7 +4150,7 @@
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="20"/>
@@ -3269,7 +4162,7 @@
       <c r="M124" s="16"/>
       <c r="N124" s="16"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="20"/>
@@ -3281,7 +4174,7 @@
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="20"/>
@@ -3293,7 +4186,7 @@
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="20"/>
@@ -3305,7 +4198,7 @@
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="20"/>
@@ -3317,7 +4210,7 @@
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="20"/>
@@ -3329,7 +4222,7 @@
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="20"/>
@@ -3341,7 +4234,7 @@
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="20"/>
@@ -3353,7 +4246,7 @@
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="20"/>
@@ -3365,7 +4258,7 @@
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="20"/>
@@ -3377,7 +4270,7 @@
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="20"/>
@@ -3389,7 +4282,7 @@
       <c r="M134" s="16"/>
       <c r="N134" s="16"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="20"/>
@@ -3401,7 +4294,7 @@
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="20"/>
@@ -3413,7 +4306,7 @@
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="20"/>
@@ -3425,7 +4318,7 @@
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="20"/>
@@ -3437,7 +4330,7 @@
       <c r="M138" s="16"/>
       <c r="N138" s="16"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="20"/>
@@ -3449,7 +4342,7 @@
       <c r="M139" s="16"/>
       <c r="N139" s="16"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="20"/>
@@ -3461,7 +4354,7 @@
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="20"/>
@@ -3473,7 +4366,7 @@
       <c r="M141" s="16"/>
       <c r="N141" s="16"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="20"/>
@@ -3485,7 +4378,7 @@
       <c r="M142" s="16"/>
       <c r="N142" s="16"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="20"/>
@@ -3497,7 +4390,7 @@
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="20"/>
@@ -3509,7 +4402,7 @@
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="20"/>
@@ -3521,7 +4414,7 @@
       <c r="M145" s="16"/>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="20"/>
@@ -3533,7 +4426,7 @@
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="20"/>
@@ -3545,7 +4438,7 @@
       <c r="M147" s="16"/>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="20"/>
@@ -3557,7 +4450,7 @@
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="20"/>
@@ -3569,7 +4462,7 @@
       <c r="M149" s="16"/>
       <c r="N149" s="16"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="20"/>
@@ -3581,7 +4474,7 @@
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="20"/>
@@ -3593,7 +4486,7 @@
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="20"/>
@@ -3605,7 +4498,7 @@
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="20"/>
@@ -3617,7 +4510,7 @@
       <c r="M153" s="16"/>
       <c r="N153" s="16"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="20"/>
@@ -3629,7 +4522,7 @@
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="20"/>
@@ -3641,7 +4534,7 @@
       <c r="M155" s="16"/>
       <c r="N155" s="16"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="20"/>
@@ -3653,7 +4546,7 @@
       <c r="M156" s="16"/>
       <c r="N156" s="16"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="20"/>
@@ -3665,7 +4558,7 @@
       <c r="M157" s="16"/>
       <c r="N157" s="16"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="20"/>
@@ -3677,7 +4570,7 @@
       <c r="M158" s="16"/>
       <c r="N158" s="16"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="20"/>
@@ -3689,7 +4582,7 @@
       <c r="M159" s="16"/>
       <c r="N159" s="16"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="20"/>
@@ -3701,7 +4594,7 @@
       <c r="M160" s="16"/>
       <c r="N160" s="16"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="20"/>
@@ -3713,7 +4606,7 @@
       <c r="M161" s="16"/>
       <c r="N161" s="16"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="20"/>
@@ -3725,7 +4618,7 @@
       <c r="M162" s="16"/>
       <c r="N162" s="16"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="20"/>
@@ -3737,7 +4630,7 @@
       <c r="M163" s="16"/>
       <c r="N163" s="16"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="20"/>
@@ -3749,7 +4642,7 @@
       <c r="M164" s="16"/>
       <c r="N164" s="16"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="20"/>
@@ -3761,7 +4654,7 @@
       <c r="M165" s="16"/>
       <c r="N165" s="16"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="20"/>
@@ -3773,7 +4666,7 @@
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="20"/>
@@ -3785,7 +4678,7 @@
       <c r="M167" s="16"/>
       <c r="N167" s="16"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="20"/>
@@ -3797,7 +4690,7 @@
       <c r="M168" s="16"/>
       <c r="N168" s="16"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="20"/>
@@ -3809,7 +4702,7 @@
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="20"/>
@@ -3821,7 +4714,7 @@
       <c r="M170" s="16"/>
       <c r="N170" s="16"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="20"/>
@@ -3833,7 +4726,7 @@
       <c r="M171" s="16"/>
       <c r="N171" s="16"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="20"/>
@@ -3845,7 +4738,7 @@
       <c r="M172" s="16"/>
       <c r="N172" s="16"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="20"/>
@@ -3857,7 +4750,7 @@
       <c r="M173" s="16"/>
       <c r="N173" s="16"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="20"/>
@@ -3869,7 +4762,7 @@
       <c r="M174" s="16"/>
       <c r="N174" s="16"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="20"/>
@@ -3881,7 +4774,7 @@
       <c r="M175" s="16"/>
       <c r="N175" s="16"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="20"/>
@@ -3893,7 +4786,7 @@
       <c r="M176" s="16"/>
       <c r="N176" s="16"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="20"/>
@@ -3905,7 +4798,7 @@
       <c r="M177" s="16"/>
       <c r="N177" s="16"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="20"/>
@@ -3917,7 +4810,7 @@
       <c r="M178" s="16"/>
       <c r="N178" s="16"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="20"/>
@@ -3929,7 +4822,7 @@
       <c r="M179" s="16"/>
       <c r="N179" s="16"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:14">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="20"/>
@@ -3941,7 +4834,7 @@
       <c r="M180" s="16"/>
       <c r="N180" s="16"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:14">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="20"/>
@@ -3953,7 +4846,7 @@
       <c r="M181" s="16"/>
       <c r="N181" s="16"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:14">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="20"/>
@@ -3965,7 +4858,7 @@
       <c r="M182" s="16"/>
       <c r="N182" s="16"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:14">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="20"/>
@@ -3977,7 +4870,7 @@
       <c r="M183" s="16"/>
       <c r="N183" s="16"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:14">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="20"/>
@@ -3989,7 +4882,7 @@
       <c r="M184" s="16"/>
       <c r="N184" s="16"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:14">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="20"/>
@@ -4001,7 +4894,7 @@
       <c r="M185" s="16"/>
       <c r="N185" s="16"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:14">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="20"/>
@@ -4013,7 +4906,7 @@
       <c r="M186" s="16"/>
       <c r="N186" s="16"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:14">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="20"/>
@@ -4025,7 +4918,7 @@
       <c r="M187" s="16"/>
       <c r="N187" s="16"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:14">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="20"/>
@@ -4037,7 +4930,7 @@
       <c r="M188" s="16"/>
       <c r="N188" s="16"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:14">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="20"/>
@@ -4049,7 +4942,7 @@
       <c r="M189" s="16"/>
       <c r="N189" s="16"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:14">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="20"/>
@@ -4061,7 +4954,7 @@
       <c r="M190" s="16"/>
       <c r="N190" s="16"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:14">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="20"/>
@@ -4073,7 +4966,7 @@
       <c r="M191" s="16"/>
       <c r="N191" s="16"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:14">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="20"/>
@@ -4085,7 +4978,7 @@
       <c r="M192" s="16"/>
       <c r="N192" s="16"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:14">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="20"/>
@@ -4097,7 +4990,7 @@
       <c r="M193" s="16"/>
       <c r="N193" s="16"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:14">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="20"/>
@@ -4109,7 +5002,7 @@
       <c r="M194" s="16"/>
       <c r="N194" s="16"/>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:14">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="20"/>
@@ -4121,7 +5014,7 @@
       <c r="M195" s="16"/>
       <c r="N195" s="16"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:14">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="20"/>
@@ -4133,7 +5026,7 @@
       <c r="M196" s="16"/>
       <c r="N196" s="16"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:14">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="20"/>
@@ -4145,7 +5038,7 @@
       <c r="M197" s="16"/>
       <c r="N197" s="16"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:14">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="20"/>
@@ -4157,7 +5050,7 @@
       <c r="M198" s="16"/>
       <c r="N198" s="16"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:14">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="20"/>
@@ -4169,7 +5062,7 @@
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:14">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="20"/>
@@ -4181,608 +5074,608 @@
       <c r="M200" s="16"/>
       <c r="N200" s="16"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:14">
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:14">
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:14">
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:14">
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:14">
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:14">
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:14">
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:14">
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="12:12">
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="12:12">
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="12:12">
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="12:12">
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="12:12">
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="12:12">
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="12:12">
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="12:12">
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="12:12">
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="12:12">
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="12:12">
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="12:12">
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="12:12">
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="12:12">
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="12:12">
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="12:12">
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="12:12">
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="12:12">
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="12:12">
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="12:12">
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="12:12">
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="12:12">
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="12:12">
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="12:12">
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="12:12">
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="12:12">
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="12:12">
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="12:12">
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="12:12">
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="12:12">
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="12:12">
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="12:12">
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="12:12">
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="12:12">
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="12:12">
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="12:12">
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="12:12">
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="12:12">
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="12:12">
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="12:12">
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="12:12">
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="12:12">
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="12:12">
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="12:12">
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="12:12">
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="12:12">
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="12:12">
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="12:12">
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="12:12">
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="12:12">
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="12:12">
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="12:12">
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="12:12">
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="12:12">
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="12:12">
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="12:12">
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="12:12">
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="12:12">
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="12:12">
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="12:12">
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="12:12">
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="12:12">
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="12:12">
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="12:12">
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="12:12">
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="12:12">
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="12:12">
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="12:12">
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="12:12">
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="12:12">
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="12:12">
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="12:12">
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="12:12">
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="12:12">
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="12:12">
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="12:12">
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="12:12">
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="12:12">
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="12:12">
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="12:12">
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="12:12">
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="12:12">
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="12:12">
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="12:12">
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="12:12">
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="12:12">
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="12:12">
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="12:12">
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="12:12">
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="12:12">
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="12:12">
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="12:12">
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="12:12">
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="12:12">
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="12:12">
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="12:12">
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="12:12">
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="12:12">
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="12:12">
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="12:12">
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="12:12">
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="12:12">
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="12:12">
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="12:12">
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="12:12">
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="12:12">
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="12:12">
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="12:12">
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="12:12">
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="12:12">
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="12:12">
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="12:12">
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="12:12">
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="12:12">
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="12:12">
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="12:12">
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="12:12">
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="12:12">
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="12:12">
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="12:12">
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="12:12">
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="12:12">
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="12:12">
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="12:12">
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="12:12">
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="12:12">
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="12:12">
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="12:12">
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="12:12">
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="12:12">
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="12:12">
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="12:12">
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="12:12">
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="12:12">
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="12:12">
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="12:12">
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="12:12">
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="12:12">
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="12:12">
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="12:12">
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="12:12">
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="12:12">
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="12:12">
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="12:12">
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="12:12">
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="12:12">
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="12:12">
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="12:12">
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="12:12">
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="12:12">
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="12:12">
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="12:12">
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="12:12">
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="12:12">
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="12:12">
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="12:12">
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="12:12">
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="12:12">
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="12:12">
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="12:12">
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="12:12">
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="12:12">
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="12:12">
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="12:12">
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="12:12">
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="12:12">
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="12:12">
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="12:12">
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="12:12">
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="12:12">
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="12:12">
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="12:12">
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="12:12">
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="12:12">
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="12:12">
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="12:12">
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="12:12">
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="12:12">
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="12:12">
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="12:12">
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="12:12">
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="12:12">
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="12:12">
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="12:12">
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="12:12">
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="12:12">
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="12:12">
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="12:12">
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="12:12">
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="12:12">
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="12:12">
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="12:12">
       <c r="L400" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:V19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B4:V36" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V19">
       <sortCondition ref="V4:V19"/>
     </sortState>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E13514-A7FF-49CD-8670-049CF39B7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E217D77-EE57-4C6C-B4D5-8D33BA652D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -861,8 +861,8 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="77" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1002,25 +1002,25 @@
         <v>74</v>
       </c>
       <c r="D5" s="20">
-        <v>71.400001525878906</v>
+        <v>70.300003051757813</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>6.5898725159799956E-2</v>
+        <v>6.693272560796748E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>4.3550941861557266E-2</v>
+        <v>4.4234288819996435E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>48.586520552635193</v>
+        <v>48.588603734970093</v>
       </c>
       <c r="I5" s="20">
-        <v>36.439890414476395</v>
+        <v>36.44145280122757</v>
       </c>
       <c r="J5" s="20">
-        <v>60.733150690793991</v>
+        <v>60.735754668712616</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>18</v>
@@ -1056,58 +1056,58 @@
         <v>0.12367501116033103</v>
       </c>
       <c r="V5" s="19" t="str">
-        <f t="shared" ref="V5:V36" si="0">IF(D5&lt;=H5,D5/I5-1,"")</f>
+        <f>IF(D5&lt;=H5,D5/I5-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D6" s="20">
-        <v>95.650001525878906</v>
+        <v>35.950000762939453</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>0.10525954318424148</v>
+        <v>2.4876027147132048E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>7.1092523695989729E-2</v>
+        <v>1.3908205546283206E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>106.25</v>
+        <v>8.3204991689010495</v>
       </c>
       <c r="I6" s="20">
-        <v>79.6875</v>
+        <v>6.2626864160225901</v>
       </c>
       <c r="J6" s="20">
-        <v>132.8125</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>75</v>
+        <v>10.400623961126312</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M6" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N6" s="16">
         <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P6" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q6" s="19">
-        <v>0.39159225009737869</v>
+        <v>0</v>
       </c>
       <c r="R6" s="19">
         <v>2.9999999999999995E-2</v>
@@ -1119,45 +1119,45 @@
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>0.32546835552606146</v>
-      </c>
-      <c r="V6" s="19">
-        <f t="shared" si="0"/>
-        <v>0.2003137446384804</v>
+        <v>0.1461436059765634</v>
+      </c>
+      <c r="V6" s="19" t="str">
+        <f>IF(D6&lt;=H6,D6/I6-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D7" s="20">
-        <v>36.299999237060547</v>
+        <v>5.440000057220459</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>2.4636176686341896E-2</v>
+        <v>-3.4966743328846271E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>1.3774104972694438E-2</v>
+        <v>3.6642612019828345E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>8.3110922618167073</v>
+        <v>1.3664083553095419</v>
       </c>
       <c r="I7" s="20">
-        <v>6.2556863189332583</v>
+        <v>-4.6929453886077788</v>
       </c>
       <c r="J7" s="20">
-        <v>10.388865327270885</v>
-      </c>
-      <c r="K7" s="6" t="s">
+        <v>1.7080104441369273</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="M7" s="16">
@@ -1167,16 +1167,16 @@
         <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P7" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q7" s="19">
-        <v>0</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R7" s="19">
-        <v>2.9999999999999995E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="19">
         <v>0</v>
@@ -1185,46 +1185,46 @@
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <v>0.1461436059765634</v>
+        <v>-5.4615858697631421E-2</v>
       </c>
       <c r="V7" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D7&lt;=H7,D7/I7-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D8" s="20">
-        <v>5.4099998474121094</v>
+        <v>8.8900003433227539</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="19">
-        <v>-3.5159499407367727E-2</v>
+        <v>1.6378490188480914E-2</v>
       </c>
       <c r="G8" s="19">
-        <v>3.684460641585488E-2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="20">
-        <v>1.3676279427531277</v>
+        <v>1.5442887231399609</v>
       </c>
       <c r="I8" s="20">
-        <v>-4.6852409536925563</v>
+        <v>1.3345770546791791</v>
       </c>
       <c r="J8" s="20">
-        <v>1.7095349284414096</v>
-      </c>
-      <c r="K8" s="8" t="s">
+        <v>1.9303609039249512</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>53</v>
+      <c r="L8" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="M8" s="16">
         <v>45603</v>
@@ -1233,13 +1233,13 @@
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P8" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.49473021389230248</v>
       </c>
       <c r="Q8" s="19">
-        <v>0.12063647696552883</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="R8" s="19">
         <v>0.03</v>
@@ -1251,111 +1251,111 @@
         <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>-5.4615858697631421E-2</v>
+        <v>0.11305626992292581</v>
       </c>
       <c r="V8" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D8&lt;=H8,D8/I8-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D9" s="20">
-        <v>7.929999828338623</v>
+        <v>2.4000000953674316</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>2.1925649394464258E-2</v>
+        <v>3.3264566318910657E-2</v>
       </c>
       <c r="G9" s="19">
-        <v>7.3139976362586262E-2</v>
+        <v>2.7106590982016288E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>10.491619631157537</v>
+        <v>1.6364862609477409</v>
       </c>
       <c r="I9" s="20">
-        <v>7.8687147233681527</v>
+        <v>1.5116270941285195</v>
       </c>
       <c r="J9" s="20">
-        <v>13.11452453894692</v>
-      </c>
-      <c r="K9" s="8" t="s">
+        <v>2.0456078261846762</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>36</v>
+      <c r="L9" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="M9" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N9" s="16">
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.60969766115231028</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P9" s="19">
-        <v>0.10541928123217342</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q9" s="19">
-        <v>0</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="R9" s="19">
-        <v>7.8722190530519116E-3</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="19">
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <v>1.7227609811751282E-2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>0.25978322875071308</v>
-      </c>
-      <c r="V9" s="19">
-        <f t="shared" si="0"/>
-        <v>7.7884517516524365E-3</v>
+        <v>3.6194720593479307E-2</v>
+      </c>
+      <c r="V9" s="19" t="str">
+        <f>IF(D9&lt;=H9,D9/I9-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D10" s="20">
-        <v>8.6000003814697266</v>
+        <v>11.260000228881836</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="19">
-        <v>1.693547267608897E-2</v>
+        <v>3.7417627759632477E-2</v>
       </c>
       <c r="G10" s="19">
-        <v>0</v>
+        <v>1.5406943663596559E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>1.5479458376353117</v>
+        <v>3.7740477796560117</v>
       </c>
       <c r="I10" s="20">
-        <v>1.3378692256136688</v>
+        <v>3.1017643739381415</v>
       </c>
       <c r="J10" s="20">
-        <v>1.9349322970441396</v>
-      </c>
-      <c r="K10" s="4" t="s">
+        <v>4.7175597245700143</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="M10" s="16">
@@ -1365,16 +1365,16 @@
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P10" s="19">
-        <v>0.49473021389230248</v>
+        <v>0.17055682117844595</v>
       </c>
       <c r="Q10" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="R10" s="19">
-        <v>0.03</v>
+        <v>0.12357639997060962</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
@@ -1383,196 +1383,196 @@
         <v>0</v>
       </c>
       <c r="U10" s="19">
-        <v>0.11305626992292581</v>
+        <v>0.21708469029242794</v>
       </c>
       <c r="V10" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D10&lt;=H10,D10/I10-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D11" s="20">
-        <v>2.4200000762939453</v>
+        <v>6.2399997711181641</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>3.2998780881559872E-2</v>
+        <v>-8.096094389142762E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>2.6890008055000993E-2</v>
+        <v>2.7488865519537026E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>1.636037891209106</v>
+        <v>0</v>
       </c>
       <c r="I11" s="20">
-        <v>1.5114639373845602</v>
+        <v>0</v>
       </c>
       <c r="J11" s="20">
-        <v>2.0450473640113827</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.82154354610382485</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P11" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q11" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R11" s="19">
-        <v>0.03</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="U11" s="19">
-        <v>3.6194720593479307E-2</v>
+        <v>-4.5701145085840549E-2</v>
       </c>
       <c r="V11" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D11&lt;=H11,D11/I11-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D12" s="20">
-        <v>15.260000228881836</v>
+        <v>1.0399999618530273</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="19">
-        <v>9.9397301343345928E-2</v>
+        <v>5.1866407784662248E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>8.9121885950302682E-2</v>
+        <v>5.0345283790332859E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>21.249999999999996</v>
+        <v>0.76998666502097068</v>
       </c>
       <c r="I12" s="20">
-        <v>15.937499999999996</v>
+        <v>0.57748999876572804</v>
       </c>
       <c r="J12" s="20">
-        <v>26.562499999999996</v>
+        <v>0.96248333127621333</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="M12" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N12" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.72762956087193742</v>
+        <v>0.84573817400461659</v>
       </c>
       <c r="P12" s="19">
-        <v>0.12012374818624762</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R12" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>4.0883763120383568E-2</v>
+        <v>0</v>
       </c>
       <c r="T12" s="19">
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>7.7474362783882672E-2</v>
-      </c>
-      <c r="V12" s="19">
-        <f t="shared" si="0"/>
-        <v>-4.2509789560355227E-2</v>
+        <v>0.12419023710495804</v>
+      </c>
+      <c r="V12" s="19" t="str">
+        <f>IF(D12&lt;=H12,D12/I12-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D13" s="20">
-        <v>11.539999961853027</v>
+        <v>9.4700002670288086</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="19">
-        <v>3.6519850627800297E-2</v>
+        <v>9.9043325837797042E-2</v>
       </c>
       <c r="G13" s="19">
-        <v>1.5037278280706459E-2</v>
+        <v>6.7551800903624018E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>3.758787481394378</v>
+        <v>9.407581949935242</v>
       </c>
       <c r="I13" s="20">
-        <v>3.0900774356604273</v>
+        <v>7.0556864624514315</v>
       </c>
       <c r="J13" s="20">
-        <v>4.6984843517429722</v>
+        <v>11.759477437419052</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="M13" s="16">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P13" s="19">
-        <v>0.17055682117844595</v>
+        <v>0.25451341065151861</v>
       </c>
       <c r="Q13" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="R13" s="19">
-        <v>0.12357639997060962</v>
+        <v>1.6834397167810114E-3</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
@@ -1581,130 +1581,130 @@
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <v>0.21708469029242794</v>
+        <v>0.11990650536310468</v>
       </c>
       <c r="V13" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D13&lt;=H13,D13/I13-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D14" s="20">
-        <v>6.130000114440918</v>
+        <v>70.099998474121094</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>-8.2436549276201893E-2</v>
+        <v>8.4413821089639046E-2</v>
       </c>
       <c r="G14" s="19">
-        <v>2.7989881392528348E-2</v>
+        <v>7.034566811322239E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>0</v>
+        <v>62.545664670217512</v>
       </c>
       <c r="I14" s="20">
-        <v>0</v>
+        <v>50.762107466405496</v>
       </c>
       <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>47</v>
+        <v>78.182080837771892</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="M14" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.8649634921177769</v>
+        <v>0</v>
       </c>
       <c r="P14" s="19">
-        <v>0.13052664506651043</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q14" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R14" s="19">
-        <v>4.7067232344920495E-2</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
       </c>
       <c r="T14" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U14" s="19">
-        <v>-4.5701145085840549E-2</v>
+        <v>0.15487427537057533</v>
       </c>
       <c r="V14" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D14&lt;=H14,D14/I14-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D15" s="20">
-        <v>1.0399999618530273</v>
+        <v>3.9200000762939453</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>5.18807589462899E-2</v>
+        <v>0.13293864684791165</v>
       </c>
       <c r="G15" s="19">
-        <v>5.0359214064969675E-2</v>
+        <v>6.3866448822844785E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>0.77019971627230721</v>
+        <v>3.681713003796689</v>
       </c>
       <c r="I15" s="20">
-        <v>0.57764978720423044</v>
+        <v>2.7612847528475166</v>
       </c>
       <c r="J15" s="20">
-        <v>0.96274964534038399</v>
+        <v>4.6021412547458613</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="M15" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N15" s="16">
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.84573817400461659</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P15" s="19">
-        <v>0</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q15" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="R15" s="19">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S15" s="19">
         <v>0</v>
@@ -1713,64 +1713,64 @@
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <v>0.12419023710495804</v>
+        <v>0.17011331848714512</v>
       </c>
       <c r="V15" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D15&lt;=H15,D15/I15-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D16" s="20">
-        <v>9.4300003051757813</v>
+        <v>72.5</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="19">
-        <v>9.9490966586642735E-2</v>
+        <v>-1.9150962745846989E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>6.7857111114954127E-2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="20">
-        <v>9.4101849782700633</v>
+        <v>0.69467261029443028</v>
       </c>
       <c r="I16" s="20">
-        <v>7.0576387337025475</v>
+        <v>2.3684939271736534</v>
       </c>
       <c r="J16" s="20">
-        <v>11.76273122283758</v>
+        <v>0.86834076286803785</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M16" s="16">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.6223905170283478</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P16" s="19">
-        <v>0.25451341065151861</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q16" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="R16" s="19">
-        <v>1.6834397167810114E-3</v>
+        <v>0.03</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
@@ -1779,106 +1779,106 @@
         <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>0.11990650536310468</v>
+        <v>-7.3026634739724955E-2</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D16&lt;=H16,D16/I16-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D17" s="20">
-        <v>5.7199997901916504</v>
+        <v>4.570000171661377</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>0.16102644892278417</v>
+        <v>7.2112725416602269E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>8.5324069840307049E-2</v>
+        <v>3.4617066533388773E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>7.1772597291890303</v>
+        <v>3.7231475999263575</v>
       </c>
       <c r="I17" s="20">
-        <v>5.3829447968917723</v>
+        <v>2.7923606999447683</v>
       </c>
       <c r="J17" s="20">
-        <v>8.9715746614862883</v>
+        <v>4.6539344999079466</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M17" s="16">
-        <v>45605</v>
+        <v>45591</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.86263355974668987</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P17" s="19">
-        <v>-4.0574066127933066E-2</v>
+        <v>0.20403193785652382</v>
       </c>
       <c r="Q17" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="R17" s="19">
-        <v>0.10112081917973094</v>
+        <v>0.02</v>
       </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="U17" s="19">
-        <v>6.8828021940795986E-2</v>
-      </c>
-      <c r="V17" s="19">
-        <f t="shared" si="0"/>
-        <v>6.2615353866251944E-2</v>
+        <v>0.11503893745007428</v>
+      </c>
+      <c r="V17" s="19" t="str">
+        <f>IF(D17&lt;=H17,D17/I17-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D18" s="20">
-        <v>6.1999998092651367</v>
+        <v>4.5500001907348633</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>0.24730490990678156</v>
+        <v>7.6173615612984427E-2</v>
       </c>
       <c r="G18" s="19">
-        <v>6.9971853275868814E-2</v>
+        <v>6.2196221809755182E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>6.379786425945805</v>
+        <v>4.1616591337849105</v>
       </c>
       <c r="I18" s="20">
-        <v>4.7848398194593535</v>
+        <v>3.1212443503386829</v>
       </c>
       <c r="J18" s="20">
-        <v>7.9747330324322565</v>
+        <v>5.2020739172311377</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>18</v>
@@ -1887,19 +1887,19 @@
         <v>75</v>
       </c>
       <c r="M18" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.47700776116848903</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P18" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q18" s="19">
-        <v>0</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="R18" s="19">
         <v>0.03</v>
@@ -1911,106 +1911,106 @@
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>0.33602055622301685</v>
-      </c>
-      <c r="V18" s="19">
-        <f t="shared" si="0"/>
-        <v>0.29575911487162054</v>
+        <v>7.6921524267833455E-2</v>
+      </c>
+      <c r="V18" s="19" t="str">
+        <f>IF(D18&lt;=H18,D18/I18-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D19" s="20">
-        <v>70.800003051757813</v>
+        <v>4.9899997711181641</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>8.3602341670155761E-2</v>
+        <v>7.3468483534568169E-2</v>
       </c>
       <c r="G19" s="19">
-        <v>6.9669427407768922E-2</v>
+        <v>4.3457464212366272E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>62.313669908729814</v>
+        <v>2.8599768818929698</v>
       </c>
       <c r="I19" s="20">
-        <v>50.585876110673894</v>
+        <v>2.1449826614197276</v>
       </c>
       <c r="J19" s="20">
-        <v>77.892087385912262</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>59</v>
+        <v>3.5749711023662121</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="M19" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P19" s="19">
-        <v>0.66167150000644004</v>
+        <v>0.15995376005296372</v>
       </c>
       <c r="Q19" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>0</v>
       </c>
       <c r="R19" s="19">
-        <v>0.17959118565275847</v>
+        <v>1.7206411836009534E-4</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>1.6744128904032363E-4</v>
+        <v>9.386945223960261E-6</v>
       </c>
       <c r="U19" s="19">
-        <v>0.15487427537057533</v>
+        <v>5.5229255451358046E-2</v>
       </c>
       <c r="V19" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D19&lt;=H19,D19/I19-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D20" s="20">
-        <v>5.059999942779541</v>
+        <v>25.799999237060547</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="19">
-        <v>0.102610230765671</v>
+        <v>0.11052628195192531</v>
       </c>
       <c r="G20" s="19">
-        <v>6.9896486975230571E-2</v>
+        <v>5.7364342781609311E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>5.2011208837523171</v>
+        <v>23.125</v>
       </c>
       <c r="I20" s="20">
-        <v>3.9008406628142378</v>
+        <v>17.34375</v>
       </c>
       <c r="J20" s="20">
-        <v>6.5014011046903963</v>
+        <v>28.90625</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>18</v>
@@ -2019,19 +2019,19 @@
         <v>75</v>
       </c>
       <c r="M20" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.18760554961924605</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P20" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q20" s="19">
-        <v>0.49099920776112166</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="R20" s="19">
         <v>0.03</v>
@@ -2043,61 +2043,61 @@
         <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>9.6256375267486358E-2</v>
-      </c>
-      <c r="V20" s="19">
-        <f t="shared" si="0"/>
-        <v>0.29715627480386098</v>
+        <v>0.28195247346973129</v>
+      </c>
+      <c r="V20" s="19" t="str">
+        <f>IF(D20&lt;=H20,D20/I20-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D21" s="20">
-        <v>4.0199999809265137</v>
+        <v>93.050003051757813</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="19">
-        <v>0.12966758688549365</v>
+        <v>0.12527456882395377</v>
       </c>
       <c r="G21" s="19">
-        <v>6.229496461836638E-2</v>
+        <v>2.5064362508967923E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>3.6827317143772156</v>
+        <v>36.44123449921608</v>
       </c>
       <c r="I21" s="20">
-        <v>2.7620487857829117</v>
+        <v>27.33092587441206</v>
       </c>
       <c r="J21" s="20">
-        <v>4.6034146429715195</v>
+        <v>45.5515431240201</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>75</v>
       </c>
       <c r="M21" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N21" s="16">
         <v>45716</v>
       </c>
       <c r="O21" s="19">
-        <v>0.11401933240696355</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P21" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q21" s="19">
-        <v>0.49449639261897682</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="R21" s="19">
         <v>0.03</v>
@@ -2109,40 +2109,40 @@
         <v>0</v>
       </c>
       <c r="U21" s="19">
-        <v>0.17011331848714512</v>
+        <v>0.12564608795570875</v>
       </c>
       <c r="V21" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D21&lt;=H21,D21/I21-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D22" s="20">
-        <v>4.869999885559082</v>
+        <v>38.450000762939453</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="19">
-        <v>0.22934639031382992</v>
+        <v>0.13730702860953747</v>
       </c>
       <c r="G22" s="19">
-        <v>6.8236205988435147E-2</v>
+        <v>5.5609049133895076E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>4.8869164022744869</v>
+        <v>31.443646788597103</v>
       </c>
       <c r="I22" s="20">
-        <v>3.6651873017058652</v>
+        <v>23.582735091447827</v>
       </c>
       <c r="J22" s="20">
-        <v>6.1086455028431086</v>
+        <v>39.304558485746377</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>18</v>
@@ -2151,22 +2151,22 @@
         <v>75</v>
       </c>
       <c r="M22" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N22" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P22" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q22" s="19">
-        <v>0.48610500800425166</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="R22" s="19">
-        <v>3.0000000000000002E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S22" s="19">
         <v>0</v>
@@ -2175,40 +2175,40 @@
         <v>0</v>
       </c>
       <c r="U22" s="19">
-        <v>0.31717842027830168</v>
-      </c>
-      <c r="V22" s="19">
-        <f t="shared" si="0"/>
-        <v>0.328717875698322</v>
+        <v>0.34952455362860874</v>
+      </c>
+      <c r="V22" s="19" t="str">
+        <f>IF(D22&lt;=H22,D22/I22-1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D23" s="20">
-        <v>73.400001525878906</v>
+        <v>5.7800002098083496</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="19">
-        <v>-1.8921375280096655E-2</v>
+        <v>6.2659236337922142E-2</v>
       </c>
       <c r="G23" s="19">
-        <v>0</v>
+        <v>5.8452690512318613E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>0.68386079194718763</v>
+        <v>4.9584468493078111</v>
       </c>
       <c r="I23" s="20">
-        <v>2.3579660679208017</v>
+        <v>4.3067394014186373</v>
       </c>
       <c r="J23" s="20">
-        <v>0.85482598993398451</v>
+        <v>6.1980585616347641</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>39</v>
@@ -2217,22 +2217,22 @@
         <v>19</v>
       </c>
       <c r="M23" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P23" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.40660753935436778</v>
       </c>
       <c r="Q23" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="R23" s="19">
-        <v>0.03</v>
+        <v>3.2256320498000146E-2</v>
       </c>
       <c r="S23" s="19">
         <v>0</v>
@@ -2241,106 +2241,106 @@
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>-7.3026634739724955E-2</v>
+        <v>0.2067479536230501</v>
       </c>
       <c r="V23" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D23&lt;=H23,D23/I23-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D24" s="20">
-        <v>4.559999942779541</v>
+        <v>1.7799999713897705</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="19">
-        <v>7.2270870979871615E-2</v>
+        <v>-3.9004496635637494E-2</v>
       </c>
       <c r="G24" s="19">
-        <v>3.4692982891479915E-2</v>
+        <v>6.0913690999604739E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>3.7245171861459214</v>
+        <v>1.4514394173477214</v>
       </c>
       <c r="I24" s="20">
-        <v>2.7933878896094413</v>
+        <v>1.0885795630107911</v>
       </c>
       <c r="J24" s="20">
-        <v>4.6556464826824016</v>
+        <v>1.8142992716846518</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M24" s="16">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.39325092997635303</v>
       </c>
       <c r="P24" s="19">
-        <v>0.20403193785652382</v>
+        <v>0.24326660244029483</v>
       </c>
       <c r="Q24" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>9.5705744879944314E-3</v>
       </c>
       <c r="R24" s="19">
-        <v>0.02</v>
+        <v>0.57635255668591923</v>
       </c>
       <c r="S24" s="19">
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>2.3716125582531654E-3</v>
       </c>
       <c r="U24" s="19">
-        <v>0.11503893745007428</v>
+        <v>-0.22481227614881466</v>
       </c>
       <c r="V24" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D24&lt;=H24,D24/I24-1,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D25" s="20">
-        <v>4.5799999237060547</v>
+        <v>2.75</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="19">
-        <v>7.5695605013020278E-2</v>
+        <v>0.13446761181174982</v>
       </c>
       <c r="G25" s="19">
-        <v>6.1805923239002865E-2</v>
+        <v>6.8210042563351711E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>4.1628106429296379</v>
+        <v>2.7584943683708412</v>
       </c>
       <c r="I25" s="20">
-        <v>3.1221079821972282</v>
+        <v>2.0688707762781311</v>
       </c>
       <c r="J25" s="20">
-        <v>5.2035133036620476</v>
+        <v>3.4481179604635512</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>18</v>
@@ -2355,13 +2355,13 @@
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>0.19853855217217412</v>
       </c>
       <c r="P25" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.15821181625248168</v>
       </c>
       <c r="Q25" s="19">
-        <v>0.39408770164042439</v>
+        <v>0.51643948647548221</v>
       </c>
       <c r="R25" s="19">
         <v>0.03</v>
@@ -2373,172 +2373,172 @@
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <v>7.6921524267833455E-2</v>
-      </c>
-      <c r="V25" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>9.6810145099862008E-2</v>
+      </c>
+      <c r="V25" s="19">
+        <f>IF(D25&lt;=H25,D25/I25-1,"")</f>
+        <v>0.329227533943522</v>
       </c>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D26" s="20">
-        <v>5.1700000762939453</v>
+        <v>3.7200000286102295</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="19">
-        <v>7.0930202907708267E-2</v>
+        <v>0.21403672052755518</v>
       </c>
       <c r="G26" s="19">
-        <v>4.1956041640457534E-2</v>
+        <v>6.890320767200217E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>2.86076822242023</v>
+        <v>3.7694108016350687</v>
       </c>
       <c r="I26" s="20">
-        <v>2.1455761668151725</v>
+        <v>2.8270581012263016</v>
       </c>
       <c r="J26" s="20">
-        <v>3.5759602780252875</v>
+        <v>4.7117635020438362</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M26" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>0.78463553343209413</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P26" s="19">
-        <v>0.15995376005296372</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q26" s="19">
-        <v>0</v>
+        <v>0.51024868123587042</v>
       </c>
       <c r="R26" s="19">
-        <v>1.7206411836009534E-4</v>
+        <v>0.03</v>
       </c>
       <c r="S26" s="19">
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <v>9.386945223960261E-6</v>
+        <v>0</v>
       </c>
       <c r="U26" s="19">
-        <v>5.5229255451358046E-2</v>
-      </c>
-      <c r="V26" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.25257215961865376</v>
+      </c>
+      <c r="V26" s="19">
+        <f>IF(D26&lt;=H26,D26/I26-1,"")</f>
+        <v>0.31585552734009736</v>
       </c>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D27" s="20">
-        <v>18.020000457763672</v>
+        <v>4.7800002098083496</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="19">
-        <v>0.10116642490916275</v>
+        <v>0.23359997615918934</v>
       </c>
       <c r="G27" s="19">
-        <v>4.4261725922899509E-2</v>
+        <v>6.9501752655798305E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>20.073358692346687</v>
+        <v>4.8855645923053519</v>
       </c>
       <c r="I27" s="20">
-        <v>15.055019019260016</v>
+        <v>3.6641734442290139</v>
       </c>
       <c r="J27" s="20">
-        <v>25.091698365433359</v>
+        <v>6.1069557403816894</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M27" s="16">
-        <v>45591</v>
+        <v>45605</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.40723441233977836</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P27" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q27" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="R27" s="19">
-        <v>0</v>
+        <v>3.0000000000000002E-2</v>
       </c>
       <c r="S27" s="19">
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <v>9.0430154247230065E-3</v>
+        <v>0</v>
       </c>
       <c r="U27" s="19">
-        <v>0.12415815772322404</v>
+        <v>0.31717842027830168</v>
       </c>
       <c r="V27" s="19">
-        <f t="shared" si="0"/>
-        <v>0.19694305498455567</v>
+        <f>IF(D27&lt;=H27,D27/I27-1,"")</f>
+        <v>0.30452345735345476</v>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20">
-        <v>26.049999237060547</v>
+        <v>6.0999999046325684</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="19">
-        <v>0.10946556904224235</v>
+        <v>0.25128955445964718</v>
       </c>
       <c r="G28" s="19">
-        <v>5.6813821241670087E-2</v>
+        <v>7.1099258971593568E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>23.125</v>
+        <v>6.3780216609730438</v>
       </c>
       <c r="I28" s="20">
-        <v>17.34375</v>
+        <v>4.7835162457297828</v>
       </c>
       <c r="J28" s="20">
-        <v>28.90625</v>
+        <v>7.9725270762163047</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>18</v>
@@ -2547,19 +2547,19 @@
         <v>75</v>
       </c>
       <c r="M28" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P28" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q28" s="19">
-        <v>0.54295694135635775</v>
+        <v>0</v>
       </c>
       <c r="R28" s="19">
         <v>0.03</v>
@@ -2571,106 +2571,106 @@
         <v>0</v>
       </c>
       <c r="U28" s="19">
-        <v>0.28195247346973129</v>
-      </c>
-      <c r="V28" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.33602055622301685</v>
+      </c>
+      <c r="V28" s="19">
+        <f>IF(D28&lt;=H28,D28/I28-1,"")</f>
+        <v>0.27521254058204625</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="D29" s="20">
-        <v>94</v>
+        <v>1.9700000286102295</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="19">
-        <v>0.12400392623831165</v>
+        <v>3.022185050404131E-2</v>
       </c>
       <c r="G29" s="19">
-        <v>2.4810138154537118E-2</v>
+        <v>6.4835664937910112E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>36.439890414476395</v>
+        <v>2.0651494013502649</v>
       </c>
       <c r="I29" s="20">
-        <v>27.329917810857296</v>
+        <v>1.5488620510126987</v>
       </c>
       <c r="J29" s="20">
-        <v>45.549863018095493</v>
+        <v>2.5814367516878312</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="M29" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N29" s="16">
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P29" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.35722663926689097</v>
       </c>
       <c r="Q29" s="19">
-        <v>0.50814791601378884</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="R29" s="19">
-        <v>0.03</v>
+        <v>2.4949477045225803E-2</v>
       </c>
       <c r="S29" s="19">
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <v>0</v>
+        <v>1.3611168709786237E-3</v>
       </c>
       <c r="U29" s="19">
-        <v>0.12564608795570875</v>
-      </c>
-      <c r="V29" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>6.0422694644905017E-2</v>
+      </c>
+      <c r="V29" s="19">
+        <f>IF(D29&lt;=H29,D29/I29-1,"")</f>
+        <v>0.27190154043878634</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D30" s="20">
-        <v>6.0500001907348633</v>
+        <v>4.9600000381469727</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="19">
-        <v>0.16578556824832844</v>
+        <v>0.10465002731846454</v>
       </c>
       <c r="G30" s="19">
-        <v>6.7225020137502492E-2</v>
+        <v>7.1285964536294141E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>6.3548653852194548</v>
+        <v>5.1996821591082734</v>
       </c>
       <c r="I30" s="20">
-        <v>4.7661490389145911</v>
+        <v>3.8997616193312048</v>
       </c>
       <c r="J30" s="20">
-        <v>7.9435817315243185</v>
+        <v>6.4996026988853419</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>18</v>
@@ -2685,13 +2685,13 @@
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P30" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q30" s="19">
-        <v>0.583299310268654</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="R30" s="19">
         <v>0.03</v>
@@ -2703,40 +2703,40 @@
         <v>0</v>
       </c>
       <c r="U30" s="19">
-        <v>0.18060967359553776</v>
+        <v>9.6256375267486358E-2</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" si="0"/>
-        <v>0.2693686540932525</v>
+        <f>IF(D30&lt;=H30,D30/I30-1,"")</f>
+        <v>0.27187262256240041</v>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="20">
-        <v>39.049999237060547</v>
+        <v>5.9600000381469727</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="19">
-        <v>0.13523473125317167</v>
+        <v>0.16824249401155134</v>
       </c>
       <c r="G31" s="19">
-        <v>5.4769773193856404E-2</v>
+        <v>6.8221288302784552E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>31.452347079912816</v>
+        <v>6.353107513859868</v>
       </c>
       <c r="I31" s="20">
-        <v>23.589260309934613</v>
+        <v>4.764830635394901</v>
       </c>
       <c r="J31" s="20">
-        <v>39.315433849891022</v>
+        <v>7.9413843923248351</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>18</v>
@@ -2751,13 +2751,13 @@
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P31" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q31" s="19">
-        <v>0.34356507928375646</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="R31" s="19">
         <v>0.03</v>
@@ -2769,64 +2769,64 @@
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <v>0.34952455362860874</v>
-      </c>
-      <c r="V31" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.18060967359553776</v>
+      </c>
+      <c r="V31" s="19">
+        <f>IF(D31&lt;=H31,D31/I31-1,"")</f>
+        <v>0.25083145534574025</v>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D32" s="20">
-        <v>3.7699999809265137</v>
+        <v>94.699996948242188</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="19">
-        <v>0.21125647730859817</v>
+        <v>0.10631547825380259</v>
       </c>
       <c r="G32" s="19">
-        <v>6.8008185194446472E-2</v>
+        <v>7.1805704531506018E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.7704537777339704</v>
+        <v>106.25</v>
       </c>
       <c r="I32" s="20">
-        <v>2.827840333300478</v>
+        <v>79.6875</v>
       </c>
       <c r="J32" s="20">
-        <v>4.7130672221674628</v>
-      </c>
-      <c r="K32" s="6" t="s">
+        <v>132.8125</v>
+      </c>
+      <c r="K32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="8" t="s">
         <v>75</v>
       </c>
       <c r="M32" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N32" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P32" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q32" s="19">
-        <v>0.51024868123587042</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="R32" s="19">
-        <v>0.03</v>
+        <v>2.9999999999999995E-2</v>
       </c>
       <c r="S32" s="19">
         <v>0</v>
@@ -2835,196 +2835,196 @@
         <v>0</v>
       </c>
       <c r="U32" s="19">
-        <v>0.25257215961865376</v>
+        <v>0.32546835552606146</v>
       </c>
       <c r="V32" s="19">
-        <f t="shared" si="0"/>
-        <v>0.33317285864099899</v>
+        <f>IF(D32&lt;=H32,D32/I32-1,"")</f>
+        <v>0.18839211856617655</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D33" s="20">
-        <v>5.9499998092651367</v>
+        <v>17.659999847412109</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="19">
-        <v>6.0885818728234072E-2</v>
+        <v>0.10323225279988871</v>
       </c>
       <c r="G33" s="19">
-        <v>5.679832897287776E-2</v>
+        <v>4.516555452003828E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>4.9205056559528906</v>
+        <v>20.074047384375657</v>
       </c>
       <c r="I33" s="20">
-        <v>4.2748644335135424</v>
+        <v>15.055535538281742</v>
       </c>
       <c r="J33" s="20">
-        <v>6.1506320699411132</v>
+        <v>25.092559230469572</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M33" s="16">
-        <v>45605</v>
+        <v>45591</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>0.35166796085418528</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P33" s="19">
-        <v>0.40660753935436778</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q33" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="R33" s="19">
-        <v>3.2256320498000146E-2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="19">
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <v>0</v>
+        <v>9.0430154247230065E-3</v>
       </c>
       <c r="U33" s="19">
-        <v>0.2067479536230501</v>
-      </c>
-      <c r="V33" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.12415815772322404</v>
+      </c>
+      <c r="V33" s="19">
+        <f>IF(D33&lt;=H33,D33/I33-1,"")</f>
+        <v>0.17299047931626155</v>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D34" s="20">
-        <v>2.0199999809265137</v>
+        <v>15.100000381469727</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="19">
-        <v>2.9481940844962858E-2</v>
+        <v>0.10045051675038838</v>
       </c>
       <c r="G34" s="19">
-        <v>6.3248318897206265E-2</v>
+        <v>9.0066222890229308E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>2.0647971869529709</v>
+        <v>18.035701122257137</v>
       </c>
       <c r="I34" s="20">
-        <v>1.5485978902147282</v>
+        <v>13.526775841692853</v>
       </c>
       <c r="J34" s="20">
-        <v>2.5809964836912136</v>
+        <v>22.544626402821422</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M34" s="16">
         <v>45593</v>
       </c>
       <c r="N34" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O34" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P34" s="19">
-        <v>0.35722663926689097</v>
+        <v>0.12012374818624762</v>
       </c>
       <c r="Q34" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R34" s="19">
-        <v>2.4949477045225803E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S34" s="19">
-        <v>0</v>
+        <v>4.0883763120383568E-2</v>
       </c>
       <c r="T34" s="19">
-        <v>1.3611168709786237E-3</v>
+        <v>0</v>
       </c>
       <c r="U34" s="19">
-        <v>6.0422694644905017E-2</v>
+        <v>7.7474362783882672E-2</v>
       </c>
       <c r="V34" s="19">
-        <f t="shared" si="0"/>
-        <v>0.30440574256911912</v>
+        <f>IF(D34&lt;=H34,D34/I34-1,"")</f>
+        <v>0.11630447330455551</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="D35" s="20">
-        <v>2.7699999809265137</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="19">
-        <v>0.13353366528790928</v>
+        <v>0.16355531976433282</v>
       </c>
       <c r="G35" s="19">
-        <v>6.7736288837196124E-2</v>
+        <v>8.6664058107730646E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>2.7592576292215605</v>
+        <v>7.1752743685946738</v>
       </c>
       <c r="I35" s="20">
-        <v>2.0694432219161705</v>
+        <v>5.3814557764460051</v>
       </c>
       <c r="J35" s="20">
-        <v>3.4490720365269505</v>
+        <v>8.9690929607433425</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M35" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>0.19853855217217412</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P35" s="19">
-        <v>0.15821181625248168</v>
+        <v>-4.0574066127933066E-2</v>
       </c>
       <c r="Q35" s="19">
-        <v>0.51643948647548221</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="R35" s="19">
-        <v>0.03</v>
+        <v>0.10112081917973094</v>
       </c>
       <c r="S35" s="19">
         <v>0</v>
@@ -3033,46 +3033,46 @@
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <v>9.6810145099862008E-2</v>
-      </c>
-      <c r="V35" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>6.8828021940795986E-2</v>
+      </c>
+      <c r="V35" s="19">
+        <f>IF(D35&lt;=H35,D35/I35-1,"")</f>
+        <v>4.6185335031974528E-2</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D36" s="20">
-        <v>1.7999999523162842</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="19">
-        <v>-3.8581786165361925E-2</v>
+        <v>2.1925649394464258E-2</v>
       </c>
       <c r="G36" s="19">
-        <v>6.0253540063439651E-2</v>
+        <v>7.3139976362586262E-2</v>
       </c>
       <c r="H36" s="20">
-        <v>1.451841022983446</v>
+        <v>10.491619631157537</v>
       </c>
       <c r="I36" s="20">
-        <v>1.0888807672375844</v>
+        <v>7.8687147233681527</v>
       </c>
       <c r="J36" s="20">
-        <v>1.8148012787293075</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>49</v>
+        <v>13.11452453894692</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="M36" s="16">
         <v>45593</v>
@@ -3081,29 +3081,29 @@
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>0.39325092997635303</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P36" s="19">
-        <v>0.24326660244029483</v>
+        <v>0.10541928123217342</v>
       </c>
       <c r="Q36" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>0</v>
       </c>
       <c r="R36" s="19">
-        <v>0.57635255668591923</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S36" s="19">
         <v>0</v>
       </c>
       <c r="T36" s="19">
-        <v>2.3716125582531654E-3</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U36" s="19">
-        <v>-0.22481227614881466</v>
-      </c>
-      <c r="V36" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>0.25978322875071308</v>
+      </c>
+      <c r="V36" s="19">
+        <f>IF(D36&lt;=H36,D36/I36-1,"")</f>
+        <v>7.7884517516524365E-3</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -5676,8 +5676,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:V36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V19">
-      <sortCondition ref="V4:V19"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V36">
+      <sortCondition descending="1" ref="V4:V36"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E217D77-EE57-4C6C-B4D5-8D33BA652D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8EACCE-701A-4090-B569-4AFBCB668932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -861,8 +861,8 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -996,493 +996,493 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D5" s="20">
-        <v>70.300003051757813</v>
+        <v>5.5500001907348633</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>6.693272560796748E-2</v>
+        <v>0.14864175384734249</v>
       </c>
       <c r="G5" s="19">
-        <v>4.4234288819996435E-2</v>
+        <v>8.7492752934610424E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>48.588603734970093</v>
+        <v>9.5943672722293503</v>
       </c>
       <c r="I5" s="20">
-        <v>36.44145280122757</v>
+        <v>6.1252726165035227</v>
       </c>
       <c r="J5" s="20">
-        <v>60.735754668712616</v>
-      </c>
-      <c r="K5" s="8" t="s">
+        <v>12.248114933250045</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>75</v>
+      <c r="L5" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="M5" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N5" s="16">
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P5" s="19">
-        <v>0.27531678170392498</v>
+        <v>-4.0574066127933066E-2</v>
       </c>
       <c r="Q5" s="19">
-        <v>0.55863466227121317</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="R5" s="19">
-        <v>9.9999999999999985E-3</v>
+        <v>0.10112081917973094</v>
       </c>
       <c r="S5" s="19">
         <v>0</v>
       </c>
       <c r="T5" s="19">
-        <v>0</v>
+        <v>6.8684548583665562E-3</v>
       </c>
       <c r="U5" s="19">
-        <v>0.12367501116033103</v>
-      </c>
-      <c r="V5" s="19" t="str">
-        <f>IF(D5&lt;=H5,D5/I5-1,"")</f>
-        <v/>
+        <v>6.1959567082429431E-2</v>
+      </c>
+      <c r="V5" s="19">
+        <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
+        <v>-0.10365268576549158</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D6" s="20">
-        <v>35.950000762939453</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>2.4876027147132048E-2</v>
+        <v>2.8111366564231792E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>1.3908205546283206E-2</v>
+        <v>7.360405984475682E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>8.3204991689010495</v>
+        <v>9.6632581131187472</v>
       </c>
       <c r="I6" s="20">
-        <v>6.2626864160225901</v>
+        <v>7.8822354480145087</v>
       </c>
       <c r="J6" s="20">
-        <v>10.400623961126312</v>
+        <v>13.360982801347237</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M6" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N6" s="16">
         <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P6" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.10541928123217342</v>
       </c>
       <c r="Q6" s="19">
         <v>0</v>
       </c>
       <c r="R6" s="19">
-        <v>2.9999999999999995E-2</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S6" s="19">
         <v>0</v>
       </c>
       <c r="T6" s="19">
-        <v>0</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U6" s="19">
-        <v>0.1461436059765634</v>
-      </c>
-      <c r="V6" s="19" t="str">
-        <f>IF(D6&lt;=H6,D6/I6-1,"")</f>
-        <v/>
+        <v>0.25978322875071308</v>
+      </c>
+      <c r="V6" s="19">
+        <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
+        <v>-2.8367176917853953E-4</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D7" s="20">
-        <v>5.440000057220459</v>
+        <v>14.899999618530273</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>-3.4966743328846271E-2</v>
+        <v>0.10179885101227353</v>
       </c>
       <c r="G7" s="19">
-        <v>3.6642612019828345E-2</v>
+        <v>9.127517012206135E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>1.3664083553095419</v>
+        <v>19.248287825960091</v>
       </c>
       <c r="I7" s="20">
-        <v>-4.6929453886077788</v>
+        <v>13.086610457688973</v>
       </c>
       <c r="J7" s="20">
-        <v>1.7080104441369273</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>53</v>
+        <v>31.580766258022621</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M7" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N7" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O7" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P7" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.12012374818624762</v>
       </c>
       <c r="Q7" s="19">
-        <v>0.12063647696552883</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R7" s="19">
         <v>0.03</v>
       </c>
       <c r="S7" s="19">
-        <v>0</v>
+        <v>4.0883763120383568E-2</v>
       </c>
       <c r="T7" s="19">
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <v>-5.4615858697631421E-2</v>
-      </c>
-      <c r="V7" s="19" t="str">
-        <f>IF(D7&lt;=H7,D7/I7-1,"")</f>
-        <v/>
+        <v>7.7474362783882672E-2</v>
+      </c>
+      <c r="V7" s="19">
+        <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
+        <v>0.12170397364212626</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="D8" s="20">
-        <v>8.8900003433227539</v>
+        <v>2.7300000190734863</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="19">
-        <v>1.6378490188480914E-2</v>
+        <v>0.17515387013651476</v>
       </c>
       <c r="G8" s="19">
-        <v>0</v>
+        <v>8.3005947364514054E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>1.5442887231399609</v>
+        <v>3.3122235856536952</v>
       </c>
       <c r="I8" s="20">
-        <v>1.3345770546791791</v>
+        <v>2.331333317910008</v>
       </c>
       <c r="J8" s="20">
-        <v>1.9303609039249512</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>56</v>
+        <v>4.1402794820671192</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M8" s="16">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.19853855217217412</v>
       </c>
       <c r="P8" s="19">
-        <v>0.49473021389230248</v>
+        <v>0.15821181625248168</v>
       </c>
       <c r="Q8" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>0.51643948647548221</v>
       </c>
       <c r="R8" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S8" s="19">
         <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>0</v>
+        <v>1.0233017334875492E-3</v>
       </c>
       <c r="U8" s="19">
-        <v>0.11305626992292581</v>
-      </c>
-      <c r="V8" s="19" t="str">
-        <f>IF(D8&lt;=H8,D8/I8-1,"")</f>
-        <v/>
+        <v>0.12578684336637444</v>
+      </c>
+      <c r="V8" s="19">
+        <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
+        <v>0.14603175764767162</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D9" s="20">
-        <v>2.4000000953674316</v>
+        <v>1.940000057220459</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>3.3264566318910657E-2</v>
+        <v>3.8363070176426914E-2</v>
       </c>
       <c r="G9" s="19">
-        <v>2.7106590982016288E-2</v>
+        <v>6.5523353058168796E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>1.6364862609477409</v>
+        <v>1.9791168658051488</v>
       </c>
       <c r="I9" s="20">
-        <v>1.5116270941285195</v>
+        <v>1.594996070705033</v>
       </c>
       <c r="J9" s="20">
-        <v>2.0456078261846762</v>
-      </c>
-      <c r="K9" s="6" t="s">
+        <v>2.624701363985662</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="M9" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N9" s="16">
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.82154354610382485</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P9" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.35722663926689097</v>
       </c>
       <c r="Q9" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="R9" s="19">
-        <v>0.03</v>
+        <v>9.4776814590380575E-3</v>
       </c>
       <c r="S9" s="19">
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <v>0</v>
+        <v>1.3611168709786237E-3</v>
       </c>
       <c r="U9" s="19">
-        <v>3.6194720593479307E-2</v>
-      </c>
-      <c r="V9" s="19" t="str">
-        <f>IF(D9&lt;=H9,D9/I9-1,"")</f>
-        <v/>
+        <v>7.5894490231092765E-2</v>
+      </c>
+      <c r="V9" s="19">
+        <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
+        <v>0.17783710120593066</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D10" s="20">
-        <v>11.260000228881836</v>
+        <v>4.4600000381469727</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="19">
-        <v>3.7417627759632477E-2</v>
+        <v>7.1063265675186185E-2</v>
       </c>
       <c r="G10" s="19">
-        <v>1.5406943663596559E-2</v>
+        <v>3.5470851714550312E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>3.7740477796560117</v>
+        <v>4.7118793647285235</v>
       </c>
       <c r="I10" s="20">
-        <v>3.1017643739381415</v>
+        <v>3.58198680957836</v>
       </c>
       <c r="J10" s="20">
-        <v>4.7175597245700143</v>
+        <v>6.8091097557065616</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M10" s="16">
-        <v>45603</v>
+        <v>45591</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P10" s="19">
-        <v>0.17055682117844595</v>
+        <v>0.20403193785652382</v>
       </c>
       <c r="Q10" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="R10" s="19">
-        <v>0.12357639997060962</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
       </c>
       <c r="T10" s="19">
-        <v>0</v>
+        <v>7.7741956185885708E-4</v>
       </c>
       <c r="U10" s="19">
-        <v>0.21708469029242794</v>
-      </c>
-      <c r="V10" s="19" t="str">
-        <f>IF(D10&lt;=H10,D10/I10-1,"")</f>
-        <v/>
+        <v>0.11506151788821542</v>
+      </c>
+      <c r="V10" s="19">
+        <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
+        <v>0.19686395091005582</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D11" s="20">
-        <v>6.2399997711181641</v>
+        <v>93.800003051757813</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>-8.096094389142762E-2</v>
+        <v>0.10676230317908059</v>
       </c>
       <c r="G11" s="19">
-        <v>2.7488865519537026E-2</v>
+        <v>7.249466715100035E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>0</v>
+        <v>106.20737147920906</v>
       </c>
       <c r="I11" s="20">
-        <v>0</v>
+        <v>72.686119259867581</v>
       </c>
       <c r="J11" s="20">
-        <v>0</v>
+        <v>132.75921434901133</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M11" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.8649634921177769</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P11" s="19">
-        <v>0.13052664506651043</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q11" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="R11" s="19">
-        <v>4.7067232344920495E-2</v>
+        <v>0</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="U11" s="19">
-        <v>-4.5701145085840549E-2</v>
-      </c>
-      <c r="V11" s="19" t="str">
-        <f>IF(D11&lt;=H11,D11/I11-1,"")</f>
-        <v/>
+        <v>0.35546835552606143</v>
+      </c>
+      <c r="V11" s="19">
+        <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
+        <v>0.22509470261146813</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20">
-        <v>1.0399999618530273</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="19">
-        <v>5.1866407784662248E-2</v>
+        <v>8.4130056929166572E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>5.0345283790332859E-2</v>
+        <v>7.0109195232391341E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>0.76998666502097068</v>
+        <v>76.376347376842119</v>
       </c>
       <c r="I12" s="20">
-        <v>0.57748999876572804</v>
+        <v>53.560145486130679</v>
       </c>
       <c r="J12" s="20">
-        <v>0.96248333127621333</v>
+        <v>95.561564475297374</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>18</v>
@@ -1497,262 +1497,262 @@
         <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.84573817400461659</v>
+        <v>0</v>
       </c>
       <c r="P12" s="19">
-        <v>0</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q12" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R12" s="19">
-        <v>0</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S12" s="19">
         <v>0</v>
       </c>
       <c r="T12" s="19">
-        <v>0</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U12" s="19">
-        <v>0.12419023710495804</v>
-      </c>
-      <c r="V12" s="19" t="str">
-        <f>IF(D12&lt;=H12,D12/I12-1,"")</f>
-        <v/>
+        <v>0.15487427537057533</v>
+      </c>
+      <c r="V12" s="19">
+        <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
+        <v>0.23485506448384741</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20">
-        <v>9.4700002670288086</v>
+        <v>69.449996948242188</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="19">
-        <v>9.9043325837797042E-2</v>
+        <v>6.3249292707159385E-2</v>
       </c>
       <c r="G13" s="19">
-        <v>6.7551800903624018E-2</v>
+        <v>6.8307090283918959E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>9.407581949935242</v>
+        <v>72.658865381645299</v>
       </c>
       <c r="I13" s="20">
-        <v>7.0556864624514315</v>
+        <v>49.726218442858169</v>
       </c>
       <c r="J13" s="20">
-        <v>11.759477437419052</v>
+        <v>90.82358172705662</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="16">
-        <v>45604</v>
+        <v>45593</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.6223905170283478</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P13" s="19">
-        <v>0.25451341065151861</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q13" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="R13" s="19">
-        <v>1.6834397167810114E-3</v>
+        <v>0</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <v>0</v>
+        <v>1.8260018543319254E-2</v>
       </c>
       <c r="U13" s="19">
-        <v>0.11990650536310468</v>
-      </c>
-      <c r="V13" s="19" t="str">
-        <f>IF(D13&lt;=H13,D13/I13-1,"")</f>
-        <v/>
+        <v>0.11541499261701178</v>
+      </c>
+      <c r="V13" s="19">
+        <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
+        <v>0.28399970298174704</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D14" s="20">
-        <v>70.099998474121094</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>8.4413821089639046E-2</v>
+        <v>0.28022499414971119</v>
       </c>
       <c r="G14" s="19">
-        <v>7.034566811322239E-2</v>
+        <v>7.2787679899822919E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>62.545664670217512</v>
+        <v>6.0169308566100197</v>
       </c>
       <c r="I14" s="20">
-        <v>50.762107466405496</v>
+        <v>4.23506173868613</v>
       </c>
       <c r="J14" s="20">
-        <v>78.182080837771892</v>
-      </c>
-      <c r="K14" s="8" t="s">
+        <v>7.5211635707625248</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>59</v>
+      <c r="L14" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M14" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P14" s="19">
-        <v>0.66167150000644004</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q14" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="19">
-        <v>0.17959118565275847</v>
+        <v>0</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
       </c>
       <c r="T14" s="19">
-        <v>1.6744128904032363E-4</v>
+        <v>0</v>
       </c>
       <c r="U14" s="19">
-        <v>0.15487427537057533</v>
-      </c>
-      <c r="V14" s="19" t="str">
-        <f>IF(D14&lt;=H14,D14/I14-1,"")</f>
-        <v/>
+        <v>0.36602055622301682</v>
+      </c>
+      <c r="V14" s="19">
+        <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
+        <v>0.2858243066977213</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D15" s="20">
-        <v>3.9200000762939453</v>
+        <v>17.959999084472656</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>0.13293864684791165</v>
+        <v>0.10154414245820834</v>
       </c>
       <c r="G15" s="19">
-        <v>6.3866448822844785E-2</v>
+        <v>4.4426982633780969E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>3.681713003796689</v>
+        <v>18.493330996261051</v>
       </c>
       <c r="I15" s="20">
-        <v>2.7612847528475166</v>
+        <v>8.2177513983271044</v>
       </c>
       <c r="J15" s="20">
-        <v>4.6021412547458613</v>
+        <v>25.176186301943613</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M15" s="16">
-        <v>45593</v>
+        <v>45591</v>
       </c>
       <c r="N15" s="16">
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P15" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q15" s="19">
-        <v>0.49449639261897682</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="R15" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S15" s="19">
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <v>0</v>
+        <v>9.0430154247230065E-3</v>
       </c>
       <c r="U15" s="19">
-        <v>0.17011331848714512</v>
-      </c>
-      <c r="V15" s="19" t="str">
-        <f>IF(D15&lt;=H15,D15/I15-1,"")</f>
-        <v/>
+        <v>0.12415815772322404</v>
+      </c>
+      <c r="V15" s="19">
+        <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
+        <v>0.54244143556600877</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D16" s="20">
-        <v>72.5</v>
+        <v>34.150001525878906</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="19">
-        <v>-1.9150962745846989E-2</v>
+        <v>3.219411078814375E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>0</v>
+        <v>1.4641287779185002E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>0.69467261029443028</v>
+        <v>14.178950520335441</v>
       </c>
       <c r="I16" s="20">
-        <v>2.3684939271736534</v>
+        <v>9.7037792588870744</v>
       </c>
       <c r="J16" s="20">
-        <v>0.86834076286803785</v>
+        <v>17.723688150419299</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M16" s="16">
         <v>45603</v>
@@ -1761,16 +1761,16 @@
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P16" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q16" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
@@ -1779,127 +1779,127 @@
         <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>-7.3026634739724955E-2</v>
+        <v>0.17614360597656339</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f>IF(D16&lt;=H16,D16/I16-1,"")</f>
+        <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D17" s="20">
-        <v>4.570000171661377</v>
+        <v>5.3000001907348633</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>7.2112725416602269E-2</v>
+        <v>-1.6505658173836507E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>3.4617066533388773E-2</v>
+        <v>3.7624235972292183E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>3.7231475999263575</v>
+        <v>2.6400621528464887</v>
       </c>
       <c r="I17" s="20">
-        <v>2.7923606999447683</v>
+        <v>1.8068037069614116</v>
       </c>
       <c r="J17" s="20">
-        <v>4.6539344999079466</v>
+        <v>3.3000776910581111</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M17" s="16">
-        <v>45591</v>
+        <v>45603</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P17" s="19">
-        <v>0.20403193785652382</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q17" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R17" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="U17" s="19">
-        <v>0.11503893745007428</v>
+        <v>-2.4615858697631419E-2</v>
       </c>
       <c r="V17" s="19" t="str">
-        <f>IF(D17&lt;=H17,D17/I17-1,"")</f>
+        <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D18" s="20">
-        <v>4.5500001907348633</v>
+        <v>8.5699996948242188</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>7.6173615612984427E-2</v>
+        <v>1.6908788461579286E-2</v>
       </c>
       <c r="G18" s="19">
-        <v>6.2196221809755182E-2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="20">
-        <v>4.1616591337849105</v>
+        <v>1.5459551041353221</v>
       </c>
       <c r="I18" s="20">
-        <v>3.1212443503386829</v>
+        <v>1.0881320505881265</v>
       </c>
       <c r="J18" s="20">
-        <v>5.2020739172311377</v>
+        <v>1.9324438801691526</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M18" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P18" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.49473021389230248</v>
       </c>
       <c r="Q18" s="19">
-        <v>0.39408770164042439</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="R18" s="19">
         <v>0.03</v>
@@ -1911,262 +1911,262 @@
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>7.6921524267833455E-2</v>
+        <v>0.11305626992292581</v>
       </c>
       <c r="V18" s="19" t="str">
-        <f>IF(D18&lt;=H18,D18/I18-1,"")</f>
+        <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D19" s="20">
-        <v>4.9899997711181641</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>7.3468483534568169E-2</v>
+        <v>6.1311307721095609E-2</v>
       </c>
       <c r="G19" s="19">
-        <v>4.3457464212366272E-2</v>
+        <v>2.7318414566671691E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>2.8599768818929698</v>
+        <v>1.9195367817343434</v>
       </c>
       <c r="I19" s="20">
-        <v>2.1449826614197276</v>
+        <v>1.351080305566942</v>
       </c>
       <c r="J19" s="20">
-        <v>3.5749711023662121</v>
+        <v>2.3994209771679293</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M19" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.78463553343209413</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P19" s="19">
-        <v>0.15995376005296372</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q19" s="19">
-        <v>0</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="R19" s="19">
-        <v>1.7206411836009534E-4</v>
+        <v>0</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>9.386945223960261E-6</v>
+        <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>5.5229255451358046E-2</v>
+        <v>6.6194720593479306E-2</v>
       </c>
       <c r="V19" s="19" t="str">
-        <f>IF(D19&lt;=H19,D19/I19-1,"")</f>
+        <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D20" s="20">
-        <v>25.799999237060547</v>
+        <v>10.760000228881836</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="19">
-        <v>0.11052628195192531</v>
+        <v>3.7711541679415601E-2</v>
       </c>
       <c r="G20" s="19">
-        <v>5.7364342781609311E-2</v>
+        <v>1.6045759112626748E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>23.125</v>
+        <v>1.8341399175728841</v>
       </c>
       <c r="I20" s="20">
-        <v>17.34375</v>
+        <v>1.290973084687602</v>
       </c>
       <c r="J20" s="20">
-        <v>28.90625</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>75</v>
+        <v>2.2926748969661053</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="M20" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P20" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.17055682117844595</v>
       </c>
       <c r="Q20" s="19">
-        <v>0.54295694135635775</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="R20" s="19">
-        <v>0.03</v>
+        <v>0.12357639997060962</v>
       </c>
       <c r="S20" s="19">
         <v>0</v>
       </c>
       <c r="T20" s="19">
-        <v>0</v>
+        <v>7.0052944996285213E-3</v>
       </c>
       <c r="U20" s="19">
-        <v>0.28195247346973129</v>
+        <v>0.21007939579279941</v>
       </c>
       <c r="V20" s="19" t="str">
-        <f>IF(D20&lt;=H20,D20/I20-1,"")</f>
+        <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="D21" s="20">
-        <v>93.050003051757813</v>
+        <v>5.9000000953674316</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="19">
-        <v>0.12527456882395377</v>
+        <v>-8.4733895476137883E-2</v>
       </c>
       <c r="G21" s="19">
-        <v>2.5064362508967923E-2</v>
+        <v>2.8933903353083816E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>36.44123449921608</v>
+        <v>1.9314790824702368</v>
       </c>
       <c r="I21" s="20">
-        <v>27.33092587441206</v>
+        <v>1.3594859831663286</v>
       </c>
       <c r="J21" s="20">
-        <v>45.5515431240201</v>
+        <v>2.4143488530877959</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M21" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N21" s="16">
         <v>45716</v>
       </c>
       <c r="O21" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P21" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q21" s="19">
-        <v>0.50814791601378884</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R21" s="19">
-        <v>0.03</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S21" s="19">
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <v>0</v>
+        <v>5.409642155098836E-4</v>
       </c>
       <c r="U21" s="19">
-        <v>0.12564608795570875</v>
+        <v>-4.5442109301350432E-2</v>
       </c>
       <c r="V21" s="19" t="str">
-        <f>IF(D21&lt;=H21,D21/I21-1,"")</f>
+        <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D22" s="20">
-        <v>38.450000762939453</v>
+        <v>1.0399999618530273</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="19">
-        <v>0.13730702860953747</v>
+        <v>5.1618315166850254E-2</v>
       </c>
       <c r="G22" s="19">
-        <v>5.5609049133895076E-2</v>
+        <v>5.0104467165786808E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>31.443646788597103</v>
+        <v>0.65277855420395881</v>
       </c>
       <c r="I22" s="20">
-        <v>23.582735091447827</v>
+        <v>0.45946306258563291</v>
       </c>
       <c r="J22" s="20">
-        <v>39.304558485746377</v>
+        <v>0.81597319275494851</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="M22" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N22" s="16">
         <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P22" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q22" s="19">
-        <v>0.34356507928375646</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R22" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S22" s="19">
         <v>0</v>
@@ -2175,238 +2175,238 @@
         <v>0</v>
       </c>
       <c r="U22" s="19">
-        <v>0.34952455362860874</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V22" s="19" t="str">
-        <f>IF(D22&lt;=H22,D22/I22-1,"")</f>
+        <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="D23" s="20">
-        <v>5.7800002098083496</v>
+        <v>9.7299995422363281</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="19">
-        <v>6.2659236337922142E-2</v>
+        <v>9.2618658772456522E-2</v>
       </c>
       <c r="G23" s="19">
-        <v>5.8452690512318613E-2</v>
+        <v>6.5432235425117904E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>4.9584468493078111</v>
+        <v>8.5748655081613343</v>
       </c>
       <c r="I23" s="20">
-        <v>4.3067394014186373</v>
+        <v>6.0354831546882073</v>
       </c>
       <c r="J23" s="20">
-        <v>6.1980585616347641</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>19</v>
+        <v>10.718581885201669</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="M23" s="16">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.35166796085418528</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P23" s="19">
-        <v>0.40660753935436778</v>
+        <v>0.25451341065151861</v>
       </c>
       <c r="Q23" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="R23" s="19">
-        <v>3.2256320498000146E-2</v>
+        <v>1.6834397167810114E-3</v>
       </c>
       <c r="S23" s="19">
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <v>0</v>
+        <v>4.1457926751634292E-3</v>
       </c>
       <c r="U23" s="19">
-        <v>0.2067479536230501</v>
+        <v>0.11576071268794125</v>
       </c>
       <c r="V23" s="19" t="str">
-        <f>IF(D23&lt;=H23,D23/I23-1,"")</f>
+        <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D24" s="20">
-        <v>1.7799999713897705</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="19">
-        <v>-3.9004496635637494E-2</v>
+        <v>0.13505229877832339</v>
       </c>
       <c r="G24" s="19">
-        <v>6.0913690999604739E-2</v>
+        <v>7.1813695565755106E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>1.4514394173477214</v>
+        <v>4.883075646179436</v>
       </c>
       <c r="I24" s="20">
-        <v>1.0885795630107911</v>
+        <v>3.4369892772701567</v>
       </c>
       <c r="J24" s="20">
-        <v>1.8142992716846518</v>
+        <v>6.1038445577242948</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="M24" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0.39325092997635303</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P24" s="19">
-        <v>0.24326660244029483</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q24" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="R24" s="19">
-        <v>0.57635255668591923</v>
+        <v>0</v>
       </c>
       <c r="S24" s="19">
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <v>2.3716125582531654E-3</v>
+        <v>2.9490457891516841E-3</v>
       </c>
       <c r="U24" s="19">
-        <v>-0.22481227614881466</v>
+        <v>0.12330732947833466</v>
       </c>
       <c r="V24" s="19" t="str">
-        <f>IF(D24&lt;=H24,D24/I24-1,"")</f>
+        <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D25" s="20">
-        <v>2.75</v>
+        <v>3.8299999237060547</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="19">
-        <v>0.13446761181174982</v>
+        <v>0.15901182762145899</v>
       </c>
       <c r="G25" s="19">
-        <v>6.8210042563351711E-2</v>
+        <v>6.505455846164776E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>2.7584943683708412</v>
+        <v>3.3498807964334549</v>
       </c>
       <c r="I25" s="20">
-        <v>2.0688707762781311</v>
+        <v>2.3578386270717044</v>
       </c>
       <c r="J25" s="20">
-        <v>3.4481179604635512</v>
-      </c>
-      <c r="K25" s="6" t="s">
+        <v>4.1873509955418182</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="8" t="s">
         <v>75</v>
       </c>
       <c r="M25" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N25" s="16">
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>0.19853855217217412</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P25" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q25" s="19">
-        <v>0.51643948647548221</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="R25" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S25" s="19">
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <v>0</v>
+        <v>3.5193961201691735E-4</v>
       </c>
       <c r="U25" s="19">
-        <v>9.6810145099862008E-2</v>
-      </c>
-      <c r="V25" s="19">
-        <f>IF(D25&lt;=H25,D25/I25-1,"")</f>
-        <v>0.329227533943522</v>
+        <v>0.19976137887512818</v>
+      </c>
+      <c r="V25" s="19" t="str">
+        <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D26" s="20">
-        <v>3.7200000286102295</v>
+        <v>4.6399998664855957</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="19">
-        <v>0.21403672052755518</v>
+        <v>0.26160019465397938</v>
       </c>
       <c r="G26" s="19">
-        <v>6.890320767200217E-2</v>
+        <v>7.1256314949581831E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>3.7694108016350687</v>
+        <v>4.5761671481292678</v>
       </c>
       <c r="I26" s="20">
-        <v>2.8270581012263016</v>
+        <v>3.2209694378628289</v>
       </c>
       <c r="J26" s="20">
-        <v>4.7117635020438362</v>
+        <v>5.720208935161585</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>18</v>
@@ -2421,82 +2421,82 @@
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P26" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q26" s="19">
-        <v>0.51024868123587042</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="R26" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S26" s="19">
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <v>0</v>
+        <v>7.2783600033702114E-4</v>
       </c>
       <c r="U26" s="19">
-        <v>0.25257215961865376</v>
-      </c>
-      <c r="V26" s="19">
-        <f>IF(D26&lt;=H26,D26/I26-1,"")</f>
-        <v>0.31585552734009736</v>
+        <v>0.34645058427796466</v>
+      </c>
+      <c r="V26" s="19" t="str">
+        <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D27" s="20">
-        <v>4.7800002098083496</v>
+        <v>73</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="19">
-        <v>0.23359997615918934</v>
+        <v>-1.1152686764276732E-2</v>
       </c>
       <c r="G27" s="19">
-        <v>6.9501752655798305E-2</v>
+        <v>0</v>
       </c>
       <c r="H27" s="20">
-        <v>4.8855645923053519</v>
+        <v>0</v>
       </c>
       <c r="I27" s="20">
-        <v>3.6641734442290139</v>
+        <v>0</v>
       </c>
       <c r="J27" s="20">
-        <v>6.1069557403816894</v>
+        <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M27" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P27" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q27" s="19">
-        <v>0.48610500800425166</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="R27" s="19">
-        <v>3.0000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="19">
         <v>0</v>
@@ -2505,40 +2505,40 @@
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <v>0.31717842027830168</v>
-      </c>
-      <c r="V27" s="19">
-        <f>IF(D27&lt;=H27,D27/I27-1,"")</f>
-        <v>0.30452345735345476</v>
+        <v>-4.3026634739724949E-2</v>
+      </c>
+      <c r="V27" s="19" t="str">
+        <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20">
-        <v>6.0999999046325684</v>
+        <v>4.4800000190734863</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="19">
-        <v>0.25128955445964718</v>
+        <v>0.1067414026241545</v>
       </c>
       <c r="G28" s="19">
-        <v>7.1099258971593568E-2</v>
+        <v>6.2865888432239253E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>6.3780216609730438</v>
+        <v>3.7478223376716393</v>
       </c>
       <c r="I28" s="20">
-        <v>4.7835162457297828</v>
+        <v>2.6379327540767035</v>
       </c>
       <c r="J28" s="20">
-        <v>7.9725270762163047</v>
+        <v>4.6847779220895491</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>18</v>
@@ -2547,70 +2547,70 @@
         <v>75</v>
       </c>
       <c r="M28" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>0.47700776116848903</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P28" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q28" s="19">
-        <v>0</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="R28" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S28" s="19">
         <v>0</v>
       </c>
       <c r="T28" s="19">
-        <v>0</v>
+        <v>2.8028997271722927E-4</v>
       </c>
       <c r="U28" s="19">
-        <v>0.33602055622301685</v>
-      </c>
-      <c r="V28" s="19">
-        <f>IF(D28&lt;=H28,D28/I28-1,"")</f>
-        <v>0.27521254058204625</v>
+        <v>0.10664123429511622</v>
+      </c>
+      <c r="V28" s="19" t="str">
+        <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="20">
-        <v>1.9700000286102295</v>
+        <v>4.9000000953674316</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="19">
-        <v>3.022185050404131E-2</v>
+        <v>7.4603877807629879E-2</v>
       </c>
       <c r="G29" s="19">
-        <v>6.4835664937910112E-2</v>
+        <v>4.4043971521468939E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>2.0651494013502649</v>
+        <v>2.6264557517590497</v>
       </c>
       <c r="I29" s="20">
-        <v>1.5488620510126987</v>
+        <v>1.8486505043359853</v>
       </c>
       <c r="J29" s="20">
-        <v>2.5814367516878312</v>
+        <v>3.2830696896988121</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M29" s="16">
         <v>45593</v>
@@ -2619,58 +2619,58 @@
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P29" s="19">
-        <v>0.35722663926689097</v>
+        <v>0.15995376005296372</v>
       </c>
       <c r="Q29" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>0</v>
       </c>
       <c r="R29" s="19">
-        <v>2.4949477045225803E-2</v>
+        <v>6.5362849144738304E-5</v>
       </c>
       <c r="S29" s="19">
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <v>1.3611168709786237E-3</v>
+        <v>9.386945223960261E-6</v>
       </c>
       <c r="U29" s="19">
-        <v>6.0422694644905017E-2</v>
-      </c>
-      <c r="V29" s="19">
-        <f>IF(D29&lt;=H29,D29/I29-1,"")</f>
-        <v>0.27190154043878634</v>
+        <v>5.5335956720573398E-2</v>
+      </c>
+      <c r="V29" s="19" t="str">
+        <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D30" s="20">
-        <v>4.9600000381469727</v>
+        <v>25.299999237060547</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="19">
-        <v>0.10465002731846454</v>
+        <v>0.12267705900322393</v>
       </c>
       <c r="G30" s="19">
-        <v>7.1285964536294141E-2</v>
+        <v>5.8498025479464491E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>5.1996821591082734</v>
+        <v>21.646217481075226</v>
       </c>
       <c r="I30" s="20">
-        <v>3.8997616193312048</v>
+        <v>14.814221681989991</v>
       </c>
       <c r="J30" s="20">
-        <v>6.4996026988853419</v>
+        <v>27.057771851344032</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>18</v>
@@ -2679,67 +2679,67 @@
         <v>75</v>
       </c>
       <c r="M30" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N30" s="16">
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>0.18760554961924605</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P30" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q30" s="19">
-        <v>0.49099920776112166</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="R30" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S30" s="19">
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>0</v>
+        <v>1.4967770896312765E-2</v>
       </c>
       <c r="U30" s="19">
-        <v>9.6256375267486358E-2</v>
-      </c>
-      <c r="V30" s="19">
-        <f>IF(D30&lt;=H30,D30/I30-1,"")</f>
-        <v>0.27187262256240041</v>
+        <v>0.29698470257341852</v>
+      </c>
+      <c r="V30" s="19" t="str">
+        <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D31" s="20">
-        <v>5.9600000381469727</v>
+        <v>91.650001525878906</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="19">
-        <v>0.16824249401155134</v>
+        <v>0.15761227489245175</v>
       </c>
       <c r="G31" s="19">
-        <v>6.8221288302784552E-2</v>
+        <v>2.5456256931698149E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>6.353107513859868</v>
+        <v>29.119422640387619</v>
       </c>
       <c r="I31" s="20">
-        <v>4.764830635394901</v>
+        <v>19.928728084867817</v>
       </c>
       <c r="J31" s="20">
-        <v>7.9413843923248351</v>
+        <v>36.399278300484525</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>75</v>
@@ -2751,16 +2751,16 @@
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P31" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q31" s="19">
-        <v>0.583299310268654</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="R31" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S31" s="19">
         <v>0</v>
@@ -2769,45 +2769,45 @@
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <v>0.18060967359553776</v>
-      </c>
-      <c r="V31" s="19">
-        <f>IF(D31&lt;=H31,D31/I31-1,"")</f>
-        <v>0.25083145534574025</v>
+        <v>0.15564608795570875</v>
+      </c>
+      <c r="V31" s="19" t="str">
+        <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D32" s="20">
-        <v>94.699996948242188</v>
+        <v>5.8499999046325684</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="19">
-        <v>0.10631547825380259</v>
+        <v>0.19794504262053697</v>
       </c>
       <c r="G32" s="19">
-        <v>7.1805704531506018E-2</v>
+        <v>6.9171624414682373E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>106.25</v>
+        <v>5.5464427074584943</v>
       </c>
       <c r="I32" s="20">
-        <v>79.6875</v>
+        <v>3.9039051396722111</v>
       </c>
       <c r="J32" s="20">
-        <v>132.8125</v>
-      </c>
-      <c r="K32" s="8" t="s">
+        <v>6.9330533843231184</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="6" t="s">
         <v>75</v>
       </c>
       <c r="M32" s="16">
@@ -2817,79 +2817,79 @@
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P32" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q32" s="19">
-        <v>0.39159225009737869</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="R32" s="19">
-        <v>2.9999999999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="19">
         <v>0</v>
       </c>
       <c r="T32" s="19">
-        <v>0</v>
+        <v>1.0335122256212414E-3</v>
       </c>
       <c r="U32" s="19">
-        <v>0.32546835552606146</v>
-      </c>
-      <c r="V32" s="19">
-        <f>IF(D32&lt;=H32,D32/I32-1,"")</f>
-        <v>0.18839211856617655</v>
+        <v>0.2095761613699165</v>
+      </c>
+      <c r="V32" s="19" t="str">
+        <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="D33" s="20">
-        <v>17.659999847412109</v>
+        <v>37.450000762939453</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="19">
-        <v>0.10323225279988871</v>
+        <v>0.15113805807650268</v>
       </c>
       <c r="G33" s="19">
-        <v>4.516555452003828E-2</v>
+        <v>5.6820839470038569E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>20.074047384375657</v>
+        <v>27.520726612561681</v>
       </c>
       <c r="I33" s="20">
-        <v>15.055535538281742</v>
+        <v>19.370669046273086</v>
       </c>
       <c r="J33" s="20">
-        <v>25.092559230469572</v>
+        <v>34.4009082657021</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M33" s="16">
-        <v>45591</v>
+        <v>45606</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>0.40723441233977836</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P33" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q33" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="R33" s="19">
         <v>0</v>
@@ -2898,115 +2898,115 @@
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <v>9.0430154247230065E-3</v>
+        <v>2.9971565437917872E-3</v>
       </c>
       <c r="U33" s="19">
-        <v>0.12415815772322404</v>
-      </c>
-      <c r="V33" s="19">
-        <f>IF(D33&lt;=H33,D33/I33-1,"")</f>
-        <v>0.17299047931626155</v>
+        <v>0.37652739708481697</v>
+      </c>
+      <c r="V33" s="19" t="str">
+        <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D34" s="20">
-        <v>15.100000381469727</v>
+        <v>3.6400001049041748</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="19">
-        <v>0.10045051675038838</v>
+        <v>0.23262557243098181</v>
       </c>
       <c r="G34" s="19">
-        <v>9.0066222890229308E-2</v>
+        <v>8.8934941663101841E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>18.035701122257137</v>
+        <v>3.5113679430712987</v>
       </c>
       <c r="I34" s="20">
-        <v>13.526775841692853</v>
+        <v>2.4715025617775868</v>
       </c>
       <c r="J34" s="20">
-        <v>22.544626402821422</v>
+        <v>6.0783692433735439</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M34" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N34" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>0.72762956087193742</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P34" s="19">
-        <v>0.12012374818624762</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q34" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>0.51024868123587042</v>
       </c>
       <c r="R34" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S34" s="19">
-        <v>4.0883763120383568E-2</v>
+        <v>0</v>
       </c>
       <c r="T34" s="19">
-        <v>0</v>
+        <v>1.267678449378735E-2</v>
       </c>
       <c r="U34" s="19">
-        <v>7.7474362783882672E-2</v>
-      </c>
-      <c r="V34" s="19">
-        <f>IF(D34&lt;=H34,D34/I34-1,"")</f>
-        <v>0.11630447330455551</v>
+        <v>0.26989537512486639</v>
+      </c>
+      <c r="V34" s="19" t="str">
+        <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D35" s="20">
-        <v>5.630000114440918</v>
+        <v>5.7300000190734863</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="19">
-        <v>0.16355531976433282</v>
+        <v>6.2903669826134628E-2</v>
       </c>
       <c r="G35" s="19">
-        <v>8.6664058107730646E-2</v>
+        <v>5.8680714278204878E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>7.1752743685946738</v>
+        <v>5.6515256064808614</v>
       </c>
       <c r="I35" s="20">
-        <v>5.3814557764460051</v>
+        <v>4.2308513982916809</v>
       </c>
       <c r="J35" s="20">
-        <v>8.9690929607433425</v>
+        <v>7.3195156001204627</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="M35" s="16">
         <v>45605</v>
@@ -3015,16 +3015,16 @@
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>0.86263355974668987</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P35" s="19">
-        <v>-4.0574066127933066E-2</v>
+        <v>0.40660753935436778</v>
       </c>
       <c r="Q35" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="R35" s="19">
-        <v>0.10112081917973094</v>
+        <v>3.2256320498000146E-2</v>
       </c>
       <c r="S35" s="19">
         <v>0</v>
@@ -3033,46 +3033,46 @@
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <v>6.8828021940795986E-2</v>
-      </c>
-      <c r="V35" s="19">
-        <f>IF(D35&lt;=H35,D35/I35-1,"")</f>
-        <v>4.6185335031974528E-2</v>
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V35" s="19" t="str">
+        <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D36" s="20">
-        <v>7.929999828338623</v>
+        <v>1.7400000095367432</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="19">
-        <v>2.1925649394464258E-2</v>
+        <v>-3.9710291673058125E-2</v>
       </c>
       <c r="G36" s="19">
-        <v>7.3139976362586262E-2</v>
+        <v>6.2015937779510956E-2</v>
       </c>
       <c r="H36" s="20">
-        <v>10.491619631157537</v>
+        <v>1.3867805724465831</v>
       </c>
       <c r="I36" s="20">
-        <v>7.8687147233681527</v>
+        <v>1.2569717641094802</v>
       </c>
       <c r="J36" s="20">
-        <v>13.11452453894692</v>
+        <v>1.9426922665989239</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M36" s="16">
         <v>45593</v>
@@ -3081,29 +3081,29 @@
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>0.60969766115231028</v>
+        <v>0.39325092997635303</v>
       </c>
       <c r="P36" s="19">
-        <v>0.10541928123217342</v>
+        <v>0.24326660244029483</v>
       </c>
       <c r="Q36" s="19">
-        <v>0</v>
+        <v>9.5705744879944314E-3</v>
       </c>
       <c r="R36" s="19">
-        <v>7.8722190530519116E-3</v>
+        <v>0.57635255668591923</v>
       </c>
       <c r="S36" s="19">
         <v>0</v>
       </c>
       <c r="T36" s="19">
-        <v>1.7227609811751282E-2</v>
+        <v>2.3716125582531654E-3</v>
       </c>
       <c r="U36" s="19">
-        <v>0.25978322875071308</v>
-      </c>
-      <c r="V36" s="19">
-        <f>IF(D36&lt;=H36,D36/I36-1,"")</f>
-        <v>7.7884517516524365E-3</v>
+        <v>-0.22481227614881466</v>
+      </c>
+      <c r="V36" s="19" t="str">
+        <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -5677,7 +5677,7 @@
   </sheetData>
   <autoFilter ref="B4:V36" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V36">
-      <sortCondition descending="1" ref="V4:V36"/>
+      <sortCondition ref="V4:V36"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8EACCE-701A-4090-B569-4AFBCB668932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE97D97-F733-485F-9989-3FCEF5AAD399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,250 +996,250 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="20">
-        <v>5.5500001907348633</v>
+        <v>71.349998474121094</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>0.14864175384734249</v>
+        <v>6.1613060834322234E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>8.7492752934610424E-2</v>
+        <v>6.6540015373203587E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>9.5943672722293503</v>
+        <v>72.116173961404044</v>
       </c>
       <c r="I5" s="20">
-        <v>6.1252726165035227</v>
+        <v>49.354811705796756</v>
       </c>
       <c r="J5" s="20">
-        <v>12.248114933250045</v>
+        <v>90.145217451755059</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M5" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N5" s="16">
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.86263355974668987</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P5" s="19">
-        <v>-4.0574066127933066E-2</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q5" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="R5" s="19">
-        <v>0.10112081917973094</v>
+        <v>0</v>
       </c>
       <c r="S5" s="19">
         <v>0</v>
       </c>
       <c r="T5" s="19">
-        <v>6.8684548583665562E-3</v>
+        <v>1.8260018543319254E-2</v>
       </c>
       <c r="U5" s="19">
-        <v>6.1959567082429431E-2</v>
+        <v>0.11541499261701178</v>
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v>-0.10365268576549158</v>
+        <v>0.3082717202341928</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D6" s="20">
-        <v>7.880000114440918</v>
+        <v>93.25</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>2.8111366564231792E-2</v>
+        <v>0.10739200390359734</v>
       </c>
       <c r="G6" s="19">
-        <v>7.360405984475682E-2</v>
+        <v>7.2922252010723859E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>9.6632581131187472</v>
+        <v>106.41925546491164</v>
       </c>
       <c r="I6" s="20">
-        <v>7.8822354480145087</v>
+        <v>72.831128259144521</v>
       </c>
       <c r="J6" s="20">
-        <v>13.360982801347237</v>
+        <v>133.02406933113954</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="M6" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N6" s="16">
         <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>0.60969766115231028</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P6" s="19">
-        <v>0.10541928123217342</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q6" s="19">
-        <v>0</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="R6" s="19">
-        <v>7.8722190530519116E-3</v>
+        <v>0</v>
       </c>
       <c r="S6" s="19">
         <v>0</v>
       </c>
       <c r="T6" s="19">
-        <v>1.7227609811751282E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>0.25978322875071308</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
-        <v>-2.8367176917853953E-4</v>
+        <v>0.2189691339501928</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="D7" s="20">
-        <v>14.899999618530273</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>0.10179885101227353</v>
+        <v>3.3316028258770412E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>9.127517012206135E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>19.248287825960091</v>
+        <v>14.256175484632012</v>
       </c>
       <c r="I7" s="20">
-        <v>13.086610457688973</v>
+        <v>9.7566304205957355</v>
       </c>
       <c r="J7" s="20">
-        <v>31.580766258022621</v>
+        <v>17.820219355790016</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="M7" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N7" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.72762956087193742</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P7" s="19">
-        <v>0.12012374818624762</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q7" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S7" s="19">
-        <v>4.0883763120383568E-2</v>
+        <v>0</v>
       </c>
       <c r="T7" s="19">
         <v>0</v>
       </c>
       <c r="U7" s="19">
-        <v>7.7474362783882672E-2</v>
-      </c>
-      <c r="V7" s="19">
+        <v>0.17614360597656339</v>
+      </c>
+      <c r="V7" s="19" t="str">
         <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
-        <v>0.12170397364212626</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="D8" s="20">
-        <v>2.7300000190734863</v>
+        <v>5.130000114440918</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="19">
-        <v>0.17515387013651476</v>
+        <v>-1.7065888413507872E-2</v>
       </c>
       <c r="G8" s="19">
-        <v>8.3005947364514054E-2</v>
+        <v>3.8901266825240588E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>3.3122235856536952</v>
+        <v>2.6584135350289539</v>
       </c>
       <c r="I8" s="20">
-        <v>2.331333317910008</v>
+        <v>1.8193630117942141</v>
       </c>
       <c r="J8" s="20">
-        <v>4.1402794820671192</v>
+        <v>3.3230169187861924</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="M8" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.19853855217217412</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P8" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q8" s="19">
-        <v>0.51643948647548221</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
@@ -1248,49 +1248,49 @@
         <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>1.0233017334875492E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>0.12578684336637444</v>
-      </c>
-      <c r="V8" s="19">
+        <v>-2.4615858697631419E-2</v>
+      </c>
+      <c r="V8" s="19" t="str">
         <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
-        <v>0.14603175764767162</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D9" s="20">
-        <v>1.940000057220459</v>
+        <v>7.8499999046325684</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>3.8363070176426914E-2</v>
+        <v>2.8218799291005289E-2</v>
       </c>
       <c r="G9" s="19">
-        <v>6.5523353058168796E-2</v>
+        <v>7.3885351216083583E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>1.9791168658051488</v>
+        <v>9.6696838848459237</v>
       </c>
       <c r="I9" s="20">
-        <v>1.594996070705033</v>
+        <v>7.8866331127301788</v>
       </c>
       <c r="J9" s="20">
-        <v>2.624701363985662</v>
+        <v>13.369357061668836</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M9" s="16">
         <v>45593</v>
@@ -1299,145 +1299,145 @@
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P9" s="19">
-        <v>0.35722663926689097</v>
+        <v>0.10541928123217342</v>
       </c>
       <c r="Q9" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>0</v>
       </c>
       <c r="R9" s="19">
-        <v>9.4776814590380575E-3</v>
+        <v>7.8722190530519116E-3</v>
       </c>
       <c r="S9" s="19">
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <v>1.3611168709786237E-3</v>
+        <v>1.7227609811751282E-2</v>
       </c>
       <c r="U9" s="19">
-        <v>7.5894490231092765E-2</v>
+        <v>0.25978322875071308</v>
       </c>
       <c r="V9" s="19">
         <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
-        <v>0.17783710120593066</v>
+        <v>-4.666650769765246E-3</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D10" s="20">
-        <v>4.4600000381469727</v>
+        <v>8.3100004196166992</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="19">
-        <v>7.1063265675186185E-2</v>
+        <v>1.7386148311362901E-2</v>
       </c>
       <c r="G10" s="19">
-        <v>3.5470851714550312E-2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="20">
-        <v>4.7118793647285235</v>
+        <v>1.5449950938486592</v>
       </c>
       <c r="I10" s="20">
-        <v>3.58198680957836</v>
+        <v>1.0874563401751802</v>
       </c>
       <c r="J10" s="20">
-        <v>6.8091097557065616</v>
+        <v>1.9312438673108239</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M10" s="16">
-        <v>45591</v>
+        <v>45603</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P10" s="19">
-        <v>0.20403193785652382</v>
+        <v>0.49473021389230248</v>
       </c>
       <c r="Q10" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="R10" s="19">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
       </c>
       <c r="T10" s="19">
-        <v>7.7741956185885708E-4</v>
+        <v>0</v>
       </c>
       <c r="U10" s="19">
-        <v>0.11506151788821542</v>
-      </c>
-      <c r="V10" s="19">
+        <v>0.11305626992292581</v>
+      </c>
+      <c r="V10" s="19" t="str">
         <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
-        <v>0.19686395091005582</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D11" s="20">
-        <v>93.800003051757813</v>
+        <v>2.3299999237060547</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>0.10676230317908059</v>
+        <v>6.2179056239830534E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>7.249466715100035E-2</v>
+        <v>2.7705056356833013E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>106.20737147920906</v>
+        <v>1.9216853482680978</v>
       </c>
       <c r="I11" s="20">
-        <v>72.686119259867581</v>
+        <v>1.3525925901746545</v>
       </c>
       <c r="J11" s="20">
-        <v>132.75921434901133</v>
+        <v>2.4021066853351223</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="M11" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P11" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q11" s="19">
-        <v>0.39159225009737869</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="R11" s="19">
         <v>0</v>
@@ -1449,259 +1449,259 @@
         <v>0</v>
       </c>
       <c r="U11" s="19">
-        <v>0.35546835552606143</v>
-      </c>
-      <c r="V11" s="19">
+        <v>6.6194720593479306E-2</v>
+      </c>
+      <c r="V11" s="19" t="str">
         <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
-        <v>0.22509470261146813</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D12" s="20">
-        <v>70</v>
+        <v>14.979999542236328</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="19">
-        <v>8.4130056929166572E-2</v>
+        <v>0.11007757748780705</v>
       </c>
       <c r="G12" s="19">
-        <v>7.0109195232391341E-2</v>
+        <v>9.0787719730261673E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>76.376347376842119</v>
+        <v>22.005314840704898</v>
       </c>
       <c r="I12" s="20">
-        <v>53.560145486130679</v>
+        <v>18.704517614599162</v>
       </c>
       <c r="J12" s="20">
-        <v>95.561564475297374</v>
+        <v>27.506643550881122</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M12" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N12" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O12" s="19">
-        <v>0</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P12" s="19">
-        <v>0.66167150000644004</v>
+        <v>0.14991333007350532</v>
       </c>
       <c r="Q12" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R12" s="19">
-        <v>0.17959118565275847</v>
+        <v>1.4343830423173436E-2</v>
       </c>
       <c r="S12" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T12" s="19">
-        <v>1.6744128904032363E-4</v>
+        <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>0.15487427537057533</v>
+        <v>8.4224713593835085E-2</v>
       </c>
       <c r="V12" s="19">
         <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
-        <v>0.23485506448384741</v>
+        <v>-0.24863272270880254</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D13" s="20">
-        <v>69.449996948242188</v>
+        <v>10.220000267028809</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="19">
-        <v>6.3249292707159385E-2</v>
+        <v>3.9586471118207178E-2</v>
       </c>
       <c r="G13" s="19">
-        <v>6.8307090283918959E-2</v>
+        <v>1.6843516636935108E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>72.658865381645299</v>
+        <v>1.8358951452709946</v>
       </c>
       <c r="I13" s="20">
-        <v>49.726218442858169</v>
+        <v>1.2922085148170317</v>
       </c>
       <c r="J13" s="20">
-        <v>90.82358172705662</v>
+        <v>2.2948689315887432</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M13" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P13" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.17055682117844595</v>
       </c>
       <c r="Q13" s="19">
-        <v>0.55863466227121317</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="R13" s="19">
-        <v>0</v>
+        <v>0.12357639997060962</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <v>1.8260018543319254E-2</v>
+        <v>7.0052944996285213E-3</v>
       </c>
       <c r="U13" s="19">
-        <v>0.11541499261701178</v>
-      </c>
-      <c r="V13" s="19">
+        <v>0.21007939579279941</v>
+      </c>
+      <c r="V13" s="19" t="str">
         <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
-        <v>0.28399970298174704</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D14" s="20">
-        <v>5.929999828338623</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>0.28022499414971119</v>
+        <v>-8.8691911102299542E-2</v>
       </c>
       <c r="G14" s="19">
-        <v>7.2787679899822919E-2</v>
+        <v>3.0285438543975727E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>6.0169308566100197</v>
+        <v>1.9384364130038874</v>
       </c>
       <c r="I14" s="20">
-        <v>4.23506173868613</v>
+        <v>1.3643829522438584</v>
       </c>
       <c r="J14" s="20">
-        <v>7.5211635707625248</v>
+        <v>2.4230455162548594</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M14" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.47700776116848903</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P14" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q14" s="19">
-        <v>0</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R14" s="19">
-        <v>0</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
       </c>
       <c r="T14" s="19">
-        <v>0</v>
+        <v>5.409642155098836E-4</v>
       </c>
       <c r="U14" s="19">
-        <v>0.36602055622301682</v>
-      </c>
-      <c r="V14" s="19">
+        <v>-4.5442109301350432E-2</v>
+      </c>
+      <c r="V14" s="19" t="str">
         <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
-        <v>0.2858243066977213</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D15" s="20">
-        <v>17.959999084472656</v>
+        <v>1.0199999809265137</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>0.10154414245820834</v>
+        <v>5.2474476311975951E-2</v>
       </c>
       <c r="G15" s="19">
-        <v>4.4426982633780969E-2</v>
+        <v>5.0935519048164443E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>18.493330996261051</v>
+        <v>0.65342361862177689</v>
       </c>
       <c r="I15" s="20">
-        <v>8.2177513983271044</v>
+        <v>0.45991709599568753</v>
       </c>
       <c r="J15" s="20">
-        <v>25.176186301943613</v>
+        <v>0.81677952327722114</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="M15" s="16">
-        <v>45591</v>
+        <v>45603</v>
       </c>
       <c r="N15" s="16">
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P15" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q15" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R15" s="19">
         <v>0</v>
@@ -1710,76 +1710,76 @@
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <v>9.0430154247230065E-3</v>
+        <v>0</v>
       </c>
       <c r="U15" s="19">
-        <v>0.12415815772322404</v>
-      </c>
-      <c r="V15" s="19">
+        <v>0.12419023710495804</v>
+      </c>
+      <c r="V15" s="19" t="str">
         <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
-        <v>0.54244143556600877</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D16" s="20">
-        <v>34.150001525878906</v>
+        <v>9.6099996566772461</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="19">
-        <v>3.219411078814375E-2</v>
+        <v>9.349729872968901E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>1.4641287779185002E-2</v>
+        <v>6.6052967546458549E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>14.178950520335441</v>
+        <v>8.5743893435873648</v>
       </c>
       <c r="I16" s="20">
-        <v>9.7037792588870744</v>
+        <v>6.0351480026951752</v>
       </c>
       <c r="J16" s="20">
-        <v>17.723688150419299</v>
+        <v>10.717986679484206</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="M16" s="16">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P16" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.25451341065151861</v>
       </c>
       <c r="Q16" s="19">
-        <v>0</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="R16" s="19">
-        <v>0</v>
+        <v>1.6834397167810114E-3</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
       </c>
       <c r="T16" s="19">
-        <v>0</v>
+        <v>4.1457926751634292E-3</v>
       </c>
       <c r="U16" s="19">
-        <v>0.17614360597656339</v>
+        <v>0.11576071268794125</v>
       </c>
       <c r="V16" s="19" t="str">
         <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
@@ -1788,64 +1788,64 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D17" s="20">
-        <v>5.3000001907348633</v>
+        <v>5.6500000953674316</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>-1.6505658173836507E-2</v>
+        <v>0.10761352065449219</v>
       </c>
       <c r="G17" s="19">
-        <v>3.7624235972292183E-2</v>
+        <v>8.5689528462071909E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>2.6400621528464887</v>
+        <v>5.4754331028651411</v>
       </c>
       <c r="I17" s="20">
-        <v>1.8068037069614116</v>
+        <v>4.6541181374353702</v>
       </c>
       <c r="J17" s="20">
-        <v>3.3000776910581111</v>
+        <v>6.8442913785814268</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="M17" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.87</v>
       </c>
       <c r="P17" s="19">
-        <v>0.44873026767330132</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q17" s="19">
-        <v>0.12063647696552883</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="R17" s="19">
-        <v>0</v>
+        <v>1.8938483141216308E-2</v>
       </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>0</v>
+        <v>6.8684548583665562E-3</v>
       </c>
       <c r="U17" s="19">
-        <v>-2.4615858697631419E-2</v>
+        <v>4.5801396739700823E-2</v>
       </c>
       <c r="V17" s="19" t="str">
         <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
@@ -1854,55 +1854,55 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D18" s="20">
-        <v>8.5699996948242188</v>
+        <v>6.0500001907348633</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>1.6908788461579286E-2</v>
+        <v>0.27385286550122157</v>
       </c>
       <c r="G18" s="19">
-        <v>0</v>
+        <v>7.1132536818264092E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>1.5459551041353221</v>
+        <v>5.9529648862164546</v>
       </c>
       <c r="I18" s="20">
-        <v>1.0881320505881265</v>
+        <v>4.1900388125053984</v>
       </c>
       <c r="J18" s="20">
-        <v>1.9324438801691526</v>
+        <v>7.4412061077705687</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M18" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P18" s="19">
-        <v>0.49473021389230248</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q18" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>0</v>
       </c>
       <c r="R18" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S18" s="19">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>0.11305626992292581</v>
+        <v>0.36602055622301682</v>
       </c>
       <c r="V18" s="19" t="str">
         <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
@@ -1920,130 +1920,130 @@
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D19" s="20">
-        <v>2.369999885559082</v>
+        <v>71.050003051757813</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>6.1311307721095609E-2</v>
+        <v>8.2641130638668348E-2</v>
       </c>
       <c r="G19" s="19">
-        <v>2.7318414566671691E-2</v>
+        <v>6.886840890943581E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>1.9195367817343434</v>
+        <v>75.657846942558677</v>
       </c>
       <c r="I19" s="20">
-        <v>1.351080305566942</v>
+        <v>53.054428183222853</v>
       </c>
       <c r="J19" s="20">
-        <v>2.3994209771679293</v>
+        <v>94.663168882769838</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M19" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.82154354610382485</v>
+        <v>0</v>
       </c>
       <c r="P19" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q19" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R19" s="19">
-        <v>0</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>0</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U19" s="19">
-        <v>6.6194720593479306E-2</v>
-      </c>
-      <c r="V19" s="19" t="str">
+        <v>0.15487427537057533</v>
+      </c>
+      <c r="V19" s="19">
         <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
-        <v/>
+        <v>0.25328042358317304</v>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D20" s="20">
-        <v>10.760000228881836</v>
+        <v>5.0799999237060547</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="19">
-        <v>3.7711541679415601E-2</v>
+        <v>0.12988096059138474</v>
       </c>
       <c r="G20" s="19">
-        <v>1.6045759112626748E-2</v>
+        <v>6.9063850434766608E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>1.8341399175728841</v>
+        <v>4.8064706229452323</v>
       </c>
       <c r="I20" s="20">
-        <v>1.290973084687602</v>
+        <v>3.3830702593153581</v>
       </c>
       <c r="J20" s="20">
-        <v>2.2926748969661053</v>
+        <v>6.0080882786815408</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M20" s="16">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P20" s="19">
-        <v>0.17055682117844595</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q20" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="R20" s="19">
-        <v>0.12357639997060962</v>
+        <v>0</v>
       </c>
       <c r="S20" s="19">
         <v>0</v>
       </c>
       <c r="T20" s="19">
-        <v>7.0052944996285213E-3</v>
+        <v>2.9490457891516841E-3</v>
       </c>
       <c r="U20" s="19">
-        <v>0.21007939579279941</v>
+        <v>0.12330732947833466</v>
       </c>
       <c r="V20" s="19" t="str">
         <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
@@ -2052,37 +2052,37 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D21" s="20">
-        <v>5.9000000953674316</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="19">
-        <v>-8.4733895476137883E-2</v>
+        <v>0.1537241930799868</v>
       </c>
       <c r="G21" s="19">
-        <v>2.8933903353083816E-2</v>
+        <v>6.2891293404277848E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>1.9314790824702368</v>
+        <v>3.3061720640233259</v>
       </c>
       <c r="I21" s="20">
-        <v>1.3594859831663286</v>
+        <v>2.327073909196768</v>
       </c>
       <c r="J21" s="20">
-        <v>2.4143488530877959</v>
+        <v>4.1327150800291577</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M21" s="16">
         <v>45593</v>
@@ -2091,25 +2091,25 @@
         <v>45716</v>
       </c>
       <c r="O21" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P21" s="19">
-        <v>0.13052664506651043</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q21" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="R21" s="19">
-        <v>4.7067232344920495E-2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="19">
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <v>5.409642155098836E-4</v>
+        <v>3.5193961201691735E-4</v>
       </c>
       <c r="U21" s="19">
-        <v>-4.5442109301350432E-2</v>
+        <v>0.19976137887512818</v>
       </c>
       <c r="V21" s="19" t="str">
         <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
@@ -2118,52 +2118,52 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D22" s="20">
-        <v>1.0399999618530273</v>
+        <v>4.7600002288818359</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="19">
-        <v>5.1618315166850254E-2</v>
+        <v>0.25424954573051206</v>
       </c>
       <c r="G22" s="19">
-        <v>5.0104467165786808E-2</v>
+        <v>6.9254098722383681E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>0.65277855420395881</v>
+        <v>4.5201271394334217</v>
       </c>
       <c r="I22" s="20">
-        <v>0.45946306258563291</v>
+        <v>3.181525259041547</v>
       </c>
       <c r="J22" s="20">
-        <v>0.81597319275494851</v>
+        <v>5.6501589242917767</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="M22" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N22" s="16">
         <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>0.69462498271442097</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P22" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q22" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="R22" s="19">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="19">
-        <v>0</v>
+        <v>7.2783600033702114E-4</v>
       </c>
       <c r="U22" s="19">
-        <v>0.12419023710495804</v>
+        <v>0.34645058427796466</v>
       </c>
       <c r="V22" s="19" t="str">
         <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
@@ -2184,64 +2184,64 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D23" s="20">
-        <v>9.7299995422363281</v>
+        <v>74.300003051757813</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="19">
-        <v>9.2618658772456522E-2</v>
+        <v>-1.0925080900674069E-2</v>
       </c>
       <c r="G23" s="19">
-        <v>6.5432235425117904E-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="20">
-        <v>8.5748655081613343</v>
+        <v>0</v>
       </c>
       <c r="I23" s="20">
-        <v>6.0354831546882073</v>
+        <v>0</v>
       </c>
       <c r="J23" s="20">
-        <v>10.718581885201669</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="M23" s="16">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.6223905170283478</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P23" s="19">
-        <v>0.25451341065151861</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q23" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="R23" s="19">
-        <v>1.6834397167810114E-3</v>
+        <v>0</v>
       </c>
       <c r="S23" s="19">
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <v>4.1457926751634292E-3</v>
+        <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>0.11576071268794125</v>
+        <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V23" s="19" t="str">
         <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
@@ -2250,97 +2250,97 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D24" s="20">
-        <v>4.9000000953674316</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="19">
-        <v>0.13505229877832339</v>
+        <v>6.8454030191843804E-2</v>
       </c>
       <c r="G24" s="19">
-        <v>7.1813695565755106E-2</v>
+        <v>3.4168465678127306E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>4.883075646179436</v>
+        <v>4.667844292532215</v>
       </c>
       <c r="I24" s="20">
-        <v>3.4369892772701567</v>
+        <v>3.55036602438016</v>
       </c>
       <c r="J24" s="20">
-        <v>6.1038445577242948</v>
+        <v>6.7400592573630362</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M24" s="16">
-        <v>45606</v>
+        <v>45591</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P24" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.20403193785652382</v>
       </c>
       <c r="Q24" s="19">
-        <v>0.49099920776112166</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="R24" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S24" s="19">
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <v>2.9490457891516841E-3</v>
+        <v>7.7741956185885708E-4</v>
       </c>
       <c r="U24" s="19">
-        <v>0.12330732947833466</v>
-      </c>
-      <c r="V24" s="19" t="str">
+        <v>0.11506151788821542</v>
+      </c>
+      <c r="V24" s="19">
         <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
-        <v/>
+        <v>0.23318230310478638</v>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D25" s="20">
-        <v>3.8299999237060547</v>
+        <v>4.5999999046325684</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="19">
-        <v>0.15901182762145899</v>
+        <v>0.10364878770018632</v>
       </c>
       <c r="G25" s="19">
-        <v>6.505455846164776E-2</v>
+        <v>6.104447724600412E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>3.3498807964334549</v>
+        <v>3.7048081592500379</v>
       </c>
       <c r="I25" s="20">
-        <v>2.3578386270717044</v>
+        <v>2.6076569032159242</v>
       </c>
       <c r="J25" s="20">
-        <v>4.1873509955418182</v>
+        <v>4.6310101990625476</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>18</v>
@@ -2349,19 +2349,19 @@
         <v>75</v>
       </c>
       <c r="M25" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N25" s="16">
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>0.11401933240696355</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P25" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q25" s="19">
-        <v>0.49449639261897682</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <v>3.5193961201691735E-4</v>
+        <v>2.8028997271722927E-4</v>
       </c>
       <c r="U25" s="19">
-        <v>0.19976137887512818</v>
+        <v>0.10664123429511622</v>
       </c>
       <c r="V25" s="19" t="str">
         <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
@@ -2382,64 +2382,64 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D26" s="20">
-        <v>4.6399998664855957</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="19">
-        <v>0.26160019465397938</v>
+        <v>7.5774581724867757E-2</v>
       </c>
       <c r="G26" s="19">
-        <v>7.1256314949581831E-2</v>
+        <v>4.4735121251297381E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>4.5761671481292678</v>
+        <v>2.6273518752528422</v>
       </c>
       <c r="I26" s="20">
-        <v>3.2209694378628289</v>
+        <v>1.8492812475524429</v>
       </c>
       <c r="J26" s="20">
-        <v>5.720208935161585</v>
+        <v>3.2841898440660526</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="M26" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P26" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.15995376005296372</v>
       </c>
       <c r="Q26" s="19">
-        <v>0.48610500800425166</v>
+        <v>0</v>
       </c>
       <c r="R26" s="19">
-        <v>0</v>
+        <v>6.5362849144738304E-5</v>
       </c>
       <c r="S26" s="19">
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <v>7.2783600033702114E-4</v>
+        <v>9.386945223960261E-6</v>
       </c>
       <c r="U26" s="19">
-        <v>0.34645058427796466</v>
+        <v>5.5335956720573398E-2</v>
       </c>
       <c r="V26" s="19" t="str">
         <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
@@ -2448,52 +2448,52 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D27" s="20">
-        <v>73</v>
+        <v>18.860000610351563</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="19">
-        <v>-1.1152686764276732E-2</v>
+        <v>9.6774374752960066E-2</v>
       </c>
       <c r="G27" s="19">
-        <v>0</v>
+        <v>4.2340142547505719E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>0</v>
+        <v>17.737898253526541</v>
       </c>
       <c r="I27" s="20">
-        <v>0</v>
+        <v>7.6749748847811254</v>
       </c>
       <c r="J27" s="20">
-        <v>0</v>
+        <v>24.233512585626077</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M27" s="16">
-        <v>45603</v>
+        <v>45591</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P27" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q27" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="R27" s="19">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <v>0</v>
+        <v>9.0430154247230065E-3</v>
       </c>
       <c r="U27" s="19">
-        <v>-4.3026634739724949E-2</v>
+        <v>0.12415815772322404</v>
       </c>
       <c r="V27" s="19" t="str">
         <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
@@ -2514,31 +2514,31 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20">
-        <v>4.4800000190734863</v>
+        <v>25.299999237060547</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="19">
-        <v>0.1067414026241545</v>
+        <v>0.12267705900322393</v>
       </c>
       <c r="G28" s="19">
-        <v>6.2865888432239253E-2</v>
+        <v>5.8498025479464491E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>3.7478223376716393</v>
+        <v>21.646217481075226</v>
       </c>
       <c r="I28" s="20">
-        <v>2.6379327540767035</v>
+        <v>14.814221681989991</v>
       </c>
       <c r="J28" s="20">
-        <v>4.6847779220895491</v>
+        <v>27.057771851344032</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>18</v>
@@ -2547,19 +2547,19 @@
         <v>75</v>
       </c>
       <c r="M28" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P28" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q28" s="19">
-        <v>0.39408770164042439</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="T28" s="19">
-        <v>2.8028997271722927E-4</v>
+        <v>1.4967770896312765E-2</v>
       </c>
       <c r="U28" s="19">
-        <v>0.10664123429511622</v>
+        <v>0.29698470257341852</v>
       </c>
       <c r="V28" s="19" t="str">
         <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
@@ -2580,64 +2580,64 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D29" s="20">
-        <v>4.9000000953674316</v>
+        <v>93</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="19">
-        <v>7.4603877807629879E-2</v>
+        <v>0.15544632369994033</v>
       </c>
       <c r="G29" s="19">
-        <v>4.4043971521468939E-2</v>
+        <v>2.5106430053710938E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>2.6264557517590497</v>
+        <v>29.092613785954299</v>
       </c>
       <c r="I29" s="20">
-        <v>1.8486505043359853</v>
+        <v>19.910380661676555</v>
       </c>
       <c r="J29" s="20">
-        <v>3.2830696896988121</v>
+        <v>36.365767232442877</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="M29" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N29" s="16">
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>0.78463553343209413</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P29" s="19">
-        <v>0.15995376005296372</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q29" s="19">
-        <v>0</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="R29" s="19">
-        <v>6.5362849144738304E-5</v>
+        <v>0</v>
       </c>
       <c r="S29" s="19">
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <v>9.386945223960261E-6</v>
+        <v>0</v>
       </c>
       <c r="U29" s="19">
-        <v>5.5335956720573398E-2</v>
+        <v>0.15564608795570875</v>
       </c>
       <c r="V29" s="19" t="str">
         <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
@@ -2646,31 +2646,31 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="20">
-        <v>25.299999237060547</v>
+        <v>5.9800000190734863</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="19">
-        <v>0.12267705900322393</v>
+        <v>0.19306805954053352</v>
       </c>
       <c r="G30" s="19">
-        <v>5.8498025479464491E-2</v>
+        <v>6.7467369347615797E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>21.646217481075226</v>
+        <v>5.4860729740939274</v>
       </c>
       <c r="I30" s="20">
-        <v>14.814221681989991</v>
+        <v>3.8614134517934828</v>
       </c>
       <c r="J30" s="20">
-        <v>27.057771851344032</v>
+        <v>6.8575912176174096</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>18</v>
@@ -2679,19 +2679,19 @@
         <v>75</v>
       </c>
       <c r="M30" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N30" s="16">
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P30" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q30" s="19">
-        <v>0.54295694135635775</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>1.4967770896312765E-2</v>
+        <v>1.0335122256212414E-3</v>
       </c>
       <c r="U30" s="19">
-        <v>0.29698470257341852</v>
+        <v>0.2095761613699165</v>
       </c>
       <c r="V30" s="19" t="str">
         <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
@@ -2712,34 +2712,34 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D31" s="20">
-        <v>91.650001525878906</v>
+        <v>36.400001525878906</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="19">
-        <v>0.15761227489245175</v>
+        <v>0.15503701396564434</v>
       </c>
       <c r="G31" s="19">
-        <v>2.5456256931698149E-2</v>
+        <v>5.8286664487887732E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>29.119422640387619</v>
+        <v>27.629994580629596</v>
       </c>
       <c r="I31" s="20">
-        <v>19.928728084867817</v>
+        <v>19.447578121988993</v>
       </c>
       <c r="J31" s="20">
-        <v>36.399278300484525</v>
+        <v>34.537493225786996</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>75</v>
@@ -2751,13 +2751,13 @@
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P31" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q31" s="19">
-        <v>0.50814791601378884</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <v>0</v>
+        <v>2.9971565437917872E-3</v>
       </c>
       <c r="U31" s="19">
-        <v>0.15564608795570875</v>
+        <v>0.37652739708481697</v>
       </c>
       <c r="V31" s="19" t="str">
         <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
@@ -2778,31 +2778,31 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D32" s="20">
-        <v>5.8499999046325684</v>
+        <v>3.7400000095367432</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="19">
-        <v>0.19794504262053697</v>
+        <v>0.22573472701993219</v>
       </c>
       <c r="G32" s="19">
-        <v>6.9171624414682373E-2</v>
+        <v>8.6300506728726883E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>5.5464427074584943</v>
+        <v>3.4671351010721763</v>
       </c>
       <c r="I32" s="20">
-        <v>3.9039051396722111</v>
+        <v>2.440368945452573</v>
       </c>
       <c r="J32" s="20">
-        <v>6.9330533843231184</v>
+        <v>5.9874024328451867</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>18</v>
@@ -2811,19 +2811,19 @@
         <v>75</v>
       </c>
       <c r="M32" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N32" s="16">
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P32" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q32" s="19">
-        <v>0.583299310268654</v>
+        <v>0.51024868123587042</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="T32" s="19">
-        <v>1.0335122256212414E-3</v>
+        <v>1.267678449378735E-2</v>
       </c>
       <c r="U32" s="19">
-        <v>0.2095761613699165</v>
+        <v>0.26989537512486639</v>
       </c>
       <c r="V32" s="19" t="str">
         <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
@@ -2844,64 +2844,64 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D33" s="20">
-        <v>37.450000762939453</v>
+        <v>5.6700000762939453</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="19">
-        <v>0.15113805807650268</v>
+        <v>6.3380939161264666E-2</v>
       </c>
       <c r="G33" s="19">
-        <v>5.6820839470038569E-2</v>
+        <v>5.9125942761152288E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>27.520726612561681</v>
+        <v>5.6477955122124417</v>
       </c>
       <c r="I33" s="20">
-        <v>19.370669046273086</v>
+        <v>4.2281482507877488</v>
       </c>
       <c r="J33" s="20">
-        <v>34.4009082657021</v>
+        <v>7.3140970095020021</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="M33" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P33" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.40660753935436778</v>
       </c>
       <c r="Q33" s="19">
-        <v>0.34356507928375646</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="R33" s="19">
-        <v>0</v>
+        <v>3.2256320498000146E-2</v>
       </c>
       <c r="S33" s="19">
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <v>2.9971565437917872E-3</v>
+        <v>0</v>
       </c>
       <c r="U33" s="19">
-        <v>0.37652739708481697</v>
+        <v>0.2067479536230501</v>
       </c>
       <c r="V33" s="19" t="str">
         <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
@@ -2910,134 +2910,134 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D34" s="20">
-        <v>3.6400001049041748</v>
+        <v>1.9099999666213989</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="19">
-        <v>0.23262557243098181</v>
+        <v>3.8850165007280293E-2</v>
       </c>
       <c r="G34" s="19">
-        <v>8.8934941663101841E-2</v>
+        <v>6.6355301242400064E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>3.5113679430712987</v>
+        <v>1.9776222301766853</v>
       </c>
       <c r="I34" s="20">
-        <v>2.4715025617775868</v>
+        <v>1.5933455257635327</v>
       </c>
       <c r="J34" s="20">
-        <v>6.0783692433735439</v>
+        <v>2.6223861825474968</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="M34" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N34" s="16">
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P34" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.35722663926689097</v>
       </c>
       <c r="Q34" s="19">
-        <v>0.51024868123587042</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="R34" s="19">
-        <v>0</v>
+        <v>9.4776814590380575E-3</v>
       </c>
       <c r="S34" s="19">
         <v>0</v>
       </c>
       <c r="T34" s="19">
-        <v>1.267678449378735E-2</v>
+        <v>1.3611168709786237E-3</v>
       </c>
       <c r="U34" s="19">
-        <v>0.26989537512486639</v>
-      </c>
-      <c r="V34" s="19" t="str">
+        <v>7.5894490231092765E-2</v>
+      </c>
+      <c r="V34" s="19">
         <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
-        <v/>
+        <v>0.16578766826786739</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="20">
-        <v>5.7300000190734863</v>
+        <v>2.7799999713897705</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="19">
-        <v>6.2903669826134628E-2</v>
+        <v>0.17149391890757482</v>
       </c>
       <c r="G35" s="19">
-        <v>5.8680714278204878E-2</v>
+        <v>8.1271485437813262E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>5.6515256064808614</v>
+        <v>3.276048457410663</v>
       </c>
       <c r="I35" s="20">
-        <v>4.2308513982916809</v>
+        <v>2.3058711836151082</v>
       </c>
       <c r="J35" s="20">
-        <v>7.3195156001204627</v>
+        <v>4.0950605717633284</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M35" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>0.35166796085418528</v>
+        <v>0.19853855217217412</v>
       </c>
       <c r="P35" s="19">
-        <v>0.40660753935436778</v>
+        <v>0.15821181625248168</v>
       </c>
       <c r="Q35" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>0.51643948647548221</v>
       </c>
       <c r="R35" s="19">
-        <v>3.2256320498000146E-2</v>
+        <v>0</v>
       </c>
       <c r="S35" s="19">
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <v>0</v>
+        <v>1.0233017334875492E-3</v>
       </c>
       <c r="U35" s="19">
-        <v>0.2067479536230501</v>
-      </c>
-      <c r="V35" s="19" t="str">
+        <v>0.12578684336637444</v>
+      </c>
+      <c r="V35" s="19">
         <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
-        <v/>
+        <v>0.17054992541515634</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -3048,25 +3048,25 @@
         <v>50</v>
       </c>
       <c r="D36" s="20">
-        <v>1.7400000095367432</v>
+        <v>1.6799999475479126</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="19">
-        <v>-3.9710291673058125E-2</v>
+        <v>-4.1006640217801975E-2</v>
       </c>
       <c r="G36" s="19">
-        <v>6.2015937779510956E-2</v>
+        <v>6.4040457552704641E-2</v>
       </c>
       <c r="H36" s="20">
-        <v>1.3867805724465831</v>
+        <v>1.3913504913822212</v>
       </c>
       <c r="I36" s="20">
-        <v>1.2569717641094802</v>
+        <v>1.2593560056999957</v>
       </c>
       <c r="J36" s="20">
-        <v>1.9426922665989239</v>
+        <v>1.9477846860781396</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>39</v>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DE97D97-F733-485F-9989-3FCEF5AAD399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95B50B-B78C-4916-B3CF-830886C8481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>Standard Chartered</t>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -861,8 +865,8 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -949,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>11</v>
@@ -996,37 +1000,37 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D5" s="20">
-        <v>71.349998474121094</v>
+        <v>7.8499999046325684</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>6.1613060834322234E-2</v>
+        <v>2.7921360505645736E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>6.6540015373203587E-2</v>
+        <v>7.3885351216083583E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>72.116173961404044</v>
+        <v>9.1177488598291543</v>
       </c>
       <c r="I5" s="20">
-        <v>49.354811705796756</v>
+        <v>7.7500865308547811</v>
       </c>
       <c r="J5" s="20">
-        <v>90.145217451755059</v>
-      </c>
-      <c r="K5" s="4" t="s">
+        <v>11.397186074786443</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>75</v>
+      <c r="L5" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="M5" s="16">
         <v>45593</v>
@@ -1035,145 +1039,145 @@
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P5" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.12367370222475756</v>
       </c>
       <c r="Q5" s="19">
-        <v>0.55863466227121317</v>
+        <v>1.0724472333143184E-2</v>
       </c>
       <c r="R5" s="19">
-        <v>0</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="S5" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="19">
-        <v>1.8260018543319254E-2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="19">
-        <v>0.11541499261701178</v>
+        <v>0.21420416428978895</v>
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v>0.3082717202341928</v>
+        <v>1.2727818470268382E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="D6" s="20">
-        <v>93.25</v>
+        <v>14.960000038146973</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>0.10739200390359734</v>
+        <v>8.6077909505890116E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>7.2922252010723859E-2</v>
+        <v>7.3529411577210935E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>106.41925546491164</v>
+        <v>17.060167074925772</v>
       </c>
       <c r="I6" s="20">
-        <v>72.831128259144521</v>
+        <v>14.501142013686906</v>
       </c>
       <c r="J6" s="20">
-        <v>133.02406933113954</v>
+        <v>21.325208843657215</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M6" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N6" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O6" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.72762956087193753</v>
       </c>
       <c r="P6" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="Q6" s="19">
-        <v>0.39159225009737869</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R6" s="19">
-        <v>0</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="S6" s="19">
-        <v>0</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>0.35546835552606143</v>
+        <v>7.3081874090513838E-2</v>
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
-        <v>0.2189691339501928</v>
+        <v>3.0672327760027485E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D7" s="20">
-        <v>33</v>
+        <v>1.8700000047683716</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>3.3316028258770412E-2</v>
+        <v>3.2708391424708258E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>1.5151515151515152E-2</v>
+        <v>6.7673706257814076E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>14.256175484632012</v>
+        <v>1.952697040035225</v>
       </c>
       <c r="I7" s="20">
-        <v>9.7566304205957355</v>
+        <v>1.6597924840299412</v>
       </c>
       <c r="J7" s="20">
-        <v>17.820219355790016</v>
+        <v>2.440871300044031</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="M7" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N7" s="16">
         <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P7" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.37949349616392825</v>
       </c>
       <c r="Q7" s="19">
-        <v>0</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="R7" s="19">
         <v>0</v>
@@ -1182,64 +1186,64 @@
         <v>0</v>
       </c>
       <c r="T7" s="19">
-        <v>0</v>
+        <v>1.8148224946381651E-3</v>
       </c>
       <c r="U7" s="19">
-        <v>0.17614360597656339</v>
-      </c>
-      <c r="V7" s="19" t="str">
+        <v>6.2651609169433978E-2</v>
+      </c>
+      <c r="V7" s="19">
         <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
-        <v/>
+        <v>0.11241043861091748</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D8" s="20">
-        <v>5.130000114440918</v>
+        <v>2.7599999904632568</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="19">
-        <v>-1.7065888413507872E-2</v>
+        <v>0.17247931569615887</v>
       </c>
       <c r="G8" s="19">
-        <v>3.8901266825240588E-2</v>
+        <v>8.1738467948120452E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>2.6584135350289539</v>
+        <v>3.2782383069243655</v>
       </c>
       <c r="I8" s="20">
-        <v>1.8193630117942141</v>
+        <v>2.307412525556702</v>
       </c>
       <c r="J8" s="20">
-        <v>3.3230169187861924</v>
+        <v>4.0977978836554572</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="M8" s="16">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.19853855217217412</v>
       </c>
       <c r="P8" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.15821181625248168</v>
       </c>
       <c r="Q8" s="19">
-        <v>0.12063647696552883</v>
+        <v>0.51643948647548221</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
@@ -1248,133 +1252,133 @@
         <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>0</v>
+        <v>1.0233017334875492E-3</v>
       </c>
       <c r="U8" s="19">
-        <v>-2.4615858697631419E-2</v>
-      </c>
-      <c r="V8" s="19" t="str">
+        <v>0.12578684336637444</v>
+      </c>
+      <c r="V8" s="19">
         <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
-        <v/>
+        <v>0.16398096611246349</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="D9" s="20">
-        <v>7.8499999046325684</v>
+        <v>92.699996948242188</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>2.8218799291005289E-2</v>
+        <v>0.10802917684670264</v>
       </c>
       <c r="G9" s="19">
-        <v>7.3885351216083583E-2</v>
+        <v>7.3354910721266681E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>9.6696838848459237</v>
+        <v>106.63399780450825</v>
       </c>
       <c r="I9" s="20">
-        <v>7.8866331127301788</v>
+        <v>72.97809345646246</v>
       </c>
       <c r="J9" s="20">
-        <v>13.369357061668836</v>
-      </c>
-      <c r="K9" s="8" t="s">
+        <v>133.29249725563531</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>36</v>
+      <c r="L9" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M9" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N9" s="16">
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.60969766115231028</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P9" s="19">
-        <v>0.10541928123217342</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q9" s="19">
-        <v>0</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="R9" s="19">
-        <v>7.8722190530519116E-3</v>
+        <v>0</v>
       </c>
       <c r="S9" s="19">
         <v>0</v>
       </c>
       <c r="T9" s="19">
-        <v>1.7227609811751282E-2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>0.25978322875071308</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V9" s="19">
         <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
-        <v>-4.666650769765246E-3</v>
+        <v>0.21274977498425585</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D10" s="20">
-        <v>8.3100004196166992</v>
+        <v>5.5199999809265137</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="19">
-        <v>1.7386148311362901E-2</v>
+        <v>6.5006269421473528E-2</v>
       </c>
       <c r="G10" s="19">
-        <v>0</v>
+        <v>6.0642158601510322E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>1.5449950938486592</v>
+        <v>5.6835417377554718</v>
       </c>
       <c r="I10" s="20">
-        <v>1.0874563401751802</v>
+        <v>4.2551428660059507</v>
       </c>
       <c r="J10" s="20">
-        <v>1.9312438673108239</v>
+        <v>7.358400903192873</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="M10" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P10" s="19">
-        <v>0.49473021389230248</v>
+        <v>0.40660753935436778</v>
       </c>
       <c r="Q10" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="R10" s="19">
-        <v>0.03</v>
+        <v>3.2256320498000146E-2</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
@@ -1383,271 +1387,271 @@
         <v>0</v>
       </c>
       <c r="U10" s="19">
-        <v>0.11305626992292581</v>
-      </c>
-      <c r="V10" s="19" t="str">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V10" s="19">
         <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
-        <v/>
+        <v>0.22914078248026748</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D11" s="20">
-        <v>2.3299999237060547</v>
+        <v>70.949996948242188</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>6.2179056239830534E-2</v>
+        <v>8.2634338504952359E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>2.7705056356833013E-2</v>
+        <v>6.8862748732251566E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>1.9216853482680978</v>
+        <v>75.542909443142321</v>
       </c>
       <c r="I11" s="20">
-        <v>1.3525925901746545</v>
+        <v>52.973820681258175</v>
       </c>
       <c r="J11" s="20">
-        <v>2.4021066853351223</v>
+        <v>94.519361661503893</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="M11" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.82154354610382485</v>
+        <v>0</v>
       </c>
       <c r="P11" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q11" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R11" s="19">
-        <v>0</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>0</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U11" s="19">
-        <v>6.6194720593479306E-2</v>
-      </c>
-      <c r="V11" s="19" t="str">
+        <v>0.15487427537057533</v>
+      </c>
+      <c r="V11" s="19">
         <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
-        <v/>
+        <v>0.25336401747976933</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20">
-        <v>14.979999542236328</v>
+        <v>5.9600000381469727</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="19">
-        <v>0.11007757748780705</v>
+        <v>0.27757413827313637</v>
       </c>
       <c r="G12" s="19">
-        <v>9.0787719730261673E-2</v>
+        <v>7.2099127297332338E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>22.005314840704898</v>
+        <v>5.9709654706965463</v>
       </c>
       <c r="I12" s="20">
-        <v>18.704517614599162</v>
+        <v>4.2027086583823667</v>
       </c>
       <c r="J12" s="20">
-        <v>27.506643550881122</v>
+        <v>7.4637068383706833</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M12" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N12" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.72762956087193742</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P12" s="19">
-        <v>0.14991333007350532</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q12" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>0</v>
       </c>
       <c r="R12" s="19">
-        <v>1.4343830423173436E-2</v>
+        <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T12" s="19">
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>8.4224713593835085E-2</v>
+        <v>0.36602055622301682</v>
       </c>
       <c r="V12" s="19">
         <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
-        <v>-0.24863272270880254</v>
+        <v>0.29484754505319877</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20">
-        <v>10.220000267028809</v>
+        <v>71.650001525878906</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="19">
-        <v>3.9586471118207178E-2</v>
+        <v>6.1353506804304549E-2</v>
       </c>
       <c r="G13" s="19">
-        <v>1.6843516636935108E-2</v>
+        <v>6.6259705826596349E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>1.8358951452709946</v>
+        <v>72.019605082037486</v>
       </c>
       <c r="I13" s="20">
-        <v>1.2922085148170317</v>
+        <v>49.288721970360605</v>
       </c>
       <c r="J13" s="20">
-        <v>2.2948689315887432</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>56</v>
+        <v>90.024506352546865</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="M13" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.48660635459513968</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P13" s="19">
-        <v>0.17055682117844595</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q13" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="R13" s="19">
-        <v>0.12357639997060962</v>
+        <v>0</v>
       </c>
       <c r="S13" s="19">
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <v>7.0052944996285213E-3</v>
+        <v>1.8260018543319254E-2</v>
       </c>
       <c r="U13" s="19">
-        <v>0.21007939579279941</v>
-      </c>
-      <c r="V13" s="19" t="str">
+        <v>0.11541499261701178</v>
+      </c>
+      <c r="V13" s="19">
         <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
-        <v/>
+        <v>0.31209042678724497</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D14" s="20">
-        <v>5.619999885559082</v>
+        <v>33.099998474121094</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>-8.8691911102299542E-2</v>
+        <v>3.3215377136618332E-2</v>
       </c>
       <c r="G14" s="19">
-        <v>3.0285438543975727E-2</v>
+        <v>1.5105740877629347E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>1.9384364130038874</v>
+        <v>14.249233656031027</v>
       </c>
       <c r="I14" s="20">
-        <v>1.3643829522438584</v>
+        <v>9.751879577273419</v>
       </c>
       <c r="J14" s="20">
-        <v>2.4230455162548594</v>
+        <v>17.811542070038783</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M14" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P14" s="19">
-        <v>0.13052664506651043</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q14" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="19">
-        <v>4.7067232344920495E-2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="19">
         <v>0</v>
       </c>
       <c r="T14" s="19">
-        <v>5.409642155098836E-4</v>
+        <v>0</v>
       </c>
       <c r="U14" s="19">
-        <v>-4.5442109301350432E-2</v>
+        <v>0.17614360597656339</v>
       </c>
       <c r="V14" s="19" t="str">
         <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
@@ -1656,37 +1660,37 @@
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D15" s="20">
-        <v>1.0199999809265137</v>
+        <v>5.179999828338623</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>5.2474476311975951E-2</v>
+        <v>-1.6901001579533909E-2</v>
       </c>
       <c r="G15" s="19">
-        <v>5.0935519048164443E-2</v>
+        <v>3.8525411401311216E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>0.65342361862177689</v>
+        <v>2.6535832041805514</v>
       </c>
       <c r="I15" s="20">
-        <v>0.45991709599568753</v>
+        <v>1.8160572336808716</v>
       </c>
       <c r="J15" s="20">
-        <v>0.81677952327722114</v>
+        <v>3.3169790052256891</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M15" s="16">
         <v>45603</v>
@@ -1695,13 +1699,13 @@
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.69462498271442097</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P15" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q15" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R15" s="19">
         <v>0</v>
@@ -1713,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <v>0.12419023710495804</v>
+        <v>-2.4615858697631419E-2</v>
       </c>
       <c r="V15" s="19" t="str">
         <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
@@ -1722,64 +1726,64 @@
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D16" s="20">
-        <v>9.6099996566772461</v>
+        <v>9.4499998092651367</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="19">
-        <v>9.349729872968901E-2</v>
+        <v>1.5265998339275976E-2</v>
       </c>
       <c r="G16" s="19">
-        <v>6.6052967546458549E-2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="20">
-        <v>8.5743893435873648</v>
+        <v>1.5266862564334813</v>
       </c>
       <c r="I16" s="20">
-        <v>6.0351480026951752</v>
+        <v>1.0745695281667518</v>
       </c>
       <c r="J16" s="20">
-        <v>10.717986679484206</v>
+        <v>1.9083578205418517</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="M16" s="16">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.6223905170283478</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P16" s="19">
-        <v>0.25451341065151861</v>
+        <v>0.49473021389230248</v>
       </c>
       <c r="Q16" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="R16" s="19">
-        <v>1.6834397167810114E-3</v>
+        <v>0.03</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
       </c>
       <c r="T16" s="19">
-        <v>4.1457926751634292E-3</v>
+        <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>0.11576071268794125</v>
+        <v>0.11305626992292581</v>
       </c>
       <c r="V16" s="19" t="str">
         <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
@@ -1788,37 +1792,37 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D17" s="20">
-        <v>5.6500000953674316</v>
+        <v>2.4100000858306885</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>0.10761352065449219</v>
+        <v>6.0025468657538661E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>8.5689528462071909E-2</v>
+        <v>2.6745484614434135E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>5.4754331028651411</v>
+        <v>1.8994492485997396</v>
       </c>
       <c r="I17" s="20">
-        <v>4.6541181374353702</v>
+        <v>1.3369415452869406</v>
       </c>
       <c r="J17" s="20">
-        <v>6.8442913785814268</v>
+        <v>2.3743115607496748</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="M17" s="16">
         <v>45605</v>
@@ -1827,25 +1831,25 @@
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.87</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P17" s="19">
-        <v>5.04E-2</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q17" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="R17" s="19">
-        <v>1.8938483141216308E-2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="19">
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>6.8684548583665562E-3</v>
+        <v>0</v>
       </c>
       <c r="U17" s="19">
-        <v>4.5801396739700823E-2</v>
+        <v>6.6194720593479306E-2</v>
       </c>
       <c r="V17" s="19" t="str">
         <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
@@ -1854,64 +1858,64 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D18" s="20">
-        <v>6.0500001907348633</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>0.27385286550122157</v>
+        <v>3.9144486144819593E-2</v>
       </c>
       <c r="G18" s="19">
-        <v>7.1132536818264092E-2</v>
+        <v>1.6655457912774035E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>5.9529648862164546</v>
+        <v>1.8314658331353753</v>
       </c>
       <c r="I18" s="20">
-        <v>4.1900388125053984</v>
+        <v>1.2890909103769452</v>
       </c>
       <c r="J18" s="20">
-        <v>7.4412061077705687</v>
+        <v>2.2893322914192189</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M18" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.47700776116848903</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P18" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.17055682117844595</v>
       </c>
       <c r="Q18" s="19">
-        <v>0</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="R18" s="19">
-        <v>0</v>
+        <v>0.12357639997060962</v>
       </c>
       <c r="S18" s="19">
         <v>0</v>
       </c>
       <c r="T18" s="19">
-        <v>0</v>
+        <v>7.0052944996285213E-3</v>
       </c>
       <c r="U18" s="19">
-        <v>0.36602055622301682</v>
+        <v>0.21007939579279941</v>
       </c>
       <c r="V18" s="19" t="str">
         <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
@@ -1920,118 +1924,118 @@
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D19" s="20">
-        <v>71.050003051757813</v>
+        <v>5.6500000953674316</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>8.2641130638668348E-2</v>
+        <v>-8.8089561760239063E-2</v>
       </c>
       <c r="G19" s="19">
-        <v>6.886840890943581E-2</v>
+        <v>3.0079755593250542E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>75.657846942558677</v>
+        <v>1.9336176199881345</v>
       </c>
       <c r="I19" s="20">
-        <v>53.054428183222853</v>
+        <v>1.3609912087762994</v>
       </c>
       <c r="J19" s="20">
-        <v>94.663168882769838</v>
+        <v>2.4170220249851679</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="M19" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P19" s="19">
-        <v>0.66167150000644004</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q19" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R19" s="19">
-        <v>0.17959118565275847</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>1.6744128904032363E-4</v>
+        <v>5.409642155098836E-4</v>
       </c>
       <c r="U19" s="19">
-        <v>0.15487427537057533</v>
-      </c>
-      <c r="V19" s="19">
+        <v>-4.5442109301350432E-2</v>
+      </c>
+      <c r="V19" s="19" t="str">
         <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
-        <v>0.25328042358317304</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D20" s="20">
-        <v>5.0799999237060547</v>
+        <v>1.0299999713897705</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="19">
-        <v>0.12988096059138474</v>
+        <v>5.1887607826056739E-2</v>
       </c>
       <c r="G20" s="19">
-        <v>6.9063850434766608E-2</v>
+        <v>5.0365862082641127E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>4.8064706229452323</v>
+        <v>0.6506838878398522</v>
       </c>
       <c r="I20" s="20">
-        <v>3.3830702593153581</v>
+        <v>0.45798871601503954</v>
       </c>
       <c r="J20" s="20">
-        <v>6.0080882786815408</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>75</v>
+        <v>0.81335485979981526</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="M20" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P20" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q20" s="19">
-        <v>0.49099920776112166</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R20" s="19">
         <v>0</v>
@@ -2040,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="T20" s="19">
-        <v>2.9490457891516841E-3</v>
+        <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>0.12330732947833466</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V20" s="19" t="str">
         <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
@@ -2052,64 +2056,64 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D21" s="20">
-        <v>3.9500000476837158</v>
+        <v>9.4300003051757813</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="19">
-        <v>0.1537241930799868</v>
+        <v>9.5140036529464372E-2</v>
       </c>
       <c r="G21" s="19">
-        <v>6.2891293404277848E-2</v>
+        <v>6.7213511306012608E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>3.3061720640233259</v>
+        <v>8.6083207817238563</v>
       </c>
       <c r="I21" s="20">
-        <v>2.327073909196768</v>
+        <v>6.0590308989449424</v>
       </c>
       <c r="J21" s="20">
-        <v>4.1327150800291577</v>
+        <v>10.76040097715482</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M21" s="16">
-        <v>45593</v>
+        <v>45604</v>
       </c>
       <c r="N21" s="16">
         <v>45716</v>
       </c>
       <c r="O21" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P21" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.25451341065151861</v>
       </c>
       <c r="Q21" s="19">
-        <v>0.49449639261897682</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="R21" s="19">
-        <v>0</v>
+        <v>1.6834397167810114E-3</v>
       </c>
       <c r="S21" s="19">
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <v>3.5193961201691735E-4</v>
+        <v>4.1457926751634292E-3</v>
       </c>
       <c r="U21" s="19">
-        <v>0.19976137887512818</v>
+        <v>0.11576071268794125</v>
       </c>
       <c r="V21" s="19" t="str">
         <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
@@ -2118,37 +2122,37 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D22" s="20">
-        <v>4.7600002288818359</v>
+        <v>5.6700000762939453</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="19">
-        <v>0.25424954573051206</v>
+        <v>0.10707419428921199</v>
       </c>
       <c r="G22" s="19">
-        <v>6.9254098722383681E-2</v>
+        <v>8.5260078504046641E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>4.5201271394334217</v>
+        <v>5.4556002877826693</v>
       </c>
       <c r="I22" s="20">
-        <v>3.181525259041547</v>
+        <v>4.6372602446152689</v>
       </c>
       <c r="J22" s="20">
-        <v>5.6501589242917767</v>
+        <v>6.8195003597283375</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M22" s="16">
         <v>45605</v>
@@ -2157,25 +2161,25 @@
         <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.87</v>
       </c>
       <c r="P22" s="19">
-        <v>0.15470436118294414</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q22" s="19">
-        <v>0.48610500800425166</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="R22" s="19">
-        <v>0</v>
+        <v>1.8938483141216308E-2</v>
       </c>
       <c r="S22" s="19">
         <v>0</v>
       </c>
       <c r="T22" s="19">
-        <v>7.2783600033702114E-4</v>
+        <v>6.8684548583665562E-3</v>
       </c>
       <c r="U22" s="19">
-        <v>0.34645058427796466</v>
+        <v>4.5801396739700823E-2</v>
       </c>
       <c r="V22" s="19" t="str">
         <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
@@ -2184,52 +2188,52 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D23" s="20">
-        <v>74.300003051757813</v>
+        <v>5.0300002098083496</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="19">
-        <v>-1.0925080900674069E-2</v>
+        <v>0.13097662018092959</v>
       </c>
       <c r="G23" s="19">
-        <v>0</v>
+        <v>6.9646464465916325E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>0</v>
+        <v>4.8124026230863359</v>
       </c>
       <c r="I23" s="20">
-        <v>0</v>
+        <v>3.3872455419353784</v>
       </c>
       <c r="J23" s="20">
-        <v>0</v>
+        <v>6.0155032788579197</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M23" s="16">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P23" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q23" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
@@ -2238,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <v>0</v>
+        <v>2.9490457891516841E-3</v>
       </c>
       <c r="U23" s="19">
-        <v>-4.3026634739724949E-2</v>
+        <v>0.12330732947833466</v>
       </c>
       <c r="V23" s="19" t="str">
         <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
@@ -2250,118 +2254,118 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D24" s="20">
-        <v>4.630000114440918</v>
+        <v>3.9500000476837158</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="19">
-        <v>6.8454030191843804E-2</v>
+        <v>0.1534952027561769</v>
       </c>
       <c r="G24" s="19">
-        <v>3.4168465678127306E-2</v>
+        <v>6.2797609402085841E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>4.667844292532215</v>
+        <v>3.2997925156077978</v>
       </c>
       <c r="I24" s="20">
-        <v>3.55036602438016</v>
+        <v>2.3225836163799545</v>
       </c>
       <c r="J24" s="20">
-        <v>6.7400592573630362</v>
+        <v>4.124740644509747</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M24" s="16">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P24" s="19">
-        <v>0.20403193785652382</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q24" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="R24" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S24" s="19">
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <v>7.7741956185885708E-4</v>
+        <v>3.5193961201691735E-4</v>
       </c>
       <c r="U24" s="19">
-        <v>0.11506151788821542</v>
-      </c>
-      <c r="V24" s="19">
+        <v>0.19976137887512818</v>
+      </c>
+      <c r="V24" s="19" t="str">
         <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
-        <v>0.23318230310478638</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D25" s="20">
-        <v>4.5999999046325684</v>
+        <v>4.6599998474121094</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="19">
-        <v>0.10364878770018632</v>
+        <v>0.25931870347450348</v>
       </c>
       <c r="G25" s="19">
-        <v>6.104447724600412E-2</v>
+        <v>7.0634867957715244E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>3.7048081592500379</v>
+        <v>4.5426108390306199</v>
       </c>
       <c r="I25" s="20">
-        <v>2.6076569032159242</v>
+        <v>3.1973505789891079</v>
       </c>
       <c r="J25" s="20">
-        <v>4.6310101990625476</v>
-      </c>
-      <c r="K25" s="8" t="s">
+        <v>5.6782635487882747</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="6" t="s">
         <v>75</v>
       </c>
       <c r="M25" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N25" s="16">
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P25" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q25" s="19">
-        <v>0.39408770164042439</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
@@ -2370,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <v>2.8028997271722927E-4</v>
+        <v>7.2783600033702114E-4</v>
       </c>
       <c r="U25" s="19">
-        <v>0.10664123429511622</v>
+        <v>0.34645058427796466</v>
       </c>
       <c r="V25" s="19" t="str">
         <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
@@ -2382,64 +2386,64 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D26" s="20">
-        <v>4.809999942779541</v>
+        <v>72.199996948242188</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="19">
-        <v>7.5774581724867757E-2</v>
+        <v>-1.1226099800940748E-2</v>
       </c>
       <c r="G26" s="19">
-        <v>4.4735121251297381E-2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="20">
-        <v>2.6273518752528422</v>
+        <v>0</v>
       </c>
       <c r="I26" s="20">
-        <v>1.8492812475524429</v>
+        <v>0</v>
       </c>
       <c r="J26" s="20">
-        <v>3.2841898440660526</v>
-      </c>
-      <c r="K26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>42</v>
+      <c r="L26" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="M26" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>0.78463553343209413</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P26" s="19">
-        <v>0.15995376005296372</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q26" s="19">
-        <v>0</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="R26" s="19">
-        <v>6.5362849144738304E-5</v>
+        <v>0</v>
       </c>
       <c r="S26" s="19">
         <v>0</v>
       </c>
       <c r="T26" s="19">
-        <v>9.386945223960261E-6</v>
+        <v>0</v>
       </c>
       <c r="U26" s="19">
-        <v>5.5335956720573398E-2</v>
+        <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V26" s="19" t="str">
         <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
@@ -2448,37 +2452,37 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D27" s="20">
-        <v>18.860000610351563</v>
+        <v>4.7800002098083496</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="19">
-        <v>9.6774374752960066E-2</v>
+        <v>6.4759180341226741E-2</v>
       </c>
       <c r="G27" s="19">
-        <v>4.2340142547505719E-2</v>
+        <v>3.30962328569318E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>17.737898253526541</v>
+        <v>4.6722727885869606</v>
       </c>
       <c r="I27" s="20">
-        <v>7.6749748847811254</v>
+        <v>4.1279738197728042</v>
       </c>
       <c r="J27" s="20">
-        <v>24.233512585626077</v>
+        <v>5.8403409857337003</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M27" s="16">
         <v>45591</v>
@@ -2487,25 +2491,25 @@
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P27" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.21645682425674254</v>
       </c>
       <c r="Q27" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="R27" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S27" s="19">
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <v>9.0430154247230065E-3</v>
+        <v>1.0365594158118095E-3</v>
       </c>
       <c r="U27" s="19">
-        <v>0.12415815772322404</v>
+        <v>0.11237749163404374</v>
       </c>
       <c r="V27" s="19" t="str">
         <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
@@ -2514,52 +2518,52 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20">
-        <v>25.299999237060547</v>
+        <v>4.5999999046325684</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="19">
-        <v>0.12267705900322393</v>
+        <v>0.10349439060118433</v>
       </c>
       <c r="G28" s="19">
-        <v>5.8498025479464491E-2</v>
+        <v>6.0953544294389317E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>21.646217481075226</v>
+        <v>3.6977045114251887</v>
       </c>
       <c r="I28" s="20">
-        <v>14.814221681989991</v>
+        <v>2.6026569476197805</v>
       </c>
       <c r="J28" s="20">
-        <v>27.057771851344032</v>
-      </c>
-      <c r="K28" s="6" t="s">
+        <v>4.6221306392814858</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="8" t="s">
         <v>75</v>
       </c>
       <c r="M28" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P28" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q28" s="19">
-        <v>0.54295694135635775</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
@@ -2568,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="T28" s="19">
-        <v>1.4967770896312765E-2</v>
+        <v>2.8028997271722927E-4</v>
       </c>
       <c r="U28" s="19">
-        <v>0.29698470257341852</v>
+        <v>0.10664123429511622</v>
       </c>
       <c r="V28" s="19" t="str">
         <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
@@ -2580,64 +2584,64 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D29" s="20">
-        <v>93</v>
+        <v>4.8000001907348633</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="19">
-        <v>0.15544632369994033</v>
+        <v>7.5819331185151814E-2</v>
       </c>
       <c r="G29" s="19">
-        <v>2.5106430053710938E-2</v>
+        <v>4.4761540038259558E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>29.092613785954299</v>
+        <v>2.6237698429598599</v>
       </c>
       <c r="I29" s="20">
-        <v>19.910380661676555</v>
+        <v>1.8467600073600148</v>
       </c>
       <c r="J29" s="20">
-        <v>36.365767232442877</v>
+        <v>3.2797123036998248</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="M29" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N29" s="16">
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P29" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.15995376005296372</v>
       </c>
       <c r="Q29" s="19">
-        <v>0.50814791601378884</v>
+        <v>0</v>
       </c>
       <c r="R29" s="19">
-        <v>0</v>
+        <v>6.5362849144738304E-5</v>
       </c>
       <c r="S29" s="19">
         <v>0</v>
       </c>
       <c r="T29" s="19">
-        <v>0</v>
+        <v>9.386945223960261E-6</v>
       </c>
       <c r="U29" s="19">
-        <v>0.15564608795570875</v>
+        <v>5.5335956720573398E-2</v>
       </c>
       <c r="V29" s="19" t="str">
         <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
@@ -2646,52 +2650,52 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D30" s="20">
-        <v>5.9800000190734863</v>
+        <v>18.459999084472656</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="19">
-        <v>0.19306805954053352</v>
+        <v>9.8869344821696681E-2</v>
       </c>
       <c r="G30" s="19">
-        <v>6.7467369347615797E-2</v>
+        <v>4.325672125513879E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>5.4860729740939274</v>
+        <v>18.075057045931516</v>
       </c>
       <c r="I30" s="20">
-        <v>3.8614134517934828</v>
+        <v>7.9158634678001238</v>
       </c>
       <c r="J30" s="20">
-        <v>6.8575912176174096</v>
+        <v>24.654919572458919</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M30" s="16">
-        <v>45606</v>
+        <v>45591</v>
       </c>
       <c r="N30" s="16">
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P30" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q30" s="19">
-        <v>0.583299310268654</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
@@ -2700,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>1.0335122256212414E-3</v>
+        <v>9.0430154247230065E-3</v>
       </c>
       <c r="U30" s="19">
-        <v>0.2095761613699165</v>
+        <v>0.12415815772322404</v>
       </c>
       <c r="V30" s="19" t="str">
         <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
@@ -2712,31 +2716,31 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D31" s="20">
-        <v>36.400001525878906</v>
+        <v>25.549999237060547</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="19">
-        <v>0.15503701396564434</v>
+        <v>0.12147669635482432</v>
       </c>
       <c r="G31" s="19">
-        <v>5.8286664487887732E-2</v>
+        <v>5.7925637737524634E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>27.629994580629596</v>
+        <v>21.587754278691985</v>
       </c>
       <c r="I31" s="20">
-        <v>19.447578121988993</v>
+        <v>14.774210680478916</v>
       </c>
       <c r="J31" s="20">
-        <v>34.537493225786996</v>
+        <v>26.984692848364983</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>18</v>
@@ -2745,19 +2749,19 @@
         <v>75</v>
       </c>
       <c r="M31" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N31" s="16">
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P31" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q31" s="19">
-        <v>0.34356507928375646</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
@@ -2766,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <v>2.9971565437917872E-3</v>
+        <v>1.4967770896312765E-2</v>
       </c>
       <c r="U31" s="19">
-        <v>0.37652739708481697</v>
+        <v>0.29698470257341852</v>
       </c>
       <c r="V31" s="19" t="str">
         <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
@@ -2778,52 +2782,52 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D32" s="20">
-        <v>3.7400000095367432</v>
+        <v>94.050003051757813</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="19">
-        <v>0.22573472701993219</v>
+        <v>0.15370777814800207</v>
       </c>
       <c r="G32" s="19">
-        <v>8.6300506728726883E-2</v>
+        <v>2.4825634269957417E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.4671351010721763</v>
+        <v>29.052205544155804</v>
       </c>
       <c r="I32" s="20">
-        <v>2.440368945452573</v>
+        <v>19.882726100213066</v>
       </c>
       <c r="J32" s="20">
-        <v>5.9874024328451867</v>
+        <v>36.315256930194757</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>75</v>
       </c>
       <c r="M32" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N32" s="16">
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P32" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q32" s="19">
-        <v>0.51024868123587042</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
@@ -2832,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="T32" s="19">
-        <v>1.267678449378735E-2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="19">
-        <v>0.26989537512486639</v>
+        <v>0.15564608795570875</v>
       </c>
       <c r="V32" s="19" t="str">
         <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
@@ -2844,64 +2848,64 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D33" s="20">
-        <v>5.6700000762939453</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="19">
-        <v>6.3380939161264666E-2</v>
+        <v>0.196059037978629</v>
       </c>
       <c r="G33" s="19">
-        <v>5.9125942761152288E-2</v>
+        <v>6.8512562672052663E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>5.6477955122124417</v>
+        <v>5.5047713770913083</v>
       </c>
       <c r="I33" s="20">
-        <v>4.2281482507877488</v>
+        <v>3.8745744624475686</v>
       </c>
       <c r="J33" s="20">
-        <v>7.3140970095020021</v>
+        <v>6.8809642213641355</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M33" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>0.35166796085418528</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P33" s="19">
-        <v>0.40660753935436778</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q33" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="R33" s="19">
-        <v>3.2256320498000146E-2</v>
+        <v>0</v>
       </c>
       <c r="S33" s="19">
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <v>0</v>
+        <v>1.0335122256212414E-3</v>
       </c>
       <c r="U33" s="19">
-        <v>0.2067479536230501</v>
+        <v>0.2095761613699165</v>
       </c>
       <c r="V33" s="19" t="str">
         <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
@@ -2910,97 +2914,97 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D34" s="20">
-        <v>1.9099999666213989</v>
+        <v>35.950000762939453</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="19">
-        <v>3.8850165007280293E-2</v>
+        <v>0.1567438384782579</v>
       </c>
       <c r="G34" s="19">
-        <v>6.6355301242400064E-2</v>
+        <v>5.8928350657930027E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>1.9776222301766853</v>
+        <v>27.672579615889322</v>
       </c>
       <c r="I34" s="20">
-        <v>1.5933455257635327</v>
+        <v>19.477551917228961</v>
       </c>
       <c r="J34" s="20">
-        <v>2.6223861825474968</v>
+        <v>34.590724519861652</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M34" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N34" s="16">
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>0.55541924442229906</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P34" s="19">
-        <v>0.35722663926689097</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q34" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="R34" s="19">
-        <v>9.4776814590380575E-3</v>
+        <v>0</v>
       </c>
       <c r="S34" s="19">
         <v>0</v>
       </c>
       <c r="T34" s="19">
-        <v>1.3611168709786237E-3</v>
+        <v>2.9971565437917872E-3</v>
       </c>
       <c r="U34" s="19">
-        <v>7.5894490231092765E-2</v>
-      </c>
-      <c r="V34" s="19">
+        <v>0.37652739708481697</v>
+      </c>
+      <c r="V34" s="19" t="str">
         <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
-        <v>0.16578766826786739</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D35" s="20">
-        <v>2.7799999713897705</v>
+        <v>3.6500000953674316</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="19">
-        <v>0.17149391890757482</v>
+        <v>0.230956233520029</v>
       </c>
       <c r="G35" s="19">
-        <v>8.1271485437813262E-2</v>
+        <v>8.8296737715401377E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>3.276048457410663</v>
+        <v>3.4875407326818761</v>
       </c>
       <c r="I35" s="20">
-        <v>2.3058711836151082</v>
+        <v>2.4547316017209306</v>
       </c>
       <c r="J35" s="20">
-        <v>4.0950605717633284</v>
+        <v>6.0336173002294711</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>18</v>
@@ -3009,19 +3013,19 @@
         <v>75</v>
       </c>
       <c r="M35" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>0.19853855217217412</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P35" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q35" s="19">
-        <v>0.51643948647548221</v>
+        <v>0.51024868123587042</v>
       </c>
       <c r="R35" s="19">
         <v>0</v>
@@ -3030,14 +3034,14 @@
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <v>1.0233017334875492E-3</v>
+        <v>1.267678449378735E-2</v>
       </c>
       <c r="U35" s="19">
-        <v>0.12578684336637444</v>
-      </c>
-      <c r="V35" s="19">
+        <v>0.26989537512486639</v>
+      </c>
+      <c r="V35" s="19" t="str">
         <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
-        <v>0.17054992541515634</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -3048,25 +3052,25 @@
         <v>50</v>
       </c>
       <c r="D36" s="20">
-        <v>1.6799999475479126</v>
+        <v>1.7699999809265137</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="19">
-        <v>-4.1006640217801975E-2</v>
+        <v>-3.8863577771002356E-2</v>
       </c>
       <c r="G36" s="19">
-        <v>6.4040457552704641E-2</v>
+        <v>6.0693616676980179E-2</v>
       </c>
       <c r="H36" s="20">
-        <v>1.3913504913822212</v>
+        <v>1.3749734134615854</v>
       </c>
       <c r="I36" s="20">
-        <v>1.2593560056999957</v>
+        <v>1.2474117191090512</v>
       </c>
       <c r="J36" s="20">
-        <v>1.9477846860781396</v>
+        <v>1.9270026094708577</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>39</v>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF95B50B-B78C-4916-B3CF-830886C8481B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D3086-2C95-F744-A90F-394A24406965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -344,6 +357,36 @@
   <si>
     <t>Mid</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6181.HK</t>
+  </si>
+  <si>
+    <t>老鋪黃金</t>
+  </si>
+  <si>
+    <t>0887.HK</t>
+  </si>
+  <si>
+    <t>英皇鐘錶珠寶</t>
+  </si>
+  <si>
+    <t>0116.HK</t>
+  </si>
+  <si>
+    <t>周生生</t>
+  </si>
+  <si>
+    <t>0398.HK</t>
+  </si>
+  <si>
+    <t>東方表行集團</t>
+  </si>
+  <si>
+    <t>1929.HK</t>
+  </si>
+  <si>
+    <t>周大福</t>
   </si>
 </sst>
 </file>
@@ -351,14 +394,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,14 +409,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -392,7 +435,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,7 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -483,14 +526,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,14 +546,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -530,10 +573,11 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -564,9 +608,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -604,7 +648,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -710,7 +754,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -852,7 +896,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -866,33 +910,33 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="20" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.1328125" customWidth="1"/>
-    <col min="8" max="10" width="13.1328125" style="20" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="10" width="13.1640625" style="20" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.1328125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.796875" style="19" customWidth="1"/>
-    <col min="21" max="22" width="8.796875" style="19"/>
+    <col min="13" max="13" width="13.1640625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.83203125" style="19" customWidth="1"/>
+    <col min="21" max="22" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="2"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -904,7 +948,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
@@ -933,14 +977,14 @@
       <c r="U3" s="26"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="26" customHeight="1">
+    <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -998,39 +1042,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D5" s="20">
-        <v>7.8499999046325684</v>
+        <v>6.2800002098083496</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>2.7921360505645736E-2</v>
+        <v>0.1760462517199122</v>
       </c>
       <c r="G5" s="19">
-        <v>7.3885351216083583E-2</v>
+        <v>8.7579614908449926E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>9.1177488598291543</v>
+        <v>8.0031858013067598</v>
       </c>
       <c r="I5" s="20">
-        <v>7.7500865308547811</v>
+        <v>6.0023893509800699</v>
       </c>
       <c r="J5" s="20">
-        <v>11.397186074786443</v>
-      </c>
-      <c r="K5" s="8" t="s">
+        <v>10.003982251633449</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>36</v>
+      <c r="L5" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M5" s="16">
         <v>45593</v>
@@ -1039,211 +1083,211 @@
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.60969766115231028</v>
+        <v>0.73600077942413045</v>
       </c>
       <c r="P5" s="19">
-        <v>0.12367370222475756</v>
+        <v>0.20890317762054877</v>
       </c>
       <c r="Q5" s="19">
-        <v>1.0724472333143184E-2</v>
+        <v>5.1931891220120593E-3</v>
       </c>
       <c r="R5" s="19">
-        <v>2.1700000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="T5" s="19">
         <v>0</v>
       </c>
       <c r="U5" s="19">
-        <v>0.21420416428978895</v>
+        <v>4.9902853833308697E-2</v>
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v>1.2727818470268382E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>4.4205549291972401E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="20">
-        <v>14.960000038146973</v>
+        <v>7.75</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>8.6077909505890116E-2</v>
+        <v>2.8281635781487818E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>7.3529411577210935E-2</v>
+        <v>7.4838709677419346E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>17.060167074925772</v>
+        <v>9.1582929015942813</v>
       </c>
       <c r="I6" s="20">
-        <v>14.501142013686906</v>
+        <v>6.8687196761957114</v>
       </c>
       <c r="J6" s="20">
-        <v>21.325208843657215</v>
+        <v>11.447866126992851</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M6" s="16">
         <v>45593</v>
       </c>
       <c r="N6" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>0.72762956087193753</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P6" s="19">
-        <v>0.16539999999999999</v>
+        <v>0.12367370222475756</v>
       </c>
       <c r="Q6" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>1.0724472333143184E-2</v>
       </c>
       <c r="R6" s="19">
-        <v>9.9999999999999985E-3</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="S6" s="19">
-        <v>1.9999999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>7.3081874090513838E-2</v>
+        <v>0.21420416428978895</v>
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
-        <v>3.0672327760027485E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>0.1137135901682953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D7" s="20">
-        <v>1.8700000047683716</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>3.2708391424708258E-2</v>
+        <v>8.7126221431457304E-2</v>
       </c>
       <c r="G7" s="19">
-        <v>6.7673706257814076E-2</v>
+        <v>7.4424899856129392E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>1.952697040035225</v>
+        <v>16.518630923479407</v>
       </c>
       <c r="I7" s="20">
-        <v>1.6597924840299412</v>
+        <v>12.388973192609557</v>
       </c>
       <c r="J7" s="20">
-        <v>2.440871300044031</v>
+        <v>20.648288654349258</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M7" s="16">
         <v>45593</v>
       </c>
       <c r="N7" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O7" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.72762956087193753</v>
       </c>
       <c r="P7" s="19">
-        <v>0.37949349616392825</v>
+        <v>0.16539999999999999</v>
       </c>
       <c r="Q7" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="R7" s="19">
-        <v>0</v>
+        <v>9.9999999999999985E-3</v>
       </c>
       <c r="S7" s="19">
-        <v>0</v>
+        <v>1.9999999999999997E-2</v>
       </c>
       <c r="T7" s="19">
-        <v>1.8148224946381651E-3</v>
+        <v>0</v>
       </c>
       <c r="U7" s="19">
-        <v>6.2651609169433978E-2</v>
+        <v>7.3081874090513838E-2</v>
       </c>
       <c r="V7" s="19">
         <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
-        <v>0.11241043861091748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>0.16177446438160192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D8" s="20">
-        <v>2.7599999904632568</v>
+        <v>7.0799999237060547</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="19">
-        <v>0.17247931569615887</v>
+        <v>8.6295798944355351E-2</v>
       </c>
       <c r="G8" s="19">
-        <v>8.1738467948120452E-2</v>
+        <v>7.7683616656326226E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>3.2782383069243655</v>
+        <v>7.673590279923749</v>
       </c>
       <c r="I8" s="20">
-        <v>2.307412525556702</v>
+        <v>5.7551927099428113</v>
       </c>
       <c r="J8" s="20">
-        <v>4.0977978836554572</v>
+        <v>9.5919878499046867</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M8" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N8" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O8" s="19">
-        <v>0.19853855217217412</v>
+        <v>0.79501071628968012</v>
       </c>
       <c r="P8" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.12234231416665901</v>
       </c>
       <c r="Q8" s="19">
-        <v>0.51643948647548221</v>
+        <v>6.4812855868203439E-3</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
@@ -1252,64 +1296,64 @@
         <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>1.0233017334875492E-3</v>
+        <v>1.3233621247382252E-3</v>
       </c>
       <c r="U8" s="19">
-        <v>0.12578684336637444</v>
+        <v>7.4842321832102252E-2</v>
       </c>
       <c r="V8" s="19">
         <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
-        <v>0.16398096611246349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>0.18711966497730803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D9" s="20">
-        <v>92.699996948242188</v>
+        <v>0.17499999701976776</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>0.10802917684670264</v>
+        <v>0.2334516581005823</v>
       </c>
       <c r="G9" s="19">
-        <v>7.3354910721266681E-2</v>
+        <v>6.9142858320352996E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>106.63399780450825</v>
+        <v>0.18605189927077234</v>
       </c>
       <c r="I9" s="20">
-        <v>72.97809345646246</v>
+        <v>0.13953892445307925</v>
       </c>
       <c r="J9" s="20">
-        <v>133.29249725563531</v>
+        <v>0.23256487408846543</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M9" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N9" s="16">
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.69931288683936033</v>
       </c>
       <c r="P9" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.22200134640260258</v>
       </c>
       <c r="Q9" s="19">
-        <v>0.39159225009737869</v>
+        <v>2.1205737325435711E-3</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
@@ -1321,178 +1365,178 @@
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>0.35546835552606143</v>
+        <v>7.6565193025493528E-2</v>
       </c>
       <c r="V9" s="19">
         <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
-        <v>0.21274977498425585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>0.20263470383192561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D10" s="20">
-        <v>5.5199999809265137</v>
+        <v>1.8999999761581421</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="19">
-        <v>6.5006269421473528E-2</v>
+        <v>3.2200153830735802E-2</v>
       </c>
       <c r="G10" s="19">
-        <v>6.0642158601510322E-2</v>
+        <v>6.6622161985976591E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>5.6835417377554718</v>
+        <v>1.948094682904749</v>
       </c>
       <c r="I10" s="20">
-        <v>4.2551428660059507</v>
+        <v>1.4610710121785617</v>
       </c>
       <c r="J10" s="20">
-        <v>7.358400903192873</v>
+        <v>2.4351183536309362</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M10" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.35166796085418528</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P10" s="19">
-        <v>0.40660753935436778</v>
+        <v>0.37949349616392825</v>
       </c>
       <c r="Q10" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="R10" s="19">
-        <v>3.2256320498000146E-2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="19">
         <v>0</v>
       </c>
       <c r="T10" s="19">
-        <v>0</v>
+        <v>1.8148224946381651E-3</v>
       </c>
       <c r="U10" s="19">
-        <v>0.2067479536230501</v>
+        <v>6.2651609169433978E-2</v>
       </c>
       <c r="V10" s="19">
         <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
-        <v>0.22914078248026748</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>0.23101524709863841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D11" s="20">
-        <v>70.949996948242188</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>8.2634338504952359E-2</v>
+        <v>6.6857211223948151E-2</v>
       </c>
       <c r="G11" s="19">
-        <v>6.8862748732251566E-2</v>
+        <v>3.4168465678127306E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>75.542909443142321</v>
+        <v>4.707981152798455</v>
       </c>
       <c r="I11" s="20">
-        <v>52.973820681258175</v>
+        <v>3.53</v>
       </c>
       <c r="J11" s="20">
-        <v>94.519361661503893</v>
+        <v>5.8849764409980683</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M11" s="16">
-        <v>45603</v>
+        <v>45591</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P11" s="19">
-        <v>0.66167150000644004</v>
+        <v>0.21645682425674254</v>
       </c>
       <c r="Q11" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="R11" s="19">
-        <v>0.17959118565275847</v>
+        <v>0.01</v>
       </c>
       <c r="S11" s="19">
         <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>1.6744128904032363E-4</v>
+        <v>1.0365594158118095E-3</v>
       </c>
       <c r="U11" s="19">
-        <v>0.15487427537057533</v>
+        <v>0.11237749163404374</v>
       </c>
       <c r="V11" s="19">
         <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
-        <v>0.25336401747976933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>0.23758101236542739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20">
-        <v>5.9600000381469727</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="19">
-        <v>0.27757413827313637</v>
+        <v>6.6839130444191736E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>7.2099127297332338E-2</v>
+        <v>6.2351972898244727E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>5.9709654706965463</v>
+        <v>5.7346356624372223</v>
       </c>
       <c r="I12" s="20">
-        <v>4.2027086583823667</v>
+        <v>3.1258429215558889</v>
       </c>
       <c r="J12" s="20">
-        <v>7.4637068383706833</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>75</v>
+        <v>7.4223330822871638</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="M12" s="16">
         <v>45605</v>
@@ -1501,16 +1545,16 @@
         <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.47700776116848903</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P12" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.40660753935436778</v>
       </c>
       <c r="Q12" s="19">
-        <v>0</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="R12" s="19">
-        <v>0</v>
+        <v>3.2256320498000146E-2</v>
       </c>
       <c r="S12" s="19">
         <v>0</v>
@@ -1519,61 +1563,61 @@
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>0.36602055622301682</v>
+        <v>0.2067479536230501</v>
       </c>
       <c r="V12" s="19">
         <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
-        <v>0.29484754505319877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>0.41790633367388785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D13" s="20">
-        <v>71.650001525878906</v>
+        <v>2.690000057220459</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="19">
-        <v>6.1353506804304549E-2</v>
+        <v>0.17701275432057692</v>
       </c>
       <c r="G13" s="19">
-        <v>6.6259705826596349E-2</v>
+        <v>8.3886878186189479E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>72.019605082037486</v>
+        <v>3.3117663710276291</v>
       </c>
       <c r="I13" s="20">
-        <v>49.288721970360605</v>
+        <v>1.536326612639459</v>
       </c>
       <c r="J13" s="20">
-        <v>90.024506352546865</v>
-      </c>
-      <c r="K13" s="4" t="s">
+        <v>4.1397079637845362</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="8" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.19853855217217412</v>
       </c>
       <c r="P13" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.15821181625248168</v>
       </c>
       <c r="Q13" s="19">
-        <v>0.55863466227121317</v>
+        <v>0.51643948647548221</v>
       </c>
       <c r="R13" s="19">
         <v>0</v>
@@ -1582,64 +1626,64 @@
         <v>0</v>
       </c>
       <c r="T13" s="19">
-        <v>1.8260018543319254E-2</v>
+        <v>1.0233017334875492E-3</v>
       </c>
       <c r="U13" s="19">
-        <v>0.11541499261701178</v>
+        <v>0.12578684336637444</v>
       </c>
       <c r="V13" s="19">
         <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
-        <v>0.31209042678724497</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+        <v>0.4288748773385066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20">
-        <v>33.099998474121094</v>
+        <v>92.150001525878906</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>3.3215377136618332E-2</v>
+        <v>0.10867394680615483</v>
       </c>
       <c r="G14" s="19">
-        <v>1.5105740877629347E-2</v>
+        <v>7.3792728023887491E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>14.249233656031027</v>
+        <v>106.85165326313287</v>
       </c>
       <c r="I14" s="20">
-        <v>9.751879577273419</v>
+        <v>48.196689038062246</v>
       </c>
       <c r="J14" s="20">
-        <v>17.811542070038783</v>
+        <v>133.5645665789161</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="M14" s="16">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.47272944175123971</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P14" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q14" s="19">
-        <v>0</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="R14" s="19">
         <v>0</v>
@@ -1651,46 +1695,46 @@
         <v>0</v>
       </c>
       <c r="U14" s="19">
-        <v>0.17614360597656339</v>
-      </c>
-      <c r="V14" s="19" t="str">
+        <v>0.35546835552606143</v>
+      </c>
+      <c r="V14" s="19">
         <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>0.47697571090623425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D15" s="20">
-        <v>5.179999828338623</v>
+        <v>70.449996948242188</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>-1.6901001579533909E-2</v>
+        <v>8.3242038173248753E-2</v>
       </c>
       <c r="G15" s="19">
-        <v>3.8525411401311216E-2</v>
+        <v>6.9369171005602984E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>2.6535832041805514</v>
+        <v>75.762504741121447</v>
       </c>
       <c r="I15" s="20">
-        <v>1.8160572336808716</v>
+        <v>34.788779112977863</v>
       </c>
       <c r="J15" s="20">
-        <v>3.3169790052256891</v>
+        <v>94.793878922367554</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M15" s="16">
         <v>45603</v>
@@ -1699,82 +1743,82 @@
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.45524911405880131</v>
+        <v>0</v>
       </c>
       <c r="P15" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.66167150000644004</v>
       </c>
       <c r="Q15" s="19">
-        <v>0.12063647696552883</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="R15" s="19">
-        <v>0</v>
+        <v>0.17959118565275847</v>
       </c>
       <c r="S15" s="19">
         <v>0</v>
       </c>
       <c r="T15" s="19">
-        <v>0</v>
+        <v>1.6744128904032363E-4</v>
       </c>
       <c r="U15" s="19">
-        <v>-2.4615858697631419E-2</v>
-      </c>
-      <c r="V15" s="19" t="str">
+        <v>0.15487427537057533</v>
+      </c>
+      <c r="V15" s="19">
         <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>0.50619190035542094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D16" s="20">
-        <v>9.4499998092651367</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="19">
-        <v>1.5265998339275976E-2</v>
+        <v>0.28190184478495273</v>
       </c>
       <c r="G16" s="19">
-        <v>0</v>
+        <v>7.3223237290583595E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>1.5266862564334813</v>
+        <v>6.0038651913054073</v>
       </c>
       <c r="I16" s="20">
-        <v>1.0745695281667518</v>
+        <v>2.7851897865730342</v>
       </c>
       <c r="J16" s="20">
-        <v>1.9083578205418517</v>
+        <v>7.5048314891317593</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M16" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P16" s="19">
-        <v>0.49473021389230248</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q16" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>0</v>
       </c>
       <c r="R16" s="19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S16" s="19">
         <v>0</v>
@@ -1783,61 +1827,61 @@
         <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>0.11305626992292581</v>
-      </c>
-      <c r="V16" s="19" t="str">
+        <v>0.36602055622301682</v>
+      </c>
+      <c r="V16" s="19">
         <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:22">
+        <v>0.52552132182746003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D17" s="20">
-        <v>2.4100000858306885</v>
+        <v>71.25</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="19">
-        <v>6.0025468657538661E-2</v>
+        <v>6.1699719211779164E-2</v>
       </c>
       <c r="G17" s="19">
-        <v>2.6745484614434135E-2</v>
+        <v>6.6633603480824255E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>1.8994492485997396</v>
+        <v>72.148036814810865</v>
       </c>
       <c r="I17" s="20">
-        <v>1.3369415452869406</v>
+        <v>32.543216589329845</v>
       </c>
       <c r="J17" s="20">
-        <v>2.3743115607496748</v>
+        <v>90.185046018513589</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M17" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.82154354610382485</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P17" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q17" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="R17" s="19">
         <v>0</v>
@@ -1846,196 +1890,196 @@
         <v>0</v>
       </c>
       <c r="T17" s="19">
-        <v>0</v>
+        <v>1.8260018543319254E-2</v>
       </c>
       <c r="U17" s="19">
-        <v>6.6194720593479306E-2</v>
-      </c>
-      <c r="V17" s="19" t="str">
+        <v>0.11541499261701178</v>
+      </c>
+      <c r="V17" s="19">
         <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:22">
+        <v>0.5432531005006338</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D18" s="20">
-        <v>10.319999694824219</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="19">
-        <v>3.9144486144819593E-2</v>
+        <v>0.2329296399297352</v>
       </c>
       <c r="G18" s="19">
-        <v>1.6655457912774035E-2</v>
+        <v>8.9051189524335161E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>1.8314658331353753</v>
+        <v>3.4981359210976133</v>
       </c>
       <c r="I18" s="20">
-        <v>1.2890909103769452</v>
+        <v>1.622783345234794</v>
       </c>
       <c r="J18" s="20">
-        <v>2.2893322914192189</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>56</v>
+        <v>6.0561042180804749</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="M18" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.48660635459513968</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P18" s="19">
-        <v>0.17055682117844595</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q18" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>0.51024868123587042</v>
       </c>
       <c r="R18" s="19">
-        <v>0.12357639997060962</v>
+        <v>0</v>
       </c>
       <c r="S18" s="19">
         <v>0</v>
       </c>
       <c r="T18" s="19">
-        <v>7.0052944996285213E-3</v>
+        <v>1.267678449378735E-2</v>
       </c>
       <c r="U18" s="19">
-        <v>0.21007939579279941</v>
+        <v>0.26989537512486639</v>
       </c>
       <c r="V18" s="19" t="str">
         <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:22">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D19" s="20">
-        <v>5.6500000953674316</v>
+        <v>2.4500000476837158</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>-8.8089561760239063E-2</v>
+        <v>5.9060520863546122E-2</v>
       </c>
       <c r="G19" s="19">
-        <v>3.0079755593250542E-2</v>
+        <v>2.6315533845949486E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>1.9336176199881345</v>
+        <v>1.891301804728527</v>
       </c>
       <c r="I19" s="20">
-        <v>1.3609912087762994</v>
+        <v>0.87737387533042033</v>
       </c>
       <c r="J19" s="20">
-        <v>2.4170220249851679</v>
+        <v>2.3641272559106592</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M19" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P19" s="19">
-        <v>0.13052664506651043</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q19" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="R19" s="19">
-        <v>4.7067232344920495E-2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="19">
         <v>0</v>
       </c>
       <c r="T19" s="19">
-        <v>5.409642155098836E-4</v>
+        <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>-4.5442109301350432E-2</v>
+        <v>6.6194720593479306E-2</v>
       </c>
       <c r="V19" s="19" t="str">
         <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:22">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="D20" s="20">
-        <v>1.0299999713897705</v>
+        <v>203.8</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="19">
-        <v>5.1887607826056739E-2</v>
+        <v>1.3062000645299334E-2</v>
       </c>
       <c r="G20" s="19">
-        <v>5.0365862082641127E-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="20">
-        <v>0.6506838878398522</v>
+        <v>0</v>
       </c>
       <c r="I20" s="20">
-        <v>0.45798871601503954</v>
+        <v>0</v>
       </c>
       <c r="J20" s="20">
-        <v>0.81335485979981526</v>
+        <v>0</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M20" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.69462498271442097</v>
+        <v>0.58108816177312361</v>
       </c>
       <c r="P20" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.23828361372817153</v>
       </c>
       <c r="Q20" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>5.7183940942846252E-3</v>
       </c>
       <c r="R20" s="19">
         <v>0</v>
@@ -2047,80 +2091,80 @@
         <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>0.12419023710495804</v>
+        <v>0.17490983040442024</v>
       </c>
       <c r="V20" s="19" t="str">
         <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D21" s="20">
-        <v>9.4300003051757813</v>
+        <v>25.399999618530273</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="19">
-        <v>9.5140036529464372E-2</v>
+        <v>0.12219407660628891</v>
       </c>
       <c r="G21" s="19">
-        <v>6.7213511306012608E-2</v>
+        <v>5.8267717410526387E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>8.6083207817238563</v>
+        <v>21.62267879939262</v>
       </c>
       <c r="I21" s="20">
-        <v>6.0590308989449424</v>
+        <v>9.7531623932654519</v>
       </c>
       <c r="J21" s="20">
-        <v>10.76040097715482</v>
+        <v>27.028348499240774</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M21" s="16">
-        <v>45604</v>
+        <v>45593</v>
       </c>
       <c r="N21" s="16">
         <v>45716</v>
       </c>
       <c r="O21" s="19">
-        <v>0.6223905170283478</v>
+        <v>2.8609905101246381E-2</v>
       </c>
       <c r="P21" s="19">
-        <v>0.25451341065151861</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q21" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="R21" s="19">
-        <v>1.6834397167810114E-3</v>
+        <v>0</v>
       </c>
       <c r="S21" s="19">
         <v>0</v>
       </c>
       <c r="T21" s="19">
-        <v>4.1457926751634292E-3</v>
+        <v>1.4967770896312765E-2</v>
       </c>
       <c r="U21" s="19">
-        <v>0.11576071268794125</v>
+        <v>0.29698470257341852</v>
       </c>
       <c r="V21" s="19" t="str">
         <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:22">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>78</v>
       </c>
@@ -2128,25 +2172,25 @@
         <v>79</v>
       </c>
       <c r="D22" s="20">
-        <v>5.6700000762939453</v>
+        <v>5.5500001907348633</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="19">
-        <v>0.10707419428921199</v>
+        <v>0.10941720827168835</v>
       </c>
       <c r="G22" s="19">
-        <v>8.5260078504046641E-2</v>
+        <v>8.7125752650913796E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>5.4556002877826693</v>
+        <v>5.5078725832889468</v>
       </c>
       <c r="I22" s="20">
-        <v>4.6372602446152689</v>
+        <v>4.1309044374667092</v>
       </c>
       <c r="J22" s="20">
-        <v>6.8195003597283375</v>
+        <v>6.8848407291111826</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>18</v>
@@ -2186,54 +2230,54 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:22">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D23" s="20">
-        <v>5.0300002098083496</v>
+        <v>5.1599998474121094</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="19">
-        <v>0.13097662018092959</v>
+        <v>-1.6966785435306418E-2</v>
       </c>
       <c r="G23" s="19">
-        <v>6.9646464465916325E-2</v>
+        <v>3.867536405916254E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>4.8124026230863359</v>
+        <v>2.6555427342354707</v>
       </c>
       <c r="I23" s="20">
-        <v>3.3872455419353784</v>
+        <v>1.1978136367628158</v>
       </c>
       <c r="J23" s="20">
-        <v>6.0155032788579197</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>75</v>
+        <v>3.3194284177943385</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M23" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P23" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q23" s="19">
-        <v>0.49099920776112166</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
@@ -2242,49 +2286,49 @@
         <v>0</v>
       </c>
       <c r="T23" s="19">
-        <v>2.9490457891516841E-3</v>
+        <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>0.12330732947833466</v>
+        <v>-2.4615858697631419E-2</v>
       </c>
       <c r="V23" s="19" t="str">
         <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:22">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D24" s="20">
-        <v>3.9500000476837158</v>
+        <v>5.3600001335144043</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="19">
-        <v>0.1534952027561769</v>
+        <v>-9.2879282549307607E-2</v>
       </c>
       <c r="G24" s="19">
-        <v>6.2797609402085841E-2</v>
+        <v>3.1715291379967592E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>3.2997925156077978</v>
+        <v>1.9495142773009608</v>
       </c>
       <c r="I24" s="20">
-        <v>2.3225836163799545</v>
+        <v>0.9043786095963896</v>
       </c>
       <c r="J24" s="20">
-        <v>4.124740644509747</v>
+        <v>2.436892846626201</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="M24" s="16">
         <v>45593</v>
@@ -2293,98 +2337,98 @@
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P24" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.13052664506651043</v>
       </c>
       <c r="Q24" s="19">
-        <v>0.49449639261897682</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="R24" s="19">
-        <v>0</v>
+        <v>4.7067232344920495E-2</v>
       </c>
       <c r="S24" s="19">
         <v>0</v>
       </c>
       <c r="T24" s="19">
-        <v>3.5193961201691735E-4</v>
+        <v>5.409642155098836E-4</v>
       </c>
       <c r="U24" s="19">
-        <v>0.19976137887512818</v>
+        <v>-4.5442109301350432E-2</v>
       </c>
       <c r="V24" s="19" t="str">
         <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:22">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D25" s="20">
-        <v>4.6599998474121094</v>
+        <v>10.119999885559082</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="19">
-        <v>0.25931870347450348</v>
+        <v>3.9928272537193651E-2</v>
       </c>
       <c r="G25" s="19">
-        <v>7.0634867957715244E-2</v>
+        <v>1.6988948591959225E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>4.5426108390306199</v>
+        <v>1.8349395199181229</v>
       </c>
       <c r="I25" s="20">
-        <v>3.1973505789891079</v>
+        <v>0.8512274421578051</v>
       </c>
       <c r="J25" s="20">
-        <v>5.6782635487882747</v>
+        <v>2.2936743998976534</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M25" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N25" s="16">
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P25" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.17055682117844595</v>
       </c>
       <c r="Q25" s="19">
-        <v>0.48610500800425166</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="R25" s="19">
-        <v>0</v>
+        <v>0.12357639997060962</v>
       </c>
       <c r="S25" s="19">
         <v>0</v>
       </c>
       <c r="T25" s="19">
-        <v>7.2783600033702114E-4</v>
+        <v>7.0052944996285213E-3</v>
       </c>
       <c r="U25" s="19">
-        <v>0.34645058427796466</v>
+        <v>0.21007939579279941</v>
       </c>
       <c r="V25" s="19" t="str">
         <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:22">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
@@ -2392,13 +2436,13 @@
         <v>61</v>
       </c>
       <c r="D26" s="20">
-        <v>72.199996948242188</v>
+        <v>71.800003051757812</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="19">
-        <v>-1.1226099800940748E-2</v>
+        <v>-1.1291518834940829E-2</v>
       </c>
       <c r="G26" s="19">
         <v>0</v>
@@ -2412,10 +2456,10 @@
       <c r="J26" s="20">
         <v>0</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M26" s="16">
@@ -2450,120 +2494,120 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:22">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D27" s="20">
-        <v>4.7800002098083496</v>
+        <v>1.0199999809265137</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="19">
-        <v>6.4759180341226741E-2</v>
+        <v>5.2409672497662922E-2</v>
       </c>
       <c r="G27" s="19">
-        <v>3.30962328569318E-2</v>
+        <v>5.0872615782608994E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>4.6722727885869606</v>
+        <v>0.65242138041459752</v>
       </c>
       <c r="I27" s="20">
-        <v>4.1279738197728042</v>
+        <v>0.30265792241706307</v>
       </c>
       <c r="J27" s="20">
-        <v>5.8403409857337003</v>
+        <v>0.8155267255182469</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="M27" s="16">
-        <v>45591</v>
+        <v>45603</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P27" s="19">
-        <v>0.21645682425674254</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q27" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="R27" s="19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S27" s="19">
         <v>0</v>
       </c>
       <c r="T27" s="19">
-        <v>1.0365594158118095E-3</v>
+        <v>0</v>
       </c>
       <c r="U27" s="19">
-        <v>0.11237749163404374</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V27" s="19" t="str">
         <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:22">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D28" s="20">
-        <v>4.5999999046325684</v>
+        <v>3.880000114440918</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="19">
-        <v>0.10349439060118433</v>
+        <v>0.15630429693158962</v>
       </c>
       <c r="G28" s="19">
-        <v>6.0953544294389317E-2</v>
+        <v>6.3946859643355308E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>3.6977045114251887</v>
+        <v>3.3185183390420958</v>
       </c>
       <c r="I28" s="20">
-        <v>2.6026569476197805</v>
+        <v>1.5394588469175361</v>
       </c>
       <c r="J28" s="20">
-        <v>4.6221306392814858</v>
-      </c>
-      <c r="K28" s="8" t="s">
+        <v>4.14814792380262</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="6" t="s">
         <v>75</v>
       </c>
       <c r="M28" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P28" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q28" s="19">
-        <v>0.39408770164042439</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
@@ -2572,17 +2616,17 @@
         <v>0</v>
       </c>
       <c r="T28" s="19">
-        <v>2.8028997271722927E-4</v>
+        <v>3.5193961201691735E-4</v>
       </c>
       <c r="U28" s="19">
-        <v>0.10664123429511622</v>
+        <v>0.19976137887512818</v>
       </c>
       <c r="V28" s="19" t="str">
         <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:22">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>40</v>
       </c>
@@ -2590,25 +2634,25 @@
         <v>41</v>
       </c>
       <c r="D29" s="20">
-        <v>4.8000001907348633</v>
+        <v>4.6599998474121094</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="19">
-        <v>7.5819331185151814E-2</v>
+        <v>7.8117088665121098E-2</v>
       </c>
       <c r="G29" s="19">
-        <v>4.4761540038259558E-2</v>
+        <v>4.611806959121343E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>2.6237698429598599</v>
+        <v>2.6415213074096027</v>
       </c>
       <c r="I29" s="20">
-        <v>1.8467600073600148</v>
+        <v>1.2254002933088224</v>
       </c>
       <c r="J29" s="20">
-        <v>3.2797123036998248</v>
+        <v>3.3019016342620033</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>39</v>
@@ -2648,54 +2692,54 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:22">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D30" s="20">
-        <v>18.459999084472656</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="19">
-        <v>9.8869344821696681E-2</v>
+        <v>0.10535301027796758</v>
       </c>
       <c r="G30" s="19">
-        <v>4.325672125513879E-2</v>
+        <v>6.2048187744504331E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>18.075057045931516</v>
+        <v>3.7177674630589461</v>
       </c>
       <c r="I30" s="20">
-        <v>7.9158634678001238</v>
+        <v>1.7246702977209787</v>
       </c>
       <c r="J30" s="20">
-        <v>24.654919572458919</v>
-      </c>
-      <c r="K30" s="6" t="s">
+        <v>4.6472093288236831</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>21</v>
+      <c r="L30" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="M30" s="16">
-        <v>45591</v>
+        <v>45606</v>
       </c>
       <c r="N30" s="16">
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>0.40723441233977836</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P30" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q30" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
@@ -2704,64 +2748,64 @@
         <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>9.0430154247230065E-3</v>
+        <v>2.8028997271722927E-4</v>
       </c>
       <c r="U30" s="19">
-        <v>0.12415815772322404</v>
+        <v>0.10664123429511622</v>
       </c>
       <c r="V30" s="19" t="str">
         <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:22">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D31" s="20">
-        <v>25.549999237060547</v>
+        <v>3.690000057220459</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="19">
-        <v>0.12147669635482432</v>
+        <v>0.11326248377428916</v>
       </c>
       <c r="G31" s="19">
-        <v>5.7925637737524634E-2</v>
+        <v>6.5907858056564253E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>21.587754278691985</v>
+        <v>3.3917338277742886</v>
       </c>
       <c r="I31" s="20">
-        <v>14.774210680478916</v>
+        <v>2.5438003708307164</v>
       </c>
       <c r="J31" s="20">
-        <v>26.984692848364983</v>
+        <v>4.2396672847178607</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="M31" s="16">
-        <v>45593</v>
+        <v>45619</v>
       </c>
       <c r="N31" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O31" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0.68375747988736812</v>
       </c>
       <c r="P31" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.21895053202218998</v>
       </c>
       <c r="Q31" s="19">
-        <v>0.54295694135635775</v>
+        <v>3.7548526172941428E-3</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
@@ -2770,48 +2814,48 @@
         <v>0</v>
       </c>
       <c r="T31" s="19">
-        <v>1.4967770896312765E-2</v>
+        <v>2.4257361073934199E-4</v>
       </c>
       <c r="U31" s="19">
-        <v>0.29698470257341852</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="V31" s="19" t="str">
         <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:22">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D32" s="20">
-        <v>94.050003051757813</v>
+        <v>5.7899999618530273</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="19">
-        <v>0.15370777814800207</v>
+        <v>0.19915737295309752</v>
       </c>
       <c r="G32" s="19">
-        <v>2.4825634269957417E-2</v>
+        <v>6.9595271591293723E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>29.052205544155804</v>
+        <v>5.5341285554653279</v>
       </c>
       <c r="I32" s="20">
-        <v>19.882726100213066</v>
+        <v>2.5672792174923678</v>
       </c>
       <c r="J32" s="20">
-        <v>36.315256930194757</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" s="6" t="s">
+        <v>6.9176606943316603</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="8" t="s">
         <v>75</v>
       </c>
       <c r="M32" s="16">
@@ -2821,13 +2865,13 @@
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P32" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q32" s="19">
-        <v>0.50814791601378884</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
@@ -2836,46 +2880,46 @@
         <v>0</v>
       </c>
       <c r="T32" s="19">
-        <v>0</v>
+        <v>1.0335122256212414E-3</v>
       </c>
       <c r="U32" s="19">
-        <v>0.15564608795570875</v>
+        <v>0.2095761613699165</v>
       </c>
       <c r="V32" s="19" t="str">
         <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:22">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D33" s="20">
-        <v>5.880000114440918</v>
+        <v>93.900001525878906</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="19">
-        <v>0.196059037978629</v>
+        <v>0.15395701457187932</v>
       </c>
       <c r="G33" s="19">
-        <v>6.8512562672052663E-2</v>
+        <v>2.4865888916667429E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>5.5047713770913083</v>
+        <v>29.058609063721725</v>
       </c>
       <c r="I33" s="20">
-        <v>3.8745744624475686</v>
+        <v>13.107225785958322</v>
       </c>
       <c r="J33" s="20">
-        <v>6.8809642213641355</v>
+        <v>36.323261329652155</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>75</v>
@@ -2887,13 +2931,13 @@
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P33" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q33" s="19">
-        <v>0.583299310268654</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="R33" s="19">
         <v>0</v>
@@ -2902,64 +2946,64 @@
         <v>0</v>
       </c>
       <c r="T33" s="19">
-        <v>1.0335122256212414E-3</v>
+        <v>0</v>
       </c>
       <c r="U33" s="19">
-        <v>0.2095761613699165</v>
+        <v>0.15564608795570875</v>
       </c>
       <c r="V33" s="19" t="str">
         <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:22">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D34" s="20">
-        <v>35.950000762939453</v>
+        <v>32.599998474121094</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="19">
-        <v>0.1567438384782579</v>
+        <v>3.3724815460104543E-2</v>
       </c>
       <c r="G34" s="19">
-        <v>5.8928350657930027E-2</v>
+        <v>1.533742403076846E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>27.672579615889322</v>
+        <v>14.284397029328296</v>
       </c>
       <c r="I34" s="20">
-        <v>19.477551917228961</v>
+        <v>6.4431444970098211</v>
       </c>
       <c r="J34" s="20">
-        <v>34.590724519861652</v>
+        <v>17.855496286660369</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="M34" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N34" s="16">
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P34" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q34" s="19">
-        <v>0.34356507928375646</v>
+        <v>0</v>
       </c>
       <c r="R34" s="19">
         <v>0</v>
@@ -2968,212 +3012,481 @@
         <v>0</v>
       </c>
       <c r="T34" s="19">
-        <v>2.9971565437917872E-3</v>
+        <v>0</v>
       </c>
       <c r="U34" s="19">
-        <v>0.37652739708481697</v>
+        <v>0.17614360597656339</v>
       </c>
       <c r="V34" s="19" t="str">
         <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:22">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D35" s="20">
-        <v>3.6500000953674316</v>
+        <v>1.6399999856948853</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="19">
-        <v>0.230956233520029</v>
+        <v>-4.1954924561979204E-2</v>
       </c>
       <c r="G35" s="19">
-        <v>8.8296737715401377E-2</v>
+        <v>6.5521402174566451E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>3.4875407326818761</v>
+        <v>1.3960000295280339</v>
       </c>
       <c r="I35" s="20">
-        <v>2.4547316017209306</v>
+        <v>1.1539345175717373</v>
       </c>
       <c r="J35" s="20">
-        <v>6.0336173002294711</v>
+        <v>1.9533390005962352</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M35" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>0.39325092997635303</v>
       </c>
       <c r="P35" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.24326660244029483</v>
       </c>
       <c r="Q35" s="19">
-        <v>0.51024868123587042</v>
+        <v>9.5705744879944314E-3</v>
       </c>
       <c r="R35" s="19">
-        <v>0</v>
+        <v>0.57635255668591923</v>
       </c>
       <c r="S35" s="19">
         <v>0</v>
       </c>
       <c r="T35" s="19">
-        <v>1.267678449378735E-2</v>
+        <v>2.3716125582531654E-3</v>
       </c>
       <c r="U35" s="19">
-        <v>0.26989537512486639</v>
+        <v>-0.22481227614881466</v>
       </c>
       <c r="V35" s="19" t="str">
         <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:22">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D36" s="20">
-        <v>1.7699999809265137</v>
+        <v>35.049999237060547</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="19">
-        <v>-3.8863577771002356E-2</v>
+        <v>0.16080965381188272</v>
       </c>
       <c r="G36" s="19">
-        <v>6.0693616676980179E-2</v>
+        <v>6.0456907021078352E-2</v>
       </c>
       <c r="H36" s="20">
-        <v>1.3749734134615854</v>
+        <v>27.879991697778674</v>
       </c>
       <c r="I36" s="20">
-        <v>1.2474117191090512</v>
+        <v>12.933512937439998</v>
       </c>
       <c r="J36" s="20">
-        <v>1.9270026094708577</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>49</v>
+        <v>34.84998962222334</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M36" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N36" s="16">
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>0.39325092997635303</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P36" s="19">
-        <v>0.24326660244029483</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q36" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="R36" s="19">
-        <v>0.57635255668591923</v>
+        <v>0</v>
       </c>
       <c r="S36" s="19">
         <v>0</v>
       </c>
       <c r="T36" s="19">
-        <v>2.3716125582531654E-3</v>
+        <v>2.9971565437917872E-3</v>
       </c>
       <c r="U36" s="19">
-        <v>-0.22481227614881466</v>
+        <v>0.37652739708481697</v>
       </c>
       <c r="V36" s="19" t="str">
         <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:22">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="2:22">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="2:22">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-    </row>
-    <row r="40" spans="2:22">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-    </row>
-    <row r="41" spans="2:22">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-    </row>
-    <row r="42" spans="2:22">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="20">
+        <v>9.3000001907348633</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="19">
+        <v>9.6494555775751611E-2</v>
+      </c>
+      <c r="G37" s="19">
+        <v>6.8170437517054636E-2</v>
+      </c>
+      <c r="H37" s="20">
+        <v>8.6491889995515621</v>
+      </c>
+      <c r="I37" s="20">
+        <v>4.012354057945311</v>
+      </c>
+      <c r="J37" s="20">
+        <v>10.811486249439453</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M37" s="16">
+        <v>45604</v>
+      </c>
+      <c r="N37" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O37" s="19">
+        <v>0.6223905170283478</v>
+      </c>
+      <c r="P37" s="19">
+        <v>0.25451341065151861</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>1.5061272402478966E-3</v>
+      </c>
+      <c r="R37" s="19">
+        <v>1.6834397167810114E-3</v>
+      </c>
+      <c r="S37" s="19">
+        <v>0</v>
+      </c>
+      <c r="T37" s="19">
+        <v>4.1457926751634292E-3</v>
+      </c>
+      <c r="U37" s="19">
+        <v>0.11576071268794125</v>
+      </c>
+      <c r="V37" s="19" t="str">
+        <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="20">
+        <v>4.9600000381469727</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0.13285896066071068</v>
+      </c>
+      <c r="G38" s="19">
+        <v>7.0647393938342268E-2</v>
+      </c>
+      <c r="H38" s="20">
+        <v>4.8361941103265282</v>
+      </c>
+      <c r="I38" s="20">
+        <v>2.2435078091814078</v>
+      </c>
+      <c r="J38" s="20">
+        <v>6.0452426379081601</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N38" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O38" s="19">
+        <v>0.18760554961924605</v>
+      </c>
+      <c r="P38" s="19">
+        <v>0.19513886735214594</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>0.49099920776112166</v>
+      </c>
+      <c r="R38" s="19">
+        <v>0</v>
+      </c>
+      <c r="S38" s="19">
+        <v>0</v>
+      </c>
+      <c r="T38" s="19">
+        <v>2.9490457891516841E-3</v>
+      </c>
+      <c r="U38" s="19">
+        <v>0.12330732947833466</v>
+      </c>
+      <c r="V38" s="19" t="str">
+        <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="20">
+        <v>8.7700004577636719</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="19">
+        <v>1.6453873061316314E-2</v>
+      </c>
+      <c r="G39" s="19">
+        <v>0</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1.5360300442123891</v>
+      </c>
+      <c r="I39" s="20">
+        <v>0.71256349946116737</v>
+      </c>
+      <c r="J39" s="20">
+        <v>1.9200375552654863</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M39" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N39" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O39" s="19">
+        <v>0.35834792051449244</v>
+      </c>
+      <c r="P39" s="19">
+        <v>0.49473021389230248</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>3.8655956702792868E-3</v>
+      </c>
+      <c r="R39" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="S39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <v>0</v>
+      </c>
+      <c r="U39" s="19">
+        <v>0.11305626992292581</v>
+      </c>
+      <c r="V39" s="19" t="str">
+        <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="20">
+        <v>4.5799999237060547</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0.26391557520987852</v>
+      </c>
+      <c r="G40" s="19">
+        <v>7.18869929440593E-2</v>
+      </c>
+      <c r="H40" s="20">
+        <v>4.5704016665573031</v>
+      </c>
+      <c r="I40" s="20">
+        <v>2.1202068395316584</v>
+      </c>
+      <c r="J40" s="20">
+        <v>5.7130020831966286</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N40" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O40" s="19">
+        <v>1.2012210534502537E-2</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0.15470436118294414</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>0.48610500800425166</v>
+      </c>
+      <c r="R40" s="19">
+        <v>0</v>
+      </c>
+      <c r="S40" s="19">
+        <v>0</v>
+      </c>
+      <c r="T40" s="19">
+        <v>7.2783600033702114E-4</v>
+      </c>
+      <c r="U40" s="19">
+        <v>0.34645058427796466</v>
+      </c>
+      <c r="V40" s="19" t="str">
+        <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="20">
+        <v>18.559999465942383</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="19">
+        <v>9.8339971306775589E-2</v>
+      </c>
+      <c r="G41" s="19">
+        <v>4.302511293795927E-2</v>
+      </c>
+      <c r="H41" s="20">
+        <v>17.990287751068834</v>
+      </c>
+      <c r="I41" s="20">
+        <v>0.36299771430420513</v>
+      </c>
+      <c r="J41" s="20">
+        <v>24.549027744033161</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N41" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0</v>
+      </c>
+      <c r="T41" s="19">
+        <v>9.0430154247230065E-3</v>
+      </c>
+      <c r="U41" s="19">
+        <v>0.12415815772322404</v>
+      </c>
+      <c r="V41" s="19" t="str">
+        <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="20"/>
       <c r="E42" s="5"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -3182,10 +3495,9 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="43" spans="2:22">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="20"/>
       <c r="E43" s="5"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -3194,10 +3506,9 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="2:22">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="20"/>
       <c r="E44" s="5"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -3206,10 +3517,9 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="2:22">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="20"/>
       <c r="E45" s="5"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -3218,10 +3528,9 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
     </row>
-    <row r="46" spans="2:22">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="20"/>
       <c r="E46" s="5"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -3230,10 +3539,9 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
     </row>
-    <row r="47" spans="2:22">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="20"/>
       <c r="E47" s="5"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -3242,10 +3550,9 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="2:22">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="20"/>
       <c r="E48" s="5"/>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -3254,10 +3561,9 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="20"/>
       <c r="E49" s="5"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
@@ -3266,10 +3572,9 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="20"/>
       <c r="E50" s="5"/>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -3278,10 +3583,9 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="20"/>
       <c r="E51" s="5"/>
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
@@ -3290,10 +3594,9 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="20"/>
       <c r="E52" s="5"/>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -3302,10 +3605,9 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="20"/>
       <c r="E53" s="5"/>
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
@@ -3314,10 +3616,9 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="20"/>
       <c r="E54" s="5"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -3326,10 +3627,9 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="20"/>
       <c r="E55" s="5"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
@@ -3338,10 +3638,9 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="20"/>
       <c r="E56" s="5"/>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -3350,10 +3649,9 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="20"/>
       <c r="E57" s="5"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
@@ -3362,10 +3660,9 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="20"/>
       <c r="E58" s="5"/>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -3374,10 +3671,9 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="20"/>
       <c r="E59" s="5"/>
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
@@ -3386,10 +3682,9 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="20"/>
       <c r="E60" s="5"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -3398,10 +3693,9 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="20"/>
       <c r="E61" s="5"/>
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
@@ -3410,10 +3704,9 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="20"/>
       <c r="E62" s="5"/>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -3422,10 +3715,9 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="20"/>
       <c r="E63" s="5"/>
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
@@ -3434,10 +3726,9 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="20"/>
       <c r="E64" s="5"/>
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
@@ -3446,10 +3737,9 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="20"/>
       <c r="E65" s="5"/>
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
@@ -3458,10 +3748,9 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="20"/>
       <c r="E66" s="5"/>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -3470,10 +3759,9 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="20"/>
       <c r="E67" s="5"/>
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
@@ -3482,10 +3770,9 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="20"/>
       <c r="E68" s="5"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -3494,10 +3781,9 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="20"/>
       <c r="E69" s="5"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -3506,10 +3792,9 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="20"/>
       <c r="E70" s="5"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -3518,10 +3803,9 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="20"/>
       <c r="E71" s="5"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -3530,10 +3814,9 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="20"/>
       <c r="E72" s="5"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -3542,10 +3825,9 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="20"/>
       <c r="E73" s="5"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -3554,10 +3836,9 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="20"/>
       <c r="E74" s="5"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -3566,10 +3847,9 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="20"/>
       <c r="E75" s="5"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -3578,10 +3858,9 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="20"/>
       <c r="E76" s="5"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -3590,10 +3869,9 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="20"/>
       <c r="E77" s="5"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -3602,10 +3880,9 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="20"/>
       <c r="E78" s="5"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -3614,10 +3891,9 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="20"/>
       <c r="E79" s="5"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -3626,10 +3902,9 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="20"/>
       <c r="E80" s="5"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -3638,10 +3913,9 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="20"/>
       <c r="E81" s="5"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -3650,10 +3924,9 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="20"/>
       <c r="E82" s="5"/>
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
@@ -3662,10 +3935,9 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="20"/>
       <c r="E83" s="5"/>
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
@@ -3674,10 +3946,9 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="2:14">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="20"/>
       <c r="E84" s="5"/>
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
@@ -3686,10 +3957,9 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="20"/>
       <c r="E85" s="5"/>
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
@@ -3698,10 +3968,9 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="20"/>
       <c r="E86" s="5"/>
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
@@ -3710,10 +3979,9 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="20"/>
       <c r="E87" s="5"/>
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
@@ -3722,10 +3990,9 @@
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="2:14">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="20"/>
       <c r="E88" s="5"/>
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
@@ -3734,10 +4001,9 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="2:14">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="20"/>
       <c r="E89" s="5"/>
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
@@ -3746,10 +4012,9 @@
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="20"/>
       <c r="E90" s="5"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
@@ -3758,10 +4023,9 @@
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="20"/>
       <c r="E91" s="5"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
@@ -3770,10 +4034,9 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="20"/>
       <c r="E92" s="5"/>
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
@@ -3782,10 +4045,9 @@
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="20"/>
       <c r="E93" s="5"/>
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
@@ -3794,10 +4056,9 @@
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="20"/>
       <c r="E94" s="5"/>
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
@@ -3806,10 +4067,9 @@
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="20"/>
       <c r="E95" s="5"/>
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
@@ -3818,10 +4078,9 @@
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="20"/>
       <c r="E96" s="5"/>
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
@@ -3830,10 +4089,9 @@
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="20"/>
       <c r="E97" s="5"/>
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
@@ -3842,10 +4100,9 @@
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="20"/>
       <c r="E98" s="5"/>
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
@@ -3854,10 +4111,9 @@
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="20"/>
       <c r="E99" s="5"/>
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
@@ -3866,10 +4122,9 @@
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="20"/>
       <c r="E100" s="5"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
@@ -3878,10 +4133,9 @@
       <c r="M100" s="16"/>
       <c r="N100" s="16"/>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="20"/>
       <c r="E101" s="5"/>
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
@@ -3890,10 +4144,9 @@
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="20"/>
       <c r="E102" s="5"/>
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
@@ -3902,10 +4155,9 @@
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="20"/>
       <c r="E103" s="5"/>
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
@@ -3914,10 +4166,9 @@
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="20"/>
       <c r="E104" s="5"/>
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
@@ -3926,10 +4177,9 @@
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="20"/>
       <c r="E105" s="5"/>
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
@@ -3938,10 +4188,9 @@
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="20"/>
       <c r="E106" s="5"/>
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
@@ -3950,10 +4199,9 @@
       <c r="M106" s="16"/>
       <c r="N106" s="16"/>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="20"/>
       <c r="E107" s="5"/>
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
@@ -3962,10 +4210,9 @@
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="20"/>
       <c r="E108" s="5"/>
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
@@ -3974,10 +4221,9 @@
       <c r="M108" s="16"/>
       <c r="N108" s="16"/>
     </row>
-    <row r="109" spans="2:14">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="20"/>
       <c r="E109" s="5"/>
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
@@ -3986,10 +4232,9 @@
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="20"/>
       <c r="E110" s="5"/>
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
@@ -3998,10 +4243,9 @@
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="20"/>
       <c r="E111" s="5"/>
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
@@ -4010,10 +4254,9 @@
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="20"/>
       <c r="E112" s="5"/>
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
@@ -4022,10 +4265,9 @@
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
     </row>
-    <row r="113" spans="2:14">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="20"/>
       <c r="E113" s="5"/>
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
@@ -4034,10 +4276,9 @@
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
     </row>
-    <row r="114" spans="2:14">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="20"/>
       <c r="E114" s="5"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
@@ -4046,10 +4287,9 @@
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="20"/>
       <c r="E115" s="5"/>
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
@@ -4058,10 +4298,9 @@
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="20"/>
       <c r="E116" s="5"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
@@ -4070,10 +4309,9 @@
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="20"/>
       <c r="E117" s="5"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
@@ -4082,10 +4320,9 @@
       <c r="M117" s="16"/>
       <c r="N117" s="16"/>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="20"/>
       <c r="E118" s="5"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
@@ -4094,10 +4331,9 @@
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="20"/>
       <c r="E119" s="5"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
@@ -4106,10 +4342,9 @@
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="20"/>
       <c r="E120" s="5"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
@@ -4118,10 +4353,9 @@
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="20"/>
       <c r="E121" s="5"/>
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
@@ -4130,10 +4364,9 @@
       <c r="M121" s="16"/>
       <c r="N121" s="16"/>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="20"/>
       <c r="E122" s="5"/>
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
@@ -4142,10 +4375,9 @@
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="20"/>
       <c r="E123" s="5"/>
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
@@ -4154,10 +4386,9 @@
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="20"/>
       <c r="E124" s="5"/>
       <c r="F124" s="19"/>
       <c r="G124" s="19"/>
@@ -4166,10 +4397,9 @@
       <c r="M124" s="16"/>
       <c r="N124" s="16"/>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="20"/>
       <c r="E125" s="5"/>
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
@@ -4178,10 +4408,9 @@
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="20"/>
       <c r="E126" s="5"/>
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
@@ -4190,10 +4419,9 @@
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
     </row>
-    <row r="127" spans="2:14">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="20"/>
       <c r="E127" s="5"/>
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
@@ -4202,10 +4430,9 @@
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="20"/>
       <c r="E128" s="5"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
@@ -4214,10 +4441,9 @@
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="20"/>
       <c r="E129" s="5"/>
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
@@ -4226,10 +4452,9 @@
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="20"/>
       <c r="E130" s="5"/>
       <c r="F130" s="19"/>
       <c r="G130" s="19"/>
@@ -4238,10 +4463,9 @@
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="20"/>
       <c r="E131" s="5"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
@@ -4250,10 +4474,9 @@
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
     </row>
-    <row r="132" spans="2:14">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="20"/>
       <c r="E132" s="5"/>
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
@@ -4262,10 +4485,9 @@
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="20"/>
       <c r="E133" s="5"/>
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
@@ -4274,10 +4496,9 @@
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="20"/>
       <c r="E134" s="5"/>
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
@@ -4286,10 +4507,9 @@
       <c r="M134" s="16"/>
       <c r="N134" s="16"/>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="20"/>
       <c r="E135" s="5"/>
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
@@ -4298,10 +4518,9 @@
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="20"/>
       <c r="E136" s="5"/>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
@@ -4310,10 +4529,9 @@
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="20"/>
       <c r="E137" s="5"/>
       <c r="F137" s="19"/>
       <c r="G137" s="19"/>
@@ -4322,10 +4540,9 @@
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="20"/>
       <c r="E138" s="5"/>
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
@@ -4334,10 +4551,9 @@
       <c r="M138" s="16"/>
       <c r="N138" s="16"/>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="20"/>
       <c r="E139" s="5"/>
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
@@ -4346,10 +4562,9 @@
       <c r="M139" s="16"/>
       <c r="N139" s="16"/>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="20"/>
       <c r="E140" s="5"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
@@ -4358,10 +4573,9 @@
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
     </row>
-    <row r="141" spans="2:14">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="20"/>
       <c r="E141" s="5"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
@@ -4370,10 +4584,9 @@
       <c r="M141" s="16"/>
       <c r="N141" s="16"/>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="20"/>
       <c r="E142" s="5"/>
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
@@ -4382,10 +4595,9 @@
       <c r="M142" s="16"/>
       <c r="N142" s="16"/>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="20"/>
       <c r="E143" s="5"/>
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
@@ -4394,10 +4606,9 @@
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="20"/>
       <c r="E144" s="5"/>
       <c r="F144" s="19"/>
       <c r="G144" s="19"/>
@@ -4406,10 +4617,9 @@
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="20"/>
       <c r="E145" s="5"/>
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
@@ -4418,10 +4628,9 @@
       <c r="M145" s="16"/>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="20"/>
       <c r="E146" s="5"/>
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
@@ -4430,10 +4639,9 @@
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="20"/>
       <c r="E147" s="5"/>
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
@@ -4442,10 +4650,9 @@
       <c r="M147" s="16"/>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="20"/>
       <c r="E148" s="5"/>
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
@@ -4454,10 +4661,9 @@
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="20"/>
       <c r="E149" s="5"/>
       <c r="F149" s="19"/>
       <c r="G149" s="19"/>
@@ -4466,10 +4672,9 @@
       <c r="M149" s="16"/>
       <c r="N149" s="16"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="20"/>
       <c r="E150" s="5"/>
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
@@ -4478,10 +4683,9 @@
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="20"/>
       <c r="E151" s="5"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
@@ -4490,10 +4694,9 @@
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="20"/>
       <c r="E152" s="5"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
@@ -4502,10 +4705,9 @@
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="20"/>
       <c r="E153" s="5"/>
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
@@ -4514,10 +4716,9 @@
       <c r="M153" s="16"/>
       <c r="N153" s="16"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="20"/>
       <c r="E154" s="5"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
@@ -4526,10 +4727,9 @@
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="20"/>
       <c r="E155" s="5"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
@@ -4538,10 +4738,9 @@
       <c r="M155" s="16"/>
       <c r="N155" s="16"/>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="20"/>
       <c r="E156" s="5"/>
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
@@ -4550,10 +4749,9 @@
       <c r="M156" s="16"/>
       <c r="N156" s="16"/>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="20"/>
       <c r="E157" s="5"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
@@ -4562,10 +4760,9 @@
       <c r="M157" s="16"/>
       <c r="N157" s="16"/>
     </row>
-    <row r="158" spans="2:14">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="20"/>
       <c r="E158" s="5"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -4574,10 +4771,9 @@
       <c r="M158" s="16"/>
       <c r="N158" s="16"/>
     </row>
-    <row r="159" spans="2:14">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="20"/>
       <c r="E159" s="5"/>
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
@@ -4586,10 +4782,9 @@
       <c r="M159" s="16"/>
       <c r="N159" s="16"/>
     </row>
-    <row r="160" spans="2:14">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="20"/>
       <c r="E160" s="5"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
@@ -4598,10 +4793,9 @@
       <c r="M160" s="16"/>
       <c r="N160" s="16"/>
     </row>
-    <row r="161" spans="2:14">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="20"/>
       <c r="E161" s="5"/>
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
@@ -4610,10 +4804,9 @@
       <c r="M161" s="16"/>
       <c r="N161" s="16"/>
     </row>
-    <row r="162" spans="2:14">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="20"/>
       <c r="E162" s="5"/>
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
@@ -4622,10 +4815,9 @@
       <c r="M162" s="16"/>
       <c r="N162" s="16"/>
     </row>
-    <row r="163" spans="2:14">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="20"/>
       <c r="E163" s="5"/>
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
@@ -4634,10 +4826,9 @@
       <c r="M163" s="16"/>
       <c r="N163" s="16"/>
     </row>
-    <row r="164" spans="2:14">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="20"/>
       <c r="E164" s="5"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
@@ -4646,10 +4837,9 @@
       <c r="M164" s="16"/>
       <c r="N164" s="16"/>
     </row>
-    <row r="165" spans="2:14">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="20"/>
       <c r="E165" s="5"/>
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
@@ -4658,10 +4848,9 @@
       <c r="M165" s="16"/>
       <c r="N165" s="16"/>
     </row>
-    <row r="166" spans="2:14">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="20"/>
       <c r="E166" s="5"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
@@ -4670,10 +4859,9 @@
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
     </row>
-    <row r="167" spans="2:14">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="20"/>
       <c r="E167" s="5"/>
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
@@ -4682,10 +4870,9 @@
       <c r="M167" s="16"/>
       <c r="N167" s="16"/>
     </row>
-    <row r="168" spans="2:14">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="20"/>
       <c r="E168" s="5"/>
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
@@ -4694,10 +4881,9 @@
       <c r="M168" s="16"/>
       <c r="N168" s="16"/>
     </row>
-    <row r="169" spans="2:14">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="20"/>
       <c r="E169" s="5"/>
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
@@ -4706,10 +4892,9 @@
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
     </row>
-    <row r="170" spans="2:14">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="20"/>
       <c r="E170" s="5"/>
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
@@ -4718,10 +4903,9 @@
       <c r="M170" s="16"/>
       <c r="N170" s="16"/>
     </row>
-    <row r="171" spans="2:14">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="20"/>
       <c r="E171" s="5"/>
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
@@ -4730,10 +4914,9 @@
       <c r="M171" s="16"/>
       <c r="N171" s="16"/>
     </row>
-    <row r="172" spans="2:14">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
-      <c r="D172" s="20"/>
       <c r="E172" s="5"/>
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
@@ -4742,10 +4925,9 @@
       <c r="M172" s="16"/>
       <c r="N172" s="16"/>
     </row>
-    <row r="173" spans="2:14">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
-      <c r="D173" s="20"/>
       <c r="E173" s="5"/>
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
@@ -4754,10 +4936,9 @@
       <c r="M173" s="16"/>
       <c r="N173" s="16"/>
     </row>
-    <row r="174" spans="2:14">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
-      <c r="D174" s="20"/>
       <c r="E174" s="5"/>
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
@@ -4766,10 +4947,9 @@
       <c r="M174" s="16"/>
       <c r="N174" s="16"/>
     </row>
-    <row r="175" spans="2:14">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
-      <c r="D175" s="20"/>
       <c r="E175" s="5"/>
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
@@ -4778,10 +4958,9 @@
       <c r="M175" s="16"/>
       <c r="N175" s="16"/>
     </row>
-    <row r="176" spans="2:14">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="20"/>
       <c r="E176" s="5"/>
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
@@ -4790,10 +4969,9 @@
       <c r="M176" s="16"/>
       <c r="N176" s="16"/>
     </row>
-    <row r="177" spans="2:14">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="20"/>
       <c r="E177" s="5"/>
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
@@ -4802,10 +4980,9 @@
       <c r="M177" s="16"/>
       <c r="N177" s="16"/>
     </row>
-    <row r="178" spans="2:14">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="20"/>
       <c r="E178" s="5"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
@@ -4814,10 +4991,9 @@
       <c r="M178" s="16"/>
       <c r="N178" s="16"/>
     </row>
-    <row r="179" spans="2:14">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="20"/>
       <c r="E179" s="5"/>
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
@@ -4826,10 +5002,9 @@
       <c r="M179" s="16"/>
       <c r="N179" s="16"/>
     </row>
-    <row r="180" spans="2:14">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="20"/>
       <c r="E180" s="5"/>
       <c r="F180" s="19"/>
       <c r="G180" s="19"/>
@@ -4838,10 +5013,9 @@
       <c r="M180" s="16"/>
       <c r="N180" s="16"/>
     </row>
-    <row r="181" spans="2:14">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
-      <c r="D181" s="20"/>
       <c r="E181" s="5"/>
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
@@ -4850,10 +5024,9 @@
       <c r="M181" s="16"/>
       <c r="N181" s="16"/>
     </row>
-    <row r="182" spans="2:14">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="20"/>
       <c r="E182" s="5"/>
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
@@ -4862,10 +5035,9 @@
       <c r="M182" s="16"/>
       <c r="N182" s="16"/>
     </row>
-    <row r="183" spans="2:14">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="20"/>
       <c r="E183" s="5"/>
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
@@ -4874,10 +5046,9 @@
       <c r="M183" s="16"/>
       <c r="N183" s="16"/>
     </row>
-    <row r="184" spans="2:14">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
-      <c r="D184" s="20"/>
       <c r="E184" s="5"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
@@ -4886,10 +5057,9 @@
       <c r="M184" s="16"/>
       <c r="N184" s="16"/>
     </row>
-    <row r="185" spans="2:14">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="20"/>
       <c r="E185" s="5"/>
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
@@ -4898,10 +5068,9 @@
       <c r="M185" s="16"/>
       <c r="N185" s="16"/>
     </row>
-    <row r="186" spans="2:14">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
-      <c r="D186" s="20"/>
       <c r="E186" s="5"/>
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
@@ -4910,10 +5079,9 @@
       <c r="M186" s="16"/>
       <c r="N186" s="16"/>
     </row>
-    <row r="187" spans="2:14">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
-      <c r="D187" s="20"/>
       <c r="E187" s="5"/>
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
@@ -4922,10 +5090,9 @@
       <c r="M187" s="16"/>
       <c r="N187" s="16"/>
     </row>
-    <row r="188" spans="2:14">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
-      <c r="D188" s="20"/>
       <c r="E188" s="5"/>
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
@@ -4934,10 +5101,9 @@
       <c r="M188" s="16"/>
       <c r="N188" s="16"/>
     </row>
-    <row r="189" spans="2:14">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="20"/>
       <c r="E189" s="5"/>
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
@@ -4946,10 +5112,9 @@
       <c r="M189" s="16"/>
       <c r="N189" s="16"/>
     </row>
-    <row r="190" spans="2:14">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="20"/>
       <c r="E190" s="5"/>
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
@@ -4958,10 +5123,9 @@
       <c r="M190" s="16"/>
       <c r="N190" s="16"/>
     </row>
-    <row r="191" spans="2:14">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="20"/>
       <c r="E191" s="5"/>
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
@@ -4970,10 +5134,9 @@
       <c r="M191" s="16"/>
       <c r="N191" s="16"/>
     </row>
-    <row r="192" spans="2:14">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="20"/>
       <c r="E192" s="5"/>
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
@@ -4982,10 +5145,9 @@
       <c r="M192" s="16"/>
       <c r="N192" s="16"/>
     </row>
-    <row r="193" spans="2:14">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="20"/>
       <c r="E193" s="5"/>
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
@@ -4994,10 +5156,9 @@
       <c r="M193" s="16"/>
       <c r="N193" s="16"/>
     </row>
-    <row r="194" spans="2:14">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="20"/>
       <c r="E194" s="5"/>
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
@@ -5006,10 +5167,9 @@
       <c r="M194" s="16"/>
       <c r="N194" s="16"/>
     </row>
-    <row r="195" spans="2:14">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="20"/>
       <c r="E195" s="5"/>
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
@@ -5018,10 +5178,9 @@
       <c r="M195" s="16"/>
       <c r="N195" s="16"/>
     </row>
-    <row r="196" spans="2:14">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="20"/>
       <c r="E196" s="5"/>
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
@@ -5030,10 +5189,9 @@
       <c r="M196" s="16"/>
       <c r="N196" s="16"/>
     </row>
-    <row r="197" spans="2:14">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="20"/>
       <c r="E197" s="5"/>
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
@@ -5042,10 +5200,9 @@
       <c r="M197" s="16"/>
       <c r="N197" s="16"/>
     </row>
-    <row r="198" spans="2:14">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="20"/>
       <c r="E198" s="5"/>
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
@@ -5054,10 +5211,9 @@
       <c r="M198" s="16"/>
       <c r="N198" s="16"/>
     </row>
-    <row r="199" spans="2:14">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
-      <c r="D199" s="20"/>
       <c r="E199" s="5"/>
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
@@ -5066,10 +5222,9 @@
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
     </row>
-    <row r="200" spans="2:14">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="20"/>
       <c r="E200" s="5"/>
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
@@ -5078,610 +5233,610 @@
       <c r="M200" s="16"/>
       <c r="N200" s="16"/>
     </row>
-    <row r="201" spans="2:14">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="2:14">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="2:14">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="2:14">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="2:14">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="2:14">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="2:14">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="2:14">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="12:12">
+    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="12:12">
+    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="12:12">
+    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="12:12">
+    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="12:12">
+    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="12:12">
+    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="12:12">
+    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="12:12">
+    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="12:12">
+    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="12:12">
+    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="12:12">
+    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="12:12">
+    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="12:12">
+    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="12:12">
+    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="12:12">
+    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="12:12">
+    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="12:12">
+    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="12:12">
+    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="12:12">
+    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="12:12">
+    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="12:12">
+    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="12:12">
+    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="12:12">
+    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="12:12">
+    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="12:12">
+    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="12:12">
+    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="12:12">
+    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="12:12">
+    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="12:12">
+    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="12:12">
+    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="12:12">
+    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="12:12">
+    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="12:12">
+    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="12:12">
+    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="12:12">
+    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="12:12">
+    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="12:12">
+    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="12:12">
+    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="12:12">
+    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="12:12">
+    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="12:12">
+    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="12:12">
+    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="12:12">
+    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="12:12">
+    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="12:12">
+    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="12:12">
+    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="12:12">
+    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="12:12">
+    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="12:12">
+    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="12:12">
+    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="12:12">
+    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="12:12">
+    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="12:12">
+    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="12:12">
+    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="12:12">
+    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="12:12">
+    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="12:12">
+    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="12:12">
+    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="12:12">
+    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="12:12">
+    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="12:12">
+    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="12:12">
+    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="12:12">
+    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="12:12">
+    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="12:12">
+    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="12:12">
+    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="12:12">
+    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="12:12">
+    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="12:12">
+    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="12:12">
+    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="12:12">
+    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="12:12">
+    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="12:12">
+    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="12:12">
+    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="12:12">
+    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="12:12">
+    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="12:12">
+    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="12:12">
+    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="12:12">
+    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="12:12">
+    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="12:12">
+    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="12:12">
+    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="12:12">
+    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="12:12">
+    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="12:12">
+    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="12:12">
+    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="12:12">
+    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="12:12">
+    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="12:12">
+    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="12:12">
+    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="12:12">
+    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="12:12">
+    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="12:12">
+    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="12:12">
+    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="12:12">
+    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="12:12">
+    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="12:12">
+    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="12:12">
+    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="12:12">
+    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="12:12">
+    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="12:12">
+    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="12:12">
+    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="12:12">
+    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="12:12">
+    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="12:12">
+    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="12:12">
+    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="12:12">
+    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="12:12">
+    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="12:12">
+    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="12:12">
+    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="12:12">
+    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="12:12">
+    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="12:12">
+    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="12:12">
+    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="12:12">
+    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="12:12">
+    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="12:12">
+    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="12:12">
+    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="12:12">
+    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="12:12">
+    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="12:12">
+    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="12:12">
+    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="12:12">
+    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="12:12">
+    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="12:12">
+    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="12:12">
+    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="12:12">
+    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="12:12">
+    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="12:12">
+    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="12:12">
+    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="12:12">
+    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="12:12">
+    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="12:12">
+    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="12:12">
+    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="12:12">
+    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="12:12">
+    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="12:12">
+    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="12:12">
+    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="12:12">
+    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="12:12">
+    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="12:12">
+    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="12:12">
+    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="12:12">
+    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="12:12">
+    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="12:12">
+    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="12:12">
+    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="12:12">
+    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="12:12">
+    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="12:12">
+    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="12:12">
+    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="12:12">
+    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="12:12">
+    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="12:12">
+    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="12:12">
+    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="12:12">
+    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="12:12">
+    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="12:12">
+    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="12:12">
+    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="12:12">
+    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="12:12">
+    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="12:12">
+    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="12:12">
+    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="12:12">
+    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="12:12">
+    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="12:12">
+    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="12:12">
+    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="12:12">
+    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="12:12">
+    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="12:12">
+    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="12:12">
+    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="12:12">
+    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="12:12">
+    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="12:12">
+    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="12:12">
+    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="12:12">
+    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="12:12">
+    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="12:12">
+    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="12:12">
+    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="12:12">
+    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="12:12">
+    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="12:12">
+    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="12:12">
+    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="12:12">
+    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="12:12">
+    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="12:12">
+    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="12:12">
+    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="12:12">
+    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="12:12">
+    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="12:12">
+    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="12:12">
+    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="12:12">
+    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="12:12">
+    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L400" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="B4:V36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V36">
-      <sortCondition ref="V4:V36"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V41">
+      <sortCondition ref="V4:V41"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D3086-2C95-F744-A90F-394A24406965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C37902-DF1C-2F45-959E-D53B466027EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -86,22 +86,7 @@
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>1475.HK</t>
-  </si>
-  <si>
-    <t>NISSIN FOODS</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>C0002</t>
-  </si>
-  <si>
-    <t>1910.HK</t>
-  </si>
-  <si>
-    <t>C0001</t>
   </si>
   <si>
     <t>COGS</t>
@@ -138,142 +123,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Minority Interests</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0083.HK</t>
-  </si>
-  <si>
-    <t>SINO LAND</t>
-  </si>
-  <si>
-    <t>C0005</t>
-  </si>
-  <si>
-    <t>0710.HK</t>
-  </si>
-  <si>
-    <t>京东方精电</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>1766.HK</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
-    <t>C0004</t>
-  </si>
-  <si>
-    <t>SAMSONITE</t>
-  </si>
-  <si>
-    <t>6601.HK</t>
-  </si>
-  <si>
-    <t>朝云集团</t>
-  </si>
-  <si>
-    <t>C0007</t>
-  </si>
-  <si>
-    <t>C0006</t>
-  </si>
-  <si>
-    <t>9959.HK</t>
-  </si>
-  <si>
-    <t>C0008</t>
-  </si>
-  <si>
-    <t>聯易融科技－Ｗ</t>
-  </si>
-  <si>
-    <t>0069.HK</t>
-  </si>
-  <si>
-    <t>SHANGRI-LA ASIA</t>
-  </si>
-  <si>
-    <t>C0011</t>
-  </si>
-  <si>
-    <t>0696.HK</t>
-  </si>
-  <si>
-    <t>中國民航信息網絡</t>
-  </si>
-  <si>
-    <t>C0009</t>
-  </si>
-  <si>
-    <t>0941.HK</t>
-  </si>
-  <si>
-    <t>中国移动</t>
-  </si>
-  <si>
-    <t>C0010</t>
-  </si>
-  <si>
-    <t>1405.HK</t>
-  </si>
-  <si>
-    <t>達勢股份</t>
-  </si>
-  <si>
-    <t>0788.HK</t>
-  </si>
-  <si>
-    <t>中国铁塔</t>
-  </si>
-  <si>
-    <t>0027.HK</t>
-  </si>
-  <si>
-    <t>銀河娛樂</t>
-  </si>
-  <si>
-    <t>0268.HK</t>
-  </si>
-  <si>
-    <t>金蝶国际</t>
-  </si>
-  <si>
-    <t>0468.HK</t>
-  </si>
-  <si>
-    <t>紛美包裝</t>
-  </si>
-  <si>
-    <t>0811.HK</t>
-  </si>
-  <si>
-    <t>新华文轩</t>
-  </si>
-  <si>
-    <t>C0012</t>
-  </si>
-  <si>
-    <t>0005.HK</t>
-  </si>
-  <si>
-    <t>HSBC</t>
-  </si>
-  <si>
-    <t>C0014</t>
-  </si>
-  <si>
-    <t>0011.HK</t>
-  </si>
-  <si>
-    <t>恒生銀行</t>
-  </si>
-  <si>
     <t>0857.HK</t>
   </si>
   <si>
@@ -283,110 +132,11 @@
     <t>C0013</t>
   </si>
   <si>
-    <t>0939.HK</t>
-  </si>
-  <si>
-    <t>建设银行</t>
-  </si>
-  <si>
-    <t>中信银行</t>
-  </si>
-  <si>
-    <t>1288.HK</t>
-  </si>
-  <si>
-    <t>农业银行</t>
-  </si>
-  <si>
-    <t>1398.HK</t>
-  </si>
-  <si>
-    <t>工商银行</t>
-  </si>
-  <si>
-    <t>1658.HK</t>
-  </si>
-  <si>
-    <t>邮储银行</t>
-  </si>
-  <si>
-    <t>2388.HK</t>
-  </si>
-  <si>
-    <t>中银香港</t>
-  </si>
-  <si>
-    <t>2888.HK</t>
-  </si>
-  <si>
-    <t>3328.HK</t>
-  </si>
-  <si>
-    <t>交通银行</t>
-  </si>
-  <si>
-    <t>3968.HK</t>
-  </si>
-  <si>
-    <t>招商银行</t>
-  </si>
-  <si>
-    <t>3988.HK</t>
-  </si>
-  <si>
-    <t>中国银行</t>
-  </si>
-  <si>
-    <t>6186.HK</t>
-  </si>
-  <si>
-    <t>中国飞鹤</t>
-  </si>
-  <si>
-    <t>6818.HK</t>
-  </si>
-  <si>
-    <t>中国光大银行</t>
-  </si>
-  <si>
-    <t>0998.HK</t>
-  </si>
-  <si>
-    <t>Standard Chartered</t>
-  </si>
-  <si>
     <t>Mid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6181.HK</t>
-  </si>
-  <si>
-    <t>老鋪黃金</t>
-  </si>
-  <si>
-    <t>0887.HK</t>
-  </si>
-  <si>
-    <t>英皇鐘錶珠寶</t>
-  </si>
-  <si>
-    <t>0116.HK</t>
-  </si>
-  <si>
-    <t>周生生</t>
-  </si>
-  <si>
-    <t>0398.HK</t>
-  </si>
-  <si>
-    <t>東方表行集團</t>
-  </si>
-  <si>
-    <t>1929.HK</t>
-  </si>
-  <si>
-    <t>周大福</t>
+    <t>Minority Interests</t>
   </si>
 </sst>
 </file>
@@ -561,6 +311,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -573,7 +324,6 @@
     <xf numFmtId="10" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -909,8 +659,8 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -936,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="27"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="2"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -949,32 +699,32 @@
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
       <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
@@ -997,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>11</v>
@@ -1018,2473 +768,548 @@
         <v>4</v>
       </c>
       <c r="O4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="V4" s="12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="D5" s="20">
-        <v>6.2800002098083496</v>
+        <v>5.5799999237060547</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>0.1760462517199122</v>
+        <v>0.12373629817266646</v>
       </c>
       <c r="G5" s="19">
-        <v>8.7579614908449926E-2</v>
+        <v>8.6605675020261313E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>8.0031858013067598</v>
+        <v>6.021006592878015</v>
       </c>
       <c r="I5" s="20">
-        <v>6.0023893509800699</v>
+        <v>4.6031818496557104</v>
       </c>
       <c r="J5" s="20">
-        <v>10.003982251633449</v>
+        <v>11.033407713515709</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N5" s="16">
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.73600077942413045</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P5" s="19">
-        <v>0.20890317762054877</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q5" s="19">
-        <v>5.1931891220120593E-3</v>
+        <v>6.8684548583665562E-3</v>
       </c>
       <c r="R5" s="19">
         <v>0</v>
       </c>
       <c r="S5" s="19">
-        <v>0</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="T5" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U5" s="19">
-        <v>4.9902853833308697E-2</v>
+        <v>5.2106320134227301E-2</v>
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v>4.4205549291972401E-2</v>
+        <v>0.17505700491149356</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D6" s="20">
-        <v>7.75</v>
+        <v>14.859999656677246</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>2.8281635781487818E-2</v>
+        <v>9.6285745419702862E-2</v>
       </c>
       <c r="G6" s="19">
-        <v>7.4838709677419346E-2</v>
+        <v>7.4024227820605776E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>9.1582929015942813</v>
+        <v>14.687646459631321</v>
       </c>
       <c r="I6" s="20">
-        <v>6.8687196761957114</v>
+        <v>12.395440410984637</v>
       </c>
       <c r="J6" s="20">
-        <v>11.447866126992851</v>
+        <v>24.850949179995109</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M6" s="16">
         <v>45593</v>
       </c>
       <c r="N6" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O6" s="19">
-        <v>0.60969766115231028</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P6" s="19">
-        <v>0.12367370222475756</v>
+        <v>0.16540000000000002</v>
       </c>
       <c r="Q6" s="19">
-        <v>1.0724472333143184E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="19">
-        <v>2.1700000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="19">
-        <v>0.02</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="T6" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U6" s="19">
-        <v>0.21420416428978895</v>
-      </c>
-      <c r="V6" s="19">
+        <v>7.3081874090513851E-2</v>
+      </c>
+      <c r="V6" s="19" t="str">
         <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
-        <v>0.1137135901682953</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="20">
-        <v>14.779999732971191</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="19">
-        <v>8.7126221431457304E-2</v>
-      </c>
-      <c r="G7" s="19">
-        <v>7.4424899856129392E-2</v>
-      </c>
-      <c r="H7" s="20">
-        <v>16.518630923479407</v>
-      </c>
-      <c r="I7" s="20">
-        <v>12.388973192609557</v>
-      </c>
-      <c r="J7" s="20">
-        <v>20.648288654349258</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N7" s="16">
-        <v>45626</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0.72762956087193753</v>
-      </c>
-      <c r="P7" s="19">
-        <v>0.16539999999999999</v>
-      </c>
-      <c r="Q7" s="19">
-        <v>3.8885650375487034E-3</v>
-      </c>
-      <c r="R7" s="19">
-        <v>9.9999999999999985E-3</v>
-      </c>
-      <c r="S7" s="19">
-        <v>1.9999999999999997E-2</v>
-      </c>
-      <c r="T7" s="19">
-        <v>0</v>
-      </c>
-      <c r="U7" s="19">
-        <v>7.3081874090513838E-2</v>
-      </c>
-      <c r="V7" s="19">
-        <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
-        <v>0.16177446438160192</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="20">
-        <v>7.0799999237060547</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="19">
-        <v>8.6295798944355351E-2</v>
-      </c>
-      <c r="G8" s="19">
-        <v>7.7683616656326226E-2</v>
-      </c>
-      <c r="H8" s="20">
-        <v>7.673590279923749</v>
-      </c>
-      <c r="I8" s="20">
-        <v>5.7551927099428113</v>
-      </c>
-      <c r="J8" s="20">
-        <v>9.5919878499046867</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N8" s="16">
-        <v>45626</v>
-      </c>
-      <c r="O8" s="19">
-        <v>0.79501071628968012</v>
-      </c>
-      <c r="P8" s="19">
-        <v>0.12234231416665901</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>6.4812855868203439E-3</v>
-      </c>
-      <c r="R8" s="19">
-        <v>0</v>
-      </c>
-      <c r="S8" s="19">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
-        <v>1.3233621247382252E-3</v>
-      </c>
-      <c r="U8" s="19">
-        <v>7.4842321832102252E-2</v>
-      </c>
-      <c r="V8" s="19">
-        <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
-        <v>0.18711966497730803</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0.17499999701976776</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.2334516581005823</v>
-      </c>
-      <c r="G9" s="19">
-        <v>6.9142858320352996E-2</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0.18605189927077234</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0.13953892445307925</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0.23256487408846543</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N9" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O9" s="19">
-        <v>0.69931288683936033</v>
-      </c>
-      <c r="P9" s="19">
-        <v>0.22200134640260258</v>
-      </c>
-      <c r="Q9" s="19">
-        <v>2.1205737325435711E-3</v>
-      </c>
-      <c r="R9" s="19">
-        <v>0</v>
-      </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <v>7.6565193025493528E-2</v>
-      </c>
-      <c r="V9" s="19">
-        <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
-        <v>0.20263470383192561</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1.8999999761581421</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="19">
-        <v>3.2200153830735802E-2</v>
-      </c>
-      <c r="G10" s="19">
-        <v>6.6622161985976591E-2</v>
-      </c>
-      <c r="H10" s="20">
-        <v>1.948094682904749</v>
-      </c>
-      <c r="I10" s="20">
-        <v>1.4610710121785617</v>
-      </c>
-      <c r="J10" s="20">
-        <v>2.4351183536309362</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N10" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O10" s="19">
-        <v>0.55541924442229906</v>
-      </c>
-      <c r="P10" s="19">
-        <v>0.37949349616392825</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>6.208277497005729E-4</v>
-      </c>
-      <c r="R10" s="19">
-        <v>0</v>
-      </c>
-      <c r="S10" s="19">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19">
-        <v>1.8148224946381651E-3</v>
-      </c>
-      <c r="U10" s="19">
-        <v>6.2651609169433978E-2</v>
-      </c>
-      <c r="V10" s="19">
-        <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
-        <v>0.23101524709863841</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="20">
-        <v>4.630000114440918</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19">
-        <v>6.6857211223948151E-2</v>
-      </c>
-      <c r="G11" s="19">
-        <v>3.4168465678127306E-2</v>
-      </c>
-      <c r="H11" s="20">
-        <v>4.707981152798455</v>
-      </c>
-      <c r="I11" s="20">
-        <v>3.53</v>
-      </c>
-      <c r="J11" s="20">
-        <v>5.8849764409980683</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="16">
-        <v>45591</v>
-      </c>
-      <c r="N11" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O11" s="19">
-        <v>0.66005868735054896</v>
-      </c>
-      <c r="P11" s="19">
-        <v>0.21645682425674254</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>7.0437342852983705E-5</v>
-      </c>
-      <c r="R11" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="S11" s="19">
-        <v>0</v>
-      </c>
-      <c r="T11" s="19">
-        <v>1.0365594158118095E-3</v>
-      </c>
-      <c r="U11" s="19">
-        <v>0.11237749163404374</v>
-      </c>
-      <c r="V11" s="19">
-        <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
-        <v>0.23758101236542739</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="20">
-        <v>5.369999885559082</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="19">
-        <v>6.6839130444191736E-2</v>
-      </c>
-      <c r="G12" s="19">
-        <v>6.2351972898244727E-2</v>
-      </c>
-      <c r="H12" s="20">
-        <v>5.7346356624372223</v>
-      </c>
-      <c r="I12" s="20">
-        <v>3.1258429215558889</v>
-      </c>
-      <c r="J12" s="20">
-        <v>7.4223330822871638</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="16">
-        <v>45605</v>
-      </c>
-      <c r="N12" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O12" s="19">
-        <v>0.35166796085418528</v>
-      </c>
-      <c r="P12" s="19">
-        <v>0.40660753935436778</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>2.7202256703967287E-3</v>
-      </c>
-      <c r="R12" s="19">
-        <v>3.2256320498000146E-2</v>
-      </c>
-      <c r="S12" s="19">
-        <v>0</v>
-      </c>
-      <c r="T12" s="19">
-        <v>0</v>
-      </c>
-      <c r="U12" s="19">
-        <v>0.2067479536230501</v>
-      </c>
-      <c r="V12" s="19">
-        <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
-        <v>0.41790633367388785</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2.690000057220459</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.17701275432057692</v>
-      </c>
-      <c r="G13" s="19">
-        <v>8.3886878186189479E-2</v>
-      </c>
-      <c r="H13" s="20">
-        <v>3.3117663710276291</v>
-      </c>
-      <c r="I13" s="20">
-        <v>1.536326612639459</v>
-      </c>
-      <c r="J13" s="20">
-        <v>4.1397079637845362</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="16">
-        <v>45606</v>
-      </c>
-      <c r="N13" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O13" s="19">
-        <v>0.19853855217217412</v>
-      </c>
-      <c r="P13" s="19">
-        <v>0.15821181625248168</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>0.51643948647548221</v>
-      </c>
-      <c r="R13" s="19">
-        <v>0</v>
-      </c>
-      <c r="S13" s="19">
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
-        <v>1.0233017334875492E-3</v>
-      </c>
-      <c r="U13" s="19">
-        <v>0.12578684336637444</v>
-      </c>
-      <c r="V13" s="19">
-        <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
-        <v>0.4288748773385066</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="20">
-        <v>92.150001525878906</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0.10867394680615483</v>
-      </c>
-      <c r="G14" s="19">
-        <v>7.3792728023887491E-2</v>
-      </c>
-      <c r="H14" s="20">
-        <v>106.85165326313287</v>
-      </c>
-      <c r="I14" s="20">
-        <v>48.196689038062246</v>
-      </c>
-      <c r="J14" s="20">
-        <v>133.5645665789161</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="16">
-        <v>45606</v>
-      </c>
-      <c r="N14" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O14" s="19">
-        <v>4.1966617135767562E-2</v>
-      </c>
-      <c r="P14" s="19">
-        <v>0.2109727772407923</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0.39159225009737869</v>
-      </c>
-      <c r="R14" s="19">
-        <v>0</v>
-      </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
-        <v>0</v>
-      </c>
-      <c r="U14" s="19">
-        <v>0.35546835552606143</v>
-      </c>
-      <c r="V14" s="19">
-        <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
-        <v>0.47697571090623425</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="20">
-        <v>70.449996948242188</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="19">
-        <v>8.3242038173248753E-2</v>
-      </c>
-      <c r="G15" s="19">
-        <v>6.9369171005602984E-2</v>
-      </c>
-      <c r="H15" s="20">
-        <v>75.762504741121447</v>
-      </c>
-      <c r="I15" s="20">
-        <v>34.788779112977863</v>
-      </c>
-      <c r="J15" s="20">
-        <v>94.793878922367554</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="16">
-        <v>45603</v>
-      </c>
-      <c r="N15" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O15" s="19">
-        <v>0</v>
-      </c>
-      <c r="P15" s="19">
-        <v>0.66167150000644004</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>3.6955976811858409E-3</v>
-      </c>
-      <c r="R15" s="19">
-        <v>0.17959118565275847</v>
-      </c>
-      <c r="S15" s="19">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
-        <v>1.6744128904032363E-4</v>
-      </c>
-      <c r="U15" s="19">
-        <v>0.15487427537057533</v>
-      </c>
-      <c r="V15" s="19">
-        <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
-        <v>0.50619190035542094</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="20">
-        <v>5.869999885559082</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0.28190184478495273</v>
-      </c>
-      <c r="G16" s="19">
-        <v>7.3223237290583595E-2</v>
-      </c>
-      <c r="H16" s="20">
-        <v>6.0038651913054073</v>
-      </c>
-      <c r="I16" s="20">
-        <v>2.7851897865730342</v>
-      </c>
-      <c r="J16" s="20">
-        <v>7.5048314891317593</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="16">
-        <v>45605</v>
-      </c>
-      <c r="N16" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O16" s="19">
-        <v>0.47700776116848903</v>
-      </c>
-      <c r="P16" s="19">
-        <v>0.15697168260849415</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>0</v>
-      </c>
-      <c r="R16" s="19">
-        <v>0</v>
-      </c>
-      <c r="S16" s="19">
-        <v>0</v>
-      </c>
-      <c r="T16" s="19">
-        <v>0</v>
-      </c>
-      <c r="U16" s="19">
-        <v>0.36602055622301682</v>
-      </c>
-      <c r="V16" s="19">
-        <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
-        <v>0.52552132182746003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="20">
-        <v>71.25</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="19">
-        <v>6.1699719211779164E-2</v>
-      </c>
-      <c r="G17" s="19">
-        <v>6.6633603480824255E-2</v>
-      </c>
-      <c r="H17" s="20">
-        <v>72.148036814810865</v>
-      </c>
-      <c r="I17" s="20">
-        <v>32.543216589329845</v>
-      </c>
-      <c r="J17" s="20">
-        <v>90.185046018513589</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N17" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O17" s="19">
-        <v>3.237354486453075E-2</v>
-      </c>
-      <c r="P17" s="19">
-        <v>0.27531678170392498</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>0.55863466227121317</v>
-      </c>
-      <c r="R17" s="19">
-        <v>0</v>
-      </c>
-      <c r="S17" s="19">
-        <v>0</v>
-      </c>
-      <c r="T17" s="19">
-        <v>1.8260018543319254E-2</v>
-      </c>
-      <c r="U17" s="19">
-        <v>0.11541499261701178</v>
-      </c>
-      <c r="V17" s="19">
-        <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
-        <v>0.5432531005006338</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="20">
-        <v>3.619999885559082</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0.2329296399297352</v>
-      </c>
-      <c r="G18" s="19">
-        <v>8.9051189524335161E-2</v>
-      </c>
-      <c r="H18" s="20">
-        <v>3.4981359210976133</v>
-      </c>
-      <c r="I18" s="20">
-        <v>1.622783345234794</v>
-      </c>
-      <c r="J18" s="20">
-        <v>6.0561042180804749</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="16">
-        <v>45605</v>
-      </c>
-      <c r="N18" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O18" s="19">
-        <v>1.1832950701880444E-2</v>
-      </c>
-      <c r="P18" s="19">
-        <v>0.19534620844359546</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>0.51024868123587042</v>
-      </c>
-      <c r="R18" s="19">
-        <v>0</v>
-      </c>
-      <c r="S18" s="19">
-        <v>0</v>
-      </c>
-      <c r="T18" s="19">
-        <v>1.267678449378735E-2</v>
-      </c>
-      <c r="U18" s="19">
-        <v>0.26989537512486639</v>
-      </c>
-      <c r="V18" s="19" t="str">
-        <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="20">
-        <v>2.4500000476837158</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="19">
-        <v>5.9060520863546122E-2</v>
-      </c>
-      <c r="G19" s="19">
-        <v>2.6315533845949486E-2</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1.891301804728527</v>
-      </c>
-      <c r="I19" s="20">
-        <v>0.87737387533042033</v>
-      </c>
-      <c r="J19" s="20">
-        <v>2.3641272559106592</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="16">
-        <v>45605</v>
-      </c>
-      <c r="N19" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O19" s="19">
-        <v>0.82154354610382485</v>
-      </c>
-      <c r="P19" s="19">
-        <v>0.1102707353696761</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>1.9909979330197799E-3</v>
-      </c>
-      <c r="R19" s="19">
-        <v>0</v>
-      </c>
-      <c r="S19" s="19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="19">
-        <v>0</v>
-      </c>
-      <c r="U19" s="19">
-        <v>6.6194720593479306E-2</v>
-      </c>
-      <c r="V19" s="19" t="str">
-        <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="20">
-        <v>203.8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1.3062000645299334E-2</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="20">
-        <v>0</v>
-      </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N20" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O20" s="19">
-        <v>0.58108816177312361</v>
-      </c>
-      <c r="P20" s="19">
-        <v>0.23828361372817153</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>5.7183940942846252E-3</v>
-      </c>
-      <c r="R20" s="19">
-        <v>0</v>
-      </c>
-      <c r="S20" s="19">
-        <v>0</v>
-      </c>
-      <c r="T20" s="19">
-        <v>0</v>
-      </c>
-      <c r="U20" s="19">
-        <v>0.17490983040442024</v>
-      </c>
-      <c r="V20" s="19" t="str">
-        <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="20">
-        <v>25.399999618530273</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.12219407660628891</v>
-      </c>
-      <c r="G21" s="19">
-        <v>5.8267717410526387E-2</v>
-      </c>
-      <c r="H21" s="20">
-        <v>21.62267879939262</v>
-      </c>
-      <c r="I21" s="20">
-        <v>9.7531623932654519</v>
-      </c>
-      <c r="J21" s="20">
-        <v>27.028348499240774</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M21" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N21" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O21" s="19">
-        <v>2.8609905101246381E-2</v>
-      </c>
-      <c r="P21" s="19">
-        <v>0.11648068007266453</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>0.54295694135635775</v>
-      </c>
-      <c r="R21" s="19">
-        <v>0</v>
-      </c>
-      <c r="S21" s="19">
-        <v>0</v>
-      </c>
-      <c r="T21" s="19">
-        <v>1.4967770896312765E-2</v>
-      </c>
-      <c r="U21" s="19">
-        <v>0.29698470257341852</v>
-      </c>
-      <c r="V21" s="19" t="str">
-        <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="20">
-        <v>5.5500001907348633</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0.10941720827168835</v>
-      </c>
-      <c r="G22" s="19">
-        <v>8.7125752650913796E-2</v>
-      </c>
-      <c r="H22" s="20">
-        <v>5.5078725832889468</v>
-      </c>
-      <c r="I22" s="20">
-        <v>4.1309044374667092</v>
-      </c>
-      <c r="J22" s="20">
-        <v>6.8848407291111826</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" s="16">
-        <v>45605</v>
-      </c>
-      <c r="N22" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O22" s="19">
-        <v>0.87</v>
-      </c>
-      <c r="P22" s="19">
-        <v>5.04E-2</v>
-      </c>
-      <c r="Q22" s="19">
-        <v>7.9916652607163307E-3</v>
-      </c>
-      <c r="R22" s="19">
-        <v>1.8938483141216308E-2</v>
-      </c>
-      <c r="S22" s="19">
-        <v>0</v>
-      </c>
-      <c r="T22" s="19">
-        <v>6.8684548583665562E-3</v>
-      </c>
-      <c r="U22" s="19">
-        <v>4.5801396739700823E-2</v>
-      </c>
-      <c r="V22" s="19" t="str">
-        <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="20">
-        <v>5.1599998474121094</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="19">
-        <v>-1.6966785435306418E-2</v>
-      </c>
-      <c r="G23" s="19">
-        <v>3.867536405916254E-2</v>
-      </c>
-      <c r="H23" s="20">
-        <v>2.6555427342354707</v>
-      </c>
-      <c r="I23" s="20">
-        <v>1.1978136367628158</v>
-      </c>
-      <c r="J23" s="20">
-        <v>3.3194284177943385</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="16">
-        <v>45603</v>
-      </c>
-      <c r="N23" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O23" s="19">
-        <v>0.45524911405880131</v>
-      </c>
-      <c r="P23" s="19">
-        <v>0.44873026767330132</v>
-      </c>
-      <c r="Q23" s="19">
-        <v>0.12063647696552883</v>
-      </c>
-      <c r="R23" s="19">
-        <v>0</v>
-      </c>
-      <c r="S23" s="19">
-        <v>0</v>
-      </c>
-      <c r="T23" s="19">
-        <v>0</v>
-      </c>
-      <c r="U23" s="19">
-        <v>-2.4615858697631419E-2</v>
-      </c>
-      <c r="V23" s="19" t="str">
-        <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="20">
-        <v>5.3600001335144043</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="19">
-        <v>-9.2879282549307607E-2</v>
-      </c>
-      <c r="G24" s="19">
-        <v>3.1715291379967592E-2</v>
-      </c>
-      <c r="H24" s="20">
-        <v>1.9495142773009608</v>
-      </c>
-      <c r="I24" s="20">
-        <v>0.9043786095963896</v>
-      </c>
-      <c r="J24" s="20">
-        <v>2.436892846626201</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N24" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O24" s="19">
-        <v>0.8649634921177769</v>
-      </c>
-      <c r="P24" s="19">
-        <v>0.13052664506651043</v>
-      </c>
-      <c r="Q24" s="19">
-        <v>2.3437755566327548E-3</v>
-      </c>
-      <c r="R24" s="19">
-        <v>4.7067232344920495E-2</v>
-      </c>
-      <c r="S24" s="19">
-        <v>0</v>
-      </c>
-      <c r="T24" s="19">
-        <v>5.409642155098836E-4</v>
-      </c>
-      <c r="U24" s="19">
-        <v>-4.5442109301350432E-2</v>
-      </c>
-      <c r="V24" s="19" t="str">
-        <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="20">
-        <v>10.119999885559082</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="19">
-        <v>3.9928272537193651E-2</v>
-      </c>
-      <c r="G25" s="19">
-        <v>1.6988948591959225E-2</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1.8349395199181229</v>
-      </c>
-      <c r="I25" s="20">
-        <v>0.8512274421578051</v>
-      </c>
-      <c r="J25" s="20">
-        <v>2.2936743998976534</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M25" s="16">
-        <v>45603</v>
-      </c>
-      <c r="N25" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O25" s="19">
-        <v>0.48660635459513968</v>
-      </c>
-      <c r="P25" s="19">
-        <v>0.17055682117844595</v>
-      </c>
-      <c r="Q25" s="19">
-        <v>2.1757339633768379E-3</v>
-      </c>
-      <c r="R25" s="19">
-        <v>0.12357639997060962</v>
-      </c>
-      <c r="S25" s="19">
-        <v>0</v>
-      </c>
-      <c r="T25" s="19">
-        <v>7.0052944996285213E-3</v>
-      </c>
-      <c r="U25" s="19">
-        <v>0.21007939579279941</v>
-      </c>
-      <c r="V25" s="19" t="str">
-        <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="20">
-        <v>71.800003051757812</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="19">
-        <v>-1.1291518834940829E-2</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="20">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
-        <v>0</v>
-      </c>
-      <c r="J26" s="20">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26" s="16">
-        <v>45603</v>
-      </c>
-      <c r="N26" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O26" s="19">
-        <v>0.8448760372568398</v>
-      </c>
-      <c r="P26" s="19">
-        <v>0.18023840312844694</v>
-      </c>
-      <c r="Q26" s="19">
-        <v>1.7912194354438221E-2</v>
-      </c>
-      <c r="R26" s="19">
-        <v>0</v>
-      </c>
-      <c r="S26" s="19">
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
-        <v>0</v>
-      </c>
-      <c r="U26" s="19">
-        <v>-4.3026634739724949E-2</v>
-      </c>
-      <c r="V26" s="19" t="str">
-        <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="20">
-        <v>1.0199999809265137</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="19">
-        <v>5.2409672497662922E-2</v>
-      </c>
-      <c r="G27" s="19">
-        <v>5.0872615782608994E-2</v>
-      </c>
-      <c r="H27" s="20">
-        <v>0.65242138041459752</v>
-      </c>
-      <c r="I27" s="20">
-        <v>0.30265792241706307</v>
-      </c>
-      <c r="J27" s="20">
-        <v>0.8155267255182469</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="16">
-        <v>45603</v>
-      </c>
-      <c r="N27" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O27" s="19">
-        <v>0.69462498271442097</v>
-      </c>
-      <c r="P27" s="19">
-        <v>0.15111319129019563</v>
-      </c>
-      <c r="Q27" s="19">
-        <v>3.0071588890425386E-2</v>
-      </c>
-      <c r="R27" s="19">
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <v>0</v>
-      </c>
-      <c r="U27" s="19">
-        <v>0.12419023710495804</v>
-      </c>
-      <c r="V27" s="19" t="str">
-        <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="20">
-        <v>3.880000114440918</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0.15630429693158962</v>
-      </c>
-      <c r="G28" s="19">
-        <v>6.3946859643355308E-2</v>
-      </c>
-      <c r="H28" s="20">
-        <v>3.3185183390420958</v>
-      </c>
-      <c r="I28" s="20">
-        <v>1.5394588469175361</v>
-      </c>
-      <c r="J28" s="20">
-        <v>4.14814792380262</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M28" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N28" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O28" s="19">
-        <v>0.11401933240696355</v>
-      </c>
-      <c r="P28" s="19">
-        <v>0.19137095648691452</v>
-      </c>
-      <c r="Q28" s="19">
-        <v>0.49449639261897682</v>
-      </c>
-      <c r="R28" s="19">
-        <v>0</v>
-      </c>
-      <c r="S28" s="19">
-        <v>0</v>
-      </c>
-      <c r="T28" s="19">
-        <v>3.5193961201691735E-4</v>
-      </c>
-      <c r="U28" s="19">
-        <v>0.19976137887512818</v>
-      </c>
-      <c r="V28" s="19" t="str">
-        <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="20">
-        <v>4.6599998474121094</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="19">
-        <v>7.8117088665121098E-2</v>
-      </c>
-      <c r="G29" s="19">
-        <v>4.611806959121343E-2</v>
-      </c>
-      <c r="H29" s="20">
-        <v>2.6415213074096027</v>
-      </c>
-      <c r="I29" s="20">
-        <v>1.2254002933088224</v>
-      </c>
-      <c r="J29" s="20">
-        <v>3.3019016342620033</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N29" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O29" s="19">
-        <v>0.78463553343209413</v>
-      </c>
-      <c r="P29" s="19">
-        <v>0.15995376005296372</v>
-      </c>
-      <c r="Q29" s="19">
-        <v>0</v>
-      </c>
-      <c r="R29" s="19">
-        <v>6.5362849144738304E-5</v>
-      </c>
-      <c r="S29" s="19">
-        <v>0</v>
-      </c>
-      <c r="T29" s="19">
-        <v>9.386945223960261E-6</v>
-      </c>
-      <c r="U29" s="19">
-        <v>5.5335956720573398E-2</v>
-      </c>
-      <c r="V29" s="19" t="str">
-        <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="20">
-        <v>4.5199999809265137</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0.10535301027796758</v>
-      </c>
-      <c r="G30" s="19">
-        <v>6.2048187744504331E-2</v>
-      </c>
-      <c r="H30" s="20">
-        <v>3.7177674630589461</v>
-      </c>
-      <c r="I30" s="20">
-        <v>1.7246702977209787</v>
-      </c>
-      <c r="J30" s="20">
-        <v>4.6472093288236831</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M30" s="16">
-        <v>45606</v>
-      </c>
-      <c r="N30" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O30" s="19">
-        <v>8.9217754367700408E-2</v>
-      </c>
-      <c r="P30" s="19">
-        <v>0.40977301972404179</v>
-      </c>
-      <c r="Q30" s="19">
-        <v>0.39408770164042439</v>
-      </c>
-      <c r="R30" s="19">
-        <v>0</v>
-      </c>
-      <c r="S30" s="19">
-        <v>0</v>
-      </c>
-      <c r="T30" s="19">
-        <v>2.8028997271722927E-4</v>
-      </c>
-      <c r="U30" s="19">
-        <v>0.10664123429511622</v>
-      </c>
-      <c r="V30" s="19" t="str">
-        <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="20">
-        <v>3.690000057220459</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="19">
-        <v>0.11326248377428916</v>
-      </c>
-      <c r="G31" s="19">
-        <v>6.5907858056564253E-2</v>
-      </c>
-      <c r="H31" s="20">
-        <v>3.3917338277742886</v>
-      </c>
-      <c r="I31" s="20">
-        <v>2.5438003708307164</v>
-      </c>
-      <c r="J31" s="20">
-        <v>4.2396672847178607</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="16">
-        <v>45619</v>
-      </c>
-      <c r="N31" s="16">
-        <v>45626</v>
-      </c>
-      <c r="O31" s="19">
-        <v>0.68375747988736812</v>
-      </c>
-      <c r="P31" s="19">
-        <v>0.21895053202218998</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>3.7548526172941428E-3</v>
-      </c>
-      <c r="R31" s="19">
-        <v>0</v>
-      </c>
-      <c r="S31" s="19">
-        <v>0</v>
-      </c>
-      <c r="T31" s="19">
-        <v>2.4257361073934199E-4</v>
-      </c>
-      <c r="U31" s="19">
-        <v>9.3294561862408407E-2</v>
-      </c>
-      <c r="V31" s="19" t="str">
-        <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="20">
-        <v>5.7899999618530273</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="19">
-        <v>0.19915737295309752</v>
-      </c>
-      <c r="G32" s="19">
-        <v>6.9595271591293723E-2</v>
-      </c>
-      <c r="H32" s="20">
-        <v>5.5341285554653279</v>
-      </c>
-      <c r="I32" s="20">
-        <v>2.5672792174923678</v>
-      </c>
-      <c r="J32" s="20">
-        <v>6.9176606943316603</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M32" s="16">
-        <v>45606</v>
-      </c>
-      <c r="N32" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O32" s="19">
-        <v>8.1734249293405042E-3</v>
-      </c>
-      <c r="P32" s="19">
-        <v>0.19791759120646774</v>
-      </c>
-      <c r="Q32" s="19">
-        <v>0.583299310268654</v>
-      </c>
-      <c r="R32" s="19">
-        <v>0</v>
-      </c>
-      <c r="S32" s="19">
-        <v>0</v>
-      </c>
-      <c r="T32" s="19">
-        <v>1.0335122256212414E-3</v>
-      </c>
-      <c r="U32" s="19">
-        <v>0.2095761613699165</v>
-      </c>
-      <c r="V32" s="19" t="str">
-        <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="20">
-        <v>93.900001525878906</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0.15395701457187932</v>
-      </c>
-      <c r="G33" s="19">
-        <v>2.4865888916667429E-2</v>
-      </c>
-      <c r="H33" s="20">
-        <v>29.058609063721725</v>
-      </c>
-      <c r="I33" s="20">
-        <v>13.107225785958322</v>
-      </c>
-      <c r="J33" s="20">
-        <v>36.323261329652155</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M33" s="16">
-        <v>45606</v>
-      </c>
-      <c r="N33" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O33" s="19">
-        <v>3.4550297712315887E-2</v>
-      </c>
-      <c r="P33" s="19">
-        <v>0.30165569831818656</v>
-      </c>
-      <c r="Q33" s="19">
-        <v>0.50814791601378884</v>
-      </c>
-      <c r="R33" s="19">
-        <v>0</v>
-      </c>
-      <c r="S33" s="19">
-        <v>0</v>
-      </c>
-      <c r="T33" s="19">
-        <v>0</v>
-      </c>
-      <c r="U33" s="19">
-        <v>0.15564608795570875</v>
-      </c>
-      <c r="V33" s="19" t="str">
-        <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="20">
-        <v>32.599998474121094</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="19">
-        <v>3.3724815460104543E-2</v>
-      </c>
-      <c r="G34" s="19">
-        <v>1.533742403076846E-2</v>
-      </c>
-      <c r="H34" s="20">
-        <v>14.284397029328296</v>
-      </c>
-      <c r="I34" s="20">
-        <v>6.4431444970098211</v>
-      </c>
-      <c r="J34" s="20">
-        <v>17.855496286660369</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" s="16">
-        <v>45603</v>
-      </c>
-      <c r="N34" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O34" s="19">
-        <v>0.47272944175123971</v>
-      </c>
-      <c r="P34" s="19">
-        <v>0.35112695227219692</v>
-      </c>
-      <c r="Q34" s="19">
-        <v>0</v>
-      </c>
-      <c r="R34" s="19">
-        <v>0</v>
-      </c>
-      <c r="S34" s="19">
-        <v>0</v>
-      </c>
-      <c r="T34" s="19">
-        <v>0</v>
-      </c>
-      <c r="U34" s="19">
-        <v>0.17614360597656339</v>
-      </c>
-      <c r="V34" s="19" t="str">
-        <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="20">
-        <v>1.6399999856948853</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="19">
-        <v>-4.1954924561979204E-2</v>
-      </c>
-      <c r="G35" s="19">
-        <v>6.5521402174566451E-2</v>
-      </c>
-      <c r="H35" s="20">
-        <v>1.3960000295280339</v>
-      </c>
-      <c r="I35" s="20">
-        <v>1.1539345175717373</v>
-      </c>
-      <c r="J35" s="20">
-        <v>1.9533390005962352</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" s="16">
-        <v>45593</v>
-      </c>
-      <c r="N35" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O35" s="19">
-        <v>0.39325092997635303</v>
-      </c>
-      <c r="P35" s="19">
-        <v>0.24326660244029483</v>
-      </c>
-      <c r="Q35" s="19">
-        <v>9.5705744879944314E-3</v>
-      </c>
-      <c r="R35" s="19">
-        <v>0.57635255668591923</v>
-      </c>
-      <c r="S35" s="19">
-        <v>0</v>
-      </c>
-      <c r="T35" s="19">
-        <v>2.3716125582531654E-3</v>
-      </c>
-      <c r="U35" s="19">
-        <v>-0.22481227614881466</v>
-      </c>
-      <c r="V35" s="19" t="str">
-        <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="20">
-        <v>35.049999237060547</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="19">
-        <v>0.16080965381188272</v>
-      </c>
-      <c r="G36" s="19">
-        <v>6.0456907021078352E-2</v>
-      </c>
-      <c r="H36" s="20">
-        <v>27.879991697778674</v>
-      </c>
-      <c r="I36" s="20">
-        <v>12.933512937439998</v>
-      </c>
-      <c r="J36" s="20">
-        <v>34.84998962222334</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" s="16">
-        <v>45606</v>
-      </c>
-      <c r="N36" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O36" s="19">
-        <v>1.8627626781429586E-2</v>
-      </c>
-      <c r="P36" s="19">
-        <v>0.25828274030620524</v>
-      </c>
-      <c r="Q36" s="19">
-        <v>0.34356507928375646</v>
-      </c>
-      <c r="R36" s="19">
-        <v>0</v>
-      </c>
-      <c r="S36" s="19">
-        <v>0</v>
-      </c>
-      <c r="T36" s="19">
-        <v>2.9971565437917872E-3</v>
-      </c>
-      <c r="U36" s="19">
-        <v>0.37652739708481697</v>
-      </c>
-      <c r="V36" s="19" t="str">
-        <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="20">
-        <v>9.3000001907348633</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="19">
-        <v>9.6494555775751611E-2</v>
-      </c>
-      <c r="G37" s="19">
-        <v>6.8170437517054636E-2</v>
-      </c>
-      <c r="H37" s="20">
-        <v>8.6491889995515621</v>
-      </c>
-      <c r="I37" s="20">
-        <v>4.012354057945311</v>
-      </c>
-      <c r="J37" s="20">
-        <v>10.811486249439453</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M37" s="16">
-        <v>45604</v>
-      </c>
-      <c r="N37" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O37" s="19">
-        <v>0.6223905170283478</v>
-      </c>
-      <c r="P37" s="19">
-        <v>0.25451341065151861</v>
-      </c>
-      <c r="Q37" s="19">
-        <v>1.5061272402478966E-3</v>
-      </c>
-      <c r="R37" s="19">
-        <v>1.6834397167810114E-3</v>
-      </c>
-      <c r="S37" s="19">
-        <v>0</v>
-      </c>
-      <c r="T37" s="19">
-        <v>4.1457926751634292E-3</v>
-      </c>
-      <c r="U37" s="19">
-        <v>0.11576071268794125</v>
-      </c>
-      <c r="V37" s="19" t="str">
-        <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="20">
-        <v>4.9600000381469727</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="19">
-        <v>0.13285896066071068</v>
-      </c>
-      <c r="G38" s="19">
-        <v>7.0647393938342268E-2</v>
-      </c>
-      <c r="H38" s="20">
-        <v>4.8361941103265282</v>
-      </c>
-      <c r="I38" s="20">
-        <v>2.2435078091814078</v>
-      </c>
-      <c r="J38" s="20">
-        <v>6.0452426379081601</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M38" s="16">
-        <v>45606</v>
-      </c>
-      <c r="N38" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O38" s="19">
-        <v>0.18760554961924605</v>
-      </c>
-      <c r="P38" s="19">
-        <v>0.19513886735214594</v>
-      </c>
-      <c r="Q38" s="19">
-        <v>0.49099920776112166</v>
-      </c>
-      <c r="R38" s="19">
-        <v>0</v>
-      </c>
-      <c r="S38" s="19">
-        <v>0</v>
-      </c>
-      <c r="T38" s="19">
-        <v>2.9490457891516841E-3</v>
-      </c>
-      <c r="U38" s="19">
-        <v>0.12330732947833466</v>
-      </c>
-      <c r="V38" s="19" t="str">
-        <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="20">
-        <v>8.7700004577636719</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="19">
-        <v>1.6453873061316314E-2</v>
-      </c>
-      <c r="G39" s="19">
-        <v>0</v>
-      </c>
-      <c r="H39" s="20">
-        <v>1.5360300442123891</v>
-      </c>
-      <c r="I39" s="20">
-        <v>0.71256349946116737</v>
-      </c>
-      <c r="J39" s="20">
-        <v>1.9200375552654863</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" s="16">
-        <v>45603</v>
-      </c>
-      <c r="N39" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O39" s="19">
-        <v>0.35834792051449244</v>
-      </c>
-      <c r="P39" s="19">
-        <v>0.49473021389230248</v>
-      </c>
-      <c r="Q39" s="19">
-        <v>3.8655956702792868E-3</v>
-      </c>
-      <c r="R39" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="S39" s="19">
-        <v>0</v>
-      </c>
-      <c r="T39" s="19">
-        <v>0</v>
-      </c>
-      <c r="U39" s="19">
-        <v>0.11305626992292581</v>
-      </c>
-      <c r="V39" s="19" t="str">
-        <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="20">
-        <v>4.5799999237060547</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="19">
-        <v>0.26391557520987852</v>
-      </c>
-      <c r="G40" s="19">
-        <v>7.18869929440593E-2</v>
-      </c>
-      <c r="H40" s="20">
-        <v>4.5704016665573031</v>
-      </c>
-      <c r="I40" s="20">
-        <v>2.1202068395316584</v>
-      </c>
-      <c r="J40" s="20">
-        <v>5.7130020831966286</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40" s="16">
-        <v>45605</v>
-      </c>
-      <c r="N40" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O40" s="19">
-        <v>1.2012210534502537E-2</v>
-      </c>
-      <c r="P40" s="19">
-        <v>0.15470436118294414</v>
-      </c>
-      <c r="Q40" s="19">
-        <v>0.48610500800425166</v>
-      </c>
-      <c r="R40" s="19">
-        <v>0</v>
-      </c>
-      <c r="S40" s="19">
-        <v>0</v>
-      </c>
-      <c r="T40" s="19">
-        <v>7.2783600033702114E-4</v>
-      </c>
-      <c r="U40" s="19">
-        <v>0.34645058427796466</v>
-      </c>
-      <c r="V40" s="19" t="str">
-        <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="20">
-        <v>18.559999465942383</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="19">
-        <v>9.8339971306775589E-2</v>
-      </c>
-      <c r="G41" s="19">
-        <v>4.302511293795927E-2</v>
-      </c>
-      <c r="H41" s="20">
-        <v>17.990287751068834</v>
-      </c>
-      <c r="I41" s="20">
-        <v>0.36299771430420513</v>
-      </c>
-      <c r="J41" s="20">
-        <v>24.549027744033161</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="16">
-        <v>45591</v>
-      </c>
-      <c r="N41" s="16">
-        <v>45716</v>
-      </c>
-      <c r="O41" s="19">
-        <v>0.40723441233977836</v>
-      </c>
-      <c r="P41" s="19">
-        <v>0.41258418422767756</v>
-      </c>
-      <c r="Q41" s="19">
-        <v>4.6980230284597004E-2</v>
-      </c>
-      <c r="R41" s="19">
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <v>9.0430154247230065E-3</v>
-      </c>
-      <c r="U41" s="19">
-        <v>0.12415815772322404</v>
-      </c>
-      <c r="V41" s="19" t="str">
-        <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="E42" s="5"/>
@@ -3495,7 +1320,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="E43" s="5"/>
@@ -3506,7 +1331,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="E44" s="5"/>
@@ -3517,7 +1342,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="E45" s="5"/>
@@ -3528,7 +1353,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="E46" s="5"/>
@@ -3539,7 +1364,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="E47" s="5"/>
@@ -3550,7 +1375,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="E48" s="5"/>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C37902-DF1C-2F45-959E-D53B466027EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D5731A-45C4-433F-8AA9-3D2D2EA1FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -123,20 +110,269 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0857.HK</t>
-  </si>
-  <si>
-    <t>中國石油股份</t>
-  </si>
-  <si>
-    <t>C0013</t>
-  </si>
-  <si>
     <t>Mid</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Minority Interests</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>6181.HK</t>
+  </si>
+  <si>
+    <t>老鋪黃金</t>
+  </si>
+  <si>
+    <t>0005.HK</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>C0014</t>
+  </si>
+  <si>
+    <t>0011.HK</t>
+  </si>
+  <si>
+    <t>恒生銀行</t>
+  </si>
+  <si>
+    <t>0027.HK</t>
+  </si>
+  <si>
+    <t>銀河娛樂</t>
+  </si>
+  <si>
+    <t>C0011</t>
+  </si>
+  <si>
+    <t>0069.HK</t>
+  </si>
+  <si>
+    <t>SHANGRI-LA ASIA</t>
+  </si>
+  <si>
+    <t>0083.HK</t>
+  </si>
+  <si>
+    <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>C0005</t>
+  </si>
+  <si>
+    <t>0116.HK</t>
+  </si>
+  <si>
+    <t>周生生</t>
+  </si>
+  <si>
+    <t>0268.HK</t>
+  </si>
+  <si>
+    <t>金蝶国际</t>
+  </si>
+  <si>
+    <t>C0009</t>
+  </si>
+  <si>
+    <t>0398.HK</t>
+  </si>
+  <si>
+    <t>東方表行集團</t>
+  </si>
+  <si>
+    <t>0468.HK</t>
+  </si>
+  <si>
+    <t>紛美包裝</t>
+  </si>
+  <si>
+    <t>C0007</t>
+  </si>
+  <si>
+    <t>0696.HK</t>
+  </si>
+  <si>
+    <t>中國民航信息網絡</t>
+  </si>
+  <si>
+    <t>0710.HK</t>
+  </si>
+  <si>
+    <t>京东方精电</t>
+  </si>
+  <si>
+    <t>C0006</t>
+  </si>
+  <si>
+    <t>0788.HK</t>
+  </si>
+  <si>
+    <t>中国铁塔</t>
+  </si>
+  <si>
+    <t>C0010</t>
+  </si>
+  <si>
+    <t>0811.HK</t>
+  </si>
+  <si>
+    <t>新华文轩</t>
+  </si>
+  <si>
+    <t>C0012</t>
+  </si>
+  <si>
+    <t>0857.HK</t>
+  </si>
+  <si>
+    <t>中國石油股份</t>
+  </si>
+  <si>
+    <t>C0013</t>
+  </si>
+  <si>
+    <t>0887.HK</t>
+  </si>
+  <si>
+    <t>英皇鐘錶珠寶</t>
+  </si>
+  <si>
+    <t>0939.HK</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>0941.HK</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+  </si>
+  <si>
+    <t>0998.HK</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>1288.HK</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>1398.HK</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>1405.HK</t>
+  </si>
+  <si>
+    <t>達勢股份</t>
+  </si>
+  <si>
+    <t>C0002</t>
+  </si>
+  <si>
+    <t>1475.HK</t>
+  </si>
+  <si>
+    <t>NISSIN FOODS</t>
+  </si>
+  <si>
+    <t>1658.HK</t>
+  </si>
+  <si>
+    <t>邮储银行</t>
+  </si>
+  <si>
+    <t>1766.HK</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>C0004</t>
+  </si>
+  <si>
+    <t>1910.HK</t>
+  </si>
+  <si>
+    <t>SAMSONITE</t>
+  </si>
+  <si>
+    <t>C0001</t>
+  </si>
+  <si>
+    <t>1929.HK</t>
+  </si>
+  <si>
+    <t>周大福</t>
+  </si>
+  <si>
+    <t>2388.HK</t>
+  </si>
+  <si>
+    <t>中银香港</t>
+  </si>
+  <si>
+    <t>2888.HK</t>
+  </si>
+  <si>
+    <t>Standard Chartered</t>
+  </si>
+  <si>
+    <t>3328.HK</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>3968.HK</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>3988.HK</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>6186.HK</t>
+  </si>
+  <si>
+    <t>中国飞鹤</t>
+  </si>
+  <si>
+    <t>6601.HK</t>
+  </si>
+  <si>
+    <t>朝云集团</t>
+  </si>
+  <si>
+    <t>6818.HK</t>
+  </si>
+  <si>
+    <t>中国光大银行</t>
+  </si>
+  <si>
+    <t>9959.HK</t>
+  </si>
+  <si>
+    <t>聯易融科技－Ｗ</t>
+  </si>
+  <si>
+    <t>C0008</t>
   </si>
 </sst>
 </file>
@@ -144,14 +380,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -159,14 +395,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +421,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,14 +512,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -296,14 +532,14 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -326,8 +562,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -358,9 +594,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +634,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -504,7 +740,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -663,24 +899,24 @@
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="20" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="10" width="13.1640625" style="20" customWidth="1"/>
+    <col min="6" max="7" width="13.1328125" customWidth="1"/>
+    <col min="8" max="10" width="13.1328125" style="20" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="20" width="12.83203125" style="19" customWidth="1"/>
-    <col min="21" max="22" width="8.83203125" style="19"/>
+    <col min="13" max="13" width="13.1328125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="12.796875" style="19" customWidth="1"/>
+    <col min="21" max="22" width="8.796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -698,7 +934,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="D3" s="24" t="s">
         <v>1</v>
       </c>
@@ -727,7 +963,7 @@
       <c r="U3" s="27"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="26" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
@@ -747,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>11</v>
@@ -774,7 +1010,7 @@
         <v>27</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="R4" s="11" t="s">
         <v>19</v>
@@ -792,524 +1028,2449 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D5" s="20">
-        <v>5.5799999237060547</v>
+        <v>71.95</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="19">
-        <v>0.12373629817266646</v>
+        <v>5.8122355553100254E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>8.6605675020261313E-2</v>
+        <v>6.597670759899571E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>6.021006592878015</v>
+        <v>49.218330247282431</v>
       </c>
       <c r="I5" s="20">
-        <v>4.6031818496557104</v>
+        <v>41.835580710190065</v>
       </c>
       <c r="J5" s="20">
-        <v>11.033407713515709</v>
+        <v>82.70426276702554</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M5" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N5" s="16">
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.86263355974668987</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P5" s="19">
-        <v>5.04E-2</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q5" s="19">
-        <v>6.8684548583665562E-3</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="R5" s="19">
         <v>0</v>
       </c>
       <c r="S5" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="T5" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U5" s="19">
-        <v>5.2106320134227301E-2</v>
-      </c>
-      <c r="V5" s="19">
+        <v>0.10980570587494648</v>
+      </c>
+      <c r="V5" s="19" t="str">
         <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v>0.17505700491149356</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D6" s="20">
-        <v>14.859999656677246</v>
+        <v>91.8</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="19">
-        <v>9.6285745419702862E-2</v>
+        <v>0.10908828283235786</v>
       </c>
       <c r="G6" s="19">
-        <v>7.4024227820605776E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>14.687646459631321</v>
+        <v>73.22290319252518</v>
       </c>
       <c r="I6" s="20">
-        <v>12.395440410984637</v>
+        <v>62.239467713646398</v>
       </c>
       <c r="J6" s="20">
-        <v>24.850949179995109</v>
+        <v>123.04046471656656</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M6" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N6" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>0.72762956087193742</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P6" s="19">
-        <v>0.16540000000000002</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q6" s="19">
         <v>0</v>
       </c>
       <c r="R6" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S6" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="T6" s="19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>7.3081874090513851E-2</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V6" s="19" t="str">
         <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="20">
+        <v>33.4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>3.2601996314887513E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1.4970059880239521E-2</v>
+      </c>
+      <c r="H7" s="20">
+        <v>9.6299121476162792</v>
+      </c>
+      <c r="I7" s="20">
+        <v>8.1854253254738367</v>
+      </c>
+      <c r="J7" s="20">
+        <v>16.181670135463456</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N7" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0.47272944175123971</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0.35112695227219692</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>1.6858097812807804E-3</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0.17445779619528262</v>
+      </c>
+      <c r="V7" s="19" t="str">
+        <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5.35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-2.3477212698921088E-2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>3.7298059299717953E-2</v>
+      </c>
+      <c r="H8" s="20">
+        <v>1.8051974303478957</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1.5344178157957113</v>
+      </c>
+      <c r="J8" s="20">
+        <v>3.0333723609832344</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N8" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.45524911405880131</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0.44873026767330132</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>1.0703282304304319E-2</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>0.12063647696552883</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="19">
+        <v>-3.5319141001935742E-2</v>
+      </c>
+      <c r="V8" s="19" t="str">
+        <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="20">
+        <v>7.64</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3.0204649550238803E-2</v>
+      </c>
+      <c r="G9" s="19">
+        <v>7.5916230366492143E-2</v>
+      </c>
+      <c r="H9" s="20">
+        <v>8.4604890628315612</v>
+      </c>
+      <c r="I9" s="20">
+        <v>7.1914157034068271</v>
+      </c>
+      <c r="J9" s="20">
+        <v>12.456189170629852</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N9" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0.60969766115231028</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0.12367370222475756</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="S9" s="19">
+        <v>1.0724472333143184E-2</v>
+      </c>
+      <c r="T9" s="19">
+        <v>1.038220193953223E-2</v>
+      </c>
+      <c r="U9" s="19">
+        <v>0.22552196235025673</v>
+      </c>
+      <c r="V9" s="19">
+        <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
+        <v>5.871522206716917E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="20">
+        <v>6.36</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.17383183926682738</v>
+      </c>
+      <c r="G10" s="19">
+        <v>8.6477987421383656E-2</v>
+      </c>
+      <c r="H10" s="20">
+        <v>5.4517233144516588</v>
+      </c>
+      <c r="I10" s="20">
+        <v>4.6310399178250217</v>
+      </c>
+      <c r="J10" s="20">
+        <v>10.539869398420247</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N10" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0.73600077942413045</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0.20890317762054877</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>5.1931891220120593E-3</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>4.9902853833308697E-2</v>
+      </c>
+      <c r="V10" s="19" t="str">
+        <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="20">
+        <v>8.51</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19">
+        <v>-1.6549085424336935E-2</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N11" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0.35834792051449244</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0.74823479113580682</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>3.8655956702792868E-3</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <v>-0.11044830732057855</v>
+      </c>
+      <c r="V11" s="19" t="str">
+        <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="20">
+        <v>3.7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.11295637070488061</v>
+      </c>
+      <c r="G12" s="19">
+        <v>6.5729729729729722E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <v>2.3581837761921571</v>
+      </c>
+      <c r="I12" s="20">
+        <v>2.0044562097633336</v>
+      </c>
+      <c r="J12" s="20">
+        <v>4.232206573027339</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="16">
+        <v>45619</v>
+      </c>
+      <c r="N12" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.68375747988736812</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0.21895053202218998</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>2.4257361073934199E-4</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19">
+        <v>3.7548526172941428E-3</v>
+      </c>
+      <c r="T12" s="19">
+        <v>0</v>
+      </c>
+      <c r="U12" s="19">
+        <v>9.3294561862408407E-2</v>
+      </c>
+      <c r="V12" s="19" t="str">
+        <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="19">
+        <v>5.7822217686852029E-2</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2.5763784408569336E-2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1.3221370534720356</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1.1238164954512302</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2.1601782649801553</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N13" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0.82154354610382485</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0.1102707353696761</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>1.9909979330197799E-3</v>
+      </c>
+      <c r="T13" s="19">
+        <v>0</v>
+      </c>
+      <c r="U13" s="19">
+        <v>6.6194720593479306E-2</v>
+      </c>
+      <c r="V13" s="19" t="str">
+        <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="20">
+        <v>14.74</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19">
+        <v>9.7069616274063589E-2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>7.4626865671641798E-2</v>
+      </c>
+      <c r="H14" s="20">
+        <v>14.736409777527648</v>
+      </c>
+      <c r="I14" s="20">
+        <v>12.431861826906614</v>
+      </c>
+      <c r="J14" s="20">
+        <v>28.681270013074275</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N14" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0.72762956087193742</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0.16540000000000002</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="S14" s="19">
+        <v>3.8885650375487034E-3</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="U14" s="19">
+        <v>7.3081874090513851E-2</v>
+      </c>
+      <c r="V14" s="19" t="str">
+        <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20">
+        <v>10.08</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="19">
+        <v>3.9600808101334734E-2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1.7039010764429808E-2</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1.2905394028564949</v>
+      </c>
+      <c r="I15" s="20">
+        <v>1.0969584924280207</v>
+      </c>
+      <c r="J15" s="20">
+        <v>2.1085523326270148</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N15" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0.48660635459513968</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0.2941332211490556</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>9.3403926661713623E-3</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>2.1757339633768379E-3</v>
+      </c>
+      <c r="T15" s="19">
+        <v>0</v>
+      </c>
+      <c r="U15" s="19">
+        <v>0.20774429762625654</v>
+      </c>
+      <c r="V15" s="19" t="str">
+        <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="20">
+        <v>5.36</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19">
+        <v>-9.3152968848614598E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3.1683023262083235E-2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>0</v>
+      </c>
+      <c r="I16" s="20">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N16" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0.8649634921177769</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0.14930937614307849</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>7.2128562067984476E-4</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <v>2.3437755566327548E-3</v>
+      </c>
+      <c r="T16" s="19">
+        <v>2.8284501268352451E-2</v>
+      </c>
+      <c r="U16" s="19">
+        <v>-4.5622430706520396E-2</v>
+      </c>
+      <c r="V16" s="19" t="str">
+        <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="20">
+        <v>1.02</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="19">
+        <v>5.2356346993488491E-2</v>
+      </c>
+      <c r="G17" s="19">
+        <v>5.0820854194413602E-2</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.47595066127829844</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.40455806208655365</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0.77763365832334908</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N17" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0.69462498271442097</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0.15111319129019563</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0</v>
+      </c>
+      <c r="S17" s="19">
+        <v>3.0071588890425386E-2</v>
+      </c>
+      <c r="T17" s="19">
+        <v>0</v>
+      </c>
+      <c r="U17" s="19">
+        <v>0.12419023710495804</v>
+      </c>
+      <c r="V17" s="19" t="str">
+        <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="20">
+        <v>9.44</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19">
+        <v>9.3833074991227255E-2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>6.7091104884942382E-2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>6.0509384971673432</v>
+      </c>
+      <c r="I18" s="20">
+        <v>5.1432977225922416</v>
+      </c>
+      <c r="J18" s="20">
+        <v>9.8863470999370531</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="16">
+        <v>45604</v>
+      </c>
+      <c r="N18" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O18" s="19">
+        <v>0.6223905170283478</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0.25619685036829964</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>5.5277235668845723E-3</v>
+      </c>
+      <c r="R18" s="19">
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <v>1.5061272402478966E-3</v>
+      </c>
+      <c r="T18" s="19">
+        <v>0</v>
+      </c>
+      <c r="U18" s="19">
+        <v>0.11437878179622009</v>
+      </c>
+      <c r="V18" s="19" t="str">
+        <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="20">
+        <v>5.53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.11931878094013711</v>
+      </c>
+      <c r="G19" s="19">
+        <v>8.7351890627773057E-2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>5.5300164617867456</v>
+      </c>
+      <c r="I19" s="20">
+        <v>4.1587880405246782</v>
+      </c>
+      <c r="J19" s="20">
+        <v>11.809856071348809</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N19" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0.86263355974668987</v>
+      </c>
+      <c r="P19" s="19">
+        <v>5.04E-2</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>9.1579398111554088E-3</v>
+      </c>
+      <c r="R19" s="19">
+        <v>0</v>
+      </c>
+      <c r="S19" s="19">
+        <v>7.9916652607163307E-3</v>
+      </c>
+      <c r="T19" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="U19" s="19">
+        <v>4.9816835181438444E-2</v>
+      </c>
+      <c r="V19" s="19">
+        <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
+        <v>0.24795876301542896</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.23479333029805602</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6.9540229885057481E-2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>0.12756685751769817</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.10843182889004344</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0.21435759505656835</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N20" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0.69931288683936033</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0.22200134640260258</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0</v>
+      </c>
+      <c r="S20" s="19">
+        <v>2.1205737325435711E-3</v>
+      </c>
+      <c r="T20" s="19">
+        <v>0</v>
+      </c>
+      <c r="U20" s="19">
+        <v>7.6565193025493528E-2</v>
+      </c>
+      <c r="V20" s="19" t="str">
+        <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="20">
+        <v>5.84</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.28306166911094233</v>
+      </c>
+      <c r="G21" s="19">
+        <v>7.3524498504046437E-2</v>
+      </c>
+      <c r="H21" s="20">
+        <v>4.2274941827507009</v>
+      </c>
+      <c r="I21" s="20">
+        <v>3.5933700553380956</v>
+      </c>
+      <c r="J21" s="20">
+        <v>6.9071062072773683</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N21" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0.47700776116848903</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.15697168260849415</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0</v>
+      </c>
+      <c r="S21" s="19">
+        <v>0</v>
+      </c>
+      <c r="T21" s="19">
+        <v>0</v>
+      </c>
+      <c r="U21" s="19">
+        <v>0.36602055622301682</v>
+      </c>
+      <c r="V21" s="19" t="str">
+        <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="20">
+        <v>71.95</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19">
+        <v>4.276502653833357E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>6.7853864075990075E-2</v>
+      </c>
+      <c r="H22" s="20">
+        <v>46.81044848840255</v>
+      </c>
+      <c r="I22" s="20">
+        <v>39.788881215142169</v>
+      </c>
+      <c r="J22" s="20">
+        <v>76.481415548466899</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N22" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0.8668930922046667</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>2.2325505205376484E-4</v>
+      </c>
+      <c r="R22" s="19">
+        <v>2.2215198715160572E-2</v>
+      </c>
+      <c r="S22" s="19">
+        <v>3.6955976811858409E-3</v>
+      </c>
+      <c r="T22" s="19">
+        <v>2.5630406545468234E-2</v>
+      </c>
+      <c r="U22" s="19">
+        <v>8.1342449801464822E-2</v>
+      </c>
+      <c r="V22" s="19" t="str">
+        <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="20">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.13113692171150865</v>
+      </c>
+      <c r="G23" s="19">
+        <v>7.0292078081862497E-2</v>
+      </c>
+      <c r="H23" s="20">
+        <v>3.3948890235364924</v>
+      </c>
+      <c r="I23" s="20">
+        <v>2.8856556700060185</v>
+      </c>
+      <c r="J23" s="20">
+        <v>5.5467513457887856</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N23" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O23" s="19">
+        <v>0.18760554961924605</v>
+      </c>
+      <c r="P23" s="19">
+        <v>0.19513886735214594</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>3.9320610522022457E-3</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0</v>
+      </c>
+      <c r="S23" s="19">
+        <v>0.49099920776112166</v>
+      </c>
+      <c r="T23" s="19">
+        <v>0</v>
+      </c>
+      <c r="U23" s="19">
+        <v>0.12232431421528413</v>
+      </c>
+      <c r="V23" s="19" t="str">
+        <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="20">
+        <v>3.89</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.15565240391913782</v>
+      </c>
+      <c r="G24" s="19">
+        <v>6.3717577862964281E-2</v>
+      </c>
+      <c r="H24" s="20">
+        <v>2.3308742355482686</v>
+      </c>
+      <c r="I24" s="20">
+        <v>1.9812431002160282</v>
+      </c>
+      <c r="J24" s="20">
+        <v>3.8083070501738283</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N24" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O24" s="19">
+        <v>0.11401933240696355</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0.19137095648691452</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>4.6925281602255647E-4</v>
+      </c>
+      <c r="R24" s="19">
+        <v>0</v>
+      </c>
+      <c r="S24" s="19">
+        <v>0.49449639261897682</v>
+      </c>
+      <c r="T24" s="19">
+        <v>0</v>
+      </c>
+      <c r="U24" s="19">
+        <v>0.19964406567112258</v>
+      </c>
+      <c r="V24" s="19" t="str">
+        <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="20">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.26461795888510076</v>
+      </c>
+      <c r="G25" s="19">
+        <v>7.2128822935952089E-2</v>
+      </c>
+      <c r="H25" s="20">
+        <v>3.2172650997711023</v>
+      </c>
+      <c r="I25" s="20">
+        <v>2.7346753348054369</v>
+      </c>
+      <c r="J25" s="20">
+        <v>5.2565398745567649</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N25" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O25" s="19">
+        <v>1.2012210534502537E-2</v>
+      </c>
+      <c r="P25" s="19">
+        <v>0.15470436118294414</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>9.7044800044936142E-4</v>
+      </c>
+      <c r="R25" s="19">
+        <v>0</v>
+      </c>
+      <c r="S25" s="19">
+        <v>0.48610500800425166</v>
+      </c>
+      <c r="T25" s="19">
+        <v>0</v>
+      </c>
+      <c r="U25" s="19">
+        <v>0.34620797227785238</v>
+      </c>
+      <c r="V25" s="19" t="str">
+        <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="20">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="19">
+        <v>-1.0436935615503904E-2</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N26" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O26" s="19">
+        <v>0.8448760372568398</v>
+      </c>
+      <c r="P26" s="19">
+        <v>0.18023840312844694</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>0</v>
+      </c>
+      <c r="R26" s="19">
+        <v>0</v>
+      </c>
+      <c r="S26" s="19">
+        <v>1.7912194354438221E-2</v>
+      </c>
+      <c r="T26" s="19">
+        <v>0</v>
+      </c>
+      <c r="U26" s="19">
+        <v>-4.3026634739724949E-2</v>
+      </c>
+      <c r="V26" s="19" t="str">
+        <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="20">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="19">
+        <v>6.2661719760745055E-2</v>
+      </c>
+      <c r="G27" s="19">
+        <v>3.2024291497975706E-2</v>
+      </c>
+      <c r="H27" s="20">
+        <v>3.5521767514317446</v>
+      </c>
+      <c r="I27" s="20">
+        <v>3.0193502387169828</v>
+      </c>
+      <c r="J27" s="20">
+        <v>5.9498783711894268</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M27" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N27" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O27" s="19">
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="P27" s="19">
+        <v>0.21645682425674254</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>1.0365594158118095E-3</v>
+      </c>
+      <c r="R27" s="19">
+        <v>0</v>
+      </c>
+      <c r="S27" s="19">
+        <v>7.0437342852983705E-5</v>
+      </c>
+      <c r="T27" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="U27" s="19">
+        <v>0.11237749163404374</v>
+      </c>
+      <c r="V27" s="19" t="str">
+        <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="20">
+        <v>4.46</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0.1065682329180931</v>
+      </c>
+      <c r="G28" s="19">
+        <v>6.2818935874331697E-2</v>
+      </c>
+      <c r="H28" s="20">
+        <v>2.6236152902689507</v>
+      </c>
+      <c r="I28" s="20">
+        <v>2.2300729967286079</v>
+      </c>
+      <c r="J28" s="20">
+        <v>4.2866030498315961</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N28" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O28" s="19">
+        <v>8.9217754367700408E-2</v>
+      </c>
+      <c r="P28" s="19">
+        <v>0.40977301972404179</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>3.7371996362297238E-4</v>
+      </c>
+      <c r="R28" s="19">
+        <v>0</v>
+      </c>
+      <c r="S28" s="19">
+        <v>0.39408770164042439</v>
+      </c>
+      <c r="T28" s="19">
+        <v>0</v>
+      </c>
+      <c r="U28" s="19">
+        <v>0.10654780430421051</v>
+      </c>
+      <c r="V28" s="19" t="str">
+        <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="20">
+        <v>4.58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="19">
+        <v>7.9143102699204701E-2</v>
+      </c>
+      <c r="G29" s="19">
+        <v>4.6875881142317812E-2</v>
+      </c>
+      <c r="H29" s="20">
+        <v>1.8640999529379689</v>
+      </c>
+      <c r="I29" s="20">
+        <v>1.5844849599972735</v>
+      </c>
+      <c r="J29" s="20">
+        <v>3.0456662503425567</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M29" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N29" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O29" s="19">
+        <v>0.78463553343209413</v>
+      </c>
+      <c r="P29" s="19">
+        <v>0.16010732347610457</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>1.2515926965280349E-5</v>
+      </c>
+      <c r="R29" s="19">
+        <v>0</v>
+      </c>
+      <c r="S29" s="19">
+        <v>0</v>
+      </c>
+      <c r="T29" s="19">
+        <v>8.8200573996119572E-5</v>
+      </c>
+      <c r="U29" s="19">
+        <v>5.5156426590839844E-2</v>
+      </c>
+      <c r="V29" s="19" t="str">
+        <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="20">
+        <v>20.3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="19">
+        <v>8.771758247183653E-2</v>
+      </c>
+      <c r="G30" s="19">
+        <v>3.933259443931391E-2</v>
+      </c>
+      <c r="H30" s="20">
+        <v>18.805316875027117</v>
+      </c>
+      <c r="I30" s="20">
+        <v>15.98451934377305</v>
+      </c>
+      <c r="J30" s="20">
+        <v>32.457821065650023</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N30" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O30" s="19">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P30" s="19">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>1.2057353899630675E-2</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0</v>
+      </c>
+      <c r="S30" s="19">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="T30" s="19">
+        <v>0</v>
+      </c>
+      <c r="U30" s="19">
+        <v>0.12114381924831638</v>
+      </c>
+      <c r="V30" s="19" t="str">
+        <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="20">
+        <v>7.12</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="19">
+        <v>8.5810990160419792E-2</v>
+      </c>
+      <c r="G31" s="19">
+        <v>7.7247191011235963E-2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>5.2418736488399169</v>
+      </c>
+      <c r="I31" s="20">
+        <v>4.4555926015139296</v>
+      </c>
+      <c r="J31" s="20">
+        <v>10.099675550651723</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N31" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O31" s="19">
+        <v>0.79501071628968012</v>
+      </c>
+      <c r="P31" s="19">
+        <v>0.12234231416665901</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>1.3233621247382252E-3</v>
+      </c>
+      <c r="R31" s="19">
+        <v>0</v>
+      </c>
+      <c r="S31" s="19">
+        <v>6.4812855868203439E-3</v>
+      </c>
+      <c r="T31" s="19">
+        <v>0</v>
+      </c>
+      <c r="U31" s="19">
+        <v>7.4842321832102252E-2</v>
+      </c>
+      <c r="V31" s="19" t="str">
+        <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="20">
+        <v>24.25</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0.12611611180762716</v>
+      </c>
+      <c r="G32" s="19">
+        <v>6.1030927835051547E-2</v>
+      </c>
+      <c r="H32" s="20">
+        <v>14.992318312184075</v>
+      </c>
+      <c r="I32" s="20">
+        <v>12.743470565356464</v>
+      </c>
+      <c r="J32" s="20">
+        <v>25.192415649781665</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N32" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O32" s="19">
+        <v>2.8609905101246377E-2</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0.11648068007266453</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>1.9313252769435827E-2</v>
+      </c>
+      <c r="R32" s="19">
+        <v>0</v>
+      </c>
+      <c r="S32" s="19">
+        <v>0.54295694135635775</v>
+      </c>
+      <c r="T32" s="19">
+        <v>0</v>
+      </c>
+      <c r="U32" s="19">
+        <v>0.29263922070029547</v>
+      </c>
+      <c r="V32" s="19" t="str">
+        <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="20">
+        <v>95.65</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0.15112438048801777</v>
+      </c>
+      <c r="G33" s="19">
+        <v>2.4408384822640065E-2</v>
+      </c>
+      <c r="H33" s="20">
+        <v>19.840677661588465</v>
+      </c>
+      <c r="I33" s="20">
+        <v>16.864576012350195</v>
+      </c>
+      <c r="J33" s="20">
+        <v>33.339380075586128</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N33" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O33" s="19">
+        <v>3.4550297712315887E-2</v>
+      </c>
+      <c r="P33" s="19">
+        <v>0.30165569831818656</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>0</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0</v>
+      </c>
+      <c r="S33" s="19">
+        <v>0.50814791601378884</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <v>0.15564608795570867</v>
+      </c>
+      <c r="V33" s="19" t="str">
+        <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="20">
+        <v>5.68</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19">
+        <v>0.20247435645634193</v>
+      </c>
+      <c r="G34" s="19">
+        <v>7.0870885441840545E-2</v>
+      </c>
+      <c r="H34" s="20">
+        <v>3.9145338464153929</v>
+      </c>
+      <c r="I34" s="20">
+        <v>3.3273537694530839</v>
+      </c>
+      <c r="J34" s="20">
+        <v>6.3957748633920666</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N34" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O34" s="19">
+        <v>8.1734249293405042E-3</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0.19791759120646774</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>1.3780163008283218E-3</v>
+      </c>
+      <c r="R34" s="19">
+        <v>0</v>
+      </c>
+      <c r="S34" s="19">
+        <v>0.583299310268654</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0</v>
+      </c>
+      <c r="U34" s="19">
+        <v>0.20923165729470938</v>
+      </c>
+      <c r="V34" s="19" t="str">
+        <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="20">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0.16044867175230934</v>
+      </c>
+      <c r="G35" s="19">
+        <v>6.0481672609420049E-2</v>
+      </c>
+      <c r="H35" s="20">
+        <v>19.605863562237623</v>
+      </c>
+      <c r="I35" s="20">
+        <v>16.66498402790198</v>
+      </c>
+      <c r="J35" s="20">
+        <v>32.033108989791955</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N35" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O35" s="19">
+        <v>1.8627626781429586E-2</v>
+      </c>
+      <c r="P35" s="19">
+        <v>0.25828274030620524</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>3.9962087250557162E-3</v>
+      </c>
+      <c r="R35" s="19">
+        <v>0</v>
+      </c>
+      <c r="S35" s="19">
+        <v>0.34356507928375646</v>
+      </c>
+      <c r="T35" s="19">
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
+        <v>0.37552834490355302</v>
+      </c>
+      <c r="V35" s="19" t="str">
+        <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="20">
+        <v>3.58</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0.25739558633890658</v>
+      </c>
+      <c r="G36" s="19">
+        <v>8.9954554035676912E-2</v>
+      </c>
+      <c r="H36" s="20">
+        <v>3.4207901633105022</v>
+      </c>
+      <c r="I36" s="20">
+        <v>2.9076716388139268</v>
+      </c>
+      <c r="J36" s="20">
+        <v>5.5890700139110487</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N36" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O36" s="19">
+        <v>1.1832950701880444E-2</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0.19534620844359546</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>0</v>
+      </c>
+      <c r="R36" s="19">
+        <v>0</v>
+      </c>
+      <c r="S36" s="19">
+        <v>0</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0.49757189674208302</v>
+      </c>
+      <c r="U36" s="19">
+        <v>0.29524894411244107</v>
+      </c>
+      <c r="V36" s="19" t="str">
+        <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="20">
+        <v>196.1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="19">
+        <v>1.3561077143413331E-2</v>
+      </c>
+      <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="20">
+        <v>0</v>
+      </c>
+      <c r="I37" s="20">
+        <v>0</v>
+      </c>
+      <c r="J37" s="20">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N37" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O37" s="19">
+        <v>0.58108816177312361</v>
+      </c>
+      <c r="P37" s="19">
+        <v>0.23828361372817153</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>0</v>
+      </c>
+      <c r="R37" s="19">
+        <v>0</v>
+      </c>
+      <c r="S37" s="19">
+        <v>5.7183940942846252E-3</v>
+      </c>
+      <c r="T37" s="19">
+        <v>0</v>
+      </c>
+      <c r="U37" s="19">
+        <v>0.17490983040442024</v>
+      </c>
+      <c r="V37" s="19" t="str">
+        <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="20">
+        <v>5.63</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19">
+        <v>6.3687554417683978E-2</v>
+      </c>
+      <c r="G38" s="19">
+        <v>5.941197380361788E-2</v>
+      </c>
+      <c r="H38" s="20">
+        <v>4.3264349715430903</v>
+      </c>
+      <c r="I38" s="20">
+        <v>3.6774697258116267</v>
+      </c>
+      <c r="J38" s="20">
+        <v>6.7234079217472109</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M38" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N38" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O38" s="19">
+        <v>0.35166796085418528</v>
+      </c>
+      <c r="P38" s="19">
+        <v>0.43886385985236792</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>0</v>
+      </c>
+      <c r="R38" s="19">
+        <v>0</v>
+      </c>
+      <c r="S38" s="19">
+        <v>2.7202256703967287E-3</v>
+      </c>
+      <c r="T38" s="19">
+        <v>0</v>
+      </c>
+      <c r="U38" s="19">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V38" s="19" t="str">
+        <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="B39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="20">
+        <v>1.87</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="19">
+        <v>2.6011720398773835E-2</v>
+      </c>
+      <c r="G39" s="19">
+        <v>6.7622093308630671E-2</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1.5350151910750505</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1.3047629124137929</v>
+      </c>
+      <c r="J39" s="20">
+        <v>2.2196771315829777</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N39" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O39" s="19">
+        <v>0.55541924442229906</v>
+      </c>
+      <c r="P39" s="19">
+        <v>0.37949349616392825</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>1.8148224946381651E-3</v>
+      </c>
+      <c r="R39" s="19">
+        <v>0</v>
+      </c>
+      <c r="S39" s="19">
+        <v>6.208277497005729E-4</v>
+      </c>
+      <c r="T39" s="19">
+        <v>1.2789175437999239E-2</v>
+      </c>
+      <c r="U39" s="19">
+        <v>4.9862433731434744E-2</v>
+      </c>
+      <c r="V39" s="19" t="str">
+        <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="20">
+        <v>2.71</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0.17505163300894644</v>
+      </c>
+      <c r="G40" s="19">
+        <v>8.3183067311220049E-2</v>
+      </c>
+      <c r="H40" s="20">
+        <v>2.3210892225922706</v>
+      </c>
+      <c r="I40" s="20">
+        <v>1.9729258392034299</v>
+      </c>
+      <c r="J40" s="20">
+        <v>3.7923197724142437</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N40" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O40" s="19">
+        <v>0.19853855217217412</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0.15821181625248168</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>1.3644023113167324E-3</v>
+      </c>
+      <c r="R40" s="19">
+        <v>0</v>
+      </c>
+      <c r="S40" s="19">
+        <v>0.51643948647548221</v>
+      </c>
+      <c r="T40" s="19">
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
+        <v>0.12544574278854531</v>
+      </c>
+      <c r="V40" s="19" t="str">
+        <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="20">
+        <v>1.73</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="19">
+        <v>-3.9926942835494604E-2</v>
+      </c>
+      <c r="G41" s="19">
+        <v>6.2049576772201034E-2</v>
+      </c>
+      <c r="H41" s="20">
+        <v>1.0015835419206987</v>
+      </c>
+      <c r="I41" s="20">
+        <v>0.85134601063259385</v>
+      </c>
+      <c r="J41" s="20">
+        <v>1.6364407851191773</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N41" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0.39325092997635303</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0.81977588376563215</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>3.1621500776708874E-3</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>9.5705744879944314E-3</v>
+      </c>
+      <c r="T41" s="19">
+        <v>1.5672463941809065E-4</v>
+      </c>
+      <c r="U41" s="19">
+        <v>-0.22591626294706857</v>
+      </c>
+      <c r="V41" s="19" t="str">
+        <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="E42" s="5"/>
@@ -1320,7 +3481,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="E43" s="5"/>
@@ -1331,7 +3492,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="E44" s="5"/>
@@ -1342,7 +3503,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="E45" s="5"/>
@@ -1353,7 +3514,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="E46" s="5"/>
@@ -1364,7 +3525,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="E47" s="5"/>
@@ -1375,7 +3536,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="E48" s="5"/>
@@ -1386,7 +3547,7 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="E49" s="5"/>
@@ -1397,7 +3558,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="E50" s="5"/>
@@ -1408,7 +3569,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="E51" s="5"/>
@@ -1419,7 +3580,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="E52" s="5"/>
@@ -1430,7 +3591,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="E53" s="5"/>
@@ -1441,7 +3602,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="E54" s="5"/>
@@ -1452,7 +3613,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:14">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="E55" s="5"/>
@@ -1463,7 +3624,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:14">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="E56" s="5"/>
@@ -1474,7 +3635,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:14">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="E57" s="5"/>
@@ -1485,7 +3646,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:14">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="E58" s="5"/>
@@ -1496,7 +3657,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:14">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="E59" s="5"/>
@@ -1507,7 +3668,7 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:14">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="E60" s="5"/>
@@ -1518,7 +3679,7 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:14">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="E61" s="5"/>
@@ -1529,7 +3690,7 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:14">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="E62" s="5"/>
@@ -1540,7 +3701,7 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:14">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="E63" s="5"/>
@@ -1551,7 +3712,7 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:14">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="E64" s="5"/>
@@ -1562,7 +3723,7 @@
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="E65" s="5"/>
@@ -1573,7 +3734,7 @@
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="E66" s="5"/>
@@ -1584,7 +3745,7 @@
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="E67" s="5"/>
@@ -1595,7 +3756,7 @@
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="E68" s="5"/>
@@ -1606,7 +3767,7 @@
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="E69" s="5"/>
@@ -1617,7 +3778,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="E70" s="5"/>
@@ -1628,7 +3789,7 @@
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="E71" s="5"/>
@@ -1639,7 +3800,7 @@
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="E72" s="5"/>
@@ -1650,7 +3811,7 @@
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="E73" s="5"/>
@@ -1661,7 +3822,7 @@
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="E74" s="5"/>
@@ -1672,7 +3833,7 @@
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="E75" s="5"/>
@@ -1683,7 +3844,7 @@
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="E76" s="5"/>
@@ -1694,7 +3855,7 @@
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="E77" s="5"/>
@@ -1705,7 +3866,7 @@
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="E78" s="5"/>
@@ -1716,7 +3877,7 @@
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="E79" s="5"/>
@@ -1727,7 +3888,7 @@
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="E80" s="5"/>
@@ -1738,7 +3899,7 @@
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="E81" s="5"/>
@@ -1749,7 +3910,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="16"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="E82" s="5"/>
@@ -1760,7 +3921,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="16"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="E83" s="5"/>
@@ -1771,7 +3932,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="16"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="E84" s="5"/>
@@ -1782,7 +3943,7 @@
       <c r="M84" s="16"/>
       <c r="N84" s="16"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="E85" s="5"/>
@@ -1793,7 +3954,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="16"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="E86" s="5"/>
@@ -1804,7 +3965,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="16"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="E87" s="5"/>
@@ -1815,7 +3976,7 @@
       <c r="M87" s="16"/>
       <c r="N87" s="16"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="E88" s="5"/>
@@ -1826,7 +3987,7 @@
       <c r="M88" s="16"/>
       <c r="N88" s="16"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="E89" s="5"/>
@@ -1837,7 +3998,7 @@
       <c r="M89" s="16"/>
       <c r="N89" s="16"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="E90" s="5"/>
@@ -1848,7 +4009,7 @@
       <c r="M90" s="16"/>
       <c r="N90" s="16"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="E91" s="5"/>
@@ -1859,7 +4020,7 @@
       <c r="M91" s="16"/>
       <c r="N91" s="16"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="E92" s="5"/>
@@ -1870,7 +4031,7 @@
       <c r="M92" s="16"/>
       <c r="N92" s="16"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="E93" s="5"/>
@@ -1881,7 +4042,7 @@
       <c r="M93" s="16"/>
       <c r="N93" s="16"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="E94" s="5"/>
@@ -1892,7 +4053,7 @@
       <c r="M94" s="16"/>
       <c r="N94" s="16"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="E95" s="5"/>
@@ -1903,7 +4064,7 @@
       <c r="M95" s="16"/>
       <c r="N95" s="16"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="E96" s="5"/>
@@ -1914,7 +4075,7 @@
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="E97" s="5"/>
@@ -1925,7 +4086,7 @@
       <c r="M97" s="16"/>
       <c r="N97" s="16"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="E98" s="5"/>
@@ -1936,7 +4097,7 @@
       <c r="M98" s="16"/>
       <c r="N98" s="16"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14">
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="E99" s="5"/>
@@ -1947,7 +4108,7 @@
       <c r="M99" s="16"/>
       <c r="N99" s="16"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14">
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="E100" s="5"/>
@@ -1958,7 +4119,7 @@
       <c r="M100" s="16"/>
       <c r="N100" s="16"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="E101" s="5"/>
@@ -1969,7 +4130,7 @@
       <c r="M101" s="16"/>
       <c r="N101" s="16"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14">
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="E102" s="5"/>
@@ -1980,7 +4141,7 @@
       <c r="M102" s="16"/>
       <c r="N102" s="16"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14">
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="E103" s="5"/>
@@ -1991,7 +4152,7 @@
       <c r="M103" s="16"/>
       <c r="N103" s="16"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14">
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="E104" s="5"/>
@@ -2002,7 +4163,7 @@
       <c r="M104" s="16"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14">
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="E105" s="5"/>
@@ -2013,7 +4174,7 @@
       <c r="M105" s="16"/>
       <c r="N105" s="16"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14">
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="E106" s="5"/>
@@ -2024,7 +4185,7 @@
       <c r="M106" s="16"/>
       <c r="N106" s="16"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14">
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="E107" s="5"/>
@@ -2035,7 +4196,7 @@
       <c r="M107" s="16"/>
       <c r="N107" s="16"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14">
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="E108" s="5"/>
@@ -2046,7 +4207,7 @@
       <c r="M108" s="16"/>
       <c r="N108" s="16"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14">
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="E109" s="5"/>
@@ -2057,7 +4218,7 @@
       <c r="M109" s="16"/>
       <c r="N109" s="16"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14">
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="E110" s="5"/>
@@ -2068,7 +4229,7 @@
       <c r="M110" s="16"/>
       <c r="N110" s="16"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14">
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="E111" s="5"/>
@@ -2079,7 +4240,7 @@
       <c r="M111" s="16"/>
       <c r="N111" s="16"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14">
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="E112" s="5"/>
@@ -2090,7 +4251,7 @@
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14">
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="E113" s="5"/>
@@ -2101,7 +4262,7 @@
       <c r="M113" s="16"/>
       <c r="N113" s="16"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14">
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="E114" s="5"/>
@@ -2112,7 +4273,7 @@
       <c r="M114" s="16"/>
       <c r="N114" s="16"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14">
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="E115" s="5"/>
@@ -2123,7 +4284,7 @@
       <c r="M115" s="16"/>
       <c r="N115" s="16"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14">
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="E116" s="5"/>
@@ -2134,7 +4295,7 @@
       <c r="M116" s="16"/>
       <c r="N116" s="16"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14">
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="E117" s="5"/>
@@ -2145,7 +4306,7 @@
       <c r="M117" s="16"/>
       <c r="N117" s="16"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14">
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="E118" s="5"/>
@@ -2156,7 +4317,7 @@
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14">
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="E119" s="5"/>
@@ -2167,7 +4328,7 @@
       <c r="M119" s="16"/>
       <c r="N119" s="16"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14">
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="E120" s="5"/>
@@ -2178,7 +4339,7 @@
       <c r="M120" s="16"/>
       <c r="N120" s="16"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14">
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="E121" s="5"/>
@@ -2189,7 +4350,7 @@
       <c r="M121" s="16"/>
       <c r="N121" s="16"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14">
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="E122" s="5"/>
@@ -2200,7 +4361,7 @@
       <c r="M122" s="16"/>
       <c r="N122" s="16"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14">
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="E123" s="5"/>
@@ -2211,7 +4372,7 @@
       <c r="M123" s="16"/>
       <c r="N123" s="16"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14">
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="E124" s="5"/>
@@ -2222,7 +4383,7 @@
       <c r="M124" s="16"/>
       <c r="N124" s="16"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14">
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="E125" s="5"/>
@@ -2233,7 +4394,7 @@
       <c r="M125" s="16"/>
       <c r="N125" s="16"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14">
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="E126" s="5"/>
@@ -2244,7 +4405,7 @@
       <c r="M126" s="16"/>
       <c r="N126" s="16"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14">
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="E127" s="5"/>
@@ -2255,7 +4416,7 @@
       <c r="M127" s="16"/>
       <c r="N127" s="16"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14">
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="E128" s="5"/>
@@ -2266,7 +4427,7 @@
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="E129" s="5"/>
@@ -2277,7 +4438,7 @@
       <c r="M129" s="16"/>
       <c r="N129" s="16"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="E130" s="5"/>
@@ -2288,7 +4449,7 @@
       <c r="M130" s="16"/>
       <c r="N130" s="16"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="E131" s="5"/>
@@ -2299,7 +4460,7 @@
       <c r="M131" s="16"/>
       <c r="N131" s="16"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="E132" s="5"/>
@@ -2310,7 +4471,7 @@
       <c r="M132" s="16"/>
       <c r="N132" s="16"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="E133" s="5"/>
@@ -2321,7 +4482,7 @@
       <c r="M133" s="16"/>
       <c r="N133" s="16"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="E134" s="5"/>
@@ -2332,7 +4493,7 @@
       <c r="M134" s="16"/>
       <c r="N134" s="16"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="E135" s="5"/>
@@ -2343,7 +4504,7 @@
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="E136" s="5"/>
@@ -2354,7 +4515,7 @@
       <c r="M136" s="16"/>
       <c r="N136" s="16"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="E137" s="5"/>
@@ -2365,7 +4526,7 @@
       <c r="M137" s="16"/>
       <c r="N137" s="16"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="E138" s="5"/>
@@ -2376,7 +4537,7 @@
       <c r="M138" s="16"/>
       <c r="N138" s="16"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="E139" s="5"/>
@@ -2387,7 +4548,7 @@
       <c r="M139" s="16"/>
       <c r="N139" s="16"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="E140" s="5"/>
@@ -2398,7 +4559,7 @@
       <c r="M140" s="16"/>
       <c r="N140" s="16"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="E141" s="5"/>
@@ -2409,7 +4570,7 @@
       <c r="M141" s="16"/>
       <c r="N141" s="16"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="E142" s="5"/>
@@ -2420,7 +4581,7 @@
       <c r="M142" s="16"/>
       <c r="N142" s="16"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="E143" s="5"/>
@@ -2431,7 +4592,7 @@
       <c r="M143" s="16"/>
       <c r="N143" s="16"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="E144" s="5"/>
@@ -2442,7 +4603,7 @@
       <c r="M144" s="16"/>
       <c r="N144" s="16"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="E145" s="5"/>
@@ -2453,7 +4614,7 @@
       <c r="M145" s="16"/>
       <c r="N145" s="16"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="E146" s="5"/>
@@ -2464,7 +4625,7 @@
       <c r="M146" s="16"/>
       <c r="N146" s="16"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="E147" s="5"/>
@@ -2475,7 +4636,7 @@
       <c r="M147" s="16"/>
       <c r="N147" s="16"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="E148" s="5"/>
@@ -2486,7 +4647,7 @@
       <c r="M148" s="16"/>
       <c r="N148" s="16"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="E149" s="5"/>
@@ -2497,7 +4658,7 @@
       <c r="M149" s="16"/>
       <c r="N149" s="16"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="E150" s="5"/>
@@ -2508,7 +4669,7 @@
       <c r="M150" s="16"/>
       <c r="N150" s="16"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="E151" s="5"/>
@@ -2519,7 +4680,7 @@
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="E152" s="5"/>
@@ -2530,7 +4691,7 @@
       <c r="M152" s="16"/>
       <c r="N152" s="16"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="E153" s="5"/>
@@ -2541,7 +4702,7 @@
       <c r="M153" s="16"/>
       <c r="N153" s="16"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="E154" s="5"/>
@@ -2552,7 +4713,7 @@
       <c r="M154" s="16"/>
       <c r="N154" s="16"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="E155" s="5"/>
@@ -2563,7 +4724,7 @@
       <c r="M155" s="16"/>
       <c r="N155" s="16"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="E156" s="5"/>
@@ -2574,7 +4735,7 @@
       <c r="M156" s="16"/>
       <c r="N156" s="16"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="E157" s="5"/>
@@ -2585,7 +4746,7 @@
       <c r="M157" s="16"/>
       <c r="N157" s="16"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="E158" s="5"/>
@@ -2596,7 +4757,7 @@
       <c r="M158" s="16"/>
       <c r="N158" s="16"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="E159" s="5"/>
@@ -2607,7 +4768,7 @@
       <c r="M159" s="16"/>
       <c r="N159" s="16"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="E160" s="5"/>
@@ -2618,7 +4779,7 @@
       <c r="M160" s="16"/>
       <c r="N160" s="16"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="E161" s="5"/>
@@ -2629,7 +4790,7 @@
       <c r="M161" s="16"/>
       <c r="N161" s="16"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="E162" s="5"/>
@@ -2640,7 +4801,7 @@
       <c r="M162" s="16"/>
       <c r="N162" s="16"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="E163" s="5"/>
@@ -2651,7 +4812,7 @@
       <c r="M163" s="16"/>
       <c r="N163" s="16"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="E164" s="5"/>
@@ -2662,7 +4823,7 @@
       <c r="M164" s="16"/>
       <c r="N164" s="16"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="E165" s="5"/>
@@ -2673,7 +4834,7 @@
       <c r="M165" s="16"/>
       <c r="N165" s="16"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="E166" s="5"/>
@@ -2684,7 +4845,7 @@
       <c r="M166" s="16"/>
       <c r="N166" s="16"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="E167" s="5"/>
@@ -2695,7 +4856,7 @@
       <c r="M167" s="16"/>
       <c r="N167" s="16"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="E168" s="5"/>
@@ -2706,7 +4867,7 @@
       <c r="M168" s="16"/>
       <c r="N168" s="16"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="E169" s="5"/>
@@ -2717,7 +4878,7 @@
       <c r="M169" s="16"/>
       <c r="N169" s="16"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="E170" s="5"/>
@@ -2728,7 +4889,7 @@
       <c r="M170" s="16"/>
       <c r="N170" s="16"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="E171" s="5"/>
@@ -2739,7 +4900,7 @@
       <c r="M171" s="16"/>
       <c r="N171" s="16"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="E172" s="5"/>
@@ -2750,7 +4911,7 @@
       <c r="M172" s="16"/>
       <c r="N172" s="16"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="E173" s="5"/>
@@ -2761,7 +4922,7 @@
       <c r="M173" s="16"/>
       <c r="N173" s="16"/>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:14">
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="E174" s="5"/>
@@ -2772,7 +4933,7 @@
       <c r="M174" s="16"/>
       <c r="N174" s="16"/>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:14">
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="E175" s="5"/>
@@ -2783,7 +4944,7 @@
       <c r="M175" s="16"/>
       <c r="N175" s="16"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:14">
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="E176" s="5"/>
@@ -2794,7 +4955,7 @@
       <c r="M176" s="16"/>
       <c r="N176" s="16"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:14">
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="E177" s="5"/>
@@ -2805,7 +4966,7 @@
       <c r="M177" s="16"/>
       <c r="N177" s="16"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:14">
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="E178" s="5"/>
@@ -2816,7 +4977,7 @@
       <c r="M178" s="16"/>
       <c r="N178" s="16"/>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:14">
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="E179" s="5"/>
@@ -2827,7 +4988,7 @@
       <c r="M179" s="16"/>
       <c r="N179" s="16"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:14">
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="E180" s="5"/>
@@ -2838,7 +4999,7 @@
       <c r="M180" s="16"/>
       <c r="N180" s="16"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:14">
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="E181" s="5"/>
@@ -2849,7 +5010,7 @@
       <c r="M181" s="16"/>
       <c r="N181" s="16"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:14">
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="E182" s="5"/>
@@ -2860,7 +5021,7 @@
       <c r="M182" s="16"/>
       <c r="N182" s="16"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:14">
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="E183" s="5"/>
@@ -2871,7 +5032,7 @@
       <c r="M183" s="16"/>
       <c r="N183" s="16"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:14">
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="E184" s="5"/>
@@ -2882,7 +5043,7 @@
       <c r="M184" s="16"/>
       <c r="N184" s="16"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:14">
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="E185" s="5"/>
@@ -2893,7 +5054,7 @@
       <c r="M185" s="16"/>
       <c r="N185" s="16"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:14">
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="E186" s="5"/>
@@ -2904,7 +5065,7 @@
       <c r="M186" s="16"/>
       <c r="N186" s="16"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:14">
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="E187" s="5"/>
@@ -2915,7 +5076,7 @@
       <c r="M187" s="16"/>
       <c r="N187" s="16"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:14">
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="E188" s="5"/>
@@ -2926,7 +5087,7 @@
       <c r="M188" s="16"/>
       <c r="N188" s="16"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:14">
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="E189" s="5"/>
@@ -2937,7 +5098,7 @@
       <c r="M189" s="16"/>
       <c r="N189" s="16"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:14">
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="E190" s="5"/>
@@ -2948,7 +5109,7 @@
       <c r="M190" s="16"/>
       <c r="N190" s="16"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:14">
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="E191" s="5"/>
@@ -2959,7 +5120,7 @@
       <c r="M191" s="16"/>
       <c r="N191" s="16"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:14">
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="E192" s="5"/>
@@ -2970,7 +5131,7 @@
       <c r="M192" s="16"/>
       <c r="N192" s="16"/>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:14">
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="E193" s="5"/>
@@ -2981,7 +5142,7 @@
       <c r="M193" s="16"/>
       <c r="N193" s="16"/>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:14">
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="E194" s="5"/>
@@ -2992,7 +5153,7 @@
       <c r="M194" s="16"/>
       <c r="N194" s="16"/>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:14">
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="E195" s="5"/>
@@ -3003,7 +5164,7 @@
       <c r="M195" s="16"/>
       <c r="N195" s="16"/>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:14">
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="E196" s="5"/>
@@ -3014,7 +5175,7 @@
       <c r="M196" s="16"/>
       <c r="N196" s="16"/>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:14">
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="E197" s="5"/>
@@ -3025,7 +5186,7 @@
       <c r="M197" s="16"/>
       <c r="N197" s="16"/>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:14">
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="E198" s="5"/>
@@ -3036,7 +5197,7 @@
       <c r="M198" s="16"/>
       <c r="N198" s="16"/>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:14">
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="E199" s="5"/>
@@ -3047,7 +5208,7 @@
       <c r="M199" s="16"/>
       <c r="N199" s="16"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:14">
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="E200" s="5"/>
@@ -3058,604 +5219,604 @@
       <c r="M200" s="16"/>
       <c r="N200" s="16"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:14">
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:14">
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:14">
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:14">
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:14">
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:14">
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:14">
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:14">
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="12:12">
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="12:12">
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="12:12">
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="12:12">
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="12:12">
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="12:12">
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="12:12">
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="12:12">
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="12:12">
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="12:12">
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="12:12">
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="12:12">
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="12:12">
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="12:12">
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="12:12">
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="12:12">
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="12:12">
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="12:12">
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="12:12">
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="12:12">
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="12:12">
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="12:12">
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="12:12">
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="12:12">
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="12:12">
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="12:12">
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="12:12">
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="12:12">
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="12:12">
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="12:12">
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="12:12">
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="12:12">
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="12:12">
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="12:12">
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="12:12">
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="12:12">
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="12:12">
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="12:12">
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="12:12">
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="248" spans="12:12">
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="249" spans="12:12">
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="12:12">
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="12:12">
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="12:12">
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="12:12">
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="12:12">
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="12:12">
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="12:12">
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="257" spans="12:12">
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="258" spans="12:12">
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="12:12">
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="260" spans="12:12">
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="261" spans="12:12">
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="262" spans="12:12">
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="263" spans="12:12">
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="264" spans="12:12">
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="265" spans="12:12">
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="266" spans="12:12">
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="267" spans="12:12">
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="268" spans="12:12">
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="269" spans="12:12">
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="270" spans="12:12">
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="271" spans="12:12">
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="12:12">
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="273" spans="12:12">
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="274" spans="12:12">
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="275" spans="12:12">
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="276" spans="12:12">
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="277" spans="12:12">
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="278" spans="12:12">
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="279" spans="12:12">
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="280" spans="12:12">
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="281" spans="12:12">
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="12:12">
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="283" spans="12:12">
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="284" spans="12:12">
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="12:12">
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="286" spans="12:12">
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="12:12">
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="288" spans="12:12">
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="12:12">
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="12:12">
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="12:12">
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="12:12">
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="12:12">
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="12:12">
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="12:12">
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="12:12">
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="12:12">
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="12:12">
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="12:12">
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="12:12">
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="12:12">
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="12:12">
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="12:12">
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="12:12">
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="12:12">
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="12:12">
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="12:12">
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="12:12">
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="12:12">
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="12:12">
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="12:12">
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="12:12">
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="12:12">
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="12:12">
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="12:12">
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="12:12">
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="12:12">
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="12:12">
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="12:12">
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="12:12">
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="321" spans="12:12">
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="322" spans="12:12">
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="323" spans="12:12">
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="324" spans="12:12">
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="12:12">
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="12:12">
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="12:12">
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="328" spans="12:12">
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="12:12">
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="330" spans="12:12">
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="12:12">
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="12:12">
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="333" spans="12:12">
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="334" spans="12:12">
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="335" spans="12:12">
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="336" spans="12:12">
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="12:12">
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="12:12">
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="339" spans="12:12">
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="12:12">
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="12:12">
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="12:12">
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="12:12">
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="12:12">
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="12:12">
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="12:12">
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="12:12">
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="12:12">
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="12:12">
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="350" spans="12:12">
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="12:12">
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="12:12">
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="353" spans="12:12">
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="354" spans="12:12">
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="355" spans="12:12">
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="356" spans="12:12">
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="357" spans="12:12">
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="358" spans="12:12">
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="359" spans="12:12">
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="360" spans="12:12">
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="361" spans="12:12">
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="362" spans="12:12">
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="363" spans="12:12">
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="364" spans="12:12">
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="365" spans="12:12">
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="366" spans="12:12">
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="367" spans="12:12">
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="368" spans="12:12">
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="369" spans="12:12">
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="370" spans="12:12">
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="371" spans="12:12">
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="372" spans="12:12">
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="373" spans="12:12">
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="374" spans="12:12">
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="375" spans="12:12">
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="376" spans="12:12">
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="377" spans="12:12">
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="378" spans="12:12">
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="379" spans="12:12">
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="380" spans="12:12">
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="381" spans="12:12">
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="382" spans="12:12">
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="383" spans="12:12">
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="12:12">
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="385" spans="12:12">
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="12:12">
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="12:12">
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="12:12">
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="12:12">
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="12:12">
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="12:12">
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="12:12">
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="12:12">
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="12:12">
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="395" spans="12:12">
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="396" spans="12:12">
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="12:12">
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="12:12">
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="12:12">
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="12:12">
       <c r="L400" s="9"/>
     </row>
   </sheetData>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8D5731A-45C4-433F-8AA9-3D2D2EA1FAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088585D0-5F60-423E-8CCB-C8BF9487C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -895,8 +895,8 @@
   </sheetPr>
   <dimension ref="A2:V400"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -908,7 +908,7 @@
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="7" width="13.1328125" customWidth="1"/>
     <col min="8" max="10" width="13.1328125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.53125" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="13.1328125" style="17" customWidth="1"/>
     <col min="14" max="14" width="14.796875" style="17" bestFit="1" customWidth="1"/>
@@ -1090,7 +1090,7 @@
         <v>0.10980570587494648</v>
       </c>
       <c r="V5" s="19" t="str">
-        <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
+        <f t="shared" ref="V5:V41" si="0">IF(D5&lt;=H5,-(I5/D5-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
         <v>0.35546835552606143</v>
       </c>
       <c r="V6" s="19" t="str">
-        <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <v>0.17445779619528262</v>
       </c>
       <c r="V7" s="19" t="str">
-        <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
         <v>-3.5319141001935742E-2</v>
       </c>
       <c r="V8" s="19" t="str">
-        <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>0.22552196235025673</v>
       </c>
       <c r="V9" s="19">
-        <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
+        <f t="shared" si="0"/>
         <v>5.871522206716917E-2</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
         <v>4.9902853833308697E-2</v>
       </c>
       <c r="V10" s="19" t="str">
-        <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
         <v>-0.11044830732057855</v>
       </c>
       <c r="V11" s="19" t="str">
-        <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
         <v>9.3294561862408407E-2</v>
       </c>
       <c r="V12" s="19" t="str">
-        <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
         <v>6.6194720593479306E-2</v>
       </c>
       <c r="V13" s="19" t="str">
-        <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
         <v>7.3081874090513851E-2</v>
       </c>
       <c r="V14" s="19" t="str">
-        <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
         <v>0.20774429762625654</v>
       </c>
       <c r="V15" s="19" t="str">
-        <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>-4.5622430706520396E-2</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
         <v>0.12419023710495804</v>
       </c>
       <c r="V17" s="19" t="str">
-        <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
         <v>0.11437878179622009</v>
       </c>
       <c r="V18" s="19" t="str">
-        <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
         <v>4.9816835181438444E-2</v>
       </c>
       <c r="V19" s="19">
-        <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
+        <f t="shared" si="0"/>
         <v>0.24795876301542896</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>7.6565193025493528E-2</v>
       </c>
       <c r="V20" s="19" t="str">
-        <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
         <v>0.36602055622301682</v>
       </c>
       <c r="V21" s="19" t="str">
-        <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>8.1342449801464822E-2</v>
       </c>
       <c r="V22" s="19" t="str">
-        <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2278,7 +2278,7 @@
         <v>0.12232431421528413</v>
       </c>
       <c r="V23" s="19" t="str">
-        <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>0.19964406567112258</v>
       </c>
       <c r="V24" s="19" t="str">
-        <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>0.34620797227785238</v>
       </c>
       <c r="V25" s="19" t="str">
-        <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V26" s="19" t="str">
-        <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
         <v>0.11237749163404374</v>
       </c>
       <c r="V27" s="19" t="str">
-        <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>0.10654780430421051</v>
       </c>
       <c r="V28" s="19" t="str">
-        <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>5.5156426590839844E-2</v>
       </c>
       <c r="V29" s="19" t="str">
-        <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
         <v>0.12114381924831638</v>
       </c>
       <c r="V30" s="19" t="str">
-        <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
         <v>7.4842321832102252E-2</v>
       </c>
       <c r="V31" s="19" t="str">
-        <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>0.29263922070029547</v>
       </c>
       <c r="V32" s="19" t="str">
-        <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
         <v>0.15564608795570867</v>
       </c>
       <c r="V33" s="19" t="str">
-        <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
         <v>0.20923165729470938</v>
       </c>
       <c r="V34" s="19" t="str">
-        <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
         <v>0.37552834490355302</v>
       </c>
       <c r="V35" s="19" t="str">
-        <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
         <v>0.29524894411244107</v>
       </c>
       <c r="V36" s="19" t="str">
-        <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
         <v>0.17490983040442024</v>
       </c>
       <c r="V37" s="19" t="str">
-        <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
         <v>0.2067479536230501</v>
       </c>
       <c r="V38" s="19" t="str">
-        <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
         <v>4.9862433731434744E-2</v>
       </c>
       <c r="V39" s="19" t="str">
-        <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
         <v>0.12544574278854531</v>
       </c>
       <c r="V40" s="19" t="str">
-        <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
         <v>-0.22591626294706857</v>
       </c>
       <c r="V41" s="19" t="str">
-        <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088585D0-5F60-423E-8CCB-C8BF9487C4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7E7A6-954C-4992-AC93-A46BC30B1A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Stock Monitor</t>
-  </si>
-  <si>
-    <t>Normalized E/P</t>
   </si>
   <si>
     <t>Normalized D/P</t>
@@ -373,15 +370,65 @@
   </si>
   <si>
     <t>C0008</t>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鴻基地產</t>
+  </si>
+  <si>
+    <t>0179.HK</t>
+  </si>
+  <si>
+    <t>JOHNSON ELECTRIC</t>
+  </si>
+  <si>
+    <t>0300.HK</t>
+  </si>
+  <si>
+    <t>美的集團</t>
+  </si>
+  <si>
+    <t>0669.HK</t>
+  </si>
+  <si>
+    <t>創科實業</t>
+  </si>
+  <si>
+    <t>0831.HK</t>
+  </si>
+  <si>
+    <t>利亞零售</t>
+  </si>
+  <si>
+    <t>1066.HK</t>
+  </si>
+  <si>
+    <t>威高股份</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
+    <t>1836.HK</t>
+  </si>
+  <si>
+    <t>九興控股</t>
+  </si>
+  <si>
+    <t>0016.HK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="[$-13C09]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="0.00\x"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -499,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -548,6 +595,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -896,7 +948,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -906,14 +958,16 @@
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="20" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="7" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.1328125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="13.1328125" customWidth="1"/>
     <col min="8" max="10" width="13.1328125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="12.53125" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="13.1328125" style="17" customWidth="1"/>
     <col min="14" max="14" width="14.796875" style="17" bestFit="1" customWidth="1"/>
     <col min="15" max="20" width="12.796875" style="19" customWidth="1"/>
-    <col min="21" max="22" width="8.796875" style="19"/>
+    <col min="21" max="21" width="8.796875" style="19"/>
+    <col min="22" max="22" width="11.796875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="15" customHeight="1">
@@ -924,7 +978,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="23"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="18"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="18"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -935,32 +989,32 @@
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
       <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" ht="26" customHeight="1">
@@ -976,91 +1030,91 @@
       <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="N4" s="15" t="s">
         <v>4</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D5" s="20">
-        <v>71.95</v>
+        <v>7.62</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="19">
-        <v>5.8122355553100254E-2</v>
+      <c r="F5" s="26">
+        <v>33.020816788287952</v>
       </c>
       <c r="G5" s="19">
-        <v>6.597670759899571E-2</v>
+        <v>7.6115485564304461E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>49.218330247282431</v>
+        <v>8.4637328379731631</v>
       </c>
       <c r="I5" s="20">
-        <v>41.835580710190065</v>
+        <v>7.194172912277188</v>
       </c>
       <c r="J5" s="20">
-        <v>82.70426276702554</v>
+        <v>12.461743906302926</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M5" s="16">
         <v>45593</v>
@@ -1069,76 +1123,76 @@
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P5" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.12367370222475756</v>
       </c>
       <c r="Q5" s="19">
-        <v>2.3869305285384647E-2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="19">
-        <v>0.55863466227121317</v>
+        <v>1.0724472333143184E-2</v>
       </c>
       <c r="T5" s="19">
-        <v>0</v>
+        <v>1.038220193953223E-2</v>
       </c>
       <c r="U5" s="19">
-        <v>0.10980570587494648</v>
-      </c>
-      <c r="V5" s="19" t="str">
-        <f t="shared" ref="V5:V41" si="0">IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v/>
+        <v>0.22552196235025673</v>
+      </c>
+      <c r="V5" s="19">
+        <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
+        <v>5.5882819911130199E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D6" s="20">
-        <v>91.8</v>
+        <v>109.6</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="19">
-        <v>0.10908828283235786</v>
+      <c r="F6" s="26">
+        <v>11.093079230266298</v>
       </c>
       <c r="G6" s="19">
-        <v>7.407407407407407E-2</v>
+        <v>1.7638084831028963E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>73.22290319252518</v>
+        <v>114.59065949168814</v>
       </c>
       <c r="I6" s="20">
-        <v>62.239467713646398</v>
+        <v>97.402060567934925</v>
       </c>
       <c r="J6" s="20">
-        <v>123.04046471656656</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>35</v>
+        <v>192.55297702364862</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="M6" s="16">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="N6" s="16">
         <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.60531106380837341</v>
       </c>
       <c r="P6" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.31327931266495485</v>
       </c>
       <c r="Q6" s="19">
         <v>0</v>
@@ -1147,184 +1201,184 @@
         <v>0</v>
       </c>
       <c r="S6" s="19">
-        <v>0.39159225009737869</v>
+        <v>9.0344684898005026E-3</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>0.35546835552606143</v>
-      </c>
-      <c r="V6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>7.2375155036871239E-2</v>
+      </c>
+      <c r="V6" s="19">
+        <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
+        <v>0.11129506781081266</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D7" s="20">
-        <v>33.4</v>
+        <v>14.66</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
-        <v>3.2601996314887513E-2</v>
+      <c r="F7" s="26">
+        <v>10.24597221832493</v>
       </c>
       <c r="G7" s="19">
-        <v>1.4970059880239521E-2</v>
+        <v>7.5034106412005461E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>9.6299121476162792</v>
+        <v>14.769435779228814</v>
       </c>
       <c r="I7" s="20">
-        <v>8.1854253254738367</v>
+        <v>12.456522142732988</v>
       </c>
       <c r="J7" s="20">
-        <v>16.181670135463456</v>
+        <v>28.75082273841975</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M7" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N7" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O7" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P7" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.16540000000000002</v>
       </c>
       <c r="Q7" s="19">
-        <v>1.6858097812807804E-3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="19">
-        <v>0</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="T7" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U7" s="19">
-        <v>0.17445779619528262</v>
-      </c>
-      <c r="V7" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>7.3081874090513851E-2</v>
+      </c>
+      <c r="V7" s="19">
+        <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
+        <v>0.15030544728970074</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D8" s="20">
-        <v>5.35</v>
+        <v>5.51</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="19">
-        <v>-2.3477212698921088E-2</v>
+      <c r="F8" s="26">
+        <v>8.3493086140990496</v>
       </c>
       <c r="G8" s="19">
-        <v>3.7298059299717953E-2</v>
+        <v>8.768251284064485E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>1.8051974303478957</v>
+        <v>5.5430566372840868</v>
       </c>
       <c r="I8" s="20">
-        <v>1.5344178157957113</v>
+        <v>4.1676360231094316</v>
       </c>
       <c r="J8" s="20">
-        <v>3.0333723609832344</v>
+        <v>11.838093840562999</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M8" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P8" s="19">
-        <v>0.44873026767330132</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q8" s="19">
-        <v>1.0703282304304319E-2</v>
+        <v>9.1579398111554088E-3</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
       </c>
       <c r="S8" s="19">
-        <v>0.12063647696552883</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="T8" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U8" s="19">
-        <v>-3.5319141001935742E-2</v>
-      </c>
-      <c r="V8" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>4.9816835181438444E-2</v>
+      </c>
+      <c r="V8" s="19">
+        <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
+        <v>0.24362322629592892</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D9" s="20">
-        <v>7.64</v>
+        <v>72.5</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="19">
-        <v>3.0204649550238803E-2</v>
+      <c r="F9" s="26">
+        <v>17.335778595085337</v>
       </c>
       <c r="G9" s="19">
-        <v>7.5916230366492143E-2</v>
+        <v>6.5479307963930325E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>8.4604890628315612</v>
+        <v>49.105942375731253</v>
       </c>
       <c r="I9" s="20">
-        <v>7.1914157034068271</v>
+        <v>41.740051019371563</v>
       </c>
       <c r="J9" s="20">
-        <v>12.456189170629852</v>
+        <v>82.515411255527766</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M9" s="16">
         <v>45593</v>
@@ -1333,76 +1387,76 @@
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.60969766115231028</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P9" s="19">
-        <v>0.12367370222475756</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q9" s="19">
-        <v>0</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="R9" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S9" s="19">
-        <v>1.0724472333143184E-2</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="T9" s="19">
-        <v>1.038220193953223E-2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>0.22552196235025673</v>
-      </c>
-      <c r="V9" s="19">
-        <f t="shared" si="0"/>
-        <v>5.871522206716917E-2</v>
+        <v>0.10980570587494648</v>
+      </c>
+      <c r="V9" s="19" t="str">
+        <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D10" s="20">
-        <v>6.36</v>
+        <v>92.45</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="19">
-        <v>0.17383183926682738</v>
+      <c r="F10" s="26">
+        <v>9.2317945050929477</v>
       </c>
       <c r="G10" s="19">
-        <v>8.6477987421383656E-2</v>
+        <v>7.3553272038939965E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>5.4517233144516588</v>
+        <v>73.045551955549286</v>
       </c>
       <c r="I10" s="20">
-        <v>4.6310399178250217</v>
+        <v>62.08871916221689</v>
       </c>
       <c r="J10" s="20">
-        <v>10.539869398420247</v>
+        <v>122.74245169517356</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M10" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.73600077942413045</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P10" s="19">
-        <v>0.20890317762054877</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q10" s="19">
         <v>0</v>
@@ -1411,367 +1465,367 @@
         <v>0</v>
       </c>
       <c r="S10" s="19">
-        <v>5.1931891220120593E-3</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="T10" s="19">
         <v>0</v>
       </c>
       <c r="U10" s="19">
-        <v>4.9902853833308697E-2</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V10" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D11" s="20">
-        <v>8.51</v>
+        <v>77.25</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="19">
-        <v>-1.6549085424336935E-2</v>
+      <c r="F11" s="26">
+        <v>14.778527020742755</v>
       </c>
       <c r="G11" s="19">
-        <v>0</v>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>0</v>
+        <v>15.594202042440495</v>
       </c>
       <c r="I11" s="20">
-        <v>0</v>
+        <v>12.975781464428103</v>
       </c>
       <c r="J11" s="20">
-        <v>0</v>
+        <v>49.916439672045541</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M11" s="16">
-        <v>45603</v>
+        <v>45625</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.54949235029228316</v>
       </c>
       <c r="P11" s="19">
-        <v>0.74823479113580682</v>
+        <v>0.10108242664951193</v>
       </c>
       <c r="Q11" s="19">
-        <v>0</v>
+        <v>1.0218987976510586E-2</v>
       </c>
       <c r="R11" s="19">
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>5.6582664391799292E-2</v>
       </c>
       <c r="T11" s="19">
-        <v>0</v>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="U11" s="19">
-        <v>-0.11044830732057855</v>
+        <v>0.27690377095281005</v>
       </c>
       <c r="V11" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" s="20">
-        <v>3.7</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="19">
-        <v>0.11295637070488061</v>
+      <c r="F12" s="26">
+        <v>31.729073512353718</v>
       </c>
       <c r="G12" s="19">
-        <v>6.5729729729729722E-2</v>
+        <v>1.4471780028943561E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>2.3581837761921571</v>
+        <v>9.579418057291651</v>
       </c>
       <c r="I12" s="20">
-        <v>2.0044562097633336</v>
+        <v>8.1425053486979024</v>
       </c>
       <c r="J12" s="20">
-        <v>4.232206573027339</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
+        <v>16.096822142989748</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="M12" s="16">
-        <v>45619</v>
+        <v>45603</v>
       </c>
       <c r="N12" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.68375747988736812</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P12" s="19">
-        <v>0.21895053202218998</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q12" s="19">
-        <v>2.4257361073934199E-4</v>
+        <v>1.6858097812807804E-3</v>
       </c>
       <c r="R12" s="19">
         <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>3.7548526172941428E-3</v>
+        <v>0</v>
       </c>
       <c r="T12" s="19">
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>9.3294561862408407E-2</v>
+        <v>0.17445779619528262</v>
       </c>
       <c r="V12" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D13" s="20">
-        <v>2.5</v>
+        <v>5.41</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="19">
-        <v>5.7822217686852029E-2</v>
+      <c r="F13" s="26">
+        <v>-43.0714329160284</v>
       </c>
       <c r="G13" s="19">
-        <v>2.5763784408569336E-2</v>
+        <v>3.6885050316151642E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>1.3221370534720356</v>
+        <v>1.8016381627892393</v>
       </c>
       <c r="I13" s="20">
-        <v>1.1238164954512302</v>
+        <v>1.5313924383708533</v>
       </c>
       <c r="J13" s="20">
-        <v>2.1601782649801553</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>55</v>
+        <v>3.0273915282741535</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="M13" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.82154354610382485</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P13" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q13" s="19">
-        <v>0</v>
+        <v>1.0703282304304319E-2</v>
       </c>
       <c r="R13" s="19">
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="T13" s="19">
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <v>6.6194720593479306E-2</v>
+        <v>-3.5319141001935742E-2</v>
       </c>
       <c r="V13" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D14" s="20">
-        <v>14.74</v>
+        <v>6.45</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="19">
-        <v>9.7069616274063589E-2</v>
+      <c r="F14" s="26">
+        <v>5.8340920033615413</v>
       </c>
       <c r="G14" s="19">
-        <v>7.4626865671641798E-2</v>
+        <v>8.5271317829457363E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>14.736409777527648</v>
+        <v>5.423911986195538</v>
       </c>
       <c r="I14" s="20">
-        <v>12.431861826906614</v>
+        <v>4.6101714356769081</v>
       </c>
       <c r="J14" s="20">
-        <v>28.681270013074275</v>
+        <v>10.48147005097346</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="16">
         <v>45593</v>
       </c>
       <c r="N14" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.72762956087193742</v>
+        <v>0.73600077942413045</v>
       </c>
       <c r="P14" s="19">
-        <v>0.16540000000000002</v>
+        <v>0.20890317762054877</v>
       </c>
       <c r="Q14" s="19">
         <v>0</v>
       </c>
       <c r="R14" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S14" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>5.1931891220120593E-3</v>
       </c>
       <c r="T14" s="19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U14" s="19">
-        <v>7.3081874090513851E-2</v>
+        <v>4.9902853833308697E-2</v>
       </c>
       <c r="V14" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D15" s="20">
-        <v>10.08</v>
+        <v>10.8</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="19">
-        <v>3.9600808101334734E-2</v>
+      <c r="F15" s="26">
+        <v>9.436760724083042</v>
       </c>
       <c r="G15" s="19">
-        <v>1.7039010764429808E-2</v>
+        <v>5.6349448604348255E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>1.2905394028564949</v>
+        <v>10.147668343584172</v>
       </c>
       <c r="I15" s="20">
-        <v>1.0969584924280207</v>
+        <v>8.625518092046546</v>
       </c>
       <c r="J15" s="20">
-        <v>2.1085523326270148</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>50</v>
+        <v>17.051684300215591</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="M15" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N15" s="16">
-        <v>45716</v>
+        <v>45808</v>
       </c>
       <c r="O15" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.77696054205677556</v>
       </c>
       <c r="P15" s="19">
-        <v>0.2941332211490556</v>
+        <v>0.14204607870614464</v>
       </c>
       <c r="Q15" s="19">
-        <v>9.3403926661713623E-3</v>
+        <v>1.0871617989521474E-3</v>
       </c>
       <c r="R15" s="19">
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>8.274315042185636E-3</v>
       </c>
       <c r="T15" s="19">
-        <v>0</v>
+        <v>2.3595955443495159E-2</v>
       </c>
       <c r="U15" s="19">
-        <v>0.20774429762625654</v>
+        <v>4.8035946952446888E-2</v>
       </c>
       <c r="V15" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D16" s="20">
-        <v>5.36</v>
+        <v>8.76</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="19">
-        <v>-9.3152968848614598E-2</v>
+      <c r="F16" s="26">
+        <v>-62.191839799357872</v>
       </c>
       <c r="G16" s="19">
-        <v>3.1683023262083235E-2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="20">
         <v>0</v>
@@ -1782,209 +1836,209 @@
       <c r="J16" s="20">
         <v>0</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>60</v>
+      <c r="K16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="M16" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P16" s="19">
-        <v>0.14930937614307849</v>
+        <v>0.74823479113580682</v>
       </c>
       <c r="Q16" s="19">
-        <v>7.2128562067984476E-4</v>
+        <v>0</v>
       </c>
       <c r="R16" s="19">
         <v>0</v>
       </c>
       <c r="S16" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="T16" s="19">
-        <v>2.8284501268352451E-2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>-4.5622430706520396E-2</v>
+        <v>-0.11044830732057855</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="D17" s="20">
-        <v>1.02</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="19">
-        <v>5.2356346993488491E-2</v>
+      <c r="F17" s="26">
+        <v>20.904684186376457</v>
       </c>
       <c r="G17" s="19">
-        <v>5.0820854194413602E-2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="20">
-        <v>0.47595066127829844</v>
+        <v>28.936638718583787</v>
       </c>
       <c r="I17" s="20">
-        <v>0.40455806208655365</v>
+        <v>24.596142910796218</v>
       </c>
       <c r="J17" s="20">
-        <v>0.77763365832334908</v>
+        <v>47.278228726224874</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="M17" s="16">
-        <v>45603</v>
+        <v>45625</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.69462498271442097</v>
+        <v>0.73672180139004328</v>
       </c>
       <c r="P17" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.16976569605864555</v>
       </c>
       <c r="Q17" s="19">
-        <v>0</v>
+        <v>9.0683554379893485E-5</v>
       </c>
       <c r="R17" s="19">
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>9.0252248239117653E-3</v>
       </c>
       <c r="T17" s="19">
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <v>0.12419023710495804</v>
+        <v>8.4396594173019507E-2</v>
       </c>
       <c r="V17" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D18" s="20">
-        <v>9.44</v>
+        <v>3.72</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="19">
-        <v>9.3833074991227255E-2</v>
+      <c r="F18" s="26">
+        <v>8.9008295781050961</v>
       </c>
       <c r="G18" s="19">
-        <v>6.7091104884942382E-2</v>
+        <v>6.5376344086021498E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>6.0509384971673432</v>
+        <v>2.3544484073779346</v>
       </c>
       <c r="I18" s="20">
-        <v>5.1432977225922416</v>
+        <v>2.0012811462712445</v>
       </c>
       <c r="J18" s="20">
-        <v>9.8863470999370531</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>66</v>
+        <v>4.2251944315919925</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="M18" s="16">
-        <v>45604</v>
+        <v>45619</v>
       </c>
       <c r="N18" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O18" s="19">
-        <v>0.6223905170283478</v>
+        <v>0.68375747988736812</v>
       </c>
       <c r="P18" s="19">
-        <v>0.25619685036829964</v>
+        <v>0.21895053202218998</v>
       </c>
       <c r="Q18" s="19">
-        <v>5.5277235668845723E-3</v>
+        <v>2.4257361073934199E-4</v>
       </c>
       <c r="R18" s="19">
         <v>0</v>
       </c>
       <c r="S18" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>3.7548526172941428E-3</v>
       </c>
       <c r="T18" s="19">
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>0.11437878179622009</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="V18" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D19" s="20">
-        <v>5.53</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="19">
-        <v>0.11931878094013711</v>
+      <c r="F19" s="26">
+        <v>17.360883575961761</v>
       </c>
       <c r="G19" s="19">
-        <v>8.7351890627773057E-2</v>
+        <v>2.5665107476283828E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>5.5300164617867456</v>
+        <v>1.3209578477061883</v>
       </c>
       <c r="I19" s="20">
-        <v>4.1587880405246782</v>
+        <v>1.1228141705502601</v>
       </c>
       <c r="J19" s="20">
-        <v>11.809856071348809</v>
+        <v>2.1582516155010918</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M19" s="16">
         <v>45605</v>
@@ -1993,196 +2047,196 @@
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.86263355974668987</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P19" s="19">
-        <v>5.04E-2</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q19" s="19">
-        <v>9.1579398111554088E-3</v>
+        <v>0</v>
       </c>
       <c r="R19" s="19">
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="T19" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>4.9816835181438444E-2</v>
-      </c>
-      <c r="V19" s="19">
-        <f t="shared" si="0"/>
-        <v>0.24795876301542896</v>
+        <v>6.6194720593479306E-2</v>
+      </c>
+      <c r="V19" s="19" t="str">
+        <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D20" s="20">
-        <v>0.17399999999999999</v>
+        <v>10.46</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="19">
-        <v>0.23479333029805602</v>
+      <c r="F20" s="26">
+        <v>26.199106028469853</v>
       </c>
       <c r="G20" s="19">
-        <v>6.9540229885057481E-2</v>
+        <v>1.6423051565448668E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>0.12756685751769817</v>
+        <v>1.2868750247834819</v>
       </c>
       <c r="I20" s="20">
-        <v>0.10843182889004344</v>
+        <v>1.0938437710659596</v>
       </c>
       <c r="J20" s="20">
-        <v>0.21435759505656835</v>
+        <v>2.1025652756519415</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M20" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.69931288683936033</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P20" s="19">
-        <v>0.22200134640260258</v>
+        <v>0.2941332211490556</v>
       </c>
       <c r="Q20" s="19">
-        <v>0</v>
+        <v>9.3403926661713623E-3</v>
       </c>
       <c r="R20" s="19">
         <v>0</v>
       </c>
       <c r="S20" s="19">
-        <v>2.1205737325435711E-3</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="T20" s="19">
         <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>7.6565193025493528E-2</v>
+        <v>0.20774429762625654</v>
       </c>
       <c r="V20" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D21" s="20">
-        <v>5.84</v>
+        <v>5.55</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="19">
-        <v>0.28306166911094233</v>
+      <c r="F21" s="26">
+        <v>-11.113500185462089</v>
       </c>
       <c r="G21" s="19">
-        <v>7.3524498504046437E-2</v>
+        <v>3.0604060681374581E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>4.2274941827507009</v>
+        <v>0</v>
       </c>
       <c r="I21" s="20">
-        <v>3.5933700553380956</v>
+        <v>0</v>
       </c>
       <c r="J21" s="20">
-        <v>6.9071062072773683</v>
+        <v>0</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M21" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N21" s="16">
         <v>45716</v>
       </c>
       <c r="O21" s="19">
-        <v>0.47700776116848903</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P21" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.14930937614307849</v>
       </c>
       <c r="Q21" s="19">
-        <v>0</v>
+        <v>7.2128562067984476E-4</v>
       </c>
       <c r="R21" s="19">
         <v>0</v>
       </c>
       <c r="S21" s="19">
-        <v>0</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="T21" s="19">
-        <v>0</v>
+        <v>2.8284501268352451E-2</v>
       </c>
       <c r="U21" s="19">
-        <v>0.36602055622301682</v>
+        <v>-4.5622430706520396E-2</v>
       </c>
       <c r="V21" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D22" s="20">
-        <v>71.95</v>
+        <v>1.02</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="19">
-        <v>4.276502653833357E-2</v>
+      <c r="F22" s="26">
+        <v>19.09692826847272</v>
       </c>
       <c r="G22" s="19">
-        <v>6.7853864075990075E-2</v>
+        <v>5.0828712164186961E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>46.81044848840255</v>
+        <v>0.47604256290779495</v>
       </c>
       <c r="I22" s="20">
-        <v>39.788881215142169</v>
+        <v>0.4046361784716257</v>
       </c>
       <c r="J22" s="20">
-        <v>76.481415548466899</v>
+        <v>0.77778381212323922</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M22" s="16">
         <v>45603</v>
@@ -2191,274 +2245,274 @@
         <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>0</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P22" s="19">
-        <v>0.8668930922046667</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q22" s="19">
-        <v>2.2325505205376484E-4</v>
+        <v>0</v>
       </c>
       <c r="R22" s="19">
-        <v>2.2215198715160572E-2</v>
+        <v>0</v>
       </c>
       <c r="S22" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="T22" s="19">
-        <v>2.5630406545468234E-2</v>
+        <v>0</v>
       </c>
       <c r="U22" s="19">
-        <v>8.1342449801464822E-2</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V22" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D23" s="20">
-        <v>4.9800000000000004</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="19">
-        <v>0.13113692171150865</v>
+      <c r="F23" s="26">
+        <v>10.949055201924116</v>
       </c>
       <c r="G23" s="19">
-        <v>7.0292078081862497E-2</v>
+        <v>6.5302882243677529E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>3.3948890235364924</v>
+        <v>6.0013353597684302</v>
       </c>
       <c r="I23" s="20">
-        <v>2.8856556700060185</v>
+        <v>5.1011350558031658</v>
       </c>
       <c r="J23" s="20">
-        <v>5.5467513457887856</v>
+        <v>9.8053028398109436</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="M23" s="16">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P23" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.25619685036829964</v>
       </c>
       <c r="Q23" s="19">
-        <v>3.9320610522022457E-3</v>
+        <v>5.5277235668845723E-3</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <v>0.49099920776112166</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="T23" s="19">
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>0.12232431421528413</v>
+        <v>0.11437878179622009</v>
       </c>
       <c r="V23" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="D24" s="20">
-        <v>3.89</v>
+        <v>0.44</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="19">
-        <v>0.15565240391913782</v>
+      <c r="F24" s="26">
+        <v>-2.4641606328865073</v>
       </c>
       <c r="G24" s="19">
-        <v>6.3717577862964281E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="H24" s="20">
-        <v>2.3308742355482686</v>
+        <v>0.42822770035573132</v>
       </c>
       <c r="I24" s="20">
-        <v>1.9812431002160282</v>
+        <v>0.3639935453023716</v>
       </c>
       <c r="J24" s="20">
-        <v>3.8083070501738283</v>
+        <v>0.71957451779451564</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M24" s="16">
-        <v>45593</v>
+        <v>45624</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.46570281556597115</v>
       </c>
       <c r="P24" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.49096154234108225</v>
       </c>
       <c r="Q24" s="19">
-        <v>4.6925281602255647E-4</v>
+        <v>0</v>
       </c>
       <c r="R24" s="19">
-        <v>0</v>
+        <v>3.9525516276755275E-2</v>
       </c>
       <c r="S24" s="19">
-        <v>0.49449639261897682</v>
+        <v>0</v>
       </c>
       <c r="T24" s="19">
-        <v>0</v>
+        <v>0.11560295610891069</v>
       </c>
       <c r="U24" s="19">
-        <v>0.19964406567112258</v>
+        <v>-0.11179283029271934</v>
       </c>
       <c r="V24" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D25" s="20">
-        <v>4.5599999999999996</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="19">
-        <v>0.26461795888510076</v>
+      <c r="F25" s="26">
+        <v>4.2590647644486328</v>
       </c>
       <c r="G25" s="19">
-        <v>7.2128822935952089E-2</v>
+        <v>6.9540229885057481E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>3.2172650997711023</v>
+        <v>0.12756685751769817</v>
       </c>
       <c r="I25" s="20">
-        <v>2.7346753348054369</v>
+        <v>0.10843182889004344</v>
       </c>
       <c r="J25" s="20">
-        <v>5.2565398745567649</v>
+        <v>0.21435759505656835</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M25" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N25" s="16">
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.69931288683936033</v>
       </c>
       <c r="P25" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.22200134640260258</v>
       </c>
       <c r="Q25" s="19">
-        <v>9.7044800044936142E-4</v>
+        <v>0</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <v>0.48610500800425166</v>
+        <v>2.1205737325435711E-3</v>
       </c>
       <c r="T25" s="19">
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <v>0.34620797227785238</v>
+        <v>7.6565193025493528E-2</v>
       </c>
       <c r="V25" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D26" s="20">
-        <v>77.599999999999994</v>
+        <v>5.85</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="19">
-        <v>-1.0436935615503904E-2</v>
+      <c r="F26" s="26">
+        <v>3.5383012829882281</v>
       </c>
       <c r="G26" s="19">
-        <v>0</v>
+        <v>7.3410164596688046E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>0</v>
+        <v>4.2258967629465198</v>
       </c>
       <c r="I26" s="20">
-        <v>0</v>
+        <v>3.5920122485045418</v>
       </c>
       <c r="J26" s="20">
-        <v>0</v>
+        <v>6.9044962573240118</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="M26" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P26" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q26" s="19">
         <v>0</v>
@@ -2467,118 +2521,118 @@
         <v>0</v>
       </c>
       <c r="S26" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="19">
         <v>0</v>
       </c>
       <c r="U26" s="19">
-        <v>-4.3026634739724949E-2</v>
+        <v>0.36602055622301682</v>
       </c>
       <c r="V26" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D27" s="20">
-        <v>4.9400000000000004</v>
+        <v>72.3</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="19">
-        <v>6.2661719760745055E-2</v>
+      <c r="F27" s="26">
+        <v>23.493710198593874</v>
       </c>
       <c r="G27" s="19">
-        <v>3.2024291497975706E-2</v>
+        <v>6.7535828396492484E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>3.5521767514317446</v>
+        <v>46.748010032609393</v>
       </c>
       <c r="I27" s="20">
-        <v>3.0193502387169828</v>
+        <v>39.735808527717985</v>
       </c>
       <c r="J27" s="20">
-        <v>5.9498783711894268</v>
+        <v>76.379400258335593</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="M27" s="16">
-        <v>45591</v>
+        <v>45603</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.66005868735054896</v>
+        <v>0</v>
       </c>
       <c r="P27" s="19">
-        <v>0.21645682425674254</v>
+        <v>0.8668930922046667</v>
       </c>
       <c r="Q27" s="19">
-        <v>1.0365594158118095E-3</v>
+        <v>2.2325505205376484E-4</v>
       </c>
       <c r="R27" s="19">
-        <v>0</v>
+        <v>2.2215198715160572E-2</v>
       </c>
       <c r="S27" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="T27" s="19">
-        <v>0.01</v>
+        <v>2.5630406545468234E-2</v>
       </c>
       <c r="U27" s="19">
-        <v>0.11237749163404374</v>
+        <v>8.1342449801464822E-2</v>
       </c>
       <c r="V27" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D28" s="20">
-        <v>4.46</v>
+        <v>4.96</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="19">
-        <v>0.1065682329180931</v>
+      <c r="F28" s="26">
+        <v>7.5938183278344065</v>
       </c>
       <c r="G28" s="19">
-        <v>6.2818935874331697E-2</v>
+        <v>7.0586426334996372E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>2.6236152902689507</v>
+        <v>3.4000854919789276</v>
       </c>
       <c r="I28" s="20">
-        <v>2.2300729967286079</v>
+        <v>2.8900726681820883</v>
       </c>
       <c r="J28" s="20">
-        <v>4.2866030498315961</v>
+        <v>5.5552416139909555</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M28" s="16">
         <v>45606</v>
@@ -2587,394 +2641,394 @@
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P28" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q28" s="19">
-        <v>3.7371996362297238E-4</v>
+        <v>3.9320610522022457E-3</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
       </c>
       <c r="S28" s="19">
-        <v>0.39408770164042439</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="T28" s="19">
         <v>0</v>
       </c>
       <c r="U28" s="19">
-        <v>0.10654780430421051</v>
+        <v>0.12232431421528413</v>
       </c>
       <c r="V28" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D29" s="20">
-        <v>4.58</v>
+        <v>4.5</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="19">
-        <v>7.9143102699204701E-2</v>
+      <c r="F29" s="26">
+        <v>13.69274836568964</v>
       </c>
       <c r="G29" s="19">
-        <v>4.6875881142317812E-2</v>
+        <v>4.0011617387665649E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>1.8640999529379689</v>
+        <v>3.228213554030094</v>
       </c>
       <c r="I29" s="20">
-        <v>1.5844849599972735</v>
+        <v>2.7439815209255798</v>
       </c>
       <c r="J29" s="20">
-        <v>3.0456662503425567</v>
+        <v>5.2744280449724537</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="M29" s="16">
-        <v>45593</v>
+        <v>45625</v>
       </c>
       <c r="N29" s="16">
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>0.78463553343209413</v>
+        <v>0.49786034237394394</v>
       </c>
       <c r="P29" s="19">
-        <v>0.16010732347610457</v>
+        <v>0.33448624066316274</v>
       </c>
       <c r="Q29" s="19">
-        <v>1.2515926965280349E-5</v>
+        <v>6.0164745032668145E-3</v>
       </c>
       <c r="R29" s="19">
         <v>0</v>
       </c>
       <c r="S29" s="19">
-        <v>0</v>
+        <v>2.063358175126364E-2</v>
       </c>
       <c r="T29" s="19">
-        <v>8.8200573996119572E-5</v>
+        <v>0</v>
       </c>
       <c r="U29" s="19">
-        <v>5.5156426590839844E-2</v>
+        <v>0.14100336070836289</v>
       </c>
       <c r="V29" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D30" s="20">
-        <v>20.3</v>
+        <v>3.88</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="19">
-        <v>8.771758247183653E-2</v>
+      <c r="F30" s="26">
+        <v>6.4068662871952888</v>
       </c>
       <c r="G30" s="19">
-        <v>3.933259443931391E-2</v>
+        <v>6.3893659896252494E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>18.805316875027117</v>
+        <v>2.3332372270793842</v>
       </c>
       <c r="I30" s="20">
-        <v>15.98451934377305</v>
+        <v>1.9832516430174765</v>
       </c>
       <c r="J30" s="20">
-        <v>32.457821065650023</v>
+        <v>3.8121678321800836</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="M30" s="16">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N30" s="16">
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P30" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q30" s="19">
-        <v>1.2057353899630675E-2</v>
+        <v>4.6925281602255647E-4</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="T30" s="19">
         <v>0</v>
       </c>
       <c r="U30" s="19">
-        <v>0.12114381924831638</v>
+        <v>0.19964406567112258</v>
       </c>
       <c r="V30" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D31" s="20">
-        <v>7.12</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="19">
-        <v>8.5810990160419792E-2</v>
+      <c r="F31" s="26">
+        <v>3.7783314490689537</v>
       </c>
       <c r="G31" s="19">
-        <v>7.7247191011235963E-2</v>
+        <v>7.2142215702268808E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>5.2418736488399169</v>
+        <v>3.2180634651967575</v>
       </c>
       <c r="I31" s="20">
-        <v>4.4555926015139296</v>
+        <v>2.735353945417244</v>
       </c>
       <c r="J31" s="20">
-        <v>10.099675550651723</v>
+        <v>5.2578442867094113</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M31" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N31" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>0.79501071628968012</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P31" s="19">
-        <v>0.12234231416665901</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q31" s="19">
-        <v>1.3233621247382252E-3</v>
+        <v>9.7044800044936142E-4</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
       </c>
       <c r="S31" s="19">
-        <v>6.4812855868203439E-3</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="T31" s="19">
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <v>7.4842321832102252E-2</v>
+        <v>0.34620797227785238</v>
       </c>
       <c r="V31" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D32" s="20">
-        <v>24.25</v>
+        <v>77.95</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="19">
-        <v>0.12611611180762716</v>
+      <c r="F32" s="26">
+        <v>-96.227845510400371</v>
       </c>
       <c r="G32" s="19">
-        <v>6.1030927835051547E-2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="20">
-        <v>14.992318312184075</v>
+        <v>0</v>
       </c>
       <c r="I32" s="20">
-        <v>12.743470565356464</v>
+        <v>0</v>
       </c>
       <c r="J32" s="20">
-        <v>25.192415649781665</v>
+        <v>0</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="M32" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N32" s="16">
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P32" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q32" s="19">
-        <v>1.9313252769435827E-2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
       </c>
       <c r="S32" s="19">
-        <v>0.54295694135635775</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="T32" s="19">
         <v>0</v>
       </c>
       <c r="U32" s="19">
-        <v>0.29263922070029547</v>
+        <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V32" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D33" s="20">
-        <v>95.65</v>
+        <v>5.05</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F33" s="19">
-        <v>0.15112438048801777</v>
+      <c r="F33" s="26">
+        <v>16.314062403345343</v>
       </c>
       <c r="G33" s="19">
-        <v>2.4408384822640065E-2</v>
+        <v>3.1326732673267327E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>19.840677661588465</v>
+        <v>3.535518538951151</v>
       </c>
       <c r="I33" s="20">
-        <v>16.864576012350195</v>
+        <v>3.0051907581084785</v>
       </c>
       <c r="J33" s="20">
-        <v>33.339380075586128</v>
+        <v>5.9179894036649658</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="M33" s="16">
-        <v>45606</v>
+        <v>45591</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P33" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.21645682425674254</v>
       </c>
       <c r="Q33" s="19">
-        <v>0</v>
+        <v>1.0365594158118095E-3</v>
       </c>
       <c r="R33" s="19">
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <v>0.50814791601378884</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="T33" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U33" s="19">
-        <v>0.15564608795570867</v>
+        <v>0.11237749163404374</v>
       </c>
       <c r="V33" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D34" s="20">
-        <v>5.68</v>
+        <v>4.41</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="19">
-        <v>0.20247435645634193</v>
+      <c r="F34" s="26">
+        <v>9.2767389291541598</v>
       </c>
       <c r="G34" s="19">
-        <v>7.0870885441840545E-2</v>
+        <v>6.3542965074785712E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>3.9145338464153929</v>
+        <v>2.6330527742295469</v>
       </c>
       <c r="I34" s="20">
-        <v>3.3273537694530839</v>
+        <v>2.2380948580951148</v>
       </c>
       <c r="J34" s="20">
-        <v>6.3957748633920666</v>
+        <v>4.3020225161223582</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M34" s="16">
         <v>45606</v>
@@ -2983,328 +3037,328 @@
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P34" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q34" s="19">
-        <v>1.3780163008283218E-3</v>
+        <v>3.7371996362297238E-4</v>
       </c>
       <c r="R34" s="19">
         <v>0</v>
       </c>
       <c r="S34" s="19">
-        <v>0.583299310268654</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="T34" s="19">
         <v>0</v>
       </c>
       <c r="U34" s="19">
-        <v>0.20923165729470938</v>
+        <v>0.10654780430421051</v>
       </c>
       <c r="V34" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D35" s="20">
-        <v>35</v>
+        <v>4.55</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F35" s="19">
-        <v>0.16044867175230934</v>
+      <c r="F35" s="26">
+        <v>12.550245313061588</v>
       </c>
       <c r="G35" s="19">
-        <v>6.0481672609420049E-2</v>
+        <v>4.71937141138992E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>19.605863562237623</v>
+        <v>1.8672780372276283</v>
       </c>
       <c r="I35" s="20">
-        <v>16.66498402790198</v>
+        <v>1.587186331643484</v>
       </c>
       <c r="J35" s="20">
-        <v>32.033108989791955</v>
+        <v>3.0508587745130034</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="M35" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P35" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.16010732347610457</v>
       </c>
       <c r="Q35" s="19">
-        <v>3.9962087250557162E-3</v>
+        <v>1.2515926965280349E-5</v>
       </c>
       <c r="R35" s="19">
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <v>0.34356507928375646</v>
+        <v>0</v>
       </c>
       <c r="T35" s="19">
-        <v>0</v>
+        <v>8.8200573996119572E-5</v>
       </c>
       <c r="U35" s="19">
-        <v>0.37552834490355302</v>
+        <v>5.5156426590839844E-2</v>
       </c>
       <c r="V35" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D36" s="20">
-        <v>3.58</v>
+        <v>14.22</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="19">
-        <v>0.25739558633890658</v>
+      <c r="F36" s="26">
+        <v>11.863895576005444</v>
       </c>
       <c r="G36" s="19">
-        <v>8.9954554035676912E-2</v>
+        <v>7.2433192686357242E-2</v>
       </c>
       <c r="H36" s="20">
-        <v>3.4207901633105022</v>
+        <v>12.404422081762407</v>
       </c>
       <c r="I36" s="20">
-        <v>2.9076716388139268</v>
+        <v>10.543758769498046</v>
       </c>
       <c r="J36" s="20">
-        <v>5.5890700139110487</v>
+        <v>20.267008552778449</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M36" s="16">
-        <v>45605</v>
+        <v>45624</v>
       </c>
       <c r="N36" s="16">
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>0.75431095413462357</v>
       </c>
       <c r="P36" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.13135421474946254</v>
       </c>
       <c r="Q36" s="19">
-        <v>0</v>
+        <v>7.2979774463912414E-4</v>
       </c>
       <c r="R36" s="19">
         <v>0</v>
       </c>
       <c r="S36" s="19">
-        <v>0</v>
+        <v>6.3176187869769956E-4</v>
       </c>
       <c r="T36" s="19">
-        <v>0.49757189674208302</v>
+        <v>0</v>
       </c>
       <c r="U36" s="19">
-        <v>0.29524894411244107</v>
+        <v>0.11297327149257705</v>
       </c>
       <c r="V36" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D37" s="20">
-        <v>196.1</v>
+        <v>21</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="19">
-        <v>1.3561077143413331E-2</v>
+      <c r="F37" s="26">
+        <v>11.793162144532678</v>
       </c>
       <c r="G37" s="19">
-        <v>0</v>
+        <v>3.8022062424251012E-2</v>
       </c>
       <c r="H37" s="20">
-        <v>0</v>
+        <v>18.476893239359814</v>
       </c>
       <c r="I37" s="20">
-        <v>0</v>
+        <v>15.705359253455841</v>
       </c>
       <c r="J37" s="20">
-        <v>0</v>
+        <v>31.935546403555552</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="M37" s="16">
-        <v>45593</v>
+        <v>45591</v>
       </c>
       <c r="N37" s="16">
         <v>45716</v>
       </c>
       <c r="O37" s="19">
-        <v>0.58108816177312361</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P37" s="19">
-        <v>0.23828361372817153</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q37" s="19">
-        <v>0</v>
+        <v>1.2057353899630675E-2</v>
       </c>
       <c r="R37" s="19">
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <v>5.7183940942846252E-3</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="T37" s="19">
         <v>0</v>
       </c>
       <c r="U37" s="19">
-        <v>0.17490983040442024</v>
+        <v>0.12114381924831638</v>
       </c>
       <c r="V37" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D38" s="20">
-        <v>5.63</v>
+        <v>7.13</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="19">
-        <v>6.3687554417683978E-2</v>
+      <c r="F38" s="26">
+        <v>11.669886252447871</v>
       </c>
       <c r="G38" s="19">
-        <v>5.941197380361788E-2</v>
+        <v>7.7138849929873785E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>4.3264349715430903</v>
+        <v>5.2394500218794722</v>
       </c>
       <c r="I38" s="20">
-        <v>3.6774697258116267</v>
+        <v>4.4535325185975516</v>
       </c>
       <c r="J38" s="20">
-        <v>6.7234079217472109</v>
+        <v>10.094597840968474</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="M38" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N38" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O38" s="19">
-        <v>0.35166796085418528</v>
+        <v>0.79501071628968012</v>
       </c>
       <c r="P38" s="19">
-        <v>0.43886385985236792</v>
+        <v>0.12234231416665901</v>
       </c>
       <c r="Q38" s="19">
-        <v>0</v>
+        <v>1.3233621247382252E-3</v>
       </c>
       <c r="R38" s="19">
         <v>0</v>
       </c>
       <c r="S38" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>6.4812855868203439E-3</v>
       </c>
       <c r="T38" s="19">
         <v>0</v>
       </c>
       <c r="U38" s="19">
-        <v>0.2067479536230501</v>
+        <v>7.4842321832102252E-2</v>
       </c>
       <c r="V38" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D39" s="20">
-        <v>1.87</v>
+        <v>23.9</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="19">
-        <v>2.6011720398773835E-2</v>
+      <c r="F39" s="26">
+        <v>7.8147589247964264</v>
       </c>
       <c r="G39" s="19">
-        <v>6.7622093308630671E-2</v>
+        <v>6.1924686192468624E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>1.5350151910750505</v>
+        <v>15.055568602950899</v>
       </c>
       <c r="I39" s="20">
-        <v>1.3047629124137929</v>
+        <v>12.797233312508263</v>
       </c>
       <c r="J39" s="20">
-        <v>2.2196771315829777</v>
+        <v>25.298698586268713</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="M39" s="16">
         <v>45593</v>
@@ -3313,64 +3367,64 @@
         <v>45716</v>
       </c>
       <c r="O39" s="19">
-        <v>0.55541924442229906</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P39" s="19">
-        <v>0.37949349616392825</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q39" s="19">
-        <v>1.8148224946381651E-3</v>
+        <v>1.9313252769435827E-2</v>
       </c>
       <c r="R39" s="19">
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="T39" s="19">
-        <v>1.2789175437999239E-2</v>
+        <v>0</v>
       </c>
       <c r="U39" s="19">
-        <v>4.9862433731434744E-2</v>
+        <v>0.29263922070029547</v>
       </c>
       <c r="V39" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D40" s="20">
-        <v>2.71</v>
+        <v>96.55</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F40" s="19">
-        <v>0.17505163300894644</v>
+      <c r="F40" s="26">
+        <v>6.679182024790892</v>
       </c>
       <c r="G40" s="19">
-        <v>8.3183067311220049E-2</v>
+        <v>2.4181388191211291E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>2.3210892225922706</v>
+        <v>19.819138235399119</v>
       </c>
       <c r="I40" s="20">
-        <v>1.9729258392034299</v>
+        <v>16.846267500089251</v>
       </c>
       <c r="J40" s="20">
-        <v>3.7923197724142437</v>
+        <v>33.303186195085416</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M40" s="16">
         <v>45606</v>
@@ -3379,179 +3433,563 @@
         <v>45716</v>
       </c>
       <c r="O40" s="19">
-        <v>0.19853855217217412</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P40" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q40" s="19">
-        <v>1.3644023113167324E-3</v>
+        <v>0</v>
       </c>
       <c r="R40" s="19">
         <v>0</v>
       </c>
       <c r="S40" s="19">
-        <v>0.51643948647548221</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="T40" s="19">
         <v>0</v>
       </c>
       <c r="U40" s="19">
-        <v>0.12544574278854531</v>
+        <v>0.15564608795570867</v>
       </c>
       <c r="V40" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D41" s="20">
-        <v>1.73</v>
+        <v>5.62</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="19">
-        <v>-3.9926942835494604E-2</v>
+      <c r="F41" s="26">
+        <v>4.8858184024075717</v>
       </c>
       <c r="G41" s="19">
-        <v>6.2049576772201034E-2</v>
+        <v>7.1640813796121458E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>1.0015835419206987</v>
+        <v>3.9293557981174994</v>
       </c>
       <c r="I41" s="20">
-        <v>0.85134601063259385</v>
+        <v>3.3399524283998745</v>
       </c>
       <c r="J41" s="20">
-        <v>1.6364407851191773</v>
+        <v>6.4199917611995918</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="M41" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N41" s="16">
         <v>45716</v>
       </c>
       <c r="O41" s="19">
+        <v>8.1734249293405042E-3</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0.19791759120646774</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>1.3780163008283218E-3</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>0.583299310268654</v>
+      </c>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <v>0.20923165729470938</v>
+      </c>
+      <c r="V41" s="19" t="str">
+        <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="20">
+        <v>35.25</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="26">
+        <v>6.2758754943954127</v>
+      </c>
+      <c r="G42" s="19">
+        <v>6.0063875072109502E-2</v>
+      </c>
+      <c r="H42" s="20">
+        <v>19.570906630597907</v>
+      </c>
+      <c r="I42" s="20">
+        <v>16.635270636008222</v>
+      </c>
+      <c r="J42" s="20">
+        <v>31.975994484347755</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N42" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O42" s="19">
+        <v>1.8627626781429586E-2</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0.25828274030620524</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>3.9962087250557162E-3</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0</v>
+      </c>
+      <c r="S42" s="19">
+        <v>0.34356507928375646</v>
+      </c>
+      <c r="T42" s="19">
+        <v>0</v>
+      </c>
+      <c r="U42" s="19">
+        <v>0.37552834490355302</v>
+      </c>
+      <c r="V42" s="19" t="str">
+        <f>IF(D42&lt;=H42,-(I42/D42-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="20">
+        <v>3.61</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="26">
+        <v>3.9168996756187426</v>
+      </c>
+      <c r="G43" s="19">
+        <v>8.9223573082371763E-2</v>
+      </c>
+      <c r="H43" s="20">
+        <v>3.4099677681421876</v>
+      </c>
+      <c r="I43" s="20">
+        <v>2.8984726029208594</v>
+      </c>
+      <c r="J43" s="20">
+        <v>5.571387805583079</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N43" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O43" s="19">
+        <v>1.1832950701880444E-2</v>
+      </c>
+      <c r="P43" s="19">
+        <v>0.19534620844359546</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>0</v>
+      </c>
+      <c r="R43" s="19">
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <v>0</v>
+      </c>
+      <c r="T43" s="19">
+        <v>0.49757189674208302</v>
+      </c>
+      <c r="U43" s="19">
+        <v>0.29524894411244107</v>
+      </c>
+      <c r="V43" s="19" t="str">
+        <f>IF(D43&lt;=H43,-(I43/D43-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="20">
+        <v>197.1</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="26">
+        <v>74.102730763814307</v>
+      </c>
+      <c r="G44" s="19">
+        <v>0</v>
+      </c>
+      <c r="H44" s="20">
+        <v>0</v>
+      </c>
+      <c r="I44" s="20">
+        <v>0</v>
+      </c>
+      <c r="J44" s="20">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N44" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O44" s="19">
+        <v>0.58108816177312361</v>
+      </c>
+      <c r="P44" s="19">
+        <v>0.23828361372817153</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
+      <c r="R44" s="19">
+        <v>0</v>
+      </c>
+      <c r="S44" s="19">
+        <v>5.7183940942846252E-3</v>
+      </c>
+      <c r="T44" s="19">
+        <v>0</v>
+      </c>
+      <c r="U44" s="19">
+        <v>0.17490983040442024</v>
+      </c>
+      <c r="V44" s="19" t="str">
+        <f>IF(D44&lt;=H44,-(I44/D44-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="20">
+        <v>5.73</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="26">
+        <v>15.978076966992584</v>
+      </c>
+      <c r="G45" s="19">
+        <v>5.8384141639057044E-2</v>
+      </c>
+      <c r="H45" s="20">
+        <v>4.3044476850452238</v>
+      </c>
+      <c r="I45" s="20">
+        <v>3.6587805322884401</v>
+      </c>
+      <c r="J45" s="20">
+        <v>6.6899604109901096</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M45" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N45" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O45" s="19">
+        <v>0.35166796085418528</v>
+      </c>
+      <c r="P45" s="19">
+        <v>0.43886385985236792</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>0</v>
+      </c>
+      <c r="R45" s="19">
+        <v>0</v>
+      </c>
+      <c r="S45" s="19">
+        <v>2.7202256703967287E-3</v>
+      </c>
+      <c r="T45" s="19">
+        <v>0</v>
+      </c>
+      <c r="U45" s="19">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V45" s="19" t="str">
+        <f>IF(D45&lt;=H45,-(I45/D45-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="20">
+        <v>1.9</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="26">
+        <v>39.054921702281248</v>
+      </c>
+      <c r="G46" s="19">
+        <v>6.6564666748046869E-2</v>
+      </c>
+      <c r="H46" s="20">
+        <v>1.5318807992768995</v>
+      </c>
+      <c r="I46" s="20">
+        <v>1.3020986793853644</v>
+      </c>
+      <c r="J46" s="20">
+        <v>2.2145114153343521</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N46" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O46" s="19">
+        <v>0.55541924442229906</v>
+      </c>
+      <c r="P46" s="19">
+        <v>0.37949349616392825</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>1.8148224946381651E-3</v>
+      </c>
+      <c r="R46" s="19">
+        <v>0</v>
+      </c>
+      <c r="S46" s="19">
+        <v>6.208277497005729E-4</v>
+      </c>
+      <c r="T46" s="19">
+        <v>1.2789175437999239E-2</v>
+      </c>
+      <c r="U46" s="19">
+        <v>4.9862433731434744E-2</v>
+      </c>
+      <c r="V46" s="19" t="str">
+        <f>IF(D46&lt;=H46,-(I46/D46-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="20">
+        <v>2.7</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="26">
+        <v>5.6906406377340994</v>
+      </c>
+      <c r="G47" s="19">
+        <v>8.3504062228732634E-2</v>
+      </c>
+      <c r="H47" s="20">
+        <v>2.3248898882795914</v>
+      </c>
+      <c r="I47" s="20">
+        <v>1.9761564050376526</v>
+      </c>
+      <c r="J47" s="20">
+        <v>3.798529503386268</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N47" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O47" s="19">
+        <v>0.19853855217217412</v>
+      </c>
+      <c r="P47" s="19">
+        <v>0.15821181625248168</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>1.3644023113167324E-3</v>
+      </c>
+      <c r="R47" s="19">
+        <v>0</v>
+      </c>
+      <c r="S47" s="19">
+        <v>0.51643948647548221</v>
+      </c>
+      <c r="T47" s="19">
+        <v>0</v>
+      </c>
+      <c r="U47" s="19">
+        <v>0.12544574278854531</v>
+      </c>
+      <c r="V47" s="19" t="str">
+        <f>IF(D47&lt;=H47,-(I47/D47-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="20">
+        <v>1.68</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="26">
+        <v>-24.318118743867512</v>
+      </c>
+      <c r="G48" s="19">
+        <v>6.390617007300968E-2</v>
+      </c>
+      <c r="H48" s="20">
+        <v>1.0105248835586804</v>
+      </c>
+      <c r="I48" s="20">
+        <v>0.85894615102487837</v>
+      </c>
+      <c r="J48" s="20">
+        <v>1.6510496275348767</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M48" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N48" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O48" s="19">
         <v>0.39325092997635303</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P48" s="19">
         <v>0.81977588376563215</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q48" s="19">
         <v>3.1621500776708874E-3</v>
       </c>
-      <c r="R41" s="19">
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
+      <c r="R48" s="19">
+        <v>0</v>
+      </c>
+      <c r="S48" s="19">
         <v>9.5705744879944314E-3</v>
       </c>
-      <c r="T41" s="19">
+      <c r="T48" s="19">
         <v>1.5672463941809065E-4</v>
       </c>
-      <c r="U41" s="19">
+      <c r="U48" s="19">
         <v>-0.22591626294706857</v>
       </c>
-      <c r="V41" s="19" t="str">
-        <f t="shared" si="0"/>
+      <c r="V48" s="19" t="str">
+        <f>IF(D48&lt;=H48,-(I48/D48-1),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:22">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-    </row>
-    <row r="43" spans="2:22">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-    </row>
-    <row r="44" spans="2:22">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-    </row>
-    <row r="45" spans="2:22">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-    </row>
-    <row r="46" spans="2:22">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-    </row>
-    <row r="47" spans="2:22">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-    </row>
-    <row r="48" spans="2:22">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -3562,7 +4000,6 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -3573,7 +4010,6 @@
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -3584,7 +4020,6 @@
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -3595,7 +4030,6 @@
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -3606,7 +4040,6 @@
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
@@ -3617,7 +4050,6 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -3628,7 +4060,6 @@
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
@@ -3639,7 +4070,6 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -3650,7 +4080,6 @@
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -3661,7 +4090,6 @@
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
@@ -3672,7 +4100,6 @@
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
@@ -3683,7 +4110,6 @@
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -3694,7 +4120,6 @@
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
@@ -3705,7 +4130,6 @@
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
@@ -3716,7 +4140,6 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
@@ -3727,7 +4150,6 @@
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
@@ -3738,7 +4160,6 @@
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
@@ -3749,7 +4170,6 @@
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
@@ -3760,7 +4180,6 @@
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
@@ -3771,7 +4190,6 @@
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
@@ -3782,7 +4200,6 @@
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
@@ -3793,7 +4210,6 @@
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
@@ -3804,7 +4220,6 @@
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
@@ -3815,7 +4230,6 @@
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
@@ -3826,7 +4240,6 @@
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
@@ -3837,7 +4250,6 @@
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
@@ -3848,7 +4260,6 @@
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
@@ -3859,7 +4270,6 @@
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
@@ -3870,7 +4280,6 @@
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -3881,7 +4290,6 @@
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
@@ -3892,7 +4300,6 @@
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
@@ -3903,7 +4310,6 @@
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
@@ -3914,7 +4320,6 @@
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
@@ -3925,7 +4330,6 @@
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
@@ -3936,7 +4340,6 @@
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
@@ -3947,7 +4350,6 @@
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="19"/>
       <c r="G85" s="19"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
@@ -3958,7 +4360,6 @@
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
@@ -3969,7 +4370,6 @@
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
@@ -3980,7 +4380,6 @@
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
@@ -3991,7 +4390,6 @@
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
@@ -4002,7 +4400,6 @@
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
@@ -4013,7 +4410,6 @@
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
@@ -4024,7 +4420,6 @@
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
@@ -4035,7 +4430,6 @@
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
@@ -4046,7 +4440,6 @@
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
@@ -4057,7 +4450,6 @@
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
@@ -4068,7 +4460,6 @@
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="19"/>
       <c r="G96" s="19"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
@@ -4079,7 +4470,6 @@
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
@@ -4090,7 +4480,6 @@
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
@@ -4101,7 +4490,6 @@
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
@@ -4112,7 +4500,6 @@
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
@@ -4123,7 +4510,6 @@
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
@@ -4134,7 +4520,6 @@
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
@@ -4145,7 +4530,6 @@
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -4156,7 +4540,6 @@
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
@@ -4167,7 +4550,6 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="19"/>
       <c r="G105" s="19"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -4178,7 +4560,6 @@
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -4189,7 +4570,6 @@
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -4200,7 +4580,6 @@
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -4211,7 +4590,6 @@
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
@@ -4222,7 +4600,6 @@
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -4233,7 +4610,6 @@
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
@@ -4244,7 +4620,6 @@
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="19"/>
       <c r="G112" s="19"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
@@ -4255,7 +4630,6 @@
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="19"/>
       <c r="G113" s="19"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
@@ -4266,7 +4640,6 @@
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
@@ -4277,7 +4650,6 @@
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
@@ -4288,7 +4660,6 @@
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
@@ -4299,7 +4670,6 @@
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -4310,7 +4680,6 @@
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
@@ -4321,7 +4690,6 @@
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
@@ -4332,7 +4700,6 @@
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="19"/>
       <c r="G120" s="19"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
@@ -4343,7 +4710,6 @@
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="19"/>
       <c r="G121" s="19"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
@@ -4354,7 +4720,6 @@
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
@@ -4365,7 +4730,6 @@
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="19"/>
       <c r="G123" s="19"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
@@ -4376,7 +4740,6 @@
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="19"/>
       <c r="G124" s="19"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
@@ -4387,7 +4750,6 @@
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
@@ -4398,7 +4760,6 @@
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="19"/>
       <c r="G126" s="19"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
@@ -4409,7 +4770,6 @@
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="19"/>
       <c r="G127" s="19"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
@@ -4420,7 +4780,6 @@
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="19"/>
       <c r="G128" s="19"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
@@ -4431,7 +4790,6 @@
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="19"/>
       <c r="G129" s="19"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
@@ -4442,7 +4800,6 @@
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="19"/>
       <c r="G130" s="19"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
@@ -4453,7 +4810,6 @@
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="19"/>
       <c r="G131" s="19"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
@@ -4464,7 +4820,6 @@
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="19"/>
       <c r="G132" s="19"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
@@ -4475,7 +4830,6 @@
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
@@ -4486,7 +4840,6 @@
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="19"/>
       <c r="G134" s="19"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
@@ -4497,7 +4850,6 @@
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="19"/>
       <c r="G135" s="19"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
@@ -4508,7 +4860,6 @@
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
@@ -4519,7 +4870,6 @@
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="19"/>
       <c r="G137" s="19"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
@@ -4530,7 +4880,6 @@
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
@@ -4541,7 +4890,6 @@
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
@@ -4552,7 +4900,6 @@
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
@@ -4563,7 +4910,6 @@
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="19"/>
       <c r="G141" s="19"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
@@ -4574,7 +4920,6 @@
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
@@ -4585,7 +4930,6 @@
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
@@ -4596,7 +4940,6 @@
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="19"/>
       <c r="G144" s="19"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
@@ -4607,7 +4950,6 @@
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="19"/>
       <c r="G145" s="19"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
@@ -4618,7 +4960,6 @@
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="19"/>
       <c r="G146" s="19"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
@@ -4629,7 +4970,6 @@
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
@@ -4640,7 +4980,6 @@
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="19"/>
       <c r="G148" s="19"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
@@ -4651,7 +4990,6 @@
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="19"/>
       <c r="G149" s="19"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
@@ -4662,7 +5000,6 @@
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
@@ -4673,7 +5010,6 @@
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
@@ -4684,7 +5020,6 @@
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
@@ -4695,7 +5030,6 @@
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="19"/>
       <c r="G153" s="19"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
@@ -4706,7 +5040,6 @@
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="19"/>
       <c r="G154" s="19"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
@@ -4717,7 +5050,6 @@
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="19"/>
       <c r="G155" s="19"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
@@ -4728,7 +5060,6 @@
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
@@ -4739,7 +5070,6 @@
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="19"/>
       <c r="G157" s="19"/>
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
@@ -4750,7 +5080,6 @@
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="19"/>
       <c r="G158" s="19"/>
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
@@ -4761,7 +5090,6 @@
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="19"/>
       <c r="G159" s="19"/>
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
@@ -4772,7 +5100,6 @@
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="19"/>
       <c r="G160" s="19"/>
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
@@ -4783,7 +5110,6 @@
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="19"/>
       <c r="G161" s="19"/>
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
@@ -4794,7 +5120,6 @@
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="19"/>
       <c r="G162" s="19"/>
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
@@ -4805,7 +5130,6 @@
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="19"/>
       <c r="G163" s="19"/>
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
@@ -4816,7 +5140,6 @@
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
@@ -4827,7 +5150,6 @@
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="19"/>
       <c r="G165" s="19"/>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
@@ -4838,7 +5160,6 @@
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="19"/>
       <c r="G166" s="19"/>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
@@ -4849,7 +5170,6 @@
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="19"/>
       <c r="G167" s="19"/>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
@@ -4860,7 +5180,6 @@
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
@@ -4871,7 +5190,6 @@
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="19"/>
       <c r="G169" s="19"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
@@ -4882,7 +5200,6 @@
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="19"/>
       <c r="G170" s="19"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
@@ -4893,7 +5210,6 @@
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
@@ -4904,7 +5220,6 @@
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="19"/>
       <c r="G172" s="19"/>
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
@@ -4915,7 +5230,6 @@
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="19"/>
       <c r="G173" s="19"/>
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
@@ -4926,7 +5240,6 @@
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="19"/>
       <c r="G174" s="19"/>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
@@ -4937,7 +5250,6 @@
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="19"/>
       <c r="G175" s="19"/>
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
@@ -4948,7 +5260,6 @@
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="19"/>
       <c r="G176" s="19"/>
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
@@ -4959,7 +5270,6 @@
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
@@ -4970,7 +5280,6 @@
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="E178" s="5"/>
-      <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
@@ -4981,7 +5290,6 @@
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="E179" s="5"/>
-      <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
@@ -4992,7 +5300,6 @@
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="E180" s="5"/>
-      <c r="F180" s="19"/>
       <c r="G180" s="19"/>
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
@@ -5003,7 +5310,6 @@
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="E181" s="5"/>
-      <c r="F181" s="19"/>
       <c r="G181" s="19"/>
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
@@ -5014,7 +5320,6 @@
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
@@ -5025,7 +5330,6 @@
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
@@ -5036,7 +5340,6 @@
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="19"/>
       <c r="G184" s="19"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
@@ -5047,7 +5350,6 @@
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="E185" s="5"/>
-      <c r="F185" s="19"/>
       <c r="G185" s="19"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
@@ -5058,7 +5360,6 @@
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="E186" s="5"/>
-      <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
@@ -5069,7 +5370,6 @@
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="19"/>
       <c r="G187" s="19"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
@@ -5080,7 +5380,6 @@
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="19"/>
       <c r="G188" s="19"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
@@ -5091,7 +5390,6 @@
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="E189" s="5"/>
-      <c r="F189" s="19"/>
       <c r="G189" s="19"/>
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
@@ -5102,7 +5400,6 @@
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
@@ -5113,7 +5410,6 @@
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="19"/>
       <c r="G191" s="19"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
@@ -5124,7 +5420,6 @@
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="E192" s="5"/>
-      <c r="F192" s="19"/>
       <c r="G192" s="19"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
@@ -5135,7 +5430,6 @@
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="19"/>
       <c r="G193" s="19"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
@@ -5146,7 +5440,6 @@
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="E194" s="5"/>
-      <c r="F194" s="19"/>
       <c r="G194" s="19"/>
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
@@ -5157,7 +5450,6 @@
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="E195" s="5"/>
-      <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
@@ -5168,7 +5460,6 @@
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
@@ -5179,7 +5470,6 @@
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="E197" s="5"/>
-      <c r="F197" s="19"/>
       <c r="G197" s="19"/>
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
@@ -5190,7 +5480,6 @@
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="E198" s="5"/>
-      <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
@@ -5201,7 +5490,6 @@
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="E199" s="5"/>
-      <c r="F199" s="19"/>
       <c r="G199" s="19"/>
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
@@ -5212,7 +5500,6 @@
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="E200" s="5"/>
-      <c r="F200" s="19"/>
       <c r="G200" s="19"/>
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
@@ -5821,8 +6108,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:V36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V41">
-      <sortCondition ref="V4:V41"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V48">
+      <sortCondition ref="V4:V36"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF7E7A6-954C-4992-AC93-A46BC30B1A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2398B82-61C4-44E3-9D5C-2A6A81999834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -419,6 +419,39 @@
   </si>
   <si>
     <t>0016.HK</t>
+  </si>
+  <si>
+    <t>0220.HK</t>
+  </si>
+  <si>
+    <t>统一中国</t>
+  </si>
+  <si>
+    <t>0322.HK</t>
+  </si>
+  <si>
+    <t>康师傅控股</t>
+  </si>
+  <si>
+    <t>0700.HK</t>
+  </si>
+  <si>
+    <t>騰訊控股</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>0762.HK</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>9988.HK</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
   </si>
 </sst>
 </file>
@@ -948,7 +981,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1090,25 +1123,25 @@
         <v>43</v>
       </c>
       <c r="D5" s="20">
-        <v>7.62</v>
+        <v>7.82</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>33.020816788287952</v>
+        <v>33.887504892967428</v>
       </c>
       <c r="G5" s="19">
-        <v>7.6115485564304461E-2</v>
+        <v>7.416879795396418E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>8.4637328379731631</v>
+        <v>8.4321381724279831</v>
       </c>
       <c r="I5" s="20">
-        <v>7.194172912277188</v>
+        <v>7.1673174465637839</v>
       </c>
       <c r="J5" s="20">
-        <v>12.461743906302926</v>
+        <v>12.407639027712941</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>15</v>
@@ -1145,7 +1178,7 @@
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v>5.5882819911130199E-2</v>
+        <v>8.3463242127393422E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1156,30 +1189,30 @@
         <v>122</v>
       </c>
       <c r="D6" s="20">
-        <v>109.6</v>
+        <v>113</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="26">
-        <v>11.093079230266298</v>
+        <v>11.43698242204186</v>
       </c>
       <c r="G6" s="19">
-        <v>1.7638084831028963E-2</v>
+        <v>1.7107718214524531E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>114.59065949168814</v>
+        <v>113.17530849996737</v>
       </c>
       <c r="I6" s="20">
-        <v>97.402060567934925</v>
+        <v>96.199012224972265</v>
       </c>
       <c r="J6" s="20">
-        <v>192.55297702364862</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="8" t="s">
+        <v>190.17468503896049</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="M6" s="16">
@@ -1211,201 +1244,201 @@
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
-        <v>0.11129506781081266</v>
+        <v>0.14868130774360833</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="D7" s="20">
-        <v>14.66</v>
+        <v>5.52</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="26">
-        <v>10.24597221832493</v>
+        <v>8.3771172344061675</v>
       </c>
       <c r="G7" s="19">
-        <v>7.5034106412005461E-2</v>
+        <v>8.739144257877185E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>14.769435779228814</v>
+        <v>5.5239703682664443</v>
       </c>
       <c r="I7" s="20">
-        <v>12.456522142732988</v>
+        <v>4.154126803209504</v>
       </c>
       <c r="J7" s="20">
-        <v>28.75082273841975</v>
+        <v>11.796990382161908</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="M7" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N7" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.72762956087193742</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P7" s="19">
-        <v>0.16540000000000002</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q7" s="19">
-        <v>0</v>
+        <v>9.1579398111554088E-3</v>
       </c>
       <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>7.9916652607163307E-3</v>
+      </c>
+      <c r="T7" s="19">
         <v>0.02</v>
       </c>
-      <c r="S7" s="19">
-        <v>3.8885650375487034E-3</v>
-      </c>
-      <c r="T7" s="19">
-        <v>0.01</v>
-      </c>
       <c r="U7" s="19">
-        <v>7.3081874090513851E-2</v>
+        <v>4.9816835181438444E-2</v>
       </c>
       <c r="V7" s="19">
         <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
-        <v>0.15030544728970074</v>
+        <v>0.24744079652001738</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D8" s="20">
-        <v>5.51</v>
+        <v>73.2</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="26">
-        <v>8.3493086140990496</v>
+        <v>17.502888989796393</v>
       </c>
       <c r="G8" s="19">
-        <v>8.768251284064485E-2</v>
+        <v>6.4854138427310512E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>5.5430566372840868</v>
+        <v>48.962800874034627</v>
       </c>
       <c r="I8" s="20">
-        <v>4.1676360231094316</v>
+        <v>41.618380742929432</v>
       </c>
       <c r="J8" s="20">
-        <v>11.838093840562999</v>
+        <v>82.27488273069352</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="M8" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.86263355974668987</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P8" s="19">
-        <v>5.04E-2</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q8" s="19">
-        <v>9.1579398111554088E-3</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
       </c>
       <c r="S8" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="T8" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>4.9816835181438444E-2</v>
-      </c>
-      <c r="V8" s="19">
+        <v>0.10980570587494648</v>
+      </c>
+      <c r="V8" s="19" t="str">
         <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
-        <v>0.24362322629592892</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="20">
-        <v>72.5</v>
+        <v>95.15</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>17.335778595085337</v>
+        <v>9.5014088389355749</v>
       </c>
       <c r="G9" s="19">
-        <v>6.5479307963930325E-2</v>
+        <v>7.1466106148187061E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>49.105942375731253</v>
+        <v>72.338244121862289</v>
       </c>
       <c r="I9" s="20">
-        <v>41.740051019371563</v>
+        <v>61.487507503582947</v>
       </c>
       <c r="J9" s="20">
-        <v>82.515411255527766</v>
-      </c>
-      <c r="K9" s="6" t="s">
+        <v>121.55392350576682</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M9" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N9" s="16">
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P9" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q9" s="19">
-        <v>2.3869305285384647E-2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <v>0.55863466227121317</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="T9" s="19">
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>0.10980570587494648</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V9" s="19" t="str">
         <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
@@ -1414,64 +1447,64 @@
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="D10" s="20">
-        <v>92.45</v>
+        <v>77.849999999999994</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="26">
-        <v>9.2317945050929477</v>
+        <v>14.893311696632018</v>
       </c>
       <c r="G10" s="19">
-        <v>7.3553272038939965E-2</v>
+        <v>4.8169556840077073E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>73.045551955549286</v>
+        <v>15.460916620210345</v>
       </c>
       <c r="I10" s="20">
-        <v>62.08871916221689</v>
+        <v>12.842496042197951</v>
       </c>
       <c r="J10" s="20">
-        <v>122.74245169517356</v>
+        <v>49.692472858710879</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M10" s="16">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.54949235029228316</v>
       </c>
       <c r="P10" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.10108242664951193</v>
       </c>
       <c r="Q10" s="19">
-        <v>0</v>
+        <v>1.0218987976510586E-2</v>
       </c>
       <c r="R10" s="19">
         <v>0</v>
       </c>
       <c r="S10" s="19">
-        <v>0.39159225009737869</v>
+        <v>5.6582664391799292E-2</v>
       </c>
       <c r="T10" s="19">
-        <v>0</v>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="U10" s="19">
-        <v>0.35546835552606143</v>
+        <v>0.27690377095281005</v>
       </c>
       <c r="V10" s="19" t="str">
         <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
@@ -1480,64 +1513,64 @@
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="D11" s="20">
-        <v>77.25</v>
+        <v>35.4</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="26">
-        <v>14.778527020742755</v>
+        <v>32.509673005421753</v>
       </c>
       <c r="G11" s="19">
-        <v>4.8543689320388349E-2</v>
+        <v>1.4124293785310734E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>15.594202042440495</v>
+        <v>9.5443304419519794</v>
       </c>
       <c r="I11" s="20">
-        <v>12.975781464428103</v>
+        <v>8.1126808756591817</v>
       </c>
       <c r="J11" s="20">
-        <v>49.916439672045541</v>
+        <v>16.037862496363363</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M11" s="16">
-        <v>45625</v>
+        <v>45603</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.54949235029228316</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P11" s="19">
-        <v>0.10108242664951193</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q11" s="19">
-        <v>1.0218987976510586E-2</v>
+        <v>1.6858097812807804E-3</v>
       </c>
       <c r="R11" s="19">
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <v>5.6582664391799292E-2</v>
+        <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>5.719799737085E-3</v>
+        <v>0</v>
       </c>
       <c r="U11" s="19">
-        <v>0.27690377095281005</v>
+        <v>0.17445779619528262</v>
       </c>
       <c r="V11" s="19" t="str">
         <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
@@ -1546,31 +1579,31 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" s="20">
-        <v>34.549999999999997</v>
+        <v>5.51</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>31.729073512353718</v>
+        <v>-43.866902171509729</v>
       </c>
       <c r="G12" s="19">
-        <v>1.4471780028943561E-2</v>
+        <v>3.6216187869501905E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>9.579418057291651</v>
+        <v>1.7958624048417804</v>
       </c>
       <c r="I12" s="20">
-        <v>8.1425053486979024</v>
+        <v>1.5264830441155133</v>
       </c>
       <c r="J12" s="20">
-        <v>16.096822142989748</v>
+        <v>3.0176862050629554</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>29</v>
@@ -1585,25 +1618,25 @@
         <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P12" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q12" s="19">
-        <v>1.6858097812807804E-3</v>
+        <v>1.0703282304304319E-2</v>
       </c>
       <c r="R12" s="19">
         <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>0</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="T12" s="19">
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>0.17445779619528262</v>
+        <v>-3.5319141001935742E-2</v>
       </c>
       <c r="V12" s="19" t="str">
         <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
@@ -1612,64 +1645,64 @@
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" s="20">
-        <v>5.41</v>
+        <v>6.52</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>-43.0714329160284</v>
+        <v>5.8974077305298058</v>
       </c>
       <c r="G13" s="19">
-        <v>3.6885050316151642E-2</v>
+        <v>8.4355828220858908E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>1.8016381627892393</v>
+        <v>5.4028883583185774</v>
       </c>
       <c r="I13" s="20">
-        <v>1.5313924383708533</v>
+        <v>4.5924551045707904</v>
       </c>
       <c r="J13" s="20">
-        <v>3.0273915282741535</v>
+        <v>10.437335918880033</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M13" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.73600077942413045</v>
       </c>
       <c r="P13" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.20890317762054877</v>
       </c>
       <c r="Q13" s="19">
-        <v>1.0703282304304319E-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="19">
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <v>0.12063647696552883</v>
+        <v>5.1931891220120593E-3</v>
       </c>
       <c r="T13" s="19">
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <v>-3.5319141001935742E-2</v>
+        <v>4.9902853833308697E-2</v>
       </c>
       <c r="V13" s="19" t="str">
         <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
@@ -1678,64 +1711,64 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20">
-        <v>6.45</v>
+        <v>10.9</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>5.8340920033615413</v>
+        <v>9.5238691224110354</v>
       </c>
       <c r="G14" s="19">
-        <v>8.5271317829457363E-2</v>
+        <v>5.5834058257053377E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>5.423911986195538</v>
+        <v>10.109406946452204</v>
       </c>
       <c r="I14" s="20">
-        <v>4.6101714356769081</v>
+        <v>8.5929959044843738</v>
       </c>
       <c r="J14" s="20">
-        <v>10.48147005097346</v>
+        <v>16.98739157377938</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M14" s="16">
         <v>45593</v>
       </c>
       <c r="N14" s="16">
-        <v>45716</v>
+        <v>45808</v>
       </c>
       <c r="O14" s="19">
-        <v>0.73600077942413045</v>
+        <v>0.77696054205677556</v>
       </c>
       <c r="P14" s="19">
-        <v>0.20890317762054877</v>
+        <v>0.14204607870614464</v>
       </c>
       <c r="Q14" s="19">
-        <v>0</v>
+        <v>1.0871617989521474E-3</v>
       </c>
       <c r="R14" s="19">
         <v>0</v>
       </c>
       <c r="S14" s="19">
-        <v>5.1931891220120593E-3</v>
+        <v>8.274315042185636E-3</v>
       </c>
       <c r="T14" s="19">
-        <v>0</v>
+        <v>2.3595955443495159E-2</v>
       </c>
       <c r="U14" s="19">
-        <v>4.9902853833308697E-2</v>
+        <v>4.8035946952446888E-2</v>
       </c>
       <c r="V14" s="19" t="str">
         <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
@@ -1744,64 +1777,64 @@
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D15" s="20">
-        <v>10.8</v>
+        <v>6.96</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>9.436760724083042</v>
+        <v>29.184962619483834</v>
       </c>
       <c r="G15" s="19">
-        <v>5.6349448604348255E-2</v>
+        <v>6.5382862039681147E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>10.147668343584172</v>
+        <v>1.9488836173666713</v>
       </c>
       <c r="I15" s="20">
-        <v>8.625518092046546</v>
+        <v>1.6565510747616705</v>
       </c>
       <c r="J15" s="20">
-        <v>17.051684300215591</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>59</v>
+        <v>3.1841903380256702</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="M15" s="16">
-        <v>45593</v>
+        <v>45624</v>
       </c>
       <c r="N15" s="16">
-        <v>45808</v>
+        <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.77696054205677556</v>
+        <v>0.69530102386843873</v>
       </c>
       <c r="P15" s="19">
-        <v>0.14204607870614464</v>
+        <v>0.25685454836897598</v>
       </c>
       <c r="Q15" s="19">
-        <v>1.0871617989521474E-3</v>
+        <v>0</v>
       </c>
       <c r="R15" s="19">
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <v>8.274315042185636E-3</v>
+        <v>2.0677989446499247E-3</v>
       </c>
       <c r="T15" s="19">
-        <v>2.3595955443495159E-2</v>
+        <v>9.6644881579416319E-4</v>
       </c>
       <c r="U15" s="19">
-        <v>4.8035946952446888E-2</v>
+        <v>4.4810180002141216E-2</v>
       </c>
       <c r="V15" s="19" t="str">
         <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
@@ -1816,13 +1849,13 @@
         <v>48</v>
       </c>
       <c r="D16" s="20">
-        <v>8.76</v>
+        <v>8.74</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>-62.191839799357872</v>
+        <v>-62.145661780289501</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -1836,10 +1869,10 @@
       <c r="J16" s="20">
         <v>0</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="M16" s="16">
@@ -1882,30 +1915,30 @@
         <v>120</v>
       </c>
       <c r="D17" s="20">
-        <v>69.349999999999994</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="26">
-        <v>20.904684186376457</v>
+        <v>21.253961556898616</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
       </c>
       <c r="H17" s="20">
-        <v>28.936638718583787</v>
+        <v>28.783810318569785</v>
       </c>
       <c r="I17" s="20">
-        <v>24.596142910796218</v>
+        <v>24.466238770784315</v>
       </c>
       <c r="J17" s="20">
-        <v>47.278228726224874</v>
-      </c>
-      <c r="K17" s="6" t="s">
+        <v>47.028529508496298</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M17" s="16">
@@ -1942,64 +1975,64 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="D18" s="20">
-        <v>3.72</v>
+        <v>9.89</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>8.9008295781050961</v>
+        <v>23.763884397681291</v>
       </c>
       <c r="G18" s="19">
-        <v>6.5376344086021498E-2</v>
+        <v>2.9981361881907958E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>2.3544484073779346</v>
+        <v>3.531537702455096</v>
       </c>
       <c r="I18" s="20">
-        <v>2.0012811462712445</v>
+        <v>3.0018070470868317</v>
       </c>
       <c r="J18" s="20">
-        <v>4.2251944315919925</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>25</v>
+        <v>5.7700152694213926</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="M18" s="16">
-        <v>45619</v>
+        <v>45624</v>
       </c>
       <c r="N18" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.68375747988736812</v>
+        <v>0.69575137181535374</v>
       </c>
       <c r="P18" s="19">
-        <v>0.21895053202218998</v>
+        <v>0.25490688505040687</v>
       </c>
       <c r="Q18" s="19">
-        <v>2.4257361073934199E-4</v>
+        <v>6.6188436699916855E-3</v>
       </c>
       <c r="R18" s="19">
         <v>0</v>
       </c>
       <c r="S18" s="19">
-        <v>3.7548526172941428E-3</v>
+        <v>6.4552900576145354E-3</v>
       </c>
       <c r="T18" s="19">
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>9.3294561862408407E-2</v>
+        <v>3.6267609406633192E-2</v>
       </c>
       <c r="V18" s="19" t="str">
         <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
@@ -2008,64 +2041,64 @@
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="20">
-        <v>2.5099999999999998</v>
+        <v>3.74</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="26">
-        <v>17.360883575961761</v>
+        <v>8.948683500568027</v>
       </c>
       <c r="G19" s="19">
-        <v>2.5665107476283828E-2</v>
+        <v>6.502673796791443E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>1.3209578477061883</v>
+        <v>2.350757659625248</v>
       </c>
       <c r="I19" s="20">
-        <v>1.1228141705502601</v>
+        <v>1.9981440106814607</v>
       </c>
       <c r="J19" s="20">
-        <v>2.1582516155010918</v>
+        <v>4.218266435275309</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M19" s="16">
-        <v>45605</v>
+        <v>45619</v>
       </c>
       <c r="N19" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O19" s="19">
-        <v>0.82154354610382485</v>
+        <v>0.68375747988736812</v>
       </c>
       <c r="P19" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.21895053202218998</v>
       </c>
       <c r="Q19" s="19">
-        <v>0</v>
+        <v>2.4257361073934199E-4</v>
       </c>
       <c r="R19" s="19">
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>3.7548526172941428E-3</v>
       </c>
       <c r="T19" s="19">
         <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>6.6194720593479306E-2</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="V19" s="19" t="str">
         <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
@@ -2074,64 +2107,64 @@
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" s="20">
-        <v>10.46</v>
+        <v>2.5</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>26.199106028469853</v>
+        <v>17.318417214086711</v>
       </c>
       <c r="G20" s="19">
-        <v>1.6423051565448668E-2</v>
+        <v>2.572804069519043E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>1.2868750247834819</v>
+        <v>1.3198022172228954</v>
       </c>
       <c r="I20" s="20">
-        <v>1.0938437710659596</v>
+        <v>1.121831884639461</v>
       </c>
       <c r="J20" s="20">
-        <v>2.1025652756519415</v>
+        <v>2.1563634845801691</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M20" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P20" s="19">
-        <v>0.2941332211490556</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q20" s="19">
-        <v>9.3403926661713623E-3</v>
+        <v>0</v>
       </c>
       <c r="R20" s="19">
         <v>0</v>
       </c>
       <c r="S20" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="T20" s="19">
         <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>0.20774429762625654</v>
+        <v>6.6194720593479306E-2</v>
       </c>
       <c r="V20" s="19" t="str">
         <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
@@ -2140,64 +2173,64 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D21" s="20">
-        <v>5.55</v>
+        <v>15.08</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>-11.113500185462089</v>
+        <v>10.539513032219642</v>
       </c>
       <c r="G21" s="19">
-        <v>3.0604060681374581E-2</v>
+        <v>7.2944297082228118E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>0</v>
+        <v>14.600586389154966</v>
       </c>
       <c r="I21" s="20">
-        <v>0</v>
+        <v>12.330384867091828</v>
       </c>
       <c r="J21" s="20">
-        <v>0</v>
+        <v>28.395324326096812</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="M21" s="16">
         <v>45593</v>
       </c>
       <c r="N21" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O21" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P21" s="19">
-        <v>0.14930937614307849</v>
+        <v>0.16540000000000002</v>
       </c>
       <c r="Q21" s="19">
-        <v>7.2128562067984476E-4</v>
+        <v>0</v>
       </c>
       <c r="R21" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S21" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="T21" s="19">
-        <v>2.8284501268352451E-2</v>
+        <v>0.01</v>
       </c>
       <c r="U21" s="19">
-        <v>-4.5622430706520396E-2</v>
+        <v>7.3081874090513851E-2</v>
       </c>
       <c r="V21" s="19" t="str">
         <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
@@ -2206,37 +2239,37 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D22" s="20">
-        <v>1.02</v>
+        <v>10.68</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>19.09692826847272</v>
+        <v>26.791444305595789</v>
       </c>
       <c r="G22" s="19">
-        <v>5.0828712164186961E-2</v>
+        <v>1.6059950496373553E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>0.47604256290779495</v>
+        <v>1.2825976016064273</v>
       </c>
       <c r="I22" s="20">
-        <v>0.4046361784716257</v>
+        <v>1.0902079613654632</v>
       </c>
       <c r="J22" s="20">
-        <v>0.77778381212323922</v>
+        <v>2.0955765927820904</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M22" s="16">
         <v>45603</v>
@@ -2245,25 +2278,25 @@
         <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>0.69462498271442097</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P22" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.2941332211490556</v>
       </c>
       <c r="Q22" s="19">
-        <v>0</v>
+        <v>9.3403926661713623E-3</v>
       </c>
       <c r="R22" s="19">
         <v>0</v>
       </c>
       <c r="S22" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="T22" s="19">
         <v>0</v>
       </c>
       <c r="U22" s="19">
-        <v>0.12419023710495804</v>
+        <v>0.20774429762625654</v>
       </c>
       <c r="V22" s="19" t="str">
         <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
@@ -2272,64 +2305,64 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="D23" s="20">
-        <v>9.6999999999999993</v>
+        <v>400</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>10.949055201924116</v>
+        <v>33.091769008913538</v>
       </c>
       <c r="G23" s="19">
-        <v>6.5302882243677529E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="H23" s="20">
-        <v>6.0013353597684302</v>
+        <v>68.009185135691553</v>
       </c>
       <c r="I23" s="20">
-        <v>5.1011350558031658</v>
+        <v>57.807807365337815</v>
       </c>
       <c r="J23" s="20">
-        <v>9.8053028398109436</v>
+        <v>125.07894584546185</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M23" s="16">
-        <v>45604</v>
+        <v>45624</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.6223905170283478</v>
+        <v>0.51871628777616319</v>
       </c>
       <c r="P23" s="19">
-        <v>0.25619685036829964</v>
+        <v>0.22616191719415779</v>
       </c>
       <c r="Q23" s="19">
-        <v>5.5277235668845723E-3</v>
+        <v>6.2001756935379264E-3</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>2.0144003021272054E-2</v>
       </c>
       <c r="T23" s="19">
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>0.11437878179622009</v>
+        <v>0.22877761631486909</v>
       </c>
       <c r="V23" s="19" t="str">
         <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
@@ -2338,64 +2371,64 @@
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D24" s="20">
-        <v>0.44</v>
+        <v>5.87</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>-2.4641606328865073</v>
+        <v>-11.772428604324165</v>
       </c>
       <c r="G24" s="19">
-        <v>0.13636363636363635</v>
+        <v>2.8891084880601405E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>0.42822770035573132</v>
+        <v>0</v>
       </c>
       <c r="I24" s="20">
-        <v>0.3639935453023716</v>
+        <v>0</v>
       </c>
       <c r="J24" s="20">
-        <v>0.71957451779451564</v>
+        <v>0</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M24" s="16">
-        <v>45624</v>
+        <v>45593</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0.46570281556597115</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P24" s="19">
-        <v>0.49096154234108225</v>
+        <v>0.14930937614307849</v>
       </c>
       <c r="Q24" s="19">
-        <v>0</v>
+        <v>7.2128562067984476E-4</v>
       </c>
       <c r="R24" s="19">
-        <v>3.9525516276755275E-2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="19">
-        <v>0</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="T24" s="19">
-        <v>0.11560295610891069</v>
+        <v>2.8284501268352451E-2</v>
       </c>
       <c r="U24" s="19">
-        <v>-0.11179283029271934</v>
+        <v>-4.5622430706520396E-2</v>
       </c>
       <c r="V24" s="19" t="str">
         <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
@@ -2404,64 +2437,64 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="D25" s="20">
-        <v>0.17399999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>4.2590647644486328</v>
+        <v>22.407801728562795</v>
       </c>
       <c r="G25" s="19">
-        <v>6.9540229885057481E-2</v>
+        <v>0</v>
       </c>
       <c r="H25" s="20">
-        <v>0.12756685751769817</v>
+        <v>2.3171939411211184</v>
       </c>
       <c r="I25" s="20">
-        <v>0.10843182889004344</v>
+        <v>1.9696148499529507</v>
       </c>
       <c r="J25" s="20">
-        <v>0.21435759505656835</v>
+        <v>3.859271775870083</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="M25" s="16">
-        <v>45593</v>
+        <v>45624</v>
       </c>
       <c r="N25" s="16">
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>0.69931288683936033</v>
+        <v>0</v>
       </c>
       <c r="P25" s="19">
-        <v>0.22200134640260258</v>
+        <v>0.73743481563190261</v>
       </c>
       <c r="Q25" s="19">
-        <v>0</v>
+        <v>7.0138335341758879E-4</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <v>2.1205737325435711E-3</v>
+        <v>5.3167363129601151E-3</v>
       </c>
       <c r="T25" s="19">
-        <v>0</v>
+        <v>0.22719184534497058</v>
       </c>
       <c r="U25" s="19">
-        <v>7.6565193025493528E-2</v>
+        <v>2.9355219356749174E-2</v>
       </c>
       <c r="V25" s="19" t="str">
         <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
@@ -2470,49 +2503,49 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D26" s="20">
-        <v>5.85</v>
+        <v>1.02</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>3.5383012829882281</v>
+        <v>19.125822331172351</v>
       </c>
       <c r="G26" s="19">
-        <v>7.3410164596688046E-2</v>
+        <v>5.0751923413837656E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>4.2258967629465198</v>
+        <v>0.47514475910647791</v>
       </c>
       <c r="I26" s="20">
-        <v>3.5920122485045418</v>
+        <v>0.40387304524050621</v>
       </c>
       <c r="J26" s="20">
-        <v>6.9044962573240118</v>
+        <v>0.77631693223153031</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M26" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>0.47700776116848903</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P26" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q26" s="19">
         <v>0</v>
@@ -2521,13 +2554,13 @@
         <v>0</v>
       </c>
       <c r="S26" s="19">
-        <v>0</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="T26" s="19">
         <v>0</v>
       </c>
       <c r="U26" s="19">
-        <v>0.36602055622301682</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V26" s="19" t="str">
         <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
@@ -2536,64 +2569,64 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D27" s="20">
-        <v>72.3</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="26">
-        <v>23.493710198593874</v>
+        <v>11.056059471935916</v>
       </c>
       <c r="G27" s="19">
-        <v>6.7535828396492484E-2</v>
+        <v>6.467085893900118E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>46.748010032609393</v>
+        <v>5.9745145292337378</v>
       </c>
       <c r="I27" s="20">
-        <v>39.735808527717985</v>
+        <v>5.0783373498486775</v>
       </c>
       <c r="J27" s="20">
-        <v>76.379400258335593</v>
+        <v>9.761481531711599</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M27" s="16">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P27" s="19">
-        <v>0.8668930922046667</v>
+        <v>0.25619685036829964</v>
       </c>
       <c r="Q27" s="19">
-        <v>2.2325505205376484E-4</v>
+        <v>5.5277235668845723E-3</v>
       </c>
       <c r="R27" s="19">
-        <v>2.2215198715160572E-2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="T27" s="19">
-        <v>2.5630406545468234E-2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="19">
-        <v>8.1342449801464822E-2</v>
+        <v>0.11437878179622009</v>
       </c>
       <c r="V27" s="19" t="str">
         <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
@@ -2602,64 +2635,64 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="D28" s="20">
-        <v>4.96</v>
+        <v>0.435</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>7.5938183278344065</v>
+        <v>-2.4361588075127969</v>
       </c>
       <c r="G28" s="19">
-        <v>7.0586426334996372E-2</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="H28" s="20">
-        <v>3.4000854919789276</v>
+        <v>0.43118915310523315</v>
       </c>
       <c r="I28" s="20">
-        <v>2.8900726681820883</v>
+        <v>0.36651078013944816</v>
       </c>
       <c r="J28" s="20">
-        <v>5.5552416139909555</v>
+        <v>0.72455080945529271</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M28" s="16">
-        <v>45606</v>
+        <v>45624</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.46570281556597115</v>
       </c>
       <c r="P28" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.49096154234108225</v>
       </c>
       <c r="Q28" s="19">
-        <v>3.9320610522022457E-3</v>
+        <v>0</v>
       </c>
       <c r="R28" s="19">
-        <v>0</v>
+        <v>3.9525516276755275E-2</v>
       </c>
       <c r="S28" s="19">
-        <v>0.49099920776112166</v>
+        <v>0</v>
       </c>
       <c r="T28" s="19">
-        <v>0</v>
+        <v>0.11560295610891069</v>
       </c>
       <c r="U28" s="19">
-        <v>0.12232431421528413</v>
+        <v>-0.11179283029271934</v>
       </c>
       <c r="V28" s="19" t="str">
         <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
@@ -2668,64 +2701,64 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D29" s="20">
-        <v>4.5</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="26">
-        <v>13.69274836568964</v>
+        <v>4.2345873807449053</v>
       </c>
       <c r="G29" s="19">
-        <v>4.0011617387665649E-2</v>
+        <v>6.9942196531791914E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>3.228213554030094</v>
+        <v>0.12780675583321505</v>
       </c>
       <c r="I29" s="20">
-        <v>2.7439815209255798</v>
+        <v>0.10863574245823279</v>
       </c>
       <c r="J29" s="20">
-        <v>5.2744280449724537</v>
+        <v>0.21476070936833366</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M29" s="16">
-        <v>45625</v>
+        <v>45593</v>
       </c>
       <c r="N29" s="16">
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>0.49786034237394394</v>
+        <v>0.69931288683936033</v>
       </c>
       <c r="P29" s="19">
-        <v>0.33448624066316274</v>
+        <v>0.22200134640260258</v>
       </c>
       <c r="Q29" s="19">
-        <v>6.0164745032668145E-3</v>
+        <v>0</v>
       </c>
       <c r="R29" s="19">
         <v>0</v>
       </c>
       <c r="S29" s="19">
-        <v>2.063358175126364E-2</v>
+        <v>2.1205737325435711E-3</v>
       </c>
       <c r="T29" s="19">
         <v>0</v>
       </c>
       <c r="U29" s="19">
-        <v>0.14100336070836289</v>
+        <v>7.6565193025493528E-2</v>
       </c>
       <c r="V29" s="19" t="str">
         <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
@@ -2734,31 +2767,31 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D30" s="20">
-        <v>3.88</v>
+        <v>5.98</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>6.4068662871952888</v>
+        <v>3.6224026934780076</v>
       </c>
       <c r="G30" s="19">
-        <v>6.3893659896252494E-2</v>
+        <v>7.1705799038992282E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>2.3332372270793842</v>
+        <v>4.186119953749011</v>
       </c>
       <c r="I30" s="20">
-        <v>1.9832516430174765</v>
+        <v>3.5582019606866591</v>
       </c>
       <c r="J30" s="20">
-        <v>3.8121678321800836</v>
+        <v>6.8395067780161947</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>15</v>
@@ -2767,31 +2800,31 @@
         <v>34</v>
       </c>
       <c r="M30" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N30" s="16">
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P30" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q30" s="19">
-        <v>4.6925281602255647E-4</v>
+        <v>0</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <v>0.49449639261897682</v>
+        <v>0</v>
       </c>
       <c r="T30" s="19">
         <v>0</v>
       </c>
       <c r="U30" s="19">
-        <v>0.19964406567112258</v>
+        <v>0.36602055622301682</v>
       </c>
       <c r="V30" s="19" t="str">
         <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
@@ -2800,64 +2833,64 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D31" s="20">
-        <v>4.5599999999999996</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>3.7783314490689537</v>
+        <v>23.399080992823425</v>
       </c>
       <c r="G31" s="19">
-        <v>7.2142215702268808E-2</v>
+        <v>6.7808952875362802E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>3.2180634651967575</v>
+        <v>46.737127754817621</v>
       </c>
       <c r="I31" s="20">
-        <v>2.735353945417244</v>
+        <v>39.72655859159498</v>
       </c>
       <c r="J31" s="20">
-        <v>5.2578442867094113</v>
+        <v>76.361620210573122</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M31" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N31" s="16">
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.8668930922046667</v>
       </c>
       <c r="Q31" s="19">
-        <v>9.7044800044936142E-4</v>
+        <v>2.2325505205376484E-4</v>
       </c>
       <c r="R31" s="19">
-        <v>0</v>
+        <v>2.2215198715160572E-2</v>
       </c>
       <c r="S31" s="19">
-        <v>0.48610500800425166</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="T31" s="19">
-        <v>0</v>
+        <v>2.5630406545468234E-2</v>
       </c>
       <c r="U31" s="19">
-        <v>0.34620797227785238</v>
+        <v>8.1342449801464822E-2</v>
       </c>
       <c r="V31" s="19" t="str">
         <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
@@ -2866,64 +2899,64 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D32" s="20">
-        <v>77.95</v>
+        <v>5</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>-96.227845510400371</v>
+        <v>7.6666410666235274</v>
       </c>
       <c r="G32" s="19">
-        <v>0</v>
+        <v>6.9915950589180001E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>0</v>
+        <v>3.3843314020080779</v>
       </c>
       <c r="I32" s="20">
-        <v>0</v>
+        <v>2.8766816917068661</v>
       </c>
       <c r="J32" s="20">
-        <v>0</v>
+        <v>5.5295017388016161</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="M32" s="16">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="N32" s="16">
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P32" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q32" s="19">
-        <v>0</v>
+        <v>3.9320610522022457E-3</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
       </c>
       <c r="S32" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="T32" s="19">
         <v>0</v>
       </c>
       <c r="U32" s="19">
-        <v>-4.3026634739724949E-2</v>
+        <v>0.12232431421528413</v>
       </c>
       <c r="V32" s="19" t="str">
         <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
@@ -2932,64 +2965,64 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D33" s="20">
-        <v>5.05</v>
+        <v>4.87</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>16.314062403345343</v>
+        <v>14.841478272561861</v>
       </c>
       <c r="G33" s="19">
-        <v>3.1326732673267327E-2</v>
+        <v>3.691471958062488E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>3.535518538951151</v>
+        <v>3.1392277833045452</v>
       </c>
       <c r="I33" s="20">
-        <v>3.0051907581084785</v>
+        <v>2.6683436158088631</v>
       </c>
       <c r="J33" s="20">
-        <v>5.9179894036649658</v>
+        <v>5.129038331168549</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="M33" s="16">
-        <v>45591</v>
+        <v>45625</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.49786034237394394</v>
       </c>
       <c r="P33" s="19">
-        <v>0.21645682425674254</v>
+        <v>0.33448624066316274</v>
       </c>
       <c r="Q33" s="19">
-        <v>1.0365594158118095E-3</v>
+        <v>6.0164745032668145E-3</v>
       </c>
       <c r="R33" s="19">
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>2.063358175126364E-2</v>
       </c>
       <c r="T33" s="19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U33" s="19">
-        <v>0.11237749163404374</v>
+        <v>0.14100336070836289</v>
       </c>
       <c r="V33" s="19" t="str">
         <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
@@ -2998,31 +3031,31 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D34" s="20">
-        <v>4.41</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>9.2767389291541598</v>
+        <v>6.6482918155281325</v>
       </c>
       <c r="G34" s="19">
-        <v>6.3542965074785712E-2</v>
+        <v>6.1573430726777269E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>2.6330527742295469</v>
+        <v>2.3043471646938949</v>
       </c>
       <c r="I34" s="20">
-        <v>2.2380948580951148</v>
+        <v>1.9586950899898106</v>
       </c>
       <c r="J34" s="20">
-        <v>4.3020225161223582</v>
+        <v>3.7649657023591487</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>15</v>
@@ -3031,31 +3064,31 @@
         <v>34</v>
       </c>
       <c r="M34" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N34" s="16">
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P34" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q34" s="19">
-        <v>3.7371996362297238E-4</v>
+        <v>4.6925281602255647E-4</v>
       </c>
       <c r="R34" s="19">
         <v>0</v>
       </c>
       <c r="S34" s="19">
-        <v>0.39408770164042439</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="T34" s="19">
         <v>0</v>
       </c>
       <c r="U34" s="19">
-        <v>0.10654780430421051</v>
+        <v>0.19964406567112258</v>
       </c>
       <c r="V34" s="19" t="str">
         <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
@@ -3064,64 +3097,64 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D35" s="20">
-        <v>4.55</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>12.550245313061588</v>
+        <v>3.8920475659291154</v>
       </c>
       <c r="G35" s="19">
-        <v>4.71937141138992E-2</v>
+        <v>7.0034396490816872E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>1.8672780372276283</v>
+        <v>3.18164138495953</v>
       </c>
       <c r="I35" s="20">
-        <v>1.587186331643484</v>
+        <v>2.7043951772156003</v>
       </c>
       <c r="J35" s="20">
-        <v>3.0508587745130034</v>
+        <v>5.1983359430870859</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="M35" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>0.78463553343209413</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P35" s="19">
-        <v>0.16010732347610457</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q35" s="19">
-        <v>1.2515926965280349E-5</v>
+        <v>9.7044800044936142E-4</v>
       </c>
       <c r="R35" s="19">
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <v>0</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="T35" s="19">
-        <v>8.8200573996119572E-5</v>
+        <v>0</v>
       </c>
       <c r="U35" s="19">
-        <v>5.5156426590839844E-2</v>
+        <v>0.34620797227785238</v>
       </c>
       <c r="V35" s="19" t="str">
         <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
@@ -3130,64 +3163,64 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="D36" s="20">
-        <v>14.22</v>
+        <v>79.45</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>11.863895576005444</v>
+        <v>-98.231014734918119</v>
       </c>
       <c r="G36" s="19">
-        <v>7.2433192686357242E-2</v>
+        <v>0</v>
       </c>
       <c r="H36" s="20">
-        <v>12.404422081762407</v>
+        <v>0</v>
       </c>
       <c r="I36" s="20">
-        <v>10.543758769498046</v>
+        <v>0</v>
       </c>
       <c r="J36" s="20">
-        <v>20.267008552778449</v>
+        <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M36" s="16">
-        <v>45624</v>
+        <v>45603</v>
       </c>
       <c r="N36" s="16">
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>0.75431095413462357</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P36" s="19">
-        <v>0.13135421474946254</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q36" s="19">
-        <v>7.2979774463912414E-4</v>
+        <v>0</v>
       </c>
       <c r="R36" s="19">
         <v>0</v>
       </c>
       <c r="S36" s="19">
-        <v>6.3176187869769956E-4</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="T36" s="19">
         <v>0</v>
       </c>
       <c r="U36" s="19">
-        <v>0.11297327149257705</v>
+        <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V36" s="19" t="str">
         <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
@@ -3196,37 +3229,37 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D37" s="20">
-        <v>21</v>
+        <v>5.16</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="26">
-        <v>11.793162144532678</v>
+        <v>16.669418218071677</v>
       </c>
       <c r="G37" s="19">
-        <v>3.8022062424251012E-2</v>
+        <v>3.0658914728682173E-2</v>
       </c>
       <c r="H37" s="20">
-        <v>18.476893239359814</v>
+        <v>3.519580832395298</v>
       </c>
       <c r="I37" s="20">
-        <v>15.705359253455841</v>
+        <v>2.9916437075360034</v>
       </c>
       <c r="J37" s="20">
-        <v>31.935546403555552</v>
+        <v>5.8875386908182588</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M37" s="16">
         <v>45591</v>
@@ -3235,25 +3268,25 @@
         <v>45716</v>
       </c>
       <c r="O37" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P37" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.21645682425674254</v>
       </c>
       <c r="Q37" s="19">
-        <v>1.2057353899630675E-2</v>
+        <v>1.0365594158118095E-3</v>
       </c>
       <c r="R37" s="19">
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="T37" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U37" s="19">
-        <v>0.12114381924831638</v>
+        <v>0.11237749163404374</v>
       </c>
       <c r="V37" s="19" t="str">
         <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
@@ -3262,64 +3295,64 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D38" s="20">
-        <v>7.13</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>11.669886252447871</v>
+        <v>9.4385405334897143</v>
       </c>
       <c r="G38" s="19">
-        <v>7.7138849929873785E-2</v>
+        <v>6.2453670214329439E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>5.2394500218794722</v>
+        <v>2.6155575908176467</v>
       </c>
       <c r="I38" s="20">
-        <v>4.4535325185975516</v>
+        <v>2.2232239521949997</v>
       </c>
       <c r="J38" s="20">
-        <v>10.094597840968474</v>
+        <v>4.2734379493038261</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M38" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N38" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O38" s="19">
-        <v>0.79501071628968012</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P38" s="19">
-        <v>0.12234231416665901</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q38" s="19">
-        <v>1.3233621247382252E-3</v>
+        <v>3.7371996362297238E-4</v>
       </c>
       <c r="R38" s="19">
         <v>0</v>
       </c>
       <c r="S38" s="19">
-        <v>6.4812855868203439E-3</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="T38" s="19">
         <v>0</v>
       </c>
       <c r="U38" s="19">
-        <v>7.4842321832102252E-2</v>
+        <v>0.10654780430421051</v>
       </c>
       <c r="V38" s="19" t="str">
         <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
@@ -3328,37 +3361,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D39" s="20">
-        <v>23.9</v>
+        <v>4.7</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>7.8147589247964264</v>
+        <v>12.984007634273725</v>
       </c>
       <c r="G39" s="19">
-        <v>6.1924686192468624E-2</v>
+        <v>4.5617093431188707E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>15.055568602950899</v>
+        <v>1.850406483640842</v>
       </c>
       <c r="I39" s="20">
-        <v>12.797233312508263</v>
+        <v>1.5728455110947157</v>
       </c>
       <c r="J39" s="20">
-        <v>25.298698586268713</v>
+        <v>3.0232931274729218</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="M39" s="16">
         <v>45593</v>
@@ -3367,25 +3400,25 @@
         <v>45716</v>
       </c>
       <c r="O39" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P39" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.16010732347610457</v>
       </c>
       <c r="Q39" s="19">
-        <v>1.9313252769435827E-2</v>
+        <v>1.2515926965280349E-5</v>
       </c>
       <c r="R39" s="19">
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <v>0.54295694135635775</v>
+        <v>0</v>
       </c>
       <c r="T39" s="19">
-        <v>0</v>
+        <v>8.8200573996119572E-5</v>
       </c>
       <c r="U39" s="19">
-        <v>0.29263922070029547</v>
+        <v>5.5156426590839844E-2</v>
       </c>
       <c r="V39" s="19" t="str">
         <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
@@ -3394,64 +3427,64 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D40" s="20">
-        <v>96.55</v>
+        <v>14.16</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>6.679182024790892</v>
+        <v>11.813503254993186</v>
       </c>
       <c r="G40" s="19">
-        <v>2.4181388191211291E-2</v>
+        <v>7.2740112994350278E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>19.819138235399119</v>
+        <v>12.425353155381483</v>
       </c>
       <c r="I40" s="20">
-        <v>16.846267500089251</v>
+        <v>10.56155018207426</v>
       </c>
       <c r="J40" s="20">
-        <v>33.303186195085416</v>
+        <v>20.301206860870554</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M40" s="16">
-        <v>45606</v>
+        <v>45624</v>
       </c>
       <c r="N40" s="16">
         <v>45716</v>
       </c>
       <c r="O40" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>0.75431095413462357</v>
       </c>
       <c r="P40" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.13135421474946254</v>
       </c>
       <c r="Q40" s="19">
-        <v>0</v>
+        <v>7.2979774463912414E-4</v>
       </c>
       <c r="R40" s="19">
         <v>0</v>
       </c>
       <c r="S40" s="19">
-        <v>0.50814791601378884</v>
+        <v>6.3176187869769956E-4</v>
       </c>
       <c r="T40" s="19">
         <v>0</v>
       </c>
       <c r="U40" s="19">
-        <v>0.15564608795570867</v>
+        <v>0.11297327149257705</v>
       </c>
       <c r="V40" s="19" t="str">
         <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
@@ -3460,64 +3493,64 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D41" s="20">
-        <v>5.62</v>
+        <v>21.65</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>4.8858184024075717</v>
+        <v>12.157871248350093</v>
       </c>
       <c r="G41" s="19">
-        <v>7.1640813796121458E-2</v>
+        <v>3.6881485095475619E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>3.9293557981174994</v>
+        <v>18.190452630451425</v>
       </c>
       <c r="I41" s="20">
-        <v>3.3399524283998745</v>
+        <v>15.461884735883711</v>
       </c>
       <c r="J41" s="20">
-        <v>6.4199917611995918</v>
+        <v>31.481704297517592</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="M41" s="16">
-        <v>45606</v>
+        <v>45591</v>
       </c>
       <c r="N41" s="16">
         <v>45716</v>
       </c>
       <c r="O41" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P41" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q41" s="19">
-        <v>1.3780163008283218E-3</v>
+        <v>1.2057353899630675E-2</v>
       </c>
       <c r="R41" s="19">
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <v>0.583299310268654</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="T41" s="19">
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <v>0.20923165729470938</v>
+        <v>0.12114381924831638</v>
       </c>
       <c r="V41" s="19" t="str">
         <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
@@ -3526,64 +3559,64 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D42" s="20">
-        <v>35.25</v>
+        <v>7.18</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="26">
-        <v>6.2758754943954127</v>
+        <v>11.751722761932076</v>
       </c>
       <c r="G42" s="19">
-        <v>6.0063875072109502E-2</v>
+        <v>7.660167130919221E-2</v>
       </c>
       <c r="H42" s="20">
-        <v>19.570906630597907</v>
+        <v>5.2274465267357959</v>
       </c>
       <c r="I42" s="20">
-        <v>16.635270636008222</v>
+        <v>4.4433295477254262</v>
       </c>
       <c r="J42" s="20">
-        <v>31.975994484347755</v>
+        <v>10.069451611015149</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M42" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N42" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O42" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>0.79501071628968012</v>
       </c>
       <c r="P42" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.12234231416665901</v>
       </c>
       <c r="Q42" s="19">
-        <v>3.9962087250557162E-3</v>
+        <v>1.3233621247382252E-3</v>
       </c>
       <c r="R42" s="19">
         <v>0</v>
       </c>
       <c r="S42" s="19">
-        <v>0.34356507928375646</v>
+        <v>6.4812855868203439E-3</v>
       </c>
       <c r="T42" s="19">
         <v>0</v>
       </c>
       <c r="U42" s="19">
-        <v>0.37552834490355302</v>
+        <v>7.4842321832102252E-2</v>
       </c>
       <c r="V42" s="19" t="str">
         <f>IF(D42&lt;=H42,-(I42/D42-1),"")</f>
@@ -3592,31 +3625,31 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D43" s="20">
-        <v>3.61</v>
+        <v>24.3</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="26">
-        <v>3.9168996756187426</v>
+        <v>7.945549869144485</v>
       </c>
       <c r="G43" s="19">
-        <v>8.9223573082371763E-2</v>
+        <v>6.0905349794238679E-2</v>
       </c>
       <c r="H43" s="20">
-        <v>3.4099677681421876</v>
+        <v>14.983448352271042</v>
       </c>
       <c r="I43" s="20">
-        <v>2.8984726029208594</v>
+        <v>12.735931099430385</v>
       </c>
       <c r="J43" s="20">
-        <v>5.571387805583079</v>
+        <v>25.177510969113008</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>15</v>
@@ -3625,31 +3658,31 @@
         <v>34</v>
       </c>
       <c r="M43" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N43" s="16">
         <v>45716</v>
       </c>
       <c r="O43" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P43" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q43" s="19">
-        <v>0</v>
+        <v>1.9313252769435827E-2</v>
       </c>
       <c r="R43" s="19">
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <v>0</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="T43" s="19">
-        <v>0.49757189674208302</v>
+        <v>0</v>
       </c>
       <c r="U43" s="19">
-        <v>0.29524894411244107</v>
+        <v>0.29263922070029547</v>
       </c>
       <c r="V43" s="19" t="str">
         <f>IF(D43&lt;=H43,-(I43/D43-1),"")</f>
@@ -3658,49 +3691,49 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="4" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D44" s="20">
-        <v>197.1</v>
+        <v>96.25</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>74.102730763814307</v>
+        <v>6.6583259462723934</v>
       </c>
       <c r="G44" s="19">
-        <v>0</v>
+        <v>2.4257132294890169E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>0</v>
+        <v>19.826773334350232</v>
       </c>
       <c r="I44" s="20">
-        <v>0</v>
+        <v>16.852757334197698</v>
       </c>
       <c r="J44" s="20">
-        <v>0</v>
+        <v>33.316015871076715</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M44" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N44" s="16">
         <v>45716</v>
       </c>
       <c r="O44" s="19">
-        <v>0.58108816177312361</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P44" s="19">
-        <v>0.23828361372817153</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q44" s="19">
         <v>0</v>
@@ -3709,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="S44" s="19">
-        <v>5.7183940942846252E-3</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="T44" s="19">
         <v>0</v>
       </c>
       <c r="U44" s="19">
-        <v>0.17490983040442024</v>
+        <v>0.15564608795570867</v>
       </c>
       <c r="V44" s="19" t="str">
         <f>IF(D44&lt;=H44,-(I44/D44-1),"")</f>
@@ -3724,64 +3757,64 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D45" s="20">
-        <v>5.73</v>
+        <v>5.72</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>15.978076966992584</v>
+        <v>4.9804332084251435</v>
       </c>
       <c r="G45" s="19">
-        <v>5.8384141639057044E-2</v>
+        <v>7.0279831444466867E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>4.3044476850452238</v>
+        <v>3.8984480360264477</v>
       </c>
       <c r="I45" s="20">
-        <v>3.6587805322884401</v>
+        <v>3.3136808306224803</v>
       </c>
       <c r="J45" s="20">
-        <v>6.6899604109901096</v>
+        <v>6.3694930056334167</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="M45" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N45" s="16">
         <v>45716</v>
       </c>
       <c r="O45" s="19">
-        <v>0.35166796085418528</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P45" s="19">
-        <v>0.43886385985236792</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q45" s="19">
-        <v>0</v>
+        <v>1.3780163008283218E-3</v>
       </c>
       <c r="R45" s="19">
         <v>0</v>
       </c>
       <c r="S45" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="T45" s="19">
         <v>0</v>
       </c>
       <c r="U45" s="19">
-        <v>0.2067479536230501</v>
+        <v>0.20923165729470938</v>
       </c>
       <c r="V45" s="19" t="str">
         <f>IF(D45&lt;=H45,-(I45/D45-1),"")</f>
@@ -3790,64 +3823,64 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D46" s="20">
-        <v>1.9</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>39.054921702281248</v>
+        <v>6.383638870500711</v>
       </c>
       <c r="G46" s="19">
-        <v>6.6564666748046869E-2</v>
+        <v>5.904992580413819E-2</v>
       </c>
       <c r="H46" s="20">
-        <v>1.5318807992768995</v>
+        <v>19.447458587786052</v>
       </c>
       <c r="I46" s="20">
-        <v>1.3020986793853644</v>
+        <v>16.530339799618144</v>
       </c>
       <c r="J46" s="20">
-        <v>2.2145114153343521</v>
+        <v>31.774298466347041</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M46" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N46" s="16">
         <v>45716</v>
       </c>
       <c r="O46" s="19">
-        <v>0.55541924442229906</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P46" s="19">
-        <v>0.37949349616392825</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q46" s="19">
-        <v>1.8148224946381651E-3</v>
+        <v>3.9962087250557162E-3</v>
       </c>
       <c r="R46" s="19">
         <v>0</v>
       </c>
       <c r="S46" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="T46" s="19">
-        <v>1.2789175437999239E-2</v>
+        <v>0</v>
       </c>
       <c r="U46" s="19">
-        <v>4.9862433731434744E-2</v>
+        <v>0.37552834490355302</v>
       </c>
       <c r="V46" s="19" t="str">
         <f>IF(D46&lt;=H46,-(I46/D46-1),"")</f>
@@ -3856,31 +3889,31 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D47" s="20">
-        <v>2.7</v>
+        <v>3.67</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>5.6906406377340994</v>
+        <v>3.9881491923237884</v>
       </c>
       <c r="G47" s="19">
-        <v>8.3504062228732634E-2</v>
+        <v>8.7629566400512365E-2</v>
       </c>
       <c r="H47" s="20">
-        <v>2.3248898882795914</v>
+        <v>3.3798704493543852</v>
       </c>
       <c r="I47" s="20">
-        <v>1.9761564050376526</v>
+        <v>2.8728898819512274</v>
       </c>
       <c r="J47" s="20">
-        <v>3.798529503386268</v>
+        <v>5.5222131956522453</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>15</v>
@@ -3889,31 +3922,31 @@
         <v>34</v>
       </c>
       <c r="M47" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N47" s="16">
         <v>45716</v>
       </c>
       <c r="O47" s="19">
-        <v>0.19853855217217412</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P47" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q47" s="19">
-        <v>1.3644023113167324E-3</v>
+        <v>0</v>
       </c>
       <c r="R47" s="19">
         <v>0</v>
       </c>
       <c r="S47" s="19">
-        <v>0.51643948647548221</v>
+        <v>0</v>
       </c>
       <c r="T47" s="19">
-        <v>0</v>
+        <v>0.49757189674208302</v>
       </c>
       <c r="U47" s="19">
-        <v>0.12544574278854531</v>
+        <v>0.29524894411244107</v>
       </c>
       <c r="V47" s="19" t="str">
         <f>IF(D47&lt;=H47,-(I47/D47-1),"")</f>
@@ -3922,37 +3955,37 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="4" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D48" s="20">
-        <v>1.68</v>
+        <v>205.2</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>-24.318118743867512</v>
+        <v>77.267174397395266</v>
       </c>
       <c r="G48" s="19">
-        <v>6.390617007300968E-2</v>
+        <v>0</v>
       </c>
       <c r="H48" s="20">
-        <v>1.0105248835586804</v>
+        <v>0</v>
       </c>
       <c r="I48" s="20">
-        <v>0.85894615102487837</v>
+        <v>0</v>
       </c>
       <c r="J48" s="20">
-        <v>1.6510496275348767</v>
+        <v>0</v>
       </c>
       <c r="K48" s="6" t="s">
         <v>29</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="M48" s="16">
         <v>45593</v>
@@ -3961,82 +3994,362 @@
         <v>45716</v>
       </c>
       <c r="O48" s="19">
-        <v>0.39325092997635303</v>
+        <v>0.58108816177312361</v>
       </c>
       <c r="P48" s="19">
-        <v>0.81977588376563215</v>
+        <v>0.23828361372817153</v>
       </c>
       <c r="Q48" s="19">
-        <v>3.1621500776708874E-3</v>
+        <v>0</v>
       </c>
       <c r="R48" s="19">
         <v>0</v>
       </c>
       <c r="S48" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>5.7183940942846252E-3</v>
       </c>
       <c r="T48" s="19">
-        <v>1.5672463941809065E-4</v>
+        <v>0</v>
       </c>
       <c r="U48" s="19">
-        <v>-0.22591626294706857</v>
+        <v>0.17490983040442024</v>
       </c>
       <c r="V48" s="19" t="str">
         <f>IF(D48&lt;=H48,-(I48/D48-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="G49" s="19"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="19"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="G51" s="19"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="G52" s="19"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="G53" s="19"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-    </row>
-    <row r="54" spans="2:14">
+    <row r="49" spans="2:22">
+      <c r="B49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="20">
+        <v>5.73</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="26">
+        <v>16.002252140675672</v>
+      </c>
+      <c r="G49" s="19">
+        <v>5.8295938631626944E-2</v>
+      </c>
+      <c r="H49" s="20">
+        <v>4.2959982847185678</v>
+      </c>
+      <c r="I49" s="20">
+        <v>3.6515985420107824</v>
+      </c>
+      <c r="J49" s="20">
+        <v>6.6768942482362901</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M49" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N49" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O49" s="19">
+        <v>0.35166796085418528</v>
+      </c>
+      <c r="P49" s="19">
+        <v>0.43886385985236792</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>0</v>
+      </c>
+      <c r="R49" s="19">
+        <v>0</v>
+      </c>
+      <c r="S49" s="19">
+        <v>2.7202256703967287E-3</v>
+      </c>
+      <c r="T49" s="19">
+        <v>0</v>
+      </c>
+      <c r="U49" s="19">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V49" s="19" t="str">
+        <f>IF(D49&lt;=H49,-(I49/D49-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1.92</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="26">
+        <v>39.525739086591244</v>
+      </c>
+      <c r="G50" s="19">
+        <v>6.5771770700812346E-2</v>
+      </c>
+      <c r="H50" s="20">
+        <v>1.5270502588602928</v>
+      </c>
+      <c r="I50" s="20">
+        <v>1.2979927200312489</v>
+      </c>
+      <c r="J50" s="20">
+        <v>2.2070546517489893</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N50" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O50" s="19">
+        <v>0.55541924442229906</v>
+      </c>
+      <c r="P50" s="19">
+        <v>0.37949349616392825</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>1.8148224946381651E-3</v>
+      </c>
+      <c r="R50" s="19">
+        <v>0</v>
+      </c>
+      <c r="S50" s="19">
+        <v>6.208277497005729E-4</v>
+      </c>
+      <c r="T50" s="19">
+        <v>1.2789175437999239E-2</v>
+      </c>
+      <c r="U50" s="19">
+        <v>4.9862433731434744E-2</v>
+      </c>
+      <c r="V50" s="19" t="str">
+        <f>IF(D50&lt;=H50,-(I50/D50-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="20">
+        <v>2.75</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="26">
+        <v>5.8047923788780853</v>
+      </c>
+      <c r="G51" s="19">
+        <v>8.1861947666515E-2</v>
+      </c>
+      <c r="H51" s="20">
+        <v>2.3038399075635825</v>
+      </c>
+      <c r="I51" s="20">
+        <v>1.9582639214290452</v>
+      </c>
+      <c r="J51" s="20">
+        <v>3.7641369185165212</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M51" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N51" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O51" s="19">
+        <v>0.19853855217217412</v>
+      </c>
+      <c r="P51" s="19">
+        <v>0.15821181625248168</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>1.3644023113167324E-3</v>
+      </c>
+      <c r="R51" s="19">
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <v>0.51643948647548221</v>
+      </c>
+      <c r="T51" s="19">
+        <v>0</v>
+      </c>
+      <c r="U51" s="19">
+        <v>0.12544574278854531</v>
+      </c>
+      <c r="V51" s="19" t="str">
+        <f>IF(D51&lt;=H51,-(I51/D51-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="20">
+        <v>1.71</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="26">
+        <v>-24.789821733127848</v>
+      </c>
+      <c r="G52" s="19">
+        <v>6.26901576393529E-2</v>
+      </c>
+      <c r="H52" s="20">
+        <v>1.0032451420942146</v>
+      </c>
+      <c r="I52" s="20">
+        <v>0.85275837078008232</v>
+      </c>
+      <c r="J52" s="20">
+        <v>1.639155596394219</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M52" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N52" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O52" s="19">
+        <v>0.39325092997635303</v>
+      </c>
+      <c r="P52" s="19">
+        <v>0.81977588376563215</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>3.1621500776708874E-3</v>
+      </c>
+      <c r="R52" s="19">
+        <v>0</v>
+      </c>
+      <c r="S52" s="19">
+        <v>9.5705744879944314E-3</v>
+      </c>
+      <c r="T52" s="19">
+        <v>1.5672463941809065E-4</v>
+      </c>
+      <c r="U52" s="19">
+        <v>-0.22591626294706857</v>
+      </c>
+      <c r="V52" s="19" t="str">
+        <f>IF(D52&lt;=H52,-(I52/D52-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="20">
+        <v>83.95</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="26">
+        <v>14554.028521000922</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1.1492573270633008E-2</v>
+      </c>
+      <c r="H53" s="20">
+        <v>3.9844187603154585E-2</v>
+      </c>
+      <c r="I53" s="20">
+        <v>3.3867559462681399E-2</v>
+      </c>
+      <c r="J53" s="20">
+        <v>6.5099565752353941E-2</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N53" s="16">
+        <v>45808</v>
+      </c>
+      <c r="O53" s="19">
+        <v>0.62297379426414834</v>
+      </c>
+      <c r="P53" s="19">
+        <v>0.22247037723339511</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>3.796700836974199E-4</v>
+      </c>
+      <c r="R53" s="19">
+        <v>0</v>
+      </c>
+      <c r="S53" s="19">
+        <v>8.4437634938714454E-3</v>
+      </c>
+      <c r="T53" s="19">
+        <v>0</v>
+      </c>
+      <c r="U53" s="19">
+        <v>0.14573239492488765</v>
+      </c>
+      <c r="V53" s="19" t="str">
+        <f>IF(D53&lt;=H53,-(I53/D53-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="E54" s="5"/>
@@ -4046,7 +4359,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:22">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="E55" s="5"/>
@@ -4056,7 +4369,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:22">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="E56" s="5"/>
@@ -4066,7 +4379,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:22">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="E57" s="5"/>
@@ -4076,7 +4389,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:22">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="E58" s="5"/>
@@ -4086,7 +4399,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:22">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="E59" s="5"/>
@@ -4096,7 +4409,7 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:22">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="E60" s="5"/>
@@ -4106,7 +4419,7 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:22">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="E61" s="5"/>
@@ -4116,7 +4429,7 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:22">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="E62" s="5"/>
@@ -4126,7 +4439,7 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:22">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="E63" s="5"/>
@@ -4136,7 +4449,7 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:22">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="E64" s="5"/>
@@ -6108,7 +6421,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:V36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V48">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V53">
       <sortCondition ref="V4:V36"/>
     </sortState>
   </autoFilter>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B24920-6A0D-4DB0-980C-A790FA79B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757A20C-94F1-4C39-9116-C0FD9B32FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
   <si>
     <t>Name</t>
   </si>
@@ -116,6 +116,342 @@
   <si>
     <t>Normalized PE Ratio</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005.HK</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>0011.HK</t>
+  </si>
+  <si>
+    <t>恒生銀行</t>
+  </si>
+  <si>
+    <t>0016.HK</t>
+  </si>
+  <si>
+    <t>新鴻基地產</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>C0005</t>
+  </si>
+  <si>
+    <t>0027.HK</t>
+  </si>
+  <si>
+    <t>銀河娛樂</t>
+  </si>
+  <si>
+    <t>C0011</t>
+  </si>
+  <si>
+    <t>0069.HK</t>
+  </si>
+  <si>
+    <t>SHANGRI-LA ASIA</t>
+  </si>
+  <si>
+    <t>0083.HK</t>
+  </si>
+  <si>
+    <t>SINO LAND</t>
+  </si>
+  <si>
+    <t>0116.HK</t>
+  </si>
+  <si>
+    <t>周生生</t>
+  </si>
+  <si>
+    <t>C0003</t>
+  </si>
+  <si>
+    <t>0179.HK</t>
+  </si>
+  <si>
+    <t>JOHNSON ELECTRIC</t>
+  </si>
+  <si>
+    <t>C0006</t>
+  </si>
+  <si>
+    <t>0220.HK</t>
+  </si>
+  <si>
+    <t>统一中国</t>
+  </si>
+  <si>
+    <t>C0002</t>
+  </si>
+  <si>
+    <t>0268.HK</t>
+  </si>
+  <si>
+    <t>金蝶国际</t>
+  </si>
+  <si>
+    <t>C0009</t>
+  </si>
+  <si>
+    <t>0300.HK</t>
+  </si>
+  <si>
+    <t>美的集團</t>
+  </si>
+  <si>
+    <t>0322.HK</t>
+  </si>
+  <si>
+    <t>康师傅控股</t>
+  </si>
+  <si>
+    <t>0398.HK</t>
+  </si>
+  <si>
+    <t>東方表行集團</t>
+  </si>
+  <si>
+    <t>0468.HK</t>
+  </si>
+  <si>
+    <t>紛美包裝</t>
+  </si>
+  <si>
+    <t>C0007</t>
+  </si>
+  <si>
+    <t>0590.HK</t>
+  </si>
+  <si>
+    <t>六福珠宝</t>
+  </si>
+  <si>
+    <t>0669.HK</t>
+  </si>
+  <si>
+    <t>創科實業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
+  </si>
+  <si>
+    <t>0696.HK</t>
+  </si>
+  <si>
+    <t>中國民航信息網絡</t>
+  </si>
+  <si>
+    <t>0700.HK</t>
+  </si>
+  <si>
+    <t>騰訊控股</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+  </si>
+  <si>
+    <t>0710.HK</t>
+  </si>
+  <si>
+    <t>京东方精电</t>
+  </si>
+  <si>
+    <t>0762.HK</t>
+  </si>
+  <si>
+    <t>中国联通</t>
+  </si>
+  <si>
+    <t>C0010</t>
+  </si>
+  <si>
+    <t>0788.HK</t>
+  </si>
+  <si>
+    <t>中国铁塔</t>
+  </si>
+  <si>
+    <t>0811.HK</t>
+  </si>
+  <si>
+    <t>新华文轩</t>
+  </si>
+  <si>
+    <t>C0012</t>
+  </si>
+  <si>
+    <t>0831.HK</t>
+  </si>
+  <si>
+    <t>利亞零售</t>
+  </si>
+  <si>
+    <t>0857.HK</t>
+  </si>
+  <si>
+    <t>中國石油股份</t>
+  </si>
+  <si>
+    <t>C0013</t>
+  </si>
+  <si>
+    <t>0887.HK</t>
+  </si>
+  <si>
+    <t>英皇鐘錶珠寶</t>
+  </si>
+  <si>
+    <t>0939.HK</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t>0941.HK</t>
+  </si>
+  <si>
+    <t>中国移动</t>
+  </si>
+  <si>
+    <t>0998.HK</t>
+  </si>
+  <si>
+    <t>中信银行</t>
+  </si>
+  <si>
+    <t>1066.HK</t>
+  </si>
+  <si>
+    <t>威高股份</t>
+  </si>
+  <si>
+    <t>1288.HK</t>
+  </si>
+  <si>
+    <t>农业银行</t>
+  </si>
+  <si>
+    <t>1398.HK</t>
+  </si>
+  <si>
+    <t>工商银行</t>
+  </si>
+  <si>
+    <t>1405.HK</t>
+  </si>
+  <si>
+    <t>達勢股份</t>
+  </si>
+  <si>
+    <t>1475.HK</t>
+  </si>
+  <si>
+    <t>NISSIN FOODS</t>
+  </si>
+  <si>
+    <t>1766.HK</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
+    <t>C0004</t>
+  </si>
+  <si>
+    <t>1836.HK</t>
+  </si>
+  <si>
+    <t>九興控股</t>
+  </si>
+  <si>
+    <t>1910.HK</t>
+  </si>
+  <si>
+    <t>SAMSONITE</t>
+  </si>
+  <si>
+    <t>C0001</t>
+  </si>
+  <si>
+    <t>1929.HK</t>
+  </si>
+  <si>
+    <t>周大福</t>
+  </si>
+  <si>
+    <t>2388.HK</t>
+  </si>
+  <si>
+    <t>中银香港</t>
+  </si>
+  <si>
+    <t>2888.HK</t>
+  </si>
+  <si>
+    <t>Standard Chartered</t>
+  </si>
+  <si>
+    <t>3328.HK</t>
+  </si>
+  <si>
+    <t>交通银行</t>
+  </si>
+  <si>
+    <t>3968.HK</t>
+  </si>
+  <si>
+    <t>招商银行</t>
+  </si>
+  <si>
+    <t>3988.HK</t>
+  </si>
+  <si>
+    <t>中国银行</t>
+  </si>
+  <si>
+    <t>6181.HK</t>
+  </si>
+  <si>
+    <t>老鋪黃金</t>
+  </si>
+  <si>
+    <t>6186.HK</t>
+  </si>
+  <si>
+    <t>中国飞鹤</t>
+  </si>
+  <si>
+    <t>6601.HK</t>
+  </si>
+  <si>
+    <t>朝云集团</t>
+  </si>
+  <si>
+    <t>6818.HK</t>
+  </si>
+  <si>
+    <t>中国光大银行</t>
+  </si>
+  <si>
+    <t>9959.HK</t>
+  </si>
+  <si>
+    <t>聯易融科技－Ｗ</t>
+  </si>
+  <si>
+    <t>C0008</t>
+  </si>
+  <si>
+    <t>9988.HK</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
   </si>
 </sst>
 </file>
@@ -645,7 +981,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="B53" sqref="B45:R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -781,551 +1117,3239 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D5" s="20">
-        <v>4.4800000000000004</v>
+        <v>7.85</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>9.4350201244330041</v>
+        <v>34.017508108669347</v>
       </c>
       <c r="G5" s="19">
-        <v>6.2476973022733411E-2</v>
+        <v>7.3885350318471335E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>2.6168204665267152</v>
+        <v>8.4275557156850915</v>
       </c>
       <c r="I5" s="20">
-        <v>2.224297396547708</v>
+        <v>7.1634223583323262</v>
       </c>
       <c r="J5" s="20">
-        <v>4.2755013032132689</v>
+        <v>12.399791481902572</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M5" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N5" s="16">
         <v>45716</v>
       </c>
       <c r="O5" s="19">
+        <v>0.60969766115231028</v>
+      </c>
+      <c r="P5" s="19">
+        <v>0.12367370222475756</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="19">
+        <v>1.0724472333143184E-2</v>
+      </c>
+      <c r="T5" s="19">
+        <v>1.038220193953223E-2</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0.22552196235025673</v>
+      </c>
+      <c r="V5" s="19">
+        <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
+        <v>8.7462119957665396E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="20">
+        <v>73.3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26">
+        <v>17.526567370473838</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6.4766520530107397E-2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>48.943310228723689</v>
+      </c>
+      <c r="I6" s="20">
+        <v>41.601813694415135</v>
+      </c>
+      <c r="J6" s="20">
+        <v>82.242131529196101</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N6" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O6" s="19">
+        <v>3.237354486453075E-2</v>
+      </c>
+      <c r="P6" s="19">
+        <v>0.27531678170392498</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>2.3869305285384647E-2</v>
+      </c>
+      <c r="R6" s="19">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19">
+        <v>0.55863466227121317</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0.10980570587494648</v>
+      </c>
+      <c r="V6" s="19" t="str">
+        <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="20">
+        <v>95.65</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="26">
+        <v>9.5513374192768019</v>
+      </c>
+      <c r="G7" s="19">
+        <v>7.1092524830109763E-2</v>
+      </c>
+      <c r="H7" s="20">
+        <v>72.212223437329754</v>
+      </c>
+      <c r="I7" s="20">
+        <v>61.380389921730291</v>
+      </c>
+      <c r="J7" s="20">
+        <v>121.34216403007365</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N7" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O7" s="19">
+        <v>4.1966617135767562E-2</v>
+      </c>
+      <c r="P7" s="19">
+        <v>0.2109727772407923</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19">
+        <v>0.39159225009737869</v>
+      </c>
+      <c r="T7" s="19">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0.35546835552606143</v>
+      </c>
+      <c r="V7" s="19" t="str">
+        <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20">
+        <v>78.05</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="26">
+        <v>14.931573255261775</v>
+      </c>
+      <c r="G8" s="19">
+        <v>4.8046124279308135E-2</v>
+      </c>
+      <c r="H8" s="20">
+        <v>15.417000652106159</v>
+      </c>
+      <c r="I8" s="20">
+        <v>12.798580074093763</v>
+      </c>
+      <c r="J8" s="20">
+        <v>49.618678446192035</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="16">
+        <v>45625</v>
+      </c>
+      <c r="N8" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.54949235029228316</v>
+      </c>
+      <c r="P8" s="19">
+        <v>0.10108242664951193</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>1.0218987976510586E-2</v>
+      </c>
+      <c r="R8" s="19">
+        <v>0</v>
+      </c>
+      <c r="S8" s="19">
+        <v>5.6582664391799292E-2</v>
+      </c>
+      <c r="T8" s="19">
+        <v>5.719799737085E-3</v>
+      </c>
+      <c r="U8" s="19">
+        <v>0.27690377095281005</v>
+      </c>
+      <c r="V8" s="19" t="str">
+        <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="20">
+        <v>35.5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="26">
+        <v>32.601508239900348</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1.4084507042253521E-2</v>
+      </c>
+      <c r="H9" s="20">
+        <v>9.5403195227563842</v>
+      </c>
+      <c r="I9" s="20">
+        <v>8.1092715943429265</v>
+      </c>
+      <c r="J9" s="20">
+        <v>16.031122728609699</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N9" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O9" s="19">
+        <v>0.47272944175123971</v>
+      </c>
+      <c r="P9" s="19">
+        <v>0.35112695227219692</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>1.6858097812807804E-3</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0</v>
+      </c>
+      <c r="S9" s="19">
+        <v>0</v>
+      </c>
+      <c r="T9" s="19">
+        <v>0</v>
+      </c>
+      <c r="U9" s="19">
+        <v>0.17445779619528262</v>
+      </c>
+      <c r="V9" s="19" t="str">
+        <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="20">
+        <v>5.57</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="26">
+        <v>-44.343993008658067</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3.582654295444862E-2</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1.7925122781935825</v>
+      </c>
+      <c r="I10" s="20">
+        <v>1.523635436464545</v>
+      </c>
+      <c r="J10" s="20">
+        <v>3.0120568033091102</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N10" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O10" s="19">
+        <v>0.45524911405880131</v>
+      </c>
+      <c r="P10" s="19">
+        <v>0.44873026767330132</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>1.0703282304304319E-2</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19">
+        <v>0.12063647696552883</v>
+      </c>
+      <c r="T10" s="19">
+        <v>0</v>
+      </c>
+      <c r="U10" s="19">
+        <v>-3.5319141001935742E-2</v>
+      </c>
+      <c r="V10" s="19" t="str">
+        <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="20">
+        <v>6.56</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="26">
+        <v>5.9335881460545279</v>
+      </c>
+      <c r="G11" s="19">
+        <v>8.3841463414634151E-2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>5.3911052273302467</v>
+      </c>
+      <c r="I11" s="20">
+        <v>4.5824394432307098</v>
+      </c>
+      <c r="J11" s="20">
+        <v>10.412604611370488</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N11" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0.73600077942413045</v>
+      </c>
+      <c r="P11" s="19">
+        <v>0.20890317762054877</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0</v>
+      </c>
+      <c r="S11" s="19">
+        <v>5.1931891220120593E-3</v>
+      </c>
+      <c r="T11" s="19">
+        <v>0</v>
+      </c>
+      <c r="U11" s="19">
+        <v>4.9902853833308697E-2</v>
+      </c>
+      <c r="V11" s="19" t="str">
+        <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="20">
+        <v>10.92</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="26">
+        <v>9.5412174494207918</v>
+      </c>
+      <c r="G12" s="19">
+        <v>5.5732537931575003E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <v>10.10196253557397</v>
+      </c>
+      <c r="I12" s="20">
+        <v>8.5866681552378736</v>
+      </c>
+      <c r="J12" s="20">
+        <v>16.974882321427138</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N12" s="16">
+        <v>45808</v>
+      </c>
+      <c r="O12" s="19">
+        <v>0.77696054205677556</v>
+      </c>
+      <c r="P12" s="19">
+        <v>0.14204607870614464</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>1.0871617989521474E-3</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0</v>
+      </c>
+      <c r="S12" s="19">
+        <v>8.274315042185636E-3</v>
+      </c>
+      <c r="T12" s="19">
+        <v>2.3595955443495159E-2</v>
+      </c>
+      <c r="U12" s="19">
+        <v>4.8035946952446888E-2</v>
+      </c>
+      <c r="V12" s="19" t="str">
+        <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="20">
+        <v>6.98</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="26">
+        <v>29.257910698464837</v>
+      </c>
+      <c r="G13" s="19">
+        <v>6.5219844446482836E-2</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1.948805731796168</v>
+      </c>
+      <c r="I13" s="20">
+        <v>1.6564848720267427</v>
+      </c>
+      <c r="J13" s="20">
+        <v>3.1840630844129567</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N13" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O13" s="19">
+        <v>0.69530102386843873</v>
+      </c>
+      <c r="P13" s="19">
+        <v>0.25685454836897598</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>0</v>
+      </c>
+      <c r="R13" s="19">
+        <v>0</v>
+      </c>
+      <c r="S13" s="19">
+        <v>2.0677989446499247E-3</v>
+      </c>
+      <c r="T13" s="19">
+        <v>9.6644881579416319E-4</v>
+      </c>
+      <c r="U13" s="19">
+        <v>4.4810180002141216E-2</v>
+      </c>
+      <c r="V13" s="19" t="str">
+        <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="20">
+        <v>8.75</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="26">
+        <v>-62.193560900447089</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N14" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O14" s="19">
+        <v>0.35834792051449244</v>
+      </c>
+      <c r="P14" s="19">
+        <v>0.74823479113580682</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>0</v>
+      </c>
+      <c r="R14" s="19">
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <v>3.8655956702792868E-3</v>
+      </c>
+      <c r="T14" s="19">
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
+        <v>-0.11044830732057855</v>
+      </c>
+      <c r="V14" s="19" t="str">
+        <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="20">
+        <v>70.8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="26">
+        <v>21.366750307740915</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
+        <v>28.760415622337696</v>
+      </c>
+      <c r="I15" s="20">
+        <v>24.44635327898704</v>
+      </c>
+      <c r="J15" s="20">
+        <v>46.990306001951602</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="16">
+        <v>45625</v>
+      </c>
+      <c r="N15" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O15" s="19">
+        <v>0.73672180139004328</v>
+      </c>
+      <c r="P15" s="19">
+        <v>0.16976569605864555</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>9.0683554379893485E-5</v>
+      </c>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="19">
+        <v>9.0252248239117653E-3</v>
+      </c>
+      <c r="T15" s="19">
+        <v>0</v>
+      </c>
+      <c r="U15" s="19">
+        <v>8.4396594173019507E-2</v>
+      </c>
+      <c r="V15" s="19" t="str">
+        <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="20">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="26">
+        <v>24.115309374839001</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2.954445272802832E-2</v>
+      </c>
+      <c r="H16" s="20">
+        <v>3.5224728040675024</v>
+      </c>
+      <c r="I16" s="20">
+        <v>2.9941018834573772</v>
+      </c>
+      <c r="J16" s="20">
+        <v>5.7552045533767053</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N16" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O16" s="19">
+        <v>0.69575137181535374</v>
+      </c>
+      <c r="P16" s="19">
+        <v>0.25490688505040687</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>6.6188436699916855E-3</v>
+      </c>
+      <c r="R16" s="19">
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <v>6.4552900576145354E-3</v>
+      </c>
+      <c r="T16" s="19">
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
+        <v>3.6267609406633192E-2</v>
+      </c>
+      <c r="V16" s="19" t="str">
+        <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3.73</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="26">
+        <v>8.9247565393365615</v>
+      </c>
+      <c r="G17" s="19">
+        <v>6.5201072386058975E-2</v>
+      </c>
+      <c r="H17" s="20">
+        <v>2.3525975057142103</v>
+      </c>
+      <c r="I17" s="20">
+        <v>1.9997078798570787</v>
+      </c>
+      <c r="J17" s="20">
+        <v>4.2217200096771643</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="16">
+        <v>45619</v>
+      </c>
+      <c r="N17" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O17" s="19">
+        <v>0.68375747988736812</v>
+      </c>
+      <c r="P17" s="19">
+        <v>0.21895053202218998</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>2.4257361073934199E-4</v>
+      </c>
+      <c r="R17" s="19">
+        <v>0</v>
+      </c>
+      <c r="S17" s="19">
+        <v>3.7548526172941428E-3</v>
+      </c>
+      <c r="T17" s="19">
+        <v>0</v>
+      </c>
+      <c r="U17" s="19">
+        <v>9.3294561862408407E-2</v>
+      </c>
+      <c r="V17" s="19" t="str">
+        <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="20">
+        <v>2.5</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="26">
+        <v>17.31195775008462</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2.5737640380859378E-2</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1.3204291324436404</v>
+      </c>
+      <c r="I18" s="20">
+        <v>1.1223647625770943</v>
+      </c>
+      <c r="J18" s="20">
+        <v>2.1573877722138013</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N18" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O18" s="19">
+        <v>0.82154354610382485</v>
+      </c>
+      <c r="P18" s="19">
+        <v>0.1102707353696761</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <v>1.9909979330197799E-3</v>
+      </c>
+      <c r="T18" s="19">
+        <v>0</v>
+      </c>
+      <c r="U18" s="19">
+        <v>6.6194720593479306E-2</v>
+      </c>
+      <c r="V18" s="19" t="str">
+        <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="20">
+        <v>14.84</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="26">
+        <v>10.371775424279805</v>
+      </c>
+      <c r="G19" s="19">
+        <v>7.4123989218328842E-2</v>
+      </c>
+      <c r="H19" s="20">
+        <v>14.695709838363477</v>
+      </c>
+      <c r="I19" s="20">
+        <v>12.401463800260084</v>
+      </c>
+      <c r="J19" s="20">
+        <v>28.595568801312204</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N19" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0.72762956087193742</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0.16540000000000002</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>0</v>
+      </c>
+      <c r="R19" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="S19" s="19">
+        <v>3.8885650375487034E-3</v>
+      </c>
+      <c r="T19" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="U19" s="19">
+        <v>7.3081874090513851E-2</v>
+      </c>
+      <c r="V19" s="19" t="str">
+        <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="20">
+        <v>113.7</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="26">
+        <v>11.507678218221514</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1.7002619363387216E-2</v>
+      </c>
+      <c r="H20" s="20">
+        <v>112.89756344808617</v>
+      </c>
+      <c r="I20" s="20">
+        <v>95.962928930873247</v>
+      </c>
+      <c r="J20" s="20">
+        <v>189.70797477801477</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="16">
+        <v>45625</v>
+      </c>
+      <c r="N20" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O20" s="19">
+        <v>0.60531106380837341</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0.31327931266495485</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>0</v>
+      </c>
+      <c r="R20" s="19">
+        <v>0</v>
+      </c>
+      <c r="S20" s="19">
+        <v>9.0344684898005026E-3</v>
+      </c>
+      <c r="T20" s="19">
+        <v>0</v>
+      </c>
+      <c r="U20" s="19">
+        <v>7.2375155036871239E-2</v>
+      </c>
+      <c r="V20" s="19" t="str">
+        <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="20">
+        <v>10.52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="26">
+        <v>26.380231321424834</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1.631029174959403E-2</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1.2846575947877699</v>
+      </c>
+      <c r="I21" s="20">
+        <v>1.0919589555696043</v>
+      </c>
+      <c r="J21" s="20">
+        <v>2.098942319871167</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N21" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0.48660635459513968</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.2941332211490556</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>9.3403926661713623E-3</v>
+      </c>
+      <c r="R21" s="19">
+        <v>0</v>
+      </c>
+      <c r="S21" s="19">
+        <v>2.1757339633768379E-3</v>
+      </c>
+      <c r="T21" s="19">
+        <v>0</v>
+      </c>
+      <c r="U21" s="19">
+        <v>0.20774429762625654</v>
+      </c>
+      <c r="V21" s="19" t="str">
+        <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="20">
+        <v>403.4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="26">
+        <v>33.360601487130786</v>
+      </c>
+      <c r="G22" s="19">
+        <v>8.4283589489340602E-3</v>
+      </c>
+      <c r="H22" s="20">
+        <v>67.685584742772079</v>
+      </c>
+      <c r="I22" s="20">
+        <v>57.532747031356266</v>
+      </c>
+      <c r="J22" s="20">
+        <v>124.66890635801246</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N22" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0.51871628777616319</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0.22616191719415779</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>6.2001756935379264E-3</v>
+      </c>
+      <c r="R22" s="19">
+        <v>0</v>
+      </c>
+      <c r="S22" s="19">
+        <v>2.0144003021272054E-2</v>
+      </c>
+      <c r="T22" s="19">
+        <v>0</v>
+      </c>
+      <c r="U22" s="19">
+        <v>0.22877761631486909</v>
+      </c>
+      <c r="V22" s="19" t="str">
+        <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="20">
+        <v>5.92</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="26">
+        <v>-11.868276518147056</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2.8657761178575124E-2</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N23" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O23" s="19">
+        <v>0.8649634921177769</v>
+      </c>
+      <c r="P23" s="19">
+        <v>0.14930937614307849</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>7.2128562067984476E-4</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0</v>
+      </c>
+      <c r="S23" s="19">
+        <v>2.3437755566327548E-3</v>
+      </c>
+      <c r="T23" s="19">
+        <v>2.8284501268352451E-2</v>
+      </c>
+      <c r="U23" s="19">
+        <v>-4.5622430706520396E-2</v>
+      </c>
+      <c r="V23" s="19" t="str">
+        <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="20">
+        <v>6.48</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="26">
+        <v>22.538570995402466</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
+        <v>2.314999340719293</v>
+      </c>
+      <c r="I24" s="20">
+        <v>1.967749439611399</v>
+      </c>
+      <c r="J24" s="20">
+        <v>3.8557134761992438</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N24" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O24" s="19">
+        <v>0</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0.73743481563190261</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>7.0138335341758879E-4</v>
+      </c>
+      <c r="R24" s="19">
+        <v>0</v>
+      </c>
+      <c r="S24" s="19">
+        <v>5.3167363129601151E-3</v>
+      </c>
+      <c r="T24" s="19">
+        <v>0.22719184534497058</v>
+      </c>
+      <c r="U24" s="19">
+        <v>2.9355219356749174E-2</v>
+      </c>
+      <c r="V24" s="19" t="str">
+        <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="20">
+        <v>1.03</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="26">
+        <v>19.30612686182906</v>
+      </c>
+      <c r="G25" s="19">
+        <v>5.0277939077334112E-2</v>
+      </c>
+      <c r="H25" s="20">
+        <v>0.47422022051864715</v>
+      </c>
+      <c r="I25" s="20">
+        <v>0.40308718744085009</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.7748063716150474</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N25" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O25" s="19">
+        <v>0.69462498271442097</v>
+      </c>
+      <c r="P25" s="19">
+        <v>0.15111319129019563</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>0</v>
+      </c>
+      <c r="R25" s="19">
+        <v>0</v>
+      </c>
+      <c r="S25" s="19">
+        <v>3.0071588890425386E-2</v>
+      </c>
+      <c r="T25" s="19">
+        <v>0</v>
+      </c>
+      <c r="U25" s="19">
+        <v>0.12419023710495804</v>
+      </c>
+      <c r="V25" s="19" t="str">
+        <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="20">
+        <v>9.86</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="26">
+        <v>11.142340139328782</v>
+      </c>
+      <c r="G26" s="19">
+        <v>6.4170080395144671E-2</v>
+      </c>
+      <c r="H26" s="20">
+        <v>5.9627008610315464</v>
+      </c>
+      <c r="I26" s="20">
+        <v>5.0682957318768143</v>
+      </c>
+      <c r="J26" s="20">
+        <v>9.7421797284582627</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M26" s="16">
+        <v>45604</v>
+      </c>
+      <c r="N26" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O26" s="19">
+        <v>0.6223905170283478</v>
+      </c>
+      <c r="P26" s="19">
+        <v>0.25619685036829964</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>5.5277235668845723E-3</v>
+      </c>
+      <c r="R26" s="19">
+        <v>0</v>
+      </c>
+      <c r="S26" s="19">
+        <v>1.5061272402478966E-3</v>
+      </c>
+      <c r="T26" s="19">
+        <v>0</v>
+      </c>
+      <c r="U26" s="19">
+        <v>0.11437878179622009</v>
+      </c>
+      <c r="V26" s="19" t="str">
+        <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0.435</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="26">
+        <v>-2.4361588075127969</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="H27" s="20">
+        <v>0.43118915310523315</v>
+      </c>
+      <c r="I27" s="20">
+        <v>0.36651078013944816</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.72455080945529271</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N27" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O27" s="19">
+        <v>0.46570281556597115</v>
+      </c>
+      <c r="P27" s="19">
+        <v>0.49096154234108225</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>0</v>
+      </c>
+      <c r="R27" s="19">
+        <v>3.9525516276755275E-2</v>
+      </c>
+      <c r="S27" s="19">
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <v>0.11560295610891069</v>
+      </c>
+      <c r="U27" s="19">
+        <v>-0.11179283029271934</v>
+      </c>
+      <c r="V27" s="19" t="str">
+        <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="20">
+        <v>5.61</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="26">
+        <v>8.5105252074684277</v>
+      </c>
+      <c r="G28" s="19">
+        <v>8.6021525337096838E-2</v>
+      </c>
+      <c r="H28" s="20">
+        <v>5.4757844128385038</v>
+      </c>
+      <c r="I28" s="20">
+        <v>4.1218223005630907</v>
+      </c>
+      <c r="J28" s="20">
+        <v>11.692512685833728</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N28" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O28" s="19">
+        <v>0.86263355974668987</v>
+      </c>
+      <c r="P28" s="19">
+        <v>5.04E-2</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>9.1579398111554088E-3</v>
+      </c>
+      <c r="R28" s="19">
+        <v>0</v>
+      </c>
+      <c r="S28" s="19">
+        <v>7.9916652607163307E-3</v>
+      </c>
+      <c r="T28" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="U28" s="19">
+        <v>4.9816835181438444E-2</v>
+      </c>
+      <c r="V28" s="19" t="str">
+        <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="26">
+        <v>4.2590647644486328</v>
+      </c>
+      <c r="G29" s="19">
+        <v>6.9540229885057481E-2</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0.12756685751769817</v>
+      </c>
+      <c r="I29" s="20">
+        <v>0.10843182889004344</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0.21435759505656835</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N29" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O29" s="19">
+        <v>0.69931288683936033</v>
+      </c>
+      <c r="P29" s="19">
+        <v>0.22200134640260258</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>0</v>
+      </c>
+      <c r="R29" s="19">
+        <v>0</v>
+      </c>
+      <c r="S29" s="19">
+        <v>2.1205737325435711E-3</v>
+      </c>
+      <c r="T29" s="19">
+        <v>0</v>
+      </c>
+      <c r="U29" s="19">
+        <v>7.6565193025493528E-2</v>
+      </c>
+      <c r="V29" s="19" t="str">
+        <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="20">
+        <v>6.02</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="26">
+        <v>3.645272682142485</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7.1255925749887539E-2</v>
+      </c>
+      <c r="H30" s="20">
+        <v>4.1788998796933408</v>
+      </c>
+      <c r="I30" s="20">
+        <v>3.5520648977393394</v>
+      </c>
+      <c r="J30" s="20">
+        <v>6.8277102346808043</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N30" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O30" s="19">
+        <v>0.47700776116848903</v>
+      </c>
+      <c r="P30" s="19">
+        <v>0.15697168260849415</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>0</v>
+      </c>
+      <c r="R30" s="19">
+        <v>0</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0</v>
+      </c>
+      <c r="T30" s="19">
+        <v>0</v>
+      </c>
+      <c r="U30" s="19">
+        <v>0.36602055622301682</v>
+      </c>
+      <c r="V30" s="19" t="str">
+        <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="20">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="26">
+        <v>23.471683011501884</v>
+      </c>
+      <c r="G31" s="19">
+        <v>6.7599207930323646E-2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>46.708665465146353</v>
+      </c>
+      <c r="I31" s="20">
+        <v>39.7023656453744</v>
+      </c>
+      <c r="J31" s="20">
+        <v>76.315116998702635</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N31" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O31" s="19">
+        <v>0</v>
+      </c>
+      <c r="P31" s="19">
+        <v>0.8668930922046667</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>2.2325505205376484E-4</v>
+      </c>
+      <c r="R31" s="19">
+        <v>2.2215198715160572E-2</v>
+      </c>
+      <c r="S31" s="19">
+        <v>3.6955976811858409E-3</v>
+      </c>
+      <c r="T31" s="19">
+        <v>2.5630406545468234E-2</v>
+      </c>
+      <c r="U31" s="19">
+        <v>8.1342449801464822E-2</v>
+      </c>
+      <c r="V31" s="19" t="str">
+        <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="20">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="26">
+        <v>7.6944366709783782</v>
+      </c>
+      <c r="G32" s="19">
+        <v>6.9663384198192582E-2</v>
+      </c>
+      <c r="H32" s="20">
+        <v>3.3816000061293554</v>
+      </c>
+      <c r="I32" s="20">
+        <v>2.8743600052099518</v>
+      </c>
+      <c r="J32" s="20">
+        <v>5.5250390380590737</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N32" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O32" s="19">
+        <v>0.18760554961924605</v>
+      </c>
+      <c r="P32" s="19">
+        <v>0.19513886735214594</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>3.9320610522022457E-3</v>
+      </c>
+      <c r="R32" s="19">
+        <v>0</v>
+      </c>
+      <c r="S32" s="19">
+        <v>0.49099920776112166</v>
+      </c>
+      <c r="T32" s="19">
+        <v>0</v>
+      </c>
+      <c r="U32" s="19">
+        <v>0.12232431421528413</v>
+      </c>
+      <c r="V32" s="19" t="str">
+        <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="20">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="26">
+        <v>14.775014767127406</v>
+      </c>
+      <c r="G33" s="19">
+        <v>3.7080775703351533E-2</v>
+      </c>
+      <c r="H33" s="20">
+        <v>3.144860393453984</v>
+      </c>
+      <c r="I33" s="20">
+        <v>2.6731313344358862</v>
+      </c>
+      <c r="J33" s="20">
+        <v>5.1382411910293859</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="16">
+        <v>45625</v>
+      </c>
+      <c r="N33" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O33" s="19">
+        <v>0.49786034237394394</v>
+      </c>
+      <c r="P33" s="19">
+        <v>0.33448624066316274</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>6.0164745032668145E-3</v>
+      </c>
+      <c r="R33" s="19">
+        <v>0</v>
+      </c>
+      <c r="S33" s="19">
+        <v>2.063358175126364E-2</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0</v>
+      </c>
+      <c r="U33" s="19">
+        <v>0.14100336070836289</v>
+      </c>
+      <c r="V33" s="19" t="str">
+        <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="20">
+        <v>4.05</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="26">
+        <v>6.6954077328394455</v>
+      </c>
+      <c r="G34" s="19">
+        <v>6.1140135431485908E-2</v>
+      </c>
+      <c r="H34" s="20">
+        <v>2.3005063008547002</v>
+      </c>
+      <c r="I34" s="20">
+        <v>1.9554303557264952</v>
+      </c>
+      <c r="J34" s="20">
+        <v>3.7586902934956061</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N34" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O34" s="19">
+        <v>0.11401933240696355</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0.19137095648691452</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>4.6925281602255647E-4</v>
+      </c>
+      <c r="R34" s="19">
+        <v>0</v>
+      </c>
+      <c r="S34" s="19">
+        <v>0.49449639261897682</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0</v>
+      </c>
+      <c r="U34" s="19">
+        <v>0.19964406567112258</v>
+      </c>
+      <c r="V34" s="19" t="str">
+        <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="20">
+        <v>4.7</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="26">
+        <v>3.8988914145180447</v>
+      </c>
+      <c r="G35" s="19">
+        <v>6.9911462878504554E-2</v>
+      </c>
+      <c r="H35" s="20">
+        <v>3.1810006072999184</v>
+      </c>
+      <c r="I35" s="20">
+        <v>2.7038505162049304</v>
+      </c>
+      <c r="J35" s="20">
+        <v>5.1972890062590604</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N35" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O35" s="19">
+        <v>1.2012210534502537E-2</v>
+      </c>
+      <c r="P35" s="19">
+        <v>0.15470436118294414</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>9.7044800044936142E-4</v>
+      </c>
+      <c r="R35" s="19">
+        <v>0</v>
+      </c>
+      <c r="S35" s="19">
+        <v>0.48610500800425166</v>
+      </c>
+      <c r="T35" s="19">
+        <v>0</v>
+      </c>
+      <c r="U35" s="19">
+        <v>0.34620797227785238</v>
+      </c>
+      <c r="V35" s="19" t="str">
+        <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="20">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="26">
+        <v>-97.823598289965432</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="20">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20">
+        <v>0</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M36" s="16">
+        <v>45603</v>
+      </c>
+      <c r="N36" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O36" s="19">
+        <v>0.8448760372568398</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0.18023840312844694</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>0</v>
+      </c>
+      <c r="R36" s="19">
+        <v>0</v>
+      </c>
+      <c r="S36" s="19">
+        <v>1.7912194354438221E-2</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0</v>
+      </c>
+      <c r="U36" s="19">
+        <v>-4.3026634739724949E-2</v>
+      </c>
+      <c r="V36" s="19" t="str">
+        <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="20">
+        <v>5.14</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="26">
+        <v>16.604808069939615</v>
+      </c>
+      <c r="G37" s="19">
+        <v>3.0778210116731521E-2</v>
+      </c>
+      <c r="H37" s="20">
+        <v>3.5224273011569758</v>
+      </c>
+      <c r="I37" s="20">
+        <v>2.9940632059834291</v>
+      </c>
+      <c r="J37" s="20">
+        <v>5.8929728164823612</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N37" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O37" s="19">
+        <v>0.66005868735054896</v>
+      </c>
+      <c r="P37" s="19">
+        <v>0.21645682425674254</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>1.0365594158118095E-3</v>
+      </c>
+      <c r="R37" s="19">
+        <v>0</v>
+      </c>
+      <c r="S37" s="19">
+        <v>7.0437342852983705E-5</v>
+      </c>
+      <c r="T37" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="U37" s="19">
+        <v>0.11237749163404374</v>
+      </c>
+      <c r="V37" s="19" t="str">
+        <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="B38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="20">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="26">
+        <v>9.4350201244330041</v>
+      </c>
+      <c r="G38" s="19">
+        <v>6.2476973022733411E-2</v>
+      </c>
+      <c r="H38" s="20">
+        <v>2.6168204665267152</v>
+      </c>
+      <c r="I38" s="20">
+        <v>2.224297396547708</v>
+      </c>
+      <c r="J38" s="20">
+        <v>4.2755013032132689</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N38" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O38" s="19">
         <v>8.9217754367700408E-2</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P38" s="19">
         <v>0.40977301972404179</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q38" s="19">
         <v>3.7371996362297238E-4</v>
       </c>
-      <c r="R5" s="19">
-        <v>0</v>
-      </c>
-      <c r="S5" s="19">
+      <c r="R38" s="19">
+        <v>0</v>
+      </c>
+      <c r="S38" s="19">
         <v>0.39408770164042439</v>
       </c>
-      <c r="T5" s="19">
-        <v>0</v>
-      </c>
-      <c r="U5" s="19">
+      <c r="T38" s="19">
+        <v>0</v>
+      </c>
+      <c r="U38" s="19">
         <v>0.10654780430421051</v>
       </c>
-      <c r="V5" s="19" t="str">
-        <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
+      <c r="V38" s="19" t="str">
+        <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="G6" s="19"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="19"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="G8" s="19"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="19"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="19"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="G11" s="19"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="19"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="G13" s="19"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="19"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="G15" s="19"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="G16" s="19"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="19"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="G18" s="19"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="G19" s="19"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="G20" s="19"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="19"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="G22" s="19"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="G23" s="19"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="G24" s="19"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="G25" s="19"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="G26" s="19"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="G27" s="19"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="G28" s="19"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="G29" s="19"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="G30" s="19"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="G31" s="19"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="G32" s="19"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="G33" s="19"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="G34" s="19"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="G35" s="19"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="G36" s="19"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="G37" s="19"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="G38" s="19"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="G39" s="19"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="G40" s="19"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="G41" s="19"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="G42" s="19"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="G43" s="19"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="G44" s="19"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="G45" s="19"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="G46" s="19"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="G47" s="19"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="G48" s="19"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="G49" s="19"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="G50" s="19"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="G51" s="19"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="G52" s="19"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="G53" s="19"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-    </row>
-    <row r="54" spans="2:14">
+    <row r="39" spans="2:22">
+      <c r="B39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="20">
+        <v>4.72</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="26">
+        <v>13.034395317187565</v>
+      </c>
+      <c r="G39" s="19">
+        <v>4.5440749259991843E-2</v>
+      </c>
+      <c r="H39" s="20">
+        <v>1.849536491563277</v>
+      </c>
+      <c r="I39" s="20">
+        <v>1.5721060178287853</v>
+      </c>
+      <c r="J39" s="20">
+        <v>3.0218716878636727</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M39" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N39" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O39" s="19">
+        <v>0.78463553343209413</v>
+      </c>
+      <c r="P39" s="19">
+        <v>0.16010732347610457</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>1.2515926965280349E-5</v>
+      </c>
+      <c r="R39" s="19">
+        <v>0</v>
+      </c>
+      <c r="S39" s="19">
+        <v>0</v>
+      </c>
+      <c r="T39" s="19">
+        <v>8.8200573996119572E-5</v>
+      </c>
+      <c r="U39" s="19">
+        <v>5.5156426590839844E-2</v>
+      </c>
+      <c r="V39" s="19" t="str">
+        <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="B40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="20">
+        <v>14.34</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="26">
+        <v>11.963516087673739</v>
+      </c>
+      <c r="G40" s="19">
+        <v>7.1827057182705725E-2</v>
+      </c>
+      <c r="H40" s="20">
+        <v>12.364839413731413</v>
+      </c>
+      <c r="I40" s="20">
+        <v>10.510113501671702</v>
+      </c>
+      <c r="J40" s="20">
+        <v>20.202336271696893</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N40" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O40" s="19">
+        <v>0.75431095413462357</v>
+      </c>
+      <c r="P40" s="19">
+        <v>0.13135421474946254</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>7.2979774463912414E-4</v>
+      </c>
+      <c r="R40" s="19">
+        <v>0</v>
+      </c>
+      <c r="S40" s="19">
+        <v>6.3176187869769956E-4</v>
+      </c>
+      <c r="T40" s="19">
+        <v>0</v>
+      </c>
+      <c r="U40" s="19">
+        <v>0.11297327149257705</v>
+      </c>
+      <c r="V40" s="19" t="str">
+        <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="B41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="20">
+        <v>21.7</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="26">
+        <v>12.185787703361189</v>
+      </c>
+      <c r="G41" s="19">
+        <v>3.6796993198482668E-2</v>
+      </c>
+      <c r="H41" s="20">
+        <v>18.169399153871133</v>
+      </c>
+      <c r="I41" s="20">
+        <v>15.443989280790463</v>
+      </c>
+      <c r="J41" s="20">
+        <v>31.448440813814258</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M41" s="16">
+        <v>45591</v>
+      </c>
+      <c r="N41" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0.40723441233977836</v>
+      </c>
+      <c r="P41" s="19">
+        <v>0.41258418422767756</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>1.2057353899630675E-2</v>
+      </c>
+      <c r="R41" s="19">
+        <v>0</v>
+      </c>
+      <c r="S41" s="19">
+        <v>4.6980230284597004E-2</v>
+      </c>
+      <c r="T41" s="19">
+        <v>0</v>
+      </c>
+      <c r="U41" s="19">
+        <v>0.12114381924831638</v>
+      </c>
+      <c r="V41" s="19" t="str">
+        <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="B42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="20">
+        <v>7.16</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="26">
+        <v>11.718988158138394</v>
+      </c>
+      <c r="G42" s="19">
+        <v>7.6815642458100561E-2</v>
+      </c>
+      <c r="H42" s="20">
+        <v>5.2322251409376541</v>
+      </c>
+      <c r="I42" s="20">
+        <v>4.447391369797006</v>
+      </c>
+      <c r="J42" s="20">
+        <v>10.079461946250719</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N42" s="16">
+        <v>45626</v>
+      </c>
+      <c r="O42" s="19">
+        <v>0.79501071628968012</v>
+      </c>
+      <c r="P42" s="19">
+        <v>0.12234231416665901</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>1.3233621247382252E-3</v>
+      </c>
+      <c r="R42" s="19">
+        <v>0</v>
+      </c>
+      <c r="S42" s="19">
+        <v>6.4812855868203439E-3</v>
+      </c>
+      <c r="T42" s="19">
+        <v>0</v>
+      </c>
+      <c r="U42" s="19">
+        <v>7.4842321832102252E-2</v>
+      </c>
+      <c r="V42" s="19" t="str">
+        <f>IF(D42&lt;=H42,-(I42/D42-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="B43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="20">
+        <v>24.35</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="26">
+        <v>7.9618987371879921</v>
+      </c>
+      <c r="G43" s="19">
+        <v>6.0780287474332645E-2</v>
+      </c>
+      <c r="H43" s="20">
+        <v>14.974618992181009</v>
+      </c>
+      <c r="I43" s="20">
+        <v>12.728426143353857</v>
+      </c>
+      <c r="J43" s="20">
+        <v>25.162674510556165</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N43" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O43" s="19">
+        <v>2.8609905101246377E-2</v>
+      </c>
+      <c r="P43" s="19">
+        <v>0.11648068007266453</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>1.9313252769435827E-2</v>
+      </c>
+      <c r="R43" s="19">
+        <v>0</v>
+      </c>
+      <c r="S43" s="19">
+        <v>0.54295694135635775</v>
+      </c>
+      <c r="T43" s="19">
+        <v>0</v>
+      </c>
+      <c r="U43" s="19">
+        <v>0.29263922070029547</v>
+      </c>
+      <c r="V43" s="19" t="str">
+        <f>IF(D43&lt;=H43,-(I43/D43-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="20">
+        <v>96.05</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="26">
+        <v>6.6444022575750239</v>
+      </c>
+      <c r="G44" s="19">
+        <v>2.4307964370624279E-2</v>
+      </c>
+      <c r="H44" s="20">
+        <v>19.831956932753759</v>
+      </c>
+      <c r="I44" s="20">
+        <v>16.857163392840693</v>
+      </c>
+      <c r="J44" s="20">
+        <v>33.324726156092275</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N44" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O44" s="19">
+        <v>3.4550297712315887E-2</v>
+      </c>
+      <c r="P44" s="19">
+        <v>0.30165569831818656</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
+      <c r="R44" s="19">
+        <v>0</v>
+      </c>
+      <c r="S44" s="19">
+        <v>0.50814791601378884</v>
+      </c>
+      <c r="T44" s="19">
+        <v>0</v>
+      </c>
+      <c r="U44" s="19">
+        <v>0.15564608795570867</v>
+      </c>
+      <c r="V44" s="19" t="str">
+        <f>IF(D44&lt;=H44,-(I44/D44-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="20">
+        <v>5.73</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="26">
+        <v>4.9872793982155814</v>
+      </c>
+      <c r="G45" s="19">
+        <v>7.0183356186898374E-2</v>
+      </c>
+      <c r="H45" s="20">
+        <v>3.8981452573636388</v>
+      </c>
+      <c r="I45" s="20">
+        <v>3.3134234687590931</v>
+      </c>
+      <c r="J45" s="20">
+        <v>6.3689983096525564</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N45" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O45" s="19">
+        <v>8.1734249293405042E-3</v>
+      </c>
+      <c r="P45" s="19">
+        <v>0.19791759120646774</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>1.3780163008283218E-3</v>
+      </c>
+      <c r="R45" s="19">
+        <v>0</v>
+      </c>
+      <c r="S45" s="19">
+        <v>0.583299310268654</v>
+      </c>
+      <c r="T45" s="19">
+        <v>0</v>
+      </c>
+      <c r="U45" s="19">
+        <v>0.20923165729470938</v>
+      </c>
+      <c r="V45" s="19" t="str">
+        <f>IF(D45&lt;=H45,-(I45/D45-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="20">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="26">
+        <v>6.4525568566459999</v>
+      </c>
+      <c r="G46" s="19">
+        <v>5.8419229777917449E-2</v>
+      </c>
+      <c r="H46" s="20">
+        <v>19.396854475467279</v>
+      </c>
+      <c r="I46" s="20">
+        <v>16.487326304147185</v>
+      </c>
+      <c r="J46" s="20">
+        <v>31.691618759835102</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N46" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O46" s="19">
+        <v>1.8627626781429586E-2</v>
+      </c>
+      <c r="P46" s="19">
+        <v>0.25828274030620524</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>3.9962087250557162E-3</v>
+      </c>
+      <c r="R46" s="19">
+        <v>0</v>
+      </c>
+      <c r="S46" s="19">
+        <v>0.34356507928375646</v>
+      </c>
+      <c r="T46" s="19">
+        <v>0</v>
+      </c>
+      <c r="U46" s="19">
+        <v>0.37552834490355302</v>
+      </c>
+      <c r="V46" s="19" t="str">
+        <f>IF(D46&lt;=H46,-(I46/D46-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="B47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="20">
+        <v>3.7</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="26">
+        <v>4.0192501981744044</v>
+      </c>
+      <c r="G47" s="19">
+        <v>8.6951487773173561E-2</v>
+      </c>
+      <c r="H47" s="20">
+        <v>3.3706049157725189</v>
+      </c>
+      <c r="I47" s="20">
+        <v>2.865014178406641</v>
+      </c>
+      <c r="J47" s="20">
+        <v>5.5070746710912486</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N47" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O47" s="19">
+        <v>1.1832950701880444E-2</v>
+      </c>
+      <c r="P47" s="19">
+        <v>0.19534620844359546</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>0</v>
+      </c>
+      <c r="R47" s="19">
+        <v>0</v>
+      </c>
+      <c r="S47" s="19">
+        <v>0</v>
+      </c>
+      <c r="T47" s="19">
+        <v>0.49757189674208302</v>
+      </c>
+      <c r="U47" s="19">
+        <v>0.29524894411244107</v>
+      </c>
+      <c r="V47" s="19" t="str">
+        <f>IF(D47&lt;=H47,-(I47/D47-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="20">
+        <v>206</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="26">
+        <v>77.539479296323819</v>
+      </c>
+      <c r="G48" s="19">
+        <v>0</v>
+      </c>
+      <c r="H48" s="20">
+        <v>0</v>
+      </c>
+      <c r="I48" s="20">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N48" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O48" s="19">
+        <v>0.58108816177312361</v>
+      </c>
+      <c r="P48" s="19">
+        <v>0.23828361372817153</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>0</v>
+      </c>
+      <c r="R48" s="19">
+        <v>0</v>
+      </c>
+      <c r="S48" s="19">
+        <v>5.7183940942846252E-3</v>
+      </c>
+      <c r="T48" s="19">
+        <v>0</v>
+      </c>
+      <c r="U48" s="19">
+        <v>0.17490983040442024</v>
+      </c>
+      <c r="V48" s="19" t="str">
+        <f>IF(D48&lt;=H48,-(I48/D48-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="20">
+        <v>5.65</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="26">
+        <v>15.772949780813343</v>
+      </c>
+      <c r="G49" s="19">
+        <v>5.9143427305868586E-2</v>
+      </c>
+      <c r="H49" s="20">
+        <v>4.3162767025373432</v>
+      </c>
+      <c r="I49" s="20">
+        <v>3.6688351971567417</v>
+      </c>
+      <c r="J49" s="20">
+        <v>6.7078023018473667</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M49" s="16">
+        <v>45605</v>
+      </c>
+      <c r="N49" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O49" s="19">
+        <v>0.35166796085418528</v>
+      </c>
+      <c r="P49" s="19">
+        <v>0.43886385985236792</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>0</v>
+      </c>
+      <c r="R49" s="19">
+        <v>0</v>
+      </c>
+      <c r="S49" s="19">
+        <v>2.7202256703967287E-3</v>
+      </c>
+      <c r="T49" s="19">
+        <v>0</v>
+      </c>
+      <c r="U49" s="19">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V49" s="19" t="str">
+        <f>IF(D49&lt;=H49,-(I49/D49-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="20">
+        <v>1.94</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="26">
+        <v>39.922569565543164</v>
+      </c>
+      <c r="G50" s="19">
+        <v>6.5117999073566038E-2</v>
+      </c>
+      <c r="H50" s="20">
+        <v>1.5255497487315568</v>
+      </c>
+      <c r="I50" s="20">
+        <v>1.2967172864218233</v>
+      </c>
+      <c r="J50" s="20">
+        <v>2.2044956081991796</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N50" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O50" s="19">
+        <v>0.55541924442229906</v>
+      </c>
+      <c r="P50" s="19">
+        <v>0.37949349616392825</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>1.8148224946381651E-3</v>
+      </c>
+      <c r="R50" s="19">
+        <v>0</v>
+      </c>
+      <c r="S50" s="19">
+        <v>6.208277497005729E-4</v>
+      </c>
+      <c r="T50" s="19">
+        <v>1.2789175437999239E-2</v>
+      </c>
+      <c r="U50" s="19">
+        <v>4.9862433731434744E-2</v>
+      </c>
+      <c r="V50" s="19" t="str">
+        <f>IF(D50&lt;=H50,-(I50/D50-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="20">
+        <v>2.78</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="26">
+        <v>5.8659286824173344</v>
+      </c>
+      <c r="G51" s="19">
+        <v>8.10087601915538E-2</v>
+      </c>
+      <c r="H51" s="20">
+        <v>2.2956260803272124</v>
+      </c>
+      <c r="I51" s="20">
+        <v>1.9512821682781305</v>
+      </c>
+      <c r="J51" s="20">
+        <v>3.7507167280591753</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51" s="16">
+        <v>45606</v>
+      </c>
+      <c r="N51" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O51" s="19">
+        <v>0.19853855217217412</v>
+      </c>
+      <c r="P51" s="19">
+        <v>0.15821181625248168</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>1.3644023113167324E-3</v>
+      </c>
+      <c r="R51" s="19">
+        <v>0</v>
+      </c>
+      <c r="S51" s="19">
+        <v>0.51643948647548221</v>
+      </c>
+      <c r="T51" s="19">
+        <v>0</v>
+      </c>
+      <c r="U51" s="19">
+        <v>0.12544574278854531</v>
+      </c>
+      <c r="V51" s="19" t="str">
+        <f>IF(D51&lt;=H51,-(I51/D51-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="20">
+        <v>1.67</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="26">
+        <v>-24.200912980723679</v>
+      </c>
+      <c r="G52" s="19">
+        <v>6.4215669612922605E-2</v>
+      </c>
+      <c r="H52" s="20">
+        <v>1.0108437603048359</v>
+      </c>
+      <c r="I52" s="20">
+        <v>0.85921719625911053</v>
+      </c>
+      <c r="J52" s="20">
+        <v>1.651570625425711</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="M52" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N52" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O52" s="19">
+        <v>0.39325092997635303</v>
+      </c>
+      <c r="P52" s="19">
+        <v>0.81977588376563215</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>3.1621500776708874E-3</v>
+      </c>
+      <c r="R52" s="19">
+        <v>0</v>
+      </c>
+      <c r="S52" s="19">
+        <v>9.5705744879944314E-3</v>
+      </c>
+      <c r="T52" s="19">
+        <v>1.5672463941809065E-4</v>
+      </c>
+      <c r="U52" s="19">
+        <v>-0.22591626294706857</v>
+      </c>
+      <c r="V52" s="19" t="str">
+        <f>IF(D52&lt;=H52,-(I52/D52-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="20">
+        <v>84.2</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="26">
+        <v>14591.925319138516</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1.1462725822829294E-2</v>
+      </c>
+      <c r="H53" s="20">
+        <v>3.9859018766046098E-2</v>
+      </c>
+      <c r="I53" s="20">
+        <v>3.3880165951139185E-2</v>
+      </c>
+      <c r="J53" s="20">
+        <v>6.5123797699895611E-2</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M53" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N53" s="16">
+        <v>45808</v>
+      </c>
+      <c r="O53" s="19">
+        <v>0.62297379426414834</v>
+      </c>
+      <c r="P53" s="19">
+        <v>0.22247037723339511</v>
+      </c>
+      <c r="Q53" s="19">
+        <v>3.796700836974199E-4</v>
+      </c>
+      <c r="R53" s="19">
+        <v>0</v>
+      </c>
+      <c r="S53" s="19">
+        <v>8.4437634938714454E-3</v>
+      </c>
+      <c r="T53" s="19">
+        <v>0</v>
+      </c>
+      <c r="U53" s="19">
+        <v>0.14573239492488765</v>
+      </c>
+      <c r="V53" s="19" t="str">
+        <f>IF(D53&lt;=H53,-(I53/D53-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="E54" s="5"/>
@@ -1335,7 +4359,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:22">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="E55" s="5"/>
@@ -1345,7 +4369,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:22">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="E56" s="5"/>
@@ -1355,7 +4379,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:22">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="E57" s="5"/>
@@ -1365,7 +4389,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:22">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="E58" s="5"/>
@@ -1375,7 +4399,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:22">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="E59" s="5"/>
@@ -1385,7 +4409,7 @@
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:22">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="E60" s="5"/>
@@ -1395,7 +4419,7 @@
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:22">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="E61" s="5"/>
@@ -1405,7 +4429,7 @@
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:22">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="E62" s="5"/>
@@ -1415,7 +4439,7 @@
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:22">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="E63" s="5"/>
@@ -1425,7 +4449,7 @@
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:22">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="E64" s="5"/>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757A20C-94F1-4C39-9116-C0FD9B32FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5576B43-D5DF-43A4-95C8-635BA6FF936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -1117,37 +1117,37 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D5" s="20">
-        <v>7.85</v>
+        <v>73.5</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>34.017508108669347</v>
+        <v>17.574298387925708</v>
       </c>
       <c r="G5" s="19">
-        <v>7.3885350318471335E-2</v>
+        <v>6.4590617523712368E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>8.4275557156850915</v>
+        <v>48.903147273905773</v>
       </c>
       <c r="I5" s="20">
-        <v>7.1634223583323262</v>
+        <v>41.567675182819904</v>
       </c>
       <c r="J5" s="20">
-        <v>12.399791481902572</v>
+        <v>82.174643510970526</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M5" s="16">
         <v>45593</v>
@@ -1156,58 +1156,58 @@
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.60969766115231028</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P5" s="19">
-        <v>0.12367370222475756</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q5" s="19">
-        <v>0</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="R5" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S5" s="19">
-        <v>1.0724472333143184E-2</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="T5" s="19">
-        <v>1.038220193953223E-2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="19">
-        <v>0.22552196235025673</v>
-      </c>
-      <c r="V5" s="19">
+        <v>0.10980570587494648</v>
+      </c>
+      <c r="V5" s="19" t="str">
         <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v>8.7462119957665396E-2</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="20">
-        <v>73.3</v>
+        <v>96.05</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="26">
-        <v>17.526567370473838</v>
+        <v>9.5912802835497839</v>
       </c>
       <c r="G6" s="19">
-        <v>6.4766520530107397E-2</v>
+        <v>7.0796460176991149E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>48.943310228723689</v>
+        <v>72.112476354385407</v>
       </c>
       <c r="I6" s="20">
-        <v>41.601813694415135</v>
+        <v>61.295604901227591</v>
       </c>
       <c r="J6" s="20">
-        <v>82.242131529196101</v>
+        <v>121.17455352974527</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>15</v>
@@ -1216,31 +1216,31 @@
         <v>26</v>
       </c>
       <c r="M6" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N6" s="16">
         <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P6" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q6" s="19">
-        <v>2.3869305285384647E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="19">
         <v>0</v>
       </c>
       <c r="S6" s="19">
-        <v>0.55863466227121317</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>0.10980570587494648</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V6" s="19" t="str">
         <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
@@ -1249,64 +1249,64 @@
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="20">
-        <v>95.65</v>
+        <v>78.25</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="26">
-        <v>9.5513374192768019</v>
+        <v>14.969834813891529</v>
       </c>
       <c r="G7" s="19">
-        <v>7.1092524830109763E-2</v>
+        <v>4.7923322683706068E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>72.212223437329754</v>
+        <v>15.373337275348684</v>
       </c>
       <c r="I7" s="20">
-        <v>61.380389921730291</v>
+        <v>12.754916697336292</v>
       </c>
       <c r="J7" s="20">
-        <v>121.34216403007365</v>
+        <v>49.545308476782218</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M7" s="16">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="N7" s="16">
         <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.54949235029228316</v>
       </c>
       <c r="P7" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.10108242664951193</v>
       </c>
       <c r="Q7" s="19">
-        <v>0</v>
+        <v>1.0218987976510586E-2</v>
       </c>
       <c r="R7" s="19">
         <v>0</v>
       </c>
       <c r="S7" s="19">
-        <v>0.39159225009737869</v>
+        <v>5.6582664391799292E-2</v>
       </c>
       <c r="T7" s="19">
-        <v>0</v>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="U7" s="19">
-        <v>0.35546835552606143</v>
+        <v>0.27690377095281005</v>
       </c>
       <c r="V7" s="19" t="str">
         <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
@@ -1315,64 +1315,64 @@
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D8" s="20">
-        <v>78.05</v>
+        <v>35.5</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="26">
-        <v>14.931573255261775</v>
+        <v>32.601508239900348</v>
       </c>
       <c r="G8" s="19">
-        <v>4.8046124279308135E-2</v>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>15.417000652106159</v>
+        <v>9.5403195227563842</v>
       </c>
       <c r="I8" s="20">
-        <v>12.798580074093763</v>
+        <v>8.1092715943429265</v>
       </c>
       <c r="J8" s="20">
-        <v>49.618678446192035</v>
+        <v>16.031122728609699</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M8" s="16">
-        <v>45625</v>
+        <v>45603</v>
       </c>
       <c r="N8" s="16">
         <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.54949235029228316</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P8" s="19">
-        <v>0.10108242664951193</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q8" s="19">
-        <v>1.0218987976510586E-2</v>
+        <v>1.6858097812807804E-3</v>
       </c>
       <c r="R8" s="19">
         <v>0</v>
       </c>
       <c r="S8" s="19">
-        <v>5.6582664391799292E-2</v>
+        <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>5.719799737085E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>0.27690377095281005</v>
+        <v>0.17445779619528262</v>
       </c>
       <c r="V8" s="19" t="str">
         <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
@@ -1381,31 +1381,31 @@
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" s="20">
-        <v>35.5</v>
+        <v>5.54</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>32.601508239900348</v>
+        <v>-44.104929428883615</v>
       </c>
       <c r="G9" s="19">
-        <v>1.4084507042253521E-2</v>
+        <v>3.602073488992022E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>9.5403195227563842</v>
+        <v>1.7942024016737586</v>
       </c>
       <c r="I9" s="20">
-        <v>8.1092715943429265</v>
+        <v>1.5250720414226948</v>
       </c>
       <c r="J9" s="20">
-        <v>16.031122728609699</v>
+        <v>3.0148968105932039</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>36</v>
@@ -1420,25 +1420,25 @@
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P9" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q9" s="19">
-        <v>1.6858097812807804E-3</v>
+        <v>1.0703282304304319E-2</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <v>0</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="T9" s="19">
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>0.17445779619528262</v>
+        <v>-3.5319141001935742E-2</v>
       </c>
       <c r="V9" s="19" t="str">
         <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
@@ -1447,68 +1447,68 @@
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="20">
-        <v>5.57</v>
+        <v>7.85</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="26">
-        <v>-44.343993008658067</v>
+        <v>34.017508108669347</v>
       </c>
       <c r="G10" s="19">
-        <v>3.582654295444862E-2</v>
+        <v>7.3885350318471335E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>1.7925122781935825</v>
+        <v>8.4275557156850915</v>
       </c>
       <c r="I10" s="20">
-        <v>1.523635436464545</v>
+        <v>7.1634223583323262</v>
       </c>
       <c r="J10" s="20">
-        <v>3.0120568033091102</v>
+        <v>12.399791481902572</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M10" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P10" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.12367370222475756</v>
       </c>
       <c r="Q10" s="19">
-        <v>1.0703282304304319E-2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="19">
-        <v>0.12063647696552883</v>
+        <v>1.0724472333143184E-2</v>
       </c>
       <c r="T10" s="19">
-        <v>0</v>
+        <v>1.038220193953223E-2</v>
       </c>
       <c r="U10" s="19">
-        <v>-3.5319141001935742E-2</v>
-      </c>
-      <c r="V10" s="19" t="str">
+        <v>0.22552196235025673</v>
+      </c>
+      <c r="V10" s="19">
         <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
-        <v/>
+        <v>8.7462119957665396E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1585,25 +1585,25 @@
         <v>49</v>
       </c>
       <c r="D12" s="20">
-        <v>10.92</v>
+        <v>10.96</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>9.5412174494207918</v>
+        <v>9.5761176789573241</v>
       </c>
       <c r="G12" s="19">
-        <v>5.5732537931575003E-2</v>
+        <v>5.5529420297511289E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>10.10196253557397</v>
+        <v>10.086865857808444</v>
       </c>
       <c r="I12" s="20">
-        <v>8.5866681552378736</v>
+        <v>8.5738359791371774</v>
       </c>
       <c r="J12" s="20">
-        <v>16.974882321427138</v>
+        <v>16.949514544857795</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>15</v>
@@ -1651,25 +1651,25 @@
         <v>52</v>
       </c>
       <c r="D13" s="20">
-        <v>6.98</v>
+        <v>6.96</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>29.257910698464837</v>
+        <v>29.171356502704967</v>
       </c>
       <c r="G13" s="19">
-        <v>6.5219844446482836E-2</v>
+        <v>6.5413357942611328E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>1.948805731796168</v>
+        <v>1.9499432629162468</v>
       </c>
       <c r="I13" s="20">
-        <v>1.6564848720267427</v>
+        <v>1.6574517734788097</v>
       </c>
       <c r="J13" s="20">
-        <v>3.1840630844129567</v>
+        <v>3.18592164362577</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>36</v>
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>-62.193560900447089</v>
+        <v>-62.187761013947259</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -1789,19 +1789,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>21.366750307740915</v>
+        <v>21.36475774251614</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="20">
-        <v>28.760415622337696</v>
+        <v>28.763697618991007</v>
       </c>
       <c r="I15" s="20">
-        <v>24.44635327898704</v>
+        <v>24.449142976142355</v>
       </c>
       <c r="J15" s="20">
-        <v>46.990306001951602</v>
+        <v>46.995668303702082</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>36</v>
@@ -1855,19 +1855,19 @@
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>24.115309374839001</v>
+        <v>24.113060491590357</v>
       </c>
       <c r="G16" s="19">
-        <v>2.954445272802832E-2</v>
+        <v>2.9547208165267555E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>3.5224728040675024</v>
+        <v>3.5228667333633448</v>
       </c>
       <c r="I16" s="20">
-        <v>2.9941018834573772</v>
+        <v>2.9944367233588429</v>
       </c>
       <c r="J16" s="20">
-        <v>5.7552045533767053</v>
+        <v>5.7558481761392501</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>36</v>
@@ -1987,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>17.31195775008462</v>
+        <v>17.310343316233482</v>
       </c>
       <c r="G18" s="19">
-        <v>2.5737640380859378E-2</v>
+        <v>2.5740040779113772E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>1.3204291324436404</v>
+        <v>1.3205859097784709</v>
       </c>
       <c r="I18" s="20">
-        <v>1.1223647625770943</v>
+        <v>1.1224980233117003</v>
       </c>
       <c r="J18" s="20">
-        <v>2.1573877722138013</v>
+        <v>2.1576439234125391</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>15</v>
@@ -2047,25 +2047,25 @@
         <v>67</v>
       </c>
       <c r="D19" s="20">
-        <v>14.84</v>
+        <v>14.8</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="26">
-        <v>10.371775424279805</v>
+        <v>10.343819156289834</v>
       </c>
       <c r="G19" s="19">
-        <v>7.4123989218328842E-2</v>
+        <v>7.4324324324324328E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>14.695709838363477</v>
+        <v>14.711912985787608</v>
       </c>
       <c r="I19" s="20">
-        <v>12.401463800260084</v>
+        <v>12.41356664000493</v>
       </c>
       <c r="J19" s="20">
-        <v>28.595568801312204</v>
+        <v>28.629685811733218</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>15</v>
@@ -2113,25 +2113,25 @@
         <v>69</v>
       </c>
       <c r="D20" s="20">
-        <v>113.7</v>
+        <v>113.8</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>11.507678218221514</v>
+        <v>11.517740029461972</v>
       </c>
       <c r="G20" s="19">
-        <v>1.7002619363387216E-2</v>
+        <v>1.6987766002728777E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>112.89756344808617</v>
+        <v>112.85872342886123</v>
       </c>
       <c r="I20" s="20">
-        <v>95.962928930873247</v>
+        <v>95.929914914532034</v>
       </c>
       <c r="J20" s="20">
-        <v>189.70797477801477</v>
+        <v>189.64270976110501</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>70</v>
@@ -2179,25 +2179,25 @@
         <v>72</v>
       </c>
       <c r="D21" s="20">
-        <v>10.52</v>
+        <v>10.56</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>26.380231321424834</v>
+        <v>26.478066930002203</v>
       </c>
       <c r="G21" s="19">
-        <v>1.631029174959403E-2</v>
+        <v>1.6250025744390009E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>1.2846575947877699</v>
+        <v>1.2843965234688401</v>
       </c>
       <c r="I21" s="20">
-        <v>1.0919589555696043</v>
+        <v>1.0917370449485142</v>
       </c>
       <c r="J21" s="20">
-        <v>2.098942319871167</v>
+        <v>2.0985157675804795</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>36</v>
@@ -2245,25 +2245,25 @@
         <v>74</v>
       </c>
       <c r="D22" s="20">
-        <v>403.4</v>
+        <v>404.4</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>33.360601487130786</v>
+        <v>33.440181284122787</v>
       </c>
       <c r="G22" s="19">
-        <v>8.4283589489340602E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="H22" s="20">
-        <v>67.685584742772079</v>
+        <v>67.588957415399904</v>
       </c>
       <c r="I22" s="20">
-        <v>57.532747031356266</v>
+        <v>57.450613803089915</v>
       </c>
       <c r="J22" s="20">
-        <v>124.66890635801246</v>
+        <v>124.54593621012984</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>75</v>
@@ -2317,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>-11.868276518147056</v>
+        <v>-11.867169737063012</v>
       </c>
       <c r="G23" s="19">
-        <v>2.8657761178575124E-2</v>
+        <v>2.8660433919311647E-2</v>
       </c>
       <c r="H23" s="20">
         <v>0</v>
@@ -2377,25 +2377,25 @@
         <v>79</v>
       </c>
       <c r="D24" s="20">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>22.538570995402466</v>
+        <v>22.606026155104164</v>
       </c>
       <c r="G24" s="19">
         <v>0</v>
       </c>
       <c r="H24" s="20">
-        <v>2.314999340719293</v>
+        <v>2.3136520750906246</v>
       </c>
       <c r="I24" s="20">
-        <v>1.967749439611399</v>
+        <v>1.9666042638270309</v>
       </c>
       <c r="J24" s="20">
-        <v>3.8557134761992438</v>
+        <v>3.8535190818567746</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>36</v>
@@ -2443,25 +2443,25 @@
         <v>82</v>
       </c>
       <c r="D25" s="20">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>19.30612686182906</v>
+        <v>19.116905815652952</v>
       </c>
       <c r="G25" s="19">
-        <v>5.0277939077334112E-2</v>
+        <v>5.0775595148014864E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>0.47422022051864715</v>
+        <v>0.47542146249529388</v>
       </c>
       <c r="I25" s="20">
-        <v>0.40308718744085009</v>
+        <v>0.4041082431209998</v>
       </c>
       <c r="J25" s="20">
-        <v>0.7748063716150474</v>
+        <v>0.77676902503446388</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>15</v>
@@ -2509,25 +2509,25 @@
         <v>84</v>
       </c>
       <c r="D26" s="20">
-        <v>9.86</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>11.142340139328782</v>
+        <v>11.163900043687656</v>
       </c>
       <c r="G26" s="19">
-        <v>6.4170080395144671E-2</v>
+        <v>6.4046154097828642E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>5.9627008610315464</v>
+        <v>5.9597855658609227</v>
       </c>
       <c r="I26" s="20">
-        <v>5.0682957318768143</v>
+        <v>5.0658177309817845</v>
       </c>
       <c r="J26" s="20">
-        <v>9.7421797284582627</v>
+        <v>9.7374165632122356</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>15</v>
@@ -2641,25 +2641,25 @@
         <v>89</v>
       </c>
       <c r="D28" s="20">
-        <v>5.61</v>
+        <v>5.63</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>8.5105252074684277</v>
+        <v>8.5400692787887174</v>
       </c>
       <c r="G28" s="19">
-        <v>8.6021525337096838E-2</v>
+        <v>8.5723936875378909E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>5.4757844128385038</v>
+        <v>5.4654198716638938</v>
       </c>
       <c r="I28" s="20">
-        <v>4.1218223005630907</v>
+        <v>4.1148748945728748</v>
       </c>
       <c r="J28" s="20">
-        <v>11.692512685833728</v>
+        <v>11.670045221290758</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>15</v>
@@ -2773,25 +2773,25 @@
         <v>94</v>
       </c>
       <c r="D30" s="20">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>3.645272682142485</v>
+        <v>3.6509874462652547</v>
       </c>
       <c r="G30" s="19">
-        <v>7.1255925749887539E-2</v>
+        <v>7.1144391318722425E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>4.1788998796933408</v>
+        <v>4.1771144282852957</v>
       </c>
       <c r="I30" s="20">
-        <v>3.5520648977393394</v>
+        <v>3.5505472640425011</v>
       </c>
       <c r="J30" s="20">
-        <v>6.8277102346808043</v>
+        <v>6.8247930686315605</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>15</v>
@@ -2839,25 +2839,25 @@
         <v>96</v>
       </c>
       <c r="D31" s="20">
-        <v>72.150000000000006</v>
+        <v>72.25</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>23.471683011501884</v>
+        <v>23.502022901319108</v>
       </c>
       <c r="G31" s="19">
-        <v>6.7599207930323646E-2</v>
+        <v>6.751194086701813E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>46.708665465146353</v>
+        <v>46.693932887425007</v>
       </c>
       <c r="I31" s="20">
-        <v>39.7023656453744</v>
+        <v>39.689842954311253</v>
       </c>
       <c r="J31" s="20">
-        <v>76.315116998702635</v>
+        <v>76.291046124887245</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>15</v>
@@ -2905,25 +2905,25 @@
         <v>98</v>
       </c>
       <c r="D32" s="20">
-        <v>5.0199999999999996</v>
+        <v>5.05</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>7.6944366709783782</v>
+        <v>7.7396975242065844</v>
       </c>
       <c r="G32" s="19">
-        <v>6.9663384198192582E-2</v>
+        <v>6.9256000809150176E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.3816000061293554</v>
+        <v>3.3754802461973643</v>
       </c>
       <c r="I32" s="20">
-        <v>2.8743600052099518</v>
+        <v>2.8691582092677597</v>
       </c>
       <c r="J32" s="20">
-        <v>5.5250390380590737</v>
+        <v>5.5150402468163149</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>15</v>
@@ -2971,25 +2971,25 @@
         <v>100</v>
       </c>
       <c r="D33" s="20">
-        <v>4.8499999999999996</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>14.775014767127406</v>
+        <v>14.804098023999085</v>
       </c>
       <c r="G33" s="19">
-        <v>3.7080775703351533E-2</v>
+        <v>3.7007929000834869E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>3.144860393453984</v>
+        <v>3.1431957757250792</v>
       </c>
       <c r="I33" s="20">
-        <v>2.6731313344358862</v>
+        <v>2.6717164093663173</v>
       </c>
       <c r="J33" s="20">
-        <v>5.1382411910293859</v>
+        <v>5.1355214495108825</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>70</v>
@@ -3043,19 +3043,19 @@
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>6.6954077328394455</v>
+        <v>6.694783349794668</v>
       </c>
       <c r="G34" s="19">
-        <v>6.1140135431485908E-2</v>
+        <v>6.1145837612112862E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>2.3005063008547002</v>
+        <v>2.3007826723832889</v>
       </c>
       <c r="I34" s="20">
-        <v>1.9554303557264952</v>
+        <v>1.9556652715257956</v>
       </c>
       <c r="J34" s="20">
-        <v>3.7586902934956061</v>
+        <v>3.7591418440875422</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>15</v>
@@ -3103,25 +3103,25 @@
         <v>104</v>
       </c>
       <c r="D35" s="20">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>3.8988914145180447</v>
+        <v>3.9151173018632695</v>
       </c>
       <c r="G35" s="19">
-        <v>6.9911462878504554E-2</v>
+        <v>6.9621720468930615E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>3.1810006072999184</v>
+        <v>3.1769919820523911</v>
       </c>
       <c r="I35" s="20">
-        <v>2.7038505162049304</v>
+        <v>2.7004431847445325</v>
       </c>
       <c r="J35" s="20">
-        <v>5.1972890062590604</v>
+        <v>5.1907394998297391</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>15</v>
@@ -3169,13 +3169,13 @@
         <v>106</v>
       </c>
       <c r="D36" s="20">
-        <v>79.150000000000006</v>
+        <v>79.25</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>-97.823598289965432</v>
+        <v>-97.938056853741216</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>108</v>
       </c>
       <c r="D37" s="20">
-        <v>5.14</v>
+        <v>5.17</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="26">
-        <v>16.604808069939615</v>
+        <v>16.701723292137707</v>
       </c>
       <c r="G37" s="19">
-        <v>3.0778210116731521E-2</v>
+        <v>3.0599613152804645E-2</v>
       </c>
       <c r="H37" s="20">
-        <v>3.5224273011569758</v>
+        <v>3.5181659290186258</v>
       </c>
       <c r="I37" s="20">
-        <v>2.9940632059834291</v>
+        <v>2.9904410396658316</v>
       </c>
       <c r="J37" s="20">
-        <v>5.8929728164823612</v>
+        <v>5.8848382508423418</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>15</v>
@@ -3301,25 +3301,25 @@
         <v>28</v>
       </c>
       <c r="D38" s="20">
-        <v>4.4800000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>9.4350201244330041</v>
+        <v>9.4762569552692941</v>
       </c>
       <c r="G38" s="19">
-        <v>6.2476973022733411E-2</v>
+        <v>6.2205098549524954E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>2.6168204665267152</v>
+        <v>2.6137178659264073</v>
       </c>
       <c r="I38" s="20">
-        <v>2.224297396547708</v>
+        <v>2.2216601860374463</v>
       </c>
       <c r="J38" s="20">
-        <v>4.2755013032132689</v>
+        <v>4.270432108333587</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>15</v>
@@ -3373,19 +3373,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>13.034395317187565</v>
+        <v>13.033179789207832</v>
       </c>
       <c r="G39" s="19">
-        <v>4.5440749259991843E-2</v>
+        <v>4.5444987251260192E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>1.849536491563277</v>
+        <v>1.8497464788574502</v>
       </c>
       <c r="I39" s="20">
-        <v>1.5721060178287853</v>
+        <v>1.5722845070288327</v>
       </c>
       <c r="J39" s="20">
-        <v>3.0218716878636727</v>
+        <v>3.0222147763412281</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>36</v>
@@ -3433,25 +3433,25 @@
         <v>113</v>
       </c>
       <c r="D40" s="20">
-        <v>14.34</v>
+        <v>14.4</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>11.963516087673739</v>
+        <v>12.013510811001199</v>
       </c>
       <c r="G40" s="19">
-        <v>7.1827057182705725E-2</v>
+        <v>7.1527777777777773E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>12.364839413731413</v>
+        <v>12.345068914602464</v>
       </c>
       <c r="I40" s="20">
-        <v>10.510113501671702</v>
+        <v>10.493308577412094</v>
       </c>
       <c r="J40" s="20">
-        <v>20.202336271696893</v>
+        <v>20.170034172308629</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>15</v>
@@ -3505,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>12.185787703361189</v>
+        <v>12.185724987694389</v>
       </c>
       <c r="G41" s="19">
-        <v>3.6796993198482668E-2</v>
+        <v>3.6797182579743695E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>18.169399153871133</v>
+        <v>18.16954040332034</v>
       </c>
       <c r="I41" s="20">
-        <v>15.443989280790463</v>
+        <v>15.444109342822289</v>
       </c>
       <c r="J41" s="20">
-        <v>31.448440813814258</v>
+        <v>31.448678163019398</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>15</v>
@@ -3565,25 +3565,25 @@
         <v>118</v>
       </c>
       <c r="D42" s="20">
-        <v>7.16</v>
+        <v>7.19</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="26">
-        <v>11.718988158138394</v>
+        <v>11.768090063828918</v>
       </c>
       <c r="G42" s="19">
-        <v>7.6815642458100561E-2</v>
+        <v>7.6495132127955501E-2</v>
       </c>
       <c r="H42" s="20">
-        <v>5.2322251409376541</v>
+        <v>5.225068504681369</v>
       </c>
       <c r="I42" s="20">
-        <v>4.447391369797006</v>
+        <v>4.4413082289791639</v>
       </c>
       <c r="J42" s="20">
-        <v>10.079461946250719</v>
+        <v>10.064470294082691</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>15</v>
@@ -3631,25 +3631,25 @@
         <v>120</v>
       </c>
       <c r="D43" s="20">
-        <v>24.35</v>
+        <v>24.45</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="26">
-        <v>7.9618987371879921</v>
+        <v>7.9945964732750063</v>
       </c>
       <c r="G43" s="19">
-        <v>6.0780287474332645E-2</v>
+        <v>6.0531697341513292E-2</v>
       </c>
       <c r="H43" s="20">
-        <v>14.974618992181009</v>
+        <v>14.957080967354269</v>
       </c>
       <c r="I43" s="20">
-        <v>12.728426143353857</v>
+        <v>12.713518822251128</v>
       </c>
       <c r="J43" s="20">
-        <v>25.162674510556165</v>
+        <v>25.133204404471751</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>15</v>
@@ -3697,25 +3697,25 @@
         <v>122</v>
       </c>
       <c r="D44" s="20">
-        <v>96.05</v>
+        <v>96.8</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>6.6444022575750239</v>
+        <v>6.6962501648855053</v>
       </c>
       <c r="G44" s="19">
-        <v>2.4307964370624279E-2</v>
+        <v>2.4119752005112075E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>19.831956932753759</v>
+        <v>19.813845400085263</v>
       </c>
       <c r="I44" s="20">
-        <v>16.857163392840693</v>
+        <v>16.841768590072473</v>
       </c>
       <c r="J44" s="20">
-        <v>33.324726156092275</v>
+        <v>33.294292353291503</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>36</v>
@@ -3763,25 +3763,25 @@
         <v>124</v>
       </c>
       <c r="D45" s="20">
-        <v>5.73</v>
+        <v>5.75</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>4.9872793982155814</v>
+        <v>5.004220291013044</v>
       </c>
       <c r="G45" s="19">
-        <v>7.0183356186898374E-2</v>
+        <v>6.9945762986722199E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>3.8981452573636388</v>
+        <v>3.8941831631757147</v>
       </c>
       <c r="I45" s="20">
-        <v>3.3134234687590931</v>
+        <v>3.3100556886993573</v>
       </c>
       <c r="J45" s="20">
-        <v>6.3689983096525564</v>
+        <v>6.3625248281582722</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>15</v>
@@ -3829,25 +3829,25 @@
         <v>126</v>
       </c>
       <c r="D46" s="20">
-        <v>36.200000000000003</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>6.4525568566459999</v>
+        <v>6.4697782012052105</v>
       </c>
       <c r="G46" s="19">
-        <v>5.8419229777917449E-2</v>
+        <v>5.8263728668976542E-2</v>
       </c>
       <c r="H46" s="20">
-        <v>19.396854475467279</v>
+        <v>19.38441760331634</v>
       </c>
       <c r="I46" s="20">
-        <v>16.487326304147185</v>
+        <v>16.476754962818887</v>
       </c>
       <c r="J46" s="20">
-        <v>31.691618759835102</v>
+        <v>31.671298732622912</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>15</v>
@@ -3895,25 +3895,25 @@
         <v>128</v>
       </c>
       <c r="D47" s="20">
-        <v>3.7</v>
+        <v>3.71</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>4.0192501981744044</v>
+        <v>4.0297372066732589</v>
       </c>
       <c r="G47" s="19">
-        <v>8.6951487773173561E-2</v>
+        <v>8.6725204781380627E-2</v>
       </c>
       <c r="H47" s="20">
-        <v>3.3706049157725189</v>
+        <v>3.3674119208303286</v>
       </c>
       <c r="I47" s="20">
-        <v>2.865014178406641</v>
+        <v>2.8623001327057791</v>
       </c>
       <c r="J47" s="20">
-        <v>5.5070746710912486</v>
+        <v>5.5018577850988333</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>15</v>
@@ -3961,13 +3961,13 @@
         <v>130</v>
       </c>
       <c r="D48" s="20">
-        <v>206</v>
+        <v>205.2</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>77.539479296323819</v>
+        <v>77.23115220981424</v>
       </c>
       <c r="G48" s="19">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>132</v>
       </c>
       <c r="D49" s="20">
-        <v>5.65</v>
+        <v>5.67</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="26">
-        <v>15.772949780813343</v>
+        <v>15.827307111573019</v>
       </c>
       <c r="G49" s="19">
-        <v>5.9143427305868586E-2</v>
+        <v>5.8940305017429827E-2</v>
       </c>
       <c r="H49" s="20">
-        <v>4.3162767025373432</v>
+        <v>4.312209665253036</v>
       </c>
       <c r="I49" s="20">
-        <v>3.6688351971567417</v>
+        <v>3.6653782154650805</v>
       </c>
       <c r="J49" s="20">
-        <v>6.7078023018473667</v>
+        <v>6.7016222159482721</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>36</v>
@@ -4099,19 +4099,19 @@
         <v>3</v>
       </c>
       <c r="F50" s="26">
-        <v>39.922569565543164</v>
+        <v>39.918846569642795</v>
       </c>
       <c r="G50" s="19">
-        <v>6.5117999073566038E-2</v>
+        <v>6.5124072246125486E-2</v>
       </c>
       <c r="H50" s="20">
-        <v>1.5255497487315568</v>
+        <v>1.5257112395672463</v>
       </c>
       <c r="I50" s="20">
-        <v>1.2967172864218233</v>
+        <v>1.2968545536321594</v>
       </c>
       <c r="J50" s="20">
-        <v>2.2044956081991796</v>
+        <v>2.2047325977791195</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>15</v>
@@ -4159,25 +4159,25 @@
         <v>136</v>
       </c>
       <c r="D51" s="20">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="26">
-        <v>5.8659286824173344</v>
+        <v>5.8442831576339618</v>
       </c>
       <c r="G51" s="19">
-        <v>8.10087601915538E-2</v>
+        <v>8.1308793074817864E-2</v>
       </c>
       <c r="H51" s="20">
-        <v>2.2956260803272124</v>
+        <v>2.2990279894663388</v>
       </c>
       <c r="I51" s="20">
-        <v>1.9512821682781305</v>
+        <v>1.9541737910463879</v>
       </c>
       <c r="J51" s="20">
-        <v>3.7507167280591753</v>
+        <v>3.7562749492454586</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>15</v>
@@ -4225,25 +4225,25 @@
         <v>138</v>
       </c>
       <c r="D52" s="20">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="26">
-        <v>-24.200912980723679</v>
+        <v>-24.343558246897015</v>
       </c>
       <c r="G52" s="19">
-        <v>6.4215669612922605E-2</v>
+        <v>6.3839386852960742E-2</v>
       </c>
       <c r="H52" s="20">
-        <v>1.0108437603048359</v>
+        <v>1.0091520742261721</v>
       </c>
       <c r="I52" s="20">
-        <v>0.85921719625911053</v>
+        <v>0.85777926309224628</v>
       </c>
       <c r="J52" s="20">
-        <v>1.651570625425711</v>
+        <v>1.648806658188954</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>36</v>
@@ -4291,25 +4291,25 @@
         <v>141</v>
       </c>
       <c r="D53" s="20">
-        <v>84.2</v>
+        <v>84.45</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="26">
-        <v>14591.925319138516</v>
+        <v>14633.885696679254</v>
       </c>
       <c r="G53" s="19">
-        <v>1.1462725822829294E-2</v>
+        <v>1.1429858250050521E-2</v>
       </c>
       <c r="H53" s="20">
-        <v>3.9859018766046098E-2</v>
+        <v>3.9862697019307607E-2</v>
       </c>
       <c r="I53" s="20">
-        <v>3.3880165951139185E-2</v>
+        <v>3.3883292466411467E-2</v>
       </c>
       <c r="J53" s="20">
-        <v>6.5123797699895611E-2</v>
+        <v>6.51298074268961E-2</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>36</v>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5576B43-D5DF-43A4-95C8-635BA6FF936C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05350CFD-5369-4FE3-BA05-FA18C62D2A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,19 +1129,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>17.574298387925708</v>
+        <v>17.574810225383022</v>
       </c>
       <c r="G5" s="19">
-        <v>6.4590617523712368E-2</v>
+        <v>6.4588736428154839E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>48.903147273905773</v>
+        <v>48.901291013217786</v>
       </c>
       <c r="I5" s="20">
-        <v>41.567675182819904</v>
+        <v>41.566097361235116</v>
       </c>
       <c r="J5" s="20">
-        <v>82.174643510970526</v>
+        <v>82.171524334213984</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>15</v>
@@ -1176,9 +1176,9 @@
       <c r="U5" s="19">
         <v>0.10980570587494648</v>
       </c>
-      <c r="V5" s="19" t="str">
-        <f>IF(D5&lt;=H5,-(I5/D5-1),"")</f>
-        <v/>
+      <c r="V5" s="19">
+        <f>IF(D5&lt;=J5,-(I5/D5-1),"")</f>
+        <v>0.43447486583353589</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1242,9 +1242,9 @@
       <c r="U6" s="19">
         <v>0.35546835552606143</v>
       </c>
-      <c r="V6" s="19" t="str">
-        <f>IF(D6&lt;=H6,-(I6/D6-1),"")</f>
-        <v/>
+      <c r="V6" s="19">
+        <f>IF(D6&lt;=J6,-(I6/D6-1),"")</f>
+        <v>0.36183649243906724</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1309,7 +1309,7 @@
         <v>0.27690377095281005</v>
       </c>
       <c r="V7" s="19" t="str">
-        <f>IF(D7&lt;=H7,-(I7/D7-1),"")</f>
+        <f>IF(D7&lt;=J7,-(I7/D7-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
         <v>0.17445779619528262</v>
       </c>
       <c r="V8" s="19" t="str">
-        <f>IF(D8&lt;=H8,-(I8/D8-1),"")</f>
+        <f>IF(D8&lt;=J8,-(I8/D8-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1393,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>-44.104929428883615</v>
+        <v>-44.106213949860525</v>
       </c>
       <c r="G9" s="19">
-        <v>3.602073488992022E-2</v>
+        <v>3.6019685845229549E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>1.7942024016737586</v>
+        <v>1.7941410649733656</v>
       </c>
       <c r="I9" s="20">
-        <v>1.5250720414226948</v>
+        <v>1.5250199052273608</v>
       </c>
       <c r="J9" s="20">
-        <v>3.0148968105932039</v>
+        <v>3.0147937431676923</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>36</v>
@@ -1441,7 +1441,7 @@
         <v>-3.5319141001935742E-2</v>
       </c>
       <c r="V9" s="19" t="str">
-        <f>IF(D9&lt;=H9,-(I9/D9-1),"")</f>
+        <f>IF(D9&lt;=J9,-(I9/D9-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
         <v>0.22552196235025673</v>
       </c>
       <c r="V10" s="19">
-        <f>IF(D10&lt;=H10,-(I10/D10-1),"")</f>
+        <f>IF(D10&lt;=J10,-(I10/D10-1),"")</f>
         <v>8.7462119957665396E-2</v>
       </c>
     </row>
@@ -1572,9 +1572,9 @@
       <c r="U11" s="19">
         <v>4.9902853833308697E-2</v>
       </c>
-      <c r="V11" s="19" t="str">
-        <f>IF(D11&lt;=H11,-(I11/D11-1),"")</f>
-        <v/>
+      <c r="V11" s="19">
+        <f>IF(D11&lt;=J11,-(I11/D11-1),"")</f>
+        <v>0.30145740194653814</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1591,19 +1591,19 @@
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>9.5761176789573241</v>
+        <v>9.5763965757653509</v>
       </c>
       <c r="G12" s="19">
-        <v>5.5529420297511289E-2</v>
+        <v>5.5527803094427647E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>10.086865857808444</v>
+        <v>10.086451562634135</v>
       </c>
       <c r="I12" s="20">
-        <v>8.5738359791371774</v>
+        <v>8.5734838282390147</v>
       </c>
       <c r="J12" s="20">
-        <v>16.949514544857795</v>
+        <v>16.948818381928518</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>15</v>
@@ -1638,9 +1638,9 @@
       <c r="U12" s="19">
         <v>4.8035946952446888E-2</v>
       </c>
-      <c r="V12" s="19" t="str">
-        <f>IF(D12&lt;=H12,-(I12/D12-1),"")</f>
-        <v/>
+      <c r="V12" s="19">
+        <f>IF(D12&lt;=J12,-(I12/D12-1),"")</f>
+        <v>0.21774782589060093</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1657,19 +1657,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>29.171356502704967</v>
+        <v>29.1722633265722</v>
       </c>
       <c r="G13" s="19">
-        <v>6.5413357942611328E-2</v>
+        <v>6.5411324559272011E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>1.9499432629162468</v>
+        <v>1.9498726039909389</v>
       </c>
       <c r="I13" s="20">
-        <v>1.6574517734788097</v>
+        <v>1.657391713392298</v>
       </c>
       <c r="J13" s="20">
-        <v>3.18592164362577</v>
+        <v>3.1858061972926719</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>36</v>
@@ -1705,7 +1705,7 @@
         <v>4.4810180002141216E-2</v>
       </c>
       <c r="V13" s="19" t="str">
-        <f>IF(D13&lt;=H13,-(I13/D13-1),"")</f>
+        <f>IF(D13&lt;=J13,-(I13/D13-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>-62.187761013947259</v>
+        <v>-62.189694189249956</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>-0.11044830732057855</v>
       </c>
       <c r="V14" s="19" t="str">
-        <f>IF(D14&lt;=H14,-(I14/D14-1),"")</f>
+        <f>IF(D14&lt;=J14,-(I14/D14-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1789,19 +1789,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>21.36475774251614</v>
+        <v>21.365421889630341</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="20">
-        <v>28.763697618991007</v>
+        <v>28.762603606567787</v>
       </c>
       <c r="I15" s="20">
-        <v>24.449142976142355</v>
+        <v>24.448213065582618</v>
       </c>
       <c r="J15" s="20">
-        <v>46.995668303702082</v>
+        <v>46.993880847664869</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>36</v>
@@ -1837,7 +1837,7 @@
         <v>8.4396594173019507E-2</v>
       </c>
       <c r="V15" s="19" t="str">
-        <f>IF(D15&lt;=H15,-(I15/D15-1),"")</f>
+        <f>IF(D15&lt;=J15,-(I15/D15-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1855,19 +1855,19 @@
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>24.113060491590357</v>
+        <v>24.113810072733894</v>
       </c>
       <c r="G16" s="19">
-        <v>2.9547208165267555E-2</v>
+        <v>2.9546289686187804E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>3.5228667333633448</v>
+        <v>3.5227354221346143</v>
       </c>
       <c r="I16" s="20">
-        <v>2.9944367233588429</v>
+        <v>2.9943251088144223</v>
       </c>
       <c r="J16" s="20">
-        <v>5.7558481761392501</v>
+        <v>5.7556336328273394</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>36</v>
@@ -1903,7 +1903,7 @@
         <v>3.6267609406633192E-2</v>
       </c>
       <c r="V16" s="19" t="str">
-        <f>IF(D16&lt;=H16,-(I16/D16-1),"")</f>
+        <f>IF(D16&lt;=J16,-(I16/D16-1),"")</f>
         <v/>
       </c>
     </row>
@@ -1968,9 +1968,9 @@
       <c r="U17" s="19">
         <v>9.3294561862408407E-2</v>
       </c>
-      <c r="V17" s="19" t="str">
-        <f>IF(D17&lt;=H17,-(I17/D17-1),"")</f>
-        <v/>
+      <c r="V17" s="19">
+        <f>IF(D17&lt;=J17,-(I17/D17-1),"")</f>
+        <v>0.46388528690158748</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -1987,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>17.310343316233482</v>
+        <v>17.310881427392889</v>
       </c>
       <c r="G18" s="19">
-        <v>2.5740040779113772E-2</v>
+        <v>2.5739240646362304E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>1.3205859097784709</v>
+        <v>1.3205336498938396</v>
       </c>
       <c r="I18" s="20">
-        <v>1.1224980233117003</v>
+        <v>1.1224536024097636</v>
       </c>
       <c r="J18" s="20">
-        <v>2.1576439234125391</v>
+        <v>2.1575585384166232</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>15</v>
@@ -2035,7 +2035,7 @@
         <v>6.6194720593479306E-2</v>
       </c>
       <c r="V18" s="19" t="str">
-        <f>IF(D18&lt;=H18,-(I18/D18-1),"")</f>
+        <f>IF(D18&lt;=J18,-(I18/D18-1),"")</f>
         <v/>
       </c>
     </row>
@@ -2100,9 +2100,9 @@
       <c r="U19" s="19">
         <v>7.3081874090513851E-2</v>
       </c>
-      <c r="V19" s="19" t="str">
-        <f>IF(D19&lt;=H19,-(I19/D19-1),"")</f>
-        <v/>
+      <c r="V19" s="19">
+        <f>IF(D19&lt;=J19,-(I19/D19-1),"")</f>
+        <v>0.16124549729696425</v>
       </c>
     </row>
     <row r="20" spans="2:22">
@@ -2119,19 +2119,19 @@
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>11.517740029461972</v>
+        <v>11.518075474476078</v>
       </c>
       <c r="G20" s="19">
-        <v>1.6987766002728777E-2</v>
+        <v>1.6987271261969434E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>112.85872342886123</v>
+        <v>112.85412378171404</v>
       </c>
       <c r="I20" s="20">
-        <v>95.929914914532034</v>
+        <v>95.926005214456936</v>
       </c>
       <c r="J20" s="20">
-        <v>189.64270976110501</v>
+        <v>189.63498072144876</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>70</v>
@@ -2166,9 +2166,9 @@
       <c r="U20" s="19">
         <v>7.2375155036871239E-2</v>
       </c>
-      <c r="V20" s="19" t="str">
-        <f>IF(D20&lt;=H20,-(I20/D20-1),"")</f>
-        <v/>
+      <c r="V20" s="19">
+        <f>IF(D20&lt;=J20,-(I20/D20-1),"")</f>
+        <v>0.1570649805408002</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -2185,19 +2185,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>26.478066930002203</v>
+        <v>26.478890029985507</v>
       </c>
       <c r="G21" s="19">
-        <v>1.6250025744390009E-2</v>
+        <v>1.6249520610077211E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>1.2843965234688401</v>
+        <v>1.2843534058342818</v>
       </c>
       <c r="I21" s="20">
-        <v>1.0917370449485142</v>
+        <v>1.0917003949591395</v>
       </c>
       <c r="J21" s="20">
-        <v>2.0985157675804795</v>
+        <v>2.098445319681931</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>36</v>
@@ -2233,7 +2233,7 @@
         <v>0.20774429762625654</v>
       </c>
       <c r="V21" s="19" t="str">
-        <f>IF(D21&lt;=H21,-(I21/D21-1),"")</f>
+        <f>IF(D21&lt;=J21,-(I21/D21-1),"")</f>
         <v/>
       </c>
     </row>
@@ -2251,19 +2251,19 @@
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>33.440181284122787</v>
+        <v>33.441220809127742</v>
       </c>
       <c r="G22" s="19">
-        <v>8.4075173095944609E-3</v>
+        <v>8.4075173095944627E-3</v>
       </c>
       <c r="H22" s="20">
-        <v>67.588957415399904</v>
+        <v>67.585512890459825</v>
       </c>
       <c r="I22" s="20">
-        <v>57.450613803089915</v>
+        <v>57.447685956890851</v>
       </c>
       <c r="J22" s="20">
-        <v>124.54593621012984</v>
+        <v>124.54030836096759</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>75</v>
@@ -2299,7 +2299,7 @@
         <v>0.22877761631486909</v>
       </c>
       <c r="V22" s="19" t="str">
-        <f>IF(D22&lt;=H22,-(I22/D22-1),"")</f>
+        <f>IF(D22&lt;=J22,-(I22/D22-1),"")</f>
         <v/>
       </c>
     </row>
@@ -2317,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>-11.867169737063012</v>
+        <v>-11.867538641154018</v>
       </c>
       <c r="G23" s="19">
-        <v>2.8660433919311647E-2</v>
+        <v>2.8659543005732799E-2</v>
       </c>
       <c r="H23" s="20">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>-4.5622430706520396E-2</v>
       </c>
       <c r="V23" s="19" t="str">
-        <f>IF(D23&lt;=H23,-(I23/D23-1),"")</f>
+        <f>IF(D23&lt;=J23,-(I23/D23-1),"")</f>
         <v/>
       </c>
     </row>
@@ -2383,19 +2383,19 @@
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>22.606026155104164</v>
+        <v>22.606728888419248</v>
       </c>
       <c r="G24" s="19">
         <v>0</v>
       </c>
       <c r="H24" s="20">
-        <v>2.3136520750906246</v>
+        <v>2.3135639238661043</v>
       </c>
       <c r="I24" s="20">
-        <v>1.9666042638270309</v>
+        <v>1.9665293352861886</v>
       </c>
       <c r="J24" s="20">
-        <v>3.8535190818567746</v>
+        <v>3.8533727755581211</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>36</v>
@@ -2431,7 +2431,7 @@
         <v>2.9355219356749174E-2</v>
       </c>
       <c r="V24" s="19" t="str">
-        <f>IF(D24&lt;=H24,-(I24/D24-1),"")</f>
+        <f>IF(D24&lt;=J24,-(I24/D24-1),"")</f>
         <v/>
       </c>
     </row>
@@ -2449,19 +2449,19 @@
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>19.116905815652952</v>
+        <v>19.117500085804895</v>
       </c>
       <c r="G25" s="19">
-        <v>5.0775595148014864E-2</v>
+        <v>5.0774016781570078E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>0.47542146249529388</v>
+        <v>0.4754030109135986</v>
       </c>
       <c r="I25" s="20">
-        <v>0.4041082431209998</v>
+        <v>0.40409255927655879</v>
       </c>
       <c r="J25" s="20">
-        <v>0.77676902503446388</v>
+        <v>0.77673887785295348</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>15</v>
@@ -2497,7 +2497,7 @@
         <v>0.12419023710495804</v>
       </c>
       <c r="V25" s="19" t="str">
-        <f>IF(D25&lt;=H25,-(I25/D25-1),"")</f>
+        <f>IF(D25&lt;=J25,-(I25/D25-1),"")</f>
         <v/>
       </c>
     </row>
@@ -2515,19 +2515,19 @@
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>11.163900043687656</v>
+        <v>11.164247085862746</v>
       </c>
       <c r="G26" s="19">
-        <v>6.4046154097828642E-2</v>
+        <v>6.4044163214211206E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>5.9597855658609227</v>
+        <v>5.9595445517529928</v>
       </c>
       <c r="I26" s="20">
-        <v>5.0658177309817845</v>
+        <v>5.0656128689900441</v>
       </c>
       <c r="J26" s="20">
-        <v>9.7374165632122356</v>
+        <v>9.7370227814661341</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>15</v>
@@ -2563,7 +2563,7 @@
         <v>0.11437878179622009</v>
       </c>
       <c r="V26" s="19" t="str">
-        <f>IF(D26&lt;=H26,-(I26/D26-1),"")</f>
+        <f>IF(D26&lt;=J26,-(I26/D26-1),"")</f>
         <v/>
       </c>
     </row>
@@ -2628,9 +2628,9 @@
       <c r="U27" s="19">
         <v>-0.11179283029271934</v>
       </c>
-      <c r="V27" s="19" t="str">
-        <f>IF(D27&lt;=H27,-(I27/D27-1),"")</f>
-        <v/>
+      <c r="V27" s="19">
+        <f>IF(D27&lt;=J27,-(I27/D27-1),"")</f>
+        <v>0.15744648243805026</v>
       </c>
     </row>
     <row r="28" spans="2:22">
@@ -2647,19 +2647,19 @@
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>8.5400692787887174</v>
+        <v>8.5403347562837091</v>
       </c>
       <c r="G28" s="19">
-        <v>8.5723936875378909E-2</v>
+        <v>8.5721272134865578E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>5.4654198716638938</v>
+        <v>5.4651526656016172</v>
       </c>
       <c r="I28" s="20">
-        <v>4.1148748945728748</v>
+        <v>4.1146813699114517</v>
       </c>
       <c r="J28" s="20">
-        <v>11.670045221290758</v>
+        <v>11.669471669197986</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>15</v>
@@ -2694,9 +2694,9 @@
       <c r="U28" s="19">
         <v>4.9816835181438444E-2</v>
       </c>
-      <c r="V28" s="19" t="str">
-        <f>IF(D28&lt;=H28,-(I28/D28-1),"")</f>
-        <v/>
+      <c r="V28" s="19">
+        <f>IF(D28&lt;=J28,-(I28/D28-1),"")</f>
+        <v>0.26915073358588781</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -2760,9 +2760,9 @@
       <c r="U29" s="19">
         <v>7.6565193025493528E-2</v>
       </c>
-      <c r="V29" s="19" t="str">
-        <f>IF(D29&lt;=H29,-(I29/D29-1),"")</f>
-        <v/>
+      <c r="V29" s="19">
+        <f>IF(D29&lt;=J29,-(I29/D29-1),"")</f>
+        <v>0.37682856959745148</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -2779,19 +2779,19 @@
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>3.6509874462652547</v>
+        <v>3.6511009412463653</v>
       </c>
       <c r="G30" s="19">
-        <v>7.1144391318722425E-2</v>
+        <v>7.1142179785412665E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>4.1771144282852957</v>
+        <v>4.1769414623203351</v>
       </c>
       <c r="I30" s="20">
-        <v>3.5505472640425011</v>
+        <v>3.5504002429722847</v>
       </c>
       <c r="J30" s="20">
-        <v>6.8247930686315605</v>
+        <v>6.8245104675826687</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>15</v>
@@ -2826,9 +2826,9 @@
       <c r="U30" s="19">
         <v>0.36602055622301682</v>
       </c>
-      <c r="V30" s="19" t="str">
-        <f>IF(D30&lt;=H30,-(I30/D30-1),"")</f>
-        <v/>
+      <c r="V30" s="19">
+        <f>IF(D30&lt;=J30,-(I30/D30-1),"")</f>
+        <v>0.41121057330476207</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -2845,19 +2845,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>23.502022901319108</v>
+        <v>23.50275348768362</v>
       </c>
       <c r="G31" s="19">
-        <v>6.751194086701813E-2</v>
+        <v>6.7509842248936414E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>46.693932887425007</v>
+        <v>46.692022438875199</v>
       </c>
       <c r="I31" s="20">
-        <v>39.689842954311253</v>
+        <v>39.688219073043918</v>
       </c>
       <c r="J31" s="20">
-        <v>76.291046124887245</v>
+        <v>76.287924731819231</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>15</v>
@@ -2892,9 +2892,9 @@
       <c r="U31" s="19">
         <v>8.1342449801464822E-2</v>
       </c>
-      <c r="V31" s="19" t="str">
-        <f>IF(D31&lt;=H31,-(I31/D31-1),"")</f>
-        <v/>
+      <c r="V31" s="19">
+        <f>IF(D31&lt;=J31,-(I31/D31-1),"")</f>
+        <v>0.45068208895440942</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -2911,19 +2911,19 @@
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>7.7396975242065844</v>
+        <v>7.7399381212607343</v>
       </c>
       <c r="G32" s="19">
-        <v>6.9256000809150176E-2</v>
+        <v>6.9253847976722335E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.3754802461973643</v>
+        <v>3.3753413392774503</v>
       </c>
       <c r="I32" s="20">
-        <v>2.8691582092677597</v>
+        <v>2.8690401383858326</v>
       </c>
       <c r="J32" s="20">
-        <v>5.5150402468163149</v>
+        <v>5.5148132932577054</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>15</v>
@@ -2958,9 +2958,9 @@
       <c r="U32" s="19">
         <v>0.12232431421528413</v>
       </c>
-      <c r="V32" s="19" t="str">
-        <f>IF(D32&lt;=H32,-(I32/D32-1),"")</f>
-        <v/>
+      <c r="V32" s="19">
+        <f>IF(D32&lt;=J32,-(I32/D32-1),"")</f>
+        <v>0.4318732399235975</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -2977,19 +2977,19 @@
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>14.804098023999085</v>
+        <v>14.804558225752807</v>
       </c>
       <c r="G33" s="19">
-        <v>3.7007929000834869E-2</v>
+        <v>3.7006778604209173E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>3.1431957757250792</v>
+        <v>3.1430671583118945</v>
       </c>
       <c r="I33" s="20">
-        <v>2.6717164093663173</v>
+        <v>2.6716070845651103</v>
       </c>
       <c r="J33" s="20">
-        <v>5.1355214495108825</v>
+        <v>5.1353113074989549</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>70</v>
@@ -3024,9 +3024,9 @@
       <c r="U33" s="19">
         <v>0.14100336070836289</v>
       </c>
-      <c r="V33" s="19" t="str">
-        <f>IF(D33&lt;=H33,-(I33/D33-1),"")</f>
-        <v/>
+      <c r="V33" s="19">
+        <f>IF(D33&lt;=J33,-(I33/D33-1),"")</f>
+        <v>0.45028660811417487</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -3043,19 +3043,19 @@
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>6.694783349794668</v>
+        <v>6.6949914645365034</v>
       </c>
       <c r="G34" s="19">
-        <v>6.1145837612112862E-2</v>
+        <v>6.1143936885237206E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>2.3007826723832889</v>
+        <v>2.3006905471117367</v>
       </c>
       <c r="I34" s="20">
-        <v>1.9556652715257956</v>
+        <v>1.9555869650449762</v>
       </c>
       <c r="J34" s="20">
-        <v>3.7591418440875422</v>
+        <v>3.758991324889295</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>15</v>
@@ -3091,7 +3091,7 @@
         <v>0.19964406567112258</v>
       </c>
       <c r="V34" s="19" t="str">
-        <f>IF(D34&lt;=H34,-(I34/D34-1),"")</f>
+        <f>IF(D34&lt;=J34,-(I34/D34-1),"")</f>
         <v/>
       </c>
     </row>
@@ -3109,19 +3109,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>3.9151173018632695</v>
+        <v>3.9152390076129495</v>
       </c>
       <c r="G35" s="19">
-        <v>6.9621720468930615E-2</v>
+        <v>6.9619556268056229E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>3.1769919820523911</v>
+        <v>3.1768610853805921</v>
       </c>
       <c r="I35" s="20">
-        <v>2.7004431847445325</v>
+        <v>2.7003319225735032</v>
       </c>
       <c r="J35" s="20">
-        <v>5.1907394998297391</v>
+        <v>5.1905256338431256</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>15</v>
@@ -3156,9 +3156,9 @@
       <c r="U35" s="19">
         <v>0.34620797227785238</v>
       </c>
-      <c r="V35" s="19" t="str">
-        <f>IF(D35&lt;=H35,-(I35/D35-1),"")</f>
-        <v/>
+      <c r="V35" s="19">
+        <f>IF(D35&lt;=J35,-(I35/D35-1),"")</f>
+        <v>0.42789577911578325</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -3175,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>-97.938056853741216</v>
+        <v>-97.941101366513763</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V36" s="19" t="str">
-        <f>IF(D36&lt;=H36,-(I36/D36-1),"")</f>
+        <f>IF(D36&lt;=J36,-(I36/D36-1),"")</f>
         <v/>
       </c>
     </row>
@@ -3288,9 +3288,9 @@
       <c r="U37" s="19">
         <v>0.11237749163404374</v>
       </c>
-      <c r="V37" s="19" t="str">
-        <f>IF(D37&lt;=H37,-(I37/D37-1),"")</f>
-        <v/>
+      <c r="V37" s="19">
+        <f>IF(D37&lt;=J37,-(I37/D37-1),"")</f>
+        <v>0.42157813546115441</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -3307,19 +3307,19 @@
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>9.4762569552692941</v>
+        <v>9.4765515351932095</v>
       </c>
       <c r="G38" s="19">
-        <v>6.2205098549524954E-2</v>
+        <v>6.2203164895375571E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>2.6137178659264073</v>
+        <v>2.6136128287120473</v>
       </c>
       <c r="I38" s="20">
-        <v>2.2216601860374463</v>
+        <v>2.2215709044052403</v>
       </c>
       <c r="J38" s="20">
-        <v>4.270432108333587</v>
+        <v>4.2702604929122661</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>15</v>
@@ -3355,7 +3355,7 @@
         <v>0.10654780430421051</v>
       </c>
       <c r="V38" s="19" t="str">
-        <f>IF(D38&lt;=H38,-(I38/D38-1),"")</f>
+        <f>IF(D38&lt;=J38,-(I38/D38-1),"")</f>
         <v/>
       </c>
     </row>
@@ -3373,19 +3373,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>13.033179789207832</v>
+        <v>13.033584940010391</v>
       </c>
       <c r="G39" s="19">
-        <v>4.5444987251260192E-2</v>
+        <v>4.5443574587504067E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>1.8497464788574502</v>
+        <v>1.8496764822482199</v>
       </c>
       <c r="I39" s="20">
-        <v>1.5722845070288327</v>
+        <v>1.5722250099109869</v>
       </c>
       <c r="J39" s="20">
-        <v>3.0222147763412281</v>
+        <v>3.0221004121355772</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>36</v>
@@ -3421,7 +3421,7 @@
         <v>5.5156426590839844E-2</v>
       </c>
       <c r="V39" s="19" t="str">
-        <f>IF(D39&lt;=H39,-(I39/D39-1),"")</f>
+        <f>IF(D39&lt;=J39,-(I39/D39-1),"")</f>
         <v/>
       </c>
     </row>
@@ -3439,19 +3439,19 @@
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>12.013510811001199</v>
+        <v>12.013860694944849</v>
       </c>
       <c r="G40" s="19">
         <v>7.1527777777777773E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>12.345068914602464</v>
+        <v>12.344571252262998</v>
       </c>
       <c r="I40" s="20">
-        <v>10.493308577412094</v>
+        <v>10.492885564423549</v>
       </c>
       <c r="J40" s="20">
-        <v>20.170034172308629</v>
+        <v>20.169221064948697</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>15</v>
@@ -3486,9 +3486,9 @@
       <c r="U40" s="19">
         <v>0.11297327149257705</v>
       </c>
-      <c r="V40" s="19" t="str">
-        <f>IF(D40&lt;=H40,-(I40/D40-1),"")</f>
-        <v/>
+      <c r="V40" s="19">
+        <f>IF(D40&lt;=J40,-(I40/D40-1),"")</f>
+        <v>0.27132739135947581</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -3505,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>12.185724987694389</v>
+        <v>12.186079887238913</v>
       </c>
       <c r="G41" s="19">
-        <v>3.6797182579743695E-2</v>
+        <v>3.6796110922290431E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>18.16954040332034</v>
+        <v>18.168741116870514</v>
       </c>
       <c r="I41" s="20">
-        <v>15.444109342822289</v>
+        <v>15.443429949339937</v>
       </c>
       <c r="J41" s="20">
-        <v>31.448678163019398</v>
+        <v>31.447335078110985</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>15</v>
@@ -3552,9 +3552,9 @@
       <c r="U41" s="19">
         <v>0.12114381924831638</v>
       </c>
-      <c r="V41" s="19" t="str">
-        <f>IF(D41&lt;=H41,-(I41/D41-1),"")</f>
-        <v/>
+      <c r="V41" s="19">
+        <f>IF(D41&lt;=J41,-(I41/D41-1),"")</f>
+        <v>0.2883212004912471</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -3618,9 +3618,9 @@
       <c r="U42" s="19">
         <v>7.4842321832102252E-2</v>
       </c>
-      <c r="V42" s="19" t="str">
-        <f>IF(D42&lt;=H42,-(I42/D42-1),"")</f>
-        <v/>
+      <c r="V42" s="19">
+        <f>IF(D42&lt;=J42,-(I42/D42-1),"")</f>
+        <v>0.38229370946047792</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -3684,9 +3684,9 @@
       <c r="U43" s="19">
         <v>0.29263922070029547</v>
       </c>
-      <c r="V43" s="19" t="str">
-        <f>IF(D43&lt;=H43,-(I43/D43-1),"")</f>
-        <v/>
+      <c r="V43" s="19">
+        <f>IF(D43&lt;=J43,-(I43/D43-1),"")</f>
+        <v>0.48001968007152851</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -3703,19 +3703,19 @@
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>6.6962501648855053</v>
+        <v>6.6964451878435911</v>
       </c>
       <c r="G44" s="19">
-        <v>2.4119752005112075E-2</v>
+        <v>2.4119049556984389E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>19.813845400085263</v>
+        <v>19.813200404473879</v>
       </c>
       <c r="I44" s="20">
-        <v>16.841768590072473</v>
+        <v>16.841220343802796</v>
       </c>
       <c r="J44" s="20">
-        <v>33.294292353291503</v>
+        <v>33.293208531750643</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>36</v>
@@ -3751,7 +3751,7 @@
         <v>0.15564608795570867</v>
       </c>
       <c r="V44" s="19" t="str">
-        <f>IF(D44&lt;=H44,-(I44/D44-1),"")</f>
+        <f>IF(D44&lt;=J44,-(I44/D44-1),"")</f>
         <v/>
       </c>
     </row>
@@ -3769,19 +3769,19 @@
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>5.004220291013044</v>
+        <v>5.0043758527331983</v>
       </c>
       <c r="G45" s="19">
-        <v>6.9945762986722199E-2</v>
+        <v>6.9943588712941041E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>3.8941831631757147</v>
+        <v>3.8940225458193707</v>
       </c>
       <c r="I45" s="20">
-        <v>3.3100556886993573</v>
+        <v>3.3099191639464651</v>
       </c>
       <c r="J45" s="20">
-        <v>6.3625248281582722</v>
+        <v>6.3622624029269081</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>15</v>
@@ -3816,9 +3816,9 @@
       <c r="U45" s="19">
         <v>0.20923165729470938</v>
       </c>
-      <c r="V45" s="19" t="str">
-        <f>IF(D45&lt;=H45,-(I45/D45-1),"")</f>
-        <v/>
+      <c r="V45" s="19">
+        <f>IF(D45&lt;=J45,-(I45/D45-1),"")</f>
+        <v>0.4243618845310495</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -3835,19 +3835,19 @@
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>6.4697782012052105</v>
+        <v>6.4699793214132475</v>
       </c>
       <c r="G46" s="19">
-        <v>5.8263728668976542E-2</v>
+        <v>5.8261917532858656E-2</v>
       </c>
       <c r="H46" s="20">
-        <v>19.38441760331634</v>
+        <v>19.383649167099833</v>
       </c>
       <c r="I46" s="20">
-        <v>16.476754962818887</v>
+        <v>16.476101792034857</v>
       </c>
       <c r="J46" s="20">
-        <v>31.671298732622912</v>
+        <v>31.670043220413671</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>15</v>
@@ -3883,7 +3883,7 @@
         <v>0.37552834490355302</v>
       </c>
       <c r="V46" s="19" t="str">
-        <f>IF(D46&lt;=H46,-(I46/D46-1),"")</f>
+        <f>IF(D46&lt;=J46,-(I46/D46-1),"")</f>
         <v/>
       </c>
     </row>
@@ -3901,19 +3901,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>4.0297372066732589</v>
+        <v>4.0298624755093977</v>
       </c>
       <c r="G47" s="19">
-        <v>8.6725204781380627E-2</v>
+        <v>8.6722508916315028E-2</v>
       </c>
       <c r="H47" s="20">
-        <v>3.3674119208303286</v>
+        <v>3.3672654777732407</v>
       </c>
       <c r="I47" s="20">
-        <v>2.8623001327057791</v>
+        <v>2.8621756561072544</v>
       </c>
       <c r="J47" s="20">
-        <v>5.5018577850988333</v>
+        <v>5.5016185185960547</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>15</v>
@@ -3948,9 +3948,9 @@
       <c r="U47" s="19">
         <v>0.29524894411244107</v>
       </c>
-      <c r="V47" s="19" t="str">
-        <f>IF(D47&lt;=H47,-(I47/D47-1),"")</f>
-        <v/>
+      <c r="V47" s="19">
+        <f>IF(D47&lt;=J47,-(I47/D47-1),"")</f>
+        <v>0.2285240819117913</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -3967,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>77.23115220981424</v>
+        <v>77.233553025563452</v>
       </c>
       <c r="G48" s="19">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>0.17490983040442024</v>
       </c>
       <c r="V48" s="19" t="str">
-        <f>IF(D48&lt;=H48,-(I48/D48-1),"")</f>
+        <f>IF(D48&lt;=J48,-(I48/D48-1),"")</f>
         <v/>
       </c>
     </row>
@@ -4033,19 +4033,19 @@
         <v>3</v>
       </c>
       <c r="F49" s="26">
-        <v>15.827307111573019</v>
+        <v>15.827799120912434</v>
       </c>
       <c r="G49" s="19">
-        <v>5.8940305017429827E-2</v>
+        <v>5.8938472849841959E-2</v>
       </c>
       <c r="H49" s="20">
-        <v>4.312209665253036</v>
+        <v>4.3120352856716728</v>
       </c>
       <c r="I49" s="20">
-        <v>3.6653782154650805</v>
+        <v>3.665229992820922</v>
       </c>
       <c r="J49" s="20">
-        <v>6.7016222159482721</v>
+        <v>6.7013524934968682</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>36</v>
@@ -4080,9 +4080,9 @@
       <c r="U49" s="19">
         <v>0.2067479536230501</v>
       </c>
-      <c r="V49" s="19" t="str">
-        <f>IF(D49&lt;=H49,-(I49/D49-1),"")</f>
-        <v/>
+      <c r="V49" s="19">
+        <f>IF(D49&lt;=J49,-(I49/D49-1),"")</f>
+        <v>0.35357495717444054</v>
       </c>
     </row>
     <row r="50" spans="2:22">
@@ -4099,19 +4099,19 @@
         <v>3</v>
       </c>
       <c r="F50" s="26">
-        <v>39.918846569642795</v>
+        <v>39.920087491120626</v>
       </c>
       <c r="G50" s="19">
-        <v>6.5124072246125486E-2</v>
+        <v>6.5122047855272328E-2</v>
       </c>
       <c r="H50" s="20">
-        <v>1.5257112395672463</v>
+        <v>1.5256574088451564</v>
       </c>
       <c r="I50" s="20">
-        <v>1.2968545536321594</v>
+        <v>1.2968087975183828</v>
       </c>
       <c r="J50" s="20">
-        <v>2.2047325977791195</v>
+        <v>2.2046536005278146</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>15</v>
@@ -4146,9 +4146,9 @@
       <c r="U50" s="19">
         <v>4.9862433731434744E-2</v>
       </c>
-      <c r="V50" s="19" t="str">
-        <f>IF(D50&lt;=H50,-(I50/D50-1),"")</f>
-        <v/>
+      <c r="V50" s="19">
+        <f>IF(D50&lt;=J50,-(I50/D50-1),"")</f>
+        <v>0.33154185694928717</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -4165,19 +4165,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="26">
-        <v>5.8442831576339618</v>
+        <v>5.8444648336370548</v>
       </c>
       <c r="G51" s="19">
-        <v>8.1308793074817864E-2</v>
+        <v>8.1306265579664305E-2</v>
       </c>
       <c r="H51" s="20">
-        <v>2.2990279894663388</v>
+        <v>2.2989296556143675</v>
       </c>
       <c r="I51" s="20">
-        <v>1.9541737910463879</v>
+        <v>1.9540902072722124</v>
       </c>
       <c r="J51" s="20">
-        <v>3.7562749492454586</v>
+        <v>3.7561142861363033</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>15</v>
@@ -4212,9 +4212,9 @@
       <c r="U51" s="19">
         <v>0.12544574278854531</v>
       </c>
-      <c r="V51" s="19" t="str">
-        <f>IF(D51&lt;=H51,-(I51/D51-1),"")</f>
-        <v/>
+      <c r="V51" s="19">
+        <f>IF(D51&lt;=J51,-(I51/D51-1),"")</f>
+        <v>0.29455227174288356</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -4231,19 +4231,19 @@
         <v>3</v>
       </c>
       <c r="F52" s="26">
-        <v>-24.343558246897015</v>
+        <v>-24.344314993318104</v>
       </c>
       <c r="G52" s="19">
-        <v>6.3839386852960742E-2</v>
+        <v>6.3837402396731913E-2</v>
       </c>
       <c r="H52" s="20">
-        <v>1.0091520742261721</v>
+        <v>1.0091112927009018</v>
       </c>
       <c r="I52" s="20">
-        <v>0.85777926309224628</v>
+        <v>0.85774459879576648</v>
       </c>
       <c r="J52" s="20">
-        <v>1.648806658188954</v>
+        <v>1.6487400271507646</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>36</v>
@@ -4279,7 +4279,7 @@
         <v>-0.22591626294706857</v>
       </c>
       <c r="V52" s="19" t="str">
-        <f>IF(D52&lt;=H52,-(I52/D52-1),"")</f>
+        <f>IF(D52&lt;=J52,-(I52/D52-1),"")</f>
         <v/>
       </c>
     </row>
@@ -4297,19 +4297,19 @@
         <v>3</v>
       </c>
       <c r="F53" s="26">
-        <v>14633.885696679254</v>
+        <v>14634.340607194603</v>
       </c>
       <c r="G53" s="19">
-        <v>1.1429858250050521E-2</v>
+        <v>1.1429502951315409E-2</v>
       </c>
       <c r="H53" s="20">
-        <v>3.9862697019307607E-2</v>
+        <v>3.9861457458483157E-2</v>
       </c>
       <c r="I53" s="20">
-        <v>3.3883292466411467E-2</v>
+        <v>3.3882238839710685E-2</v>
       </c>
       <c r="J53" s="20">
-        <v>6.51298074268961E-2</v>
+        <v>6.5127782166092718E-2</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>36</v>
@@ -4345,7 +4345,7 @@
         <v>0.14573239492488765</v>
       </c>
       <c r="V53" s="19" t="str">
-        <f>IF(D53&lt;=H53,-(I53/D53-1),"")</f>
+        <f>IF(D53&lt;=J53,-(I53/D53-1),"")</f>
         <v/>
       </c>
     </row>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05350CFD-5369-4FE3-BA05-FA18C62D2A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07710F6-261B-4B12-A86F-259C8F6AD977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F07710F6-261B-4B12-A86F-259C8F6AD977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39CCA44-B357-47E2-8BB3-C2063582E7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,19 +1129,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>17.574810225383022</v>
+        <v>17.574418986493178</v>
       </c>
       <c r="G5" s="19">
-        <v>6.4588736428154839E-2</v>
+        <v>6.459017429222054E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>48.901291013217786</v>
+        <v>48.902709891567135</v>
       </c>
       <c r="I5" s="20">
-        <v>41.566097361235116</v>
+        <v>41.567303407832064</v>
       </c>
       <c r="J5" s="20">
-        <v>82.171524334213984</v>
+        <v>82.173908553411351</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>15</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=J5,-(I5/D5-1),"")</f>
-        <v>0.43447486583353589</v>
+        <v>0.43445845703629848</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1393,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>-44.106213949860525</v>
+        <v>-44.105232086275109</v>
       </c>
       <c r="G9" s="19">
-        <v>3.6019685845229549E-2</v>
+        <v>3.6020487709684551E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>1.7941410649733656</v>
+        <v>1.7941879492165351</v>
       </c>
       <c r="I9" s="20">
-        <v>1.5250199052273608</v>
+        <v>1.5250597568340549</v>
       </c>
       <c r="J9" s="20">
-        <v>3.0147937431676923</v>
+        <v>3.0148725253357838</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>36</v>
@@ -1591,19 +1591,19 @@
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>9.5763965757653509</v>
+        <v>9.576183392310341</v>
       </c>
       <c r="G12" s="19">
-        <v>5.5527803094427647E-2</v>
+        <v>5.5529039245452314E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>10.086451562634135</v>
+        <v>10.086768239129489</v>
       </c>
       <c r="I12" s="20">
-        <v>8.5734838282390147</v>
+        <v>8.573753003260066</v>
       </c>
       <c r="J12" s="20">
-        <v>16.948818381928518</v>
+        <v>16.949350510831554</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>15</v>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="V12" s="19">
         <f>IF(D12&lt;=J12,-(I12/D12-1),"")</f>
-        <v>0.21774782589060093</v>
+        <v>0.21772326612590642</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1657,19 +1657,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>29.1722633265722</v>
+        <v>29.173170206820426</v>
       </c>
       <c r="G13" s="19">
-        <v>6.5411324559272011E-2</v>
+        <v>6.5409291175932721E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>1.9498726039909389</v>
+        <v>1.9498019457315241</v>
       </c>
       <c r="I13" s="20">
-        <v>1.657391713392298</v>
+        <v>1.6573316538717955</v>
       </c>
       <c r="J13" s="20">
-        <v>3.1858061972926719</v>
+        <v>3.1856907520475457</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>36</v>
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>-62.189694189249956</v>
+        <v>-62.191627484746157</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -1789,19 +1789,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>21.365421889630341</v>
+        <v>21.366086078037313</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="20">
-        <v>28.762603606567787</v>
+        <v>28.76150960768339</v>
       </c>
       <c r="I15" s="20">
-        <v>24.448213065582618</v>
+        <v>24.44728316653088</v>
       </c>
       <c r="J15" s="20">
-        <v>46.993880847664869</v>
+        <v>46.992093413748108</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>36</v>
@@ -1855,19 +1855,19 @@
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>24.113810072733894</v>
+        <v>24.114559700481994</v>
       </c>
       <c r="G16" s="19">
-        <v>2.9546289686187804E-2</v>
+        <v>2.9545371207108064E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>3.5227354221346143</v>
+        <v>3.5226041123693408</v>
       </c>
       <c r="I16" s="20">
-        <v>2.9943251088144223</v>
+        <v>2.9942134955139394</v>
       </c>
       <c r="J16" s="20">
-        <v>5.7556336328273394</v>
+        <v>5.7554190919065027</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>36</v>
@@ -1987,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>17.310881427392889</v>
+        <v>17.311419572008894</v>
       </c>
       <c r="G18" s="19">
-        <v>2.5739240646362304E-2</v>
+        <v>2.5738440513610839E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>1.3205336498938396</v>
+        <v>1.3204813907822317</v>
       </c>
       <c r="I18" s="20">
-        <v>1.1224536024097636</v>
+        <v>1.1224091821648969</v>
       </c>
       <c r="J18" s="20">
-        <v>2.1575585384166232</v>
+        <v>2.1574731546837147</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>15</v>
@@ -2119,19 +2119,19 @@
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>11.518075474476078</v>
+        <v>11.517819066639863</v>
       </c>
       <c r="G20" s="19">
-        <v>1.6987271261969434E-2</v>
+        <v>1.6987649429871035E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>112.85412378171404</v>
+        <v>112.8576396330475</v>
       </c>
       <c r="I20" s="20">
-        <v>95.926005214456936</v>
+        <v>95.928993688090372</v>
       </c>
       <c r="J20" s="20">
-        <v>189.63498072144876</v>
+        <v>189.64088859949078</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>70</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="V20" s="19">
         <f>IF(D20&lt;=J20,-(I20/D20-1),"")</f>
-        <v>0.1570649805408002</v>
+        <v>0.15703871978830952</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -2185,19 +2185,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>26.478890029985507</v>
+        <v>26.479713181144341</v>
       </c>
       <c r="G21" s="19">
-        <v>1.6249520610077211E-2</v>
+        <v>1.6249015475764416E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>1.2843534058342818</v>
+        <v>1.2843102884045234</v>
       </c>
       <c r="I21" s="20">
-        <v>1.0917003949591395</v>
+        <v>1.0916637451438449</v>
       </c>
       <c r="J21" s="20">
-        <v>2.098445319681931</v>
+        <v>2.0983748721179958</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>36</v>
@@ -2251,19 +2251,19 @@
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>33.441220809127742</v>
+        <v>33.442260398764269</v>
       </c>
       <c r="G22" s="19">
-        <v>8.4075173095944627E-3</v>
+        <v>8.4075173095944609E-3</v>
       </c>
       <c r="H22" s="20">
-        <v>67.585512890459825</v>
+        <v>67.582068394244601</v>
       </c>
       <c r="I22" s="20">
-        <v>57.447685956890851</v>
+        <v>57.444758135107911</v>
       </c>
       <c r="J22" s="20">
-        <v>124.54030836096759</v>
+        <v>124.53468055873761</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>75</v>
@@ -2317,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>-11.867538641154018</v>
+        <v>-11.86790756818132</v>
       </c>
       <c r="G23" s="19">
-        <v>2.8659543005732799E-2</v>
+        <v>2.8658652092153961E-2</v>
       </c>
       <c r="H23" s="20">
         <v>0</v>
@@ -2383,19 +2383,19 @@
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>22.606728888419248</v>
+        <v>22.607431665426173</v>
       </c>
       <c r="G24" s="19">
         <v>0</v>
       </c>
       <c r="H24" s="20">
-        <v>2.3135639238661043</v>
+        <v>2.3134757737361928</v>
       </c>
       <c r="I24" s="20">
-        <v>1.9665293352861886</v>
+        <v>1.966454407675764</v>
       </c>
       <c r="J24" s="20">
-        <v>3.8533727755581211</v>
+        <v>3.8532264710478992</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>36</v>
@@ -2449,19 +2449,19 @@
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>19.117500085804895</v>
+        <v>19.118094392905071</v>
       </c>
       <c r="G25" s="19">
-        <v>5.0774016781570078E-2</v>
+        <v>5.0772438415125305E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>0.4754030109135986</v>
+        <v>0.47538455958296588</v>
       </c>
       <c r="I25" s="20">
-        <v>0.40409255927655879</v>
+        <v>0.40407687564552097</v>
       </c>
       <c r="J25" s="20">
-        <v>0.77673887785295348</v>
+        <v>0.7767087310816424</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>15</v>
@@ -2515,19 +2515,19 @@
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>11.164247085862746</v>
+        <v>11.164594149614883</v>
       </c>
       <c r="G26" s="19">
-        <v>6.4044163214211206E-2</v>
+        <v>6.4042172330593783E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>5.9595445517529928</v>
+        <v>5.9593035415286248</v>
       </c>
       <c r="I26" s="20">
-        <v>5.0656128689900441</v>
+        <v>5.0654080102993309</v>
       </c>
       <c r="J26" s="20">
-        <v>9.7370227814661341</v>
+        <v>9.7366290060652023</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>15</v>
@@ -2647,19 +2647,19 @@
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>8.5403347562837091</v>
+        <v>8.540600250284534</v>
       </c>
       <c r="G28" s="19">
-        <v>8.5721272134865578E-2</v>
+        <v>8.5718607394352261E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>5.4651526656016172</v>
+        <v>5.4648854667602169</v>
       </c>
       <c r="I28" s="20">
-        <v>4.1146813699114517</v>
+        <v>4.1144878499893833</v>
       </c>
       <c r="J28" s="20">
-        <v>11.669471669197986</v>
+        <v>11.668898132957514</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>15</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="V28" s="19">
         <f>IF(D28&lt;=J28,-(I28/D28-1),"")</f>
-        <v>0.26915073358588781</v>
+        <v>0.26918510657382178</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -2779,19 +2779,19 @@
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>3.6511009412463653</v>
+        <v>3.6512144432839277</v>
       </c>
       <c r="G30" s="19">
-        <v>7.1142179785412665E-2</v>
+        <v>7.1139968252102934E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>4.1769414623203351</v>
+        <v>4.1767684993923284</v>
       </c>
       <c r="I30" s="20">
-        <v>3.5504002429722847</v>
+        <v>3.550253224483479</v>
       </c>
       <c r="J30" s="20">
-        <v>6.8245104675826687</v>
+        <v>6.8242278714957161</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>15</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="V30" s="19">
         <f>IF(D30&lt;=J30,-(I30/D30-1),"")</f>
-        <v>0.41121057330476207</v>
+        <v>0.41123495448035174</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -2845,19 +2845,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>23.50275348768362</v>
+        <v>23.503484119471707</v>
       </c>
       <c r="G31" s="19">
-        <v>6.7509842248936414E-2</v>
+        <v>6.7507743630854739E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>46.692022438875199</v>
+        <v>46.690112022468959</v>
       </c>
       <c r="I31" s="20">
-        <v>39.688219073043918</v>
+        <v>39.686595219098614</v>
       </c>
       <c r="J31" s="20">
-        <v>76.287924731819231</v>
+        <v>76.284803391269094</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>15</v>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="V31" s="19">
         <f>IF(D31&lt;=J31,-(I31/D31-1),"")</f>
-        <v>0.45068208895440942</v>
+        <v>0.45070456444154172</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -2911,19 +2911,19 @@
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>7.7399381212607343</v>
+        <v>7.7401787332737984</v>
       </c>
       <c r="G32" s="19">
-        <v>6.9253847976722335E-2</v>
+        <v>6.9251695144294509E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.3753413392774503</v>
+        <v>3.375202434743775</v>
       </c>
       <c r="I32" s="20">
-        <v>2.8690401383858326</v>
+        <v>2.8689220695322089</v>
       </c>
       <c r="J32" s="20">
-        <v>5.5148132932577054</v>
+        <v>5.5145863435978617</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>15</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="V32" s="19">
         <f>IF(D32&lt;=J32,-(I32/D32-1),"")</f>
-        <v>0.4318732399235975</v>
+        <v>0.43189661989461214</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -2977,19 +2977,19 @@
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>14.804558225752807</v>
+        <v>14.805018456119178</v>
       </c>
       <c r="G33" s="19">
-        <v>3.7006778604209173E-2</v>
+        <v>3.7005628207583491E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>3.1430671583118945</v>
+        <v>3.1429385430636847</v>
       </c>
       <c r="I33" s="20">
-        <v>2.6716070845651103</v>
+        <v>2.6714977616041318</v>
       </c>
       <c r="J33" s="20">
-        <v>5.1353113074989549</v>
+        <v>5.1351011690242805</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>70</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="V33" s="19">
         <f>IF(D33&lt;=J33,-(I33/D33-1),"")</f>
-        <v>0.45028660811417487</v>
+        <v>0.4503091025505902</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -3043,19 +3043,19 @@
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>6.6949914645365034</v>
+        <v>6.6951995922176932</v>
       </c>
       <c r="G34" s="19">
-        <v>6.1143936885237206E-2</v>
+        <v>6.114203615836155E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>2.3006905471117367</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="I34" s="20">
-        <v>1.9555869650449762</v>
+        <v>1.955508659778546</v>
       </c>
       <c r="J34" s="20">
-        <v>3.758991324889295</v>
+        <v>3.7588408080253224</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>15</v>
@@ -3109,19 +3109,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>3.9152390076129495</v>
+        <v>3.9153607209295793</v>
       </c>
       <c r="G35" s="19">
-        <v>6.9619556268056229E-2</v>
+        <v>6.9617392067181857E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>3.1768610853805921</v>
+        <v>3.1767301909670853</v>
       </c>
       <c r="I35" s="20">
-        <v>2.7003319225735032</v>
+        <v>2.7002206623220224</v>
       </c>
       <c r="J35" s="20">
-        <v>5.1905256338431256</v>
+        <v>5.1903117715462317</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>15</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="V35" s="19">
         <f>IF(D35&lt;=J35,-(I35/D35-1),"")</f>
-        <v>0.42789577911578325</v>
+        <v>0.42791935120296132</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -3175,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>-97.941101366513763</v>
+        <v>-97.944146068576288</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
@@ -3307,19 +3307,19 @@
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>9.4765515351932095</v>
+        <v>9.4768461334323781</v>
       </c>
       <c r="G38" s="19">
-        <v>6.2203164895375571E-2</v>
+        <v>6.2201231241226201E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>2.6136128287120473</v>
+        <v>2.6135077931499495</v>
       </c>
       <c r="I38" s="20">
-        <v>2.2215709044052403</v>
+        <v>2.2214816241774571</v>
       </c>
       <c r="J38" s="20">
-        <v>4.2702604929122661</v>
+        <v>4.2700888801905013</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>15</v>
@@ -3373,19 +3373,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>13.033584940010391</v>
+        <v>13.033990116002851</v>
       </c>
       <c r="G39" s="19">
-        <v>4.5443574587504067E-2</v>
+        <v>4.5442161923747955E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>1.8496764822482199</v>
+        <v>1.8496064864834967</v>
       </c>
       <c r="I39" s="20">
-        <v>1.5722250099109869</v>
+        <v>1.5721655135109722</v>
       </c>
       <c r="J39" s="20">
-        <v>3.0221004121355772</v>
+        <v>3.0219860493097279</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>36</v>
@@ -3439,19 +3439,19 @@
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>12.013860694944849</v>
+        <v>12.013593250263471</v>
       </c>
       <c r="G40" s="19">
         <v>7.1527777777777773E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>12.344571252262998</v>
+        <v>12.344951652514045</v>
       </c>
       <c r="I40" s="20">
-        <v>10.492885564423549</v>
+        <v>10.493208904636937</v>
       </c>
       <c r="J40" s="20">
-        <v>20.169221064948697</v>
+        <v>20.169842583233923</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>15</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="V40" s="19">
         <f>IF(D40&lt;=J40,-(I40/D40-1),"")</f>
-        <v>0.27132739135947581</v>
+        <v>0.27130493717799053</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -3505,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>12.186079887238913</v>
+        <v>12.185808608726912</v>
       </c>
       <c r="G41" s="19">
-        <v>3.6796110922290431E-2</v>
+        <v>3.6796930071395659E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>18.168741116870514</v>
+        <v>18.169352070823706</v>
       </c>
       <c r="I41" s="20">
-        <v>15.443429949339937</v>
+        <v>15.443949260200149</v>
       </c>
       <c r="J41" s="20">
-        <v>31.447335078110985</v>
+        <v>31.448361697584456</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>15</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="V41" s="19">
         <f>IF(D41&lt;=J41,-(I41/D41-1),"")</f>
-        <v>0.2883212004912471</v>
+        <v>0.28829726911520048</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -3703,19 +3703,19 @@
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>6.6964451878435911</v>
+        <v>6.6962961159760948</v>
       </c>
       <c r="G44" s="19">
-        <v>2.4119049556984389E-2</v>
+        <v>2.4119586491387738E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>19.813200404473879</v>
+        <v>19.813693423186496</v>
       </c>
       <c r="I44" s="20">
-        <v>16.841220343802796</v>
+        <v>16.84163940970852</v>
       </c>
       <c r="J44" s="20">
-        <v>33.293208531750643</v>
+        <v>33.294036978163845</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>36</v>
@@ -3769,19 +3769,19 @@
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>5.0043758527331983</v>
+        <v>5.0045314241252683</v>
       </c>
       <c r="G45" s="19">
-        <v>6.9943588712941041E-2</v>
+        <v>6.9941414439159896E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>3.8940225458193707</v>
+        <v>3.8938619312445502</v>
       </c>
       <c r="I45" s="20">
-        <v>3.3099191639464651</v>
+        <v>3.3097826415578675</v>
       </c>
       <c r="J45" s="20">
-        <v>6.3622624029269081</v>
+        <v>6.3619999822401452</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>15</v>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="V45" s="19">
         <f>IF(D45&lt;=J45,-(I45/D45-1),"")</f>
-        <v>0.4243618845310495</v>
+        <v>0.42438562755515352</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -3835,19 +3835,19 @@
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>6.4699793214132475</v>
+        <v>6.4701804541257601</v>
       </c>
       <c r="G46" s="19">
-        <v>5.8261917532858656E-2</v>
+        <v>5.8260106396740792E-2</v>
       </c>
       <c r="H46" s="20">
-        <v>19.383649167099833</v>
+        <v>19.382880742331206</v>
       </c>
       <c r="I46" s="20">
-        <v>16.476101792034857</v>
+        <v>16.475448630981525</v>
       </c>
       <c r="J46" s="20">
-        <v>31.670043220413671</v>
+        <v>31.66878772690859</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>15</v>
@@ -3901,19 +3901,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>4.0298624755093977</v>
+        <v>4.0299877521340184</v>
       </c>
       <c r="G47" s="19">
-        <v>8.6722508916315028E-2</v>
+        <v>8.671981305124947E-2</v>
       </c>
       <c r="H47" s="20">
-        <v>3.3672654777732407</v>
+        <v>3.3671190377273059</v>
       </c>
       <c r="I47" s="20">
-        <v>2.8621756561072544</v>
+        <v>2.86205118206821</v>
       </c>
       <c r="J47" s="20">
-        <v>5.5016185185960547</v>
+        <v>5.501379257013058</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>15</v>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="V47" s="19">
         <f>IF(D47&lt;=J47,-(I47/D47-1),"")</f>
-        <v>0.2285240819117913</v>
+        <v>0.22855763286571162</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -3967,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>77.233553025563452</v>
+        <v>77.235953990581322</v>
       </c>
       <c r="G48" s="19">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>3</v>
       </c>
       <c r="F49" s="26">
-        <v>15.827799120912434</v>
+        <v>15.82829116084211</v>
       </c>
       <c r="G49" s="19">
-        <v>5.8938472849841959E-2</v>
+        <v>5.8936640682254092E-2</v>
       </c>
       <c r="H49" s="20">
-        <v>4.3120352856716728</v>
+        <v>4.311860908249308</v>
       </c>
       <c r="I49" s="20">
-        <v>3.665229992820922</v>
+        <v>3.6650817720119115</v>
       </c>
       <c r="J49" s="20">
-        <v>6.7013524934968682</v>
+        <v>6.7010827745729564</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>36</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="V49" s="19">
         <f>IF(D49&lt;=J49,-(I49/D49-1),"")</f>
-        <v>0.35357495717444054</v>
+        <v>0.35360109841059761</v>
       </c>
     </row>
     <row r="50" spans="2:22">
@@ -4099,19 +4099,19 @@
         <v>3</v>
       </c>
       <c r="F50" s="26">
-        <v>39.920087491120626</v>
+        <v>39.92132848975168</v>
       </c>
       <c r="G50" s="19">
-        <v>6.5122047855272328E-2</v>
+        <v>6.5120023464419183E-2</v>
       </c>
       <c r="H50" s="20">
-        <v>1.5256574088451564</v>
+        <v>1.5256035785665949</v>
       </c>
       <c r="I50" s="20">
-        <v>1.2968087975183828</v>
+        <v>1.2967630417816056</v>
       </c>
       <c r="J50" s="20">
-        <v>2.2046536005278146</v>
+        <v>2.2045746040011713</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>15</v>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="V50" s="19">
         <f>IF(D50&lt;=J50,-(I50/D50-1),"")</f>
-        <v>0.33154185694928717</v>
+        <v>0.33156544238061569</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -4165,19 +4165,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="26">
-        <v>5.8444648336370548</v>
+        <v>5.8446465209356964</v>
       </c>
       <c r="G51" s="19">
-        <v>8.1306265579664305E-2</v>
+        <v>8.1303738084510774E-2</v>
       </c>
       <c r="H51" s="20">
-        <v>2.2989296556143675</v>
+        <v>2.2988313236840563</v>
       </c>
       <c r="I51" s="20">
-        <v>1.9540902072722124</v>
+        <v>1.9540066251314478</v>
       </c>
       <c r="J51" s="20">
-        <v>3.7561142861363033</v>
+        <v>3.7559536261668587</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>15</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="V51" s="19">
         <f>IF(D51&lt;=J51,-(I51/D51-1),"")</f>
-        <v>0.29455227174288356</v>
+        <v>0.29458244580092141</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -4231,19 +4231,19 @@
         <v>3</v>
       </c>
       <c r="F52" s="26">
-        <v>-24.344314993318104</v>
+        <v>-24.345071786789248</v>
       </c>
       <c r="G52" s="19">
-        <v>6.3837402396731913E-2</v>
+        <v>6.3835417940503084E-2</v>
       </c>
       <c r="H52" s="20">
-        <v>1.0091112927009018</v>
+        <v>1.0090705118310159</v>
       </c>
       <c r="I52" s="20">
-        <v>0.85774459879576648</v>
+        <v>0.8577099350563635</v>
       </c>
       <c r="J52" s="20">
-        <v>1.6487400271507646</v>
+        <v>1.6486733971833769</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>36</v>
@@ -4297,19 +4297,19 @@
         <v>3</v>
       </c>
       <c r="F53" s="26">
-        <v>14634.340607194603</v>
+        <v>14634.79554599362</v>
       </c>
       <c r="G53" s="19">
-        <v>1.1429502951315409E-2</v>
+        <v>1.1429147652580301E-2</v>
       </c>
       <c r="H53" s="20">
-        <v>3.9861457458483157E-2</v>
+        <v>3.9860217897685034E-2</v>
       </c>
       <c r="I53" s="20">
-        <v>3.3882238839710685E-2</v>
+        <v>3.388118521303228E-2</v>
       </c>
       <c r="J53" s="20">
-        <v>6.5127782166092718E-2</v>
+        <v>6.5125756905332358E-2</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>36</v>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39CCA44-B357-47E2-8BB3-C2063582E7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E55FC1D-1042-4BF4-BB41-C0808A046CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,19 +1129,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>17.574418986493178</v>
+        <v>17.574494361438351</v>
       </c>
       <c r="G5" s="19">
-        <v>6.459017429222054E-2</v>
+        <v>6.4589897272538166E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>48.902709891567135</v>
+        <v>50.039702494177838</v>
       </c>
       <c r="I5" s="20">
-        <v>41.567303407832064</v>
+        <v>42.53374712005116</v>
       </c>
       <c r="J5" s="20">
-        <v>82.173908553411351</v>
+        <v>84.678553800581696</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>15</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=J5,-(I5/D5-1),"")</f>
-        <v>0.43445845703629848</v>
+        <v>0.42130956299250122</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -1201,13 +1201,13 @@
         <v>7.0796460176991149E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>72.112476354385407</v>
+        <v>73.789510688208338</v>
       </c>
       <c r="I6" s="20">
-        <v>61.295604901227591</v>
+        <v>62.721084084977086</v>
       </c>
       <c r="J6" s="20">
-        <v>121.17455352974527</v>
+        <v>124.8686290942088</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>15</v>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=J6,-(I6/D6-1),"")</f>
-        <v>0.36183649243906724</v>
+        <v>0.34699548063532448</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -1267,13 +1267,13 @@
         <v>4.7923322683706068E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>15.373337275348684</v>
+        <v>16.638606149939115</v>
       </c>
       <c r="I7" s="20">
-        <v>12.754916697336292</v>
+        <v>14.020185571926717</v>
       </c>
       <c r="J7" s="20">
-        <v>49.545308476782218</v>
+        <v>52.332370576725054</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>36</v>
@@ -1333,13 +1333,13 @@
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>9.5403195227563842</v>
+        <v>9.7621874186344382</v>
       </c>
       <c r="I8" s="20">
-        <v>8.1092715943429265</v>
+        <v>8.2978593058392729</v>
       </c>
       <c r="J8" s="20">
-        <v>16.031122728609699</v>
+        <v>16.519840673240996</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>36</v>
@@ -1393,19 +1393,19 @@
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>-44.105232086275109</v>
+        <v>-44.105421249254157</v>
       </c>
       <c r="G9" s="19">
-        <v>3.6020487709684551E-2</v>
+        <v>3.6020333222037258E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>1.7941879492165351</v>
+        <v>1.8359040075268804</v>
       </c>
       <c r="I9" s="20">
-        <v>1.5250597568340549</v>
+        <v>1.5605184063978483</v>
       </c>
       <c r="J9" s="20">
-        <v>3.0148725253357838</v>
+        <v>3.10676699750876</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>36</v>
@@ -1465,13 +1465,13 @@
         <v>7.3885350318471335E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>8.4275557156850915</v>
+        <v>8.521301457522064</v>
       </c>
       <c r="I10" s="20">
-        <v>7.1634223583323262</v>
+        <v>7.2431062388937537</v>
       </c>
       <c r="J10" s="20">
-        <v>12.399791481902572</v>
+        <v>12.611083492274521</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>15</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="V10" s="19">
         <f>IF(D10&lt;=J10,-(I10/D10-1),"")</f>
-        <v>8.7462119957665396E-2</v>
+        <v>7.7311307147292507E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1531,13 +1531,13 @@
         <v>8.3841463414634151E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>5.3911052273302467</v>
+        <v>5.5164797675007193</v>
       </c>
       <c r="I11" s="20">
-        <v>4.5824394432307098</v>
+        <v>4.6890078023756114</v>
       </c>
       <c r="J11" s="20">
-        <v>10.412604611370488</v>
+        <v>10.730038817949525</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>15</v>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="V11" s="19">
         <f>IF(D11&lt;=J11,-(I11/D11-1),"")</f>
-        <v>0.30145740194653814</v>
+        <v>0.28521222524762013</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1591,19 +1591,19 @@
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>9.576183392310341</v>
+        <v>9.5762244636139631</v>
       </c>
       <c r="G12" s="19">
-        <v>5.5529039245452314E-2</v>
+        <v>5.5528801087915448E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>10.086768239129489</v>
+        <v>10.321281814377732</v>
       </c>
       <c r="I12" s="20">
-        <v>8.573753003260066</v>
+        <v>8.7730895422210722</v>
       </c>
       <c r="J12" s="20">
-        <v>16.949350510831554</v>
+        <v>17.465955508257466</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>15</v>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="V12" s="19">
         <f>IF(D12&lt;=J12,-(I12/D12-1),"")</f>
-        <v>0.21772326612590642</v>
+        <v>0.19953562570975625</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1657,19 +1657,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>29.173170206820426</v>
+        <v>29.174077143454905</v>
       </c>
       <c r="G13" s="19">
-        <v>6.5409291175932721E-2</v>
+        <v>6.5407257792593418E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>1.9498019457315241</v>
+        <v>2.0345022137092204</v>
       </c>
       <c r="I13" s="20">
-        <v>1.6573316538717955</v>
+        <v>1.7293268816528373</v>
       </c>
       <c r="J13" s="20">
-        <v>3.1856907520475457</v>
+        <v>3.3709839349601411</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>36</v>
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>-62.191627484746157</v>
+        <v>-62.193560900447089</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -1789,19 +1789,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>21.366086078037313</v>
+        <v>21.366750307740915</v>
       </c>
       <c r="G15" s="19">
         <v>0</v>
       </c>
       <c r="H15" s="20">
-        <v>28.76150960768339</v>
+        <v>30.010868475482816</v>
       </c>
       <c r="I15" s="20">
-        <v>24.44728316653088</v>
+        <v>25.509238204160393</v>
       </c>
       <c r="J15" s="20">
-        <v>46.992093413748108</v>
+        <v>49.725261945334708</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>36</v>
@@ -1855,19 +1855,19 @@
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>24.114559700481994</v>
+        <v>24.115309374839001</v>
       </c>
       <c r="G16" s="19">
-        <v>2.9545371207108064E-2</v>
+        <v>2.954445272802832E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>3.5226041123693408</v>
+        <v>3.6756237955486979</v>
       </c>
       <c r="I16" s="20">
-        <v>2.9942134955139394</v>
+        <v>3.1242802262163933</v>
       </c>
       <c r="J16" s="20">
-        <v>5.7554190919065027</v>
+        <v>6.0901721719742383</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>36</v>
@@ -1927,13 +1927,13 @@
         <v>6.5201072386058975E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>2.3525975057142103</v>
+        <v>2.407309075614541</v>
       </c>
       <c r="I17" s="20">
-        <v>1.9997078798570787</v>
+        <v>2.0462127142723596</v>
       </c>
       <c r="J17" s="20">
-        <v>4.2217200096771643</v>
+        <v>4.3504215585871577</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>15</v>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="V17" s="19">
         <f>IF(D17&lt;=J17,-(I17/D17-1),"")</f>
-        <v>0.46388528690158748</v>
+        <v>0.45141750287604299</v>
       </c>
     </row>
     <row r="18" spans="2:22">
@@ -1987,19 +1987,19 @@
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>17.311419572008894</v>
+        <v>17.31195775008462</v>
       </c>
       <c r="G18" s="19">
-        <v>2.5738440513610839E-2</v>
+        <v>2.5737640380859378E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>1.3204813907822317</v>
+        <v>1.3778390947237986</v>
       </c>
       <c r="I18" s="20">
-        <v>1.1224091821648969</v>
+        <v>1.1711632305152289</v>
       </c>
       <c r="J18" s="20">
-        <v>2.1574731546837147</v>
+        <v>2.2829532560723895</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>15</v>
@@ -2059,13 +2059,13 @@
         <v>7.4324324324324328E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>14.711912985787608</v>
+        <v>15.056238327651389</v>
       </c>
       <c r="I19" s="20">
-        <v>12.41356664000493</v>
+        <v>12.704594706192351</v>
       </c>
       <c r="J19" s="20">
-        <v>28.629685811733218</v>
+        <v>29.505546231349502</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>15</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="V19" s="19">
         <f>IF(D19&lt;=J19,-(I19/D19-1),"")</f>
-        <v>0.16124549729696425</v>
+        <v>0.1415814387707871</v>
       </c>
     </row>
     <row r="20" spans="2:22">
@@ -2119,19 +2119,19 @@
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>11.517819066639863</v>
+        <v>11.517868465426893</v>
       </c>
       <c r="G20" s="19">
-        <v>1.6987649429871035E-2</v>
+        <v>1.6987576571834948E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>112.8576396330475</v>
+        <v>115.48154278091233</v>
       </c>
       <c r="I20" s="20">
-        <v>95.928993688090372</v>
+        <v>98.159311363775487</v>
       </c>
       <c r="J20" s="20">
-        <v>189.64088859949078</v>
+        <v>195.42102662351829</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>70</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="V20" s="19">
         <f>IF(D20&lt;=J20,-(I20/D20-1),"")</f>
-        <v>0.15703871978830952</v>
+        <v>0.13744014618826461</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -2185,19 +2185,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>26.479713181144341</v>
+        <v>26.480536383483486</v>
       </c>
       <c r="G21" s="19">
-        <v>1.6249015475764416E-2</v>
+        <v>1.6248510341451628E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>1.2843102884045234</v>
+        <v>1.3401048742743282</v>
       </c>
       <c r="I21" s="20">
-        <v>1.0916637451438449</v>
+        <v>1.1390891431331789</v>
       </c>
       <c r="J21" s="20">
-        <v>2.0983748721179958</v>
+        <v>2.2204311068821458</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>36</v>
@@ -2251,19 +2251,19 @@
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>33.442260398764269</v>
+        <v>33.443300053038399</v>
       </c>
       <c r="G22" s="19">
         <v>8.4075173095944609E-3</v>
       </c>
       <c r="H22" s="20">
-        <v>67.582068394244601</v>
+        <v>71.785218292466311</v>
       </c>
       <c r="I22" s="20">
-        <v>57.444758135107911</v>
+        <v>61.01743554859636</v>
       </c>
       <c r="J22" s="20">
-        <v>124.53468055873761</v>
+        <v>133.72959981564372</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>75</v>
@@ -2317,10 +2317,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>-11.86790756818132</v>
+        <v>-11.868276518147056</v>
       </c>
       <c r="G23" s="19">
-        <v>2.8658652092153961E-2</v>
+        <v>2.8657761178575124E-2</v>
       </c>
       <c r="H23" s="20">
         <v>0</v>
@@ -2383,19 +2383,19 @@
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>22.607431665426173</v>
+        <v>22.608134486129014</v>
       </c>
       <c r="G24" s="19">
         <v>0</v>
       </c>
       <c r="H24" s="20">
-        <v>2.3134757737361928</v>
+        <v>2.4205602346882547</v>
       </c>
       <c r="I24" s="20">
-        <v>1.966454407675764</v>
+        <v>2.0574761994850164</v>
       </c>
       <c r="J24" s="20">
-        <v>3.8532264710478992</v>
+        <v>4.0874851408251445</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>36</v>
@@ -2449,19 +2449,19 @@
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>19.118094392905071</v>
+        <v>19.118688736956933</v>
       </c>
       <c r="G25" s="19">
-        <v>5.0772438415125305E-2</v>
+        <v>5.0770860048680526E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>0.47538455958296588</v>
+        <v>0.49603420017745437</v>
       </c>
       <c r="I25" s="20">
-        <v>0.40407687564552097</v>
+        <v>0.42162907015083623</v>
       </c>
       <c r="J25" s="20">
-        <v>0.7767087310816424</v>
+        <v>0.82188326398547173</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>15</v>
@@ -2515,19 +2515,19 @@
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>11.164594149614883</v>
+        <v>11.164941234946083</v>
       </c>
       <c r="G26" s="19">
-        <v>6.4042172330593783E-2</v>
+        <v>6.404018144697636E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>5.9593035415286248</v>
+        <v>6.2181522106307305</v>
       </c>
       <c r="I26" s="20">
-        <v>5.0654080102993309</v>
+        <v>5.2854293790361204</v>
       </c>
       <c r="J26" s="20">
-        <v>9.7366290060652023</v>
+        <v>10.302909019183284</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>15</v>
@@ -2562,9 +2562,9 @@
       <c r="U26" s="19">
         <v>0.11437878179622009</v>
       </c>
-      <c r="V26" s="19" t="str">
+      <c r="V26" s="19">
         <f>IF(D26&lt;=J26,-(I26/D26-1),"")</f>
-        <v/>
+        <v>0.46503751224330769</v>
       </c>
     </row>
     <row r="27" spans="2:22">
@@ -2587,13 +2587,13 @@
         <v>0.13793103448275862</v>
       </c>
       <c r="H27" s="20">
-        <v>0.43118915310523315</v>
+        <v>0.44121680782861067</v>
       </c>
       <c r="I27" s="20">
-        <v>0.36651078013944816</v>
+        <v>0.37503428665431904</v>
       </c>
       <c r="J27" s="20">
-        <v>0.72455080945529271</v>
+        <v>0.74663915525442981</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>36</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="V27" s="19">
         <f>IF(D27&lt;=J27,-(I27/D27-1),"")</f>
-        <v>0.15744648243805026</v>
+        <v>0.1378522145877723</v>
       </c>
     </row>
     <row r="28" spans="2:22">
@@ -2647,19 +2647,19 @@
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>8.540600250284534</v>
+        <v>8.5408657607927339</v>
       </c>
       <c r="G28" s="19">
-        <v>8.5718607394352261E-2</v>
+        <v>8.5715942653838958E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>5.4648854667602169</v>
+        <v>5.7501684175531516</v>
       </c>
       <c r="I28" s="20">
-        <v>4.1144878499893833</v>
+        <v>4.3411347406839624</v>
       </c>
       <c r="J28" s="20">
-        <v>11.668898132957514</v>
+        <v>12.421280311485614</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>15</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="V28" s="19">
         <f>IF(D28&lt;=J28,-(I28/D28-1),"")</f>
-        <v>0.26918510657382178</v>
+        <v>0.22892811000284863</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -2719,13 +2719,13 @@
         <v>6.9540229885057481E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>0.12756685751769817</v>
+        <v>0.13053352862276091</v>
       </c>
       <c r="I29" s="20">
-        <v>0.10843182889004344</v>
+        <v>0.11095349932934677</v>
       </c>
       <c r="J29" s="20">
-        <v>0.21435759505656835</v>
+        <v>0.22089240893365228</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>36</v>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="V29" s="19">
         <f>IF(D29&lt;=J29,-(I29/D29-1),"")</f>
-        <v>0.37682856959745148</v>
+        <v>0.36233621075088063</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -2779,19 +2779,19 @@
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>3.6512144432839277</v>
+        <v>3.6513279523786024</v>
       </c>
       <c r="G30" s="19">
-        <v>7.1139968252102934E-2</v>
+        <v>7.1137756718793188E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>4.1767684993923284</v>
+        <v>4.3581866499143267</v>
       </c>
       <c r="I30" s="20">
-        <v>3.550253224483479</v>
+        <v>3.7044586524271774</v>
       </c>
       <c r="J30" s="20">
-        <v>6.8242278714957161</v>
+        <v>7.2211163415911166</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>15</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="V30" s="19">
         <f>IF(D30&lt;=J30,-(I30/D30-1),"")</f>
-        <v>0.41123495448035174</v>
+        <v>0.38566191502036862</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -2845,19 +2845,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>23.503484119471707</v>
+        <v>23.504214796687609</v>
       </c>
       <c r="G31" s="19">
-        <v>6.7507743630854739E-2</v>
+        <v>6.7505645012773036E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>46.690112022468959</v>
+        <v>48.718123448562785</v>
       </c>
       <c r="I31" s="20">
-        <v>39.686595219098614</v>
+        <v>41.410404931278364</v>
       </c>
       <c r="J31" s="20">
-        <v>76.284803391269094</v>
+        <v>80.721471021206895</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>15</v>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="V31" s="19">
         <f>IF(D31&lt;=J31,-(I31/D31-1),"")</f>
-        <v>0.45070456444154172</v>
+        <v>0.4268456064874967</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -2911,19 +2911,19 @@
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>7.7401787332737984</v>
+        <v>7.7404193602471736</v>
       </c>
       <c r="G32" s="19">
-        <v>6.9251695144294509E-2</v>
+        <v>6.9249542311866683E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.375202434743775</v>
+        <v>3.5218054253178903</v>
       </c>
       <c r="I32" s="20">
-        <v>2.8689220695322089</v>
+        <v>2.9935346115202068</v>
       </c>
       <c r="J32" s="20">
-        <v>5.5145863435978617</v>
+        <v>5.8353092126440247</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>15</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="V32" s="19">
         <f>IF(D32&lt;=J32,-(I32/D32-1),"")</f>
-        <v>0.43189661989461214</v>
+        <v>0.4072208690058996</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -2977,19 +2977,19 @@
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>14.805018456119178</v>
+        <v>14.805478715100866</v>
       </c>
       <c r="G33" s="19">
-        <v>3.7005628207583491E-2</v>
+        <v>3.7004477810957802E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>3.1429385430636847</v>
+        <v>3.2794538399795741</v>
       </c>
       <c r="I33" s="20">
-        <v>2.6714977616041318</v>
+        <v>2.7875357639826377</v>
       </c>
       <c r="J33" s="20">
-        <v>5.1351011690242805</v>
+        <v>5.4337548199859143</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>70</v>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="V33" s="19">
         <f>IF(D33&lt;=J33,-(I33/D33-1),"")</f>
-        <v>0.4503091025505902</v>
+        <v>0.4264329703739429</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -3043,19 +3043,19 @@
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>6.6951995922176932</v>
+        <v>6.6954077328394455</v>
       </c>
       <c r="G34" s="19">
-        <v>6.114203615836155E-2</v>
+        <v>6.1140135431485908E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>2.3005984232688776</v>
+        <v>2.4005283139353391</v>
       </c>
       <c r="I34" s="20">
-        <v>1.955508659778546</v>
+        <v>2.0404490668450381</v>
       </c>
       <c r="J34" s="20">
-        <v>3.7588408080253224</v>
+        <v>3.9774556779369252</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>15</v>
@@ -3109,19 +3109,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>3.9153607209295793</v>
+        <v>3.9154824418138658</v>
       </c>
       <c r="G35" s="19">
-        <v>6.9617392067181857E-2</v>
+        <v>6.96152278663075E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>3.1767301909670853</v>
+        <v>3.3147123118036568</v>
       </c>
       <c r="I35" s="20">
-        <v>2.7002206623220224</v>
+        <v>2.8175054650331082</v>
       </c>
       <c r="J35" s="20">
-        <v>5.1903117715462317</v>
+        <v>5.4921748803276209</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>15</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="V35" s="19">
         <f>IF(D35&lt;=J35,-(I35/D35-1),"")</f>
-        <v>0.42791935120296132</v>
+        <v>0.40307087605230751</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -3175,7 +3175,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>-97.944146068576288</v>
+        <v>-97.947190959946425</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>3.0599613152804645E-2</v>
       </c>
       <c r="H37" s="20">
-        <v>3.5181659290186258</v>
+        <v>3.6288827741077334</v>
       </c>
       <c r="I37" s="20">
-        <v>2.9904410396658316</v>
+        <v>3.0845503579915734</v>
       </c>
       <c r="J37" s="20">
-        <v>5.8848382508423418</v>
+        <v>6.1566912041182178</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>15</v>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="V37" s="19">
         <f>IF(D37&lt;=J37,-(I37/D37-1),"")</f>
-        <v>0.42157813546115441</v>
+        <v>0.40337517253547905</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -3307,19 +3307,19 @@
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>9.4768461334323781</v>
+        <v>9.477140749988509</v>
       </c>
       <c r="G38" s="19">
-        <v>6.2201231241226201E-2</v>
+        <v>6.2199297587076825E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>2.6135077931499495</v>
+        <v>2.7270289661635818</v>
       </c>
       <c r="I38" s="20">
-        <v>2.2214816241774571</v>
+        <v>2.3179746212390446</v>
       </c>
       <c r="J38" s="20">
-        <v>4.2700888801905013</v>
+        <v>4.5184373716401698</v>
       </c>
       <c r="K38" s="6" t="s">
         <v>15</v>
@@ -3354,9 +3354,9 @@
       <c r="U38" s="19">
         <v>0.10654780430421051</v>
       </c>
-      <c r="V38" s="19" t="str">
+      <c r="V38" s="19">
         <f>IF(D38&lt;=J38,-(I38/D38-1),"")</f>
-        <v/>
+        <v>0.48489452861354565</v>
       </c>
     </row>
     <row r="39" spans="2:22">
@@ -3373,19 +3373,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>13.033990116002851</v>
+        <v>13.034395317187565</v>
       </c>
       <c r="G39" s="19">
-        <v>4.5442161923747955E-2</v>
+        <v>4.5440749259991843E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>1.8496064864834967</v>
+        <v>1.9299511216312457</v>
       </c>
       <c r="I39" s="20">
-        <v>1.5721655135109722</v>
+        <v>1.6404584533865587</v>
       </c>
       <c r="J39" s="20">
-        <v>3.0219860493097279</v>
+        <v>3.1977523457278849</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>36</v>
@@ -3439,19 +3439,19 @@
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>12.013593250263471</v>
+        <v>12.013644775376948</v>
       </c>
       <c r="G40" s="19">
         <v>7.1527777777777773E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>12.344951652514045</v>
+        <v>12.881612205882261</v>
       </c>
       <c r="I40" s="20">
-        <v>10.493208904636937</v>
+        <v>10.949370374999921</v>
       </c>
       <c r="J40" s="20">
-        <v>20.169842583233923</v>
+        <v>21.343652275141672</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>15</v>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="V40" s="19">
         <f>IF(D40&lt;=J40,-(I40/D40-1),"")</f>
-        <v>0.27130493717799053</v>
+        <v>0.23962705729167222</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -3505,19 +3505,19 @@
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>12.185808608726912</v>
+        <v>12.185860872455033</v>
       </c>
       <c r="G41" s="19">
-        <v>3.6796930071395659E-2</v>
+        <v>3.6796772253678146E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>18.169352070823706</v>
+        <v>18.6320023352677</v>
       </c>
       <c r="I41" s="20">
-        <v>15.443949260200149</v>
+        <v>15.837201984977545</v>
       </c>
       <c r="J41" s="20">
-        <v>31.448361697584456</v>
+        <v>32.467522797247838</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>15</v>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="V41" s="19">
         <f>IF(D41&lt;=J41,-(I41/D41-1),"")</f>
-        <v>0.28829726911520048</v>
+        <v>0.27017502373375368</v>
       </c>
     </row>
     <row r="42" spans="2:22">
@@ -3577,13 +3577,13 @@
         <v>7.6495132127955501E-2</v>
       </c>
       <c r="H42" s="20">
-        <v>5.225068504681369</v>
+        <v>5.3465817257204709</v>
       </c>
       <c r="I42" s="20">
-        <v>4.4413082289791639</v>
+        <v>4.5445944668624003</v>
       </c>
       <c r="J42" s="20">
-        <v>10.064470294082691</v>
+        <v>10.371291426900095</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>15</v>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="V42" s="19">
         <f>IF(D42&lt;=J42,-(I42/D42-1),"")</f>
-        <v>0.38229370946047792</v>
+        <v>0.36792844688979132</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -3643,13 +3643,13 @@
         <v>6.0531697341513292E-2</v>
       </c>
       <c r="H43" s="20">
-        <v>14.957080967354269</v>
+        <v>15.304920059618324</v>
       </c>
       <c r="I43" s="20">
-        <v>12.713518822251128</v>
+        <v>13.009182050675575</v>
       </c>
       <c r="J43" s="20">
-        <v>25.133204404471751</v>
+        <v>25.899404514500915</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>15</v>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="V43" s="19">
         <f>IF(D43&lt;=J43,-(I43/D43-1),"")</f>
-        <v>0.48001968007152851</v>
+        <v>0.46792711449179647</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -3703,19 +3703,19 @@
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>6.6962961159760948</v>
+        <v>6.6963248357279683</v>
       </c>
       <c r="G44" s="19">
-        <v>2.4119586491387738E-2</v>
+        <v>2.4119483045310027E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>19.813693423186496</v>
+        <v>20.274379796758861</v>
       </c>
       <c r="I44" s="20">
-        <v>16.84163940970852</v>
+        <v>17.233222827245033</v>
       </c>
       <c r="J44" s="20">
-        <v>33.294036978163845</v>
+        <v>34.308860261369929</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>36</v>
@@ -3769,19 +3769,19 @@
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>5.0045314241252683</v>
+        <v>5.0046870051901555</v>
       </c>
       <c r="G45" s="19">
-        <v>6.9941414439159896E-2</v>
+        <v>6.9939240165378738E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>3.8938619312445502</v>
+        <v>4.0629926811664818</v>
       </c>
       <c r="I45" s="20">
-        <v>3.3097826415578675</v>
+        <v>3.4535437789915093</v>
       </c>
       <c r="J45" s="20">
-        <v>6.3619999822401452</v>
+        <v>6.7320069566807419</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>15</v>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="V45" s="19">
         <f>IF(D45&lt;=J45,-(I45/D45-1),"")</f>
-        <v>0.42438562755515352</v>
+        <v>0.39938369061017231</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -3835,19 +3835,19 @@
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>6.4701804541257601</v>
+        <v>6.4703815993439164</v>
       </c>
       <c r="G46" s="19">
-        <v>5.8260106396740792E-2</v>
+        <v>5.8258295260622921E-2</v>
       </c>
       <c r="H46" s="20">
-        <v>19.382880742331206</v>
+        <v>20.224812865054297</v>
       </c>
       <c r="I46" s="20">
-        <v>16.475448630981525</v>
+        <v>17.191090935296153</v>
       </c>
       <c r="J46" s="20">
-        <v>31.66878772690859</v>
+        <v>33.510663589485503</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>15</v>
@@ -3901,19 +3901,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>4.0299877521340184</v>
+        <v>4.0301130365478484</v>
       </c>
       <c r="G47" s="19">
-        <v>8.671981305124947E-2</v>
+        <v>8.6717117186183884E-2</v>
       </c>
       <c r="H47" s="20">
-        <v>3.3671190377273059</v>
+        <v>3.5133627137660683</v>
       </c>
       <c r="I47" s="20">
-        <v>2.86205118206821</v>
+        <v>2.9863583067011579</v>
       </c>
       <c r="J47" s="20">
-        <v>5.501379257013058</v>
+        <v>5.8213204124269895</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>15</v>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="V47" s="19">
         <f>IF(D47&lt;=J47,-(I47/D47-1),"")</f>
-        <v>0.22855763286571162</v>
+        <v>0.19505166935278762</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -3967,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>77.235953990581322</v>
+        <v>77.238355104881776</v>
       </c>
       <c r="G48" s="19">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>3</v>
       </c>
       <c r="F49" s="26">
-        <v>15.82829116084211</v>
+        <v>15.828783231364895</v>
       </c>
       <c r="G49" s="19">
-        <v>5.8936640682254092E-2</v>
+        <v>5.8934808514666231E-2</v>
       </c>
       <c r="H49" s="20">
-        <v>4.311860908249308</v>
+        <v>4.4577736494035518</v>
       </c>
       <c r="I49" s="20">
-        <v>3.6650817720119115</v>
+        <v>3.789107601993019</v>
       </c>
       <c r="J49" s="20">
-        <v>6.7010827745729564</v>
+        <v>7.0203307653364488</v>
       </c>
       <c r="K49" s="6" t="s">
         <v>36</v>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="V49" s="19">
         <f>IF(D49&lt;=J49,-(I49/D49-1),"")</f>
-        <v>0.35360109841059761</v>
+        <v>0.33172705432221883</v>
       </c>
     </row>
     <row r="50" spans="2:22">
@@ -4099,19 +4099,19 @@
         <v>3</v>
       </c>
       <c r="F50" s="26">
-        <v>39.92132848975168</v>
+        <v>39.922569565543164</v>
       </c>
       <c r="G50" s="19">
-        <v>6.5120023464419183E-2</v>
+        <v>6.5117999073566038E-2</v>
       </c>
       <c r="H50" s="20">
-        <v>1.5256035785665949</v>
+        <v>1.5598012332780873</v>
       </c>
       <c r="I50" s="20">
-        <v>1.2967630417816056</v>
+        <v>1.3258310482863742</v>
       </c>
       <c r="J50" s="20">
-        <v>2.2045746040011713</v>
+        <v>2.2794095091868223</v>
       </c>
       <c r="K50" s="6" t="s">
         <v>15</v>
@@ -4148,7 +4148,7 @@
       </c>
       <c r="V50" s="19">
         <f>IF(D50&lt;=J50,-(I50/D50-1),"")</f>
-        <v>0.33156544238061569</v>
+        <v>0.31658193387300293</v>
       </c>
     </row>
     <row r="51" spans="2:22">
@@ -4165,19 +4165,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="26">
-        <v>5.8446465209356964</v>
+        <v>5.8448282195309416</v>
       </c>
       <c r="G51" s="19">
-        <v>8.1303738084510774E-2</v>
+        <v>8.1301210589357228E-2</v>
       </c>
       <c r="H51" s="20">
-        <v>2.2988313236840563</v>
+        <v>2.3986779064438748</v>
       </c>
       <c r="I51" s="20">
-        <v>1.9540066251314478</v>
+        <v>2.0388762204772934</v>
       </c>
       <c r="J51" s="20">
-        <v>3.7559536261668587</v>
+        <v>3.9743897221051632</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>15</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="V51" s="19">
         <f>IF(D51&lt;=J51,-(I51/D51-1),"")</f>
-        <v>0.29458244580092141</v>
+        <v>0.26394360271577855</v>
       </c>
     </row>
     <row r="52" spans="2:22">
@@ -4231,19 +4231,19 @@
         <v>3</v>
       </c>
       <c r="F52" s="26">
-        <v>-24.345071786789248</v>
+        <v>-24.345828627314837</v>
       </c>
       <c r="G52" s="19">
-        <v>6.3835417940503084E-2</v>
+        <v>6.3833433484274255E-2</v>
       </c>
       <c r="H52" s="20">
-        <v>1.0090705118310159</v>
+        <v>1.0529005895128738</v>
       </c>
       <c r="I52" s="20">
-        <v>0.8577099350563635</v>
+        <v>0.89496550108594275</v>
       </c>
       <c r="J52" s="20">
-        <v>1.6486733971833769</v>
+        <v>1.7445598969818779</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>36</v>
@@ -4278,9 +4278,9 @@
       <c r="U52" s="19">
         <v>-0.22591626294706857</v>
       </c>
-      <c r="V52" s="19" t="str">
+      <c r="V52" s="19">
         <f>IF(D52&lt;=J52,-(I52/D52-1),"")</f>
-        <v/>
+        <v>0.467282439829796</v>
       </c>
     </row>
     <row r="53" spans="2:22">
@@ -4297,19 +4297,19 @@
         <v>3</v>
       </c>
       <c r="F53" s="26">
-        <v>14634.79554599362</v>
+        <v>14635.25051307895</v>
       </c>
       <c r="G53" s="19">
-        <v>1.1429147652580301E-2</v>
+        <v>1.1428792353845193E-2</v>
       </c>
       <c r="H53" s="20">
-        <v>3.9860217897685034E-2</v>
+        <v>4.1591977395039927E-2</v>
       </c>
       <c r="I53" s="20">
-        <v>3.388118521303228E-2</v>
+        <v>3.5353180785783936E-2</v>
       </c>
       <c r="J53" s="20">
-        <v>6.5125756905332358E-2</v>
+        <v>6.8914099319797431E-2</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>36</v>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E55FC1D-1042-4BF4-BB41-C0808A046CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77E47B-9146-4D94-9A1C-977357459719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -452,6 +452,18 @@
   </si>
   <si>
     <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t>0992.HK</t>
+  </si>
+  <si>
+    <t>聯想集團</t>
+  </si>
+  <si>
+    <t>9992.HK</t>
+  </si>
+  <si>
+    <t>POP MART</t>
   </si>
 </sst>
 </file>
@@ -981,7 +993,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B53" sqref="B45:R53"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1117,37 +1129,37 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D5" s="20">
-        <v>73.5</v>
+        <v>7.96</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>17.574494361438351</v>
+        <v>34.494186566243059</v>
       </c>
       <c r="G5" s="19">
-        <v>6.4589897272538166E-2</v>
+        <v>7.2864321608040197E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>50.039702494177838</v>
+        <v>8.4110864713950271</v>
       </c>
       <c r="I5" s="20">
-        <v>42.53374712005116</v>
+        <v>7.1494235006857725</v>
       </c>
       <c r="J5" s="20">
-        <v>84.678553800581696</v>
+        <v>12.371587094921917</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M5" s="16">
         <v>45593</v>
@@ -1156,76 +1168,76 @@
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P5" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.12367370222475756</v>
       </c>
       <c r="Q5" s="19">
-        <v>2.3869305285384647E-2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="19">
-        <v>0.55863466227121317</v>
+        <v>1.0724472333143184E-2</v>
       </c>
       <c r="T5" s="19">
-        <v>0</v>
+        <v>1.038220193953223E-2</v>
       </c>
       <c r="U5" s="19">
-        <v>0.10980570587494648</v>
+        <v>0.22552196235025673</v>
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=J5,-(I5/D5-1),"")</f>
-        <v>0.42130956299250122</v>
+        <v>0.10183121850681254</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D6" s="20">
-        <v>96.05</v>
+        <v>112.7</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="26">
-        <v>9.5912802835497839</v>
+        <v>11.407214702207529</v>
       </c>
       <c r="G6" s="19">
-        <v>7.0796460176991149E-2</v>
+        <v>1.7152361694647341E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>73.789510688208338</v>
+        <v>113.28817280473194</v>
       </c>
       <c r="I6" s="20">
-        <v>62.721084084977086</v>
+        <v>96.294946884022153</v>
       </c>
       <c r="J6" s="20">
-        <v>124.8686290942088</v>
+        <v>190.36433712734646</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M6" s="16">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="N6" s="16">
         <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.60531106380837341</v>
       </c>
       <c r="P6" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.31327931266495485</v>
       </c>
       <c r="Q6" s="19">
         <v>0</v>
@@ -1234,328 +1246,328 @@
         <v>0</v>
       </c>
       <c r="S6" s="19">
-        <v>0.39159225009737869</v>
+        <v>9.0344684898005026E-3</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>0.35546835552606143</v>
+        <v>7.2375155036871239E-2</v>
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=J6,-(I6/D6-1),"")</f>
-        <v>0.34699548063532448</v>
+        <v>0.14556391407256297</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D7" s="20">
-        <v>78.25</v>
+        <v>0.435</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="26">
-        <v>14.969834813891529</v>
+        <v>-2.4361588075127969</v>
       </c>
       <c r="G7" s="19">
-        <v>4.7923322683706068E-2</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="H7" s="20">
-        <v>16.638606149939115</v>
+        <v>0.43118915310523315</v>
       </c>
       <c r="I7" s="20">
-        <v>14.020185571926717</v>
+        <v>0.36651078013944816</v>
       </c>
       <c r="J7" s="20">
-        <v>52.332370576725054</v>
+        <v>0.72455080945529271</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M7" s="16">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="N7" s="16">
         <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.54949235029228316</v>
+        <v>0.46570281556597115</v>
       </c>
       <c r="P7" s="19">
-        <v>0.10108242664951193</v>
+        <v>0.49096154234108225</v>
       </c>
       <c r="Q7" s="19">
-        <v>1.0218987976510586E-2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="19">
-        <v>0</v>
+        <v>3.9525516276755275E-2</v>
       </c>
       <c r="S7" s="19">
-        <v>5.6582664391799292E-2</v>
+        <v>0</v>
       </c>
       <c r="T7" s="19">
-        <v>5.719799737085E-3</v>
+        <v>0.11560295610891069</v>
       </c>
       <c r="U7" s="19">
-        <v>0.27690377095281005</v>
-      </c>
-      <c r="V7" s="19" t="str">
+        <v>-0.11179283029271934</v>
+      </c>
+      <c r="V7" s="19">
         <f>IF(D7&lt;=J7,-(I7/D7-1),"")</f>
-        <v/>
+        <v>0.15744648243805026</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D8" s="20">
-        <v>35.5</v>
+        <v>14.78</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="26">
-        <v>32.601508239900348</v>
+        <v>10.329841022294847</v>
       </c>
       <c r="G8" s="19">
-        <v>1.4084507042253521E-2</v>
+        <v>7.4424898511502038E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>9.7621874186344382</v>
+        <v>14.72005285376887</v>
       </c>
       <c r="I8" s="20">
-        <v>8.2978593058392729</v>
+        <v>12.419646158775766</v>
       </c>
       <c r="J8" s="20">
-        <v>16.519840673240996</v>
+        <v>28.646825796748232</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M8" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N8" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O8" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P8" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.16540000000000002</v>
       </c>
       <c r="Q8" s="19">
-        <v>1.6858097812807804E-3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="19">
-        <v>0</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="T8" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U8" s="19">
-        <v>0.17445779619528262</v>
-      </c>
-      <c r="V8" s="19" t="str">
+        <v>7.3081874090513851E-2</v>
+      </c>
+      <c r="V8" s="19">
         <f>IF(D8&lt;=J8,-(I8/D8-1),"")</f>
-        <v/>
+        <v>0.15969917734940686</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D9" s="20">
-        <v>5.54</v>
+        <v>9.34</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>-44.105421249254157</v>
+        <v>18.655708994015598</v>
       </c>
       <c r="G9" s="19">
-        <v>3.6020333222037258E-2</v>
+        <v>4.068522483940043E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>1.8359040075268804</v>
+        <v>8.9769372669815954</v>
       </c>
       <c r="I9" s="20">
-        <v>1.5605184063978483</v>
+        <v>7.6303966769343559</v>
       </c>
       <c r="J9" s="20">
-        <v>3.10676699750876</v>
+        <v>15.084440590353891</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M9" s="16">
-        <v>45603</v>
+        <v>45630</v>
       </c>
       <c r="N9" s="16">
         <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.82760234528184051</v>
       </c>
       <c r="P9" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.1381181210170607</v>
       </c>
       <c r="Q9" s="19">
-        <v>1.0703282304304319E-2</v>
+        <v>2.152653084078963E-3</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <v>0.12063647696552883</v>
+        <v>1.3414601462329697E-2</v>
       </c>
       <c r="T9" s="19">
         <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>-3.5319141001935742E-2</v>
-      </c>
-      <c r="V9" s="19" t="str">
+        <v>1.8712279154690092E-2</v>
+      </c>
+      <c r="V9" s="19">
         <f>IF(D9&lt;=J9,-(I9/D9-1),"")</f>
-        <v/>
+        <v>0.1830410410134522</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" s="20">
-        <v>7.85</v>
+        <v>10.8</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="26">
-        <v>34.017508108669347</v>
+        <v>9.4369871954990874</v>
       </c>
       <c r="G10" s="19">
-        <v>7.3885350318471335E-2</v>
+        <v>5.634809631477166E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>8.521301457522064</v>
+        <v>10.147323517378704</v>
       </c>
       <c r="I10" s="20">
-        <v>7.2431062388937537</v>
+        <v>8.6252249897718976</v>
       </c>
       <c r="J10" s="20">
-        <v>12.611083492274521</v>
-      </c>
-      <c r="K10" s="8" t="s">
+        <v>17.05110486980902</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>37</v>
+      <c r="L10" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="M10" s="16">
         <v>45593</v>
       </c>
       <c r="N10" s="16">
-        <v>45716</v>
+        <v>45808</v>
       </c>
       <c r="O10" s="19">
-        <v>0.60969766115231028</v>
+        <v>0.77696054205677556</v>
       </c>
       <c r="P10" s="19">
-        <v>0.12367370222475756</v>
+        <v>0.14204607870614464</v>
       </c>
       <c r="Q10" s="19">
-        <v>0</v>
+        <v>1.0871617989521474E-3</v>
       </c>
       <c r="R10" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S10" s="19">
-        <v>1.0724472333143184E-2</v>
+        <v>8.274315042185636E-3</v>
       </c>
       <c r="T10" s="19">
-        <v>1.038220193953223E-2</v>
+        <v>2.3595955443495159E-2</v>
       </c>
       <c r="U10" s="19">
-        <v>0.22552196235025673</v>
+        <v>4.8035946952446888E-2</v>
       </c>
       <c r="V10" s="19">
         <f>IF(D10&lt;=J10,-(I10/D10-1),"")</f>
-        <v>7.7311307147292507E-2</v>
+        <v>0.20136805650260214</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20">
-        <v>6.56</v>
+        <v>3.71</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="26">
-        <v>5.9335881460545279</v>
+        <v>4.0338155012616932</v>
       </c>
       <c r="G11" s="19">
-        <v>8.3841463414634151E-2</v>
+        <v>8.6637523296387048E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>5.5164797675007193</v>
+        <v>3.3626504867787359</v>
       </c>
       <c r="I11" s="20">
-        <v>4.6890078023756114</v>
+        <v>2.8582529137619255</v>
       </c>
       <c r="J11" s="20">
-        <v>10.730038817949525</v>
+        <v>5.4940782993629353</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M11" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.73600077942413045</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P11" s="19">
-        <v>0.20890317762054877</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q11" s="19">
         <v>0</v>
@@ -1564,196 +1576,196 @@
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <v>5.1931891220120593E-3</v>
+        <v>0</v>
       </c>
       <c r="T11" s="19">
-        <v>0</v>
+        <v>0.49757189674208302</v>
       </c>
       <c r="U11" s="19">
-        <v>4.9902853833308697E-2</v>
+        <v>0.29524894411244107</v>
       </c>
       <c r="V11" s="19">
         <f>IF(D11&lt;=J11,-(I11/D11-1),"")</f>
-        <v>0.28521222524762013</v>
+        <v>0.22958142486201472</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20">
-        <v>10.96</v>
+        <v>14.34</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>9.5762244636139631</v>
+        <v>11.964299960813593</v>
       </c>
       <c r="G12" s="19">
-        <v>5.5528801087915448E-2</v>
+        <v>7.1827057182705725E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>10.321281814377732</v>
+        <v>12.363716861997004</v>
       </c>
       <c r="I12" s="20">
-        <v>8.7730895422210722</v>
+        <v>10.509159332697452</v>
       </c>
       <c r="J12" s="20">
-        <v>17.465955508257466</v>
+        <v>20.200502186605931</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M12" s="16">
-        <v>45593</v>
+        <v>45624</v>
       </c>
       <c r="N12" s="16">
-        <v>45808</v>
+        <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.77696054205677556</v>
+        <v>0.75431095413462357</v>
       </c>
       <c r="P12" s="19">
-        <v>0.14204607870614464</v>
+        <v>0.13135421474946254</v>
       </c>
       <c r="Q12" s="19">
-        <v>1.0871617989521474E-3</v>
+        <v>7.2979774463912414E-4</v>
       </c>
       <c r="R12" s="19">
         <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>8.274315042185636E-3</v>
+        <v>6.3176187869769956E-4</v>
       </c>
       <c r="T12" s="19">
-        <v>2.3595955443495159E-2</v>
+        <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>4.8035946952446888E-2</v>
+        <v>0.11297327149257705</v>
       </c>
       <c r="V12" s="19">
         <f>IF(D12&lt;=J12,-(I12/D12-1),"")</f>
-        <v>0.19953562570975625</v>
+        <v>0.26714370064871318</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20">
-        <v>6.96</v>
+        <v>21.75</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>29.174077143454905</v>
+        <v>12.214665831742357</v>
       </c>
       <c r="G13" s="19">
-        <v>6.5407257792593418E-2</v>
+        <v>3.6709997098199248E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>2.0345022137092204</v>
+        <v>18.146277616085658</v>
       </c>
       <c r="I13" s="20">
-        <v>1.7293268816528373</v>
+        <v>15.424335973672809</v>
       </c>
       <c r="J13" s="20">
-        <v>3.3709839349601411</v>
+        <v>31.411702253315898</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="M13" s="16">
-        <v>45624</v>
+        <v>45591</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.69530102386843873</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P13" s="19">
-        <v>0.25685454836897598</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q13" s="19">
-        <v>0</v>
+        <v>1.2057353899630675E-2</v>
       </c>
       <c r="R13" s="19">
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <v>2.0677989446499247E-3</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="T13" s="19">
-        <v>9.6644881579416319E-4</v>
+        <v>0</v>
       </c>
       <c r="U13" s="19">
-        <v>4.4810180002141216E-2</v>
-      </c>
-      <c r="V13" s="19" t="str">
+        <v>0.12114381924831638</v>
+      </c>
+      <c r="V13" s="19">
         <f>IF(D13&lt;=J13,-(I13/D13-1),"")</f>
-        <v/>
+        <v>0.29083512764722719</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D14" s="20">
-        <v>8.75</v>
+        <v>6.54</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>-62.193560900447089</v>
+        <v>5.9154979382921669</v>
       </c>
       <c r="G14" s="19">
-        <v>0</v>
+        <v>8.4097859327217125E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>0</v>
+        <v>5.3969761771789511</v>
       </c>
       <c r="I14" s="20">
-        <v>0</v>
+        <v>4.5874297506021087</v>
       </c>
       <c r="J14" s="20">
-        <v>0</v>
+        <v>10.424926582683533</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M14" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.73600077942413045</v>
       </c>
       <c r="P14" s="19">
-        <v>0.74823479113580682</v>
+        <v>0.20890317762054877</v>
       </c>
       <c r="Q14" s="19">
         <v>0</v>
@@ -1762,250 +1774,250 @@
         <v>0</v>
       </c>
       <c r="S14" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>5.1931891220120593E-3</v>
       </c>
       <c r="T14" s="19">
         <v>0</v>
       </c>
       <c r="U14" s="19">
-        <v>-0.11044830732057855</v>
-      </c>
-      <c r="V14" s="19" t="str">
+        <v>4.9902853833308697E-2</v>
+      </c>
+      <c r="V14" s="19">
         <f>IF(D14&lt;=J14,-(I14/D14-1),"")</f>
-        <v/>
+        <v>0.29855814210976928</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="D15" s="20">
-        <v>70.8</v>
+        <v>2.78</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>21.366750307740915</v>
+        <v>5.8713177109045303</v>
       </c>
       <c r="G15" s="19">
-        <v>0</v>
+        <v>8.0934405755653666E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>30.010868475482816</v>
+        <v>2.2927303636344041</v>
       </c>
       <c r="I15" s="20">
-        <v>25.509238204160393</v>
+        <v>1.9488208090892434</v>
       </c>
       <c r="J15" s="20">
-        <v>49.725261945334708</v>
+        <v>3.745985551177839</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M15" s="16">
-        <v>45625</v>
+        <v>45606</v>
       </c>
       <c r="N15" s="16">
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.73672180139004328</v>
+        <v>0.19853855217217412</v>
       </c>
       <c r="P15" s="19">
-        <v>0.16976569605864555</v>
+        <v>0.15821181625248168</v>
       </c>
       <c r="Q15" s="19">
-        <v>9.0683554379893485E-5</v>
+        <v>1.3644023113167324E-3</v>
       </c>
       <c r="R15" s="19">
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <v>9.0252248239117653E-3</v>
+        <v>0.51643948647548221</v>
       </c>
       <c r="T15" s="19">
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <v>8.4396594173019507E-2</v>
-      </c>
-      <c r="V15" s="19" t="str">
+        <v>0.12544574278854531</v>
+      </c>
+      <c r="V15" s="19">
         <f>IF(D15&lt;=J15,-(I15/D15-1),"")</f>
-        <v/>
+        <v>0.29898532047149518</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D16" s="20">
-        <v>10.039999999999999</v>
+        <v>5.81</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>24.115309374839001</v>
+        <v>8.8220280985924919</v>
       </c>
       <c r="G16" s="19">
-        <v>2.954445272802832E-2</v>
+        <v>8.2984133759792425E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>3.6756237955486979</v>
+        <v>5.3605540178310314</v>
       </c>
       <c r="I16" s="20">
-        <v>3.1242802262163933</v>
+        <v>4.0436666134740076</v>
       </c>
       <c r="J16" s="20">
-        <v>6.0901721719742383</v>
+        <v>11.443178591999368</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M16" s="16">
-        <v>45624</v>
+        <v>45605</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.69575137181535374</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P16" s="19">
-        <v>0.25490688505040687</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q16" s="19">
-        <v>6.6188436699916855E-3</v>
+        <v>9.1579398111554088E-3</v>
       </c>
       <c r="R16" s="19">
         <v>0</v>
       </c>
       <c r="S16" s="19">
-        <v>6.4552900576145354E-3</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="T16" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U16" s="19">
-        <v>3.6267609406633192E-2</v>
-      </c>
-      <c r="V16" s="19" t="str">
+        <v>4.9816835181438444E-2</v>
+      </c>
+      <c r="V16" s="19">
         <f>IF(D16&lt;=J16,-(I16/D16-1),"")</f>
-        <v/>
+        <v>0.30401607341239112</v>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="D17" s="20">
-        <v>3.73</v>
+        <v>1.95</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="26">
-        <v>8.9247565393365615</v>
+        <v>40.165221925943307</v>
       </c>
       <c r="G17" s="19">
-        <v>6.5201072386058975E-2</v>
+        <v>6.472459813060924E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>2.407309075614541</v>
+        <v>1.5229071610118017</v>
       </c>
       <c r="I17" s="20">
-        <v>2.0462127142723596</v>
+        <v>1.2944710868600313</v>
       </c>
       <c r="J17" s="20">
-        <v>4.3504215585871577</v>
-      </c>
-      <c r="K17" s="4" t="s">
+        <v>2.2004423765216998</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>47</v>
+      <c r="L17" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="M17" s="16">
-        <v>45619</v>
+        <v>45593</v>
       </c>
       <c r="N17" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.68375747988736812</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P17" s="19">
-        <v>0.21895053202218998</v>
+        <v>0.37949349616392825</v>
       </c>
       <c r="Q17" s="19">
-        <v>2.4257361073934199E-4</v>
+        <v>1.8148224946381651E-3</v>
       </c>
       <c r="R17" s="19">
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <v>3.7548526172941428E-3</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="T17" s="19">
-        <v>0</v>
+        <v>1.2789175437999239E-2</v>
       </c>
       <c r="U17" s="19">
-        <v>9.3294561862408407E-2</v>
+        <v>4.9862433731434744E-2</v>
       </c>
       <c r="V17" s="19">
         <f>IF(D17&lt;=J17,-(I17/D17-1),"")</f>
-        <v>0.45141750287604299</v>
+        <v>0.33616867340511214</v>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="D18" s="20">
-        <v>2.5</v>
+        <v>5.64</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>17.31195775008462</v>
+        <v>15.759498016886734</v>
       </c>
       <c r="G18" s="19">
-        <v>2.5737640380859378E-2</v>
+        <v>5.919391009542678E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>1.3778390947237986</v>
+        <v>4.3134240455859869</v>
       </c>
       <c r="I18" s="20">
-        <v>1.1711632305152289</v>
+        <v>3.6664104387480889</v>
       </c>
       <c r="J18" s="20">
-        <v>2.2829532560723895</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>65</v>
+        <v>6.7033346914712189</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="M18" s="16">
         <v>45605</v>
@@ -2014,10 +2026,10 @@
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.82154354610382485</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P18" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.43886385985236792</v>
       </c>
       <c r="Q18" s="19">
         <v>0</v>
@@ -2026,130 +2038,130 @@
         <v>0</v>
       </c>
       <c r="S18" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="T18" s="19">
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>6.6194720593479306E-2</v>
-      </c>
-      <c r="V18" s="19" t="str">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V18" s="19">
         <f>IF(D18&lt;=J18,-(I18/D18-1),"")</f>
-        <v/>
+        <v>0.34992722717232461</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D19" s="20">
-        <v>14.8</v>
+        <v>94.9</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="26">
-        <v>10.343819156289834</v>
+        <v>9.4764445487649613</v>
       </c>
       <c r="G19" s="19">
-        <v>7.4324324324324328E-2</v>
+        <v>7.1654373024236037E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>15.056238327651389</v>
+        <v>72.401819077447271</v>
       </c>
       <c r="I19" s="20">
-        <v>12.704594706192351</v>
+        <v>61.541546215830181</v>
       </c>
       <c r="J19" s="20">
-        <v>29.505546231349502</v>
+        <v>121.66075199437435</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M19" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N19" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.72762956087193742</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P19" s="19">
-        <v>0.16540000000000002</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q19" s="19">
         <v>0</v>
       </c>
       <c r="R19" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S19" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="T19" s="19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>7.3081874090513851E-2</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V19" s="19">
         <f>IF(D19&lt;=J19,-(I19/D19-1),"")</f>
-        <v>0.1415814387707871</v>
+        <v>0.35151163102391803</v>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D20" s="20">
-        <v>113.8</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>11.517868465426893</v>
+        <v>4.2101099970411768</v>
       </c>
       <c r="G20" s="19">
-        <v>1.6987576571834948E-2</v>
+        <v>7.0348837209302323E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>115.48154278091233</v>
+        <v>0.12804981076336494</v>
       </c>
       <c r="I20" s="20">
-        <v>98.159311363775487</v>
+        <v>0.1088423391488602</v>
       </c>
       <c r="J20" s="20">
-        <v>195.42102662351829</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>65</v>
+        <v>0.21516912791298859</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="M20" s="16">
-        <v>45625</v>
+        <v>45593</v>
       </c>
       <c r="N20" s="16">
         <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.60531106380837341</v>
+        <v>0.69931288683936033</v>
       </c>
       <c r="P20" s="19">
-        <v>0.31327931266495485</v>
+        <v>0.22200134640260258</v>
       </c>
       <c r="Q20" s="19">
         <v>0</v>
@@ -2158,937 +2170,937 @@
         <v>0</v>
       </c>
       <c r="S20" s="19">
-        <v>9.0344684898005026E-3</v>
+        <v>2.1205737325435711E-3</v>
       </c>
       <c r="T20" s="19">
         <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>7.2375155036871239E-2</v>
+        <v>7.6565193025493528E-2</v>
       </c>
       <c r="V20" s="19">
         <f>IF(D20&lt;=J20,-(I20/D20-1),"")</f>
-        <v>0.13744014618826461</v>
+        <v>0.3671957026229058</v>
       </c>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="D21" s="20">
-        <v>10.56</v>
+        <v>7.15</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>26.480536383483486</v>
+        <v>11.702620856241554</v>
       </c>
       <c r="G21" s="19">
-        <v>1.6248510341451628E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>1.3401048742743282</v>
+        <v>5.2346258041163747</v>
       </c>
       <c r="I21" s="20">
-        <v>1.1390891431331789</v>
+        <v>4.4494319334989187</v>
       </c>
       <c r="J21" s="20">
-        <v>2.2204311068821458</v>
+        <v>10.0844911158673</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M21" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N21" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O21" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.79501071628968012</v>
       </c>
       <c r="P21" s="19">
-        <v>0.2941332211490556</v>
+        <v>0.12234231416665901</v>
       </c>
       <c r="Q21" s="19">
-        <v>9.3403926661713623E-3</v>
+        <v>1.3233621247382252E-3</v>
       </c>
       <c r="R21" s="19">
         <v>0</v>
       </c>
       <c r="S21" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>6.4812855868203439E-3</v>
       </c>
       <c r="T21" s="19">
         <v>0</v>
       </c>
       <c r="U21" s="19">
-        <v>0.20774429762625654</v>
-      </c>
-      <c r="V21" s="19" t="str">
+        <v>7.4842321832102252E-2</v>
+      </c>
+      <c r="V21" s="19">
         <f>IF(D21&lt;=J21,-(I21/D21-1),"")</f>
-        <v/>
+        <v>0.37770182748266878</v>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D22" s="20">
-        <v>404.4</v>
+        <v>5.14</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>33.443300053038399</v>
+        <v>16.604808069939615</v>
       </c>
       <c r="G22" s="19">
-        <v>8.4075173095944609E-3</v>
+        <v>3.0778210116731521E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>71.785218292466311</v>
+        <v>3.5224273011569758</v>
       </c>
       <c r="I22" s="20">
-        <v>61.01743554859636</v>
+        <v>2.9940632059834291</v>
       </c>
       <c r="J22" s="20">
-        <v>133.72959981564372</v>
+        <v>5.8929728164823612</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M22" s="16">
-        <v>45624</v>
+        <v>45591</v>
       </c>
       <c r="N22" s="16">
         <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>0.51871628777616319</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P22" s="19">
-        <v>0.22616191719415779</v>
+        <v>0.21645682425674254</v>
       </c>
       <c r="Q22" s="19">
-        <v>6.2001756935379264E-3</v>
+        <v>1.0365594158118095E-3</v>
       </c>
       <c r="R22" s="19">
         <v>0</v>
       </c>
       <c r="S22" s="19">
-        <v>2.0144003021272054E-2</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="T22" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U22" s="19">
-        <v>0.22877761631486909</v>
-      </c>
-      <c r="V22" s="19" t="str">
+        <v>0.11237749163404374</v>
+      </c>
+      <c r="V22" s="19">
         <f>IF(D22&lt;=J22,-(I22/D22-1),"")</f>
-        <v/>
+        <v>0.41749743074252343</v>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D23" s="20">
-        <v>5.92</v>
+        <v>6.09</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>-11.868276518147056</v>
+        <v>3.6910474265242059</v>
       </c>
       <c r="G23" s="19">
-        <v>2.8657761178575124E-2</v>
+        <v>7.0372241144958075E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>0</v>
+        <v>4.1578724734244297</v>
       </c>
       <c r="I23" s="20">
-        <v>0</v>
+        <v>3.5341916024107651</v>
       </c>
       <c r="J23" s="20">
-        <v>0</v>
+        <v>6.7933545331506764</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M23" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P23" s="19">
-        <v>0.14930937614307849</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q23" s="19">
-        <v>7.2128562067984476E-4</v>
+        <v>0</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>0</v>
       </c>
       <c r="T23" s="19">
-        <v>2.8284501268352451E-2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>-4.5622430706520396E-2</v>
-      </c>
-      <c r="V23" s="19" t="str">
+        <v>0.36602055622301682</v>
+      </c>
+      <c r="V23" s="19">
         <f>IF(D23&lt;=J23,-(I23/D23-1),"")</f>
-        <v/>
+        <v>0.41967297168952955</v>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="D24" s="20">
-        <v>6.5</v>
+        <v>5.78</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>22.608134486129014</v>
+        <v>5.0354202099906624</v>
       </c>
       <c r="G24" s="19">
-        <v>0</v>
+        <v>6.9512372714012963E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>2.4205602346882547</v>
+        <v>3.882373541103858</v>
       </c>
       <c r="I24" s="20">
-        <v>2.0574761994850164</v>
+        <v>3.3000175099382791</v>
       </c>
       <c r="J24" s="20">
-        <v>4.0874851408251445</v>
+        <v>6.3432296356891857</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="M24" s="16">
-        <v>45624</v>
+        <v>45606</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>0</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P24" s="19">
-        <v>0.73743481563190261</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q24" s="19">
-        <v>7.0138335341758879E-4</v>
+        <v>1.3780163008283218E-3</v>
       </c>
       <c r="R24" s="19">
         <v>0</v>
       </c>
       <c r="S24" s="19">
-        <v>5.3167363129601151E-3</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="T24" s="19">
-        <v>0.22719184534497058</v>
+        <v>0</v>
       </c>
       <c r="U24" s="19">
-        <v>2.9355219356749174E-2</v>
-      </c>
-      <c r="V24" s="19" t="str">
+        <v>0.20923165729470938</v>
+      </c>
+      <c r="V24" s="19">
         <f>IF(D24&lt;=J24,-(I24/D24-1),"")</f>
-        <v/>
+        <v>0.42906271454355038</v>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D25" s="20">
-        <v>1.02</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>19.118688736956933</v>
+        <v>3.9273827301401329</v>
       </c>
       <c r="G25" s="19">
-        <v>5.0770860048680526E-2</v>
+        <v>6.9404288077539247E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>0.49603420017745437</v>
+        <v>3.170555444695538</v>
       </c>
       <c r="I25" s="20">
-        <v>0.42162907015083623</v>
+        <v>2.6949721279912073</v>
       </c>
       <c r="J25" s="20">
-        <v>0.82188326398547173</v>
+        <v>5.1802231406796082</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="M25" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N25" s="16">
         <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>0.69462498271442097</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P25" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q25" s="19">
-        <v>0</v>
+        <v>9.7044800044936142E-4</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="T25" s="19">
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <v>0.12419023710495804</v>
-      </c>
-      <c r="V25" s="19" t="str">
+        <v>0.34620797227785238</v>
+      </c>
+      <c r="V25" s="19">
         <f>IF(D25&lt;=J25,-(I25/D25-1),"")</f>
-        <v/>
+        <v>0.43023845074181666</v>
       </c>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D26" s="20">
-        <v>9.8800000000000008</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>11.164941234946083</v>
+        <v>17.599452645060317</v>
       </c>
       <c r="G26" s="19">
-        <v>6.404018144697636E-2</v>
+        <v>6.449830050485722E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>6.2181522106307305</v>
+        <v>48.87849333703074</v>
       </c>
       <c r="I26" s="20">
-        <v>5.2854293790361204</v>
+        <v>41.54671933647613</v>
       </c>
       <c r="J26" s="20">
-        <v>10.302909019183284</v>
-      </c>
-      <c r="K26" s="6" t="s">
+        <v>82.13321614715484</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>85</v>
+      <c r="L26" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="M26" s="16">
-        <v>45604</v>
+        <v>45593</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>0.6223905170283478</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P26" s="19">
-        <v>0.25619685036829964</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q26" s="19">
-        <v>5.5277235668845723E-3</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="R26" s="19">
         <v>0</v>
       </c>
       <c r="S26" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="T26" s="19">
         <v>0</v>
       </c>
       <c r="U26" s="19">
-        <v>0.11437878179622009</v>
+        <v>0.10980570587494648</v>
       </c>
       <c r="V26" s="19">
         <f>IF(D26&lt;=J26,-(I26/D26-1),"")</f>
-        <v>0.46503751224330769</v>
+        <v>0.43550653075440038</v>
       </c>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D27" s="20">
-        <v>0.435</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="26">
-        <v>-2.4361588075127969</v>
+        <v>7.8395803503861314</v>
       </c>
       <c r="G27" s="19">
-        <v>0.13793103448275862</v>
+        <v>6.8373621296276096E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>0.44121680782861067</v>
+        <v>3.3581768756438528</v>
       </c>
       <c r="I27" s="20">
-        <v>0.37503428665431904</v>
+        <v>2.8544503442972746</v>
       </c>
       <c r="J27" s="20">
-        <v>0.74663915525442981</v>
+        <v>5.4867690741096462</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M27" s="16">
-        <v>45624</v>
+        <v>45606</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.46570281556597115</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P27" s="19">
-        <v>0.49096154234108225</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q27" s="19">
-        <v>0</v>
+        <v>3.9320610522022457E-3</v>
       </c>
       <c r="R27" s="19">
-        <v>3.9525516276755275E-2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="19">
-        <v>0</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="T27" s="19">
-        <v>0.11560295610891069</v>
+        <v>0</v>
       </c>
       <c r="U27" s="19">
-        <v>-0.11179283029271934</v>
+        <v>0.12232431421528413</v>
       </c>
       <c r="V27" s="19">
         <f>IF(D27&lt;=J27,-(I27/D27-1),"")</f>
-        <v>0.1378522145877723</v>
+        <v>0.44139914984397766</v>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D28" s="20">
-        <v>5.63</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>8.5408657607927339</v>
+        <v>14.819080507908442</v>
       </c>
       <c r="G28" s="19">
-        <v>8.5715942653838958E-2</v>
+        <v>3.6970513001881512E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>5.7501684175531516</v>
+        <v>3.1390136769419312</v>
       </c>
       <c r="I28" s="20">
-        <v>4.3411347406839624</v>
+        <v>2.6681616254006415</v>
       </c>
       <c r="J28" s="20">
-        <v>12.421280311485614</v>
+        <v>5.1286885127365647</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="M28" s="16">
-        <v>45605</v>
+        <v>45625</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>0.86263355974668987</v>
+        <v>0.49786034237394394</v>
       </c>
       <c r="P28" s="19">
-        <v>5.04E-2</v>
+        <v>0.33448624066316274</v>
       </c>
       <c r="Q28" s="19">
-        <v>9.1579398111554088E-3</v>
+        <v>6.0164745032668145E-3</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
       </c>
       <c r="S28" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>2.063358175126364E-2</v>
       </c>
       <c r="T28" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U28" s="19">
-        <v>4.9816835181438444E-2</v>
+        <v>0.14100336070836289</v>
       </c>
       <c r="V28" s="19">
         <f>IF(D28&lt;=J28,-(I28/D28-1),"")</f>
-        <v>0.22892811000284863</v>
+        <v>0.45099555032908611</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D29" s="20">
-        <v>0.17399999999999999</v>
+        <v>72.5</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="26">
-        <v>4.2590647644486328</v>
+        <v>23.607212298385896</v>
       </c>
       <c r="G29" s="19">
-        <v>6.9540229885057481E-2</v>
+        <v>6.7211120072726546E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>0.13053352862276091</v>
+        <v>46.581036767774023</v>
       </c>
       <c r="I29" s="20">
-        <v>0.11095349932934677</v>
+        <v>39.593881252607922</v>
       </c>
       <c r="J29" s="20">
-        <v>0.22089240893365228</v>
+        <v>76.106590403575879</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M29" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N29" s="16">
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>0.69931288683936033</v>
+        <v>0</v>
       </c>
       <c r="P29" s="19">
-        <v>0.22200134640260258</v>
+        <v>0.8668930922046667</v>
       </c>
       <c r="Q29" s="19">
-        <v>0</v>
+        <v>2.2325505205376484E-4</v>
       </c>
       <c r="R29" s="19">
-        <v>0</v>
+        <v>2.2215198715160572E-2</v>
       </c>
       <c r="S29" s="19">
-        <v>2.1205737325435711E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="T29" s="19">
-        <v>0</v>
+        <v>2.5630406545468234E-2</v>
       </c>
       <c r="U29" s="19">
-        <v>7.6565193025493528E-2</v>
+        <v>8.1342449801464822E-2</v>
       </c>
       <c r="V29" s="19">
         <f>IF(D29&lt;=J29,-(I29/D29-1),"")</f>
-        <v>0.36233621075088063</v>
+        <v>0.45387749996402871</v>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="D30" s="20">
-        <v>6.03</v>
+        <v>3.73</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>3.6513279523786024</v>
+        <v>8.9247565393365615</v>
       </c>
       <c r="G30" s="19">
-        <v>7.1137756718793188E-2</v>
+        <v>6.5201072386058975E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>4.3581866499143267</v>
+        <v>2.3525975057142103</v>
       </c>
       <c r="I30" s="20">
-        <v>3.7044586524271774</v>
+        <v>1.9997078798570787</v>
       </c>
       <c r="J30" s="20">
-        <v>7.2211163415911166</v>
-      </c>
-      <c r="K30" s="8" t="s">
+        <v>4.2217200096771643</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>26</v>
+      <c r="L30" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="M30" s="16">
-        <v>45605</v>
+        <v>45619</v>
       </c>
       <c r="N30" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O30" s="19">
-        <v>0.47700776116848903</v>
+        <v>0.68375747988736812</v>
       </c>
       <c r="P30" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.21895053202218998</v>
       </c>
       <c r="Q30" s="19">
-        <v>0</v>
+        <v>2.4257361073934199E-4</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <v>0</v>
+        <v>3.7548526172941428E-3</v>
       </c>
       <c r="T30" s="19">
         <v>0</v>
       </c>
       <c r="U30" s="19">
-        <v>0.36602055622301682</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="V30" s="19">
         <f>IF(D30&lt;=J30,-(I30/D30-1),"")</f>
-        <v>0.38566191502036862</v>
+        <v>0.46388528690158748</v>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="D31" s="20">
-        <v>72.25</v>
+        <v>24.55</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>23.504214796687609</v>
+        <v>8.0272942093620205</v>
       </c>
       <c r="G31" s="19">
-        <v>6.7505645012773036E-2</v>
+        <v>6.0285132382892057E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>48.718123448562785</v>
+        <v>14.939702054267014</v>
       </c>
       <c r="I31" s="20">
-        <v>41.410404931278364</v>
+        <v>12.698746746126963</v>
       </c>
       <c r="J31" s="20">
-        <v>80.721471021206895</v>
+        <v>25.104001662579602</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="M31" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N31" s="16">
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>0</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P31" s="19">
-        <v>0.8668930922046667</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q31" s="19">
-        <v>2.2325505205376484E-4</v>
+        <v>1.9313252769435827E-2</v>
       </c>
       <c r="R31" s="19">
-        <v>2.2215198715160572E-2</v>
+        <v>0</v>
       </c>
       <c r="S31" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="T31" s="19">
-        <v>2.5630406545468234E-2</v>
+        <v>0</v>
       </c>
       <c r="U31" s="19">
-        <v>8.1342449801464822E-2</v>
+        <v>0.29263922070029547</v>
       </c>
       <c r="V31" s="19">
         <f>IF(D31&lt;=J31,-(I31/D31-1),"")</f>
-        <v>0.4268456064874967</v>
+        <v>0.48273944007629477</v>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D32" s="20">
-        <v>5.05</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>7.7404193602471736</v>
+        <v>14.902877086289459</v>
       </c>
       <c r="G32" s="19">
-        <v>6.9249542311866683E-2</v>
+        <v>4.8138639281129651E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.5218054253178903</v>
+        <v>15.449913828713395</v>
       </c>
       <c r="I32" s="20">
-        <v>2.9935346115202068</v>
+        <v>12.831493250701001</v>
       </c>
       <c r="J32" s="20">
-        <v>5.8353092126440247</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>26</v>
+        <v>49.673984264023446</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="M32" s="16">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="N32" s="16">
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.54949235029228316</v>
       </c>
       <c r="P32" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.10108242664951193</v>
       </c>
       <c r="Q32" s="19">
-        <v>3.9320610522022457E-3</v>
+        <v>1.0218987976510586E-2</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
       </c>
       <c r="S32" s="19">
-        <v>0.49099920776112166</v>
+        <v>5.6582664391799292E-2</v>
       </c>
       <c r="T32" s="19">
-        <v>0</v>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="U32" s="19">
-        <v>0.12232431421528413</v>
-      </c>
-      <c r="V32" s="19">
+        <v>0.27690377095281005</v>
+      </c>
+      <c r="V32" s="19" t="str">
         <f>IF(D32&lt;=J32,-(I32/D32-1),"")</f>
-        <v>0.4072208690058996</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D33" s="20">
-        <v>4.8600000000000003</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>14.805478715100866</v>
+        <v>32.647425857139645</v>
       </c>
       <c r="G33" s="19">
-        <v>3.7004477810957802E-2</v>
+        <v>1.4064697609001408E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>3.2794538399795741</v>
+        <v>9.5383230279009403</v>
       </c>
       <c r="I33" s="20">
-        <v>2.7875357639826377</v>
+        <v>8.1075745737157998</v>
       </c>
       <c r="J33" s="20">
-        <v>5.4337548199859143</v>
+        <v>16.027767908681671</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M33" s="16">
-        <v>45625</v>
+        <v>45603</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>0.49786034237394394</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P33" s="19">
-        <v>0.33448624066316274</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q33" s="19">
-        <v>6.0164745032668145E-3</v>
+        <v>1.6858097812807804E-3</v>
       </c>
       <c r="R33" s="19">
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <v>2.063358175126364E-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="19">
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <v>0.14100336070836289</v>
-      </c>
-      <c r="V33" s="19">
+        <v>0.17445779619528262</v>
+      </c>
+      <c r="V33" s="19" t="str">
         <f>IF(D33&lt;=J33,-(I33/D33-1),"")</f>
-        <v>0.4264329703739429</v>
+        <v/>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D34" s="20">
-        <v>4.05</v>
+        <v>5.57</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>6.6954077328394455</v>
+        <v>-44.346898514428986</v>
       </c>
       <c r="G34" s="19">
-        <v>6.1140135431485908E-2</v>
+        <v>3.5824195682580835E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>2.4005283139353391</v>
+        <v>1.7923745284423886</v>
       </c>
       <c r="I34" s="20">
-        <v>2.0404490668450381</v>
+        <v>1.5235183491760302</v>
       </c>
       <c r="J34" s="20">
-        <v>3.9774556779369252</v>
+        <v>3.0118253348386927</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M34" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N34" s="16">
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P34" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q34" s="19">
-        <v>4.6925281602255647E-4</v>
+        <v>1.0703282304304319E-2</v>
       </c>
       <c r="R34" s="19">
         <v>0</v>
       </c>
       <c r="S34" s="19">
-        <v>0.49449639261897682</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="T34" s="19">
         <v>0</v>
       </c>
       <c r="U34" s="19">
-        <v>0.19964406567112258</v>
+        <v>-3.5319141001935742E-2</v>
       </c>
       <c r="V34" s="19" t="str">
         <f>IF(D34&lt;=J34,-(I34/D34-1),"")</f>
@@ -3097,85 +3109,85 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="D35" s="20">
-        <v>4.72</v>
+        <v>7.11</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>3.9154824418138658</v>
+        <v>29.830208663871169</v>
       </c>
       <c r="G35" s="19">
-        <v>6.96152278663075E-2</v>
+        <v>6.3968589897732533E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>3.3147123118036568</v>
+        <v>1.9408522499422558</v>
       </c>
       <c r="I35" s="20">
-        <v>2.8175054650331082</v>
+        <v>1.6497244124509174</v>
       </c>
       <c r="J35" s="20">
-        <v>5.4921748803276209</v>
+        <v>3.1710682601724467</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M35" s="16">
-        <v>45605</v>
+        <v>45624</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.69530102386843873</v>
       </c>
       <c r="P35" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.25685454836897598</v>
       </c>
       <c r="Q35" s="19">
-        <v>9.7044800044936142E-4</v>
+        <v>0</v>
       </c>
       <c r="R35" s="19">
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <v>0.48610500800425166</v>
+        <v>2.0677989446499247E-3</v>
       </c>
       <c r="T35" s="19">
-        <v>0</v>
+        <v>9.6644881579416319E-4</v>
       </c>
       <c r="U35" s="19">
-        <v>0.34620797227785238</v>
-      </c>
-      <c r="V35" s="19">
+        <v>4.4810180002141216E-2</v>
+      </c>
+      <c r="V35" s="19" t="str">
         <f>IF(D35&lt;=J35,-(I35/D35-1),"")</f>
-        <v>0.40307087605230751</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="D36" s="20">
-        <v>79.25</v>
+        <v>8.98</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>-97.947190959946425</v>
+        <v>-63.887002187738524</v>
       </c>
       <c r="G36" s="19">
         <v>0</v>
@@ -3193,7 +3205,7 @@
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M36" s="16">
         <v>45603</v>
@@ -3202,10 +3214,10 @@
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>0.8448760372568398</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P36" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.74823479113580682</v>
       </c>
       <c r="Q36" s="19">
         <v>0</v>
@@ -3214,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="S36" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="T36" s="19">
         <v>0</v>
       </c>
       <c r="U36" s="19">
-        <v>-4.3026634739724949E-2</v>
+        <v>-0.11044830732057855</v>
       </c>
       <c r="V36" s="19" t="str">
         <f>IF(D36&lt;=J36,-(I36/D36-1),"")</f>
@@ -3229,196 +3241,196 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D37" s="20">
-        <v>5.17</v>
+        <v>74.3</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="26">
-        <v>16.701723292137707</v>
+        <v>22.443616237040231</v>
       </c>
       <c r="G37" s="19">
-        <v>3.0599613152804645E-2</v>
+        <v>0</v>
       </c>
       <c r="H37" s="20">
-        <v>3.6288827741077334</v>
+        <v>28.427137399319701</v>
       </c>
       <c r="I37" s="20">
-        <v>3.0845503579915734</v>
+        <v>24.163066789421745</v>
       </c>
       <c r="J37" s="20">
-        <v>6.1566912041182178</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>53</v>
+        <v>46.445778207602238</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="M37" s="16">
-        <v>45591</v>
+        <v>45625</v>
       </c>
       <c r="N37" s="16">
         <v>45716</v>
       </c>
       <c r="O37" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.73672180139004328</v>
       </c>
       <c r="P37" s="19">
-        <v>0.21645682425674254</v>
+        <v>0.16976569605864555</v>
       </c>
       <c r="Q37" s="19">
-        <v>1.0365594158118095E-3</v>
+        <v>9.0683554379893485E-5</v>
       </c>
       <c r="R37" s="19">
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>9.0252248239117653E-3</v>
       </c>
       <c r="T37" s="19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U37" s="19">
-        <v>0.11237749163404374</v>
-      </c>
-      <c r="V37" s="19">
+        <v>8.4396594173019507E-2</v>
+      </c>
+      <c r="V37" s="19" t="str">
         <f>IF(D37&lt;=J37,-(I37/D37-1),"")</f>
-        <v>0.40337517253547905</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="4" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D38" s="20">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>9.477140749988509</v>
+        <v>24.041298913114371</v>
       </c>
       <c r="G38" s="19">
-        <v>6.2199297587076825E-2</v>
+        <v>2.9635404493808748E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>2.7270289661635818</v>
+        <v>3.5213970354466726</v>
       </c>
       <c r="I38" s="20">
-        <v>2.3179746212390446</v>
+        <v>2.9931874801296718</v>
       </c>
       <c r="J38" s="20">
-        <v>4.5184373716401698</v>
+        <v>5.7534469050400503</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M38" s="16">
-        <v>45606</v>
+        <v>45624</v>
       </c>
       <c r="N38" s="16">
         <v>45716</v>
       </c>
       <c r="O38" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>0.69575137181535374</v>
       </c>
       <c r="P38" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.25490688505040687</v>
       </c>
       <c r="Q38" s="19">
-        <v>3.7371996362297238E-4</v>
+        <v>6.6188436699916855E-3</v>
       </c>
       <c r="R38" s="19">
         <v>0</v>
       </c>
       <c r="S38" s="19">
-        <v>0.39408770164042439</v>
+        <v>6.4552900576145354E-3</v>
       </c>
       <c r="T38" s="19">
         <v>0</v>
       </c>
       <c r="U38" s="19">
-        <v>0.10654780430421051</v>
-      </c>
-      <c r="V38" s="19">
+        <v>3.6267609406633192E-2</v>
+      </c>
+      <c r="V38" s="19" t="str">
         <f>IF(D38&lt;=J38,-(I38/D38-1),"")</f>
-        <v>0.48489452861354565</v>
+        <v/>
       </c>
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="4" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="D39" s="20">
-        <v>4.72</v>
+        <v>2.5</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>13.034395317187565</v>
+        <v>17.327862245099023</v>
       </c>
       <c r="G39" s="19">
-        <v>4.5440749259991843E-2</v>
+        <v>2.5714016914367678E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>1.9299511216312457</v>
+        <v>1.3188865828745011</v>
       </c>
       <c r="I39" s="20">
-        <v>1.6404584533865587</v>
+        <v>1.1210535954433258</v>
       </c>
       <c r="J39" s="20">
-        <v>3.1977523457278849</v>
+        <v>2.15486747218654</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="M39" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N39" s="16">
         <v>45716</v>
       </c>
       <c r="O39" s="19">
-        <v>0.78463553343209413</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P39" s="19">
-        <v>0.16010732347610457</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q39" s="19">
-        <v>1.2515926965280349E-5</v>
+        <v>0</v>
       </c>
       <c r="R39" s="19">
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <v>0</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="T39" s="19">
-        <v>8.8200573996119572E-5</v>
+        <v>0</v>
       </c>
       <c r="U39" s="19">
-        <v>5.5156426590839844E-2</v>
+        <v>6.6194720593479306E-2</v>
       </c>
       <c r="V39" s="19" t="str">
         <f>IF(D39&lt;=J39,-(I39/D39-1),"")</f>
@@ -3427,313 +3439,313 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="4" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="D40" s="20">
-        <v>14.4</v>
+        <v>10.54</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>12.013644775376948</v>
+        <v>26.454665445228265</v>
       </c>
       <c r="G40" s="19">
-        <v>7.1527777777777773E-2</v>
+        <v>1.6264400325343251E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>12.881612205882261</v>
+        <v>1.2831887124073702</v>
       </c>
       <c r="I40" s="20">
-        <v>10.949370374999921</v>
+        <v>1.0907104055462646</v>
       </c>
       <c r="J40" s="20">
-        <v>21.343652275141672</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>65</v>
+        <v>2.0965423812387698</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="M40" s="16">
-        <v>45624</v>
+        <v>45603</v>
       </c>
       <c r="N40" s="16">
         <v>45716</v>
       </c>
       <c r="O40" s="19">
-        <v>0.75431095413462357</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P40" s="19">
-        <v>0.13135421474946254</v>
+        <v>0.2941332211490556</v>
       </c>
       <c r="Q40" s="19">
-        <v>7.2979774463912414E-4</v>
+        <v>9.3403926661713623E-3</v>
       </c>
       <c r="R40" s="19">
         <v>0</v>
       </c>
       <c r="S40" s="19">
-        <v>6.3176187869769956E-4</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="T40" s="19">
         <v>0</v>
       </c>
       <c r="U40" s="19">
-        <v>0.11297327149257705</v>
-      </c>
-      <c r="V40" s="19">
+        <v>0.20774429762625654</v>
+      </c>
+      <c r="V40" s="19" t="str">
         <f>IF(D40&lt;=J40,-(I40/D40-1),"")</f>
-        <v>0.23962705729167222</v>
+        <v/>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="4" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D41" s="20">
-        <v>21.7</v>
+        <v>403.2</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>12.185860872455033</v>
+        <v>33.374694962401975</v>
       </c>
       <c r="G41" s="19">
-        <v>3.6796772253678146E-2</v>
+        <v>8.4325396825396821E-3</v>
       </c>
       <c r="H41" s="20">
-        <v>18.6320023352677</v>
+        <v>67.605234663822102</v>
       </c>
       <c r="I41" s="20">
-        <v>15.837201984977545</v>
+        <v>57.464449464248787</v>
       </c>
       <c r="J41" s="20">
-        <v>32.467522797247838</v>
+        <v>124.53064514951041</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="M41" s="16">
-        <v>45591</v>
+        <v>45624</v>
       </c>
       <c r="N41" s="16">
         <v>45716</v>
       </c>
       <c r="O41" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.51871628777616319</v>
       </c>
       <c r="P41" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.22616191719415779</v>
       </c>
       <c r="Q41" s="19">
-        <v>1.2057353899630675E-2</v>
+        <v>6.2001756935379264E-3</v>
       </c>
       <c r="R41" s="19">
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>2.0144003021272054E-2</v>
       </c>
       <c r="T41" s="19">
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <v>0.12114381924831638</v>
-      </c>
-      <c r="V41" s="19">
+        <v>0.22877761631486909</v>
+      </c>
+      <c r="V41" s="19" t="str">
         <f>IF(D41&lt;=J41,-(I41/D41-1),"")</f>
-        <v>0.27017502373375368</v>
+        <v/>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D42" s="20">
-        <v>7.19</v>
+        <v>5.8</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="26">
-        <v>11.768090063828918</v>
+        <v>-11.638385716162158</v>
       </c>
       <c r="G42" s="19">
-        <v>7.6495132127955501E-2</v>
+        <v>2.9223832441472461E-2</v>
       </c>
       <c r="H42" s="20">
-        <v>5.3465817257204709</v>
+        <v>0</v>
       </c>
       <c r="I42" s="20">
-        <v>4.5445944668624003</v>
+        <v>0</v>
       </c>
       <c r="J42" s="20">
-        <v>10.371291426900095</v>
+        <v>0</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M42" s="16">
         <v>45593</v>
       </c>
       <c r="N42" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O42" s="19">
-        <v>0.79501071628968012</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P42" s="19">
-        <v>0.12234231416665901</v>
+        <v>0.14930937614307849</v>
       </c>
       <c r="Q42" s="19">
-        <v>1.3233621247382252E-3</v>
+        <v>7.2128562067984476E-4</v>
       </c>
       <c r="R42" s="19">
         <v>0</v>
       </c>
       <c r="S42" s="19">
-        <v>6.4812855868203439E-3</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="T42" s="19">
-        <v>0</v>
+        <v>2.8284501268352451E-2</v>
       </c>
       <c r="U42" s="19">
-        <v>7.4842321832102252E-2</v>
-      </c>
-      <c r="V42" s="19">
+        <v>-4.5622430706520396E-2</v>
+      </c>
+      <c r="V42" s="19" t="str">
         <f>IF(D42&lt;=J42,-(I42/D42-1),"")</f>
-        <v>0.36792844688979132</v>
+        <v/>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="4" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D43" s="20">
-        <v>24.45</v>
+        <v>6.6</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="26">
-        <v>7.9945964732750063</v>
+        <v>22.977041572052201</v>
       </c>
       <c r="G43" s="19">
-        <v>6.0531697341513292E-2</v>
+        <v>0</v>
       </c>
       <c r="H43" s="20">
-        <v>15.304920059618324</v>
+        <v>2.3029014347353458</v>
       </c>
       <c r="I43" s="20">
-        <v>13.009182050675575</v>
+        <v>1.9574662195250438</v>
       </c>
       <c r="J43" s="20">
-        <v>25.899404514500915</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>26</v>
+        <v>3.8358799510594168</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="M43" s="16">
-        <v>45593</v>
+        <v>45624</v>
       </c>
       <c r="N43" s="16">
         <v>45716</v>
       </c>
       <c r="O43" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0</v>
       </c>
       <c r="P43" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.73743481563190261</v>
       </c>
       <c r="Q43" s="19">
-        <v>1.9313252769435827E-2</v>
+        <v>7.0138335341758879E-4</v>
       </c>
       <c r="R43" s="19">
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <v>0.54295694135635775</v>
+        <v>5.3167363129601151E-3</v>
       </c>
       <c r="T43" s="19">
-        <v>0</v>
+        <v>0.22719184534497058</v>
       </c>
       <c r="U43" s="19">
-        <v>0.29263922070029547</v>
-      </c>
-      <c r="V43" s="19">
+        <v>2.9355219356749174E-2</v>
+      </c>
+      <c r="V43" s="19" t="str">
         <f>IF(D43&lt;=J43,-(I43/D43-1),"")</f>
-        <v>0.46792711449179647</v>
+        <v/>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="4" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D44" s="20">
-        <v>96.8</v>
+        <v>1.03</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>6.6963248357279683</v>
+        <v>19.323863399940695</v>
       </c>
       <c r="G44" s="19">
-        <v>2.4119483045310027E-2</v>
+        <v>5.023179113247634E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>20.274379796758861</v>
+        <v>0.47367788626703677</v>
       </c>
       <c r="I44" s="20">
-        <v>17.233222827245033</v>
+        <v>0.40262620332698124</v>
       </c>
       <c r="J44" s="20">
-        <v>34.308860261369929</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>26</v>
+        <v>0.77392027689468057</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="M44" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N44" s="16">
         <v>45716</v>
       </c>
       <c r="O44" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P44" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q44" s="19">
         <v>0</v>
@@ -3742,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="S44" s="19">
-        <v>0.50814791601378884</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="T44" s="19">
         <v>0</v>
       </c>
       <c r="U44" s="19">
-        <v>0.15564608795570867</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V44" s="19" t="str">
         <f>IF(D44&lt;=J44,-(I44/D44-1),"")</f>
@@ -3757,97 +3769,97 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="D45" s="20">
-        <v>5.75</v>
+        <v>9.94</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>5.0046870051901555</v>
+        <v>11.243064043819926</v>
       </c>
       <c r="G45" s="19">
-        <v>6.9939240165378738E-2</v>
+        <v>6.3595196091033424E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>4.0629926811664818</v>
+        <v>5.9411543097891633</v>
       </c>
       <c r="I45" s="20">
-        <v>3.4535437789915093</v>
+        <v>5.0499811633207887</v>
       </c>
       <c r="J45" s="20">
-        <v>6.7320069566807419</v>
+        <v>9.7069758200912393</v>
       </c>
       <c r="K45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="M45" s="16">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="N45" s="16">
         <v>45716</v>
       </c>
       <c r="O45" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P45" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.25619685036829964</v>
       </c>
       <c r="Q45" s="19">
-        <v>1.3780163008283218E-3</v>
+        <v>5.5277235668845723E-3</v>
       </c>
       <c r="R45" s="19">
         <v>0</v>
       </c>
       <c r="S45" s="19">
-        <v>0.583299310268654</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="T45" s="19">
         <v>0</v>
       </c>
       <c r="U45" s="19">
-        <v>0.20923165729470938</v>
-      </c>
-      <c r="V45" s="19">
+        <v>0.11437878179622009</v>
+      </c>
+      <c r="V45" s="19" t="str">
         <f>IF(D45&lt;=J45,-(I45/D45-1),"")</f>
-        <v>0.39938369061017231</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="4" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D46" s="20">
-        <v>36.299999999999997</v>
+        <v>4.08</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>6.4703815993439164</v>
+        <v>6.7511999800266507</v>
       </c>
       <c r="G46" s="19">
-        <v>5.8258295260622921E-2</v>
+        <v>6.0634870358736687E-2</v>
       </c>
       <c r="H46" s="20">
-        <v>20.224812865054297</v>
+        <v>2.292928036173933</v>
       </c>
       <c r="I46" s="20">
-        <v>17.191090935296153</v>
+        <v>1.9489888307478431</v>
       </c>
       <c r="J46" s="20">
-        <v>33.510663589485503</v>
+        <v>3.7463085191502987</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>15</v>
@@ -3856,31 +3868,31 @@
         <v>26</v>
       </c>
       <c r="M46" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N46" s="16">
         <v>45716</v>
       </c>
       <c r="O46" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P46" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q46" s="19">
-        <v>3.9962087250557162E-3</v>
+        <v>4.6925281602255647E-4</v>
       </c>
       <c r="R46" s="19">
         <v>0</v>
       </c>
       <c r="S46" s="19">
-        <v>0.34356507928375646</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="T46" s="19">
         <v>0</v>
       </c>
       <c r="U46" s="19">
-        <v>0.37552834490355302</v>
+        <v>0.19964406567112258</v>
       </c>
       <c r="V46" s="19" t="str">
         <f>IF(D46&lt;=J46,-(I46/D46-1),"")</f>
@@ -3889,49 +3901,49 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D47" s="20">
-        <v>3.71</v>
+        <v>78.95</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>4.0301130365478484</v>
+        <v>-97.666056397364471</v>
       </c>
       <c r="G47" s="19">
-        <v>8.6717117186183884E-2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="20">
-        <v>3.5133627137660683</v>
+        <v>0</v>
       </c>
       <c r="I47" s="20">
-        <v>2.9863583067011579</v>
+        <v>0</v>
       </c>
       <c r="J47" s="20">
-        <v>5.8213204124269895</v>
+        <v>0</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M47" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N47" s="16">
         <v>45716</v>
       </c>
       <c r="O47" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P47" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q47" s="19">
         <v>0</v>
@@ -3940,79 +3952,79 @@
         <v>0</v>
       </c>
       <c r="S47" s="19">
-        <v>0</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="T47" s="19">
-        <v>0.49757189674208302</v>
+        <v>0</v>
       </c>
       <c r="U47" s="19">
-        <v>0.29524894411244107</v>
-      </c>
-      <c r="V47" s="19">
+        <v>-4.3026634739724949E-2</v>
+      </c>
+      <c r="V47" s="19" t="str">
         <f>IF(D47&lt;=J47,-(I47/D47-1),"")</f>
-        <v>0.19505166935278762</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="4" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="D48" s="20">
-        <v>205.2</v>
+        <v>4.49</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>77.238355104881776</v>
+        <v>9.4647677379967501</v>
       </c>
       <c r="G48" s="19">
-        <v>0</v>
+        <v>6.2280608896157802E-2</v>
       </c>
       <c r="H48" s="20">
-        <v>0</v>
+        <v>2.6120035441506539</v>
       </c>
       <c r="I48" s="20">
-        <v>0</v>
+        <v>2.2202030125280556</v>
       </c>
       <c r="J48" s="20">
-        <v>0</v>
+        <v>4.2676311576836978</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M48" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N48" s="16">
         <v>45716</v>
       </c>
       <c r="O48" s="19">
-        <v>0.58108816177312361</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P48" s="19">
-        <v>0.23828361372817153</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q48" s="19">
-        <v>0</v>
+        <v>3.7371996362297238E-4</v>
       </c>
       <c r="R48" s="19">
         <v>0</v>
       </c>
       <c r="S48" s="19">
-        <v>5.7183940942846252E-3</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="T48" s="19">
         <v>0</v>
       </c>
       <c r="U48" s="19">
-        <v>0.17490983040442024</v>
+        <v>0.10654780430421051</v>
       </c>
       <c r="V48" s="19" t="str">
         <f>IF(D48&lt;=J48,-(I48/D48-1),"")</f>
@@ -4021,163 +4033,163 @@
     </row>
     <row r="49" spans="2:22">
       <c r="B49" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D49" s="20">
-        <v>5.67</v>
+        <v>4.7</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="26">
-        <v>15.828783231364895</v>
+        <v>12.991088786855618</v>
       </c>
       <c r="G49" s="19">
-        <v>5.8934808514666231E-2</v>
+        <v>4.5592228571573898E-2</v>
       </c>
       <c r="H49" s="20">
-        <v>4.4577736494035518</v>
+        <v>1.8491779846597585</v>
       </c>
       <c r="I49" s="20">
-        <v>3.789107601993019</v>
+        <v>1.5718012869607947</v>
       </c>
       <c r="J49" s="20">
-        <v>7.0203307653364488</v>
-      </c>
-      <c r="K49" s="6" t="s">
+        <v>3.0212859401011452</v>
+      </c>
+      <c r="K49" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>53</v>
+      <c r="L49" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="M49" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N49" s="16">
         <v>45716</v>
       </c>
       <c r="O49" s="19">
-        <v>0.35166796085418528</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P49" s="19">
-        <v>0.43886385985236792</v>
+        <v>0.16010732347610457</v>
       </c>
       <c r="Q49" s="19">
-        <v>0</v>
+        <v>1.2515926965280349E-5</v>
       </c>
       <c r="R49" s="19">
         <v>0</v>
       </c>
       <c r="S49" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>0</v>
       </c>
       <c r="T49" s="19">
-        <v>0</v>
+        <v>8.8200573996119572E-5</v>
       </c>
       <c r="U49" s="19">
-        <v>0.2067479536230501</v>
-      </c>
-      <c r="V49" s="19">
+        <v>5.5156426590839844E-2</v>
+      </c>
+      <c r="V49" s="19" t="str">
         <f>IF(D49&lt;=J49,-(I49/D49-1),"")</f>
-        <v>0.33172705432221883</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D50" s="20">
-        <v>1.94</v>
+        <v>96.05</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="26">
-        <v>39.922569565543164</v>
+        <v>6.6448376118991135</v>
       </c>
       <c r="G50" s="19">
-        <v>6.5117999073566038E-2</v>
+        <v>2.4306371769267154E-2</v>
       </c>
       <c r="H50" s="20">
-        <v>1.5598012332780873</v>
+        <v>19.83050342524335</v>
       </c>
       <c r="I50" s="20">
-        <v>1.3258310482863742</v>
+        <v>16.855927911456845</v>
       </c>
       <c r="J50" s="20">
-        <v>2.2794095091868223</v>
+        <v>33.322283747614158</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M50" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N50" s="16">
         <v>45716</v>
       </c>
       <c r="O50" s="19">
-        <v>0.55541924442229906</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P50" s="19">
-        <v>0.37949349616392825</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q50" s="19">
-        <v>1.8148224946381651E-3</v>
+        <v>0</v>
       </c>
       <c r="R50" s="19">
         <v>0</v>
       </c>
       <c r="S50" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="T50" s="19">
-        <v>1.2789175437999239E-2</v>
+        <v>0</v>
       </c>
       <c r="U50" s="19">
-        <v>4.9862433731434744E-2</v>
-      </c>
-      <c r="V50" s="19">
+        <v>0.15564608795570867</v>
+      </c>
+      <c r="V50" s="19" t="str">
         <f>IF(D50&lt;=J50,-(I50/D50-1),"")</f>
-        <v>0.31658193387300293</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D51" s="20">
-        <v>2.77</v>
+        <v>36.4</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="26">
-        <v>5.8448282195309416</v>
+        <v>6.4941670569944181</v>
       </c>
       <c r="G51" s="19">
-        <v>8.1301210589357228E-2</v>
+        <v>5.8044919133623016E-2</v>
       </c>
       <c r="H51" s="20">
-        <v>2.3986779064438748</v>
+        <v>19.344808101160631</v>
       </c>
       <c r="I51" s="20">
-        <v>2.0388762204772934</v>
+        <v>16.443086885986535</v>
       </c>
       <c r="J51" s="20">
-        <v>3.9743897221051632</v>
+        <v>31.606582608512515</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>15</v>
@@ -4192,64 +4204,64 @@
         <v>45716</v>
       </c>
       <c r="O51" s="19">
-        <v>0.19853855217217412</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P51" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q51" s="19">
-        <v>1.3644023113167324E-3</v>
+        <v>3.9962087250557162E-3</v>
       </c>
       <c r="R51" s="19">
         <v>0</v>
       </c>
       <c r="S51" s="19">
-        <v>0.51643948647548221</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="T51" s="19">
         <v>0</v>
       </c>
       <c r="U51" s="19">
-        <v>0.12544574278854531</v>
-      </c>
-      <c r="V51" s="19">
+        <v>0.37552834490355302</v>
+      </c>
+      <c r="V51" s="19" t="str">
         <f>IF(D51&lt;=J51,-(I51/D51-1),"")</f>
-        <v>0.26394360271577855</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D52" s="20">
-        <v>1.68</v>
+        <v>201.2</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="26">
-        <v>-24.345828627314837</v>
+        <v>75.802309808036924</v>
       </c>
       <c r="G52" s="19">
-        <v>6.3833433484274255E-2</v>
+        <v>0</v>
       </c>
       <c r="H52" s="20">
-        <v>1.0529005895128738</v>
+        <v>0</v>
       </c>
       <c r="I52" s="20">
-        <v>0.89496550108594275</v>
+        <v>0</v>
       </c>
       <c r="J52" s="20">
-        <v>1.7445598969818779</v>
+        <v>0</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="M52" s="16">
         <v>45593</v>
@@ -4258,91 +4270,91 @@
         <v>45716</v>
       </c>
       <c r="O52" s="19">
-        <v>0.39325092997635303</v>
+        <v>0.58108816177312361</v>
       </c>
       <c r="P52" s="19">
-        <v>0.81977588376563215</v>
+        <v>0.23828361372817153</v>
       </c>
       <c r="Q52" s="19">
-        <v>3.1621500776708874E-3</v>
+        <v>0</v>
       </c>
       <c r="R52" s="19">
         <v>0</v>
       </c>
       <c r="S52" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>5.7183940942846252E-3</v>
       </c>
       <c r="T52" s="19">
-        <v>1.5672463941809065E-4</v>
+        <v>0</v>
       </c>
       <c r="U52" s="19">
-        <v>-0.22591626294706857</v>
-      </c>
-      <c r="V52" s="19">
+        <v>0.17490983040442024</v>
+      </c>
+      <c r="V52" s="19" t="str">
         <f>IF(D52&lt;=J52,-(I52/D52-1),"")</f>
-        <v>0.467282439829796</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D53" s="20">
-        <v>84.45</v>
+        <v>1.76</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="26">
-        <v>14635.25051307895</v>
+        <v>-25.528585383999573</v>
       </c>
       <c r="G53" s="19">
-        <v>1.1428792353845193E-2</v>
+        <v>6.087598701318106E-2</v>
       </c>
       <c r="H53" s="20">
-        <v>4.1591977395039927E-2</v>
+        <v>0.9941686900916662</v>
       </c>
       <c r="I53" s="20">
-        <v>3.5353180785783936E-2</v>
+        <v>0.84504338657791622</v>
       </c>
       <c r="J53" s="20">
-        <v>6.8914099319797431E-2</v>
+        <v>1.6243260034351896</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="M53" s="16">
-        <v>45624</v>
+        <v>45593</v>
       </c>
       <c r="N53" s="16">
-        <v>45808</v>
+        <v>45716</v>
       </c>
       <c r="O53" s="19">
-        <v>0.62297379426414834</v>
+        <v>0.39325092997635303</v>
       </c>
       <c r="P53" s="19">
-        <v>0.22247037723339511</v>
+        <v>0.81977588376563215</v>
       </c>
       <c r="Q53" s="19">
-        <v>3.796700836974199E-4</v>
+        <v>3.1621500776708874E-3</v>
       </c>
       <c r="R53" s="19">
         <v>0</v>
       </c>
       <c r="S53" s="19">
-        <v>8.4437634938714454E-3</v>
+        <v>9.5705744879944314E-3</v>
       </c>
       <c r="T53" s="19">
-        <v>0</v>
+        <v>1.5672463941809065E-4</v>
       </c>
       <c r="U53" s="19">
-        <v>0.14573239492488765</v>
+        <v>-0.22591626294706857</v>
       </c>
       <c r="V53" s="19" t="str">
         <f>IF(D53&lt;=J53,-(I53/D53-1),"")</f>
@@ -4350,24 +4362,136 @@
       </c>
     </row>
     <row r="54" spans="2:22">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="G54" s="19"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
+      <c r="B54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="20">
+        <v>84</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="26">
+        <v>14570.638923012515</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1.1479471836771286E-2</v>
+      </c>
+      <c r="H54" s="20">
+        <v>3.9822453830631273E-2</v>
+      </c>
+      <c r="I54" s="20">
+        <v>3.3849085756036582E-2</v>
+      </c>
+      <c r="J54" s="20">
+        <v>6.5064055951840005E-2</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M54" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N54" s="16">
+        <v>45808</v>
+      </c>
+      <c r="O54" s="19">
+        <v>0.62297379426414834</v>
+      </c>
+      <c r="P54" s="19">
+        <v>0.22247037723339511</v>
+      </c>
+      <c r="Q54" s="19">
+        <v>3.796700836974199E-4</v>
+      </c>
+      <c r="R54" s="19">
+        <v>0</v>
+      </c>
+      <c r="S54" s="19">
+        <v>8.4437634938714454E-3</v>
+      </c>
+      <c r="T54" s="19">
+        <v>0</v>
+      </c>
+      <c r="U54" s="19">
+        <v>0.14573239492488765</v>
+      </c>
+      <c r="V54" s="19" t="str">
+        <f>IF(D54&lt;=J54,-(I54/D54-1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="2:22">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="E55" s="5"/>
-      <c r="G55" s="19"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
+      <c r="B55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="20">
+        <v>90.45</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="26">
+        <v>136.0411124515141</v>
+      </c>
+      <c r="G55" s="19">
+        <v>3.3415902761853339E-3</v>
+      </c>
+      <c r="H55" s="20">
+        <v>4.7623378540035288</v>
+      </c>
+      <c r="I55" s="20">
+        <v>4.0479871759029997</v>
+      </c>
+      <c r="J55" s="20">
+        <v>7.780962416638185</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="16">
+        <v>45630</v>
+      </c>
+      <c r="N55" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O55" s="19">
+        <v>0.38675293231140062</v>
+      </c>
+      <c r="P55" s="19">
+        <v>0.43040868738019761</v>
+      </c>
+      <c r="Q55" s="19">
+        <v>1.3599953361915031E-3</v>
+      </c>
+      <c r="R55" s="19">
+        <v>0</v>
+      </c>
+      <c r="S55" s="19">
+        <v>5.1320409039705113E-3</v>
+      </c>
+      <c r="T55" s="19">
+        <v>0</v>
+      </c>
+      <c r="U55" s="19">
+        <v>0.17634634406823974</v>
+      </c>
+      <c r="V55" s="19" t="str">
+        <f>IF(D55&lt;=J55,-(I55/D55-1),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="2:22">
       <c r="B56" s="4"/>
@@ -6420,9 +6544,9 @@
       <c r="L400" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:V36" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V53">
-      <sortCondition ref="V4:V36"/>
+  <autoFilter ref="B4:V53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V55">
+      <sortCondition ref="V4:V53"/>
     </sortState>
   </autoFilter>
   <mergeCells count="4">

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77E47B-9146-4D94-9A1C-977357459719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD746EA-2EF2-4D45-8A71-5037B9AC5647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Opportunities!$B$4:$V$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -70,9 +70,6 @@
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>COGS</t>
   </si>
   <si>
@@ -464,6 +461,10 @@
   </si>
   <si>
     <t>POP MART</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -993,7 +994,7 @@
   <dimension ref="A2:V400"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9"/>
@@ -1052,7 +1053,7 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
@@ -1076,13 +1077,13 @@
         <v>2</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>10</v>
@@ -1103,63 +1104,63 @@
         <v>4</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="U4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D5" s="20">
-        <v>7.96</v>
+        <v>7.94</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>34.494186566243059</v>
+        <v>34.407517755775118</v>
       </c>
       <c r="G5" s="19">
-        <v>7.2864321608040197E-2</v>
+        <v>7.3047858942065488E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>8.4110864713950271</v>
+        <v>8.4140426053958866</v>
       </c>
       <c r="I5" s="20">
-        <v>7.1494235006857725</v>
+        <v>7.1519362145865024</v>
       </c>
       <c r="J5" s="20">
-        <v>12.371587094921917</v>
+        <v>11.763578080309953</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M5" s="16">
         <v>45593</v>
@@ -1190,42 +1191,42 @@
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=J5,-(I5/D5-1),"")</f>
-        <v>0.10183121850681254</v>
+        <v>9.9252365921095431E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" s="20">
-        <v>112.7</v>
+        <v>109.9</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="26">
-        <v>11.407214702207529</v>
+        <v>11.123186331914894</v>
       </c>
       <c r="G6" s="19">
-        <v>1.7152361694647341E-2</v>
+        <v>1.7590343869307346E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>113.28817280473194</v>
+        <v>114.4651236665465</v>
       </c>
       <c r="I6" s="20">
-        <v>96.294946884022153</v>
+        <v>97.295355116564522</v>
       </c>
       <c r="J6" s="20">
-        <v>190.36433712734646</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>50</v>
+        <v>175.2714169591633</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="M6" s="16">
         <v>45625</v>
@@ -1256,15 +1257,15 @@
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=J6,-(I6/D6-1),"")</f>
-        <v>0.14556391407256297</v>
+        <v>0.11469194616410816</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D7" s="20">
         <v>0.435</v>
@@ -1279,19 +1280,19 @@
         <v>0.13793103448275862</v>
       </c>
       <c r="H7" s="20">
-        <v>0.43118915310523315</v>
+        <v>0.4311891531052332</v>
       </c>
       <c r="I7" s="20">
-        <v>0.36651078013944816</v>
+        <v>0.36651078013944821</v>
       </c>
       <c r="J7" s="20">
-        <v>0.72455080945529271</v>
+        <v>0.66024594585104501</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="16">
         <v>45624</v>
@@ -1322,42 +1323,42 @@
       </c>
       <c r="V7" s="19">
         <f>IF(D7&lt;=J7,-(I7/D7-1),"")</f>
-        <v>0.15744648243805026</v>
+        <v>0.15744648243805004</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D8" s="20">
-        <v>14.78</v>
+        <v>14.9</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="26">
-        <v>10.329841022294847</v>
+        <v>10.413709826264764</v>
       </c>
       <c r="G8" s="19">
-        <v>7.4424898511502038E-2</v>
+        <v>7.3825503355704702E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>14.72005285376887</v>
+        <v>14.671594812844084</v>
       </c>
       <c r="I8" s="20">
-        <v>12.419646158775766</v>
+        <v>12.383448752455315</v>
       </c>
       <c r="J8" s="20">
-        <v>28.646825796748232</v>
+        <v>26.002475615962307</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M8" s="16">
         <v>45593</v>
@@ -1388,240 +1389,240 @@
       </c>
       <c r="V8" s="19">
         <f>IF(D8&lt;=J8,-(I8/D8-1),"")</f>
-        <v>0.15969917734940686</v>
+        <v>0.16889605688219367</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="D9" s="20">
-        <v>9.34</v>
+        <v>10.82</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>18.655708994015598</v>
+        <v>9.4539367277136428</v>
       </c>
       <c r="G9" s="19">
-        <v>4.068522483940043E-2</v>
+        <v>5.6247072381438543E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>8.9769372669815954</v>
+        <v>10.140322806839608</v>
       </c>
       <c r="I9" s="20">
-        <v>7.6303966769343559</v>
+        <v>8.6192743858136662</v>
       </c>
       <c r="J9" s="20">
-        <v>15.084440590353891</v>
+        <v>15.527076631268542</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M9" s="16">
-        <v>45630</v>
+        <v>45593</v>
       </c>
       <c r="N9" s="16">
-        <v>45716</v>
+        <v>45808</v>
       </c>
       <c r="O9" s="19">
-        <v>0.82760234528184051</v>
+        <v>0.77696054205677556</v>
       </c>
       <c r="P9" s="19">
-        <v>0.1381181210170607</v>
+        <v>0.14204607870614464</v>
       </c>
       <c r="Q9" s="19">
-        <v>2.152653084078963E-3</v>
+        <v>1.0871617989521474E-3</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <v>1.3414601462329697E-2</v>
+        <v>8.274315042185636E-3</v>
       </c>
       <c r="T9" s="19">
-        <v>0</v>
+        <v>2.3595955443495159E-2</v>
       </c>
       <c r="U9" s="19">
-        <v>1.8712279154690092E-2</v>
+        <v>4.8035946952446888E-2</v>
       </c>
       <c r="V9" s="19">
         <f>IF(D9&lt;=J9,-(I9/D9-1),"")</f>
-        <v>0.1830410410134522</v>
+        <v>0.20339423421315472</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="D10" s="20">
-        <v>10.8</v>
+        <v>3.71</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="26">
-        <v>9.4369871954990874</v>
+        <v>4.0423550436268316</v>
       </c>
       <c r="G10" s="19">
-        <v>5.634809631477166E-2</v>
+        <v>8.6454500085260011E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>10.147323517378704</v>
+        <v>3.3527218964486902</v>
       </c>
       <c r="I10" s="20">
-        <v>8.6252249897718976</v>
+        <v>2.8498136119813866</v>
       </c>
       <c r="J10" s="20">
-        <v>17.05110486980902</v>
+        <v>4.9942626818932023</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M10" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N10" s="16">
-        <v>45808</v>
+        <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>0.77696054205677556</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P10" s="19">
-        <v>0.14204607870614464</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q10" s="19">
-        <v>1.0871617989521474E-3</v>
+        <v>0</v>
       </c>
       <c r="R10" s="19">
         <v>0</v>
       </c>
       <c r="S10" s="19">
-        <v>8.274315042185636E-3</v>
+        <v>0</v>
       </c>
       <c r="T10" s="19">
-        <v>2.3595955443495159E-2</v>
+        <v>0.49757189674208302</v>
       </c>
       <c r="U10" s="19">
-        <v>4.8035946952446888E-2</v>
+        <v>0.29524894411244107</v>
       </c>
       <c r="V10" s="19">
         <f>IF(D10&lt;=J10,-(I10/D10-1),"")</f>
-        <v>0.20136805650260214</v>
+        <v>0.23185616927725428</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D11" s="20">
-        <v>3.71</v>
+        <v>21.5</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="26">
-        <v>4.0338155012616932</v>
+        <v>12.073595148308248</v>
       </c>
       <c r="G11" s="19">
-        <v>8.6637523296387048E-2</v>
+        <v>3.7138925210819684E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>3.3626504867787359</v>
+        <v>18.255361767767205</v>
       </c>
       <c r="I11" s="20">
-        <v>2.8582529137619255</v>
+        <v>15.517057502602125</v>
       </c>
       <c r="J11" s="20">
-        <v>5.4940782993629353</v>
+        <v>28.606350025770681</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="M11" s="16">
-        <v>45605</v>
+        <v>45591</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P11" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q11" s="19">
-        <v>0</v>
+        <v>1.2057353899630675E-2</v>
       </c>
       <c r="R11" s="19">
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <v>0</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="T11" s="19">
-        <v>0.49757189674208302</v>
+        <v>0</v>
       </c>
       <c r="U11" s="19">
-        <v>0.29524894411244107</v>
+        <v>0.12114381924831638</v>
       </c>
       <c r="V11" s="19">
         <f>IF(D11&lt;=J11,-(I11/D11-1),"")</f>
-        <v>0.22958142486201472</v>
+        <v>0.27827639522780812</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D12" s="20">
-        <v>14.34</v>
+        <v>14.54</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>11.964299960813593</v>
+        <v>12.13049067566436</v>
       </c>
       <c r="G12" s="19">
-        <v>7.1827057182705725E-2</v>
+        <v>7.0839064649243472E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>12.363716861997004</v>
+        <v>12.299211687056777</v>
       </c>
       <c r="I12" s="20">
-        <v>10.509159332697452</v>
+        <v>10.45432993399826</v>
       </c>
       <c r="J12" s="20">
-        <v>20.200502186605931</v>
+        <v>18.321082345194288</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" s="16">
         <v>45624</v>
@@ -1652,147 +1653,147 @@
       </c>
       <c r="V12" s="19">
         <f>IF(D12&lt;=J12,-(I12/D12-1),"")</f>
-        <v>0.26714370064871318</v>
+        <v>0.28099519023395736</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D13" s="20">
-        <v>21.75</v>
+        <v>6.5</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>12.214665831742357</v>
+        <v>5.8793175227674448</v>
       </c>
       <c r="G13" s="19">
-        <v>3.6709997098199248E-2</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>18.146277616085658</v>
+        <v>5.4088422031521217</v>
       </c>
       <c r="I13" s="20">
-        <v>15.424335973672809</v>
+        <v>4.5975158726793035</v>
       </c>
       <c r="J13" s="20">
-        <v>31.411702253315898</v>
+        <v>9.5223966934226585</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="M13" s="16">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N13" s="16">
         <v>45716</v>
       </c>
       <c r="O13" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.73600077942413045</v>
       </c>
       <c r="P13" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.20890317762054877</v>
       </c>
       <c r="Q13" s="19">
-        <v>1.2057353899630675E-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="19">
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>5.1931891220120593E-3</v>
       </c>
       <c r="T13" s="19">
         <v>0</v>
       </c>
       <c r="U13" s="19">
-        <v>0.12114381924831638</v>
+        <v>4.9902853833308697E-2</v>
       </c>
       <c r="V13" s="19">
         <f>IF(D13&lt;=J13,-(I13/D13-1),"")</f>
-        <v>0.29083512764722719</v>
+        <v>0.29268986574164557</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="D14" s="20">
-        <v>6.54</v>
+        <v>5.78</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>5.9154979382921669</v>
+        <v>8.7950551583335184</v>
       </c>
       <c r="G14" s="19">
-        <v>8.4097859327217125E-2</v>
+        <v>8.323863200250381E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>5.3969761771789511</v>
+        <v>5.3583862257870241</v>
       </c>
       <c r="I14" s="20">
-        <v>4.5874297506021087</v>
+        <v>4.0413100223912055</v>
       </c>
       <c r="J14" s="20">
-        <v>10.424926582683533</v>
+        <v>10.317336748238674</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="M14" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.73600077942413045</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P14" s="19">
-        <v>0.20890317762054877</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q14" s="19">
-        <v>0</v>
+        <v>9.1579398111554088E-3</v>
       </c>
       <c r="R14" s="19">
         <v>0</v>
       </c>
       <c r="S14" s="19">
-        <v>5.1931891220120593E-3</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="T14" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U14" s="19">
-        <v>4.9902853833308697E-2</v>
+        <v>4.9816835181438444E-2</v>
       </c>
       <c r="V14" s="19">
         <f>IF(D14&lt;=J14,-(I14/D14-1),"")</f>
-        <v>0.29855814210976928</v>
+        <v>0.3008114148112101</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="D15" s="20">
         <v>2.78</v>
@@ -1801,25 +1802,25 @@
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>5.8713177109045303</v>
+        <v>5.8837472249256288</v>
       </c>
       <c r="G15" s="19">
-        <v>8.0934405755653666E-2</v>
+        <v>8.0763430475331036E-2</v>
       </c>
       <c r="H15" s="20">
-        <v>2.2927303636344041</v>
+        <v>2.2860780883643144</v>
       </c>
       <c r="I15" s="20">
-        <v>1.9488208090892434</v>
+        <v>1.9431663751096671</v>
       </c>
       <c r="J15" s="20">
-        <v>3.745985551177839</v>
+        <v>3.40537474841119</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M15" s="16">
         <v>45606</v>
@@ -1850,186 +1851,186 @@
       </c>
       <c r="V15" s="19">
         <f>IF(D15&lt;=J15,-(I15/D15-1),"")</f>
-        <v>0.29898532047149518</v>
+        <v>0.30101928952889667</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="D16" s="20">
-        <v>5.81</v>
+        <v>1.93</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>8.8220280985924919</v>
+        <v>39.837428162415605</v>
       </c>
       <c r="G16" s="19">
-        <v>8.2984133759792425E-2</v>
+        <v>6.5257170653302027E-2</v>
       </c>
       <c r="H16" s="20">
-        <v>5.3605540178310314</v>
+        <v>1.5213687028736862</v>
       </c>
       <c r="I16" s="20">
-        <v>4.0436666134740076</v>
+        <v>1.2931633974426333</v>
       </c>
       <c r="J16" s="20">
-        <v>11.443178591999368</v>
+        <v>2.0851881547978053</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="M16" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.86263355974668987</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P16" s="19">
-        <v>5.04E-2</v>
+        <v>0.37949349616392825</v>
       </c>
       <c r="Q16" s="19">
-        <v>9.1579398111554088E-3</v>
+        <v>1.8148224946381651E-3</v>
       </c>
       <c r="R16" s="19">
         <v>0</v>
       </c>
       <c r="S16" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="T16" s="19">
-        <v>0.02</v>
+        <v>1.2789175437999239E-2</v>
       </c>
       <c r="U16" s="19">
-        <v>4.9816835181438444E-2</v>
+        <v>4.9862433731434744E-2</v>
       </c>
       <c r="V16" s="19">
         <f>IF(D16&lt;=J16,-(I16/D16-1),"")</f>
-        <v>0.30401607341239112</v>
+        <v>0.32996715158412782</v>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="20">
-        <v>1.95</v>
+        <v>5.59</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="26">
-        <v>40.165221925943307</v>
+        <v>15.652853067877992</v>
       </c>
       <c r="G17" s="19">
-        <v>6.472459813060924E-2</v>
+        <v>5.9597205999143497E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>1.5229071610118017</v>
+        <v>4.3131440646338124</v>
       </c>
       <c r="I17" s="20">
-        <v>1.2944710868600313</v>
+        <v>3.6661724549387404</v>
       </c>
       <c r="J17" s="20">
-        <v>2.2004423765216998</v>
+        <v>6.2178403034734329</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M17" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P17" s="19">
-        <v>0.37949349616392825</v>
+        <v>0.43886385985236792</v>
       </c>
       <c r="Q17" s="19">
-        <v>1.8148224946381651E-3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="19">
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="T17" s="19">
-        <v>1.2789175437999239E-2</v>
+        <v>0</v>
       </c>
       <c r="U17" s="19">
-        <v>4.9862433731434744E-2</v>
+        <v>0.2067479536230501</v>
       </c>
       <c r="V17" s="19">
         <f>IF(D17&lt;=J17,-(I17/D17-1),"")</f>
-        <v>0.33616867340511214</v>
+        <v>0.34415519589646859</v>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="D18" s="20">
-        <v>5.64</v>
+        <v>94.25</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>15.759498016886734</v>
+        <v>9.4115373943213658</v>
       </c>
       <c r="G18" s="19">
-        <v>5.919391009542678E-2</v>
+        <v>7.2148541114058357E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>4.3134240455859869</v>
+        <v>72.568905041583719</v>
       </c>
       <c r="I18" s="20">
-        <v>3.6664104387480889</v>
+        <v>61.683569285346159</v>
       </c>
       <c r="J18" s="20">
-        <v>6.7033346914712189</v>
+        <v>111.11904138474858</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M18" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N18" s="16">
         <v>45716</v>
       </c>
       <c r="O18" s="19">
-        <v>0.35166796085418528</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P18" s="19">
-        <v>0.43886385985236792</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q18" s="19">
         <v>0</v>
@@ -2038,64 +2039,64 @@
         <v>0</v>
       </c>
       <c r="S18" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="T18" s="19">
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>0.2067479536230501</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V18" s="19">
         <f>IF(D18&lt;=J18,-(I18/D18-1),"")</f>
-        <v>0.34992722717232461</v>
+        <v>0.34553242137563756</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D19" s="20">
-        <v>94.9</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="26">
-        <v>9.4764445487649613</v>
+        <v>4.1366778459299942</v>
       </c>
       <c r="G19" s="19">
-        <v>7.1654373024236037E-2</v>
+        <v>7.1597633136094671E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>72.401819077447271</v>
+        <v>0.12879854635128854</v>
       </c>
       <c r="I19" s="20">
-        <v>61.541546215830181</v>
+        <v>0.10947876439859526</v>
       </c>
       <c r="J19" s="20">
-        <v>121.66075199437435</v>
+        <v>0.19721905675858259</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M19" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.69931288683936033</v>
       </c>
       <c r="P19" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.22200134640260258</v>
       </c>
       <c r="Q19" s="19">
         <v>0</v>
@@ -2104,184 +2105,184 @@
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <v>0.39159225009737869</v>
+        <v>2.1205737325435711E-3</v>
       </c>
       <c r="T19" s="19">
         <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>0.35546835552606143</v>
+        <v>7.6565193025493528E-2</v>
       </c>
       <c r="V19" s="19">
         <f>IF(D19&lt;=J19,-(I19/D19-1),"")</f>
-        <v>0.35151163102391803</v>
+        <v>0.35219666036334174</v>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D20" s="20">
-        <v>0.17199999999999999</v>
+        <v>7.11</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>4.2101099970411768</v>
+        <v>11.637151648654187</v>
       </c>
       <c r="G20" s="19">
-        <v>7.0348837209302323E-2</v>
+        <v>7.7355836849507739E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>0.12804981076336494</v>
+        <v>5.2443050031500409</v>
       </c>
       <c r="I20" s="20">
-        <v>0.1088423391488602</v>
+        <v>4.4576592526775345</v>
       </c>
       <c r="J20" s="20">
-        <v>0.21516912791298859</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>47</v>
+        <v>9.2079576367017797</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="M20" s="16">
         <v>45593</v>
       </c>
       <c r="N20" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O20" s="19">
-        <v>0.69931288683936033</v>
+        <v>0.79501071628968012</v>
       </c>
       <c r="P20" s="19">
-        <v>0.22200134640260258</v>
+        <v>0.12234231416665901</v>
       </c>
       <c r="Q20" s="19">
-        <v>0</v>
+        <v>1.3233621247382252E-3</v>
       </c>
       <c r="R20" s="19">
         <v>0</v>
       </c>
       <c r="S20" s="19">
-        <v>2.1205737325435711E-3</v>
+        <v>6.4812855868203439E-3</v>
       </c>
       <c r="T20" s="19">
         <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>7.6565193025493528E-2</v>
+        <v>7.4842321832102252E-2</v>
       </c>
       <c r="V20" s="19">
         <f>IF(D20&lt;=J20,-(I20/D20-1),"")</f>
-        <v>0.3671957026229058</v>
+        <v>0.37304370567123291</v>
       </c>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D21" s="20">
-        <v>7.15</v>
+        <v>6.1</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>11.702620856241554</v>
+        <v>3.7049349966321814</v>
       </c>
       <c r="G21" s="19">
-        <v>7.6923076923076927E-2</v>
+        <v>7.0108457992637097E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>5.2346258041163747</v>
+        <v>4.1439788985047583</v>
       </c>
       <c r="I21" s="20">
-        <v>4.4494319334989187</v>
+        <v>3.5223820637290446</v>
       </c>
       <c r="J21" s="20">
-        <v>10.0844911158673</v>
+        <v>6.1729304745726754</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="M21" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N21" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O21" s="19">
-        <v>0.79501071628968012</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P21" s="19">
-        <v>0.12234231416665901</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q21" s="19">
-        <v>1.3233621247382252E-3</v>
+        <v>0</v>
       </c>
       <c r="R21" s="19">
         <v>0</v>
       </c>
       <c r="S21" s="19">
-        <v>6.4812855868203439E-3</v>
+        <v>0</v>
       </c>
       <c r="T21" s="19">
         <v>0</v>
       </c>
       <c r="U21" s="19">
-        <v>7.4842321832102252E-2</v>
+        <v>0.36602055622301682</v>
       </c>
       <c r="V21" s="19">
         <f>IF(D21&lt;=J21,-(I21/D21-1),"")</f>
-        <v>0.37770182748266878</v>
+        <v>0.42256031742146805</v>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D22" s="20">
-        <v>5.14</v>
+        <v>5.19</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>16.604808069939615</v>
+        <v>16.766333440269769</v>
       </c>
       <c r="G22" s="19">
-        <v>3.0778210116731521E-2</v>
+        <v>3.0481695568400771E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>3.5224273011569758</v>
+        <v>3.5153526077001485</v>
       </c>
       <c r="I22" s="20">
-        <v>2.9940632059834291</v>
+        <v>2.9880497165451261</v>
       </c>
       <c r="J22" s="20">
-        <v>5.8929728164823612</v>
+        <v>5.4675726606388242</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="16">
         <v>45591</v>
@@ -2312,663 +2313,663 @@
       </c>
       <c r="V22" s="19">
         <f>IF(D22&lt;=J22,-(I22/D22-1),"")</f>
-        <v>0.41749743074252343</v>
+        <v>0.42426787735161353</v>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D23" s="20">
-        <v>6.09</v>
+        <v>5.75</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>3.6910474265242059</v>
+        <v>5.0198894109763001</v>
       </c>
       <c r="G23" s="19">
-        <v>7.0372241144958075E-2</v>
+        <v>6.9727433764416244E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>4.1578724734244297</v>
+        <v>3.87806868507182</v>
       </c>
       <c r="I23" s="20">
-        <v>3.5341916024107651</v>
+        <v>3.2963583823110469</v>
       </c>
       <c r="J23" s="20">
-        <v>6.7933545331506764</v>
+        <v>5.7768268021836633</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M23" s="16">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>0.47700776116848903</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P23" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q23" s="19">
-        <v>0</v>
+        <v>1.3780163008283218E-3</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <v>0</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="T23" s="19">
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>0.36602055622301682</v>
+        <v>0.20923165729470938</v>
       </c>
       <c r="V23" s="19">
         <f>IF(D23&lt;=J23,-(I23/D23-1),"")</f>
-        <v>0.41967297168952955</v>
+        <v>0.42672028133720918</v>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D24" s="20">
-        <v>5.78</v>
+        <v>73.5</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>5.0354202099906624</v>
+        <v>17.574561840509197</v>
       </c>
       <c r="G24" s="19">
-        <v>6.9512372714012963E-2</v>
+        <v>6.4589649273965363E-2</v>
       </c>
       <c r="H24" s="20">
-        <v>3.882373541103858</v>
+        <v>48.902191803800115</v>
       </c>
       <c r="I24" s="20">
-        <v>3.3000175099382791</v>
+        <v>41.566863033230099</v>
       </c>
       <c r="J24" s="20">
-        <v>6.3432296356891857</v>
+        <v>74.880069800386082</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M24" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P24" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q24" s="19">
-        <v>1.3780163008283218E-3</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="R24" s="19">
         <v>0</v>
       </c>
       <c r="S24" s="19">
-        <v>0.583299310268654</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="T24" s="19">
         <v>0</v>
       </c>
       <c r="U24" s="19">
-        <v>0.20923165729470938</v>
+        <v>0.10980570587494648</v>
       </c>
       <c r="V24" s="19">
         <f>IF(D24&lt;=J24,-(I24/D24-1),"")</f>
-        <v>0.42906271454355038</v>
+        <v>0.43446444852748167</v>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D25" s="20">
-        <v>4.7300000000000004</v>
+        <v>3.73</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>3.9273827301401329</v>
+        <v>8.9247565393365615</v>
       </c>
       <c r="G25" s="19">
-        <v>6.9404288077539247E-2</v>
+        <v>6.5201072386058975E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>3.170555444695538</v>
+        <v>2.3525975057142112</v>
       </c>
       <c r="I25" s="20">
-        <v>2.6949721279912073</v>
+        <v>1.9997078798570795</v>
       </c>
       <c r="J25" s="20">
-        <v>5.1802231406796082</v>
+        <v>3.8470366529617044</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M25" s="16">
-        <v>45605</v>
+        <v>45619</v>
       </c>
       <c r="N25" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O25" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.68375747988736812</v>
       </c>
       <c r="P25" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.21895053202218998</v>
       </c>
       <c r="Q25" s="19">
-        <v>9.7044800044936142E-4</v>
+        <v>2.4257361073934199E-4</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <v>0.48610500800425166</v>
+        <v>3.7548526172941428E-3</v>
       </c>
       <c r="T25" s="19">
         <v>0</v>
       </c>
       <c r="U25" s="19">
-        <v>0.34620797227785238</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="V25" s="19">
         <f>IF(D25&lt;=J25,-(I25/D25-1),"")</f>
-        <v>0.43023845074181666</v>
+        <v>0.46388528690158726</v>
       </c>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26" s="20">
-        <v>73.599999999999994</v>
+        <v>77.55</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>17.599452645060317</v>
+        <v>14.835919358687388</v>
       </c>
       <c r="G26" s="19">
-        <v>6.449830050485722E-2</v>
+        <v>4.8355899419729211E-2</v>
       </c>
       <c r="H26" s="20">
-        <v>48.87849333703074</v>
+        <v>15.527268966348883</v>
       </c>
       <c r="I26" s="20">
-        <v>41.54671933647613</v>
+        <v>12.908848388336494</v>
       </c>
       <c r="J26" s="20">
-        <v>82.13321614715484</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>26</v>
+        <v>41.667156338782434</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="M26" s="16">
-        <v>45593</v>
+        <v>45625</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.54949235029228316</v>
       </c>
       <c r="P26" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.10108242664951193</v>
       </c>
       <c r="Q26" s="19">
-        <v>2.3869305285384647E-2</v>
+        <v>1.0218987976510586E-2</v>
       </c>
       <c r="R26" s="19">
         <v>0</v>
       </c>
       <c r="S26" s="19">
-        <v>0.55863466227121317</v>
+        <v>5.6582664391799292E-2</v>
       </c>
       <c r="T26" s="19">
-        <v>0</v>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="U26" s="19">
-        <v>0.10980570587494648</v>
-      </c>
-      <c r="V26" s="19">
+        <v>0.27690377095281005</v>
+      </c>
+      <c r="V26" s="19" t="str">
         <f>IF(D26&lt;=J26,-(I26/D26-1),"")</f>
-        <v>0.43550653075440038</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D27" s="20">
-        <v>5.1100000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="26">
-        <v>7.8395803503861314</v>
+        <v>32.326002536464571</v>
       </c>
       <c r="G27" s="19">
-        <v>6.8373621296276096E-2</v>
+        <v>1.4204545454545454E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>3.3581768756438528</v>
+        <v>9.5524247529994462</v>
       </c>
       <c r="I27" s="20">
-        <v>2.8544503442972746</v>
+        <v>8.1195610400495291</v>
       </c>
       <c r="J27" s="20">
-        <v>5.4867690741096462</v>
+        <v>14.626874704048552</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M27" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N27" s="16">
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P27" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q27" s="19">
-        <v>3.9320610522022457E-3</v>
+        <v>1.6858097812807804E-3</v>
       </c>
       <c r="R27" s="19">
         <v>0</v>
       </c>
       <c r="S27" s="19">
-        <v>0.49099920776112166</v>
+        <v>0</v>
       </c>
       <c r="T27" s="19">
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <v>0.12232431421528413</v>
-      </c>
-      <c r="V27" s="19">
+        <v>0.17445779619528262</v>
+      </c>
+      <c r="V27" s="19" t="str">
         <f>IF(D27&lt;=J27,-(I27/D27-1),"")</f>
-        <v>0.44139914984397766</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D28" s="20">
-        <v>4.8600000000000003</v>
+        <v>5.53</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>14.819080507908442</v>
+        <v>-44.025977617119601</v>
       </c>
       <c r="G28" s="19">
-        <v>3.6970513001881512E-2</v>
+        <v>3.6085330895155206E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>3.1390136769419312</v>
+        <v>1.7947349105097297</v>
       </c>
       <c r="I28" s="20">
-        <v>2.6681616254006415</v>
+        <v>1.5255246739332702</v>
       </c>
       <c r="J28" s="20">
-        <v>5.1286885127365647</v>
+        <v>2.7481360326617299</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M28" s="16">
-        <v>45625</v>
+        <v>45603</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>0.49786034237394394</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P28" s="19">
-        <v>0.33448624066316274</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q28" s="19">
-        <v>6.0164745032668145E-3</v>
+        <v>1.0703282304304319E-2</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
       </c>
       <c r="S28" s="19">
-        <v>2.063358175126364E-2</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="T28" s="19">
         <v>0</v>
       </c>
       <c r="U28" s="19">
-        <v>0.14100336070836289</v>
-      </c>
-      <c r="V28" s="19">
+        <v>-3.5319141001935742E-2</v>
+      </c>
+      <c r="V28" s="19" t="str">
         <f>IF(D28&lt;=J28,-(I28/D28-1),"")</f>
-        <v>0.45099555032908611</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D29" s="20">
-        <v>72.5</v>
+        <v>7.12</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="26">
-        <v>23.607212298385896</v>
+        <v>29.935402987778509</v>
       </c>
       <c r="G29" s="19">
-        <v>6.7211120072726546E-2</v>
+        <v>6.3743801456823762E-2</v>
       </c>
       <c r="H29" s="20">
-        <v>46.581036767774023</v>
+        <v>1.9356486584712804</v>
       </c>
       <c r="I29" s="20">
-        <v>39.593881252607922</v>
+        <v>1.6453013597005883</v>
       </c>
       <c r="J29" s="20">
-        <v>76.106590403575879</v>
+        <v>2.8833700374908804</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M29" s="16">
-        <v>45603</v>
+        <v>45624</v>
       </c>
       <c r="N29" s="16">
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>0</v>
+        <v>0.69530102386843873</v>
       </c>
       <c r="P29" s="19">
-        <v>0.8668930922046667</v>
+        <v>0.25685454836897598</v>
       </c>
       <c r="Q29" s="19">
-        <v>2.2325505205376484E-4</v>
+        <v>0</v>
       </c>
       <c r="R29" s="19">
-        <v>2.2215198715160572E-2</v>
+        <v>0</v>
       </c>
       <c r="S29" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>2.0677989446499247E-3</v>
       </c>
       <c r="T29" s="19">
-        <v>2.5630406545468234E-2</v>
+        <v>9.6644881579416319E-4</v>
       </c>
       <c r="U29" s="19">
-        <v>8.1342449801464822E-2</v>
-      </c>
-      <c r="V29" s="19">
+        <v>4.4810180002141216E-2</v>
+      </c>
+      <c r="V29" s="19" t="str">
         <f>IF(D29&lt;=J29,-(I29/D29-1),"")</f>
-        <v>0.45387749996402871</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D30" s="20">
-        <v>3.73</v>
+        <v>9.25</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>8.9247565393365615</v>
+        <v>-65.947195421513015</v>
       </c>
       <c r="G30" s="19">
-        <v>6.5201072386058975E-2</v>
+        <v>0</v>
       </c>
       <c r="H30" s="20">
-        <v>2.3525975057142103</v>
+        <v>0</v>
       </c>
       <c r="I30" s="20">
-        <v>1.9997078798570787</v>
+        <v>0</v>
       </c>
       <c r="J30" s="20">
-        <v>4.2217200096771643</v>
+        <v>0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="M30" s="16">
-        <v>45619</v>
+        <v>45603</v>
       </c>
       <c r="N30" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>0.68375747988736812</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P30" s="19">
-        <v>0.21895053202218998</v>
+        <v>0.74823479113580682</v>
       </c>
       <c r="Q30" s="19">
-        <v>2.4257361073934199E-4</v>
+        <v>0</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <v>3.7548526172941428E-3</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="T30" s="19">
         <v>0</v>
       </c>
       <c r="U30" s="19">
-        <v>9.3294561862408407E-2</v>
-      </c>
-      <c r="V30" s="19">
+        <v>-0.11044830732057855</v>
+      </c>
+      <c r="V30" s="19" t="str">
         <f>IF(D30&lt;=J30,-(I30/D30-1),"")</f>
-        <v>0.46388528690158748</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D31" s="20">
-        <v>24.55</v>
+        <v>74.150000000000006</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>8.0272942093620205</v>
+        <v>22.445723073930576</v>
       </c>
       <c r="G31" s="19">
-        <v>6.0285132382892057E-2</v>
+        <v>0</v>
       </c>
       <c r="H31" s="20">
-        <v>14.939702054267014</v>
+        <v>28.366516721481783</v>
       </c>
       <c r="I31" s="20">
-        <v>12.698746746126963</v>
+        <v>24.111539213259515</v>
       </c>
       <c r="J31" s="20">
-        <v>25.104001662579602</v>
+        <v>42.255170650287809</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="M31" s="16">
-        <v>45593</v>
+        <v>45625</v>
       </c>
       <c r="N31" s="16">
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0.73672180139004328</v>
       </c>
       <c r="P31" s="19">
-        <v>0.11648068007266453</v>
+        <v>0.16976569605864555</v>
       </c>
       <c r="Q31" s="19">
-        <v>1.9313252769435827E-2</v>
+        <v>9.0683554379893485E-5</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
       </c>
       <c r="S31" s="19">
-        <v>0.54295694135635775</v>
+        <v>9.0252248239117653E-3</v>
       </c>
       <c r="T31" s="19">
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <v>0.29263922070029547</v>
-      </c>
-      <c r="V31" s="19">
+        <v>8.4396594173019507E-2</v>
+      </c>
+      <c r="V31" s="19" t="str">
         <f>IF(D31&lt;=J31,-(I31/D31-1),"")</f>
-        <v>0.48273944007629477</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D32" s="20">
-        <v>77.900000000000006</v>
+        <v>9.89</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>14.902877086289459</v>
+        <v>23.827179939593449</v>
       </c>
       <c r="G32" s="19">
-        <v>4.8138639281129651E-2</v>
+        <v>2.9901718107345005E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>15.449913828713395</v>
+        <v>3.5202676561211259</v>
       </c>
       <c r="I32" s="20">
-        <v>12.831493250701001</v>
+        <v>2.9922275077029568</v>
       </c>
       <c r="J32" s="20">
-        <v>49.673984264023446</v>
+        <v>5.243841251451216</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M32" s="16">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="N32" s="16">
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>0.54949235029228316</v>
+        <v>0.69575137181535374</v>
       </c>
       <c r="P32" s="19">
-        <v>0.10108242664951193</v>
+        <v>0.25490688505040687</v>
       </c>
       <c r="Q32" s="19">
-        <v>1.0218987976510586E-2</v>
+        <v>6.6188436699916855E-3</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
       </c>
       <c r="S32" s="19">
-        <v>5.6582664391799292E-2</v>
+        <v>6.4552900576145354E-3</v>
       </c>
       <c r="T32" s="19">
-        <v>5.719799737085E-3</v>
+        <v>0</v>
       </c>
       <c r="U32" s="19">
-        <v>0.27690377095281005</v>
+        <v>3.6267609406633192E-2</v>
       </c>
       <c r="V32" s="19" t="str">
         <f>IF(D32&lt;=J32,-(I32/D32-1),"")</f>
@@ -2977,64 +2978,64 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D33" s="20">
-        <v>35.549999999999997</v>
+        <v>2.5</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>32.647425857139645</v>
+        <v>17.364545135948401</v>
       </c>
       <c r="G33" s="19">
-        <v>1.4064697609001408E-2</v>
+        <v>2.5659695625305172E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>9.5383230279009403</v>
+        <v>1.3153421021940506</v>
       </c>
       <c r="I33" s="20">
-        <v>8.1075745737157998</v>
+        <v>1.1180407868649429</v>
       </c>
       <c r="J33" s="20">
-        <v>16.027767908681671</v>
+        <v>1.9593524836846652</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M33" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P33" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q33" s="19">
-        <v>1.6858097812807804E-3</v>
+        <v>0</v>
       </c>
       <c r="R33" s="19">
         <v>0</v>
       </c>
       <c r="S33" s="19">
-        <v>0</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="T33" s="19">
         <v>0</v>
       </c>
       <c r="U33" s="19">
-        <v>0.17445779619528262</v>
+        <v>6.6194720593479306E-2</v>
       </c>
       <c r="V33" s="19" t="str">
         <f>IF(D33&lt;=J33,-(I33/D33-1),"")</f>
@@ -3043,37 +3044,37 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D34" s="20">
-        <v>5.57</v>
+        <v>10.56</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>-44.346898514428986</v>
+        <v>26.560974552567586</v>
       </c>
       <c r="G34" s="19">
-        <v>3.5824195682580835E-2</v>
+        <v>1.6199302793753267E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>1.7923745284423886</v>
+        <v>1.2800678978299258</v>
       </c>
       <c r="I34" s="20">
-        <v>1.5235183491760302</v>
+        <v>1.088057713155437</v>
       </c>
       <c r="J34" s="20">
-        <v>3.0118253348386927</v>
+        <v>1.9068075223277969</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M34" s="16">
         <v>45603</v>
@@ -3082,25 +3083,25 @@
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P34" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.2941332211490556</v>
       </c>
       <c r="Q34" s="19">
-        <v>1.0703282304304319E-2</v>
+        <v>9.3403926661713623E-3</v>
       </c>
       <c r="R34" s="19">
         <v>0</v>
       </c>
       <c r="S34" s="19">
-        <v>0.12063647696552883</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="T34" s="19">
         <v>0</v>
       </c>
       <c r="U34" s="19">
-        <v>-3.5319141001935742E-2</v>
+        <v>0.20774429762625654</v>
       </c>
       <c r="V34" s="19" t="str">
         <f>IF(D34&lt;=J34,-(I34/D34-1),"")</f>
@@ -3109,37 +3110,37 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D35" s="20">
-        <v>7.11</v>
+        <v>404.6</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>29.830208663871169</v>
+        <v>33.56147850229631</v>
       </c>
       <c r="G35" s="19">
-        <v>6.3968589897732533E-2</v>
+        <v>8.4033613445378148E-3</v>
       </c>
       <c r="H35" s="20">
-        <v>1.9408522499422558</v>
+        <v>67.221893657389757</v>
       </c>
       <c r="I35" s="20">
-        <v>1.6497244124509174</v>
+        <v>57.138609608781294</v>
       </c>
       <c r="J35" s="20">
-        <v>3.1710682601724467</v>
+        <v>110.04718349937198</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M35" s="16">
         <v>45624</v>
@@ -3148,25 +3149,25 @@
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>0.69530102386843873</v>
+        <v>0.51871628777616319</v>
       </c>
       <c r="P35" s="19">
-        <v>0.25685454836897598</v>
+        <v>0.22616191719415779</v>
       </c>
       <c r="Q35" s="19">
-        <v>0</v>
+        <v>6.2001756935379264E-3</v>
       </c>
       <c r="R35" s="19">
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <v>2.0677989446499247E-3</v>
+        <v>2.0144003021272054E-2</v>
       </c>
       <c r="T35" s="19">
-        <v>9.6644881579416319E-4</v>
+        <v>0</v>
       </c>
       <c r="U35" s="19">
-        <v>4.4810180002141216E-2</v>
+        <v>0.22877761631486909</v>
       </c>
       <c r="V35" s="19" t="str">
         <f>IF(D35&lt;=J35,-(I35/D35-1),"")</f>
@@ -3175,22 +3176,22 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D36" s="20">
-        <v>8.98</v>
+        <v>5.74</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>-63.887002187738524</v>
+        <v>-11.54237207582378</v>
       </c>
       <c r="G36" s="19">
-        <v>0</v>
+        <v>2.9466926886783384E-2</v>
       </c>
       <c r="H36" s="20">
         <v>0</v>
@@ -3202,37 +3203,37 @@
         <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M36" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N36" s="16">
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P36" s="19">
-        <v>0.74823479113580682</v>
+        <v>0.14930937614307849</v>
       </c>
       <c r="Q36" s="19">
-        <v>0</v>
+        <v>7.2128562067984476E-4</v>
       </c>
       <c r="R36" s="19">
         <v>0</v>
       </c>
       <c r="S36" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="T36" s="19">
-        <v>0</v>
+        <v>2.8284501268352451E-2</v>
       </c>
       <c r="U36" s="19">
-        <v>-0.11044830732057855</v>
+        <v>-4.5622430706520396E-2</v>
       </c>
       <c r="V36" s="19" t="str">
         <f>IF(D36&lt;=J36,-(I36/D36-1),"")</f>
@@ -3241,64 +3242,64 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D37" s="20">
-        <v>74.3</v>
+        <v>6.65</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="26">
-        <v>22.443616237040231</v>
+        <v>23.200120710266322</v>
       </c>
       <c r="G37" s="19">
         <v>0</v>
       </c>
       <c r="H37" s="20">
-        <v>28.427137399319701</v>
+        <v>2.2931295637542988</v>
       </c>
       <c r="I37" s="20">
-        <v>24.163066789421745</v>
+        <v>1.949160129191154</v>
       </c>
       <c r="J37" s="20">
-        <v>46.445778207602238</v>
+        <v>3.4672023863938648</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="M37" s="16">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="N37" s="16">
         <v>45716</v>
       </c>
       <c r="O37" s="19">
-        <v>0.73672180139004328</v>
+        <v>0</v>
       </c>
       <c r="P37" s="19">
-        <v>0.16976569605864555</v>
+        <v>0.73743481563190261</v>
       </c>
       <c r="Q37" s="19">
-        <v>9.0683554379893485E-5</v>
+        <v>7.0138335341758879E-4</v>
       </c>
       <c r="R37" s="19">
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <v>9.0252248239117653E-3</v>
+        <v>5.3167363129601151E-3</v>
       </c>
       <c r="T37" s="19">
-        <v>0</v>
+        <v>0.22719184534497058</v>
       </c>
       <c r="U37" s="19">
-        <v>8.4396594173019507E-2</v>
+        <v>2.9355219356749174E-2</v>
       </c>
       <c r="V37" s="19" t="str">
         <f>IF(D37&lt;=J37,-(I37/D37-1),"")</f>
@@ -3307,64 +3308,64 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="4" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D38" s="20">
-        <v>10</v>
+        <v>1.03</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>24.041298913114371</v>
+        <v>19.364771802942848</v>
       </c>
       <c r="G38" s="19">
-        <v>2.9635404493808748E-2</v>
+        <v>5.012567563697358E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>3.5213970354466726</v>
+        <v>0.4724316282328565</v>
       </c>
       <c r="I38" s="20">
-        <v>2.9931874801296718</v>
+        <v>0.401566883997928</v>
       </c>
       <c r="J38" s="20">
-        <v>5.7534469050400503</v>
+        <v>0.70374093751366629</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="M38" s="16">
-        <v>45624</v>
+        <v>45603</v>
       </c>
       <c r="N38" s="16">
         <v>45716</v>
       </c>
       <c r="O38" s="19">
-        <v>0.69575137181535374</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P38" s="19">
-        <v>0.25490688505040687</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q38" s="19">
-        <v>6.6188436699916855E-3</v>
+        <v>0</v>
       </c>
       <c r="R38" s="19">
         <v>0</v>
       </c>
       <c r="S38" s="19">
-        <v>6.4552900576145354E-3</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="T38" s="19">
         <v>0</v>
       </c>
       <c r="U38" s="19">
-        <v>3.6267609406633192E-2</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V38" s="19" t="str">
         <f>IF(D38&lt;=J38,-(I38/D38-1),"")</f>
@@ -3373,64 +3374,64 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D39" s="20">
-        <v>2.5</v>
+        <v>9.92</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>17.327862245099023</v>
+        <v>11.244195735367837</v>
       </c>
       <c r="G39" s="19">
-        <v>2.5714016914367678E-2</v>
+        <v>6.3588795442414539E-2</v>
       </c>
       <c r="H39" s="20">
-        <v>1.3188865828745011</v>
+        <v>5.9284251346869965</v>
       </c>
       <c r="I39" s="20">
-        <v>1.1210535954433258</v>
+        <v>5.039161364483947</v>
       </c>
       <c r="J39" s="20">
-        <v>2.15486747218654</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>65</v>
+        <v>8.8310672125614733</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="M39" s="16">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="N39" s="16">
         <v>45716</v>
       </c>
       <c r="O39" s="19">
-        <v>0.82154354610382485</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P39" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.25619685036829964</v>
       </c>
       <c r="Q39" s="19">
-        <v>0</v>
+        <v>5.5277235668845723E-3</v>
       </c>
       <c r="R39" s="19">
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="T39" s="19">
         <v>0</v>
       </c>
       <c r="U39" s="19">
-        <v>6.6194720593479306E-2</v>
+        <v>0.11437878179622009</v>
       </c>
       <c r="V39" s="19" t="str">
         <f>IF(D39&lt;=J39,-(I39/D39-1),"")</f>
@@ -3439,37 +3440,37 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="D40" s="20">
-        <v>10.54</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>26.454665445228265</v>
+        <v>23.624557898336192</v>
       </c>
       <c r="G40" s="19">
-        <v>1.6264400325343251E-2</v>
+        <v>6.7161772389438268E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>1.2831887124073702</v>
+        <v>46.471887795217718</v>
       </c>
       <c r="I40" s="20">
-        <v>1.0907104055462646</v>
+        <v>39.501104625935056</v>
       </c>
       <c r="J40" s="20">
-        <v>2.0965423812387698</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>56</v>
+        <v>69.22519139408017</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="M40" s="16">
         <v>45603</v>
@@ -3478,25 +3479,25 @@
         <v>45716</v>
       </c>
       <c r="O40" s="19">
-        <v>0.48660635459513968</v>
+        <v>0</v>
       </c>
       <c r="P40" s="19">
-        <v>0.2941332211490556</v>
+        <v>0.8668930922046667</v>
       </c>
       <c r="Q40" s="19">
-        <v>9.3403926661713623E-3</v>
+        <v>2.2325505205376484E-4</v>
       </c>
       <c r="R40" s="19">
-        <v>0</v>
+        <v>2.2215198715160572E-2</v>
       </c>
       <c r="S40" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="T40" s="19">
-        <v>0</v>
+        <v>2.5630406545468234E-2</v>
       </c>
       <c r="U40" s="19">
-        <v>0.20774429762625654</v>
+        <v>8.1342449801464822E-2</v>
       </c>
       <c r="V40" s="19" t="str">
         <f>IF(D40&lt;=J40,-(I40/D40-1),"")</f>
@@ -3505,64 +3506,64 @@
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="4" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="D41" s="20">
-        <v>403.2</v>
+        <v>9.31</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>33.374694962401975</v>
+        <v>18.594751710304294</v>
       </c>
       <c r="G41" s="19">
-        <v>8.4325396825396821E-3</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>67.605234663822102</v>
+        <v>4.9008686754803481</v>
       </c>
       <c r="I41" s="20">
-        <v>57.464449464248787</v>
+        <v>4.1657383741582956</v>
       </c>
       <c r="J41" s="20">
-        <v>124.53064514951041</v>
+        <v>7.5043137120487291</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M41" s="16">
-        <v>45624</v>
+        <v>45630</v>
       </c>
       <c r="N41" s="16">
         <v>45716</v>
       </c>
       <c r="O41" s="19">
-        <v>0.51871628777616319</v>
+        <v>0.82760234528184051</v>
       </c>
       <c r="P41" s="19">
-        <v>0.22616191719415779</v>
+        <v>0.1381181210170607</v>
       </c>
       <c r="Q41" s="19">
-        <v>6.2001756935379264E-3</v>
+        <v>2.152653084078963E-3</v>
       </c>
       <c r="R41" s="19">
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <v>2.0144003021272054E-2</v>
+        <v>1.3414601462329697E-2</v>
       </c>
       <c r="T41" s="19">
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <v>0.22877761631486909</v>
+        <v>1.8712279154690092E-2</v>
       </c>
       <c r="V41" s="19" t="str">
         <f>IF(D41&lt;=J41,-(I41/D41-1),"")</f>
@@ -3571,64 +3572,64 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="4" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D42" s="20">
-        <v>5.8</v>
+        <v>5.13</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="26">
-        <v>-11.638385716162158</v>
+        <v>7.8869248996556092</v>
       </c>
       <c r="G42" s="19">
-        <v>2.9223832441472461E-2</v>
+        <v>6.7963180177160631E-2</v>
       </c>
       <c r="H42" s="20">
-        <v>0</v>
+        <v>3.3446506247276457</v>
       </c>
       <c r="I42" s="20">
-        <v>0</v>
+        <v>2.8429530310184989</v>
       </c>
       <c r="J42" s="20">
-        <v>0</v>
+        <v>4.9822395996344166</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M42" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N42" s="16">
         <v>45716</v>
       </c>
       <c r="O42" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P42" s="19">
-        <v>0.14930937614307849</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q42" s="19">
-        <v>7.2128562067984476E-4</v>
+        <v>3.9320610522022457E-3</v>
       </c>
       <c r="R42" s="19">
         <v>0</v>
       </c>
       <c r="S42" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="T42" s="19">
-        <v>2.8284501268352451E-2</v>
+        <v>0</v>
       </c>
       <c r="U42" s="19">
-        <v>-4.5622430706520396E-2</v>
+        <v>0.12232431421528413</v>
       </c>
       <c r="V42" s="19" t="str">
         <f>IF(D42&lt;=J42,-(I42/D42-1),"")</f>
@@ -3637,64 +3638,64 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D43" s="20">
-        <v>6.6</v>
+        <v>4.83</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="26">
-        <v>22.977041572052201</v>
+        <v>14.758782876975914</v>
       </c>
       <c r="G43" s="19">
-        <v>0</v>
+        <v>3.7121557594579691E-2</v>
       </c>
       <c r="H43" s="20">
-        <v>2.3029014347353458</v>
+        <v>3.1364294990769106</v>
       </c>
       <c r="I43" s="20">
-        <v>1.9574662195250438</v>
+        <v>2.6659650742153738</v>
       </c>
       <c r="J43" s="20">
-        <v>3.8358799510594168</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>80</v>
+        <v>4.6720704208186117</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="M43" s="16">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="N43" s="16">
         <v>45716</v>
       </c>
       <c r="O43" s="19">
-        <v>0</v>
+        <v>0.49786034237394394</v>
       </c>
       <c r="P43" s="19">
-        <v>0.73743481563190261</v>
+        <v>0.33448624066316274</v>
       </c>
       <c r="Q43" s="19">
-        <v>7.0138335341758879E-4</v>
+        <v>6.0164745032668145E-3</v>
       </c>
       <c r="R43" s="19">
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <v>5.3167363129601151E-3</v>
+        <v>2.063358175126364E-2</v>
       </c>
       <c r="T43" s="19">
-        <v>0.22719184534497058</v>
+        <v>0</v>
       </c>
       <c r="U43" s="19">
-        <v>2.9355219356749174E-2</v>
+        <v>0.14100336070836289</v>
       </c>
       <c r="V43" s="19" t="str">
         <f>IF(D43&lt;=J43,-(I43/D43-1),"")</f>
@@ -3703,64 +3704,64 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D44" s="20">
-        <v>1.03</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>19.323863399940695</v>
+        <v>6.7986563724110489</v>
       </c>
       <c r="G44" s="19">
-        <v>5.023179113247634E-2</v>
+        <v>6.021162316954233E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>0.47367788626703677</v>
+        <v>2.2835225205491136</v>
       </c>
       <c r="I44" s="20">
-        <v>0.40262620332698124</v>
+        <v>1.9409941424667465</v>
       </c>
       <c r="J44" s="20">
-        <v>0.77392027689468057</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>80</v>
+        <v>3.4015679378958228</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="M44" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N44" s="16">
         <v>45716</v>
       </c>
       <c r="O44" s="19">
-        <v>0.69462498271442097</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P44" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q44" s="19">
-        <v>0</v>
+        <v>4.6925281602255647E-4</v>
       </c>
       <c r="R44" s="19">
         <v>0</v>
       </c>
       <c r="S44" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="T44" s="19">
         <v>0</v>
       </c>
       <c r="U44" s="19">
-        <v>0.12419023710495804</v>
+        <v>0.19964406567112258</v>
       </c>
       <c r="V44" s="19" t="str">
         <f>IF(D44&lt;=J44,-(I44/D44-1),"")</f>
@@ -3769,64 +3770,64 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D45" s="20">
-        <v>9.94</v>
+        <v>4.72</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>11.243064043819926</v>
+        <v>3.927376243137954</v>
       </c>
       <c r="G45" s="19">
-        <v>6.3595196091033424E-2</v>
+        <v>6.9404402715338154E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>5.9411543097891633</v>
+        <v>3.1638592892985415</v>
       </c>
       <c r="I45" s="20">
-        <v>5.0499811633207887</v>
+        <v>2.6892803959037601</v>
       </c>
       <c r="J45" s="20">
-        <v>9.7069758200912393</v>
+        <v>4.7129302302233684</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M45" s="16">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="N45" s="16">
         <v>45716</v>
       </c>
       <c r="O45" s="19">
-        <v>0.6223905170283478</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P45" s="19">
-        <v>0.25619685036829964</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q45" s="19">
-        <v>5.5277235668845723E-3</v>
+        <v>9.7044800044936142E-4</v>
       </c>
       <c r="R45" s="19">
         <v>0</v>
       </c>
       <c r="S45" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="T45" s="19">
         <v>0</v>
       </c>
       <c r="U45" s="19">
-        <v>0.11437878179622009</v>
+        <v>0.34620797227785238</v>
       </c>
       <c r="V45" s="19" t="str">
         <f>IF(D45&lt;=J45,-(I45/D45-1),"")</f>
@@ -3835,64 +3836,64 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D46" s="20">
-        <v>4.08</v>
+        <v>77</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>6.7511999800266507</v>
+        <v>-95.455436412858901</v>
       </c>
       <c r="G46" s="19">
-        <v>6.0634870358736687E-2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="20">
-        <v>2.292928036173933</v>
+        <v>0</v>
       </c>
       <c r="I46" s="20">
-        <v>1.9489888307478431</v>
+        <v>0</v>
       </c>
       <c r="J46" s="20">
-        <v>3.7463085191502987</v>
+        <v>0</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M46" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N46" s="16">
         <v>45716</v>
       </c>
       <c r="O46" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P46" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q46" s="19">
-        <v>4.6925281602255647E-4</v>
+        <v>0</v>
       </c>
       <c r="R46" s="19">
         <v>0</v>
       </c>
       <c r="S46" s="19">
-        <v>0.49449639261897682</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="T46" s="19">
         <v>0</v>
       </c>
       <c r="U46" s="19">
-        <v>0.19964406567112258</v>
+        <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V46" s="19" t="str">
         <f>IF(D46&lt;=J46,-(I46/D46-1),"")</f>
@@ -3901,64 +3902,64 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="4" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="D47" s="20">
-        <v>78.95</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>-97.666056397364471</v>
+        <v>9.4636802592992453</v>
       </c>
       <c r="G47" s="19">
-        <v>0</v>
+        <v>6.2287765608302181E-2</v>
       </c>
       <c r="H47" s="20">
-        <v>0</v>
+        <v>2.6065734453726188</v>
       </c>
       <c r="I47" s="20">
-        <v>0</v>
+        <v>2.2155874285667259</v>
       </c>
       <c r="J47" s="20">
-        <v>0</v>
+        <v>3.8827892345103985</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M47" s="16">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="N47" s="16">
         <v>45716</v>
       </c>
       <c r="O47" s="19">
-        <v>0.8448760372568398</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P47" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q47" s="19">
-        <v>0</v>
+        <v>3.7371996362297238E-4</v>
       </c>
       <c r="R47" s="19">
         <v>0</v>
       </c>
       <c r="S47" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="T47" s="19">
         <v>0</v>
       </c>
       <c r="U47" s="19">
-        <v>-4.3026634739724949E-2</v>
+        <v>0.10654780430421051</v>
       </c>
       <c r="V47" s="19" t="str">
         <f>IF(D47&lt;=J47,-(I47/D47-1),"")</f>
@@ -3967,64 +3968,64 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="4" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="D48" s="20">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>9.4647677379967501</v>
+        <v>13.046289906040649</v>
       </c>
       <c r="G48" s="19">
-        <v>6.2280608896157802E-2</v>
+        <v>4.539931993153782E-2</v>
       </c>
       <c r="H48" s="20">
-        <v>2.6120035441506539</v>
+        <v>1.8435699579294533</v>
       </c>
       <c r="I48" s="20">
-        <v>2.2202030125280556</v>
+        <v>1.5670344642400353</v>
       </c>
       <c r="J48" s="20">
-        <v>4.2676311576836978</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>26</v>
+        <v>2.7462082829175682</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="M48" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N48" s="16">
         <v>45716</v>
       </c>
       <c r="O48" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P48" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.16010732347610457</v>
       </c>
       <c r="Q48" s="19">
-        <v>3.7371996362297238E-4</v>
+        <v>1.2515926965280349E-5</v>
       </c>
       <c r="R48" s="19">
         <v>0</v>
       </c>
       <c r="S48" s="19">
-        <v>0.39408770164042439</v>
+        <v>0</v>
       </c>
       <c r="T48" s="19">
-        <v>0</v>
+        <v>8.8200573996119572E-5</v>
       </c>
       <c r="U48" s="19">
-        <v>0.10654780430421051</v>
+        <v>5.5156426590839844E-2</v>
       </c>
       <c r="V48" s="19" t="str">
         <f>IF(D48&lt;=J48,-(I48/D48-1),"")</f>
@@ -4033,37 +4034,37 @@
     </row>
     <row r="49" spans="2:22">
       <c r="B49" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D49" s="20">
-        <v>4.7</v>
+        <v>24.5</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="26">
-        <v>12.991088786855618</v>
+        <v>8.0109453413185125</v>
       </c>
       <c r="G49" s="19">
-        <v>4.5592228571573898E-2</v>
+        <v>6.0408163265306125E-2</v>
       </c>
       <c r="H49" s="20">
-        <v>1.8491779846597585</v>
+        <v>14.948371756772246</v>
       </c>
       <c r="I49" s="20">
-        <v>1.5718012869607947</v>
+        <v>12.706115993256409</v>
       </c>
       <c r="J49" s="20">
-        <v>3.0212859401011452</v>
+        <v>22.889262817505124</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="M49" s="16">
         <v>45593</v>
@@ -4072,25 +4073,25 @@
         <v>45716</v>
       </c>
       <c r="O49" s="19">
-        <v>0.78463553343209413</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P49" s="19">
-        <v>0.16010732347610457</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q49" s="19">
-        <v>1.2515926965280349E-5</v>
+        <v>1.9313252769435827E-2</v>
       </c>
       <c r="R49" s="19">
         <v>0</v>
       </c>
       <c r="S49" s="19">
-        <v>0</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="T49" s="19">
-        <v>8.8200573996119572E-5</v>
+        <v>0</v>
       </c>
       <c r="U49" s="19">
-        <v>5.5156426590839844E-2</v>
+        <v>0.29263922070029547</v>
       </c>
       <c r="V49" s="19" t="str">
         <f>IF(D49&lt;=J49,-(I49/D49-1),"")</f>
@@ -4099,37 +4100,37 @@
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D50" s="20">
-        <v>96.05</v>
+        <v>95.75</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="26">
-        <v>6.6448376118991135</v>
+        <v>6.6237145131275055</v>
       </c>
       <c r="G50" s="19">
-        <v>2.4306371769267154E-2</v>
+        <v>2.438388505741448E-2</v>
       </c>
       <c r="H50" s="20">
-        <v>19.83050342524335</v>
+        <v>19.839112348921965</v>
       </c>
       <c r="I50" s="20">
-        <v>16.855927911456845</v>
+        <v>16.863245496583669</v>
       </c>
       <c r="J50" s="20">
-        <v>33.322283747614158</v>
+        <v>30.378068194267282</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M50" s="16">
         <v>45606</v>
@@ -4165,10 +4166,10 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D51" s="20">
         <v>36.4</v>
@@ -4177,25 +4178,25 @@
         <v>3</v>
       </c>
       <c r="F51" s="26">
-        <v>6.4941670569944181</v>
+        <v>6.5079151361249927</v>
       </c>
       <c r="G51" s="19">
-        <v>5.8044919133623016E-2</v>
+        <v>5.7922298275070748E-2</v>
       </c>
       <c r="H51" s="20">
-        <v>19.344808101160631</v>
+        <v>19.292758427280631</v>
       </c>
       <c r="I51" s="20">
-        <v>16.443086885986535</v>
+        <v>16.398844663188537</v>
       </c>
       <c r="J51" s="20">
-        <v>31.606582608512515</v>
+        <v>28.738769996464224</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M51" s="16">
         <v>45606</v>
@@ -4231,19 +4232,19 @@
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D52" s="20">
-        <v>201.2</v>
+        <v>196.6</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="26">
-        <v>75.802309808036924</v>
+        <v>74.226058796860883</v>
       </c>
       <c r="G52" s="19">
         <v>0</v>
@@ -4257,11 +4258,11 @@
       <c r="J52" s="20">
         <v>0</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>47</v>
+      <c r="K52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="M52" s="16">
         <v>45593</v>
@@ -4297,37 +4298,37 @@
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D53" s="20">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="26">
-        <v>-25.528585383999573</v>
+        <v>-24.274426488990347</v>
       </c>
       <c r="G53" s="19">
-        <v>6.087598701318106E-2</v>
+        <v>6.4021196669923092E-2</v>
       </c>
       <c r="H53" s="20">
-        <v>0.9941686900916662</v>
+        <v>1.0068620205560828</v>
       </c>
       <c r="I53" s="20">
-        <v>0.84504338657791622</v>
+        <v>0.85583271747267031</v>
       </c>
       <c r="J53" s="20">
-        <v>1.6243260034351896</v>
+        <v>1.4998361243159517</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M53" s="16">
         <v>45593</v>
@@ -4363,37 +4364,37 @@
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D54" s="20">
-        <v>84</v>
+        <v>82.35</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="26">
-        <v>14570.638923012515</v>
+        <v>14314.669922826024</v>
       </c>
       <c r="G54" s="19">
-        <v>1.1479471836771286E-2</v>
+        <v>1.1684742998772849E-2</v>
       </c>
       <c r="H54" s="20">
-        <v>3.9822453830631273E-2</v>
+        <v>3.9738572058607265E-2</v>
       </c>
       <c r="I54" s="20">
-        <v>3.3849085756036582E-2</v>
+        <v>3.3777786249816172E-2</v>
       </c>
       <c r="J54" s="20">
-        <v>6.5064055951840005E-2</v>
+        <v>5.9195147582698851E-2</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M54" s="16">
         <v>45624</v>
@@ -4429,37 +4430,37 @@
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D55" s="20">
-        <v>90.45</v>
+        <v>90.5</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F55" s="26">
-        <v>136.0411124515141</v>
+        <v>136.40447155371396</v>
       </c>
       <c r="G55" s="19">
-        <v>3.3415902761853339E-3</v>
+        <v>3.3326888286825925E-3</v>
       </c>
       <c r="H55" s="20">
-        <v>4.7623378540035288</v>
+        <v>4.7518154747802885</v>
       </c>
       <c r="I55" s="20">
-        <v>4.0479871759029997</v>
+        <v>4.0390431535632452</v>
       </c>
       <c r="J55" s="20">
-        <v>7.780962416638185</v>
+        <v>7.0783725670999784</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M55" s="16">
         <v>45630</v>
@@ -6544,7 +6545,7 @@
       <c r="L400" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:V53" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B4:V55" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:V55">
       <sortCondition ref="V4:V53"/>
     </sortState>

--- a/financial_models/Stock_Monitor.xlsx
+++ b/financial_models/Stock_Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD746EA-2EF2-4D45-8A71-5037B9AC5647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5EFF62-BB7C-44B6-ACD3-990C137B80BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opportunities" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -172,9 +172,6 @@
     <t>0179.HK</t>
   </si>
   <si>
-    <t>JOHNSON ELECTRIC</t>
-  </si>
-  <si>
     <t>C0006</t>
   </si>
   <si>
@@ -463,8 +460,25 @@
     <t>POP MART</t>
   </si>
   <si>
-    <t>Tier 3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>0175.HK</t>
+  </si>
+  <si>
+    <t>吉利汽車</t>
+  </si>
+  <si>
+    <t>德昌電機</t>
+  </si>
+  <si>
+    <t>0564.HK</t>
+  </si>
+  <si>
+    <t>鄭煤機</t>
+  </si>
+  <si>
+    <t>3606.HK</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
   </si>
 </sst>
 </file>
@@ -1130,37 +1144,37 @@
     </row>
     <row r="5" spans="1:22">
       <c r="B5" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D5" s="20">
-        <v>7.94</v>
+        <v>73.650000000000006</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="26">
-        <v>34.407517755775118</v>
+        <v>17.611318509419466</v>
       </c>
       <c r="G5" s="19">
-        <v>7.3047858942065488E-2</v>
+        <v>6.4454843901379344E-2</v>
       </c>
       <c r="H5" s="20">
-        <v>8.4140426053958866</v>
+        <v>48.868767710150408</v>
       </c>
       <c r="I5" s="20">
-        <v>7.1519362145865024</v>
+        <v>41.538452553627849</v>
       </c>
       <c r="J5" s="20">
-        <v>11.763578080309953</v>
+        <v>74.828890121660308</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M5" s="16">
         <v>45593</v>
@@ -1169,76 +1183,76 @@
         <v>45716</v>
       </c>
       <c r="O5" s="19">
-        <v>0.60969766115231028</v>
+        <v>3.237354486453075E-2</v>
       </c>
       <c r="P5" s="19">
-        <v>0.12367370222475756</v>
+        <v>0.27531678170392498</v>
       </c>
       <c r="Q5" s="19">
-        <v>0</v>
+        <v>2.3869305285384647E-2</v>
       </c>
       <c r="R5" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S5" s="19">
-        <v>1.0724472333143184E-2</v>
+        <v>0.55863466227121317</v>
       </c>
       <c r="T5" s="19">
-        <v>1.038220193953223E-2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="19">
-        <v>0.22552196235025673</v>
+        <v>0.10980570587494648</v>
       </c>
       <c r="V5" s="19">
         <f>IF(D5&lt;=J5,-(I5/D5-1),"")</f>
-        <v>9.9252365921095431E-2</v>
+        <v>0.43600200198740191</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="D6" s="20">
-        <v>109.9</v>
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="26">
-        <v>11.123186331914894</v>
+        <v>9.4864302648332064</v>
       </c>
       <c r="G6" s="19">
-        <v>1.7590343869307346E-2</v>
+        <v>7.1578947368421048E-2</v>
       </c>
       <c r="H6" s="20">
-        <v>114.4651236665465</v>
+        <v>72.376343578223981</v>
       </c>
       <c r="I6" s="20">
-        <v>97.295355116564522</v>
+        <v>61.51989204149038</v>
       </c>
       <c r="J6" s="20">
-        <v>175.2714169591633</v>
+        <v>110.82418720162545</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M6" s="16">
-        <v>45625</v>
+        <v>45606</v>
       </c>
       <c r="N6" s="16">
         <v>45716</v>
       </c>
       <c r="O6" s="19">
-        <v>0.60531106380837341</v>
+        <v>4.1966617135767562E-2</v>
       </c>
       <c r="P6" s="19">
-        <v>0.31327931266495485</v>
+        <v>0.2109727772407923</v>
       </c>
       <c r="Q6" s="19">
         <v>0</v>
@@ -1247,856 +1261,856 @@
         <v>0</v>
       </c>
       <c r="S6" s="19">
-        <v>9.0344684898005026E-3</v>
+        <v>0.39159225009737869</v>
       </c>
       <c r="T6" s="19">
         <v>0</v>
       </c>
       <c r="U6" s="19">
-        <v>7.2375155036871239E-2</v>
+        <v>0.35546835552606143</v>
       </c>
       <c r="V6" s="19">
         <f>IF(D6&lt;=J6,-(I6/D6-1),"")</f>
-        <v>0.11469194616410816</v>
+        <v>0.35242218903694333</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="D7" s="20">
-        <v>0.435</v>
+        <v>76.2</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="26">
-        <v>-2.4361588075127969</v>
+        <v>14.577653837936545</v>
       </c>
       <c r="G7" s="19">
-        <v>0.13793103448275862</v>
+        <v>4.9212598425196846E-2</v>
       </c>
       <c r="H7" s="20">
-        <v>0.4311891531052332</v>
+        <v>15.833152111783313</v>
       </c>
       <c r="I7" s="20">
-        <v>0.36651078013944821</v>
+        <v>13.214731533770916</v>
       </c>
       <c r="J7" s="20">
-        <v>0.66024594585104501</v>
+        <v>42.135531076928871</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="M7" s="16">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="N7" s="16">
         <v>45716</v>
       </c>
       <c r="O7" s="19">
-        <v>0.46570281556597115</v>
+        <v>0.54949235029228316</v>
       </c>
       <c r="P7" s="19">
-        <v>0.49096154234108225</v>
+        <v>0.10108242664951193</v>
       </c>
       <c r="Q7" s="19">
-        <v>0</v>
+        <v>1.0218987976510586E-2</v>
       </c>
       <c r="R7" s="19">
-        <v>3.9525516276755275E-2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="19">
-        <v>0</v>
+        <v>5.6582664391799292E-2</v>
       </c>
       <c r="T7" s="19">
-        <v>0.11560295610891069</v>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="U7" s="19">
-        <v>-0.11179283029271934</v>
-      </c>
-      <c r="V7" s="19">
+        <v>0.27690377095281005</v>
+      </c>
+      <c r="V7" s="19" t="str">
         <f>IF(D7&lt;=J7,-(I7/D7-1),"")</f>
-        <v>0.15744648243805004</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D8" s="20">
-        <v>14.9</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="26">
-        <v>10.413709826264764</v>
+        <v>32.14233206750739</v>
       </c>
       <c r="G8" s="19">
-        <v>7.3825503355704702E-2</v>
+        <v>1.4285714285714285E-2</v>
       </c>
       <c r="H8" s="20">
-        <v>14.671594812844084</v>
+        <v>9.5606171556922686</v>
       </c>
       <c r="I8" s="20">
-        <v>12.383448752455315</v>
+        <v>8.126524582338428</v>
       </c>
       <c r="J8" s="20">
-        <v>26.002475615962307</v>
+        <v>14.639419084225469</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M8" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N8" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O8" s="19">
-        <v>0.72762956087193742</v>
+        <v>0.47272944175123971</v>
       </c>
       <c r="P8" s="19">
-        <v>0.16540000000000002</v>
+        <v>0.35112695227219692</v>
       </c>
       <c r="Q8" s="19">
-        <v>0</v>
+        <v>1.6858097812807804E-3</v>
       </c>
       <c r="R8" s="19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S8" s="19">
-        <v>3.8885650375487034E-3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U8" s="19">
-        <v>7.3081874090513851E-2</v>
-      </c>
-      <c r="V8" s="19">
+        <v>0.17445779619528262</v>
+      </c>
+      <c r="V8" s="19" t="str">
         <f>IF(D8&lt;=J8,-(I8/D8-1),"")</f>
-        <v>0.16889605688219367</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D9" s="20">
-        <v>10.82</v>
+        <v>5.49</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="26">
-        <v>9.4539367277136428</v>
+        <v>-43.709735137276731</v>
       </c>
       <c r="G9" s="19">
-        <v>5.6247072381438543E-2</v>
+        <v>3.634641036617909E-2</v>
       </c>
       <c r="H9" s="20">
-        <v>10.140322806839608</v>
+        <v>1.7969064603115732</v>
       </c>
       <c r="I9" s="20">
-        <v>8.6192743858136662</v>
+        <v>1.5273704912648371</v>
       </c>
       <c r="J9" s="20">
-        <v>15.527076631268542</v>
+        <v>2.7514611556212381</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M9" s="16">
-        <v>45593</v>
+        <v>45603</v>
       </c>
       <c r="N9" s="16">
-        <v>45808</v>
+        <v>45716</v>
       </c>
       <c r="O9" s="19">
-        <v>0.77696054205677556</v>
+        <v>0.45524911405880131</v>
       </c>
       <c r="P9" s="19">
-        <v>0.14204607870614464</v>
+        <v>0.44873026767330132</v>
       </c>
       <c r="Q9" s="19">
-        <v>1.0871617989521474E-3</v>
+        <v>1.0703282304304319E-2</v>
       </c>
       <c r="R9" s="19">
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <v>8.274315042185636E-3</v>
+        <v>0.12063647696552883</v>
       </c>
       <c r="T9" s="19">
-        <v>2.3595955443495159E-2</v>
+        <v>0</v>
       </c>
       <c r="U9" s="19">
-        <v>4.8035946952446888E-2</v>
-      </c>
-      <c r="V9" s="19">
+        <v>-3.5319141001935742E-2</v>
+      </c>
+      <c r="V9" s="19" t="str">
         <f>IF(D9&lt;=J9,-(I9/D9-1),"")</f>
-        <v>0.20339423421315472</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="4" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D10" s="20">
-        <v>3.71</v>
+        <v>7.87</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="26">
-        <v>4.0423550436268316</v>
+        <v>34.104176919137295</v>
       </c>
       <c r="G10" s="19">
-        <v>8.6454500085260011E-2</v>
+        <v>7.3697585768742052E-2</v>
       </c>
       <c r="H10" s="20">
-        <v>3.3527218964486902</v>
+        <v>8.4245226516710048</v>
       </c>
       <c r="I10" s="20">
-        <v>2.8498136119813866</v>
+        <v>7.1608442539203541</v>
       </c>
       <c r="J10" s="20">
-        <v>4.9942626818932023</v>
+        <v>11.779932800434452</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M10" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N10" s="16">
         <v>45716</v>
       </c>
       <c r="O10" s="19">
-        <v>1.1832950701880444E-2</v>
+        <v>0.60969766115231028</v>
       </c>
       <c r="P10" s="19">
-        <v>0.19534620844359546</v>
+        <v>0.12367370222475756</v>
       </c>
       <c r="Q10" s="19">
         <v>0</v>
       </c>
       <c r="R10" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="19">
-        <v>0</v>
+        <v>1.0724472333143184E-2</v>
       </c>
       <c r="T10" s="19">
-        <v>0.49757189674208302</v>
+        <v>1.038220193953223E-2</v>
       </c>
       <c r="U10" s="19">
-        <v>0.29524894411244107</v>
+        <v>0.22552196235025673</v>
       </c>
       <c r="V10" s="19">
         <f>IF(D10&lt;=J10,-(I10/D10-1),"")</f>
-        <v>0.23185616927725428</v>
+        <v>9.0108735207070634E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="D11" s="20">
-        <v>21.5</v>
+        <v>6.54</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="26">
-        <v>12.073595148308248</v>
+        <v>5.9154979382921669</v>
       </c>
       <c r="G11" s="19">
-        <v>3.7138925210819684E-2</v>
+        <v>8.4097859327217125E-2</v>
       </c>
       <c r="H11" s="20">
-        <v>18.255361767767205</v>
+        <v>5.3969761771789519</v>
       </c>
       <c r="I11" s="20">
-        <v>15.517057502602125</v>
+        <v>4.5874297506021087</v>
       </c>
       <c r="J11" s="20">
-        <v>28.606350025770681</v>
+        <v>9.4997002586832355</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="M11" s="16">
-        <v>45591</v>
+        <v>45593</v>
       </c>
       <c r="N11" s="16">
         <v>45716</v>
       </c>
       <c r="O11" s="19">
-        <v>0.40723441233977836</v>
+        <v>0.73600077942413045</v>
       </c>
       <c r="P11" s="19">
-        <v>0.41258418422767756</v>
+        <v>0.20890317762054877</v>
       </c>
       <c r="Q11" s="19">
-        <v>1.2057353899630675E-2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="19">
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <v>4.6980230284597004E-2</v>
+        <v>5.1931891220120593E-3</v>
       </c>
       <c r="T11" s="19">
         <v>0</v>
       </c>
       <c r="U11" s="19">
-        <v>0.12114381924831638</v>
+        <v>4.9902853833308697E-2</v>
       </c>
       <c r="V11" s="19">
         <f>IF(D11&lt;=J11,-(I11/D11-1),"")</f>
-        <v>0.27827639522780812</v>
+        <v>0.29855814210976928</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="4" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20">
-        <v>14.54</v>
+        <v>14.64</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="26">
-        <v>12.13049067566436</v>
+        <v>51.53999412749674</v>
       </c>
       <c r="G12" s="19">
-        <v>7.0839064649243472E-2</v>
+        <v>1.3909957910864407E-2</v>
       </c>
       <c r="H12" s="20">
-        <v>12.299211687056777</v>
+        <v>2.3555474147623765</v>
       </c>
       <c r="I12" s="20">
-        <v>10.45432993399826</v>
+        <v>2.00221530254802</v>
       </c>
       <c r="J12" s="20">
-        <v>18.321082345194288</v>
+        <v>3.6068639938101761</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M12" s="16">
-        <v>45624</v>
+        <v>45633</v>
       </c>
       <c r="N12" s="16">
         <v>45716</v>
       </c>
       <c r="O12" s="19">
-        <v>0.75431095413462357</v>
+        <v>0.8470171903697109</v>
       </c>
       <c r="P12" s="19">
-        <v>0.13135421474946254</v>
+        <v>0.13310064677721414</v>
       </c>
       <c r="Q12" s="19">
-        <v>7.2979774463912414E-4</v>
+        <v>0</v>
       </c>
       <c r="R12" s="19">
         <v>0</v>
       </c>
       <c r="S12" s="19">
-        <v>6.3176187869769956E-4</v>
+        <v>0</v>
       </c>
       <c r="T12" s="19">
         <v>0</v>
       </c>
       <c r="U12" s="19">
-        <v>0.11297327149257705</v>
-      </c>
-      <c r="V12" s="19">
+        <v>1.9882162853074953E-2</v>
+      </c>
+      <c r="V12" s="19" t="str">
         <f>IF(D12&lt;=J12,-(I12/D12-1),"")</f>
-        <v>0.28099519023395736</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20">
-        <v>6.5</v>
+        <v>10.74</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="26">
-        <v>5.8793175227674448</v>
+        <v>8.5450234326734034</v>
       </c>
       <c r="G13" s="19">
-        <v>8.461538461538462E-2</v>
+        <v>5.6663180634814118E-2</v>
       </c>
       <c r="H13" s="20">
-        <v>5.4088422031521217</v>
+        <v>10.711606627404075</v>
       </c>
       <c r="I13" s="20">
-        <v>4.5975158726793035</v>
+        <v>9.1048656332934641</v>
       </c>
       <c r="J13" s="20">
-        <v>9.5223966934226585</v>
+        <v>17.229624318474329</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M13" s="16">
         <v>45593</v>
       </c>
       <c r="N13" s="16">
-        <v>45716</v>
+        <v>45808</v>
       </c>
       <c r="O13" s="19">
-        <v>0.73600077942413045</v>
+        <v>0.77696054205677556</v>
       </c>
       <c r="P13" s="19">
-        <v>0.20890317762054877</v>
+        <v>0.14204607870614464</v>
       </c>
       <c r="Q13" s="19">
-        <v>0</v>
+        <v>1.0871617989521474E-3</v>
       </c>
       <c r="R13" s="19">
         <v>0</v>
       </c>
       <c r="S13" s="19">
-        <v>5.1931891220120593E-3</v>
+        <v>8.274315042185636E-3</v>
       </c>
       <c r="T13" s="19">
-        <v>0</v>
+        <v>1.8876764354796127E-2</v>
       </c>
       <c r="U13" s="19">
-        <v>4.9902853833308697E-2</v>
+        <v>5.275513804114592E-2</v>
       </c>
       <c r="V13" s="19">
         <f>IF(D13&lt;=J13,-(I13/D13-1),"")</f>
-        <v>0.29268986574164557</v>
+        <v>0.15224714773803871</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D14" s="20">
-        <v>5.78</v>
+        <v>7.2</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="26">
-        <v>8.7950551583335184</v>
+        <v>30.230822078078493</v>
       </c>
       <c r="G14" s="19">
-        <v>8.323863200250381E-2</v>
+        <v>6.3120889655417858E-2</v>
       </c>
       <c r="H14" s="20">
-        <v>5.3583862257870241</v>
+        <v>1.935210159928143</v>
       </c>
       <c r="I14" s="20">
-        <v>4.0413100223912055</v>
+        <v>1.6449286359389215</v>
       </c>
       <c r="J14" s="20">
-        <v>10.317336748238674</v>
+        <v>2.8827168437642032</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="M14" s="16">
-        <v>45605</v>
+        <v>45624</v>
       </c>
       <c r="N14" s="16">
         <v>45716</v>
       </c>
       <c r="O14" s="19">
-        <v>0.86263355974668987</v>
+        <v>0.69530102386843873</v>
       </c>
       <c r="P14" s="19">
-        <v>5.04E-2</v>
+        <v>0.25685454836897598</v>
       </c>
       <c r="Q14" s="19">
-        <v>9.1579398111554088E-3</v>
+        <v>0</v>
       </c>
       <c r="R14" s="19">
         <v>0</v>
       </c>
       <c r="S14" s="19">
-        <v>7.9916652607163307E-3</v>
+        <v>2.0677989446499247E-3</v>
       </c>
       <c r="T14" s="19">
-        <v>0.02</v>
+        <v>9.6644881579416319E-4</v>
       </c>
       <c r="U14" s="19">
-        <v>4.9816835181438444E-2</v>
-      </c>
-      <c r="V14" s="19">
+        <v>4.4810180002141216E-2</v>
+      </c>
+      <c r="V14" s="19" t="str">
         <f>IF(D14&lt;=J14,-(I14/D14-1),"")</f>
-        <v>0.3008114148112101</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="D15" s="20">
-        <v>2.78</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="26">
-        <v>5.8837472249256288</v>
+        <v>-70.841871243337494</v>
       </c>
       <c r="G15" s="19">
-        <v>8.0763430475331036E-2</v>
+        <v>0</v>
       </c>
       <c r="H15" s="20">
-        <v>2.2860780883643144</v>
+        <v>0</v>
       </c>
       <c r="I15" s="20">
-        <v>1.9431663751096671</v>
+        <v>0</v>
       </c>
       <c r="J15" s="20">
-        <v>3.40537474841119</v>
+        <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M15" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N15" s="16">
         <v>45716</v>
       </c>
       <c r="O15" s="19">
-        <v>0.19853855217217412</v>
+        <v>0.35834792051449244</v>
       </c>
       <c r="P15" s="19">
-        <v>0.15821181625248168</v>
+        <v>0.74823479113580682</v>
       </c>
       <c r="Q15" s="19">
-        <v>1.3644023113167324E-3</v>
+        <v>0</v>
       </c>
       <c r="R15" s="19">
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <v>0.51643948647548221</v>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="T15" s="19">
         <v>0</v>
       </c>
       <c r="U15" s="19">
-        <v>0.12544574278854531</v>
-      </c>
-      <c r="V15" s="19">
+        <v>-0.11044830732057855</v>
+      </c>
+      <c r="V15" s="19" t="str">
         <f>IF(D15&lt;=J15,-(I15/D15-1),"")</f>
-        <v>0.30101928952889667</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="D16" s="20">
-        <v>1.93</v>
+        <v>73.05</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="26">
-        <v>39.837428162415605</v>
+        <v>22.082844326622734</v>
       </c>
       <c r="G16" s="19">
-        <v>6.5257170653302027E-2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="20">
-        <v>1.5213687028736862</v>
+        <v>28.504607806089865</v>
       </c>
       <c r="I16" s="20">
-        <v>1.2931633974426333</v>
+        <v>24.228916635176386</v>
       </c>
       <c r="J16" s="20">
-        <v>2.0851881547978053</v>
+        <v>42.460873112902092</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M16" s="16">
-        <v>45593</v>
+        <v>45625</v>
       </c>
       <c r="N16" s="16">
         <v>45716</v>
       </c>
       <c r="O16" s="19">
-        <v>0.55541924442229906</v>
+        <v>0.73672180139004328</v>
       </c>
       <c r="P16" s="19">
-        <v>0.37949349616392825</v>
+        <v>0.16976569605864555</v>
       </c>
       <c r="Q16" s="19">
-        <v>1.8148224946381651E-3</v>
+        <v>9.0683554379893485E-5</v>
       </c>
       <c r="R16" s="19">
         <v>0</v>
       </c>
       <c r="S16" s="19">
-        <v>6.208277497005729E-4</v>
+        <v>9.0252248239117653E-3</v>
       </c>
       <c r="T16" s="19">
-        <v>1.2789175437999239E-2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="19">
-        <v>4.9862433731434744E-2</v>
-      </c>
-      <c r="V16" s="19">
+        <v>8.4396594173019507E-2</v>
+      </c>
+      <c r="V16" s="19" t="str">
         <f>IF(D16&lt;=J16,-(I16/D16-1),"")</f>
-        <v>0.32996715158412782</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="D17" s="20">
-        <v>5.59</v>
+        <v>10.1</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="26">
-        <v>15.652853067877992</v>
+        <v>24.300212547374304</v>
       </c>
       <c r="G17" s="19">
-        <v>5.9597205999143497E-2</v>
+        <v>2.9319645515762934E-2</v>
       </c>
       <c r="H17" s="20">
-        <v>4.3131440646338124</v>
+        <v>3.5112365649979336</v>
       </c>
       <c r="I17" s="20">
-        <v>3.6661724549387404</v>
+        <v>2.9845510802482433</v>
       </c>
       <c r="J17" s="20">
-        <v>6.2178403034734329</v>
+        <v>5.2303884084280261</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" s="16">
-        <v>45605</v>
+        <v>45624</v>
       </c>
       <c r="N17" s="16">
         <v>45716</v>
       </c>
       <c r="O17" s="19">
-        <v>0.35166796085418528</v>
+        <v>0.69575137181535374</v>
       </c>
       <c r="P17" s="19">
-        <v>0.43886385985236792</v>
+        <v>0.25490688505040687</v>
       </c>
       <c r="Q17" s="19">
-        <v>0</v>
+        <v>6.6188436699916855E-3</v>
       </c>
       <c r="R17" s="19">
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <v>2.7202256703967287E-3</v>
+        <v>6.4552900576145354E-3</v>
       </c>
       <c r="T17" s="19">
         <v>0</v>
       </c>
       <c r="U17" s="19">
-        <v>0.2067479536230501</v>
-      </c>
-      <c r="V17" s="19">
+        <v>3.6267609406633192E-2</v>
+      </c>
+      <c r="V17" s="19" t="str">
         <f>IF(D17&lt;=J17,-(I17/D17-1),"")</f>
-        <v>0.34415519589646859</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D18" s="20">
-        <v>94.25</v>
+        <v>3.78</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="26">
-        <v>9.4115373943213658</v>
+        <v>9.0443913454938869</v>
       </c>
       <c r="G18" s="19">
-        <v>7.2148541114058357E-2</v>
+        <v>6.4338624338624348E-2</v>
       </c>
       <c r="H18" s="20">
-        <v>72.568905041583719</v>
+        <v>2.3435068838007158</v>
       </c>
       <c r="I18" s="20">
-        <v>61.683569285346159</v>
+        <v>1.9919808512306083</v>
       </c>
       <c r="J18" s="20">
-        <v>111.11904138474858</v>
+        <v>3.8314879410406064</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M18" s="16">
-        <v>45606</v>
+        <v>45619</v>
       </c>
       <c r="N18" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O18" s="19">
-        <v>4.1966617135767562E-2</v>
+        <v>0.68375747988736812</v>
       </c>
       <c r="P18" s="19">
-        <v>0.2109727772407923</v>
+        <v>0.21895053202218998</v>
       </c>
       <c r="Q18" s="19">
-        <v>0</v>
+        <v>2.4257361073934199E-4</v>
       </c>
       <c r="R18" s="19">
         <v>0</v>
       </c>
       <c r="S18" s="19">
-        <v>0.39159225009737869</v>
+        <v>3.7548526172941428E-3</v>
       </c>
       <c r="T18" s="19">
         <v>0</v>
       </c>
       <c r="U18" s="19">
-        <v>0.35546835552606143</v>
+        <v>9.3294561862408407E-2</v>
       </c>
       <c r="V18" s="19">
         <f>IF(D18&lt;=J18,-(I18/D18-1),"")</f>
-        <v>0.34553242137563756</v>
+        <v>0.47302093882788132</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D19" s="20">
-        <v>0.16900000000000001</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="26">
-        <v>4.1366778459299942</v>
+        <v>17.549157410713374</v>
       </c>
       <c r="G19" s="19">
-        <v>7.1597633136094671E-2</v>
+        <v>2.5389762735178349E-2</v>
       </c>
       <c r="H19" s="20">
-        <v>0.12879854635128854</v>
+        <v>1.3133550237892755</v>
       </c>
       <c r="I19" s="20">
-        <v>0.10947876439859526</v>
+        <v>1.1163517702208841</v>
       </c>
       <c r="J19" s="20">
-        <v>0.19721905675858259</v>
+        <v>1.9563925031585512</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="M19" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N19" s="16">
         <v>45716</v>
       </c>
       <c r="O19" s="19">
-        <v>0.69931288683936033</v>
+        <v>0.82154354610382485</v>
       </c>
       <c r="P19" s="19">
-        <v>0.22200134640260258</v>
+        <v>0.1102707353696761</v>
       </c>
       <c r="Q19" s="19">
         <v>0</v>
@@ -2105,475 +2119,475 @@
         <v>0</v>
       </c>
       <c r="S19" s="19">
-        <v>2.1205737325435711E-3</v>
+        <v>1.9909979330197799E-3</v>
       </c>
       <c r="T19" s="19">
         <v>0</v>
       </c>
       <c r="U19" s="19">
-        <v>7.6565193025493528E-2</v>
-      </c>
-      <c r="V19" s="19">
+        <v>6.6194720593479306E-2</v>
+      </c>
+      <c r="V19" s="19" t="str">
         <f>IF(D19&lt;=J19,-(I19/D19-1),"")</f>
-        <v>0.35219666036334174</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D20" s="20">
-        <v>7.11</v>
+        <v>10.08</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F20" s="26">
-        <v>11.637151648654187</v>
+        <v>6.857901525611485</v>
       </c>
       <c r="G20" s="19">
-        <v>7.7355836849507739E-2</v>
+        <v>8.9216805166668356E-2</v>
       </c>
       <c r="H20" s="20">
-        <v>5.2443050031500409</v>
+        <v>9.5204432286856751</v>
       </c>
       <c r="I20" s="20">
-        <v>4.4576592526775345</v>
+        <v>8.0923767443828236</v>
       </c>
       <c r="J20" s="20">
-        <v>9.2079576367017797</v>
+        <v>14.181788946608313</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M20" s="16">
-        <v>45593</v>
+        <v>45634</v>
       </c>
       <c r="N20" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O20" s="19">
-        <v>0.79501071628968012</v>
+        <v>0.78453465804081768</v>
       </c>
       <c r="P20" s="19">
-        <v>0.12234231416665901</v>
+        <v>0.10773556748225227</v>
       </c>
       <c r="Q20" s="19">
-        <v>1.3233621247382252E-3</v>
+        <v>7.3308514744086254E-3</v>
       </c>
       <c r="R20" s="19">
         <v>0</v>
       </c>
       <c r="S20" s="19">
-        <v>6.4812855868203439E-3</v>
+        <v>1.0669041048412063E-2</v>
       </c>
       <c r="T20" s="19">
         <v>0</v>
       </c>
       <c r="U20" s="19">
-        <v>7.4842321832102252E-2</v>
+        <v>8.9729881954109345E-2</v>
       </c>
       <c r="V20" s="19">
         <f>IF(D20&lt;=J20,-(I20/D20-1),"")</f>
-        <v>0.37304370567123291</v>
+        <v>0.19718484678741832</v>
       </c>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D21" s="20">
-        <v>6.1</v>
+        <v>15</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="26">
-        <v>3.7049349966321814</v>
+        <v>10.483600496239696</v>
       </c>
       <c r="G21" s="19">
-        <v>7.0108457992637097E-2</v>
+        <v>7.3333333333333334E-2</v>
       </c>
       <c r="H21" s="20">
-        <v>4.1439788985047583</v>
+        <v>14.63190119856484</v>
       </c>
       <c r="I21" s="20">
-        <v>3.5223820637290446</v>
+        <v>12.353789297553718</v>
       </c>
       <c r="J21" s="20">
-        <v>6.1729304745726754</v>
+        <v>25.926331397777052</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M21" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N21" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O21" s="19">
-        <v>0.47700776116848903</v>
+        <v>0.72762956087193742</v>
       </c>
       <c r="P21" s="19">
-        <v>0.15697168260849415</v>
+        <v>0.16540000000000002</v>
       </c>
       <c r="Q21" s="19">
         <v>0</v>
       </c>
       <c r="R21" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S21" s="19">
-        <v>0</v>
+        <v>3.8885650375487034E-3</v>
       </c>
       <c r="T21" s="19">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U21" s="19">
-        <v>0.36602055622301682</v>
+        <v>7.3081874090513851E-2</v>
       </c>
       <c r="V21" s="19">
         <f>IF(D21&lt;=J21,-(I21/D21-1),"")</f>
-        <v>0.42256031742146805</v>
+        <v>0.17641404682975215</v>
       </c>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="4" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="D22" s="20">
-        <v>5.19</v>
+        <v>111.2</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="26">
-        <v>16.766333440269769</v>
+        <v>12.971537431611186</v>
       </c>
       <c r="G22" s="19">
-        <v>3.0481695568400771E-2</v>
+        <v>1.7383822598903299E-2</v>
       </c>
       <c r="H22" s="20">
-        <v>3.5153526077001485</v>
+        <v>93.614672800381015</v>
       </c>
       <c r="I22" s="20">
-        <v>2.9880497165451261</v>
+        <v>79.57247188032386</v>
       </c>
       <c r="J22" s="20">
-        <v>5.4675726606388242</v>
+        <v>143.34476584929081</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M22" s="16">
-        <v>45591</v>
+        <v>45625</v>
       </c>
       <c r="N22" s="16">
         <v>45716</v>
       </c>
       <c r="O22" s="19">
-        <v>0.66005868735054896</v>
+        <v>0.60531106380837341</v>
       </c>
       <c r="P22" s="19">
-        <v>0.21645682425674254</v>
+        <v>0.31327931266495485</v>
       </c>
       <c r="Q22" s="19">
-        <v>1.0365594158118095E-3</v>
+        <v>0</v>
       </c>
       <c r="R22" s="19">
         <v>0</v>
       </c>
       <c r="S22" s="19">
-        <v>7.0437342852983705E-5</v>
+        <v>9.0344684898005026E-3</v>
       </c>
       <c r="T22" s="19">
-        <v>0.01</v>
+        <v>9.5756364731927404E-3</v>
       </c>
       <c r="U22" s="19">
-        <v>0.11237749163404374</v>
+        <v>6.2799518563678491E-2</v>
       </c>
       <c r="V22" s="19">
         <f>IF(D22&lt;=J22,-(I22/D22-1),"")</f>
-        <v>0.42426787735161353</v>
+        <v>0.28442021690356245</v>
       </c>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="4" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D23" s="20">
-        <v>5.75</v>
+        <v>10.64</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="26">
-        <v>5.0198894109763001</v>
+        <v>26.726005966853169</v>
       </c>
       <c r="G23" s="19">
-        <v>6.9727433764416244E-2</v>
+        <v>1.609927311278226E-2</v>
       </c>
       <c r="H23" s="20">
-        <v>3.87806868507182</v>
+        <v>1.2811704144406983</v>
       </c>
       <c r="I23" s="20">
-        <v>3.2963583823110469</v>
+        <v>1.0889948522745936</v>
       </c>
       <c r="J23" s="20">
-        <v>5.7768268021836633</v>
+        <v>1.9084498469032949</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M23" s="16">
-        <v>45606</v>
+        <v>45603</v>
       </c>
       <c r="N23" s="16">
         <v>45716</v>
       </c>
       <c r="O23" s="19">
-        <v>8.1734249293405042E-3</v>
+        <v>0.48660635459513968</v>
       </c>
       <c r="P23" s="19">
-        <v>0.19791759120646774</v>
+        <v>0.2941332211490556</v>
       </c>
       <c r="Q23" s="19">
-        <v>1.3780163008283218E-3</v>
+        <v>9.3403926661713623E-3</v>
       </c>
       <c r="R23" s="19">
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <v>0.583299310268654</v>
+        <v>2.1757339633768379E-3</v>
       </c>
       <c r="T23" s="19">
         <v>0</v>
       </c>
       <c r="U23" s="19">
-        <v>0.20923165729470938</v>
-      </c>
-      <c r="V23" s="19">
+        <v>0.20774429762625654</v>
+      </c>
+      <c r="V23" s="19" t="str">
         <f>IF(D23&lt;=J23,-(I23/D23-1),"")</f>
-        <v>0.42672028133720918</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D24" s="20">
-        <v>73.5</v>
+        <v>408.6</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="26">
-        <v>17.574561840509197</v>
+        <v>33.847446789749668</v>
       </c>
       <c r="G24" s="19">
-        <v>6.4589649273965363E-2</v>
+        <v>8.321096426823299E-3</v>
       </c>
       <c r="H24" s="20">
-        <v>48.902191803800115</v>
+        <v>66.945938646174994</v>
       </c>
       <c r="I24" s="20">
-        <v>41.566863033230099</v>
+        <v>56.904047849248741</v>
       </c>
       <c r="J24" s="20">
-        <v>74.880069800386082</v>
+        <v>109.73411483040033</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M24" s="16">
-        <v>45593</v>
+        <v>45624</v>
       </c>
       <c r="N24" s="16">
         <v>45716</v>
       </c>
       <c r="O24" s="19">
-        <v>3.237354486453075E-2</v>
+        <v>0.51871628777616319</v>
       </c>
       <c r="P24" s="19">
-        <v>0.27531678170392498</v>
+        <v>0.22616191719415779</v>
       </c>
       <c r="Q24" s="19">
-        <v>2.3869305285384647E-2</v>
+        <v>6.2001756935379264E-3</v>
       </c>
       <c r="R24" s="19">
         <v>0</v>
       </c>
       <c r="S24" s="19">
-        <v>0.55863466227121317</v>
+        <v>2.0144003021272054E-2</v>
       </c>
       <c r="T24" s="19">
         <v>0</v>
       </c>
       <c r="U24" s="19">
-        <v>0.10980570587494648</v>
-      </c>
-      <c r="V24" s="19">
+        <v>0.22877761631486909</v>
+      </c>
+      <c r="V24" s="19" t="str">
         <f>IF(D24&lt;=J24,-(I24/D24-1),"")</f>
-        <v>0.43446444852748167</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D25" s="20">
-        <v>3.73</v>
+        <v>6.18</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F25" s="26">
-        <v>8.9247565393365615</v>
+        <v>-12.410349097386508</v>
       </c>
       <c r="G25" s="19">
-        <v>6.5201072386058975E-2</v>
+        <v>2.7406016655081428E-2</v>
       </c>
       <c r="H25" s="20">
-        <v>2.3525975057142112</v>
+        <v>0</v>
       </c>
       <c r="I25" s="20">
-        <v>1.9997078798570795</v>
+        <v>0</v>
       </c>
       <c r="J25" s="20">
-        <v>3.8470366529617044</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M25" s="16">
-        <v>45619</v>
+        <v>45593</v>
       </c>
       <c r="N25" s="16">
-        <v>45626</v>
+        <v>45716</v>
       </c>
       <c r="O25" s="19">
-        <v>0.68375747988736812</v>
+        <v>0.8649634921177769</v>
       </c>
       <c r="P25" s="19">
-        <v>0.21895053202218998</v>
+        <v>0.14930937614307849</v>
       </c>
       <c r="Q25" s="19">
-        <v>2.4257361073934199E-4</v>
+        <v>7.2128562067984476E-4</v>
       </c>
       <c r="R25" s="19">
         <v>0</v>
       </c>
       <c r="S25" s="19">
-        <v>3.7548526172941428E-3</v>
+        <v>2.3437755566327548E-3</v>
       </c>
       <c r="T25" s="19">
-        <v>0</v>
+        <v>2.8284501268352451E-2</v>
       </c>
       <c r="U25" s="19">
-        <v>9.3294561862408407E-2</v>
-      </c>
-      <c r="V25" s="19">
+        <v>-4.5622430706520396E-2</v>
+      </c>
+      <c r="V25" s="19" t="str">
         <f>IF(D25&lt;=J25,-(I25/D25-1),"")</f>
-        <v>0.46388528690158726</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D26" s="20">
-        <v>77.55</v>
+        <v>6.69</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F26" s="26">
-        <v>14.835919358687388</v>
+        <v>23.308110187347307</v>
       </c>
       <c r="G26" s="19">
-        <v>4.8355899419729211E-2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="20">
-        <v>15.527268966348883</v>
+        <v>2.2938925134287418</v>
       </c>
       <c r="I26" s="20">
-        <v>12.908848388336494</v>
+        <v>1.9498086364144305</v>
       </c>
       <c r="J26" s="20">
-        <v>41.667156338782434</v>
+        <v>3.4684083814889113</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M26" s="16">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="N26" s="16">
         <v>45716</v>
       </c>
       <c r="O26" s="19">
-        <v>0.54949235029228316</v>
+        <v>0</v>
       </c>
       <c r="P26" s="19">
-        <v>0.10108242664951193</v>
+        <v>0.73743481563190261</v>
       </c>
       <c r="Q26" s="19">
-        <v>1.0218987976510586E-2</v>
+        <v>7.0138335341758879E-4</v>
       </c>
       <c r="R26" s="19">
         <v>0</v>
       </c>
       <c r="S26" s="19">
-        <v>5.6582664391799292E-2</v>
+        <v>5.3167363129601151E-3</v>
       </c>
       <c r="T26" s="19">
-        <v>5.719799737085E-3</v>
+        <v>0.22719184534497058</v>
       </c>
       <c r="U26" s="19">
-        <v>0.27690377095281005</v>
+        <v>2.9355219356749174E-2</v>
       </c>
       <c r="V26" s="19" t="str">
         <f>IF(D26&lt;=J26,-(I26/D26-1),"")</f>
@@ -2582,37 +2596,37 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D27" s="20">
-        <v>35.200000000000003</v>
+        <v>1.08</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="26">
-        <v>32.326002536464571</v>
+        <v>20.27735291550103</v>
       </c>
       <c r="G27" s="19">
-        <v>1.4204545454545454E-2</v>
+        <v>4.7869772461093495E-2</v>
       </c>
       <c r="H27" s="20">
-        <v>9.5524247529994462</v>
+        <v>0.46786707435529357</v>
       </c>
       <c r="I27" s="20">
-        <v>8.1195610400495291</v>
+        <v>0.39768701320199951</v>
       </c>
       <c r="J27" s="20">
-        <v>14.626874704048552</v>
+        <v>0.69694151251084979</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="M27" s="16">
         <v>45603</v>
@@ -2621,25 +2635,25 @@
         <v>45716</v>
       </c>
       <c r="O27" s="19">
-        <v>0.47272944175123971</v>
+        <v>0.69462498271442097</v>
       </c>
       <c r="P27" s="19">
-        <v>0.35112695227219692</v>
+        <v>0.15111319129019563</v>
       </c>
       <c r="Q27" s="19">
-        <v>1.6858097812807804E-3</v>
+        <v>0</v>
       </c>
       <c r="R27" s="19">
         <v>0</v>
       </c>
       <c r="S27" s="19">
-        <v>0</v>
+        <v>3.0071588890425386E-2</v>
       </c>
       <c r="T27" s="19">
         <v>0</v>
       </c>
       <c r="U27" s="19">
-        <v>0.17445779619528262</v>
+        <v>0.12419023710495804</v>
       </c>
       <c r="V27" s="19" t="str">
         <f>IF(D27&lt;=J27,-(I27/D27-1),"")</f>
@@ -2648,64 +2662,64 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D28" s="20">
-        <v>5.53</v>
+        <v>10.34</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="26">
-        <v>-44.025977617119601</v>
+        <v>11.704412227984838</v>
       </c>
       <c r="G28" s="19">
-        <v>3.6085330895155206E-2</v>
+        <v>6.1088489417796134E-2</v>
       </c>
       <c r="H28" s="20">
-        <v>1.7947349105097297</v>
+        <v>5.8670020987442868</v>
       </c>
       <c r="I28" s="20">
-        <v>1.5255246739332702</v>
+        <v>4.9869517839326436</v>
       </c>
       <c r="J28" s="20">
-        <v>2.7481360326617299</v>
+        <v>8.7395705761890401</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="M28" s="16">
-        <v>45603</v>
+        <v>45604</v>
       </c>
       <c r="N28" s="16">
         <v>45716</v>
       </c>
       <c r="O28" s="19">
-        <v>0.45524911405880131</v>
+        <v>0.6223905170283478</v>
       </c>
       <c r="P28" s="19">
-        <v>0.44873026767330132</v>
+        <v>0.25619685036829964</v>
       </c>
       <c r="Q28" s="19">
-        <v>1.0703282304304319E-2</v>
+        <v>5.5277235668845723E-3</v>
       </c>
       <c r="R28" s="19">
         <v>0</v>
       </c>
       <c r="S28" s="19">
-        <v>0.12063647696552883</v>
+        <v>1.5061272402478966E-3</v>
       </c>
       <c r="T28" s="19">
         <v>0</v>
       </c>
       <c r="U28" s="19">
-        <v>-3.5319141001935742E-2</v>
+        <v>0.11437878179622009</v>
       </c>
       <c r="V28" s="19" t="str">
         <f>IF(D28&lt;=J28,-(I28/D28-1),"")</f>
@@ -2714,37 +2728,37 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="4" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D29" s="20">
-        <v>7.12</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="26">
-        <v>29.935402987778509</v>
+        <v>-2.3801551567653765</v>
       </c>
       <c r="G29" s="19">
-        <v>6.3743801456823762E-2</v>
+        <v>0.14117647058823529</v>
       </c>
       <c r="H29" s="20">
-        <v>1.9356486584712804</v>
+        <v>0</v>
       </c>
       <c r="I29" s="20">
-        <v>1.6453013597005883</v>
+        <v>0</v>
       </c>
       <c r="J29" s="20">
-        <v>2.8833700374908804</v>
+        <v>0</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M29" s="16">
         <v>45624</v>
@@ -2753,25 +2767,25 @@
         <v>45716</v>
       </c>
       <c r="O29" s="19">
-        <v>0.69530102386843873</v>
+        <v>0.46570281556597115</v>
       </c>
       <c r="P29" s="19">
-        <v>0.25685454836897598</v>
+        <v>0.49096154234108225</v>
       </c>
       <c r="Q29" s="19">
         <v>0</v>
       </c>
       <c r="R29" s="19">
-        <v>0</v>
+        <v>3.9525516276755275E-2</v>
       </c>
       <c r="S29" s="19">
-        <v>2.0677989446499247E-3</v>
+        <v>0</v>
       </c>
       <c r="T29" s="19">
-        <v>9.6644881579416319E-4</v>
+        <v>0.11560295610891069</v>
       </c>
       <c r="U29" s="19">
-        <v>4.4810180002141216E-2</v>
+        <v>-0.11179283029271934</v>
       </c>
       <c r="V29" s="19" t="str">
         <f>IF(D29&lt;=J29,-(I29/D29-1),"")</f>
@@ -2780,262 +2794,262 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D30" s="20">
-        <v>9.25</v>
+        <v>5.77</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="26">
-        <v>-65.947195421513015</v>
+        <v>8.7679666195257653</v>
       </c>
       <c r="G30" s="19">
-        <v>0</v>
+        <v>8.3495796863086502E-2</v>
       </c>
       <c r="H30" s="20">
-        <v>0</v>
+        <v>5.3749173700788084</v>
       </c>
       <c r="I30" s="20">
-        <v>0</v>
+        <v>4.0530471803918058</v>
       </c>
       <c r="J30" s="20">
-        <v>0</v>
+        <v>10.349608665206238</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="M30" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N30" s="16">
         <v>45716</v>
       </c>
       <c r="O30" s="19">
-        <v>0.35834792051449244</v>
+        <v>0.86263355974668987</v>
       </c>
       <c r="P30" s="19">
-        <v>0.74823479113580682</v>
+        <v>5.04E-2</v>
       </c>
       <c r="Q30" s="19">
-        <v>0</v>
+        <v>9.1579398111554088E-3</v>
       </c>
       <c r="R30" s="19">
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <v>3.8655956702792868E-3</v>
+        <v>7.9916652607163307E-3</v>
       </c>
       <c r="T30" s="19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U30" s="19">
-        <v>-0.11044830732057855</v>
-      </c>
-      <c r="V30" s="19" t="str">
+        <v>4.9816835181438444E-2</v>
+      </c>
+      <c r="V30" s="19">
         <f>IF(D30&lt;=J30,-(I30/D30-1),"")</f>
-        <v/>
+        <v>0.29756548000142014</v>
       </c>
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D31" s="20">
-        <v>74.150000000000006</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F31" s="26">
-        <v>22.445723073930576</v>
+        <v>4.0877230785225391</v>
       </c>
       <c r="G31" s="19">
-        <v>0</v>
+        <v>7.2455089820359281E-2</v>
       </c>
       <c r="H31" s="20">
-        <v>28.366516721481783</v>
+        <v>0.12931467316996276</v>
       </c>
       <c r="I31" s="20">
-        <v>24.111539213259515</v>
+        <v>0.10991747219446835</v>
       </c>
       <c r="J31" s="20">
-        <v>42.255170650287809</v>
+        <v>0.19800936105339284</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M31" s="16">
-        <v>45625</v>
+        <v>45593</v>
       </c>
       <c r="N31" s="16">
         <v>45716</v>
       </c>
       <c r="O31" s="19">
-        <v>0.73672180139004328</v>
+        <v>0.69931288683936033</v>
       </c>
       <c r="P31" s="19">
-        <v>0.16976569605864555</v>
+        <v>0.22200134640260258</v>
       </c>
       <c r="Q31" s="19">
-        <v>9.0683554379893485E-5</v>
+        <v>0</v>
       </c>
       <c r="R31" s="19">
         <v>0</v>
       </c>
       <c r="S31" s="19">
-        <v>9.0252248239117653E-3</v>
+        <v>2.1205737325435711E-3</v>
       </c>
       <c r="T31" s="19">
         <v>0</v>
       </c>
       <c r="U31" s="19">
-        <v>8.4396594173019507E-2</v>
-      </c>
-      <c r="V31" s="19" t="str">
+        <v>7.6565193025493528E-2</v>
+      </c>
+      <c r="V31" s="19">
         <f>IF(D31&lt;=J31,-(I31/D31-1),"")</f>
-        <v/>
+        <v>0.34181154374569855</v>
       </c>
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="4" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D32" s="20">
-        <v>9.89</v>
+        <v>6.12</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="26">
-        <v>23.827179939593449</v>
+        <v>3.7120560508951939</v>
       </c>
       <c r="G32" s="19">
-        <v>2.9901718107345005E-2</v>
+        <v>6.9973964836602634E-2</v>
       </c>
       <c r="H32" s="20">
-        <v>3.5202676561211259</v>
+        <v>4.1469830287493714</v>
       </c>
       <c r="I32" s="20">
-        <v>2.9922275077029568</v>
+        <v>3.5249355744369657</v>
       </c>
       <c r="J32" s="20">
-        <v>5.243841251451216</v>
+        <v>6.177405470124234</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M32" s="16">
-        <v>45624</v>
+        <v>45605</v>
       </c>
       <c r="N32" s="16">
         <v>45716</v>
       </c>
       <c r="O32" s="19">
-        <v>0.69575137181535374</v>
+        <v>0.47700776116848903</v>
       </c>
       <c r="P32" s="19">
-        <v>0.25490688505040687</v>
+        <v>0.15697168260849415</v>
       </c>
       <c r="Q32" s="19">
-        <v>6.6188436699916855E-3</v>
+        <v>0</v>
       </c>
       <c r="R32" s="19">
         <v>0</v>
       </c>
       <c r="S32" s="19">
-        <v>6.4552900576145354E-3</v>
+        <v>0</v>
       </c>
       <c r="T32" s="19">
         <v>0</v>
       </c>
       <c r="U32" s="19">
-        <v>3.6267609406633192E-2</v>
-      </c>
-      <c r="V32" s="19" t="str">
+        <v>0.36602055622301682</v>
+      </c>
+      <c r="V32" s="19">
         <f>IF(D32&lt;=J32,-(I32/D32-1),"")</f>
-        <v/>
+        <v>0.42403013489592067</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D33" s="20">
-        <v>2.5</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="26">
-        <v>17.364545135948401</v>
+        <v>23.902184122996498</v>
       </c>
       <c r="G33" s="19">
-        <v>2.5659695625305172E-2</v>
+        <v>6.6381681782905155E-2</v>
       </c>
       <c r="H33" s="20">
-        <v>1.3153421021940506</v>
+        <v>46.364977358229574</v>
       </c>
       <c r="I33" s="20">
-        <v>1.1180407868649429</v>
+        <v>39.410230754495139</v>
       </c>
       <c r="J33" s="20">
-        <v>1.9593524836846652</v>
+        <v>69.065936071913328</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M33" s="16">
-        <v>45605</v>
+        <v>45603</v>
       </c>
       <c r="N33" s="16">
         <v>45716</v>
       </c>
       <c r="O33" s="19">
-        <v>0.82154354610382485</v>
+        <v>0</v>
       </c>
       <c r="P33" s="19">
-        <v>0.1102707353696761</v>
+        <v>0.8668930922046667</v>
       </c>
       <c r="Q33" s="19">
-        <v>0</v>
+        <v>2.2325505205376484E-4</v>
       </c>
       <c r="R33" s="19">
-        <v>0</v>
+        <v>2.2215198715160572E-2</v>
       </c>
       <c r="S33" s="19">
-        <v>1.9909979330197799E-3</v>
+        <v>3.6955976811858409E-3</v>
       </c>
       <c r="T33" s="19">
-        <v>0</v>
+        <v>2.5630406545468234E-2</v>
       </c>
       <c r="U33" s="19">
-        <v>6.6194720593479306E-2</v>
+        <v>8.1342449801464822E-2</v>
       </c>
       <c r="V33" s="19" t="str">
         <f>IF(D33&lt;=J33,-(I33/D33-1),"")</f>
@@ -3044,64 +3058,64 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="D34" s="20">
-        <v>10.56</v>
+        <v>9.1</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F34" s="26">
-        <v>26.560974552567586</v>
+        <v>18.176239992399669</v>
       </c>
       <c r="G34" s="19">
-        <v>1.6199302793753267E-2</v>
+        <v>4.1758241758241763E-2</v>
       </c>
       <c r="H34" s="20">
-        <v>1.2800678978299258</v>
+        <v>4.9294815613729508</v>
       </c>
       <c r="I34" s="20">
-        <v>1.088057713155437</v>
+        <v>4.1900593271670079</v>
       </c>
       <c r="J34" s="20">
-        <v>1.9068075223277969</v>
+        <v>7.5481263677559545</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M34" s="16">
-        <v>45603</v>
+        <v>45630</v>
       </c>
       <c r="N34" s="16">
         <v>45716</v>
       </c>
       <c r="O34" s="19">
-        <v>0.48660635459513968</v>
+        <v>0.82760234528184051</v>
       </c>
       <c r="P34" s="19">
-        <v>0.2941332211490556</v>
+        <v>0.1381181210170607</v>
       </c>
       <c r="Q34" s="19">
-        <v>9.3403926661713623E-3</v>
+        <v>2.152653084078963E-3</v>
       </c>
       <c r="R34" s="19">
         <v>0</v>
       </c>
       <c r="S34" s="19">
-        <v>2.1757339633768379E-3</v>
+        <v>1.3414601462329697E-2</v>
       </c>
       <c r="T34" s="19">
         <v>0</v>
       </c>
       <c r="U34" s="19">
-        <v>0.20774429762625654</v>
+        <v>1.8712279154690092E-2</v>
       </c>
       <c r="V34" s="19" t="str">
         <f>IF(D34&lt;=J34,-(I34/D34-1),"")</f>
@@ -3110,64 +3124,64 @@
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D35" s="20">
-        <v>404.6</v>
+        <v>5.21</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F35" s="26">
-        <v>33.56147850229631</v>
+        <v>7.9990867944355841</v>
       </c>
       <c r="G35" s="19">
-        <v>8.4033613445378148E-3</v>
+        <v>6.7010211512131795E-2</v>
       </c>
       <c r="H35" s="20">
-        <v>67.221893657389757</v>
+        <v>3.3342633024775932</v>
       </c>
       <c r="I35" s="20">
-        <v>57.138609608781294</v>
+        <v>2.834123807105954</v>
       </c>
       <c r="J35" s="20">
-        <v>110.04718349937198</v>
+        <v>4.9667664952492352</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M35" s="16">
-        <v>45624</v>
+        <v>45606</v>
       </c>
       <c r="N35" s="16">
         <v>45716</v>
       </c>
       <c r="O35" s="19">
-        <v>0.51871628777616319</v>
+        <v>0.18760554961924605</v>
       </c>
       <c r="P35" s="19">
-        <v>0.22616191719415779</v>
+        <v>0.19513886735214594</v>
       </c>
       <c r="Q35" s="19">
-        <v>6.2001756935379264E-3</v>
+        <v>3.9320610522022457E-3</v>
       </c>
       <c r="R35" s="19">
         <v>0</v>
       </c>
       <c r="S35" s="19">
-        <v>2.0144003021272054E-2</v>
+        <v>0.49099920776112166</v>
       </c>
       <c r="T35" s="19">
         <v>0</v>
       </c>
       <c r="U35" s="19">
-        <v>0.22877761631486909</v>
+        <v>0.12232431421528413</v>
       </c>
       <c r="V35" s="19" t="str">
         <f>IF(D35&lt;=J35,-(I35/D35-1),"")</f>
@@ -3176,64 +3190,64 @@
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D36" s="20">
-        <v>5.74</v>
+        <v>4.76</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F36" s="26">
-        <v>-11.54237207582378</v>
+        <v>14.525219739653041</v>
       </c>
       <c r="G36" s="19">
-        <v>2.9466926886783384E-2</v>
+        <v>3.7718466117101557E-2</v>
       </c>
       <c r="H36" s="20">
-        <v>0</v>
+        <v>3.1567323892181642</v>
       </c>
       <c r="I36" s="20">
-        <v>0</v>
+        <v>2.6832225308354394</v>
       </c>
       <c r="J36" s="20">
-        <v>0</v>
+        <v>4.7023138975216581</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M36" s="16">
-        <v>45593</v>
+        <v>45625</v>
       </c>
       <c r="N36" s="16">
         <v>45716</v>
       </c>
       <c r="O36" s="19">
-        <v>0.8649634921177769</v>
+        <v>0.49786034237394394</v>
       </c>
       <c r="P36" s="19">
-        <v>0.14930937614307849</v>
+        <v>0.33448624066316274</v>
       </c>
       <c r="Q36" s="19">
-        <v>7.2128562067984476E-4</v>
+        <v>6.0164745032668145E-3</v>
       </c>
       <c r="R36" s="19">
         <v>0</v>
       </c>
       <c r="S36" s="19">
-        <v>2.3437755566327548E-3</v>
+        <v>2.063358175126364E-2</v>
       </c>
       <c r="T36" s="19">
-        <v>2.8284501268352451E-2</v>
+        <v>0</v>
       </c>
       <c r="U36" s="19">
-        <v>-4.5622430706520396E-2</v>
+        <v>0.14100336070836289</v>
       </c>
       <c r="V36" s="19" t="str">
         <f>IF(D36&lt;=J36,-(I36/D36-1),"")</f>
@@ -3242,64 +3256,64 @@
     </row>
     <row r="37" spans="2:22">
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D37" s="20">
-        <v>6.65</v>
+        <v>4.08</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F37" s="26">
-        <v>23.200120710266322</v>
+        <v>6.7563438329611873</v>
       </c>
       <c r="G37" s="19">
-        <v>0</v>
+        <v>6.0588706802893307E-2</v>
       </c>
       <c r="H37" s="20">
-        <v>2.2931295637542988</v>
+        <v>2.2906837768428732</v>
       </c>
       <c r="I37" s="20">
-        <v>1.949160129191154</v>
+        <v>1.9470812103164421</v>
       </c>
       <c r="J37" s="20">
-        <v>3.4672023863938648</v>
+        <v>3.4122354481063408</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="M37" s="16">
-        <v>45624</v>
+        <v>45593</v>
       </c>
       <c r="N37" s="16">
         <v>45716</v>
       </c>
       <c r="O37" s="19">
-        <v>0</v>
+        <v>0.11401933240696355</v>
       </c>
       <c r="P37" s="19">
-        <v>0.73743481563190261</v>
+        <v>0.19137095648691452</v>
       </c>
       <c r="Q37" s="19">
-        <v>7.0138335341758879E-4</v>
+        <v>4.6925281602255647E-4</v>
       </c>
       <c r="R37" s="19">
         <v>0</v>
       </c>
       <c r="S37" s="19">
-        <v>5.3167363129601151E-3</v>
+        <v>0.49449639261897682</v>
       </c>
       <c r="T37" s="19">
-        <v>0.22719184534497058</v>
+        <v>0</v>
       </c>
       <c r="U37" s="19">
-        <v>2.9355219356749174E-2</v>
+        <v>0.19964406567112258</v>
       </c>
       <c r="V37" s="19" t="str">
         <f>IF(D37&lt;=J37,-(I37/D37-1),"")</f>
@@ -3308,130 +3322,130 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D38" s="20">
-        <v>1.03</v>
+        <v>4.71</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="26">
-        <v>19.364771802942848</v>
+        <v>3.9137561470990918</v>
       </c>
       <c r="G38" s="19">
-        <v>5.012567563697358E-2</v>
+        <v>6.9645934020553343E-2</v>
       </c>
       <c r="H38" s="20">
-        <v>0.4724316282328565</v>
+        <v>3.1717226182637077</v>
       </c>
       <c r="I38" s="20">
-        <v>0.401566883997928</v>
+        <v>2.6959642255241514</v>
       </c>
       <c r="J38" s="20">
-        <v>0.70374093751366629</v>
+        <v>4.7246435579669486</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="M38" s="16">
-        <v>45603</v>
+        <v>45605</v>
       </c>
       <c r="N38" s="16">
         <v>45716</v>
       </c>
       <c r="O38" s="19">
-        <v>0.69462498271442097</v>
+        <v>1.2012210534502537E-2</v>
       </c>
       <c r="P38" s="19">
-        <v>0.15111319129019563</v>
+        <v>0.15470436118294414</v>
       </c>
       <c r="Q38" s="19">
-        <v>0</v>
+        <v>9.7044800044936142E-4</v>
       </c>
       <c r="R38" s="19">
         <v>0</v>
       </c>
       <c r="S38" s="19">
-        <v>3.0071588890425386E-2</v>
+        <v>0.48610500800425166</v>
       </c>
       <c r="T38" s="19">
         <v>0</v>
       </c>
       <c r="U38" s="19">
-        <v>0.12419023710495804</v>
-      </c>
-      <c r="V38" s="19" t="str">
+        <v>0.34620797227785238</v>
+      </c>
+      <c r="V38" s="19">
         <f>IF(D38&lt;=J38,-(I38/D38-1),"")</f>
-        <v/>
+        <v>0.42760844468701664</v>
       </c>
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="D39" s="20">
-        <v>9.92</v>
+        <v>78.95</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F39" s="26">
-        <v>11.244195735367837</v>
+        <v>-97.74046981013413</v>
       </c>
       <c r="G39" s="19">
-        <v>6.3588795442414539E-2</v>
+        <v>0</v>
       </c>
       <c r="H39" s="20">
-        <v>5.9284251346869965</v>
+        <v>0</v>
       </c>
       <c r="I39" s="20">
-        <v>5.039161364483947</v>
+        <v>0</v>
       </c>
       <c r="J39" s="20">
-        <v>8.8310672125614733</v>
+        <v>0</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="M39" s="16">
-        <v>45604</v>
+        <v>45603</v>
       </c>
       <c r="N39" s="16">
         <v>45716</v>
       </c>
       <c r="O39" s="19">
-        <v>0.6223905170283478</v>
+        <v>0.8448760372568398</v>
       </c>
       <c r="P39" s="19">
-        <v>0.25619685036829964</v>
+        <v>0.18023840312844694</v>
       </c>
       <c r="Q39" s="19">
-        <v>5.5277235668845723E-3</v>
+        <v>0</v>
       </c>
       <c r="R39" s="19">
         <v>0</v>
       </c>
       <c r="S39" s="19">
-        <v>1.5061272402478966E-3</v>
+        <v>1.7912194354438221E-2</v>
       </c>
       <c r="T39" s="19">
         <v>0</v>
       </c>
       <c r="U39" s="19">
-        <v>0.11437878179622009</v>
+        <v>-4.3026634739724949E-2</v>
       </c>
       <c r="V39" s="19" t="str">
         <f>IF(D39&lt;=J39,-(I39/D39-1),"")</f>
@@ -3440,130 +3454,130 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D40" s="20">
-        <v>72.400000000000006</v>
+        <v>5.22</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F40" s="26">
-        <v>23.624557898336192</v>
+        <v>14.648184303963689</v>
       </c>
       <c r="G40" s="19">
-        <v>6.7161772389438268E-2</v>
+        <v>3.030651340996169E-2</v>
       </c>
       <c r="H40" s="20">
-        <v>46.471887795217718</v>
+        <v>4.2141130104891102</v>
       </c>
       <c r="I40" s="20">
-        <v>39.501104625935056</v>
+        <v>3.5819960589157436</v>
       </c>
       <c r="J40" s="20">
-        <v>69.22519139408017</v>
+        <v>6.3129565542103983</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="M40" s="16">
-        <v>45603</v>
+        <v>45591</v>
       </c>
       <c r="N40" s="16">
         <v>45716</v>
       </c>
       <c r="O40" s="19">
-        <v>0</v>
+        <v>0.66005868735054896</v>
       </c>
       <c r="P40" s="19">
-        <v>0.8668930922046667</v>
+        <v>0.21645682425674254</v>
       </c>
       <c r="Q40" s="19">
-        <v>2.2325505205376484E-4</v>
+        <v>9.8097105597332122E-4</v>
       </c>
       <c r="R40" s="19">
-        <v>2.2215198715160572E-2</v>
+        <v>0</v>
       </c>
       <c r="S40" s="19">
-        <v>3.6955976811858409E-3</v>
+        <v>7.0437342852983705E-5</v>
       </c>
       <c r="T40" s="19">
-        <v>2.5630406545468234E-2</v>
+        <v>0</v>
       </c>
       <c r="U40" s="19">
-        <v>8.1342449801464822E-2</v>
-      </c>
-      <c r="V40" s="19" t="str">
+        <v>0.12243307999388223</v>
+      </c>
+      <c r="V40" s="19">
         <f>IF(D40&lt;=J40,-(I40/D40-1),"")</f>
-        <v/>
+        <v>0.31379385844525987</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" s="4" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="D41" s="20">
-        <v>9.31</v>
+        <v>4.45</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>18.594751710304294</v>
+        <v>9.3875962165545275</v>
       </c>
       <c r="G41" s="19">
-        <v>4.0816326530612242E-2</v>
+        <v>6.2792591861124777E-2</v>
       </c>
       <c r="H41" s="20">
-        <v>4.9008686754803481</v>
+        <v>2.6163106857631284</v>
       </c>
       <c r="I41" s="20">
-        <v>4.1657383741582956</v>
+        <v>2.2238640828986589</v>
       </c>
       <c r="J41" s="20">
-        <v>7.5043137120487291</v>
+        <v>3.8972939676224576</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M41" s="16">
-        <v>45630</v>
+        <v>45606</v>
       </c>
       <c r="N41" s="16">
         <v>45716</v>
       </c>
       <c r="O41" s="19">
-        <v>0.82760234528184051</v>
+        <v>8.9217754367700408E-2</v>
       </c>
       <c r="P41" s="19">
-        <v>0.1381181210170607</v>
+        <v>0.40977301972404179</v>
       </c>
       <c r="Q41" s="19">
-        <v>2.152653084078963E-3</v>
+        <v>3.7371996362297238E-4</v>
       </c>
       <c r="R41" s="19">
         <v>0</v>
       </c>
       <c r="S41" s="19">
-        <v>1.3414601462329697E-2</v>
+        <v>0.39408770164042439</v>
       </c>
       <c r="T41" s="19">
         <v>0</v>
       </c>
       <c r="U41" s="19">
-        <v>1.8712279154690092E-2</v>
+        <v>0.10654780430421051</v>
       </c>
       <c r="V41" s="19" t="str">
         <f>IF(D41&lt;=J41,-(I41/D41-1),"")</f>
@@ -3572,64 +3586,64 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D42" s="20">
-        <v>5.13</v>
+        <v>4.78</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="26">
-        <v>7.8869248996556092</v>
+        <v>13.222280310450055</v>
       </c>
       <c r="G42" s="19">
-        <v>6.7963180177160631E-2</v>
+        <v>4.4795048619247706E-2</v>
       </c>
       <c r="H42" s="20">
-        <v>3.3446506247276457</v>
+        <v>1.8407369897317196</v>
       </c>
       <c r="I42" s="20">
-        <v>2.8429530310184989</v>
+        <v>1.5646264412719617</v>
       </c>
       <c r="J42" s="20">
-        <v>4.9822395996344166</v>
+        <v>2.7419882528089214</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="M42" s="16">
-        <v>45606</v>
+        <v>45593</v>
       </c>
       <c r="N42" s="16">
         <v>45716</v>
       </c>
       <c r="O42" s="19">
-        <v>0.18760554961924605</v>
+        <v>0.78463553343209413</v>
       </c>
       <c r="P42" s="19">
-        <v>0.19513886735214594</v>
+        <v>0.16010732347610457</v>
       </c>
       <c r="Q42" s="19">
-        <v>3.9320610522022457E-3</v>
+        <v>1.2515926965280349E-5</v>
       </c>
       <c r="R42" s="19">
         <v>0</v>
       </c>
       <c r="S42" s="19">
-        <v>0.49099920776112166</v>
+        <v>0</v>
       </c>
       <c r="T42" s="19">
-        <v>0</v>
+        <v>8.8200573996119572E-5</v>
       </c>
       <c r="U42" s="19">
-        <v>0.12232431421528413</v>
+        <v>5.5156426590839844E-2</v>
       </c>
       <c r="V42" s="19" t="str">
         <f>IF(D42&lt;=J42,-(I42/D42-1),"")</f>
@@ -3638,262 +3652,262 @@
     </row>
     <row r="43" spans="2:22">
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D43" s="20">
-        <v>4.83</v>
+        <v>14.98</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="26">
-        <v>14.758782876975914</v>
+        <v>12.498207434332807</v>
       </c>
       <c r="G43" s="19">
-        <v>3.7121557594579691E-2</v>
+        <v>6.8758344459279044E-2</v>
       </c>
       <c r="H43" s="20">
-        <v>3.1364294990769106</v>
+        <v>12.161418509558043</v>
       </c>
       <c r="I43" s="20">
-        <v>2.6659650742153738</v>
+        <v>10.337205733124337</v>
       </c>
       <c r="J43" s="20">
-        <v>4.6720704208186117</v>
+        <v>18.115823649288028</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M43" s="16">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="N43" s="16">
         <v>45716</v>
       </c>
       <c r="O43" s="19">
-        <v>0.49786034237394394</v>
+        <v>0.75431095413462357</v>
       </c>
       <c r="P43" s="19">
-        <v>0.33448624066316274</v>
+        <v>0.13135421474946254</v>
       </c>
       <c r="Q43" s="19">
-        <v>6.0164745032668145E-3</v>
+        <v>7.2979774463912414E-4</v>
       </c>
       <c r="R43" s="19">
         <v>0</v>
       </c>
       <c r="S43" s="19">
-        <v>2.063358175126364E-2</v>
+        <v>6.3176187869769956E-4</v>
       </c>
       <c r="T43" s="19">
         <v>0</v>
       </c>
       <c r="U43" s="19">
-        <v>0.14100336070836289</v>
-      </c>
-      <c r="V43" s="19" t="str">
+        <v>0.11297327149257705</v>
+      </c>
+      <c r="V43" s="19">
         <f>IF(D43&lt;=J43,-(I43/D43-1),"")</f>
-        <v/>
+        <v>0.30993286160718714</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D44" s="20">
-        <v>4.0999999999999996</v>
+        <v>22.05</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="26">
-        <v>6.7986563724110489</v>
+        <v>12.383080498502165</v>
       </c>
       <c r="G44" s="19">
-        <v>6.021162316954233E-2</v>
+        <v>3.6210726990991711E-2</v>
       </c>
       <c r="H44" s="20">
-        <v>2.2835225205491136</v>
+        <v>18.020373614505889</v>
       </c>
       <c r="I44" s="20">
-        <v>1.9409941424667465</v>
+        <v>15.317317572330005</v>
       </c>
       <c r="J44" s="20">
-        <v>3.4015679378958228</v>
+        <v>28.263244910313677</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="M44" s="16">
-        <v>45593</v>
+        <v>45591</v>
       </c>
       <c r="N44" s="16">
         <v>45716</v>
       </c>
       <c r="O44" s="19">
-        <v>0.11401933240696355</v>
+        <v>0.40723441233977836</v>
       </c>
       <c r="P44" s="19">
-        <v>0.19137095648691452</v>
+        <v>0.41258418422767756</v>
       </c>
       <c r="Q44" s="19">
-        <v>4.6925281602255647E-4</v>
+        <v>1.2057353899630675E-2</v>
       </c>
       <c r="R44" s="19">
         <v>0</v>
       </c>
       <c r="S44" s="19">
-        <v>0.49449639261897682</v>
+        <v>4.6980230284597004E-2</v>
       </c>
       <c r="T44" s="19">
         <v>0</v>
       </c>
       <c r="U44" s="19">
-        <v>0.19964406567112258</v>
-      </c>
-      <c r="V44" s="19" t="str">
+        <v>0.12114381924831638</v>
+      </c>
+      <c r="V44" s="19">
         <f>IF(D44&lt;=J44,-(I44/D44-1),"")</f>
-        <v/>
+        <v>0.30533707154965972</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D45" s="20">
-        <v>4.72</v>
+        <v>6.93</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="26">
-        <v>3.927376243137954</v>
+        <v>11.342540214511043</v>
       </c>
       <c r="G45" s="19">
-        <v>6.9404402715338154E-2</v>
+        <v>7.9365079365079375E-2</v>
       </c>
       <c r="H45" s="20">
-        <v>3.1638592892985415</v>
+        <v>5.2894338178726841</v>
       </c>
       <c r="I45" s="20">
-        <v>2.6892803959037601</v>
+        <v>4.4960187451917815</v>
       </c>
       <c r="J45" s="20">
-        <v>4.7129302302233684</v>
+        <v>9.2941415884453527</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M45" s="16">
-        <v>45605</v>
+        <v>45593</v>
       </c>
       <c r="N45" s="16">
-        <v>45716</v>
+        <v>45626</v>
       </c>
       <c r="O45" s="19">
-        <v>1.2012210534502537E-2</v>
+        <v>0.79501071628968012</v>
       </c>
       <c r="P45" s="19">
-        <v>0.15470436118294414</v>
+        <v>0.12234231416665901</v>
       </c>
       <c r="Q45" s="19">
-        <v>9.7044800044936142E-4</v>
+        <v>1.3233621247382252E-3</v>
       </c>
       <c r="R45" s="19">
         <v>0</v>
       </c>
       <c r="S45" s="19">
-        <v>0.48610500800425166</v>
+        <v>6.4812855868203439E-3</v>
       </c>
       <c r="T45" s="19">
         <v>0</v>
       </c>
       <c r="U45" s="19">
-        <v>0.34620797227785238</v>
-      </c>
-      <c r="V45" s="19" t="str">
+        <v>7.4842321832102252E-2</v>
+      </c>
+      <c r="V45" s="19">
         <f>IF(D45&lt;=J45,-(I45/D45-1),"")</f>
-        <v/>
+        <v>0.35122384629267223</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" s="4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D46" s="20">
-        <v>77</v>
+        <v>24.7</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="26">
-        <v>-95.455436412858901</v>
+        <v>8.076340813492541</v>
       </c>
       <c r="G46" s="19">
-        <v>0</v>
+        <v>5.991902834008097E-2</v>
       </c>
       <c r="H46" s="20">
-        <v>0</v>
+        <v>14.913927338773053</v>
       </c>
       <c r="I46" s="20">
-        <v>0</v>
+        <v>12.676838237957096</v>
       </c>
       <c r="J46" s="20">
-        <v>0</v>
+        <v>22.83652079656747</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M46" s="16">
-        <v>45603</v>
+        <v>45593</v>
       </c>
       <c r="N46" s="16">
         <v>45716</v>
       </c>
       <c r="O46" s="19">
-        <v>0.8448760372568398</v>
+        <v>2.8609905101246377E-2</v>
       </c>
       <c r="P46" s="19">
-        <v>0.18023840312844694</v>
+        <v>0.11648068007266453</v>
       </c>
       <c r="Q46" s="19">
-        <v>0</v>
+        <v>1.9313252769435827E-2</v>
       </c>
       <c r="R46" s="19">
         <v>0</v>
       </c>
       <c r="S46" s="19">
-        <v>1.7912194354438221E-2</v>
+        <v>0.54295694135635775</v>
       </c>
       <c r="T46" s="19">
         <v>0</v>
       </c>
       <c r="U46" s="19">
-        <v>-4.3026634739724949E-2</v>
+        <v>0.29263922070029547</v>
       </c>
       <c r="V46" s="19" t="str">
         <f>IF(D46&lt;=J46,-(I46/D46-1),"")</f>
@@ -3902,34 +3916,34 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" s="4" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="D47" s="20">
-        <v>4.4800000000000004</v>
+        <v>96.5</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="26">
-        <v>9.4636802592992453</v>
+        <v>6.6759348493005159</v>
       </c>
       <c r="G47" s="19">
-        <v>6.2287765608302181E-2</v>
+        <v>2.4193150021251619E-2</v>
       </c>
       <c r="H47" s="20">
-        <v>2.6065734453726188</v>
+        <v>19.819647626355387</v>
       </c>
       <c r="I47" s="20">
-        <v>2.2155874285667259</v>
+        <v>16.846700482402078</v>
       </c>
       <c r="J47" s="20">
-        <v>3.8827892345103985</v>
+        <v>30.348263399621707</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>25</v>
@@ -3941,25 +3955,25 @@
         <v>45716</v>
       </c>
       <c r="O47" s="19">
-        <v>8.9217754367700408E-2</v>
+        <v>3.4550297712315887E-2</v>
       </c>
       <c r="P47" s="19">
-        <v>0.40977301972404179</v>
+        <v>0.30165569831818656</v>
       </c>
       <c r="Q47" s="19">
-        <v>3.7371996362297238E-4</v>
+        <v>0</v>
       </c>
       <c r="R47" s="19">
         <v>0</v>
       </c>
       <c r="S47" s="19">
-        <v>0.39408770164042439</v>
+        <v>0.50814791601378884</v>
       </c>
       <c r="T47" s="19">
         <v>0</v>
       </c>
       <c r="U47" s="19">
-        <v>0.10654780430421051</v>
+        <v>0.15564608795570867</v>
       </c>
       <c r="V47" s="19" t="str">
         <f>IF(D47&lt;=J47,-(I47/D47-1),"")</f>
@@ -3968,64 +3982,64 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D48" s="20">
-        <v>4.71</v>
+        <v>5.81</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="26">
-        <v>13.046289906040649</v>
+        <v>5.0654120934442171</v>
       </c>
       <c r="G48" s="19">
-        <v>4.539931993153782E-2</v>
+        <v>6.9100795740104581E-2</v>
       </c>
       <c r="H48" s="20">
-        <v>1.8435699579294533</v>
+        <v>3.8719589716066292</v>
       </c>
       <c r="I48" s="20">
-        <v>1.5670344642400353</v>
+        <v>3.2911651258656347</v>
       </c>
       <c r="J48" s="20">
-        <v>2.7462082829175682</v>
+        <v>5.7677256852706913</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M48" s="16">
-        <v>45593</v>
+        <v>45606</v>
       </c>
       <c r="N48" s="16">
         <v>45716</v>
       </c>
       <c r="O48" s="19">
-        <v>0.78463553343209413</v>
+        <v>8.1734249293405042E-3</v>
       </c>
       <c r="P48" s="19">
-        <v>0.16010732347610457</v>
+        <v>0.19791759120646774</v>
       </c>
       <c r="Q48" s="19">
-        <v>1.2515926965280349E-5</v>
+        <v>1.3780163008283218E-3</v>
       </c>
       <c r="R48" s="19">
         <v>0</v>
       </c>
       <c r="S48" s="19">
-        <v>0</v>
+        <v>0.583299310268654</v>
       </c>
       <c r="T48" s="19">
-        <v>8.8200573996119572E-5</v>
+        <v>0</v>
       </c>
       <c r="U48" s="19">
-        <v>5.5156426590839844E-2</v>
+        <v>0.20923165729470938</v>
       </c>
       <c r="V48" s="19" t="str">
         <f>IF(D48&lt;=J48,-(I48/D48-1),"")</f>
@@ -4034,64 +4048,64 @@
     </row>
     <row r="49" spans="2:22">
       <c r="B49" s="4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D49" s="20">
-        <v>24.5</v>
+        <v>52.95</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F49" s="26">
-        <v>8.0109453413185125</v>
+        <v>17.20539409982009</v>
       </c>
       <c r="G49" s="19">
-        <v>6.0408163265306125E-2</v>
+        <v>2.6284837782814475E-2</v>
       </c>
       <c r="H49" s="20">
-        <v>14.948371756772246</v>
+        <v>30.750027018006087</v>
       </c>
       <c r="I49" s="20">
-        <v>12.706115993256409</v>
+        <v>26.137522965305173</v>
       </c>
       <c r="J49" s="20">
-        <v>22.889262817505124</v>
+        <v>47.085091374025595</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M49" s="16">
-        <v>45593</v>
+        <v>45633</v>
       </c>
       <c r="N49" s="16">
         <v>45716</v>
       </c>
       <c r="O49" s="19">
-        <v>2.8609905101246377E-2</v>
+        <v>0.646070039633309</v>
       </c>
       <c r="P49" s="19">
-        <v>0.11648068007266453</v>
+        <v>5.2294478730373475E-2</v>
       </c>
       <c r="Q49" s="19">
-        <v>1.9313252769435827E-2</v>
+        <v>0</v>
       </c>
       <c r="R49" s="19">
         <v>0</v>
       </c>
       <c r="S49" s="19">
-        <v>0.54295694135635775</v>
+        <v>0</v>
       </c>
       <c r="T49" s="19">
         <v>0</v>
       </c>
       <c r="U49" s="19">
-        <v>0.29263922070029547</v>
+        <v>0.30163548163631754</v>
       </c>
       <c r="V49" s="19" t="str">
         <f>IF(D49&lt;=J49,-(I49/D49-1),"")</f>
@@ -4100,34 +4114,34 @@
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D50" s="20">
-        <v>95.75</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F50" s="26">
-        <v>6.6237145131275055</v>
+        <v>6.5526792074278228</v>
       </c>
       <c r="G50" s="19">
-        <v>2.438388505741448E-2</v>
+        <v>5.7526607015368936E-2</v>
       </c>
       <c r="H50" s="20">
-        <v>19.839112348921965</v>
+        <v>19.282779722095789</v>
       </c>
       <c r="I50" s="20">
-        <v>16.863245496583669</v>
+        <v>16.390362763781422</v>
       </c>
       <c r="J50" s="20">
-        <v>30.378068194267282</v>
+        <v>28.723905573927102</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L50" s="6" t="s">
         <v>25</v>
@@ -4139,25 +4153,25 @@
         <v>45716</v>
       </c>
       <c r="O50" s="19">
-        <v>3.4550297712315887E-2</v>
+        <v>1.8627626781429586E-2</v>
       </c>
       <c r="P50" s="19">
-        <v>0.30165569831818656</v>
+        <v>0.25828274030620524</v>
       </c>
       <c r="Q50" s="19">
-        <v>0</v>
+        <v>3.9962087250557162E-3</v>
       </c>
       <c r="R50" s="19">
         <v>0</v>
       </c>
       <c r="S50" s="19">
-        <v>0.50814791601378884</v>
+        <v>0.34356507928375646</v>
       </c>
       <c r="T50" s="19">
         <v>0</v>
       </c>
       <c r="U50" s="19">
-        <v>0.15564608795570867</v>
+        <v>0.37552834490355302</v>
       </c>
       <c r="V50" s="19" t="str">
         <f>IF(D50&lt;=J50,-(I50/D50-1),"")</f>
@@ -4166,85 +4180,85 @@
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" s="20">
-        <v>36.4</v>
+        <v>3.75</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F51" s="26">
-        <v>6.5079151361249927</v>
+        <v>4.0804133421927258</v>
       </c>
       <c r="G51" s="19">
-        <v>5.7922298275070748E-2</v>
+        <v>8.5648132960001622E-2</v>
       </c>
       <c r="H51" s="20">
-        <v>19.292758427280631</v>
+        <v>3.344821290194008</v>
       </c>
       <c r="I51" s="20">
-        <v>16.398844663188537</v>
+        <v>2.8430980966649066</v>
       </c>
       <c r="J51" s="20">
-        <v>28.738769996464224</v>
+        <v>4.9824938253638598</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M51" s="16">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="N51" s="16">
         <v>45716</v>
       </c>
       <c r="O51" s="19">
-        <v>1.8627626781429586E-2</v>
+        <v>1.1832950701880444E-2</v>
       </c>
       <c r="P51" s="19">
-        <v>0.25828274030620524</v>
+        <v>0.19534620844359546</v>
       </c>
       <c r="Q51" s="19">
-        <v>3.9962087250557162E-3</v>
+        <v>0</v>
       </c>
       <c r="R51" s="19">
         <v>0</v>
       </c>
       <c r="S51" s="19">
-        <v>0.34356507928375646</v>
+        <v>0</v>
       </c>
       <c r="T51" s="19">
-        <v>0</v>
+        <v>0.49757189674208302</v>
       </c>
       <c r="U51" s="19">
-        <v>0.37552834490355302</v>
-      </c>
-      <c r="V51" s="19" t="str">
+        <v>0.29524894411244107</v>
+      </c>
+      <c r="V51" s="19">
         <f>IF(D51&lt;=J51,-(I51/D51-1),"")</f>
-        <v/>
+        <v>0.24184050755602493</v>
       </c>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D52" s="20">
-        <v>196.6</v>
+        <v>191.8</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F52" s="26">
-        <v>74.226058796860883</v>
+        <v>72.315906764145467</v>
       </c>
       <c r="G52" s="19">
         <v>0</v>
@@ -4298,231 +4312,399 @@
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D53" s="20">
-        <v>1.67</v>
+        <v>5.42</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F53" s="26">
-        <v>-24.274426488990347</v>
+        <v>15.156304876812513</v>
       </c>
       <c r="G53" s="19">
-        <v>6.4021196669923092E-2</v>
+        <v>6.1549719165905223E-2</v>
       </c>
       <c r="H53" s="20">
-        <v>1.0068620205560828</v>
+        <v>4.3615869298538241</v>
       </c>
       <c r="I53" s="20">
-        <v>0.85583271747267031</v>
+        <v>3.7073488903757505</v>
       </c>
       <c r="J53" s="20">
-        <v>1.4998361243159517</v>
+        <v>6.2865402767609719</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>35</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="M53" s="16">
-        <v>45593</v>
+        <v>45605</v>
       </c>
       <c r="N53" s="16">
         <v>45716</v>
       </c>
       <c r="O53" s="19">
-        <v>0.39325092997635303</v>
+        <v>0.35166796085418528</v>
       </c>
       <c r="P53" s="19">
-        <v>0.81977588376563215</v>
+        <v>0.43886385985236792</v>
       </c>
       <c r="Q53" s="19">
-        <v>3.1621500776708874E-3</v>
+        <v>0</v>
       </c>
       <c r="R53" s="19">
         <v>0</v>
       </c>
       <c r="S53" s="19">
-        <v>9.5705744879944314E-3</v>
+        <v>2.7202256703967287E-3</v>
       </c>
       <c r="T53" s="19">
-        <v>1.5672463941809065E-4</v>
+        <v>0</v>
       </c>
       <c r="U53" s="19">
-        <v>-0.22591626294706857</v>
-      </c>
-      <c r="V53" s="19" t="str">
+        <v>0.2067479536230501</v>
+      </c>
+      <c r="V53" s="19">
         <f>IF(D53&lt;=J53,-(I53/D53-1),"")</f>
-        <v/>
+        <v>0.31598728959857003</v>
       </c>
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="4" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D54" s="20">
-        <v>82.35</v>
+        <v>1.91</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="26">
-        <v>14314.669922826024</v>
+        <v>39.371294751768012</v>
       </c>
       <c r="G54" s="19">
-        <v>1.1684742998772849E-2</v>
+        <v>6.6029777897174027E-2</v>
       </c>
       <c r="H54" s="20">
-        <v>3.9738572058607265E-2</v>
+        <v>1.5258728892782556</v>
       </c>
       <c r="I54" s="20">
-        <v>3.3777786249816172E-2</v>
+        <v>1.2969919558865173</v>
       </c>
       <c r="J54" s="20">
-        <v>5.9195147582698851E-2</v>
+        <v>2.0916524868949375</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="M54" s="16">
-        <v>45624</v>
+        <v>45593</v>
       </c>
       <c r="N54" s="16">
-        <v>45808</v>
+        <v>45716</v>
       </c>
       <c r="O54" s="19">
-        <v>0.62297379426414834</v>
+        <v>0.55541924442229906</v>
       </c>
       <c r="P54" s="19">
-        <v>0.22247037723339511</v>
+        <v>0.37949349616392825</v>
       </c>
       <c r="Q54" s="19">
-        <v>3.796700836974199E-4</v>
+        <v>1.8148224946381651E-3</v>
       </c>
       <c r="R54" s="19">
         <v>0</v>
       </c>
       <c r="S54" s="19">
-        <v>8.4437634938714454E-3</v>
+        <v>6.208277497005729E-4</v>
       </c>
       <c r="T54" s="19">
-        <v>0</v>
+        <v>1.2789175437999239E-2</v>
       </c>
       <c r="U54" s="19">
-        <v>0.14573239492488765</v>
-      </c>
-      <c r="V54" s="19" t="str">
+        <v>4.9862433731434744E-2</v>
+      </c>
+      <c r="V54" s="19">
         <f>IF(D54&lt;=J54,-(I54/D54-1),"")</f>
-        <v/>
+        <v>0.32094661995470297</v>
       </c>
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D55" s="20">
-        <v>90.5</v>
+        <v>2.79</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F55" s="26">
-        <v>136.40447155371396</v>
+        <v>5.8969271061723179</v>
       </c>
       <c r="G55" s="19">
-        <v>3.3326888286825925E-3</v>
+        <v>8.0582920795700452E-2</v>
       </c>
       <c r="H55" s="20">
-        <v>4.7518154747802885</v>
+        <v>2.2872624739007823</v>
       </c>
       <c r="I55" s="20">
-        <v>4.0390431535632452</v>
+        <v>1.9441731028156648</v>
       </c>
       <c r="J55" s="20">
-        <v>7.0783725670999784</v>
+        <v>3.4071390261140384</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M55" s="16">
-        <v>45630</v>
+        <v>45606</v>
       </c>
       <c r="N55" s="16">
         <v>45716</v>
       </c>
       <c r="O55" s="19">
+        <v>0.19853855217217412</v>
+      </c>
+      <c r="P55" s="19">
+        <v>0.15821181625248168</v>
+      </c>
+      <c r="Q55" s="19">
+        <v>1.3644023113167324E-3</v>
+      </c>
+      <c r="R55" s="19">
+        <v>0</v>
+      </c>
+      <c r="S55" s="19">
+        <v>0.51643948647548221</v>
+      </c>
+      <c r="T55" s="19">
+        <v>0</v>
+      </c>
+      <c r="U55" s="19">
+        <v>0.12544574278854531</v>
+      </c>
+      <c r="V55" s="19">
+        <f>IF(D55&lt;=J55,-(I55/D55-1),"")</f>
+        <v>0.30316376243166132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="20">
+        <v>1.72</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="26">
+        <v>-24.967398860231594</v>
+      </c>
+      <c r="G56" s="19">
+        <v>6.2244282674419782E-2</v>
+      </c>
+      <c r="H56" s="20">
+        <v>0.9998347487260707</v>
+      </c>
+      <c r="I56" s="20">
+        <v>0.84985953641716006</v>
+      </c>
+      <c r="J56" s="20">
+        <v>1.4893681992866423</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M56" s="16">
+        <v>45593</v>
+      </c>
+      <c r="N56" s="16">
+        <v>45716</v>
+      </c>
+      <c r="O56" s="19">
+        <v>0.39325092997635303</v>
+      </c>
+      <c r="P56" s="19">
+        <v>0.81977588376563215</v>
+      </c>
+      <c r="Q56" s="19">
+        <v>3.1621500776708874E-3</v>
+      </c>
+      <c r="R56" s="19">
+        <v>0</v>
+      </c>
+      <c r="S56" s="19">
+        <v>9.5705744879944314E-3</v>
+      </c>
+      <c r="T56" s="19">
+        <v>1.5672463941809065E-4</v>
+      </c>
+      <c r="U56" s="19">
+        <v>-0.22591626294706857</v>
+      </c>
+      <c r="V56" s="19" t="str">
+        <f>IF(D56&lt;=J56,-(I56/D56-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="20">
+        <v>82.75</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="26">
+        <v>14364.75035155401</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1.1644005991541006E-2</v>
+      </c>
+      <c r="H57" s="20">
+        <v>3.9792331233958374E-2</v>
+      </c>
+      <c r="I57" s="20">
+        <v>3.3823481548864616E-2</v>
+      </c>
+      <c r="J57" s="20">
+        <v>5.9275228022281322E-2</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M57" s="16">
+        <v>45624</v>
+      </c>
+      <c r="N57" s="16">
+        <v>45808</v>
+      </c>
+      <c r="O57" s="19">
+        <v>0.62297379426414834</v>
+      </c>
+      <c r="P57" s="19">
+        <v>0.22247037723339511</v>
+      </c>
+      <c r="Q57" s="19">
+        <v>3.796700836974199E-4</v>
+      </c>
+      <c r="R57" s="19">
+        <v>0</v>
+      </c>
+      <c r="S57" s="19">
+        <v>8.4437634938714454E-3</v>
+      </c>
+      <c r="T57" s="19">
+        <v>0</v>
+      </c>
+      <c r="U57" s="19">
+        <v>0.14573239492488765</v>
+      </c>
+      <c r="V57" s="19" t="str">
+        <f>IF(D57&lt;=J57,-(I57/D57-1),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="20">
+        <v>92.4</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="26">
+        <v>139.07989205773868</v>
+      </c>
+      <c r="G58" s="19">
+       